--- a/output/Total_time_range_data/辽宁省/葫芦岛市_学习考察.xlsx
+++ b/output/Total_time_range_data/辽宁省/葫芦岛市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6078 +436,6650 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>47</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>我市党政代表团赴盘锦市学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/xwdt/zwyw/202405/t20240520_1175839.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['本报讯 记者薛利超报道 5月17日，我市党政代表团赴盘锦市考察学习。当日下午，两市举行合作交流座谈会，深入学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，贯彻落实辽宁全面振兴新突破三年行动领导小组工作调度会议部署要求，进一步加强葫盘两市区域协同、深化务实合作，为打好打赢三年行动攻坚之年攻坚之战蓄势赋能。市委书记杨军生出席座谈会并讲话。盘锦市委书记王炳森主持座谈会并讲话。盘锦市委副书记、市长邢鹏出席座谈会并介绍盘锦市经济社会发展情况。', '杨军生代表葫芦岛市委、市政府对盘锦市长期以来对葫芦岛经济社会发展的关心支持表示衷心的感谢。他说，葫盘两市作为兄弟城市，产业基础高度契合、资源禀赋优势互补、共赢发展大势所趋，拥有广阔的合作空间、发展前景。希望两市深化产业共兴，聚焦精细化工、海工装备、农产品深加工等优势产业，加强资源共享、园区共建、市场共拓，携手构建现代化产业体系；深化创新共进，共同搭建项目、人才、资本等资源融创发展平台，携手发展新质生产力；深化文旅共通，加强文旅资源开发合作，整合优质资源，推动客源互送，携手推进文旅资源开发利用；深化港城共融，加强对内对外开放合作，协同推动岸线高效集约利用，大力发展海洋经济，携手打造开放合作新前沿；深化生态共治，加强海洋生态治理和海岸线等生态资源保护，开展渤海海域环境共治共保，携手建设美丽宜居滨海城市，走出高质量发展、可持续振兴的新路子。', '王炳森代表盘锦市委、市政府对葫芦岛市党政代表团来盘考察表示欢迎，对葫芦岛长期以来给予盘锦振兴发展的支持和帮助表示感谢。他说，葫盘两市作为兄弟城市，地缘相近、人文相亲，交流合作空间广阔、潜力很大。我们愿同葫芦岛一道，进一步深化产业协作，在石化及精细化工、清洁能源等领域，寻找产业共通点、融合点；深化协同创新，积极推动两市科研平台、科研院所和企业对接合作，不断培育壮大新质生产力；深化互联互通，推动两市之间港口、公路、铁路的互联互通，共同融入东北海陆大通道建设；深化文旅合作，共同举办文旅活动、策划精品旅游线路、做大海洋旅游品牌；深化生态共治，积极推进近岸海域综合治理，共建美丽海湾；深化人文交流，建立人才信息共享交流机制，共同维护国家“五大安全”，为辽宁全面振兴、辽宁沿海经济带高质量发展作出更大的贡献。', '在盘锦期间，我市党政代表团一行深入到盘锦辽滨经开区新材料产业科创中心，学习借鉴打造石油化工及新材料产业链先进经验；来到华锦阿美精细化工及原料工程项目现场，了解乙烯装置、煤制氢装置建设进展情况，学习考察企业安全和质量管理工作；在广厦艺术街，先后来到云峰画苑、盘锦苇艺工作室、盘锦幸福道地域特产展厅，调研书画及特色文创、特色非遗项目传承发展、农文创商品及农业衍生品销售工作，考察学习盘锦市深入打造特色文旅品牌；来到东北新发地农产品供应链中心，学习借鉴建设农产品供应链、智慧冷链仓储成功经验；在光学电子产业基地，参观高端马达制造生产车间，考察学习“信息化+自动化+大数据+标准化”智慧化光学电子产业基地建设；来到盘锦研峰科技有限公司，了解中试产业基地发展情况，学习借鉴企业高端精细化学品研发和创新发展先进经验，深入谋划两市合作发展路径。', '市委常委、副市长周战杰介绍葫芦岛市经济社会发展情况。市领导刘占元、范炳吉、袁伶，盘锦市领导李群、刘占明、段家喜、郭克敏、贾洪琳、杨凯等参加相关活动。各县（市）区、市属开发区、市直有关部门负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>47</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>荒地镇发展特色产业助力乡村振兴</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/xzdt/202404/t20240425_1173904.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['乡村振兴，产业先行。近年来，荒地镇以全面推进乡村振兴为目标，因地制宜，引导种植大户大力发展特色产业，为广大村民群众增收致富拓宽新渠道，为乡村振兴注入新活力。', '好雨知时节，当春乃发生。在荒地镇西台屯村的软枣猕猴桃种植基地，土壤回温、雨水滋润，50余亩软枣猕猴桃已展露新芽。据种植大户王忠秀介绍，17年起，他前往丹东等地考察学习，发现软枣猕猴桃市场前景广阔，且抗寒性强，非常适合东北地区种植，在种植管护上冬季不用下架埋土防寒，抗逆性也非常好，病虫害少，是东北地区特色浆果。2018年初从丹东市农科院引进魁绿、龙成二号等优势品种进行规模种植，幼苗经历3年幼树期开始结果，今年将是西台屯村软枣猕猴桃挂果的第4个年头，果树也逐渐进入盛果期，亩产达2000多斤，每年8月下旬开始成熟上市，采摘期能一直持续到十一前后。', '好雨知时节，当春乃发生。在荒地镇西台屯村的软枣猕猴桃种植基地，土壤回温、雨水滋润，', '50余亩软枣猕猴桃已展露新芽。据种植大户王忠秀介绍，17年起，他前往丹东等地考察学习，发现软枣猕猴桃市场前景广阔，且抗寒性强，非常适合东北地区种植，在种植管护上冬季不用下架埋土防寒，抗逆性也非常好，病虫害少，是东北地区特色浆果。2018年初从丹东市农科院引进魁绿、龙成二号等优势品种进行规模种植，幼苗经历3年幼树期开始结果，今年将是西台屯村软枣猕猴桃挂果的第4个年头，果树也逐渐进入盛果期，亩产达2000多斤，每年8月下旬开始成熟上市，采摘期能一直持续到十一前后。', '特色软枣猕猴桃树的种植成功，不仅实现了农户的增收致富，还为荒地镇特色产业的发展趟出了新路子，指明了新方向，跑出了加速度。', '接下来，荒地镇将继续加快特色产业、现代农业发展步伐，鼓励引导农民积极调整农业种植结构，发展软枣猕猴桃、蓝莓、葡萄等特色农业产业，奋力为荒地镇擘画出农民增收、农业增效、农村变美的乡村振兴场景。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>47</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>区委统战部区工商联组织开展参观考察活动</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-04-10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/qndt/202404/t20240410_1172598.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['近日，区委统战部、区工商联以“助力民营经济发展、促进连山全面振兴”为主题，紧紧围绕项目建设、新业态发展、产业联盟建设等方面，组织部分民营企业家到辽宁葫芦古镇酒业有限公司开展了考察、座谈、交流活动。', '在辽宁葫芦古镇酒业有限公司，考察团一行先后到酱香酿造车间、发酵车间、芝麻香酿造车间、粉粮车间、福禄酒窖等处进行了实地查看，听取了负责人关于品牌历史、酿造工艺、企业发展规划、市场销售等方面的情况介绍。', '辽宁葫芦古镇酒业有限公司坐落在白马石乡，一直以来，公司始终秉承“足工好料，品优地道”的经营理念，在对传统酿造工艺传承的基础上，通过不懈地探索和努力，提升企业自主科技创新能力。多年来，公司调整品牌产品结构，研发出关东葫芦王白酒系列；葫芦古镇白酒系列等中、高端产品10余个，年优质白酒生产量达千吨。2023年，葫芦古镇酒业生产的关东葫芦王酒在东北三省最好东北酒评选中荣获金奖；又在ISGC2023国际烈酒（中国）大奖赛中荣获金奖。', '在座谈交流会上，考察团一行一致认为，此次考察学习拓宽了视野，增长了见识，更新了理念，理清了思路，坚定了方向。纷纷表示这次学习考察触动很大、感受很深、收获很多，要把所见所学变成实实在在的举措落到实处，以新姿态、新作为推动各自企业发展再上新台阶。', '区委统战部相关负责人表示将持续强化民营企业家思想政治引领工作，将企业家紧密团结在党的周围，以学习促发展，以交流促进步，不断提升我区民营企业内生动力。区工商联将持续发挥桥梁纽带作用，积极服务企业、服务经济，为我区经济建设做出新的贡献。', '区委统战部相关负责人表示将持续强化民营企业家思想政治引领工作，将企业家紧密团结在党的周围，以学习促发展，以交流促进步，不断提升我区民营企业内生动力。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>47</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>简介</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-06-14</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/mlsz_root/dftc_leaf/202002/t20200219_881618.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['白梨是绥中特产，栽培的历史悠久，产量较高，品质优良，驰名全国。绥中的白梨原产于燕山山系。早在明代万历年间山东、河北居民迁入，在西北山区落户。后来山区人口增多，栽培的梨树也多起来，又零星栽培发展成大面积的果园，现在绥中西北秋子沟一带以及大台山地区仍有300年以上的老龄梨树。绥中白梨特异品种的形成主要有两个因素，一个是自然条件，一个是人工创造。绥中的地貌构成是“六山一水三分田”，西北多山，土质疏松，排水通气良好，气温雨量适宜，是白梨生长的优越客观条件。绥中的劳动人民长期从事梨果栽培，不断地改良、选优，逐渐培育出具有地方特质的优良果种。', '白梨是绥中特产，栽培的历史悠久，产量较高，品质优良，驰名全国。绥中的白梨原产于燕山山系。早在明代万历年间山东、河北居民迁入，在西北山区落户。后来山区人口增多，栽培的梨树也多起来，又零星栽培发展成大面积的果园，现在绥中西北秋子沟一带以及大台山地区仍有', '年以上的老龄梨树。绥中白梨特异品种的形成主要有两个因素，一个是自然条件，一个是人工创造。绥中的地貌构成是“六山一水三分田”，西北多山，土质疏松，排水通气良好，气温雨量适宜，是白梨生长的优越客观条件。绥中的劳动人民长期从事梨果栽培，不断地改良、选优，逐渐培育出具有地方特质的优良果种。', '绥中白梨的果实多为长圆形或接近圆形，萼洼小，果梗细长，果色金黄，有蜡质光泽，平均单果重125克，最大果重可达250克，果皮薄，果肉厚，果核小，肉质细，酥脆多汁，甘甜爽口。果实含多种营养成分，除生食外还可制成果干、罐头、酿造果酒、果醋，据资料记载白梨还具有生津、止渴、润肺、宽肠、强心、利尿等医疗作用。解放后，白梨发展很快，1949年全县有白梨树20万株，年产白梨580万斤。', '经过多年发展，至2022年，全县有梨园面积26.9万亩，梨树1700余万株。产量在全省名列前茅。主要分布在县境西北部低山地区宽邦、葛家、西平坡、大王庙、范家、明水、秋子沟、加碑岩、永安堡、李家堡等乡镇及中部丘陵高甸子、大台山等地区。品种以‘绥中白梨’（秋白梨）为主，占梨总量的70%左右，红香酥、花盖梨、安梨为辅，各占10%、5%，其他品种50余个。绥中白梨在国内销往20多个省、市、自治区，还远销国外，深受消费者欢迎，在国内外享有很高声誉。', '2008年，经国家工商总局批准，以绥中县果业协会名义申报的‘绥中白梨’地理标志证明商标，获得成功（有效期限自公元2009年01月21日至2019年01月20日）。2012年9月，绥中县果蚕流通信息中心选送的“关外第一仙”绥中白梨荣获第十届中国国际农产品交易会（北京）金奖。', '2015年第九届中国辽宁国际农产品交易会暨第十五届中国（沈阳）国际农业博览会 ‘绥中白梨’获优质农产品金奖。', '第九届中国辽宁国际农产品交易会暨第十五届中国（沈阳）国际农业博览会 ‘绥中白梨’获优质农产品金奖。', '2015中国农产品区域公用品牌价值评估中‘绥中白梨’品牌价值为15.62亿元人民币。', '区域品牌‘绥中白梨’在国家质量监督检验检疫总局开展的2016年区域品牌价值评价工作中，品牌价值评估为44.73亿元人民币。', '由中国园艺学会梨分会在山东省泰安市举办的第八届全国梨科研、生产与产业化研讨会暨第二届中华杯全国优质梨评比活动中，我县参评的黄冠梨、谢花甜梨获得银奖，绥中白梨、锦丰梨、红香酥、五九香、雪花梨、马蹄黄梨、京白梨、红南果梨获得优秀奖。同时获得了最佳组织奖。', '2017年区域品牌绥中白梨在国家质量监督检验检疫总局开展的价值评价工作中品牌价值评估为49.62亿元人民币。', '区域品牌绥中白梨在国家质量监督检验检疫总局开展的价值评价工作中品牌价值评估为49.62亿元人民币。', '2018区域品牌绥中白梨在国家质量监督检验检疫总局开展的价值评价工作中品牌价值评估为51.64亿元人民币。', '区域品牌绥中白梨在国家质量监督检验检疫总局开展的价值评价工作中品牌价值评估为51.64亿元人民币。', '2019年第十一届辽宁国际农业博览会第十九届沈阳国际农业博览会 绥中县白梨荣获丰收奖', '绥中县果树栽培历史悠久，资源丰富。1998年进入全国水果生产十强县行列。有果树面积60余万亩、1600多万株，年产水果40多万吨。绥中县从90年代初期开始苹果套袋栽培技术的示范推广，到2000年全县苹果套袋数量已达到3亿个，果品质量得到较大提高。2007年是省果实套袋关键技术示范补贴项目在绥中县实施的第2年，实施面积2500亩、2000万个。尽管数量有限，但对绥中县果业发展、果品质量的提高起到了积极的推动作用。至2022年低，全县苹果树栽培面积达48.7万亩，产量70余万吨，主栽品种有红富士、寒富、金冠、乔纳金、王林、嘎拉、珊夏（山沙）等。', '绥中县西北多山，土质疏松，排水通气良好，气温雨量适宜，非常适合核桃栽培，很早就有了优良品种。绥中核桃具有结果早、产量高、皮薄、指捏即开、可取整仁的独特品质。', '近年来，随着产业结构调整，县委、县政府高度重视核桃产业的发展，把发展核桃产业作为山区、半山区人民群众脱贫致富的重要途径来抓，鼓励扶持广大农民群众大力发展核桃产业。截止目前，绥中县发展成规模核桃园3000亩，分布在高台、沙河、前卫、高甸子、范家、明水等乡镇。经过县林业技术推广部门技术跟踪和检查验收，现平均保存率达90%以上，苗木长势良好，并已全部进入结果期，核桃产量保持在220吨以上，核桃出仁率达65%以上，核仁出油率达50%，核桃产业已逐步成为我县农民增收致富的又一支柱产业。', '近年来，随着产业结构调整，县委、县政府高度重视核桃产业的发展，把发展核桃产业作为山区、半山区人民群众脱贫致富的重要途径来抓，鼓励扶持广大农民群众大力发展核桃产业。截止目前，绥中县发展成规模核桃园', '亩，分布在高台、沙河、前卫、高甸子、范家、明水等乡镇。经过县林业技术推广部门技术跟踪和检查验收，现平均保存率达', '做豆腐要用质量较好的黄豆，用凉水或温水浸泡豆子，待豆子充分膨胀后，用磨磨成浆，且磨得越细越好。过去都用石磨，尤以 “毛驴拉小豆腐”最为出名。现在已普遍使用电磨。磨出的豆浆用豆腐包过滤，再把豆浆熬开，火候一定要把握好，不能糊，否则豆腐有苦味。把熬好的豆浆舀到其他保温的容器里，用卤水点。点豆腐是技术活，也是做水豆腐的关键。在桌子上置好盆和柳条笊篱，用专用的勺子把豆腐舀到笊篱里，顿时香味扑鼻。同时配一碟装有蒜末、辣椒末、韭菜花和香菜叶的调味品。辣椒末是红辣椒干炸的，香菜一定是没有茎的嫩叶。', '吃豆腐还必须有卤，一般是肉卤。主食是高粱米饭。吃水豆腐时，先把卤舀到碟里，按个人口味配上蒜末、辣椒末、韭菜花和香菜末，再用筷子把豆腐夹到碟里，这样就可以享用美食了。', '绥中水豆腐还有多种吃法，可以做成水豆腐、大豆腐、干豆腐。大豆腐吃不了，可以用盐腌一下，晾成豆腐干。', '粘豆包是绥中人春节期间喜欢吃的一种粘食，用黄米面和小豆馅自制而成。粘豆包最早是供祖先用的祭品，也是满族人出门打猎时的食物。粘豆包一般是在冬季开始的时候制作，然后放入户外的缸中保存过冬。一切工艺源自于天然，属传统天然食品的典范。粘豆包不但营养均衡，更包涵了古老的文化传承，是粗粮细作的先河。', '粘豆包大都是黄米面做成，馅是豇豆、红小豆或绿豆的。黄米面是由糜子磨成，糜子品种也不一样，有黑糜子、红糜子，他们的粘度色泽大不相同。黑糜子比红糜子粘，且色泽光亮，相比红糜子就淡了许多。好豆包要四看：一看外形；二看色泽；三看馅质；四看底垫。最好的造型是底宽上窄，光滑圆润，小巧玲珑。', '第一步“淘米”：先把大黄米泡上半日，然后淘净沙子。之后晾大半干，磨成面，再用冷水和面，像做白面馒头那样进行“发酵”。待发出酸味，开始用手揉面。这一步关系着整个粘豆包制作的成功与否，也关系到口味和色泽。', '第二步是制馅。将红小豆或大芸豆煮熟(不可煮破皮)，捣成豆沙酱，放入细沙糖，攥成核头大的馅团，备用。这一步掌握煮豆的水分和火候至关重要，干了稀了都不可以。', '第三步是用揉好的黄米面将豆馅团包入里面，团成豆包状，放入波罗叶（苏子叶）的屉中大火蒸二十分钟，即可出锅。（也可不放苏子叶，改垫其他东西，只要能捡起来豆包即可）豆包底垫有苏子叶、玉米叶、高粱叶和白菜叶等。农家最常用的是玉米叶做垫，秋天把玉米叶洗净一扎扎晾干备用，玉米叶垫干爽不粘豆包，一拎一拉豆包就干干净净落在碗里了；苏子叶和白菜叶因为薄，一蒸就和豆包形成一体了，不好揭，就不用揭垫了，可与豆包一并食用。底垫各具特色，各有千秋。', '粘豆包一般都是在冬季把粘豆包包好，蒸出锅后放在盖帘上，放置在室外冻上。等吃时放在锅里热透了就可以。 可蘸白糖吃，吃其香甜粘；也可拍成小圆饼用油煎吃，香酥脆。', '2008年，网户乡到凌源等地学习花卉种植技术，强力推进花卉产业发展。截至2015年，已有花卉大棚450座，占地600亩。一年可收获两茬，年均经济效益可实现4500万元，从事花卉种植、销售的农民已达数百人。花卉品种以百合为主，主要销往北京、上海、深圳等地。', '1、指导思想：坚持“政府引导，市场运作，基地带动，农户参与”的基本原则，建立花卉生产基地，培植花卉生产龙头企业，把资源优势转化为产业优势和经济优势。倾力将李哈村花卉基地打造成大规模百合花市场，形成关外花卉集散地，精心打造引领全乡经济发展的“花卉之乡”这一主题。', '2、产业链条：引进生物技术公司进入网户乡，建立花卉组培生产基地和种苗繁殖场，为花卉产业发展提供优质种苗供应。设立花卉服务机构，负责搞好花卉基地的治安、环保、卫生管理，代办花卉企业的工商、税务登记、注册、年审等各种手续。', '3、科技支撑：聘请科研院所和大专院校的相关专家及技术能手、乡土专家，进行技术指导和培训，构建技术服务体系。', '4、进口种球：与荷兰马克百合育种公司签署百合专利品种繁殖授权协议书，由荷兰马克公司统一提供种球，改变了品种多、乱、杂的局面。', '5、销售渠道：组建花卉营销队伍，建立完善的市场营销体系；利用互联网等信息手段为花商、花农搭建产业信息平台，开展网络销售；以花卉龙头产业为依托，运用“公司+基地+农户”的模式，发展签约花卉种植。', '6、品牌培育：“网户花卉”注册成专利商标，网户乡的花卉产业已经拥有自己的花卉品牌。2011年8月，举办了网户乡第一届百合花卉文化节，网户已经成为远近闻名的“百合之乡”。', '蓝莓原产自美洲，由于蓝莓果实中含有丰富的果胶、花青素，维生素C等营养成分，被称为“水果皇后”，是国际公认的人类五大健康食品之一。目前，全世界有近20个国家和地区开始蓝莓产业化栽培，市场容量大，处于供不应求状态，而蓝莓鲜果在国际市场上也是售价昂贵。', '2008年，王宝镇村民张万国从丹东东港市引进了8千多株蓝莓幼苗，发展反季节蓝莓。 经过三年的精心种植，初见成效，每个大棚都能出六七万元。', '2011年，为了让王宝镇的蓝莓产业在绥中做大做强，在镇政府的支持下，张万国在王宝镇成立蓝莓合作社。镇政府还积极组织村干部外出考察学习，增加村民对蓝莓产业的认识，扩大蓝莓的种植规模，建起了辽西地区第一家蓝莓种植园，使王宝镇成为全省规模最大的蓝莓种植基地。蓝莓种植合作社为社员提供苗木、技术服务等，实行订单生产，保证蓝莓不愁销路。同时，合作社还注册了“万国牌蓝莓”商标，在全国创出了品牌。目前，王宝镇的蓝莓合作社已发展社员300余人，发展蓝莓种植面积3400余亩。', '年，为了让王宝镇的蓝莓产业在绥中做大做强，在镇政府的支持下，张万国在王宝镇成立蓝莓合作社。镇政府还积极组织村干部外出考察学习，增加村民对蓝莓产业的认识，扩大蓝莓的种植规模，建起了辽西地区第一家蓝莓种植园，使王宝镇成为全省规模最大的蓝莓种植基地。蓝莓种植合作社为社员提供苗木、技术服务等，实行订单生产，保证蓝莓不愁销路。同时，合作社还注册了“万国牌蓝莓”商标，在全国创出了品牌。目前，王宝镇的蓝莓合作社已发展社员', '辽宁豪远蓝莓食品有限公司是王宝镇引进的一家专门以育苗、种植、收购、存储、加工为主的企业。这家企业分三期完成“王宝镇蓝莓生产基地”建设，其中一期已经投资4000万元，完成了500亩建棚，主要为育苗和生产展示棚。2018年，蓝莓产量达40万斤，产值实现1500万元以上。种植的蓝莓已远销北京、上海、深圳、沈阳等地，并且供不应求。王宝镇也成为远近闻名的蓝莓生产专业镇。', '辽宁豪远蓝莓食品有限公司是王宝镇引进的一家专门以育苗、种植、收购、存储、加工为主的企业。这家企业分三期完成“王宝镇蓝莓生产基地”建设，其中一期已经投资', '万元以上。种植的蓝莓已远销北京、上海、深圳、沈阳等地，并且供不应求。王宝镇也成为远近闻名的蓝莓生产专业镇。', '生姜别称白姜、川姜等，为姜科姜属多年生草本植物，在我国的食用及药用历史很长，开发利用也比较早，是一种很有开发利用价值的经济作物。绥中县塔山屯镇是辽宁省最大、东北三省著名的生姜生产之乡，而全镇60%以上的生姜产自大施宝村，可称得上是辽宁生姜生产第一村。', '生姜喜欢温暖、湿润的气候，耐寒和抗旱能力较弱，植株只能无霜期生长，生长最适宜温度是25-28℃；姜耐阴而不耐强日照，姜的根系不发达，耐旱抗涝性能差，喜欢肥沃疏松的壤土或沙壤土。塔山屯镇处于南温带亚湿润区季风型大陆性气候。年平均气温9.1℃。七月平均气温24.3℃，最高气温36.7℃。 年平均降水量645毫米，无霜期174天。土壤多为壤土，塔山屯镇种植生姜有得天独厚的自然条件。', '上世纪九十年代，大施宝村于姓村民尝试种植生姜，并在秋天用背篓贩运到锦州、葫芦岛菜市场贩卖，由于生姜亩产最高可达万斤，品质又好，他们成了先富起来的一部分村民。随着生产农机具的进步，全村70％的村民种植生姜。曾经全村4090亩耕地，种植了近2000亩生姜，一等品最高价格每斤3.5元，每亩最高存利润达2万元，全村经济总收入仅此一项达3000万元以上。大施宝村带动了全镇农民的种姜热情，也成了东北生姜生产销售集散地，同时生姜种植带动了运输、洗姜厂、仓储业应运而生，富余劳力得到安置。2018年全镇生姜种植面积3000亩，年产生姜15000吨，销售额6000万元。2022年全镇生姜种植面积3500亩，产生姜22000吨，产值达到9000万元。', '上世纪九十年代，大施宝村于姓村民尝试种植生姜，并在秋天用背篓贩运到锦州、葫芦岛菜市场贩卖，由于生姜亩产最高可达万斤，品质又好，他们成了先富起来的一部分村民。随着生产农机具的进步，全村70％的村民种植生姜。曾经全村4090亩耕地，种植了近2000亩生姜，一等品最高价格每斤3.5元，每亩最高存利润达2万元，全村经济总收入仅此一项达3000万元以上。大施宝村带动了全镇农民的种姜热情，也成了东北生姜生产销售集散地，同时生姜种植带动了运输、洗姜厂、仓储业应运而生，富余劳力得到安置。2018年全镇生姜种植面积3000亩，年产生姜15000吨，销售额6000万元。', '塔山屯镇生姜有30多年的种植历史，生姜种植专业合作社确保农户施用有机肥、生态农药，产品质检有保证，他们的生姜以姜块肥大、皮薄丝少、辣浓味美、色泽鲜润而著称，高品质产生姜出口到韩国、日本。生姜产业已成为塔山屯镇生态高效农业的一张名片。', '小庄子镇是农业大镇，多年来以马铃薯为主要经济作物的农业经济发展迅速，素有“马铃薯之乡”的称号。2022年，小庄子镇马铃薯种植面积2万余亩，产量8万吨左右，产值达到1.5亿元。', '小庄子镇是农业大镇，多年来以马铃薯为主要经济作物的农业经济发展迅速，素有“马铃薯之乡”的称号。', '小庄子镇马铃薯种植从90年代开始，至今已有近30多年的历史，多年来陆续引进了地膜覆盖和小拱棚和大冷棚种植技术，并引进了“早大白”、“中薯”等新品种，马铃薯种植产量和产值都有了明显的提高，农民收入也增加了。全镇15个村均发展种植马铃薯，其中以永安村、打雀村、凌家村、大李村、张安村、小庄子村等村实现80%规模以上耕地种植马铃薯，“一村一品”示范村、“一镇一业”发展马铃薯种植业的模式已在小庄子镇形成。小庄子镇目前有“打雀村”、“刘会长”和“瑞州小庄子土豆”三个农产品品牌，都通过了国家无公害产品产地认证，产品和连锁超市对接并签定了销售协议。', '绥中县王宝镇从实际出发，因地制宜，大力开展农业生产结构调整。在镇党委和政府的积极引导下，全镇大根萝卜种植面积从无到有，2022年全镇大根萝卜种植面积1.2万亩，萝卜条年产量已达6700吨，产值达1.4亿元, 全镇农民人均年收入增加1,200元。如今，王宝镇已经成为国内较大的大根萝卜条加工基地和销售集散地。其产品大根萝卜条远销浙江、福建，出口日本、韩国。大根萝卜种植已发展成为带动全镇人民致富的产业。', '绥中县王宝镇从实际出发，因地制宜，大力开展农业生产结构调整。在镇党委和政府的积极引导下，全镇大根萝卜种植面积从无到有，', '。如今，王宝镇已经成为国内较大的大根萝卜条加工基地和销售集散地。其产品大根萝卜条远销浙江、福建，出口日本、韩国。大根萝卜种植已发展成为带动全镇人民致富的产业。', '针对种植户缺技术、缺信息的现状，镇政府每年都开展3次以上的技术培训，请县蔬菜办的技术人员讲课，年发放科技资料3,000多份。另外，镇政府出资成立了王宝镇大根萝卜协会和王宝镇蔬菜协会，为农民提供产前、产中、产后服务，为农民提供了组织保障。王宝镇已经被评为国家级大根萝卜种植基地，并获得国家级绿色无公害认证。现在大根萝卜产业已成为王宝传统优势产业。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>47</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>习近平总书记关切事三北工程攻坚战一线见闻</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-06-06</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/xwdt/mtjj/202406/t20240606_1177481.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['加强荒漠化综合防治，深入推进“三北”等重点生态工程建设，事关我国生态安全、事关强国建设、事关中华民族永续发展。', '2023年6月6日，习近平总书记主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会并发表重要讲话，强调“努力创造新时代中国防沙治沙新奇迹”，提出“力争用10年左右时间，打一场‘三北’工程攻坚战”。', '一年来，“三北”工程攻坚战围绕荒漠化治理的重点、难点加速推进，更加浓郁的绿色在祖国北疆不断铺展。', '6月骄阳似火。看着县城东边最后一片流动沙丘也被草方格牢牢罩住，宁夏吴忠市盐池县林草服务中心主任孙果吁了一口气，20多年悬着的心终于放下了。', '20世纪80年代，盐池县沙化土地面积占比超过82%。一夜狂风过境，沙子堆得和房顶一样高。经过几十年努力，全县200万余亩严重沙化土地重披绿装，唯独剩下与内蒙古鄂尔多斯市鄂托克前旗交界的这片沙丘迟迟未能治理，明晃晃一片，成了孙果一块“心病”。', '“难就难在沙丘跨省了。”孙果说，过去治沙往往以行政区划为单位，各治各的，一些省市县交界处反而容易留下林草带断档盲点，虽然面积不大，却直接影响治沙成效，成为“三北”工程的攻坚难点。', '习近平总书记提出，要强化区域联防联治，打破行政区域界限，实行沙漠边缘和腹地、上风口和下风口、沙源区和路径区统筹谋划，构建点线面结合的生态防护网络。', '闻令而动，共同攻坚!去年10月，陕甘蒙宁四省区五地共同签订《毛乌素沙地区域联防联治合作协议》，将单打独斗变为抱团共进，从四周向中心织网锁沙。', '协议签署次月，盐池县就与鄂托克前旗“双向奔赴”。盐池县投资治理的3000多亩沙地，最近刚刚完工，其中1000多亩在鄂托克前旗境内。不远处的鄂托克前旗毛乌素沙地蒙陕宁联防联治二道川作业区，当地农牧民正忙着栽种沙柳，加速构建上风口阻隔带。', '孙果告诉记者，盐池县的治沙队伍刚进入内蒙古时，还曾发生一段小“插曲”。个别村民担心发生地界纠纷，上前阻挡工人：“这是我们的地，你们治了以后就成你们的了?”两地基层干部耐心消除误会：“地当然还是各自的，但沙害面前不分你我，大家联手打个歼灭战，环境好了大家都好。”如今，两地林草部门已协议共同禁牧，管护好来之不易的治理成果。', '“三北”工程攻坚战打响以来，在国家林草局等部门协调推动下，联防联治新局面不断拓展：不仅黄河“几字弯”攻坚战区围绕毛乌素沙地开展了联防联治，甘肃和内蒙古共同构筑四大阻击防线，阻止巴丹吉林沙漠和腾格里沙漠“握手”，青海、甘肃、新疆也围绕各自主要风沙口部署了阻击点，构建同向发力的新格局。', '在内蒙古巴彦淖尔市杭锦后旗治沙新品种苗木示范区，400多亩草方格里，栽植两个多月的沙木蓼、四翅滨藜大多长到40厘米左右，生出了侧枝，一片绿意盎然。', '杭锦后旗治沙站站长杨瑞正在指导技术人员栽种刚运送来的幼苗：“栽苗一定要做到深度够、苗扶正、土踩实、水浇足，要从四周注水，才能保证湿度。”', '“这些都是我们引进的新品种，可宝贝着呢!”杨瑞告诉记者，过去部分地方栽种的是单一树种柠条，几十年过去，这些树开始集中进入“退休期”。加上种植的传统灌木品种耐盐碱、耐旱性不强，成活率不高。', '“一些老化退化的沙生植物失去了固沙功能，原来已经治理固定的沙丘又会流动起来，我们只能年年在缺株断行的地方补植，但修补的速度赶不上退化的速度，时刻都在担心沙化会反扑。”杨瑞说。', '习近平总书记指出，“要坚持科学治沙，全面提升荒漠生态系统质量和稳定性”“要科学选择植被恢复模式，合理配置林草植被类型和密度”。', '去年8月，三北工程研究院在位于内蒙古巴彦淖尔市磴口县的中国林科院沙漠林业实验中心揭牌成立，汇聚了国内防沙治沙领域优势科研力量。杭锦后旗林草局立即请研究院的专家现场“诊疗”，开出“处方”：引进耐干旱、耐盐碱的“先锋”树种，同时增加植物多样性，提升林草系统的稳定性。', '杨瑞多次带队到甘肃、宁夏等周边省份考察学习，终于在今年3月与宁夏一家农林种植专业合作社达成合作，共同打造适应西北干旱区的治沙新品种苗木示范区——由对方提供苗木、技术等支持，引进20多种沙生灌木进行固沙试验。', '近期，苗木栽种已接近尾声，马上将飞播草籽。“目前看成活率能达到90%以上。”杨瑞满脸喜悦地告诉记者，试种成功的话，今年秋季计划推广“复合型”林草治理模式1000亩，构筑更加稳固的生态屏障。', '在内蒙古巴彦淖尔市乌拉特后旗西补隆林业管护中心，4台装有履带的压沙机正在沙地里“插秧”——小推车大小的压沙机前方都装有一个直径80厘米的大齿轮，压沙机前进一米，大齿轮就会将早已均匀铺在沙地上的稻草、秸秆精准“植”入沙地里。不一会儿，一条条金黄色的沙障“编织”完成，将沙丘牢牢缚住。', '“赶在秋天前扎好草方格，到时就可以种苗了。今年以来我们防沙治沙都是机械化操作，作业速度比以前纯人工提高了3倍多。”管护中心主任杜永军介绍，乌拉特后旗造林窗口期短，夏季高达40摄氏度的地表温度会将幼苗晒死，冬季几场大风就会让树苗被流沙掩埋，只有春夏交接的一个半月和秋季一个月适合种苗。', '“过去我们不知道什么样的机械适合在沙漠腹地运行，扎草方格和种苗一直依靠人工，效率很低。”杜永军说，乌拉特后旗沙化土地面积2065万余亩，已经治理的面积仅有459万余亩，剩余治理任务重、难度大，很多地方连路都没有，光靠人工背着草和树进去，耗时太长，“‘人海战术’已经难以满足新时代防沙治沙需求”。', '去年10月，国家林草局在西补隆林业管护中心举办了一场“三北”工程攻坚战先进机械装备演示活动，沙障铺设机、无人机、全地形运输车等一批先进适用的防沙治沙机械装备集中亮相。看到压沙机械能在起伏的沙丘上如履平地，杜永军信心倍增：“要攻坚剩下的沙漠，非得上机械不可!”', '活动结束后，国家林草局向西补隆林业管护中心捐赠了30台生产设备。之后，管护中心又派人走出去考察市场，先后从甘肃武威、内蒙古呼和浩特等地引进压沙、栽植梭梭等各类机械设备16台，有了科技助力，防沙治沙效率大大提高。', '“机械压制沙障不仅速度快多了，稻草扎下去的深度也能统一达到15厘米，抗风固沙能力更强。”杜永军说，截至目前，西补隆林业管护中心通过新型机械设备实施压沙造林已有2600亩。', '如今，运输苗木的无人机、沙障铺设机、固沙机等多种机械越来越多地运用于“三北”工程攻坚战区域，科技的力量不断助力提升治沙效能、延伸祖国北疆的绿色版图。(记者 刘紫凌、马丽娟、胡璐、李云平、刘祯)']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>47</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>绥中县工商联部门决算年</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2020-01-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/czyjs/bmjsgk/2018jsgk/rmtt/202005/t20200507_956236.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['绥中县工商联是中国共产党领导的人民团体和民间商会，是县委和县政府联系非公有制经济的桥梁和纽带，是政府管理非公有制经济的助手，承担着引导私营经济发展的职能。', '1、参政议政。参与全县政治、经济、社会生活中的主要问题的政治协商，发挥民主监督的作用。', '3、发扬自我教育的优良传统，宣传、贯彻党和国家的方针、政策，加强和改进思想政治工作，坚持对广大会员进行团结、教育、引导、服务，促进非公有制经济健康发展，提倡爱国、敬业、守法，提高会员素质，培养积极分子队伍。', '4、引导会员积极参加国家经济建设，推进社会主义市场经济体制逐步完善，促进社会全面发展。', '6、代表并维护会员的合法权益，反映会员的意见、要求和建议;为会员提供有关证明，协调关系，参与调解经济纠纷。', '7、引导会员把自身企业的发展与国家发展结合起来，把个人富裕与全体人民的共同富裕结合起来，弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业，积极参加扶贫光彩事业。', '8、为会员提供信息、培训、科技、管理、法律、会计、审计融资、咨询等服务，帮助会员改进经营管理，完善财会制度，照章纳税，提高自身素质和生产技术、产品质量。', '9、组织会员考察学习，举办和参加各种对内对外展销会、交易会，帮助会员开拓国内、国外市场，协助引进资金、技术、人才。', '1.基本支出64.97万元，主要是为保障机构正常运转、完成日常工作任务而发生的各项支出，其中：工资福利支出53.91万元，对个人和家庭的补助支出0.25万元，商品和服务支出10.82万元，其它基本性支出0万元。', '2.项目支出0万元，主要包括林业防灾减灾、森林培育、其它林业支出、矿产资源专项收入安排的支出等业务支出。', '公共预算财政拨款支出决算反映绥中县工商联2018年整体公共预算财政拨款支出情况，既包括使用当年公共预算财政拨款发生的支出，也包括使用以前年度公共预算财政拨款结转和结余资金发生的支出。2018年度公共预算财政拨款支出64.97万元，其中：基本支出64.97万元，项目支出0万元。', '2018年度公共预算财政拨款支出64.97万元，按支出功能分类科目分，包括社会保障和就业支出7.27万元，医疗卫生支出3.14万元，农林水事务支出0万元，其他支出0万元。', '其他农业支出0万元，主要是行政运行、林业事业机构、森林培育、林业防灾减灾、其他林业支出等支出。', '公务用车购置及运行维护费3.62万元，其中：公务用车购置费0万元，公务用车运行维护费3.62万元。', '4.经营收入：指事业单位在专业业务活动及辅助活动之外开展非独立核算经营活动取得的收入。', '7.用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“上级补助收入”、“事业收入”、“经营收入”、“附属单位上缴收入”、“其他收入”不足以安排当年支出情况下，使用以前年度积累的事业基金（事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '12.经营支出：指事业单位在专业活动及辅助活动之外开展非独立核算经营活动发生的支出。', '13.对附属单位补助支出：指事业单位用财政补助收入之外的收入对附属单位补助发生的支出。', '14.“三公”经费：指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '15.一般公共服务（类）财政事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '16.一般公共服务（类）财政事务（款）一般行政管理事务（项）：反映行政单位（包括实行公务员管理的事业单位）未单独设置项级科目的其他项目支出。', '17.一般公共服务（类）财政事务（款）预算改革业务（项）：反映财政部门用于预算改革方面的支出。', '18.一般公共服务（类）财政事务（款）财政国库业务（项）：反映财政部门用于财政国库集中收付业务方面的支出。', '19.一般公共服务（类）财政事务（款）信息化建设支（项）：反映财政部门用于“金财工程”等信息化建设方面的支出。', '20.一般公共服务（类）财政事务（款）事业运行（项）：反映事业单位的基本支出，不包括行政单位（包括实行公务员管理的事业单位）后勤服务中心、医务室等附属事业单位。', '21.一般公共服务（类）财政事务（款）其他财政事务支出（项）：反映除上述项目以外其他财政事务方面的支出。', '22.一般公共服务（类）其他一般公共服务支出（款）其他一般公共服务支出（项）：反映除上述项目以外的其他一般公共服务支出。', '23.科学技术（类）其他科学技术支出（款）其他科学技术支出（项）：反映其他用于科技方面的支出。', '24.社会保障和就业（类）行政事业单位离退休（款）归口管理的行政单位离退休（项）：反映实行归口管理的行政单位（包括实行公务员管理的事业单位）开支的离退休经费。', '25.社会保障和就业（类）行政事业单位离退休（款）事业单位离退休（项）：反映实行归口管理的事业单位开支的离退休经费。', '26.医疗卫生（类）医疗保障（款）行政单位医疗（项）：反映财政部门集中安排的行政单位基本医疗保险缴费经费，未参加医疗保险的行政单位的公费医疗经费，按国家规定享受离休人员、红军老战士待遇人员的医疗经费。', '27.医疗卫生（类）其他医疗卫生支出（款）其他医疗卫生支出（项）：反映除上述项目以外其他用于医疗卫生方面的支出。', '29.交通运输（类）石油价格改革对交通运输的补贴（款）石油价格改革补贴其他支出（项）：反映石油价格改革财政补贴对其他方面的支出。', '30.资源勘探电力信息等事务（类）工业和信息产业监管支出（款）其他工业和信息产业监管支出（项）：反映其他用于工业和信息产业监管方面的支出。', '31.商业服务业等事务（类）商业流通事务（款）其他商业流通事务支出（项）：反映其他用于商业流通事务方面的支出。', '32. 商业服务业等事务（类）商业流通事务（款）其他涉外发展服务支出（项）：反映其他用于涉外发展服务方面的支出。', '33. 国土资源气象等事务（类）国土资源事务（款）其他国土资源事务支出（项）：反映其他用于国土资源事务方面的支出。', '34.住房保障（类）住房改革（款）住房公积金（项）：反映行政事业单位按人力资源和社会保障部、财政部规定的基本工资和津贴补贴以及规定比例为职工缴纳的住房公积金。', '35.其他支出（类）其他支出（款）其他支出（项）：反映其他不能划分到具体功能科目中的支出项目。', '36.机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>47</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>市市场监督管理局助推特色产业新突破山楂产业映红振兴路</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/xwdt/rdzl/rdzt/qmzxxtpsnxd/gzdt/202401/t20240112_1164907.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['本报记者 谢倪 学习贯彻习近平新时代中国特色社会主义思想主题教育开展以来，市市场监督管理局紧紧围绕“学思想、强党性、重实践、建新功”的总要求，充分发挥市场监管职能，深入开展山楂产品供需调研，主动与省市场监管局主管领导和业务部门沟通，积极争取建昌县政府大力支持，与建昌县市场监管局共同帮扶指导建昌县8家山楂制品（蜜饯）生产企业进行提升改造，帮助建昌县特色山楂蜜饯产业做大做强，实现农产品加工业高质量发展。', '市市场监督管理局通过对接高校人才队伍，邀请省级专家指导山楂加工企业规范生产工艺，升级改造生产环境和硬件设施；组织山楂制品企业负责人赴河北承德怡达食品考察学习，引进现代化制作工艺流程，发挥“绿色山楂营养无添加”特色优势，深精加工山楂，提升产品附加值，增强市场竞争力；指导建昌县5个乡镇9家山楂制品企业履行食品安全责任，实行食品安全公示板、“两个责任”公示板“上墙”，严格落实许可、监管制度，形成一企一档；充分发挥地方政府包保人员作用，通过包保责任清单、包保任务清单、督查任务清单，形成三方负责管理机制。截至去年10月份，提升改造取得了阶段性成果，建昌县山楂制品（蜜饯）产业呈现出全新的面貌。', '目前，建昌县山楂制品（蜜饯）产业提升改造项目已列入省政府督查激励项目培育库食品生产领域重点培育项目。市市场监督管理局把主题教育成果转化为强劲动力，在以学铸魂、以学增智、以学正风、以学促干方面取得扎实成效，努力打造我市食品产业提升改造的样板和亮点，用可复制的经验带动全市食品产业整体发展，为全面振兴新突破三年行动贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>47</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>建昌县市场监督管理局深入践行四下基层活动</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-12-26</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/bmdt/202312/t20231226_1163485.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['主题教育工作开展以来，建昌县市场监督管理局深入学习贯彻习近平总书记“四下基层”的重要批示精神，把“四下基层”作为重要抓手，贯通落实到各项重点措施之中，督促全局广大党员干部走好新时代党的群众路线，用心用情用力解决好群众急难愁盼问题，持续深入实施服务企业发展和“为群众办实事好事”实践活动，走好新时代党的群众路线，以实干实效检验主题教育成果。', '“四下基层”的重要批示精神，把“四下基层”作为重要抓手，贯通落实到各项重点措施之中，督促全局广大党员干部走好新时代党的群众路线，用心用情用力解决好群众急难愁盼问题，持续深入实施服务企业发展和“为群众办实事好事”实践活动，走好新时代党的群众路线，以实干实效检验主题教育成果。', '将党建与企业高质量发展同思考、同谋划、同落实，切实发挥党建引领作用。局调研组围绕食品安全“两个责任”制度落地见效，助力建昌乡村振兴，多次深入一线对全县5个乡镇9家山楂制品企业进行深度调研。为促进企业长足发展，带领7家山楂制品行业法人组成调研组远赴承德怡达食品股份有限公司进行考察学习。并邀请辽宁省食检院的专家来到建昌县检验检测中心对全县8家山楂制品企业检验员进行培训，为企业发展创造良好的营商环境和技术支撑。', '5个乡镇9家山楂制品企业进行深度调研。为促进企业长足发展，带领7家山楂制品行业法人组成调研组远赴承德怡达食品股份有限公司进行考察学习。', '建昌县市场监督管理局把开展主题教育活动与推动业务发展相结合，积极发动全体党员参加“立足岗位作贡献”党员志愿服务活动，帮助解决群众的操心事烦心事揪心事。', '市场局各党支部联合开展党员志愿服务活动。以“尚俭崇信 共护食安”为核心理念，落实“两个责任”为抓手，推动食品安全宣传五进：“进社区、进生产企业、进商超、进学校、进餐饮企业”。开展反餐饮浪费专项行动，引导社会各类群体共同参与食安宣传、重视食品安全，提高群众食品安全意识和应对食品安全风险的能力；营造出食品安全共享共治新格局，不断增强人民群众幸福感、获得感、安全感。', '主题教育开展以来，市场局立足把问题解决在基层、矛盾化解在基层、发展落实在基层，全面落实“清单+闭环”“倒查+问责”“专项整治+系统治理”工作机制。为个体工商户提供电话咨询服务，接听电话638次，提供咨询638次,个体工商户服务站提供咨询146户，受理问题36件，解决合理诉求36件；开展领导干部走流程活动72人次，实地体验办事流程，激发市场监管系统服务新活力；局领导接待处理信访问题4件，成功化解4件，同时针对12315、群众来信来访反映问题定期分析总结，并建立问题清单。领导干部结合问题清单主动接访、带案下访，积极妥善解决群众的各类诉求，全力维护群众合法权益，切实把群众企业反映的问题清单转化为成效清单。', '主题教育开展以来，市场局立足把问题解决在基层、矛盾化解在基层、发展落实在基层，全面落实', '“清单+闭环”“倒查+问责”“专项整治+系统治理”工作机制。为个体工商户提供电话咨询服务，接听电话638次，提供咨询638次,个体工商户服务站提供咨询146户，受理问题36件，解决合理诉求36件；开展领导干部走流程活动72人次，实地体验办事流程，激发市场监管系统服务新活力；局领导接待处理信访问题4件，成功化解4件，同时针对12315、群众来信来访反映问题定期分析总结，并建立问题清单。领导干部结合问题清单主动接访、带案下访，积极妥善解决群众的各类诉求，全力维护群众合法权益，切实把群众企业反映的问题清单转化为成效清单。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>47</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>建昌市场监管凝聚高质量发展强大共识</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/ztzl/rdzl/zqsk/zqxx/202311/t20231122_1160596.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['建昌县市场监督管理局以党的二十大精神为思想纲领和行动指南，在辽宁全面振兴新突破三年行动中，谋实招、求实效、正行风、树新风，助企纾困、创新服务，从坚守安全底线到助力高质量发展，用基层市场监管实际行动践行高质量发展理念。', '谋实招、求实效、正行风、树新风，助企纾困、创新服务，从坚守安全底线到助力高质量发展，用', '建昌县市场监管局党组书记、局长赵春秀表示：在质量强县的浪潮中，建立各方标准是企业提升竞争力的基本要求。市场监管部门也要高质量、高标准服务监管。', '在传统手工作坊的基础上，借助山楂优产高产的地缘优势，建昌县特色山楂蜜饯产业的发展历史已有20余年，如今遇到了新的发展机遇与制约瓶颈。本着推动特色产业高质量发展的思想理念，建昌县市场监督管理局对全县5个乡镇9家山楂制品企业进行深度调研，全面推进食品安全“两个责任”落地落实。为促进传统行业长足发展，引进优秀同行业发展先进经验，局党组采取走出去引进来的方式：带领山楂制品行业法人远赴承德怡达食品股份有限公司进行考察学习；邀请辽宁省食检院的专家来到建昌县检验检测中心对全县山楂制品企业检验员进行培训，推进校企对接，为企业发展创造良好的营商环境和技术支撑，为今后的发展指明了方向、奠定了基础。', '在传统手工作坊的基础上，借助山楂优产高产的地缘优势，建昌县特色山楂蜜饯产业的发展历史已有', '20余年，如今遇到了新的发展机遇与制约瓶颈。本着推动特色产业高质量发展的思想理念，建昌县市场监督管理局', '天香源生态农场作为目前东北最大的牡丹种植基地，集产学研于一体，预计投资1.5亿元建设天香源高新农业科技产业园区。项目规划占地27335平方米，总建筑面积31395.02平方米。针对天香源食品产业园区构建的牡丹籽油、牡丹花蕊茶、牡丹全花茶、牡丹酒四大车间三条生产线，建昌县市场监管局根据食品生产许可前置条件要求，对牡丹制品车间的功能设置、格局规划、流程规范进行事前现场业务指导。避免出现建成后因不符合食品安全相关要求返工重建现象，有效为企业节省时间和经济成本。', '针对天香源食品产业园区构建的牡丹籽油、牡丹花蕊茶、牡丹全花茶、牡丹酒四大车间三条生产线，建昌县市场监管局根据食品生产许可前置条件要求，对牡丹制品车间', '避免出现建成后因不符合食品安全相关要求返工重建现象，有效为企业节省时间和经济成本。', '在天香源“牡丹科技看建昌”远大目标实现过程中，建昌县市场监督管理局依托计量、标准、检验检测、特种设备、知识产权、质量管理等职能，将市场监管服务送到企业身边，为企业提供全链条、全方位、全过程质量基础设施一站式服务。围绕企业的急难愁盼，精准对接企业质量提升需求。带领省标准化专家对天香源生态农场进行实地参观考察，针对辽宁省农业标准化试点项目建设作出指导。建昌县检验检测中心建立计量标准10项、食品及产品质量检验覆盖19大类270个参数，为高质量发展提供技术支撑，形成助推高质量发展强大合力。', '“牡丹科技看建昌”远大目标实现过程中，建昌县市场监督管理局依托计量、标准、检验检测、特种设备、知识产权、质量管理等职能，将市场监管服务送到企业身边，为企业提供全链条、全方位、全过程质量基础设施一站式服务。围绕企业的急难愁盼，精准对接企业质量提升需求。带领省标准化专家对天香源生态农场进行实地参观考察，针对辽宁省农业标准化试点项目建设作出指导。建昌县检验检测中心建立计量标准10项、食品及产品质量检验覆盖19大类270个参数，为高质量发展提供技术支撑，形成助推高质量发展强大合力。', '格兰登堡作为建昌本土新生代酿造啤酒品牌，从建立健全食品安全管理制度到完善企业质量管理体系，每一次升级换代都离不开建昌县市场监督管理局的指导与帮助。在市场监管部门与企业的共同努力下，格兰登堡前端生产环节已实现自动化。为扩大品牌知名度，省市县市场监管部门三级联动，邀请辽宁省食品安全协会主办的辽宁食安节目联合辽宁省电视台对格兰登堡进行专题报道。当前，建昌县市场监管为格兰登堡打开销路、打破老牌啤酒在餐饮单位销售垄断的现象正在做出多方尝试。', '从建立健全食品安全管理制度到完善企业质量管理体系，每一次升级换代都离不开建昌县市场监督管理局的指导与帮助。', '辽宁省食品安全协会主办的辽宁食安节目联合辽宁省电视台对格兰登堡进行专题报道。当前，建昌县市场监管为格兰登堡打开销路、打破老牌啤酒在餐饮单位销售垄断的现象正在做出多方尝试。', '此外，建昌县市场监管局积极推进“雷家店核桃”、“要路沟小米”两项国家地理标志保护产品的市级地方标准制定，其品牌价值分别被评价为9000万和2300万，为建昌品牌建设提供数据支撑。', '采访中赵春秀局长指出：市场监管之于推动企业高质量发展所发挥的重要作用是及时引导、牵线搭桥、主动服务、科学监管，形成全链条、全产业周期服务机制，促进市场主体活跃。建昌县市场监督管理局将秉承“重服务、强监管、轻处罚”的服务监管模式，“首违不罚”，杜绝“以罚代管”，持续优化营商环境，提升市场主体的获得感，达成高质量发展的强大行动共识。', '采访中赵春秀局长指出：市场监管之于推动企业高质量发展所发挥的重要作用是及时引导、牵线搭桥、主动服务、科学监管，形成全链条、全产业周期服务机制，促进市场主体活跃。建昌县市场监督管理局将秉承', '“重服务、强监管、轻处罚”的服务监管模式，“首违不罚”，杜绝“以罚代管”，持续优化营商环境，提升市场主体的获得感，达成高质量发展的强大行动共识。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>47</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>中共兴城市三道沟满族乡党委关于市委巡察整改情况的通报</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xxgk/qtxxgk2/djgz/202312/t20231207_1161853.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['党委反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改情况予以公布。', '巡察反馈会后，三道沟乡党委立即围绕巡察反馈意见和市委巡察有关要求进行了专题学习讨论，并就做好巡察整改工作进行了研究部署，对巡察组反馈意见指出的问题和提出的整改要求，党组深入反思检查，以坚决的态度、有效的办法、果断的措施，不折不扣地把巡察整改作为一项重大的政治任务抓紧抓好。', '整改落实情况汇报，及时掌握巡察整改进度，研究解决有关问题，推动整改工作有力有序有效开展。与深化标本兼治结合起来，坚持全面整改、立行立改、即知即改、真改实改，确保整改工作横向到边、纵向到底。', '以强化理论学习为重点，采取集中学、自主学和专题研讨学习相结合的方式，提高了中心组成员', '结合三道沟乡红色旅游产业发展现状，制定详细招商计划，以红色旅游发展为龙头，建立招商引资', '2023年，党委主要负责同志赴沈阳就红色旅游招商对接企业2次，政府分管负责同志赴北京就三道生态康养项目招商对接企业1次。', '通过做好规划设计，明确了目标定位，锚定领悟发展方向，把招商引资摆工作在了重要位置，加快了工作的推进落实。', '2023年投资80万元的三道沟村干菜加工厂项目和投资225万的汪家村、头道沟村百亩五味子种植项目目前已经落实，', '，乡政府举办了三道沟乡第一届农民丰收节等系列活动，三道沟乡各类农副产品得到了有效宣传和推广。', '1次，每年不少于4次，对全乡意识形态领域情况进行深入分析研判，对重大事件、重要情况、重要社情民意中的倾向性、苗头性问题及时妥善处理', '意识形态研判报告更加严格规范。保证了党员干部的意识形态更加坚定，工作水平明显提升。', '提高农家书屋在群众中知晓度，强化图书管理，明确图书管理人员工作职责，进一步推进农家书屋书籍分类规范管理。定期更新图书种类，结合群众生产生活需求，每年更新书目，', '加强对三道沟红色文化背后蕴藏的红色精神提炼，深入挖掘红色文化资源内涵，制作三道沟红色资源文化宣传片，', '包括三道沟乡旅游宣传推介片和黑沟村旅游宣传推介片，并在葫芦岛电视台和兴城融媒体滚动播放，', '三道沟红色资源得到进一步挖掘，三道沟宣传片已经制作完成，通过新媒体等渠道发布，取得了不错的宣传效果。', '三是加快推进垃圾中转站启动运行相关事宜。乡党委主要负责同志已与碱厂变电所沟通，推进解决垃圾中转站三相电用电问题。', '60个环境责任区，部署60名保洁员负责各区环境卫生，每村配备垃圾清运三轮车1台，对各村道路两侧、河道垃圾进行', '督导力度。针对毁林开荒不及时的问题，乡政府分管领导亲自督办，带领林业等相关部门负责人在全乡范围内，对', '三是压实管理责任。由党委书记和主管副乡长分别对林业站长郭志远进行谈话，提出批评教育，要求林业站担当主体责任，做好护林工作。', '四是建章立制。制定并完善了《三道沟满族乡森林草原防灭火工作方案》、《三道沟满族乡森林草原防灭火应急预案》，成立毁林开荒领导小组，为做好护林防火工作筑牢制度根基。', '完善风险制度建设。建立风险研判机制、风险评估机制、风险防控协同机制、风险防控责任机制', '成立以党委书记为组长的风险管控领导小组，每月对全乡产业项目进行风险研判，重点关注种植业产业项目风险情况，形成风险研判报告，', '23年新争取的汪家村和头道沟村五味子种植项目召开项目调度会4次，并分别赴新宾和喀左考察学习，目前项目运行良好。', '为流转双方提供格式化流转合同、落实流转合同备案制度，对不合规土地流转项目要求流转双方及时整改', '1天的专题培训，进一步提高大家的业务能力和工作水平。同时，要求各村做好土地流转规章制度的宣传解释工作，进一步', '三是建章立制。制定《三道沟乡土地流转工作制度》，进一步完善工作流程，强化土地流转文书档案管理，用制度促进土地流转有序、健康运行。', '对整改不到位的，迅速查缺补漏，立即补课整改，在全乡范围内传递出从严从实抓整改的信号，形成了真改、实改的良好氛围。', '“虚假整改”“表面整改”“敷衍整改”。32项问题都已经明确了整改措施和整改时限，建立了整改台账，迅速查缺补漏，做到了立行立改、真改实改。', '查缺补漏，传递从严从实抓整改的工作信号，推动全乡干部提高政治站位，形成真整改的工作作风', '11个村将2019年巡察整改材料全部丢失的问题，乡党委副书记对11个村书记进行了集体约谈。', '明确领导干部的责任范围和责任内容，要求领导干部了解掌握本部门党风廉政建设情况，做到与业务工作同部署、同检查、同落实。', '党员干部党性意识、政治觉悟和组织观念明显增强，工作态度更加端正，工作责任不断压实，', '“第一种形态”对一般性问题，果断采取诫勉谈话、通报批评、责令检查等方式处理；对苗头性问题，及时通过谈话函询、警示谈话、工作约谈等方式处理；对倾向性问题，综合运用提醒谈话、召开民主生活会及组织生活会等方式，进行“点题式”提醒教育。', '提升对党员干部监督意识，深刻剖析，对受处分干部要举一反三，吸取经验教训，对屡受处分人员乡党委将研究对其进行调岗。同时，组织党员干部开展警示教育培训，', '通过定期集中观看警示教育片，开展深入讨论，以案施教、以案说纪、以案说法，提高了党员干部思想认识和拒腐防变能力，自觉接受监督的意识显著增强。', '6名违规参加寿宴调的村干部已由乡纪委予以党内警告处分，乡党委以实际案例促进学习，进一步提高干部职工增强了遵纪守法的自觉性。', '5名未下载阳光三务APP的村干部，乡党委副书记对5名村干部进行了集体约谈，现5名村干部已全部下载了阳光三务APP。', '2023年初，经乡党委研究决定，对领导班子成员职责分工进行了重新调整，充分调动领导班子成员积极性。同时，', '加强对班子成员日常工作的调度，对因缺乏进取心，工作不力，造成恶劣影响的，乡纪检部门', '三是加大问责力度。党委主要负责同志对党政班子成员召开集体约谈会，对转变工作作风，提高工作积极性提出明确要求。', '通过全面整改，我乡进一步加强了干部思想教育，党员干部党性修养提升，监督问责力度进一步加强，各部门职责得到充分发挥。', '针对水源地放牧问题，公安部门加大同各村的紧密联系，加大打击力度，杜绝违规放牧情况。同时', '三是加大问责力度。乡党委副书记对存在违规放牧的戏台村、三道沟村、东门村、西门村党支部书记进行了集体约谈。同时，对副乡长、财政所长甄云艳及组织委员申振同志就临时工管理不到位问题批评教育。', '通过全面整改，我乡进一步明确干部分工，完善考核机制，针对性解决水源地放牧等问题，以实际行动强化干部担当意识，化解难题。', '三是强化建章立制。在原有档案管理制度基础上制定村级档案管理制度，进一步加强农村档案工作', '通过全面整改，我乡对水利站物资进行全面清查，形成物资管理有效机制，做好物资管理工作。', '账实相符。针对青山栈道工程款、黑沟村缝纫机等已列入固定资产，戏台村、东门村账面存在长期投资问题已整改完毕。', '重要项目安排和大额资金安排使用决策前要做好充分的调查研究和认真准备，坚持调查论证，相关记录全面清晰，归档及时。', '将民主集中制学习列入中心组学习内容，每年开展一次贯彻落实民主集中制相关制度的学习，深入学习领会班子工作职责、议事决策规则、工作运行机制等内容，带头遵守制度，用制度规范权力运行。', '明确支部委员分工，制定制度并张贴上墙，压紧压实委员责任，强化对班子成员技能培训，确保班子作用充分发挥，捋顺村班子成员工作职责', '“三会一课”、组织生活会、主题党日、谈心谈话等党内制度，持续有效增强基层党建工作合力。', '二是加强检查监督。定期对各支部开展组织生活情况进行检查，通过包片领导、包片干部参加支部活动，检查“三会一课”记录等方式，督促各支部积极开展各项组织生活。', '制度落实，严肃党内生活制度，定期学习党章和关于落实党内政治生活制度的相关规定，明确工作责任，传导工作压力，组织生活程序明显规范。', '做好设备的管理维护工作，严格按照操作规范使用设备，对因故障不能播放的村设备及时报修并做好记录。', '我乡每月传达远程办关于远程教育观看情况的通报，及时对观看时间、次数较少的站点给予提醒，', '加强驻村干部日常监督管理，对驻村干部在岗、出勤、考勤、工作档案、工作日志等方面进行定期调度，做好驻村签到记录，确保驻村工作队员全脱产驻村、全身心投入、全方位履职，发挥驻村帮扶成效。', '的巡察整改落实工作虽然取得了一定成效，但与全面从严治党的要求还有所差距，与贯彻落实党中央、省市委的大政方针还有所', '精神，不断加强班子思想政治建设，深入推进全面从严治党，持续推进巡察问题整改，确保整到位、改彻底。', '深刻认识巡视巡察工作的重大意义，坚持不懈用习近平新时代中国特色社会主义思想为指导，树牢', '“四个意识”、坚定“四个自信”，做到“两个维护”，真正把市委工作部署落细落小、落实到位，常抓不懈、久久为功', '，深入查找弱项短板，及时查漏补缺、建章立制，持续巩固深化问题整改成果，扎实推进各项工作再上新台阶。', '“回头看”，总结经验做法，巩固提升整改成效。对需要长期坚持的整改事项，进一步明确整改责任、推动问题整改。建立健全规范权力运行、加强党员干部教育管理、党风廉政建设、财务管理、档案管理等方面规章制度，构建堵塞漏洞、解决问题、落实责任的长效机制。', '总之，我们将在前一阶段整改工作的基础上，继续坚持党的领导，聚焦全面从严治党，严格落实主体责任，不断强化责任担当，大力推进整改工作，拓展整改成果，切实把党的政治建设、思想建设、组织建设、作风建设、制度建设和党风廉政建设贯穿于各项工作当中。对整改完成的问题，坚持劲头不松、力度不减、标准不降，既要认真跟踪问效，防止问题反弹，又要以此为基础，建立健全长效机制，巩固转化整改成果；对需要长期推进整改的问题，要常抓不懈，持续用力，确保久久为功，善作善成，真正让整改实际成效推动我', '欢迎广大干部群众对巡察整改落实情况进行监督。如有意见建议，请及时向我们反映。联系方式：电话']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>47</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>小山楂大产业走出去引进来</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/xxgk_3511/zfxxgk/fdzdgknr/zdly/jczwgkml_spyp/jczwgkml_spyp_ggfw/202303/t20230329_1136351.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['为了突破建昌山楂产业发展瓶颈，促进企业长足发展，引进优秀同行业发展先进经验，按照县政府工作安排，2023年3月23日—24日，建昌县市场监督管理局组成调研组远赴承德怡达食品股份有限公司进行考察学习。本次调研活动得到企业所在地鹰手营子矿区市场监管局大力支持。', '为了突破建昌山楂产业发展瓶颈，促进企业长足发展，引进优秀同行业发展先进经验，按照县政府工作安排，', '2023年3月23日—24日，建昌县市场监督管理局组成调研组远赴承德怡达食品股份有限公司进行考察学习。本次调研活动得到企业所在地鹰手营子矿区市场监管局大力支持。', '调研组由建昌县市场监管局党组书记、局长赵春秀带队，由市县两级市场监管部门业务骨干和建昌县7家山楂制品行业法人代表共计15人组成。此次调研分为现场观摩、参观走访、座谈三个部分，调研组成员纷纷表示增长了见识、开拓了视野、提升了认知、明确了方向。', '调研组由建昌县市场监管局党组书记、局长赵春秀带队，由市县两级市场监管部门业务骨干和建昌县', '7家山楂制品行业法人代表共计15人组成。此次调研分为现场观摩、参观走访、座谈三个部分，调研组成员纷纷表示增长了见识、开拓了视野、提升了认知、明确了方向。', '在怡达包装车间，一条参观通道将两个包装步骤车间有机结合起来，一条传送带将初次包装的半成品送到二次包装工作人员的手中同时也将参观者的目光从一个环节带到下一个环节，让参观者虽隔着玻璃却有种置身包装场景之中的高屋建瓴之感。', '在山楂饮品生产车间，参观人员被“全副武装”，全程体验一次工作人员在开工前的准备工作，可以称得上是工作前的仪式感，足以唤醒人们对所从事的食品安全工作的尊重与敬畏。现代化的制作工艺流程让我们近距离感受科技进步对行业发展的推动作用。', '“全副武装”，全程体验一次工作人员在开工前的准备工作，可以称得上是工作前的仪式感，足以唤醒人们对所从事的食品安全工作的尊重与敬畏。现代化的制作工艺流程让我们近距离感受科技进步对行业发展的推动作用。', '一个个与高校的合作证书、一项项荣誉奖项布满实验室门口的文化长廊。承德怡达食品股份有限公司与中国农业大学、天津科技大学、北京市营养源研究所、沈阳农大等院校达成了长期技术研发合作，先后建成了大型食品研发检验中心、河北省企业技术中心。每年推出数十种新产品、新工艺和新技术，不断引领着山楂食品行业的发展，尤其是合金板研发工作更是突破了困扰全行业几十年的技术瓶颈。在建昌废弃的山楂核，也变废为宝，其保健功效被开发应用。牵头制定了多项国家级山楂制品行业标准，是全国山楂产业行业标准制定企业。', '与中国农业大学、天津科技大学、北京市营养源研究所、沈阳农大等院校达成了长期技术研发合作，先后建成了大型食品研发检验中心、河北省企业技术中心。每年推出数十种新产品、新工艺和新技术，不断引领着山楂食品行业的发展，尤其是合金板研发工作更是突破了困扰全行业几十年的技术瓶颈。', '怡达集团以中华民族传统文化为依托，将怡达集团34年的发展历程所形成的企业文化与本土山楂文化有机融为一体，已发展成为集种植、加工、研发、销售、文创、旅游、观光体验于一体，一二三产相融合的现代企业集团。馆内陈列的山楂相关的手工艺品引起参观人员的共同关注。', '已发展成为集种植、加工、研发、销售、文创、旅游、观光体验于一体，一二三产相融合的现代企业集团。', '座谈会上怡达集团介绍了企业基本情况、发展现状及远景目标，双方市场监管部门交流了服务监管经验，参观企业与怡达交流了合作意向。', '此次调研选择在全国两会胜利闭幕后的第一周，是对实现建昌产业振兴的具体实践。拓宽企业发展思路的同时，提振企业发展信心。对市场监管部门而言，兄弟单位在日常监管工作中的成熟经验也为我们提供了实操做法。建昌县市场监管局将继续秉承服务企业、助力发展的初心，加强自身建设，为企业发展创造良好的营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>47</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>开发区参加葫芦岛市招商引资专题培训班第一期</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://jjkfq.hld.gov.cn/xwdt/hyqk/202303/t20230315_1134799.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['本月14日至18日，开发区相关部门一行5人参加了2023葫芦岛市招商引资专题第一期培训班。 期间，参训人员认真听取了市委党校专家关于夺取中国特色社会主义新胜利、加快构建新发展格局、大力开展招商引资等方面的专题讲解，并赴常州实地培训。在常州期间，听取了李卫平、潘一超等专家关于常州经济社会发展情况介绍以及开发区招商引资经验分享，并实地参观考察了当地石墨烯产业展示馆、两湖创新区规划展示馆以及天合光能有限公司。通过学习考察，详细了解了常州市在创建招商新机制、打造招商新格局、获取项目新渠道、优化服务新手段等方面的先进经验，并听取了专家对于利用好“关外第一市”区位、成本优势、抢抓“疫情后”机遇、推动传统优势产业转型升级等招商引资意见建议。 通过考察学习，增进了与经济发达地区的经验交流，看到了我们与先进地区的业务差距，吸取了当地招商引资的创新理念，明确了我们开展招商引资的思路办法，为下一步开展招商引资和项目服务工作奠定良好基础。 责任编辑：葫芦岛经济开发区管委会办公室', '期间，参训人员认真听取了市委党校专家关于夺取中国特色社会主义新胜利、加快构建新发展格局、大力开展招商引资等方面的专题讲解，并赴常州实地培训。在常州期间，听取了李卫平、潘一超等专家关于常州经济社会发展情况介绍以及开发区招商引资经验分享，并实地参观考察了当地石墨烯产业展示馆、两湖创新区规划展示馆以及天合光能有限公司。通过学习考察，详细了解了常州市在创建招商新机制、打造招商新格局、获取项目新渠道、优化服务新手段等方面的先进经验，并听取了专家对于利用好', '“关外第一市”区位、成本优势、抢抓“疫情后”机遇、推动传统优势产业转型升级等招商引资意见建议。', '通过考察学习，增进了与经济发达地区的经验交流，看到了我们与先进地区的业务差距，吸取了当地招商引资的创新理念，明确了我们开展招商引资的思路办法，为下一步开展招商引资和项目服务工作奠定良好基础。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>47</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>绥中县年工商联预算公开信息</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-01-27</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/czyjs/bmysgk_421001/20230119_28595/rmtt/202302/t20230207_1130669.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['绥中县工商联是中国共产党领导的人民团体和民间商会，是县委和县政府联系非公有制经济的桥梁和纽带，是政府管理非公有制经济的助手，承担着引导私营经济发展的职能。', '1、参政议政。参与全县政治、经济、社会生活中的主要问题的政治协商，发挥民主监督的作用。', '、参政议政。参与全县政治、经济、社会生活中的主要问题的政治协商，发挥民主监督的作用。', '3、发扬自我教育的优良传统，宣传、贯彻党和国家的方针、政策，加强和改进思想政治工作，坚持对广大会员进行团结、教育、引导、服务，促进非公有制经济健康发展，提倡爱国、敬业、守法，提高会员素质，培养积极分子队伍。', '、发扬自我教育的优良传统，宣传、贯彻党和国家的方针、政策，加强和改进思想政治工作，坚持对广大会员进行团结、教育、引导、服务，促进非公有制经济健康发展，提倡爱国、敬业、守法，提高会员素质，培养积极分子队伍。', '4、引导会员积极参加国家经济建设，推进社会主义市场经济体制逐步完善，促进社会全面发展。', '、引导会员积极参加国家经济建设，推进社会主义市场经济体制逐步完善，促进社会全面发展。', '6、代表并维护会员的合法权益，反映会员的意见、要求和建议;为会员提供有关证明，协调关系，参与调解经济纠纷。', '、代表并维护会员的合法权益，反映会员的意见、要求和建议;为会员提供有关证明，协调关系，参与调解经济纠纷。', '7、引导会员把自身企业的发展与国家发展结合起来，把个人富裕与全体人民的共同富裕结合起来，弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业，积极参加扶贫光彩事业。', '、引导会员把自身企业的发展与国家发展结合起来，把个人富裕与全体人民的共同富裕结合起来，弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业，积极参加扶贫光彩事业。', '8、为会员提供信息、培训、科技、管理、法律、会计、审计融资、咨询等服务，帮助会员改进经营管理，完善财会制度，照章纳税，提高自身素质和生产技术、产品质量。', '、为会员提供信息、培训、科技、管理、法律、会计、审计融资、咨询等服务，帮助会员改进经营管理，完善财会制度，照章纳税，提高自身素质和生产技术、产品质量。', '9、组织会员考察学习，举办和参加各种对内对外展销会、交易会，帮助会员开拓国内、国外市场，协助引进资金、技术、人才。', '、组织会员考察学习，举办和参加各种对内对外展销会、交易会，帮助会员开拓国内、国外市场，协助引进资金、技术、人才。', '按照综合预算的原则，绥中县工商联所有收入和支出均纳入部门预算管理。收入包括：财政拨款收、纳入预算管理的行政事业性收费等非税收入、其他收入、支出包括：社会保障和就业支出、医疗卫生与计划生育支出、城乡社区支出、住房保障支出。2023年收支总预算66.77万元。', '年收入总预算数66.77万元，其中一般公共预算财政拨款收入66.77万元，政府性基金收入0万元。', '2023年“三公”经费预算数0万元，其中：公务接待费0万元；公务用车运行费0万元，公务用车购置费0万元。', '年“三公”经费预算数0万元，其中：公务接待费0万元；公务用车运行费0万元，公务用车购置费0万元。', '4.行政事业性收费收入：指依据法律、行政法规、国务院有关规定、国务院财政部门会同价格主管部门共同发布的规章或者规定，省、自治区、直辖市人民政府财政部门会同价格主管部门共同发布的规定所收取的各项收费收入。', '行政事业性收费收入：指依据法律、行政法规、国务院有关规定、国务院财政部门会同价格主管部门共同发布的规章或者规定，省、自治区、直辖市人民政府财政部门会同价格主管部门共同发布的规定所收取的各项收费收入。', '5.政府性基金收入：反应各级政府及其所属部门根据法律、行政法规规定并经国务院或财政部批准，向公民、法人和其他组织征收的政府性基金，以及参照政府性基金管理或纳入基金预算、具有特定用途的财政资金。', '政府性基金收入：反应各级政府及其所属部门根据法律、行政法规规定并经国务院或财政部批准，向公民、法人和其他组织征收的政府性基金，以及参照政府性基金管理或纳入基金预算、具有特定用途的财政资金。', '6.其他收入：指除上述“财政拨款收入”、“行政事业性收费收入”、“政府性基金收入”以外的收入。', '其他收入：指除上述“财政拨款收入”、“行政事业性收费收入”、“政府性基金收入”以外的收入。', '7.“三公”经费：指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反应单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '“三公”经费：指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反应单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>47</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>绥中县工商联年度部门决算公开</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-11-21</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/czyjs/bmjsgk/2021jsgk/rmtt/202211/t20221128_1123591.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['目 录 第一部分 绥中县工商联概况 一、 主要职责 二、 部门决算单位构成 第二部分 绥中县工商联2021年度部门决算情况说明 一、收入支出决算总体情况说明 二、财政拨款收入支出决算情况说明 三、一般公共预算财政拨款“三公”经费支出决算情况说明 四、一般公共预算财政拨款基本支出决算情况说明 五、其他重要事项的情况说明 第三部分 名词解释 第四部分 绥中县工商联2021年度部门决算报表 一、收入支出决算总表 二、收入决算表 三、支出决算表 四、财政拨款收入支出决算表 五、一般公共预算财政拨款支出决算表 六、一般公共预算财政拨款基本支出决算表 七、政府性基金预算财政拨款支出决算表 八、一般公共预算财政拨款“三公”经费支出决算表 九、国有资本经营预算财政拨款支出决算表 第一部分 绥中县工商联概况 一、主要职责 绥中县工商联是中国共产党领导的人民团体和民间商会，是县委和县政府联系非公有制经济的桥梁和纽带，是政府管理非公有制经济的助手，承担着引导私营经济发展的职能。 1、参政议政。参与全县政治、经济、社会生活中的主要问题的政治协商，发挥民主监督的作用。 2、做好工商界代表人士政治安排的推荐工作。 3、发扬自我教育的优良传统，宣传、贯彻党和国家的方针、政策，加强和改进思想政治工作，坚持对广大会员进行团结、教育、引导、服务，促进非公有制经济健康发展，提倡爱国、敬业、守法，提高会员素质，培养积极分子队伍。 4、引导会员积极参加国家经济建设，推进社会主义市场经济体制逐步完善，促进社会全面发展。 5、指导同业公会和行业商会等专业组织的工作。 6、代表并维护会员的合法权益，反映会员的意见、要求和建议;为会员提供有关证明，协调关系，参与调解经济纠纷。 7、引导会员把自身企业的发展与国家发展结合起来，把个人富裕与全体人民的共同富裕结合起来，弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业，积极参加扶贫光彩事业。 8、为会员提供信息、培训、科技、管理、法律、会计、审计融资、咨询等服务，帮助会员改进经营管理，完善财会制度，照章纳税，提高自身素质和生产技术、产品质量。 9、组织会员考察学习，举办和参加各种对内对外展销会、交易会，帮助会员开拓国内、国外市场，协助引进资金、技术、人才。 10、承办政府交办和有关部门委托事项。 二、部门决算单位构成 纳入绥中县工商联2021年部门决算编制范围的预算单位包括： 1.绥中县工商联 第二部分 绥中县工商联2021年度部门决算情况说明 一、收入支出决算总体情况 （一）收入总计67.78万元，包括： 1.财政拨款收入67.78万元，占收入总计的100%。其中：公共预算财政拨款收入67.78万元，政府性基金收入0万元。 2.上级补助收入0万元，占收入总计的0%。主要是XX等收入。 3.事业收入0万元，占收入总计的0%。主要是XX等收入。 4.经营收入0万元，占收入总计的0%。主要是XX等收入。 5.附属单位上缴收入0万元，占收入总计的0%。主要是XX等收入。 6.其他收入0万元，占收入总计的0%。主要是XX等收入。 7.用事业基金弥补收支差额0万元，占收入总计的0%。主要是XX等。 8.上年结转和结余0万元，占收入总计的0%。主要是XX等。 与上年相比，今年收入增加13.46万元，增长25%，主要原因：增加了人员工资以及项目的支出。 （二）支出总计67.78万元，包括： 1.基本支出62.67万元，占支出总计的92%。主要是为保障机构正常运转、完成日常工作任务而发生的各项支出，其中：工资福利支出43.16万元，对个人和家庭的补助支出0.85万元，商品和服务支出18.66万元。 2.项目支出5.11万元，占支出总计的8%。主要包括工商联执委会开会等业务支出。 3.上缴上级支出0万元，占支出总计的0%。主要包括XX等业务支出。 4.经营支出0万元，占支出总计的0%。主要包括XX等业务支出。 5.对附属单位补助支出0万元，占支出总计的0%。主要包括XX等业务支出。 与上年相比，今年支出增加12.92万元，增长24%，主要原因：人员工资的增加和项目的支出。 （三）年末结转和结余0万元。 主要是XX等原因形成的结余。与上年相比，今年结转结余增加（减少）0万元，增长（降低）0%，主要原因：一是XX；二是XX……。 二、财政拨款支出决算情况 （一）总体情况。 2021年度财政拨款支出67.78万元，其中：基本支出62.67万元，项目支出5.11万元。与上年相比，财政拨款支出增加12.92万元，增长24%，主要原因：人员工资的增加以及项目的增加。与年初预算相比，2021财政拨款支出完成年初预算的134%，其中：基本支出完成年初预算的124%，项目完成年初预算的100%。 （二）具体情况。 2021年度财政拨款支出67.78万元，按支出功能分类科目分，包括：一般公共服务支出55.15万元，占81%；社会保障和就业支出6.24万元，占9%；医疗卫生与计划生育支出3.57万元，占5%；节能环保支出0万元，占0%；农林水支出0万元，占0%；交通运输支出0万元，占0%；资源勘探信息等支出0万元，占0%；援助其他地区支出0万元，占0%；国土海洋气象等支出0万元，占0%；住房保障支出2.82万元，占4%。 1.一般公共服务支出55.15万元，具体包括： （1）行政运行37.51万元，主要是工资、公用经费等支出，完成年初预算的98%，决算数小于年初预算数的原因主要是人员的变动。 （2）一般行政管理事务0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 （3）预算改革业务0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 （4）信息化建设0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 （5）事业运行0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 （6）其他民主党派及工商联事务支出17.64万元，主要是执委会、知联会业务等支出，完成年初预算的100%，决算数大于年初预算数的原因主要是实际业务比预计要多费用增加。 2.社会保障和就业支出6.24万元，具体包括： （1）归口管理的行政单位离退休0.81万元，主要是退休人员取暖费等支出，完成年初预算的100%，决算数等于年初预算数。 （2）事业单位离退休0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 （3）机关事业单位基本养老保险缴费5.43万元，主要是养老保险单位缴费等支出，完成年初预算的108%，决算数大于年初预算数的原因主要是养老保险基数的调资导致缴费的增加。 （4）死亡抚恤0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 （5）伤残抚恤0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 3.卫生健康支出3.57万元，包括： （1）行政单位医疗3.57万元，主要是医保单位缴费等支出，完成年初预算的103%，决算数大于年初预算数的原因主要是医保基数的调资导致医保缴费的增加。 （2）事业单位医疗0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 4.农林水事务支出0万元，具体包括： 其他农业支出0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 5.金融支出0万元，具体包括： 其他金融支出0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 6.自然资源海洋气象等支出0万元，具体包括： 其他自然资源事务支出0万元，主要是XX等支出，完成年初预算的XX%，决算数小于（大于）年初预算数的原因主要是XX。 7.住房保障支出2.82万元，具体包括： 住房公积金2.82万元，主要是住房公积金等支出，完成年初预算的95%，决算数小于年初预算数的原因主要是预算与实际口径略有差异。 三、一般公共预算财政拨款“三公”经费支出决算情况 2021年度一般公共预算财政拨款安排的“三公”经费支出0万元，完成年初预算的0%，决算数小于（大于）年初预算数的原因主要是XX。其中：因公出国（境）费0万元，公务接待费0万元，公务用车购置及运行维护费0万元。 1.因公出国（境）费0万元，主要用于XX等，2021年参加出国（境）团组XX个，累计XX人次。2021年因公出国（境）费比上年减少（增加）XX万元，下降（增长）XX%，主要是XX等原因。 2.公务接待费0万元，主要用于XX等，2021年国内公务接待累计XX批次，XX人，万元。2021年公务接待费比上年减少（增加）XX万元，下降（增长）XX%，主要是XX等原因。 3. 公务用车购置及运行费0万元，比上年增加（减少）0万元，上升（下降）0%，主要是XX等原因。 公务用车购置费0万元，主要用于XX等,当年购置公务用车XX辆。公务用车运行维护费0万元，主要用于加油维修保险费等。截至年末使用一般公共预算财政拨款开支的公务用车保有量0辆。 四、一般公共预算财政拨款基本支出决算情况说明 2021年度一般公共预算财政拨款基本支出62.67万元，其中：人员经费43.16万元，主要包括基本工资、津贴补贴、奖金、其他社会保障缴费、机关事业单位基本养老保险缴费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、奖励金、住房公积金、采暖补贴、其他对个人和家庭补助的支出；日常公用经费19.51万元，主要包括办公费、印刷费、手续费、水费、电费、邮电费、取暖费、物业费、差旅费、因公出国（境）费用、维修（护）费、租赁费、会议费、培训费、公务接待费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费用、其他商品和服务支出、办公设备购置、专用设备购置、信息网络及软件购置更新。 五、其他重要事项的情况说明 （一）机关运行经费支出情况。 2021年工商联机关运行经费支出18.67万元，比上年增加10.78万元，增长137%，主要原因是增加了项目支出以及工作量增加机关运行成本。 （二）政府采购支出情况。 2021年工商联政府采购支出总额0万元，其中：政府采购货物支出0万元，政府采购工程支出0万元，政府采购服务支出0万元。授予中小企业合同金额0万元，占政府采购支出总额的0%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。 （三）国有资产占用情况。 截至2021年12月31日，工商联共有车辆0辆，其中：副省级以上领导干部用车0辆，主要领导干部用车0辆，机要通讯用车0辆，应急保障用车0辆，执法执勤用车0辆，特种专业技术用车0辆，离退休干部用车0辆，其他用车0辆，其他用车主要是……；单位价值50万元以上通用设备0台（套），单价100万元以上专用设备0台（套）。 （四）预算绩效管理工作开展情况。 根据财政预算管理要求，我单位组织对2021年度预算项目支出全面开展绩效自评，共涉及预算支出项目1个，涉及资金5.11万元，自评覆盖率（开展绩效自评的项目数/年初批复绩效目标的项目数）达到100%，自评平均分（开展绩效自评的项目分数总和/开展绩效自评的项目数）100分。 通过绩效自评发现预算项目管理主要存在以下问题：一是预算编制不够细化;二是预算监督机制不健全。下一步将采取以下措施加以改进：一是要细化项目预算编制，加强支出预算管理。加快完善全口径预算制度，扩大项目评审论证范围，坚持先有预算后有支出、没有预算不得支出的原则。二是要完善建章立制，内部控制不是局限在作用于财务管理层面，而是要建成一套环环相扣的动态监督机制，在全局业务运作过程中发挥作用。 第三部分 名词解释 1.财政拨款收入：指单位从同级财政部门取得的财政预算资金。 2.上级补助收入：指单位从主管部门和上级单位取得的非财政性补助收入。 3.事业收入：指事业单位开展专业业务活动及辅助活动所取得的收入。 4.经营收入：指事业单位在专业业务活动及辅助活动之外开展非独立核算经营活动取得的收入。 5.附属单位上缴收入：指单位附属的独立核算单位按照规定上缴的收入。 6.其他收入：指除上述“财政拨款收入”、 “上级补助收入”、“事业收入”、“经营收入”、“附属单位上缴收入”等以外的收入。 7.用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“上级补助收入”、“事业收入”、“经营收入”、“附属单位上缴收入”、“其他收入”不足以安排当年支出情况下，使用以前年度积累的事业基金（事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。 8.上年结转和结余：指以前年度尚未完成、结转到本年按有关规定继续使用的资金。 9.基本支出：指保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 10.项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 11.上缴上级支出：指事业单位按照财政部门和主管部门的规定上缴上级单位的支出。 12.经营支出：指事业单位在专业活动及辅助活动之外开展非独立核算经营活动发生的支出。 13.对附属单位补助支出：指事业单位用财政补助收入之外的收入对附属单位补助发生的支出。 14.“三公”经费：指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。 15.一般公共服务（类）财政事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。 第四部分 绥中县工商联2021年度部门决算表', '绥中县工商联是中国共产党领导的人民团体和民间商会，是县委和县政府联系非公有制经济的桥梁和纽带，是政府管理非公有制经济的助手，承担着引导私营经济发展的职能。', '1、参政议政。参与全县政治、经济、社会生活中的主要问题的政治协商，发挥民主监督的作用。', '3、发扬自我教育的优良传统，宣传、贯彻党和国家的方针、政策，加强和改进思想政治工作，坚持对广大会员进行团结、教育、引导、服务，促进非公有制经济健康发展，提倡爱国、敬业、守法，提高会员素质，培养积极分子队伍。', '4、引导会员积极参加国家经济建设，推进社会主义市场经济体制逐步完善，促进社会全面发展。', '6、代表并维护会员的合法权益，反映会员的意见、要求和建议;为会员提供有关证明，协调关系，参与调解经济纠纷。', '7、引导会员把自身企业的发展与国家发展结合起来，把个人富裕与全体人民的共同富裕结合起来，弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业，积极参加扶贫光彩事业。', '8、为会员提供信息、培训、科技、管理、法律、会计、审计融资、咨询等服务，帮助会员改进经营管理，完善财会制度，照章纳税，提高自身素质和生产技术、产品质量。', '9、组织会员考察学习，举办和参加各种对内对外展销会、交易会，帮助会员开拓国内、国外市场，协助引进资金、技术、人才。', '与上年相比，今年收入增加13.46万元，增长25%，主要原因：增加了人员工资以及项目的支出。', '等原因形成的结余。与上年相比，今年结转结余增加（减少）0万元，增长（降低）0%，主要原因：', '（1）行政运行37.51万元，主要是工资、公用经费等支出，完成年初预算的98%，决算数小于年初预算数的原因主要是人员的变动。', '（6）其他民主党派及工商联事务支出17.64万元，主要是执委会、知联会业务等支出，完成年初预算的100%，决算数大于年初预算数的原因主要是实际业务比预计要多费用增加。', '（1）归口管理的行政单位离退休0.81万元，主要是退休人员取暖费等支出，完成年初预算的100%，决算数等于年初预算数。', '（3）机关事业单位基本养老保险缴费5.43万元，主要是养老保险单位缴费等支出，完成年初预算的108%，决算数大于年初预算数的原因主要是养老保险基数的调资导致缴费的增加。', '（1）行政单位医疗3.57万元，主要是医保单位缴费等支出，完成年初预算的103%，决算数大于年初预算数的原因主要是医保基数的调资导致医保缴费的增加。', '住房公积金2.82万元，主要是住房公积金等支出，完成年初预算的95%，决算数小于年初预算数的原因主要是预算与实际口径略有差异。', '2021年度一般公共预算财政拨款安排的“三公”经费支出0万元，完成年初预算的0%，决算数小于（大于）年初预算数的原因主要是', '。其中：因公出国（境）费0万元，公务接待费0万元，公务用车购置及运行维护费0万元。', '2021年度一般公共预算财政拨款基本支出62.67万元，其中：人员经费43.16万元，主要包括基本工资、津贴补贴、奖金、其他社会保障缴费、机关事业单位基本养老保险缴费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、奖励金、住房公积金、采暖补贴、其他对个人和家庭补助的支出；日常公用经费19.51万元，主要包括办公费、印刷费、手续费、水费、电费、邮电费、取暖费、物业费、差旅费、因公出国（境）费用、维修（护）费、租赁费、会议费、培训费、公务接待费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费用、其他商品和服务支出、办公设备购置、专用设备购置、信息网络及软件购置更新。', '2021年工商联政府采购支出总额0万元，其中：政府采购货物支出0万元，政府采购工程支出0万元，政府采购服务支出0万元。', '授予中小企业合同金额0万元，占政府采购支出总额的0%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。', '根据财政预算管理要求，我单位组织对2021年度预算项目支出全面开展绩效自评，共涉及预算支出项目', '要细化项目预算编制，加强支出预算管理。加快完善全口径预算制度，扩大项目评审论证范围，坚持先有预算后有支出、没有预算不得支出的原则。', '要完善建章立制，内部控制不是局限在作用于财务管理层面，而是要建成一套环环相扣的动态监督机制，在全局业务运作过程中发挥作用。', '指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“上级补助收入”、“事业收入”、“经营收入”、“附属单位上缴收入”、“其他收入”不足以安排当年支出情况下，使用以前年度积累的事业基金（事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>47</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>葫杨管委发号关于印发杨家杖子经济开发区年度城乡居民基本医疗保险和</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-12-26</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://yjzz.hld.gov.cn/zwgk/zfxxgk/fdzdgknr/zcjd/202301/t20230106_1126967.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['葫杨管委发〔2022〕43号关于印发《杨家杖子经济开发区2023年度城乡居民基本医疗保险和全民健康补充医疗保险“医无忧福禄保”参保缴费工作实施方案》的通知的政策解读', '关于2023年度葫芦岛市城乡 居民基本医保和“医无忧福禄保” 参保政策的解读 为认真落实党的二十大关于“健全覆盖全民、统筹城乡、公平统一、安全规范、可持续的多层次社会保障体系”“扩大社会保险覆盖面”“积极发展商业医疗保险”的部署要求，全面贯彻《中共中央 国务院关于深化医疗保障制度改革的意见》及省、市实施意见（方案）精神，扎实做好“六稳”“六保”工作，防范化解取消职工医保风险调剂金征缴政策后医保基金运行风险，有效发挥政府部门协同推动作用，开发推广与基本医保相衔接的普惠型商业健康保险，努力扩大参保覆盖面，助力脱贫攻坚与乡村振兴有效衔接，经请示省医保局和市政府同意，葫芦岛市启动了惠民保险工作，8月31日至9月3日12个市直部门（单位）及行业协会、县（市）区代表前往浙江省丽水市考察学习“浙丽保”项目运行情况及先进经验，10月17日市医保局等16个市直部门（单位）、保险行业协会联合印发了《促进葫芦岛市普惠型商业健康保险发展，进一步健全多层次医疗保障体系的实施方案》。为统筹做好城乡居民基本医疗保险和全民健康补充医疗保险同时动员、同期参保工作，市政府责成市税务局、市医保局联合起草了《关于做好2023年度城乡居民基本医疗保险和全民健康补充医疗保险参保缴费工作的通知》（拟以市政府办公室文件下发），并成立了以副市长朱德义同志为组长的参保推进工作领导小组，推动城乡居民基本医疗保险和全民健康补充医疗保险参保工作。为抓好工作落实，现就有关情况说明如下： 一、关于葫芦岛市全民健康补充医疗保险的情况说明 全市统一建立名称为葫芦岛市全民健康补充医疗保险-“医无忧福禄保”（简称“医无忧福禄保”）的普惠型商业健康保险制度。“医无忧福禄保”系由政府、社会、市场协同推进的具有公益性的普惠型商业健康保险，该险种在减轻本地医保基金压力和人民群众医疗费用负担方面具有重要作用。具体情况如下： （一）运行模式 政府主导、公益运行、保险承办、自负盈亏。 （二）覆盖人群 参加我市基本医保的个人全员准入。 （三）参保条件 不设定免责条款，不限制年龄、性别、职业、病史。 （四）缴费标准 2023年为89元／人，结合居民人均可支配收入、基金平衡情况实行动态调整。 （五）保障范围 1.合规医疗费用。合规医疗费用指医保政策范围内个人自付费用，包括参保人员发生的门诊慢特病、高值药品、住院医疗费用中符合医保支付要求，按规定需由个人按比例承担的自付费用；医保目录内乙类药品、医疗服务项目和医用耗材需由个人先行自付费用；符合医保支付要求，在基本医疗保障制度支付限额以上由个人承担的自付费用。大病保险起付线以下费用不纳入“医无忧福禄保”保障范围。 2.合理医疗费用。合理医疗费用指因病施治的医保政策范围外个人负担费用，即参保人员发生的门诊慢特病、高值药品、住院医疗费用中不符合医保支付要求，按基本医疗保险规定需由个人全额承担的费用，具体包括：属于医保目录但不符合医保目录限定支付要求以及超出医保目录限额规定的药品、医疗服务项目和医用耗材费用；未纳入负面清单管理的自费药品、医疗服务项目和医用耗材费用。 （六）起付标准 医保政策范围内1.5万元，与大病保险起付标准共同累计；医保政策范围外1.5万元。 （七）报销比例 医保政策范围内报销比例为50％，医保政策范围外报销比例为40％。如12月31日前参保率达到60％，报销比例各提升10％。 （八）支付限额 1.参保率低于50％，住院医疗费用最高保障200万元。 2.参保率达到50％以上，最高保障提高至361万元，覆盖成年苯丙酮尿症患者健康辅食，每年最高1万元。 （九）缴费优势 1．“线上＋线下”多种参保缴费渠道。 2．个人账户可代扣代缴本人及直系亲属保费。 3．困难人员可由各地区政府资助参保缴费。 （十）清单管理 1．负面清单：存在滥用倾向、疗效不明确、主要起滋补保健用途的药品、医疗服务项目和医用耗材纳入负面清单，不列入保险范围。 2．正面清单：尚未纳入基本医疗保险和大病保险支付范围但疗效明显、价格适宜、适用范围明确的医疗服务项目纳入“医无忧福禄保”保障范围。 （十一）政策支持 1.参保动员：目标参保率为75％，纳入政府绩效考核。与城乡居民基本医疗保险同时动员、同期参保，建设线上、线下参保缴费渠道，为群众参保缴费提供便捷选择。 2.信息共享：提供医保数据精算支持，完善“医保商保直付平台”功能，支撑商业健康保险待遇“一站式”结算。 3.经办融合：探索合署办公，部分服务资源实行共享共建，促进商保参与医保经办服务、定点机构协议管理、医保服务规范管理等工作。 （十二）运行管理 1.服务费用：筹集的保费除用于必要的运营成本之外，全部用于参保人员的待遇保障，最大限度惠及广大重病、重费用负担群体，赔付率不低于90％。 2.赔付率管控：实时监测“医无忧福禄保”的赔付率，当一个保险协议期内净赔付率较低或较高时，下一年度可按照上年度盈亏情况重新进行产品精算。 3.滚存使用：收支结余部分滚存使用。 （十三）保障措施 主要从加强组织协调、落实责任分工、做好综合保障、强化宣传引导等四个方面予以保障。 二、关于2023年度城乡居民基本医疗保险和全民健康补充医疗保险参保缴费工作的情况说明 （一）缴费标准 1.2023年度居民医保个人参保缴费标准每人350元。 2.2023年度“医无忧福禄保”参保缴费标准每人89元。 （二）参保范围 1．居民医保参保范围：本市居住的非就业居民；在校学生；无缴费能力困难企业的退休人员可以选择暂时参加居民医保；低保对象、特困人员、孤儿（含事实无人抚养儿童，下同）、低保边缘家庭成员、纳入监测范围的农村易返贫致贫人口等困难群体。 2．“医无忧福禄保”参保范围：本市职工医保和居民医保参保人员。 （三）参保缴费及待遇享受时间 1．居民医保2023年度集中参保缴费期为2022年11月1日至2023年3月31日，待遇享受期为2023年1月1日至12月31日。在2023年4月1日至8月31日参保缴费的，设置3个月待遇等待期。2023年9月1日至12月31日不再受理2023年度参保缴费业务。 2．“医无忧福禄保”集中参保缴费期为2022年11月1日至12月31日，待遇享受期为2023年1月1日至12月31日。2023年为“医无忧福禄保”运行首年，参保缴费期延长至2023年3月31日，参保缴费次日起享受待遇。 （四）待遇等待期 1.居民医保待遇等待期 因个人就业状态变化，参保人由职工医保切换为居民医保，且中断缴费不超过3个月，缴费后即可正常享受待遇；中断缴费超过3个月，设置3个月待遇等待期；2022年11月1日至12月31日期间切换参保关系，可自愿选择参加当年或下一年度居民医保。 在校学生首次参保不设待遇等待期，待遇享受期为2023年1月1日至12月31日。 新生儿出生90日内参保缴费不设待遇等待期，从出生之日起享受待遇。如新生儿在出生下一年度办理参保登记，须按出生年度缴费标准补缴费用，方可享受出生年度的医保待遇。 为进一步提高参保连续性，促进医保基金安全可持续，2023年起，居民医保参保缴费累计满10年，报销比例提高5％。2023年起，居民医保连续参保人员按规定享受待遇，中断后续保的（含集中缴费期续保缴费），下一年度设置3个月待遇等待期。 低保对象、特困人员、孤儿、低保边缘家庭成员及纳入监测范围的农村易返贫致贫人口等困难群体参保不设待遇等待期，自取得医疗救助对象资格之日起享受待遇。困难群众住院期间取得医疗救助对象资格的，当次住院即按照医疗救助政策给予相应医疗救助。 2.“医无忧福禄保”待遇等待期 设置待遇等待期情况：未在首年参保或参保中断后续保的，设置6个月待遇等待期。 不设置待遇等待期情况：新生儿在出生后90日内参保缴费的、部队转业人员（含退役义务兵）转业后30日内参保缴费的、户籍迁入人员在迁入之后30日内参保缴费的、刑满释放人员在刑满释放后30日内参保缴费的，不设置待遇等待期，按照基本医疗保险待遇起始时间享受“医无忧福禄保”待遇。 （五）参保缴费方式 全面推进参保线上缴费，参保群众可通过“辽宁税务微办税”微信小程序及“辽事通”“支付宝”链接缴纳居民医保保费，通过“医无忧福禄保”微信公众号缴纳“医无忧福禄保”保费；税务、医保经办窗口、金融业务大厅实体柜台、保险业务大厅实体柜台（系“医无忧福禄保”线下缴费渠道）为老年人等群体提供传统的线下缴费服务。具体情况如下： 1．居民医保参保缴费方式 （1）学生参保缴费。在校学生不受户籍限制，按照所在行政区划到属地医保经办机构和税务部门办理参保缴费。辽宁工程技术大学、辽宁财贸学院、渤海船舶职业学院学生参保缴费工作由兴城市负责。 （2）外地户籍人员参保缴费。外地户籍人员持居住证、身份证等相关资料到现居住地医保经办机构和税务部门参保缴费。 （3）参保资助。对低保对象、特困人员、孤儿、返贫致贫人口、监测帮扶对象个人缴费部分由医疗救助资金给予全额资助；对低保边缘家庭成员等困难人员个人缴费部分由医疗救助资金给予60％资助。 （4）其它城乡居民参保缴费。城乡居民在户籍所在地医保经办机构和税务部门办理参保缴费。 2.“医无忧福禄保”参保缴费方式 （1）参保人员自行缴纳。参保人员可通过线上和线下渠道自行缴纳“医无忧福禄保”保费。职工医保参保人员个人账户可用于本人缴纳“医无忧福禄保”保费，个人账户结余部分可用于已在本市参加基本医疗保险的近亲属缴纳“医无忧福禄保”保费。 （2）医保经办机构代扣代缴。医保经办机构向职工医保参保单位发送所属职工医保个人账户代扣代缴保费确认信息，经参保人员确认的，给予扣款。经参保人员确认同意今后年度自动续保代扣代缴的，次年开始参保人员在集中缴费期未提出停止续保要求的，实行自动续保扣费。 （3）参保资助。开发区参照城乡居民基本医疗保险保费征收规定，出台政策对困难人员及其他特殊群体予以参保资助。当地民政、乡村振兴、总工会、残联、红十字会等部门提供困难人员身份信息，承保机构办理参保缴费手续。 (4)税务部门做好居民医保的征缴工作，拓宽缴费渠道，提供银行柜面、“辽事通”、“支付宝”、“微信”等线下线上多种缴费方式，及时将参保人员缴费明细传递给医保经办机构，与医保部门共同建立健全信息双向交换机制，及时清理重复参保数据，摸排参保盲区，及时处理异常情况，提高参保缴费效率。做好“医无忧福禄保”的税收优惠工作。 (5).医保部门要指导经办机构优化经办流程，做好参保登记、核定等工作，特别是要加强对居民医保新增人员的参保登记管理，努力做到“一站式”服务，要及时将参保人员信息推送至税务部门，确保缴费人员能及时缴费、顺畅缴费。有效清理重复参保。要与保险行业协会共同指导“医无忧福禄保”承办机构科学设定保障方案，提供精算数据，做好平台信息共享和结算支持；要会同银保监等相关部门做好赔付率管控、规范资金使用管理等工作；要指导各地区、各部门一方面积极宣传医疗保险参保和待遇方面的优惠政策，使广大群众真正认识到医疗保险的优越性，进而转变思想，提高参保缴费的积极性、主动性；另一方面全面增强服务意识，主动深入基层，贴近群众，为参保人员提供政策咨询、参保缴费、信息查询等便捷服务，切实以积极的态度、热忱的服务、高效的工作赢得居民的信任和支持。', '为认真落实党的二十大关于“健全覆盖全民、统筹城乡、公平统一、安全规范、可持续的多层次社会保障体系”“扩大社会保险覆盖面”“积极发展商业医疗保险”的部署要求，全面贯彻《中共中央 国务院关于深化医疗保障制度改革的意见》及省、市实施意见（方案）精神，扎实做好“六稳”“六保”工作，防范化解取消职工医保风险调剂金征缴政策后医保基金运行风险，有效发挥政府部门协同推动作用，开发推广与基本医保相衔接的普惠型商业健康保险，努力扩大参保覆盖面，助力脱贫攻坚与乡村振兴有效衔接，经请示省医保局和市政府同意，葫芦岛市启动了惠民保险工作，8月31日至9月3日12个市直部门（单位）及行业协会、县（市）区代表前往浙江省丽水市考察学习“浙丽保”项目运行情况及先进经验，10月17日市医保局等16个市直部门（单位）、保险行业协会联合印发了《促进葫芦岛市普惠型商业健康保险发展，进一步健全多层次医疗保障体系的实施方案》。为统筹做好城乡居民基本医疗保险和全民健康补充医疗保险同时动员、同期参保工作，市政府责成市税务局、市医保局联合起草了《关于做好2023年度城乡居民基本医疗保险和全民健康补充医疗保险参保缴费工作的通知》（拟以市政府办公室文件下发），并成立了以副市长朱德义同志为组长的参保推进工作领导小组，推动城乡居民基本医疗保险和全民健康补充医疗保险参保工作。为抓好工作落实，现就有关情况说明如下：', '全市统一建立名称为葫芦岛市全民健康补充医疗保险-“医无忧福禄保”（简称“医无忧福禄保”）的普惠型商业健康保险制度。“医无忧福禄保”系由政府、社会、市场协同推进的具有公益性的普惠型商业健康保险，该险种在减轻本地医保基金压力和人民群众医疗费用负担方面具有重要作用。具体情况如下：', '合规医疗费用指医保政策范围内个人自付费用，包括参保人员发生的门诊慢特病、高值药品、住院医疗费用中符合医保支付要求，按规定需由个人按比例承担的自付费用；医保目录内乙类药品、医疗服务项目和医用耗材需由个人先行自付费用；符合医保支付要求，在基本医疗保障制度支付限额以上由个人承担的自付费用。大病保险起付线以下费用不纳入“医无忧福禄保”保障范围。', '合理医疗费用指因病施治的医保政策范围外个人负担费用，即参保人员发生的门诊慢特病、高值药品、住院医疗费用中不符合医保支付要求，按基本医疗保险规定需由个人全额承担的费用，具体包括：属于医保目录但不符合医保目录限定支付要求以及超出医保目录限额规定的药品、医疗服务项目和医用耗材费用；未纳入负面清单管理的自费药品、医疗服务项目和医用耗材费用。', '参保率达到50％以上，最高保障提高至361万元，覆盖成年苯丙酮尿症患者健康辅食，每年最高1万元。', '存在滥用倾向、疗效不明确、主要起滋补保健用途的药品、医疗服务项目和医用耗材纳入负面清单，不列入保险范围。', '尚未纳入基本医疗保险和大病保险支付范围但疗效明显、价格适宜、适用范围明确的医疗服务项目纳入“医无忧福禄保”保障范围。', '目标参保率为75％，纳入政府绩效考核。与城乡居民基本医疗保险同时动员、同期参保，建设线上、线下参保缴费渠道，为群众参保缴费提供便捷选择。', '提供医保数据精算支持，完善“医保商保直付平台”功能，支撑商业健康保险待遇“一站式”结算。', '探索合署办公，部分服务资源实行共享共建，促进商保参与医保经办服务、定点机构协议管理、医保服务规范管理等工作。', '筹集的保费除用于必要的运营成本之外，全部用于参保人员的待遇保障，最大限度惠及广大重病、重费用负担群体，赔付率不低于90％。', '实时监测“医无忧福禄保”的赔付率，当一个保险协议期内净赔付率较低或较高时，下一年度可按照上年度盈亏情况重新进行产品精算。', '二、关于2023年度城乡居民基本医疗保险和全民健康补充医疗保险参保缴费工作的情况说明', '．居民医保参保范围：本市居住的非就业居民；在校学生；无缴费能力困难企业的退休人员可以选择暂时参加居民医保；低保对象、特困人员、孤儿（含事实无人抚养儿童，下同）、低保边缘家庭成员、纳入监测范围的农村易返贫致贫人口等困难群体。', '因个人就业状态变化，参保人由职工医保切换为居民医保，且中断缴费不超过3个月，缴费后即可正常享受待遇；中断缴费超过3个月，设置3个月待遇等待期；2022年11月1日至12月31日期间切换参保关系，可自愿选择参加当年或下一年度居民医保。', '新生儿出生90日内参保缴费不设待遇等待期，从出生之日起享受待遇。如新生儿在出生下一年度办理参保登记，须按出生年度缴费标准补缴费用，方可享受出生年度的医保待遇。', '为进一步提高参保连续性，促进医保基金安全可持续，2023年起，居民医保参保缴费累计满10年，报销比例提高5％。2023年起，居民医保连续参保人员按规定享受待遇，中断后续保的（含集中缴费期续保缴费），下一年度设置3个月待遇等待期。', '低保对象、特困人员、孤儿、低保边缘家庭成员及纳入监测范围的农村易返贫致贫人口等困难群体参保不设待遇等待期，自取得医疗救助对象资格之日起享受待遇。困难群众住院期间取得医疗救助对象资格的，当次住院即按照医疗救助政策给予相应医疗救助。', '不设置待遇等待期情况：新生儿在出生后90日内参保缴费的、部队转业人员（含退役义务兵）转业后30日内参保缴费的、户籍迁入人员在迁入之后30日内参保缴费的、刑满释放人员在刑满释放后30日内参保缴费的，不设置待遇等待期，按照基本医疗保险待遇起始时间享受“医无忧福禄保”待遇。', '全面推进参保线上缴费，参保群众可通过“辽宁税务微办税”微信小程序及“辽事通”“支付宝”链接缴纳居民医保保费，通过“医无忧福禄保”微信公众号缴纳“医无忧福禄保”保费；税务、医保经办窗口、金融业务大厅实体柜台、保险业务大厅实体柜台（系“医无忧福禄保”线下缴费渠道）为老年人等群体提供传统的线下缴费服务。具体情况如下：', '（1）学生参保缴费。在校学生不受户籍限制，按照所在行政区划到属地医保经办机构和税务部门办理参保缴费。辽宁工程技术大学、辽宁财贸学院、渤海船舶职业学院学生参保缴费工作由兴城市负责。', '（2）外地户籍人员参保缴费。外地户籍人员持居住证、身份证等相关资料到现居住地医保经办机构和税务部门参保缴费。', '（3）参保资助。对低保对象、特困人员、孤儿、返贫致贫人口、监测帮扶对象个人缴费部分由医疗救助资金给予全额资助；对低保边缘家庭成员等困难人员个人缴费部分由医疗救助资金给予60％资助。', '（4）其它城乡居民参保缴费。城乡居民在户籍所在地医保经办机构和税务部门办理参保缴费。', '（1）参保人员自行缴纳。参保人员可通过线上和线下渠道自行缴纳“医无忧福禄保”保费。职工医保参保人员个人账户可用于本人缴纳“医无忧福禄保”保费，个人账户结余部分可用于已在本市参加基本医疗保险的近亲属缴纳“医无忧福禄保”保费。', '（2）医保经办机构代扣代缴。医保经办机构向职工医保参保单位发送所属职工医保个人账户代扣代缴保费确认信息，经参保人员确认的，给予扣款。经参保人员确认同意今后年度自动续保代扣代缴的，次年开始参保人员在集中缴费期未提出停止续保要求的，实行自动续保扣费。', '（3）参保资助。开发区参照城乡居民基本医疗保险保费征收规定，出台政策对困难人员及其他特殊群体予以参保资助。当地民政、乡村振兴、总工会、残联、红十字会等部门提供困难人员身份信息，承保机构办理参保缴费手续。', '税务部门做好居民医保的征缴工作，拓宽缴费渠道，提供银行柜面、“辽事通”、“支付宝”、“微信”等线下线上多种缴费方式，及时将参保人员缴费明细传递给医保经办机构，与医保部门共同建立健全信息双向交换机制，及时清理重复参保数据，摸排参保盲区，及时处理异常情况，提高参保缴费效率。做好“医无忧福禄保”的税收优惠工作。', '医保部门要指导经办机构优化经办流程，做好参保登记、核定等工作，特别是要加强对居民医保新增人员的参保登记管理，努力做到“一站式”服务，要及时将参保人员信息推送至税务部门，确保缴费人员能及时缴费、顺畅缴费。有效清理重复参保。要与保险行业协会共同指导“医无忧福禄保”承办机构科学设定保障方案，提供精算数据，做好平台信息共享和结算支持；要会同银保监等相关部门做好赔付率管控、规范资金使用管理等工作；要指导各地区、各部门一方面积极宣传医疗保险参保和待遇方面的优惠政策，使广大群众真正认识到医疗保险的优越性，进而转变思想，提高参保缴费的积极性、主动性；另一方面全面增强服务意识，主动深入基层，贴近群众，为参保人员提供政策咨询、参保缴费、信息查询等便捷服务，切实以积极的态度、热忱的服务、高效的工作赢得居民的信任和支持。', '葫杨管委发〔2022〕43号关于印发《杨家杖子经济开发区2023年度城乡居民基本医疗保险和全民健康补充医疗保险“医无忧福禄保”参保缴费工作实施方案》的通知']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>47</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>兴城市公安局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xxgk/zfxxgk/zfxxgknb/ndbg_gbm/ndbg_gbm_2022/202301/t20230113_1128085.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国政府信息公开条例》及《中华人民共和国政府信息公开工作年度报告格式》（国办公开办函【2021】30号）相关要求，现公布兴城市公安局2022年政府信息公开工作年度报告。', '年，兴城市公安局坚持以习近平新时代中国特色社会主义思想为指导，坚持以人民为中心深化政务公开，全面贯彻落实党中央国务院、省委省政府关于全面推进政务公开工作的决策部署，紧紧围绕2022年兴城市政务公开工作要点，不断加强政策解读和回应关切，深入推进决策和执行公开，强化制度和平台建设，进一步提高政府工作透明度，充分发挥政务公开促落实、促规范、促服务、强监督的作用，助力全市营商环境和政务环境提升，切实提升人民群众获得感和满意度。', '一是通过线上线下相结合的方式全面、及时、准确公开政务服务事项、办事指南、办事流程、办事机构、常见问题、监督举报方式等信息。二是强化政策解读，积极回应社会关切。更多采用图表图解、简明问答、短视频等形式，全面深入解读政策背景、出台目的、重要举措等实质性内容，不断提升解读效果。', '我局以“服务群众、解决问题、化解矛盾”为工作宗旨，严格按照依申请公开办理规范指引，进一步明确办理规则，完善办理流程，提高答复效率。由办公室牵头，办案部门和法制部门协同配合，通过约谈、电联、调查等多种形式，了解申请公开的背后原因，解决申请人的实质问题，从而提升答复质量和群众满意度。', '明确政府信息公开工作职责和任务，明确专人负责政府信息公开工作。进一步完善政府信息公开审批和保密审查制度，加强对拟公开政府信息的审核把关。加强学习宣传，营造工作氛围，组织全体民警、职工、辅警学习《政府信息公开条例》及相关解释规定，不断提高对政府信息公开工作重要意义的认识。', '我局政府信息公开工作取得了一定成绩，但是与市委市政府及上级公安机关工作要求相比，与人民群众的迫切要求和殷切期待相比，还存在公开意识不强、系统管理能力不足、人员队伍素质有待提高等差距和不足。以上问题将在2023年工作中持续改进，具体举措如下：', '（一）进一步建立健全政府信息公开申请登记、审核、办理、答复、归档工作制度。动脑筋，想办法，采取多种方式，方便公民、法人和其他组织申请公开政府信息。', '（三）走出去，送出去，切实提升本机关的政府信息公开工作。走出去，就是向走在前列的兄弟单位考察学习；送出去，就是在有必要的情况下，送相关工作人员到市府办政务公开科跟班学习。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>47</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>南票区打击盗采矿产资源工作专班召开工作会议</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/npxw/202309/t20230906_1153008.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为严厉打击非法采矿,确保矿产资源开发和管理秩序,维护人民群众的生命财产安全,南票区打击盗采矿产资源工作专班召开工作会议。', '会议听取了各乡(镇)、街道前一阶段及区委、区政府主要领导关于打击盗采矿产资源工作部署的落实情况。对下一步打击非法盗采矿产资源工作进行了安排部署。通报了区打击盗采矿产资源工作专班赴山东省临沂市费县、临沭县考察学习情况。', '会议要求,要保持高压态势,对盗采“零容忍”;要坚持多措并举,切实看住打痛;要强化责任落实,严肃问责追究。', '会议还组织学习了《关于充分发挥环境资源审判职能作用 依法惩处盗采矿产资源犯罪的意见》和《自然资源部关于规范和完善砂石开采管理的通知》等打击盗采矿产资源工作的相关文件。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>47</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>建昌县市场监管局用基层实际行动践行高质量发展理念</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://scjg.hld.gov.cn/zx/gzdt/202307/t20230717_1148185.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['建昌县市场监督管理局以党的二十大精神为思想纲领和行动指南，在辽宁全面振兴新突破三年行动中，谋实招、求实效、正行风、树新风，助企纾困、创新服务，从坚守安全底线到助力高质量发展，用基层市场监管实际行动践行高质量发展理念。在质量强县的浪潮中，建立各方标准是企业提升竞争力的基本要求。市场监管部门也要高质量、高标准服务监管。', '在传统手工作坊的基础上，借助山楂优产高产的地缘优势，建昌县特色山楂蜜饯产业的发展历史已有20余年，如今遇到了新的发展机遇与制约瓶颈。本着推动特色产业高质量发展的思想理念，建昌县市场监督管理局对全县5个乡镇9家山楂制品企业进行深度调研，全面推进食品安全“两个责任”落地落实。为促进传统行业长足发展，引进优秀同行业发展先进经验，局党组采取走出去引进来的方式：带领山楂制品行业法人远赴承德怡达食品股份有限公司进行考察学习；邀请辽宁省食检院的专家来到建昌县检验检测中心对全县山楂制品企业检验员进行培训，推进校企对接，为企业发展创造良好的营商环境和技术支撑，为今后的发展指明了方向、奠定了基础。', '天香源生态农场作为目前东北最大的牡丹种植基地，集产学研于一体，预计投资1.5亿元建设天香源高新农业科技产业园区。项目规划占地27335平方米，总建筑面积31395.02平方米。针对天香源食品产业园区构建的牡丹籽油、牡丹花蕊茶、牡丹全花茶、牡丹酒四大车间三条生产线，建昌县市场监督管理局根据食品生产许可前置条件要求，对牡丹制品车间的功能设置、格局规划、流程规范进行事前现场业务指导。避免出现建成后因不符合食品安全相关要求返工重建现象，有效为企业节省时间和经济成本。', '在天香源“牡丹科技看建昌”远大目标实现过程中，建昌县市场监督管理局依托计量、标准、检验检测、特种设备、知识产权、质量管理等职能，将市场监管服务送到企业身边，为企业提供全链条、全方位、全过程质量基础设施一站式服务。围绕企业的急难愁盼，精准对接企业质量提升需求。带领省标准化专家对天香源生态农场进行实地参观考察，针对辽宁省农业标准化试点项目建设作出指导。建昌县检验检测中心建立计量标准10项、食品及产品质量检验覆盖19大类270个参数，为高质量发展提供技术支撑，形成助推高质量发展强大合力。', '格兰登堡作为建昌本土新生代酿造啤酒品牌，从建立健全食品安全管理制度到完善企业质量管理体系，每一次升级换代都离不开建昌县市场监督管理局的指导与帮助。在市场监管部门与企业的共同努力下，格兰登堡前端生产环节已实现自动化。为扩大品牌知名度，省市县市场监管部门三级联动，邀请辽宁省食品安全协会主办的辽宁食安节目联合辽宁省电视台对格兰登堡进行专题报道。当前，建昌县市场监督管理局为格兰登堡打开销路、打破老牌啤酒在餐饮单位销售垄断的现象正在做出多方尝试。', '此外，建昌县市场监督管理局积极推进“雷家店核桃”、“要路沟小米”两项国家地理标志保护产品的市级地方标准制定，其品牌价值分别被评价为9000万和2300万，为建昌品牌建设提供数据支撑。', '市场监管之于推动企业高质量发展所发挥的重要作用是及时引导、牵线搭桥、主动服务、科学监管，形成全链条、全产业周期服务机制，促进市场主体活跃。建昌县市场监督管理局将秉承“重服务、强监管、轻处罚”的服务监管模式，“首违不罚”，杜绝“以罚代管”，持续优化营商环境，提升市场主体的获得感，达成高质量发展的强大行动共识。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>47</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>市市场监督管理局党组会议年月日</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://scjg.hld.gov.cn/zw/bmhy/202307/t20230704_1146923.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['，传达学习3月30日中央政治局会议精神、学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议、4月4日省委常委会（扩大）会议精神、全省学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议精神和4月6日省委常委会会议精神，研究我局贯彻落实意见；传达学习省委书记、省人大常委会主任郝鹏和省委副书记、省长李乐成在辽宁省党政代表团赴吉林黑龙江内蒙古学习考察总结交流会上的讲话精神；传达学习辽宁省党政代表团赴吉林、黑龙江、内蒙古考察学习情况，研究我局贯彻落实意见。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>47</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>刘占元带队到北票市和锦州市义县考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/szxw/202304/t20230419_1139455.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['4月15日，县委书记刘占元带领各乡镇农场和相关部门负责同志到北票市和锦州市义县考察学习城乡人居环境整治先进经验，北票市委书记丁文举、义县县委书记郭廓等北票市、锦州市义县领导陪同，县领导吴宝川、张伟、王涛参加考察学习。', '在北票市，刘占元一行实地调研了北票绿道项目、山体公园修复项目和河口公园，并深入南八家子乡、凉水河乡、台吉镇等乡镇看村屯环境，听情况汇报，深入了解环境整治的具体举措。在锦州市义县，刘占元一行先后来到地藏寺乡、留龙沟镇和大定堡乡实地调研参观，详细了解农村人居环境整治工作的好经验、好做法。', '丁文举、郭廓分别介绍了北票市和锦州市义县城乡人居环境整治工作开展情况。丁文举、郭廓希望与我县进一步加强联系、勤于交流、提高标准，以实干争先的作风推动人居环境整治工作走深走实走心，共同打造宜居、宜业、和谐的美丽家园。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>47</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>葫芦岛全面振兴新突破三年行动领导小组第三次扩大会议召开</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/xwdt/zwyw/202305/t20230515_1141921.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['本报讯 记者袁慧玲报道 5月14日，葫芦岛全面振兴新突破三年行动领导小组第三次（扩大）会议召开。市委书记、市人大常委会主任、葫芦岛全面振兴新突破三年行动领导小组组长杨军生主持会议并讲话。市委副书记、市长、葫芦岛全面振兴新突破三年行动领导小组副组长何志勇，市政协党组书记、主席、葫芦岛全面振兴新突破三年行动领导小组成员孙洪军，市委副书记、葫芦岛全面振兴新突破三年行动领导小组成员冯英出席会议。', '会议以播放新闻纪录片的形式，传达学习了省委书记、省人大常委会主任郝鹏和省委副书记、省长李乐成讲话精神；传达学习了辽宁省党政代表团赴吉林、黑龙江、内蒙古考察学习情况；研究我市贯彻落实意见。', '会议强调，全市上下要认清辽宁省党政代表团赴吉林、黑龙江、内蒙古考察学习的重要意义，切实增强紧迫感、危机感、责任感。要深入学习省委书记、省人大常委会主任郝鹏和省委副书记、省长李乐成讲话精神，以坐不住、等不起、慢不得的紧迫感、危机感和责任感，扬优势补短板，切实把考察成果转化为推动高质量发展的实际成效。要对标考察实际，认真学习借鉴吉林、黑龙江、内蒙古在科技创新驱动发展、聚焦主业争当龙头、发挥优势培育产业、做强老企业焕发新生机、城乡环境精益求精、扩大开放深化改革等方面好的经验和做法，补齐短板弱项，推动振兴发展。', '会议要求，要坚持“项目为王”，做好“百日攻坚”后半篇文章，踢好重大项目“临门一脚”，全力以赴推进项目开复工，谋划更多大项目、好项目落户葫芦岛。要壮大产业体系，加快建设“一通道六基地”、实施“千百亿”产业集群、构建“4+8”现代化产业体系，大力发展新能源、精细化工、文旅产业、海洋经济、数字经济。要全力招商引资，各地区、各相关部门主要领导都要把主要精力转移到招商引资上来，把招商队伍派出去，把资金和项目引进来。要强化科技支撑，紧盯京津冀科技创新资源“筑巢引凤”“借鸡生蛋”，全面提升东戴河“带土移植”转化中心承载和带动能力，打造京津冀科研成果产业化基地；要全面加强我市与知名高校和科研院所的交流合作，打造高质量产学研联盟。要扩大对外开放，积极融入东北海陆大通道，着力抓好葫芦岛港“一港四区”和凌绥高速建设。要加大工作力度，强力整治环境，坚决打赢城乡环境整治翻身仗。要持续改进作风，坚决杜绝慵懒思想、低标准状态和守旧作风，真正做到“苦干实干提拔重用、跑要躲闪坚决不用”。', '葫芦岛全面振兴新突破三年行动领导小组成员，市委有关副秘书长、市政府有关副秘书长，市委各部委和市直有关部门负责同志，各县（市、区）、各市属开发区主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>47</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>我县召开人居环境综合整治工作推进会议</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/jcbs/zxls/202304/t20230423_1139908.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['4月20日，我县召开人居环境综合整治工作推进会议，安排部署当前全县人居环境综合整治工作，县委书记刘占元出席会议并讲话，项继飞、常峥、沈连春等县和东戴河新区领导出席会议。', '刘占元在讲话中指出，推进城乡人居环境综合整治，是党中央从战略和全局出发、贯彻以人民为中心的发展思想作出的重大决策部署，是着力改善民生、不断满足人民群众对幸福生活和美好环境新期待的具体举措，要站在深入践行习近平生态文明思想的政治高度，落实好上级决策部署、任务要求，坚持问题导向，以农村人居环境改善治理的“小切口”，推动乡村振兴的“大战略”。', '刘占元要求，要把强化党建引领摆在首位，推动政治和组织能力双提升，进一步提升执行力和战斗力，要加强政府统筹，因村施策，加强责任落实，落实好主要领导包片、县级领导包乡，乡干部包村，村干部、党员、网格员包户。要加强分类减量，做到生活垃圾不出院，建筑垃圾集中收，棚室垃圾统一苫，河道垃圾定时清，秸秆柴火指定放。要加强群众动员，加大资金整合，提升干部状态，提升工作标准，占领阵地，常态长效，要引导全民参与环境整治，形成人人理解、人人参与、人人支持的强大合力，切实提高农村人居环境整治效能。', '刘占元强调，开展城乡人居环境综合整治是一项幸福工程、民生事业，要站在讲政治、顾大局的高度，总结考察学习经验，找差距、补短板、强弱项，更好地推进我县城乡人居环境综合整治工作，以良好的整治成果和自然生态，不断提升群众获得感、幸福感和满意度。', '项继飞要求，要深入贯彻习近平生态文明思想，充分认识抓好人居环境整治工作的重要性和必要性，强化系统思维、着眼标本兼治、形成工作合力，强发动、清垃圾、码三堆，建机制、保长效，迅速有效开展好整治工作。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>47</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>中共兴城市工商业联合会党组关于市委常规巡察整改情况的通报</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xxgk/qtxxgk2/djgz/202307/t20230721_1148589.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['根据市委和市委巡察工作领导小组统一部署，2022年10月8日至2023年1月6日，市委第一巡察组对工商联党组进行了常规巡察。2023年4月7日，市委巡察组向工商联党组反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改情况予以公布。 一、组织落实整改工作情况 细化任务，落实整改。党组按照事事有回音、件件有落实的要求，对照市委巡察反馈意见，认真研究，迅速制定整改方案。对需要整改的问题，逐项制定措施、逐项落实责任，明确责任领导和责任部门，及时进行研究指导，对整改工作不重视、效率低的事项，及时督导推动，确保整改工作取得实效、长效。 二、巡察反馈意见整改落实情况 （一）学习贯彻习近平总书记重要讲话精神不到位，对政治引领作用发挥不充分 1、政治理论学习和推进政策落实有差距 （1）学习习近平总书记重要讲话及指示批示精神不到位。2020年7月，习近平总书记在企业家座谈会上发表的重要讲话和同年9月对做好新时代民营经济统战工作作出重要指示、2022 年 7月习近平总书记在党外人士座谈会上发表的重要讲话，市工商联未组织学习。 整改措施：一是查缺补漏，对2020年以来的学习情况进行排查，凡是习近平总书记关于民营经济发展的讲话精神全部组织学习一次。二是丰富每周五的集体学习计划，在今后的集体学习活动中加入“当期要政”一项，在学习固定书籍以外，学习习近平总书记当期发表的关于民营经济发展的相关讲话精神。 （2）党组主动谋划和推进落实不够深入。2019年10月党组会仅传达市委关于营商环境建设文件，未按照文件结合工商联主责主业及我市具体实际情况制定出台相关举措。 整改措施：一是改进工作方法，今后市委市政府下发的文件中，凡是有涉及工商联工作任务的，均要制定相应落实办法。二是党组要不定期开会，对各项落实举措进行调度，对相关工作推进不力主管领导和科室负责人问责。 2、意识形态工作薄弱，对其重要性认识不足。 （3）意识形态分析研判不深入。2020年、2021 年意识形态工作责任制情况报告中缺少当前意识形态领域形势分析研判。 整改措施：一是严格落实意识形态定期研判制度，保证每季度至少一次对当期意识形态领域进行研判。二是安排专人对每次意识研判会议材料进行归纳总结，汇入年终意识形态工作报告中。 （4）工作开展不严谨。2022 年《关于调整宣传思想文化和意识形态工作领导小组成员的通知》无文件号。 整改措施：一是组织机关全体干部重温一次业务方面的各项规章制度。二是加强文秘工作，安排从事文秘工作的人员认真学习市委关于起草、发送公文的各项要求。三是压实责任传导，每次发送公文必须由业务主管领导和主要领导联合签发。 （5）网络意识形态工作开展不力。截至巡察进驻结束，未能提供《网络安全应急预案》和2022 年网络安全事件及处置追责情况的相关材料。 整改措施：一是完善意识形态领域各项工作制度和工作机制。二是指定1名工作人员专门负责公众号、微信交流群的管理和维护，发现意识形态问题立即向党组汇报。 3、落实“千企联千村、同走致富路”政策不到位，引导民营企业精准扶贫成效不明显。 （6）指导激励不到位。未建立企业家参与精准扶贫考核、评价和督导等配套制度，对企业帮扶贫困村的积极性和创造性缺少政策激励。 整改措施：一是积极与新闻媒体进行沟通联系，并利用工商联、各商户公众号、微信群和网站等媒体。二是积极宣传我市优秀民营企业家帮扶典型。三是积极向上级争取帮扶政策激励。 （7）扶贫效果不显著。55名民营企业经济人士担任111个村的“经济村主任”截至巡察进驻结束，民营企业经济人士所在的企业仅10个有签约项目、47个正在规划项目、29个无投资方向，约半数企业只是“输血式”资金帮扶。 整改措施：一是加强企业参与公益事业的鼓励和引导工作。主要是做好全国工商联、省市工商联倡导的“万企兴万村”活动。二是利用好“经济村主任模式专班”、“泳装下乡富民产业专班”平台，引导广大会员企业致富思源、富而思进，把扶贫帮困行动长期坚持下去。 4、发挥“桥梁纽带”作用不充分，“两个健康”工作开展有差距。 （8）引导非公有制经济人士参政议政渠道不宽、代表性不强。我市地域特色代表性行业是房地产和泳装行业，市九届政协工商联会员15人中无上述行业人员。选拔方式单一，未能充分发挥社会各界舆论监督作用。 整改措施：一是吸纳更多的优秀非公有制经济人士成为会员，壮大会员和代表人士队伍，充分利用各商会平台，开展联谊交友、互相学习、取长补短、合作共事、互利共赢。二是加强宣传引导，搭建平台，积极引导非公企业和广大会员参政议政和参与我市各项事业建设。 （9）对非公有制经济人士教育培训力度不够。培训形式较为单一，2018 年以来，每年仅组织非公有制经济人士理想信念教育1次，仅2021年组织开展年轻企业家到外省学习考察1次，参与人员只有18人。 整改措施：一是增加对非公有制经济人士的培训次数，力争每年举办培训不低于两次。二是扩大对非公有制经济人士的培训规模，争取每次培训规模不低于30人。三是加强与省、市工商联沟通，积极争取推荐非公有制经济人士外出学习、考察、调研的机会。 （10）践行“店小二”精神不到位。市工商联党组开展银企对接打造万户送贷入小微党建品牌，目前邮储、农业等五家银行与190余家企业进行对接，154家企业已收到贷款，只有邮储银行明确出示了贷款明细，对其他企业经营状况不明确，未做出相关统计。 整改措施：进一步发挥在非公有制经济人士思想政治工作中的引导作用，认真开展非公有制经济人士理想信念教育，组织非公有制经济人士学习习近平新时代中国特色社会主义思想和党的二十大精神。切实发挥工商联桥梁纽带作用，为民营企业和企业家服务。通过搭建各种服务平台，实现政企、银企、企业之间的更好的交流、合作，解决办事难、融资难、融资贵等实际问题。优化我市营商环境，积极向上级和相关部门反映企业述求，落实《兴城市促进民营经济发展的实施意见》。 5、核心职能履行不到位，指导商会服务全市经济发展存在短板。 （11）工作机制措施不完善。按照《中华全国工商业联合会章程》规定，执委会全体会议每年召开1次，但2018年以来市工商联只召开过1次，6次主席办公会议缺少记录和影像资料。 整改措施：一是带领机关全体干部重温《中华全国工商业联合会章程》，进一步完善相关工作机制。二是安排专人负责会议材料整理和归档，做到每次会议均有档可查。 （12）自身部门优势发挥不充分。2019年以来市工商联党组仅走访小微商会3次，青创商会1次，未组织小微商会开展活动。 整改措施：一是建立工商联领导对直属商会的联合走访制度，每位领导每年走访各商会不低于1次。二是建立与直属商会的联席制度，定期举行座谈会、茶话会等活动，及时掌握直属商会发展情况。 （13）推动商会建设举措不多。缺乏对商会的长远规划和系统思考，未建立指导商会运行的相关制度和措施，没有建立走访记录和台账。 整改措施：一是建立服务机制，工商联每位领导每年走访各商会不低于1次。二是建立沟通机制，加强信息沟通，搭建好政府、商会、企业交流平台。三是建立交流机制，走出去，请进来，加强国内商会间沟通，促进企业合作。 6、大局意识不强，巡察整改工作落得不细。 （14）部分整改措施“落而不实”。针对七届市委巡察反馈指出“缺少为企业服务的保障措施”问题，工商联制定的“建设好法律维权服务中心”措施脱离具体实际，缺乏可操作性。 整改措施：一是加强与政府有关部门的联系沟通，为会员解决好在企业发展、项目建设等方面遇到的困难问题。二是建设好法律维权服务中心。做好为企业维权服务，维护会员利益。三是搭建网络平台，利用工作微信群、公众号等自媒体，及时发布有关法规和政策信息。四是积极组织企业赴外地考察学习，加强与外地工商界人士的联系交流，为会员企业开辟市场、扩大合资合作创造条件。五是认真做好走访慰问和联谊工作，加强沟通交流。六是抓好与金融部门联合开展的“万户送贷”行动，为我市中小微企业解决融资难、融资贵问题。 （15）个别问题巡察整改不彻底。七届市委巡察指出“对兼职副主席、副会长缺少督导考评”问题，至今该问题依然存在。 整改措施：一是制定并印发《市工商联兼职副主席（副会长）述职办法（试行）》和《考评细则》。二是建立兼职副主席、副会长例会制度。 (二) 履行全面从严治党主体责任弱化，压力传导层层递减 7、形式主义问题依然存在。 （16）2020 年邢某为党建“一局一品”领导小组成员，2021年1月此人已调出工商联，在2021年党建品牌创建工作实施方案中仍“保持原党建品牌创建领导小组成员不变”，未及时做出调整。 整改措施：一是对目前机关成立的所有工作领导小组名单进行排查，有人员变动的及时调整。二是加强同其他部门沟通，工商联领导发生变化时，及时告知对方调整相应工作领导小组的名单。 8、执行财经制度不严格。 （17）记账凭证后未附折旧摊销分配表。2019年1月-2022年7月每月凭证计提折旧均未附折旧摊销分配明细表。 整改措施：严肃机关财务管理制度，所有入账的票据，均由财务主管领导亲自把关。 （18）原始票据签字不规范。2021 年有4张记账凭证涉及 9610元缺少经手人、审核人、审批人签字。 整改措施：一是对账目进行排查，对缺少经手人、审核人、审批人的票据进行补签。二是进一步严肃机关财务管理制度，所有入账的票据，均由财务主管领导亲自把关。 (三) 落实党内政治生活不严肃，落实党建主体责任不到位 9、党建工作抓得不实。 （19）“三会一课”制度执行不规范2019-2022年共缺少5次党课。 整改措施：一是以近期巡察整改工作调度会议为契机，面向机关全体干部再次重申严格落实“三会一课”制度的重要性。二是制定领导干部讲党课时间安排表。 （20）党内组织生活有关材料管理不严。缺少2020年组织生活会材料及2019、2021年谈心谈话记录、征求意见认领表、问题整改清单及措施。部分党费证信息填写不完整。 整改措施：一是安排专人负责机关党内组织生活有关材料的管理。二是对所有党费证进行排查，填补相关信息。 三、组织领导 成立工商联落实巡察整改工作领导小组（名单附后）。 四、其他要求 （一）明确职责，落实责任。 工商联党组及班子成员要带头落实整改措施，集中力量解决存在的突出问题。各责任科室要明确职责、具体明确办结时限和办理要求，认真落实整改措施，确保整改取得实效。 （二）健全制度，强化督查。 责任科室要针对整改工作中出现的新情况、新问题，及时研究部署，提出有针对性的措施，定期向巡察组汇报整改情况。对解决问题的进度、质量、效果情况全程跟踪检查，发现问题，及时研究解决。 （三）公布情况，接受监督。 在市工商联自媒体向社会公布整改方案和整改情况，吸收群众的合理意见，整改落实情况及时向党员、群众通报，自觉接受党员、群众监督。 欢迎广大干部群众对巡察整改落实情况进行监督。如有意见建议，请及时向我们反映。联系方式：电话5811431；电子邮箱：xcsgsl@163.com。 中共兴城市工商业联合会党组 2023年7月3日', '根据市委和市委巡察工作领导小组统一部署，2022年10月8日至2023年1月6日，市委第一巡察组对工商联党组进行了常规巡察。2023年4月7日，市委巡察组向工商联党组反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改情况予以公布。', '细化任务，落实整改。党组按照事事有回音、件件有落实的要求，对照市委巡察反馈意见，认真研究，迅速制定整改方案。对需要整改的问题，逐项制定措施、逐项落实责任，明确责任领导和责任部门，及时进行研究指导，对整改工作不重视、效率低的事项，及时督导推动，确保整改工作取得实效、长效。', '及时进行研究指导，对整改工作不重视、效率低的事项，及时督导推动，确保整改工作取得实效、长效。', '9月对做好新时代民营经济统战工作作出重要指示、2022 年 7月习近平总书记在党外人士座谈会上发表的重要讲话，市工商联未组织学习。', '2020年以来的学习情况进行排查，凡是习近平总书记关于民营经济发展的讲话精神全部组织学习一次。二是丰富每周五的集体学习计划，在今后的集体学习活动中加入“当期要政”一项，在学习固定书籍以外，学习习近平总书记当期发表的关于民营经济发展的相关讲话精神。', '月党组会仅传达市委关于营商环境建设文件，未按照文件结合工商联主责主业及我市具体实际情况制定出台相关举措。', '整改措施：一是改进工作方法，今后市委市政府下发的文件中，凡是有涉及工商联工作任务的，均要制定相应落实办法。二是党组要不定期开会，对各项落实举措进行调度，对相关工作推进不力主管领导和科室负责人问责。', '3）意识形态分析研判不深入。2020年、2021 年意识形态工作责任制情况报告中缺少当前意识形态领域形势分析研判。', '整改措施：一是严格落实意识形态定期研判制度，保证每季度至少一次对当期意识形态领域进行研判。二是安排专人对每次意识研判会议材料进行归纳总结，汇入年终意识形态工作报告中。', '4）工作开展不严谨。2022 年《关于调整宣传思想文化和意识形态工作领导小组成员的通知》无文件号。', '整改措施：一是组织机关全体干部重温一次业务方面的各项规章制度。二是加强文秘工作，安排从事文秘工作的人员认真学习市委关于起草、发送公文的各项要求。三是压实责任传导，每次发送公文必须由业务主管领导和主要领导联合签发。', '1名工作人员专门负责公众号、微信交流群的管理和维护，发现意识形态问题立即向党组汇报。', '6）指导激励不到位。未建立企业家参与精准扶贫考核、评价和督导等配套制度，对企业帮扶贫困村的积极性和创造性缺少政策激励。', '整改措施：一是积极与新闻媒体进行沟通联系，并利用工商联、各商户公众号、微信群和网站等媒体。二是积极宣传我市优秀民营企业家帮扶典型。三是积极向上级争取帮扶政策激励。', '55名民营企业经济人士担任111个村的“经济村主任”截至巡察进驻结束，民营企业经济人士所在的企业仅10个有签约项目、47个正在规划项目、29个无投资方向，约半数企业只是“输血式”资金帮扶', '整改措施：一是加强企业参与公益事业的鼓励和引导工作。主要是做好全国工商联、省市工商联倡导的', '“万企兴万村”活动。二是利用好“经济村主任模式专班”、“泳装下乡富民产业专班”平台，引导广大会员企业致富思源、富而思进，把扶贫帮困行动长期坚持下去。', '引导非公有制经济人士参政议政渠道不宽、代表性不强。我市地域特色代表性行业是房地产和泳装行业，市九届政协工商联会员', '整改措施：一是吸纳更多的优秀非公有制经济人士成为会员，壮大会员和代表人士队伍，充分利用各商会平台，开展联谊交友、互相学习、取长补短、合作共事、互利共赢。二是加强宣传引导，搭建平台，积极引导非公企业和广大会员参政议政和参与我市各项事业建设。', '9）对非公有制经济人士教育培训力度不够。培训形式较为单一，2018 年以来，每年仅组织非公有制经济人士理想信念教育1次，仅2021年组织开展年轻企业家到外省学习考察1次，参与人员只有18人。', '整改措施：一是增加对非公有制经济人士的培训次数，力争每年举办培训不低于两次。二是扩大对非公有制经济人士的培训规模，争取每次培训规模不低于', '30人。三是加强与省、市工商联沟通，积极争取推荐非公有制经济人士外出学习、考察、调研的机会。', '10）践行“店小二”精神不到位。市工商联党组开展银企对接打造万户送贷入小微党建品牌，目前邮储、农业等五家银行与190余家企业进行对接，154家企业已收到贷款，只有邮储银行明确出示了贷款明细，对其他企业经营状况不明确，未做出相关统计。', '整改措施：进一步发挥在非公有制经济人士思想政治工作中的引导作用，认真开展非公有制经济人士理想信念教育，组织非公有制经济人士学习习近平新时代中国特色社会主义思想和党的二十大精神。切实发挥工商联桥梁纽带作用，为民营企业和企业家服务。通过搭建各种服务平台，实现政企、银企、企业之间的更好的交流、合作，解决办事难、融资难、融资贵等实际问题。优化我市营商环境，积极向上级和相关部门反映企业述求，落实《兴城市促进民营经济发展的实施意见》。', '11）工作机制措施不完善。按照《中华全国工商业联合会章程》规定，执委会全体会议每年召开1次，但2018年以来市工商联只召开过1次，6次主席办公会议缺少记录和影像资料。', '整改措施：一是带领机关全体干部重温《中华全国工商业联合会章程》，进一步完善相关工作机制。二是安排专人负责会议材料整理和归档，做到每次会议均有档可查。', '12）自身部门优势发挥不充分。2019年以来市工商联党组仅走访小微商会3次，青创商会1次，未组织小微商会开展活动。', '整改措施：一是建立工商联领导对直属商会的联合走访制度，每位领导每年走访各商会不低于1次。二是建立与直属商会的联席制度，定期举行座谈会、茶话会等活动，及时掌握直属商会发展情况。', '推动商会建设举措不多。缺乏对商会的长远规划和系统思考，未建立指导商会运行的相关制度和措施，没有建立走访记录和台账。', '整改措施：一是建立服务机制，工商联每位领导每年走访各商会不低于1次。二是建立沟通机制，加强信息沟通，搭建好政府、商会、企业交流平台。三是建立交流机制，走出去，请进来，加强国内商会间沟通，促进企业合作。', '14）部分整改措施“落而不实”。针对七届市委巡察反馈指出“缺少为企业服务的保障措施”问题，工商联制定的“建设好法律维权服务中心”措施脱离具体实际，缺乏可操作性。', '整改措施：一是加强与政府有关部门的联系沟通，为会员解决好在企业发展、项目建设等方面遇到的困难问题。二是建设好法律维权服务中心。做好为企业维权服务，维护会员利益。三是搭建网络平台，利用工作微信群、公众号等自媒体，及时发布有关法规和政策信息。四是积极组织企业赴外地考察学习，加强与外地工商界人士的联系交流，为会员企业开辟市场、扩大合资合作创造条件。五是认真做好走访慰问和联谊工作，加强沟通交流。六是抓好与金融部门联合开展的', '15）个别问题巡察整改不彻底。七届市委巡察指出“对兼职副主席、副会长缺少督导考评”问题，至今该问题依然存在。', '整改措施：一是制定并印发《市工商联兼职副主席（副会长）述职办法（试行）》和《考评细则》。二是建立兼职副主席、副会长例会制度。', '16）2020 年邢某为党建“一局一品”领导小组成员，2021年1月此人已调出工商联，在2021年党建品牌创建工作实施方案中仍“保持原党建品牌创建领导小组成员不变”，未及时做出调整。', '整改措施：一是对目前机关成立的所有工作领导小组名单进行排查，有人员变动的及时调整。二是加强同其他部门沟通，工商联领导发生变化时，及时告知对方调整相应工作领导小组的名单。', '17）记账凭证后未附折旧摊销分配表。2019年1月-2022年7月每月凭证计提折旧均未附折旧摊销分配明细表。', '整改措施：一是对账目进行排查，对缺少经手人、审核人、审批人的票据进行补签。二是进一步严肃机关财务管理制度，所有入账的票据，均由财务主管领导亲自把关。', '20）党内组织生活有关材料管理不严。缺少2020年组织生活会材料及2019、2021年谈心谈话记录、征求意见认领表、问题整改清单及措施。部分党费证信息填写不完整。', '整改措施：一是安排专人负责机关党内组织生活有关材料的管理。二是对所有党费证进行排查，填补相关信息。', '工商联党组及班子成员要带头落实整改措施，集中力量解决存在的突出问题。各责任科室要明确职责、具体明确', '责任科室要针对整改工作中出现的新情况、新问题，及时研究部署，提出有针对性的措施，定期向巡察组汇报整改情况。对解决问题的进度、质量、效果情况全程跟踪检查，发现问题，及时研究解决。', '在市工商联自媒体向社会公布整改方案和整改情况，吸收群众的合理意见，整改落实情况及时向党员、群众通报，自觉接受党员、群众监督。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>47</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>南大乡赴惠营房村考察环境整治工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/xzdt/202303/t20230330_1136508.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['近日，兴城市南大乡组织村书记、部分机关干部赴河北省遵化市马兰峪镇惠营房村考察学习人居环境整治工作。', '马兰峪镇党委副书记杨晓东提到，下一步将发展农家院经济，依托产业项目逐步实现乡村振兴。', '惠营房村书记周建忠讲到，环境整治工作重点要通过抓党建，发挥党员干部的带头作用，攻坚克难，统一标准，不搞特殊对待，带领老百姓一起搞卫生。积存的垃圾清了，村边的道路修了，村内的环境美了，百姓的心里也就暖了。', '南大乡党委书记魏军生强调，人居环境整治工作是一项惠民利民的大事，可以让老百姓清晰地感受到身边的变化，更能够凝聚群众力量，促进社会稳定和经济发展。', '双方还对人居环境整治中存在的问题开展了深度探讨，一行人收获颇多，并将宝贵经验及时运用到本乡本村的环境整治工作中去。（巩悦）']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>47</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>刘占元就疫情期间货运车辆监管工作到锦州市学习考察</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-03-30</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/qtgkxx/gkgz/202212/t20221206_1124458.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为落实省、市疫情防控工作部署要求，严防疫情通过道路货物运输传播，3月29日，县委书记刘占元、副县长李洪波带领相关部门负责同志就疫情期间货运车辆监管工作到锦州市营运车辆动态监控中心学习考察', '刘占元一行实地参观了锦州市营运车辆动态监控中心，现场了解道路货运车辆公共监督与服务平台运营管理现状、车辆技术管理设置、货运人员从业管理设置和疫情期间车辆动态监督管理制度等相关情况。', '座谈中，刘占元与锦州市交通运输局相关负责同志围绕货运车辆管理的机制和模式、管理平台的建设和使用以及运营成效等方面进行探讨，并就道路货物运输管理工作的热点和难点问题进行了交流。', '刘占元强调，加强来（返）绥货车司乘人员闭环管理是当前疫情防控工作的重中之重，要切实加严大货车管理，采取更有针对性的措施，有效发挥“哨卡”作用，全力筑牢外防输入防线。要把考察学习到的好做法、好经验带回去，全力推动我县货运车辆监管工作。要充分发挥大数据支撑作用，强化动态管理，及时掌握货运车辆活动轨迹，确保从严从细落实排查管控措施，确保道路货物运输安全稳定和人民群众健康安全。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>47</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>庆祝百年华诞感悟思想伟力彰显制度优势人大工作和建设理论与实践成果摘编之</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.hldrd.gov.cn/llyj/202204/t20220426_1096868.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['“庆祝百年华诞、感悟思想伟力、彰显制度优势”人大工作和建设理论与实践成果摘编（之十）', '，不断增强政治判断力、政治领悟力、政治执行力，充分彰显人民代表大会制度优势，市人大常委会机关各委办室、各县（市）区人大常委会认真研究总结人大工作和建设的理论实践成果，现将市、县（市）区人大推荐的理论研究文章和经典案例予以摘编，互学互鉴，以人大工作的新担当新作为进一步开创人大工作新局面，助力葫芦岛全面振兴全方位振兴取得新突破。', '乡镇人大是我国人民代表大会制度的重要组成部分，是离广大人民群众最近、最了解并最能反映民意的基层国家权力机关，同时也是我国人民代表大会制度在地方实践中最薄弱的一个环节。第十三届全国人民代表大会第五次会议通过的地方组织法修正草案，对乡镇人大组织、职权、制度等作了进一步明确和规范，为乡镇人大工作提供了根本的法律遵循和更多的自主发展空间，乡镇人大的地位和作用也将越来越明显。下面，就做好新时代乡镇人大工作谈几点粗浅的思考。', '（一）乡镇人大的关注度不高。乡镇人大是人民代表大会制度最基层的组织形式，对基层民主法治建设和经济社会发展起着举足轻重的作用，但是很大一部分领导干部对乡镇人大的性质、地位和作用的认识缺乏应有的高度，对人大工作重视、尊重、支持不够。他们没有真正认识到乡镇人大是一级地方国家权力机关，没有真正理解履行乡镇人大的职权对于推进当地政治、经济、文化和社会建设的重要作用。很多领导干部把主要精力都放在党委、政府的工作上，把人大岗位作为解决职务职级的途径，导致社会上对人大工作的“边缘化”、“二线”、“养老”等刻板印象，间接造成一些人大干部缺乏主动研究和开展人大工作的积极性，履职行权做得不够。', '（一）乡镇人大的关注度不高。乡镇人大是人民代表大会制度最基层的组织形式，对基层民主法治建设和经济社会发展起着举足轻重的作用，但是很大一部分领导干部对乡镇人大的性质、地位和作用的认识缺乏应有的高度，对人大工作重视、尊重、支持不够。他们没有真正认识到乡镇人大是一级地方国家权力机关，没有真正理解履行乡镇人大的职权对于推进当地政治、经济、文化和社会建设的重要作用。很多领导干部把主要精力都放在党委、政府的工作上，把人大岗位作为解决职务职级的途径，导致社会上对人大工作的', '（二）组织架构不完善。组织法规定，乡、民族乡、镇的人民代表大会设主席，并可以设副主席一人至两人。这个规定由于一些现实原因很难在乡镇实现。目前，我市各乡镇均只有一个专职人大主席，未配备副主席和专职工作人员，人大日常工作由人大主席一人负责组织，完全是“光杆司令”，使乡镇人民代表大会闭会期间的活动缺少组织保障。按照新组织法的要求，乡镇人大和县级人大一样，也要对同级政府实施硬性监督，定期开展“三查（察）”活动，所以解决好乡镇人大组织架构问题既是法律要求，也是现实所需，迫在眉睫。', '（二）组织架构不完善。组织法规定，乡、民族乡、镇的人民代表大会设主席，并可以设副主席一人至两人。这个规定由于一些现实原因很难在乡镇实现。目前，我市各乡镇均只有一个专职人大主席，未配备副主席和专职工作人员，人大日常工作由人大主席一人负责组织，完全是', '（三）组织代表活动少。组织法明确了乡镇人大必须行使的14项职权，其中很多职权需要通过闭会期间的代表活动来实现。但是只有极少数乡镇能够按要求组织代表活动，代表活动普遍存在“虚而不实”的现象。主要体现在三个方面，一是乡镇人大主席对乡镇人大工作内容和工作程序不了解，履职能力欠缺，对组织代表活动的主动性和积极性不高。二是乡镇人大代表以农民居多，很多人平时要外出打工或者务农，平日很少有时间和精力参与代表活动。三是代表活动经费不足，部分乡镇党委对人大工作支持、重视不够，工作经费要么未列入预算，要么预算数额较少，不能满足基本的工作需要，影响了乡镇人大工作的正常开展。', '（四）代表素质存在差距。乡镇人大代表整体素质不高，执行代表职务的意识和能力不强，与广大选民对代表的要求尚有不小的差距。不少代表将人大代表视为一种荣誉，而不是一种职务，开会不发言，表决随大流，根本谈不上执行代表职务。乡镇党委政府对代表提出的建议、批评和意见，重视不够，办理不力，挫伤了代表履职的积极性。此外，乡镇人大主席团把代表组织起来开展调查研究、进行各种视察极其有限，乡镇人大代表多数为“会议代表”。', '（四）代表素质存在差距。乡镇人大代表整体素质不高，执行代表职务的意识和能力不强，与广大选民对代表的要求尚有不小的差距。不少代表将人大代表视为一种荣誉，而不是一种职务，开会不发言，表决随大流，根本谈不上执行代表职务。乡镇党委政府对代表提出的建议、批评和意见，重视不够，办理不力，挫伤了代表履职的积极性。此外，乡镇人大主席团把代表组织起来开展调查研究、进行各种视察极其有限，乡镇人大代表多数为', '（五）代表工作有待加强。对乡镇人大代表的管理和履职能力的提升措施不多，服务代表不够，致使乡镇人大代表的代表意识、学习培训、履职活动等相对落后于县级人大代表。代表“家、站、点、室”建设推进不平衡，接待选民的方式和成效还不够明显，活动内容仍需进一步丰富。', '（五）代表工作有待加强。对乡镇人大代表的管理和履职能力的提升措施不多，服务代表不够，致使乡镇人大代表的代表意识、学习培训、履职活动等相对落后于县级人大代表。代表', '一是乡镇人大自身重视不够，建设不足。乡镇人大工作者普遍存在着对人大工作重视不够，认识不足，定位不准的问题。认为人大是“二线机关”，没什么作为，也不可能干出什么成绩。不能以饱满的精神、昂扬的斗志、积极的态度投身人大工作、干好人大工作。同时也存在着对法律知识、业务知识、履职技巧等学习不够深入透彻、不能熟练掌握人大工作方法、工作程序、工作技巧等问题。', '一是乡镇人大自身重视不够，建设不足。乡镇人大工作者普遍存在着对人大工作重视不够，认识不足，定位不准的问题。认为人大是', '二是乡镇党委重视不够，支持不足。乡镇党委往往重视抓好党政部门的务实性工作，而对人大等程序性强的工作认识不够、重视不足，不能把人大工作列入党委议事日程，进行专门的谋划研究、安排部署，不能为乡镇人大开展工作提供必要的人员数量、人员素质和经费保障。由于缺少组织领导、人员素质、经费保障等诸多原因，致使乡镇人大工作者想开展人大工作“有心却无力”。', '二是乡镇党委重视不够，支持不足。乡镇党委往往重视抓好党政部门的务实性工作，而对人大等程序性强的工作认识不够、重视不足，不能把人大工作列入党委议事日程，进行专门的谋划研究、安排部署，不能为乡镇人大开展工作提供必要的人员数量、人员素质和经费保障。由于缺少组织领导、人员素质、经费保障等诸多原因，致使乡镇人大工作者想开展人大工作', '三是上级人大重视不够，指导不足。由于人大机关上下级之间不是垂直领导关系，市县等上级人大容易忽视乡镇人大及其工作，不能经常下到乡镇指导检查乡镇人大工作，没有为乡镇人大工作提供规范性参考，没有很好地指导乡镇人大依法依规、按程序开展好各项工作。', '人民代表大会制度，特别是乡镇人大正处在完善和发展阶段。改进和加强乡镇人大工作，对于加强基层民主政治建设具有重要的作用。针对当前工作中存在的问题，提出以下建议：', '（一）抓好新组织法的贯彻落实。随着人民代表大会制度的不断发展和完善，乡镇人大工作和建设中存在的突出问题已经引起了从中央到地方的高度重视。全国人大从立法的角度予以了重视。2022年3月11日，第十三届全国人民代表大会第五次会议表决通过《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》的决定草案，新修订的组织法共有15条关于乡镇人大的内容，为乡镇人大在组织、职权、制度等方面提供更加规范和具体的参考。法律的修改充分体现了各级对乡镇人大工作的高度重视和有力支持，可以说，乡镇人大正迎来一个新的发展期和重要机遇期。关键在于我们如何执行和落实。作为县乡人大，要注重把新组织法转化为地方实践的具体措施和工作思路，注重把法律规定的职权作为政治任务和硬指标，特别是对于“乡镇人民代表大会每年一般召开两次”“乡镇人民代表大会可以设副主席一人至二人”等内容和要求，要结合工作实际，认真加以贯彻落实，为乡镇人大工作提供清晰的路线图和施工图。', '（一）抓好新组织法的贯彻落实。随着人民代表大会制度的不断发展和完善，乡镇人大工作和建设中存在的突出问题已经引起了从中央到地方的高度重视。全国人大从立法的角度予以了重视。', '（二）抓好乡镇人大工作保障。乡镇人大能否施展拳脚，取决于各级党委是否真重视、真支持，这是加强乡镇人大工作的关键点。一要提供组织保障。地方党委要进一步加强和改进对乡镇人大工作的领导，自觉把乡镇人大工作纳入重要议事日程，摆在重要位置上，与中心工作统一部署、统一检查、统一督促落实。乡镇党委定期讨论和研究人大工作，解决工作中存在的实际问题。保障其依法履行职责，保证法律赋予乡镇人大的各项职权得到贯彻落实。要不断加强乡镇人大的思想和组织建设，保证法律法规的贯彻实施，保证乡镇人大工作能够充分体现人民群众的利益。二要提供机构保障。要按照组织法要求，健全乡镇人大机构设置，配齐人大专职主席、副主席和工作人员，配备必要的办公设备。针对当前乡镇人大人员不足的问题，可以参照先进地区做法，配备专职人大主席和人大干事，为其提供相应的职级和待遇，也可以在乡镇党委委员中选出优秀的领导干部兼任人大副主席，既有利于加强党对人大工作的领导，也无需新增人员和职数。上级党委要帮助乡镇解决好人员编制和职数配备等问题，为乡镇人大工作提供有力组织机构保障。三要提供经费保障。新组织法规定，乡镇的人民代表大会会议一般每年举行两次，如有必要可临时召集；乡镇人大主席团在本级人民代表大会闭会期间，每年选择若干关系本地区群众切身利益和社会普遍关注的问题，有计划地安排代表听取和讨论本级人民政府的专项工作报告，对法律、法规实施情况进行检查，开展视察、调研等活动。这些要求赋予了乡镇人大与县级人大同等重要的职能和地位。县乡两级财政要将乡镇人大法定会议、重大活动、人大代表活动和培训等所需经费，列入财政预算，实行专款专用，全力保障乡镇人大更好地履职行权。', '（三）提升乡镇人大代表责任感。乡镇人大要增强“一线”意识，找准“定位”，摆正位置。一是坚持依法履职。新组织法赋予了乡镇人大主席团和人大主席不少实体性权力，强化了其在闭会期间的工作职责，把乡镇人大主席团的职责从“会议期间”延伸到“闭会期间”，强化了对同级政府的工作监督和执法检查等工作，实质上是从法律上推进人大主席团在闭会期间的常态化、规范化。乡镇人大应该牢牢把握机会，健全主席团议事规则，创新主席团活动方式，切实把主席团的作用发挥好。二是坚持依法监督。乡镇人大要把监督工作摆在重要位置，紧紧围绕党委工作的中心、政府工作的难点、发展的热点和群众关心的焦点，围绕乡村振兴、教育医疗、公共服务、人居环境等内容，灵活运用多种监督方式开展监督，积极主动促进本地经济社会协调发展。积极主动接受党的领导，争取党委对人大工作的重视和支持；处理好与政府之间监督支持的关系，寓支持于监督，实施正确监督、有效监督、依法监督。', '（四）充分发挥人大代表的主体作用。一要拓宽代表履职渠道。努力为代表搭建一些灵活实用、符合当地实际的履职平台和服务代表履职载体，充分利用“代表之家”和“代表活动室”等平台，拓展代表履职新空间，使代表履职活动更具活力、富有成效。人大主席团要指导代表小组制定活动计划，组织开展形式多样、内容丰富的代表活动，确保每个季度至少开展一次活动，并检查监督落实。二要提高建议办理质量。督促乡镇政府高质量办理议案建议，使代表的自我价值得到发挥，从而激发代表更好地为百姓说话、办事的热情。三要健全激励约束机制。加大对代表积极履职的表彰和宣传力度，激励代表依法履职。通过建立代表履职登记档案、公开代表履职承诺践诺、组织代表向选区选民述职等各种措施和手段，形成一套行之有效的代表履职成效考核评价和监督激励机制，推动代表履职落到实处。', '（四）充分发挥人大代表的主体作用。一要拓宽代表履职渠道。努力为代表搭建一些灵活实用、符合当地实际的履职平台和服务代表履职载体，充分利用', '（五）加强乡镇人大自身建设。一要加强思想作风建设。乡镇人大干部要进一步端正思想，在其位、谋其政，增强人大工作的自豪感和责任感，及做好人大工作的主动性和积极性。二要加强制度建设。进一步建立健全乡镇人大各项工作制度。如讨论决定重大事项的规定，议事规则，视察、检查、调查、评议工作制度，岗位职责，学习培训制度等，切实抓好各项制度的落实。三要加强学习培训和宣传。市县乡三级要加强代表履职培训，围绕新时期如何当好代表、发挥作用、依法履职，通过集中培训、考察学习、专题培训等形式，让代表了解人大知识，明确权利义务，熟悉履职方式，提高履职能力。上级人大要加强对乡镇人大干部的培训、交流和外出考察学习，邀请乡镇人大代表列席常委会会议，解决其对人大工作认识不足、业务生疏等问题。四要加强业务指导和考评。上级人大要加强对乡镇人大工作的联系和指导，建立健全联系指导责任制，县、乡两级人大之间要多开展联合活动，依托上下联动形成合力。县级人大要建立健全对乡镇人大的考评机制，对乡镇人大的日常工作进行量化、细化，促使其进一步明确职责任务，熟悉和规范工作流程，促进工作的经常化、制度化、法律化、规范化。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>47</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>区政协九届一次会议关于建设南票区电商基地整合本区特色产品的建议第号提案的</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2022n_29908/202208/t20220816_1111110.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['区政协九届一次会议《关于建设南票区电商基地，整合本区特色产品的建议》第22号提案的答复_葫芦岛市南票区人民政府', '区政协九届一次会议《关于建设南票区电商基地，整合本区特色产品的建议》第22号提案的答复', '您好!您提出的《关于建设南票区电商基地,整合本区特色产品的建议》已收悉,现将办理情况答复如下:', '根据我区实际情况,受财政收入所限,短期内无法开展由政府主导的电商基地建设,此项工作已列入长期规划,待条件成熟后选择适当时机组织实施。同时,我局准备从以下几方面着手,整合南票区特色产品,支持电子商务发展。', '一、加强对南票本地特色产品的开发、包装,打造“网红”品牌,提升“南票出品”知名度。', '把打造我区本地特色产品“网红”品牌、充分发挥“网红”品牌在经济发展中的拉动作用,作为促进我区经济增长、刺激消费水平提升的重要抓手。', '1、在充分调研的基础上,形成《南票区加快商贸流通产业发展实施方案》,明确“平稳增长”、“集群发展”、“创新发展”的总体发展目标及各消费品子行业的重点发展方向。', '2、通过对重点企业和重点产品的调研,经过对比甄选,形成我区重点消费品名录,作为我区推进商贸流通产业发展的产品指南,目录中按照产业分类列出重点消费品,应涵盖我区消费品行业的各子行业。', '3、打造具有南票特色农产品网上销售品牌。助力发展现有的“辽西文君直播间”、“鑫澜农业·谷大姐直播间”等区内“网红经济”先行者,助推直播带货能力,复制推广先进经验,带动全区“网红经济”发展。', '4、借助新闻媒体广泛宣传报道“网红经济”、“南票出品”,提升南票区及“南票出品”产品知名度。', '把培育电商企业作为首要工作来抓。一是培育一批本土电子商务龙头企业。二是加快推进我区与知名电商平台的合作,力争引进一批全国知名电商领军企业。三是做好电商基地、产业园区的规划摸底工作。', '按照市商务局计划适时开展电商培训,鼓励小微企业、经营业户在第三方电商平台上开设网店,实现线上线下融合发展,扩大“网红”产品销售。', '1、借助优势助力,对接绥中电商产业园、兴城馨予农业电商平台、兴城“网红小镇”,助力我区优质产品线上销售。', '2、开展电子商务培训,聘请专业人士对我区先进电商企业、返乡创业人员开展辅导培训,配合做好南票区电商带货培训基地建设工作,策划到兄弟县区先进企业现场参观考察学习活动。', '1、积极争取国家、省、市电商发展专项资金,扶持我区电商企业发展,为我区“网红”经济发展助力。', '2、制定产业发展政策促进招商引资,加强对“网红经济”产业的研究分析,专门针对产业需求制定优惠政策和扶持措施,有针对性的加强项目招引和本地产业孵化。', '3、推动“网红经济”与本地实体经济融合发展。充分利用“网红经济”显著的特点优势,推动实体经济产业链上下游有序衔接,将“网红经济”与专业批发市场、电商扶贫、夜经济和传统商贸企业融合发展,推动我区有条件的传统产业向“线上”转型,发展“线上引流+实体消费”双轮模式,推动农业及商贸流通产业主体向数字化、网络化、智能化、服务号发展。', '4、做好引导和监管。我区“网红经济”处于起步阶段,为保证直播内容、带货质量和售后服务等方面的规范性,推动建立网络信息监管体系,完善投诉保障体系,引导企业成立行业协会,加强行业内部监管,保障行业规范和可持续发展。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>47</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>区营商局赴盘山县考察学习工程建设项目审批制度改革工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021-10-27</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/rdzt/ysls/202110/t20211027_1071185.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['为学习盘山县工程建设项目审批制度改革工作的先进经验，近期，区营商局组成考察组，赴盘山县开展考察学习活动，区发改局副局长、区住建局建管股股长、市自然资源局连山分局规划股股长参加考察。', '考察组一行首先对盘山县公共行政服务中心工程建设项目审批窗口进行参观，听取窗口建设情况，深入了解工程建设项目审批的流程、模式和未来发展战略，并现场调取了工程建设项目审批平台数据。随后，考察组就工程建设项目审批制度改革与盘山县营商局负责人进行了深入的交流、座谈和研讨。', '通过此次外出考察学习，为连山区工程建设项目审批制度改革提供了新思路、新举措。接下来，我区将继续按照各级有关部门深化“放管服”改革和优化营商环境的要求，进一步加强统筹和工作力度，对工程建设项目审批制度进行全流程、全覆盖改革，努力构建科学、便捷、高效的工程建设项目审批和管理体系。', '通过此次外出考察学习，为连山区工程建设项目审批制度改革提供了新思路、新举措。接下来，我区将继续按照各级有关部门深化', '改革和优化营商环境的要求，进一步加强统筹和工作力度，对工程建设项目审批制度进行全流程、全覆盖改革，努力构建科学、便捷、高效的工程建设项目审批和管理体系。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>47</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>对市政协六届四次会议关于将貂狐貉等毛皮动物进行定点屠宰取皮集中检疫第号</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2021-08-18</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://nync.hld.gov.cn/zwgk/xxgkml/fdzdgknr/jytabljg/szxta/202108/t20210818_1061498.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['对市政协六届四次会议《关于将貂狐貉等毛皮动物进行定点屠宰、取皮、集中检疫》第210号提案的答复_葫芦岛市农业农村局', '对市政协六届四次会议《关于将貂狐貉等毛皮动物进行定点屠宰、取皮、集中检疫》第210号提案的答复', '您提出的关于将貂狐貉等毛皮动物进行定点屠宰、取皮、集中检疫的提案收悉，现答复如下：', '市农业农村局高度重视此提案，组织有关人员在对县（市）区进行调研的基础上，又到辽阳市考察学习，还召开各县（市）区主管局长和具体科室负责人会议座谈会，分析研究张少辉委员建议的可行性、可能性，结合相关法律法规规定。', '近年来随着养殖业结构的调整，我市貂、狐、貉数量巨增，全市貂、狐、貉饲养量约100万只，年取皮量约80万张。目前我市貂狐貉毛皮动物饲养主要集中在南票区台集屯镇、金星镇、虹螺岘镇和高桥镇等几个乡镇。每年到取皮季节，貂、狐、貉胴体大量流入食品市场，一些不法分子把收集到的貂、狐、貉胴体通过简单的分割、腌制、切刨，充当牛肉片、羊肉片、狗肉等销售。这其中存在很大的卫生安全隐患，貂、狐、貉与人存在多种人畜共患病。由于这类毛皮动物屠宰废弃物不能及时进入合法的处理渠道，非法进入食物链的事件仍经常发生，屡禁不绝，亟需建立长效机制，在打击违法行为的同时解决毛皮动物屠宰废弃物的“出路”问题，有效解决威胁毛皮动物饲养业发展和公共卫生安全的隐患。', '家庭作坊式的取皮点大量存在, 一些取皮场所脏乱差，现场污渍血水随意倾倒，分解后的胴体露天摆放，气味难闻，对周边的生态环境和居住环境造成了严重影响。', '取皮点卫生条件较差，操作人员无防护装备,工艺简陋，不按规程实施消毒，不能有效杀灭寄生虫和致病微生物，存在感染人畜共患病的风险隐患。胴体加工成饲料饲喂家畜，易造成动物疫病传播。', '毛皮动物胴体被分解销售,存在通过冒充牛羊肉、制成熟食等渠道流入百姓餐桌的风险，且胴体内激素、药品含量较高，严重危害人民群众生命健康安全。', '2020年初，全球暴发新冠肺炎疫情后，为进一步加强人畜共患病防控工作，全国人大常委会发布了《全面禁止非法野生动物交易行为 革除滥食野生动物的陋习 切实保障人民群众生命健康安全的决定》，全面禁止食用国家保护的“有重要生态、科学、社会价值的陆生野生动物”以及其他陆生野生动物，包括人工繁育、人工饲养的陆生野生动物。2020年5月27日，农业农村部正式发布了《国家畜禽遗传资源目录》，其中“水貂（非食用）、银狐（非食用）、北极狐（非食用）、貉（非食用）”四种毛皮动物也被收录其中，明确貂狐貉等为家养特种动物、其胴体禁止分割食用。2020年6月8日在农业部官方网站正式发布《水貂等非食用动物检疫规程（试行）》。规定了水貂、银狐、北极狐、貉等非食用动物检疫的对象、合格标准、检疫程序、检疫结果处理和检疫记录等六个方面的内容。', '为进一步加强我市人畜共患病防控工作，加强毛皮动物屠、取皮和检疫管理，各县(市)区、各有关部门要按照国家有关规定要求，认真落实属地管理原则，强化防疫管理，要充分认识到加强对毛皮动物屠宰、取皮、检疫工作管理的紧迫性和重要性，这是关乎公共卫生安全、关乎人民群众身体健康的大事，必须落实各级政府和各有关部门的监管职责。', '参照辽阳市工作方法：一是加强对貂皮狐貉等毛皮动物养殖、防疫管理，饲养场户建立统一的饲养档案和免疫档案，做到防疫、检疫、取皮和胴体无害化处理无缝对接，做到数据互相印证、可追溯、可复查。二是在貂狐貉等毛皮动物饲养集聚区附近建立毛皮动物定点取皮点。采取政府或私营资本投入方式，建立毛皮动物定点取皮点，所有出栏的毛皮动物必须经当地乡镇动物卫生监督所产地检疫后才可屠宰并运到集中取皮点取皮。三是农业农村部门负责取皮点内检疫工作。当地乡镇所负责集中取皮点检疫工作，并监督集中取皮点做好消毒等其他工作。', '各县(市)区重大动物疫病防治指挥部及农业农村、林业草原、财政、公安、交通、市场监管等有关部门要依照各自职责，加强协调配合，加大毛皮动物屠宰、取皮、集中检疫工作的监督检查和执法力度，严格查处违法收购、仓储、加工、交易、运输等行为，对违法经营场所和违法经营业户，依法严厉打击。促进毛皮动物定点屠宰、取皮、集中检疫工作有序运行，确保我市公共卫生安全和人民群众身体健康。', '最后，真诚希望您一如既往的关注我市毛皮动物管理等工作，为促进我市毛皮动物发展献计献策。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>47</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>中共兴城市东辛庄镇委员会关于巡察整改情况的通报</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022-04-24</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xxgk/qtxxgk2/djgz/202204/t20220424_1096521.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['2019年8月16日至9月30日，市委第一巡察组对我镇党委及下辖13个行政村开展了常规巡察。11月1日，市委第一巡察组向我镇下发了《关于对发现问题初步整改的通知》。12月5日，我镇召开了兴城市委第一巡察组巡察东辛庄镇党委情况反馈会，由第一巡察组组长张玉平同志向镇党委反馈了巡察意见。', '东辛庄镇党委对本次巡察整改工作高度重视。一是组建专班。成立了市委巡察反馈问题整改落实工作领导小组，由党委书记任组长，镇长、党委副书记任副组长，其他委员以上领导干部为成员，各负其责、分兵把口。二是认领问题。通过召开巡察整改专题民主生活会，对巡察组反馈的4个方面、42个具体问题进行逐一认领，并加强自检自查，举一反三，细化分解任务，制定了100条整改措施，明确了各项整改任务的牵头领导和具体责任人。三是狠抓整改。我镇将整改工作作为当前的首要工作来抓，以市委巡察反馈问题整改作为推动当前各项工作的有利契机，不断细化落实整改措施，确保圆满完成整改目标。目前反馈问题已整改完成42个，未整改0个。四是建章立制。我镇制定出台了《东辛庄镇关于严格规范“三会一课”制度的通知》《东辛庄镇村级财务管理制度》《东辛庄镇机关支部集中学习制度》等3个制度，修改完善了谈心谈话制度。由党委书记对整改落实工作亲自把关，对整改效果不明显、进度缓慢、不作为、慢作为的坚决“补课”、责令“返工”，确保整改工作质量和效率。五是强化问责。召开镇村两级干部大会，对出现问题的党支部和个人进行了点名批评，要求全镇切实提高对巡察整改落实工作重要性的认识，把思想和行动统一到习近平总书记的重要讲话精神上来，牢固树立“整改不力是失职，不抓整改是渎职”的观念，站稳立场、把准方向、直面存在问题。镇纪委先后对36人进行了组织处理，其中5人为机关干部，31人为村两委班子成员；给予2人诫勉谈话，34人批评教育。具体如下：', '整改措施：一是结合实际，编制“1+13”规划体系，唱好全域经济“十本经”。二是成立东辛庄镇经济副中心建设工作领导小组，加快规划编制工作，打造新型首席小城镇。三是大力扶持龙头企业，引导企业成立校服行业协会，建设服装产业园区。', '整改成效：持续扩张经济总量，完成税收467万元，超收302万元；校服产业持续发展壮大。', '整改措施：一是建立学习平台，定期对镇村干部进行培训、指导，形成长效机制；二是层层夯实精准扶贫政策、观念，加大宣传力度。', '整改成效：通过进一步的培训指导，扶贫干部对政策有了准确的认识，在执行上确保不走样，不出偏差。', '整改措施：一是组织理论学习中心组对习近平总书记关于乡村振兴的重要论述进行系统学习。二是大力开展美丽乡村建设工作，对农村环境进行全面整治。三是积极谋划乡村振兴项目，不断壮大村级集体经济。', '整改成效：经过系统的宣传和教育培训，广大干部对乡村振兴战略有了进一步认识，开展起工作更加有针对性和方向性，村级集体经济明显好转。', '整改措施：一是严格执行“三重一大”事项集体研究决定制度；二是严格执行民主集中制，确保讨论充分、表决规范。', '整改成效：通过严格制度和议事流程，既有民主又有集中，全镇各项决策部署更加科学合理、高质高效。', '整改成效：党委议事更加民主，程序更加规范，委员给意见得到充分表达，按照少数服从多数的原则，决策更加合理。', '整改措施：一是督促各支部按照重温入党誓词、收缴党费、理论学习、诵读党章等规定动作开展党日活动。二是指导各支部按照要求开展集中学习。', '整改成效：通过制度化约束和党委的监督，机关党支部在集中学习欠缺的方面得到彻底改变，今后的学习频次和学习质量得到有力保障。', '整改措施：一是对涉及的机关干部和村干部进行谈话批评，提高政治学习意识；二是规范学习内容和学习制度，开展定期检查，随机抽查，确保理论学习落到实处；三是制定《东辛庄镇机关支部集中学习制度》和年度学习计划，严格按要求开展集中学习。', '整改成效：通过对出现问题的党员进行组织处理，强化了党员认真开展理论学习的纪律约束，加强对党员干部的日常管理，广大党员干部对理论学习的重要性有了进一步认识，学习的自觉性、规范性有了显著提升。', '整改措施：一是加强对党员干部和村两委班子人员的教育管理，使党员干部和村两委班子人员对理论学习的重要性有再认识、再提高，确保今后按照工作要求完成学习任务。二是下发《东辛庄镇关于严格规范“三会一课”制度的通知》，以制度的形式规范“三会一课”的开展，强化理论学习；三是要求领导干部撰写学习习近平总书记系列讲话和党的十九大精神的心得体会。', '整改成效：通过下发文件和教育引导，党员干部对理论学习的重要性有了更深的认识，参加理论学习更加认真，学习效果明显提升。', '整改措施：一是创新学习方式，组织党员干部经常浏览和学习兴城党建网；二是结合理论学习内容，介绍先进地区成功经验，进一步理论联系实际。', '整改成效：通过借鉴先进地区的成功经验，我们找到了自身的差距和发展的优势，使理论学习与实际工作紧密结合，工作水平再上新台阶。', '整改措施：一是开展第一书记党建业务培训，着重学习了“三会一课”制度；二是创新开展党内组织生活的形势，开展实地考察学习。', '整改成效：创新方式组织党内生活，提高了党员干部参加组织生活的积极性，提升了组织生活的引领作用，使党的最新理论成果真正入心入脑。', '整改措施：一是重新调整机关党支部党小组分组，各党支部结合实际合理设置党小组。二是举一反三，严格按照党建工作标准开展工作。', '整改成效：重新调整党小组以后，各支部开展起党建活动更加高效和科学合理，党员参与组织生活的积极性显著提高。', '整改措施：一是召开“三会一课”制度专题培训会议，对机关党员干部和村两委班子人员进行培训，让党员干部认识到坚持“三会一课”制度的重要意义，熟知开展“三会一课”的流程和要求。二是下发《东辛庄镇关于严格规范“三会一课”制度的通知》，以制度的形式规范“三会一课”的开展。三是对13名村支部书记和1名社区支部书记进行批评教育。', '整改成效：通过组织“三会一课”制度执行的专题培训，进一步加强了机关干部和村两委班子成员对党支部工作机制的认识；通过制定具体制度来将我镇各支部的“三会一课”会议进一步规范；强化问责也起到了较好的震慑作用。', '整改措施：一是下发《东辛庄镇关于严格规范“三会一课”制度的通知》，对会议召开的各项要求再次予以明确，保证会议保质保量开展。二是提高组织生活会质量，认真开展批评和自我批评，并定期对各支部组织生活会的开展进行指导检查。', '整改成效：通过制定具体制度来将我镇各支部的“三会一课”会议进一步规范；通过加强督导检查，各支部开展组织生活会的规范性和实效性也有了明显提升。', '整改措施：一是认真开展民主生活会质量自查，确保民主生活会开出质量、开出成效；二是认真做好民主生活会记录。', '整改成效：通过对民主生活会的严格要求，真正发挥了民主生活会洗澡治病的效果，有力促进了各项工作。', '整改措施：一是督促各支部按照重温入党誓词、收缴党费、理论学习、诵读党章等规定动作开展党日活动。二是转发上级关于开展好主题党日的相关文件，并指导各支部按照要求开展主题党日活动。', '整改成效：通过组织“三会一课”制度执行的专题培训，进一步加强了机关干部和村两委班子成员对党支部工作机制的认识；通过转发上级文件，使各支部对党日活动的重要性和意义有了深刻认识，严格执行活动安排的自觉性有了较大提升。', '整改措施：一是建立和完善日常谈心谈话制度和廉政谈话制度，并做好相关记录；二是委员以上领导定期向党委会作谈心谈话开展情况的汇报。', '整改成效：通过修改完善我镇的谈心谈话制度，对谈话对象、频次、内容、形式等方面进行了明确，谈心谈话工作得到进一步加强；通过党委会定期听取汇报的方式，对谈心谈话工作的执行起到了促进作用。', '整改措施：一是认真组织各支部学习《中国共产党章程》及《党员发展细则》，提高对发展党员工作重要性的认识；二是严把程序关、材料关，做到程序规范、材料完备；三是对镇组织委员进行批评教育。', '整改成效：通过加强对发展党员工作的学习，各支部进一步明晰了发展党员工作的流程和规则，发展党员质量得到进一步保障；通过对相关人员进行组织处理，全镇对发展党员工作的重视度有了一定提升。', '整改措施：一是注重教育引导。利用“三会一课”，组织全体党员认真学习《中国共产党章程》和《中国共产党党费收缴、使用和管理的规定》，不断增强党员意识和党性观念；二是定期对党费收缴工作进行专项检查，对不能按规定收缴党费的进行通报批评并限期整改，对个别不按规定交纳党费的党员，及时采取组织谈话、批评教育等措施；三是严查党费收缴簿登记人员与人数不符的原因，发现问题立即整改，对责任人员严肃追责。', '整改成效：通过集中学习、专项检查、严肃追责，全镇对党费收缴工作重要性和重要意义的认识有了进一步提高，有力促进了今后的党费收缴工作。', '整改措施：一是查明原因，对党支部的党费收缴簿交纳党费金额与镇党委收缴记录不一致的支部逐一排查。二是对发现的问题进行及时改正，弥补工作的疏漏。', '整改措施：一是重新调整领导班子分工，明确“一岗双责”；二是加强对有关文件的学习，要求领导干部切实履行“一岗双责”。', '整改成效：通过明确分工和强化学习，领导干部对“一岗双责”重要性有了更深刻的认识，落实“一岗双责”工作要求更加认真。', '整改措施：一是认真组织各支部学习《中国共产党章程》，提高党员干部担当意识；二是深入查摆全面从严治党不到位问题；三是开展党员干部遵规守纪经常性教育。', '整改成效：通过一系列教育引导，党员干部摒弃了“老好人”思想，转变了观念，对同事更加负责，对工作更加认真。', '整改措施：一是镇党委会定期听取镇纪委关于案件办理情况的汇报，并进行充分讨论，加大案件办理把关力度；二是加大《中国共产党纪律处分条例》的宣传学习力度，强化执纪监督。', '整改成效：在制度上明确党委会专题研究，提升了党风廉政建设工作的重要性，对监督把关工作产生了明显的促进作用。', '整改措施：一是开展党员干部遵规守纪经常性教育；二是在重要传统节日前夕下发通知，严格纪律要求，加强干部监管；三是对《条例》和《准则》进行学习。', '整改成效：日常工作中做到了经常性提醒教育，每逢重要节日进行了集中宣传和要求，警示教育工作取得良好效果。', '整改措施：一是定期召开党委会，听取党风廉政建设情况汇报，对处理的党员干部进行通报；二是严格要求各党支部，对处理的党员干部在党员大会予以通报。', '整改成效：通过在支部党员大会上通报违纪党员，形成了强大的震慑作用，形成了不敢腐不想腐的有利氛围。', '整改措施：一是全面动员部署，将扶贫任务分解到村到户；二是开展脱贫攻坚大排查，全面排查不精准问题，并及时整改；三是做好规定动作，落实好政策性帮扶。', '整改成效：进一步夯实了脱贫工作成果，排查出了基础工作中的瑕疵和疏漏，脱贫攻坚工作得到了进一步巩固。', '整改措施：一是认真组织“两贴一挂”大排查大检查，梳理问题，及时整改；二是强化宣传教育，引导贫困户重视“两贴一挂”；三是对相关人员进行谈话提醒。', '整改成效：通过排查找到了症结所在，通过教育宣传加强了“两贴一挂”工作的有效性，通过谈话提醒，提升了工作的重要性和准确性。', '整改措施：一是针对此问题向上级业务部门作出情况说明；二是今后严把危房改造程序关、材料关，做到程序规范、材料完备；三是对相关人员进行谈话提醒。', '整改措施：一是立行立改，重新填写危房改造户档案，确保材料完备；二是举一反三，确保今后不出现此种疏漏。', '整改成效：通过集中排查整改，完善了相关档案资料，干部对扶贫工作重要性有了更深一层的认识，对今后开展工作起到了积极作用。', '整改措施：一是立行立改，及时完善物资台账；二是安排专人对防汛抗旱物资进行管理；三是加强制度管理，确保今后防汛抗旱物资储备充足。', '整改成效：通过对防汛抗旱物资台账的加强管理，物资储备底数更加清楚，对防汛抗旱工作起到了更好的保障作用。', '整改措施：一是加强文件管理，完善公文工作机制，确保红头文件闭环管理；二是对缺失的红头文件进行及时补充；三是强化公文管理业务知识培训。', '整改成效：红头文件管理更加规范有序，机关行政效率和严谨性进一步提高，保密工作明显提升。', '整改措施：一是成立保密工作领导小组，明确专人做好文件保管工作；二是完善制度，加强资料保管，确保不出问题。', '整改成效：通过组织保障和制度保障，有效提高了我镇的保密工作，资料保管水平明显提升。', '整改措施：一是定期召开党委会，研判安全生产工作；二是定期开展安全生产检查走访，及时发现问题隐患，立行立改。', '整改成效：通过对专题研究和部署，安全生产工作水平进一步提升，安全隐患进一步排除，地区安全稳定形势进一步巩固。', '整改措施：一是严查记录丢失的原因，追究相关责任人责任。二是组织各村村委会成员学习村民自治相关文件，提高管理水平。', '整改成效：通过集中学习，让村委会履职能力得到进一步提升，村干部的工作意识得到加强；通过对涉事干部的处理，形成了工作震慑，强化了村民自治工作的纪律性和严谨性。', '整改措施：一是组织各村村委会成员学习村民自治相关文件，提高议事服务水平。二是加强宣传，在村民中形成村事民商的良好氛围。', '整改成效：通过集中学习，让村委会履职能力得到进一步提升，村委会成员的尽责意识得到加强；通过加强宣传，村民参政议政的主观意识有所加强，村务工作有了显著提升。', '整改措施：一是组织各村村委会成员学习村务公开相关文件，提高议事服务水平；二是加强宣传，形成公开透明的良好氛围。', '整改成效：经过一番努力，村务公开工作更加规范，村务更加透明，村级组织更具威信力和公信力。', '整改措施：一是要求各村明确专人，及时更新公开内容；二是完善制度，强化政务公开工作，确保符合要求。', '整改措施：一是镇代管办已于2018年底设立了银行存款账户，代管办设立一个总的账户，各村设立明细账，今后要求大于1000元支出必须使用转账支票。二是制定并下发《东辛庄镇村级财务管理制度》，严格按照制度进行财务管理，严禁大额资金现金往来。三是对镇农经站站长给予诫勉谈话处理。', '整改成效：通过出台制度，对村级财务工作进一步规范和明细，把财务工作牢牢地框定在制度内，确保今后不再出现问题；通过对涉事干部的处理，形成了工作震慑，强化了财务工作的纪律性和严谨性。', '整改措施：一是与市农经总站联系，让其帮助查明新增债务的原因。二是尽最大努力化解新增债务。', '整改成效：通过对村级债务工作的调查和研判，各支部对债务化解工作的认识有了新提高，化解债务的方法有了新的方向，有力推进了村级经济的健康发展。', '整改措施：一是对工程手续严格把关，做到有合同、有预决算、有审计。二是按照审计局要求，今后工程都在审计局备案。三是制定《东辛庄镇村级财务管理制度》并严格执行。', '整改成效：通过出台制度，对村级财务工作进一步规范和明细，把财务工作牢牢地框定在制度内，确保今后不再出现问题；通过对工程手续的严格要求，降低了腐败发生的风险，强化了财务工作的纪律性和严谨性。', '整改措施：一是制定并下发《东辛庄镇村级财务管理制度》，规范原始凭证，做到应签尽签，镇代管办负责人和镇政府主要领导必须在原始凭证上审核签字，否则不予入账。二是组织财经人员对财经纪律和上级文件进行学习，进一步规范我镇的财经工作。', '整改成效：通过出台制度，对村级财务工作进一步规范和明细，把财务工作牢牢地框定在制度内，确保今后不再出现问题；通过对原始凭证的规范，财经纪律得到进一步加强，财务工作逐渐走向正轨。', '整改措施：一是制定《东辛庄镇村级财务管理制度》并严格执行，明确除人工费、劳务费、误工补工工资以外，村其它条据禁止白条列支。二是召开镇村两级干部大会，严肃强调大额资金白条列支的严重性和危害性，警醒各支部严格规范财务流程。', '整改成效：通过出台制度，对村级财务工作进一步规范和明细，把财务工作牢牢地框定在制度内，确保今后不再出现问题；通过召开大会反复强调，在广大干部中形成了规范财务流程的规矩意识。', '整改措施：一是严格倒查，应入固定资产帐没入固定资产账的，找出当时发生的条据，写明原因，按要求入固定资产帐。二是今后固定资产严格按照要求及时入账。', '通过对巡察反馈问题和意见建议进行认真整改，有力推动了全镇各项工作，达到了正本清源、重塑信心、净化和营造良好政治生态、从政环境的目的，以实实在在的整改成果提振了广大干部群众精气神，加快推进了东辛庄经济副中心的建设步伐，推动了我镇经济社会平稳快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>47</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>绥中县营商局赴沈抚新区政务服务中心考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-08-02</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/bmdt/202108/t20210802_1058802.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['为进一步优化营商环境，稳步推进“放管服”改革，提高政务服务水平，7月23日，绥中县营商局副局长乔铁东率队赴沈抚新区政务服务中心进行考察学习。', '乔铁东一行在讲解员的带领下，实地参观了政务服务中心办事大厅审批和服务窗口，对新区政务服务中心建设及运行情况、服务大厅的窗口设置、办事流程提示、文化氛围营造、智能化自助技术运用、服务评价和监督等方面都进行了详细了解。', '通过此次参观学习，我局将认真学习总结先进地区成功经验，努力提升政务服务水平，为绥中县营商环境的持续优化而努力。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>47</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>葫芦岛市文旅广电局积极落实我市文旅项目建设</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://whly.hld.gov.cn/wtfw/202106/t20210611_1049993.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['葫芦岛市文旅广电局今年以来积极落实我市文旅项目建设。目前，我市“兴城温泉产业发展项目”，已成立温泉产业发展专班，初步编制了温泉产业核心区概念性规划，先后到盘锦、营口、辽阳、本溪等地考察学习温泉产业发展理念，到江西九江、四川成都和重庆的5个温泉企业进行点对点招商考察，目前正对接中铁二局和重庆融汇温旅公司。“葫芦岛电商直播基地”，隶属于兴城发展投资集团，是重点打造的新兴行业重点项目，由易麦（辽宁省）数字新媒体科技有限公司负责运营，1-4月份累计销售额为1001万元，预计全年销售额4500万元，今年能够进入规模以上文化企业。“斯达威泳装超级产业园”，注重把文化内涵和艺术价值体现到泳装产业高质量发展中，目前，入园企业75家，其中，文创企业占70.6%以上。“山河半岛商业文化街区项目”，由山海（葫芦岛）文化艺术传媒有限公司建设运营，街区包括文艺文创街、亲子教育街、生活配套街、网红打卡体验街、金融办公街、婚庆文化街6大板块功能组合，着力打造城市新兴文旅休闲打卡地和消费聚集地，其中文艺文创街共有门市25个，总建筑面积12000余平方米，目前已有部分商家进驻，总体项目计划在2023年实现整体运营。“葫芦古镇旅游景区改扩建项目”，计划“十四五”期间总投资19.07亿元，包括福禄水岸小吃街、游客中心及景区售验票系统改造、温泉民宿酒店扩建、笊笠码头休闲渔业海洋旅游、中国葫芦文化博物馆改扩建、景区旅游道路及沿线导视系统提升、天角山滨海公园、天角山生态康养基地8个子项目，现福禄水岸小吃街项目已开工。“大遣返影视拍摄外景地复建项目”，已完成项目选址区内房屋、土地收购工作，已委托设计院进行项目选址区控规和详规及建筑设计编制工作，项目计划今年10月份竣工使用，目前处于申报和规划阶段。', '“兴城温泉产业发展项目”，已成立温泉产业发展专班，初步编制了温泉产业核心区概念性规划，先后到盘锦、营口、辽阳、本溪等地考察学习温泉产业发展理念，到江西九江、四川成都和重庆的5个温泉企业进行点对点招商考察，目前正对接中铁二局和重庆融汇温旅公司。“葫芦岛电商直播基地”，隶属于兴城发展投资集团，是重点打造的新兴行业重点项目，由易麦（辽宁省）数字新媒体科技有限公司负责运营，1-4月份累计销售额为1001万元，预计全年销售额4500万元，今年能够进入规模以上文化企业。“斯达威泳装超级产业园”，注重把文化内涵和艺术价值体现到泳装产业高质量发展中，目前，入园企业75家，其中，文创企业占70.6%以上。“山河半岛商业文化街区项目”，由山海（葫芦岛）文化艺术传媒有限公司建设运营，街区包括文艺文创街、亲子教育街、生活配套街、网红打卡体验街、金融办公街、婚庆文化街6大板块功能组合，着力打造城市新兴文旅休闲打卡地和消费聚集地，其中文艺文创街共有门市', '“葫芦古镇旅游景区改扩建项目”，计划“十四五”期间总投资19.07亿元，包括福禄水岸小吃街、游客中心及景区售验票系统改造、温泉民宿酒店扩建、笊笠码头休闲渔业海洋旅游、中国葫芦文化博物馆改扩建、景区旅游道路及沿线导视系统提升、天角山滨海公园、天角山生态康养基地8个子项目，现福禄水岸小吃街项目已开工。“大遣返影视拍摄外景地复建项目”，已完成项目选址区内房屋、土地收购工作，已委托设计院进行项目选址区控规和详规及建筑设计编制工作，项目计划今年', '进入6月份后，文旅项目建设将迎来快进期，特别是对纳入全市推进计划的10个重点文旅项目，我局将继续坚持每月调度进展、每月现场查看进度的管控措施，确保各项目按计划工期和投资额度推进。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>47</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>区政协八届四次会议关于对已经动迁的棚改房进行拆除打造良好生活环境的建议第</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-07-05</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2021n_29909/202112/t20211201_1077000.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['区政协八届四次会议《关于对已经动迁的棚改房进行拆除，打造良好生活环境的建议》第58号提案的答复_葫芦岛市南票区人民政府', '区政协八届四次会议《关于对已经动迁的棚改房进行拆除，打造良好生活环境的建议》第58号提案的答复', '南票棚户区拆迁安置工作从2014年起到目前为止,共搬迁到打渔山新城区13338户,但仍有276户居民居住在棚户区中。主要原因:一是家庭产权纠纷;二是因经济困难无法办理结算入住;三是九龙街道棚户区位于城市建城区内,因工作及其它方面因素影响未签订协议还有27户;四是部分居民认为政策不合理;五是房屋所有人失联,我区棚户区改造的范围内大部分是原南票矿务局在上世纪五十、六十年代统建连脊房屋,导致部分房屋无法拆除。', '为了改变南票棚户区改造安置后脏、乱、差的环境,在2017年12月6日时任南票区区长董金旭同志代表在葫芦岛市南票区第九届人民代表大会第一次会议做政府工作报告未来五年工作目标时强调:加快生态文明建设进程,实现人居环境新变化。切实践行“绿水青山就是金山银山”理念,实施蓝天、碧水和沃土工程。严守生态保护红线,稳步推进矿山生态环境治理和山水林田修复。实施棚户区、采沉区闲置土地治理与利用,持续开展城乡环境整治和造林绿化。', '为实现这个目标,南票区政府在2018年6月14日由时任南票区政府常务副区长王建华同志带队40多人到北票市考察学习。这次考察组借鉴北票经验和我区实际情况向政府提出建议:制定区域性总体发展规划,以产业转型为主线,以循环产业园区发展为核心,统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '待棚户区安置工作基本结束后,根据我区棚户区的实际情况,逐步拆除棚户区内房屋。目前,葫芦岛市自然资源南票分局正在对棚户区内房屋拆除后的土地进行统筹规划,易商则商,易林则林。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>47</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>区人大九届四次会议关于合理规划棚改搬迁后土地的建议第号建议的答复</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-07-05</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/rdta/2021n_29916/202111/t20211116_1073837.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['区人大九届四次会议《关于合理规划棚改搬迁后土地的建议》第8号建议的答复_葫芦岛市南票区人民政府', '南票棚户区拆迁安置工作从2014年起到目前为止,共搬迁到打渔山新城区13338户,但仍有276户居民居住在棚户区中。主要原因:一是家庭产权纠纷;二是因经济困难无法办理结算入住;三是九龙街道棚户区位于城市建成区内,因工作及其它方面因素影响未签订协议还有27户;四是部分居民认为政策不合理;五是房屋所有人失联,我区棚户区改造的范围内大部分是原南票矿务局在上世纪五十、六十年代统建连脊房屋,导致部分房屋无法拆除。', '为了改变南票棚户区改造安置后脏、乱、差的环境,在2017年12月6日南票区区长董金旭同志代表在葫芦岛市南票区第九届人民代表大会第一次会议做政府工作报告未来五年工作目标时强调:加快生态文明建设进程,实现人居环境新变化。切实践行“绿水青山就是金山银山”理念,实施蓝天、碧水和沃土工程。严守生态保护红线,稳步推进矿山生态环境治理和山水林田修复。实施棚户区、采沉区闲置土地治理与利用,持续开展城乡环境整治和造林绿化。为实现这个目标,南票区政府在2018年6月14日由区政府常务副区长王建华同志带队40多人到北票市考察学习。这次考察组借鉴北票经验和我区实际情况向政府提出建议:制定区域性总体发展规划,以产业转型为主线,以循环产业园区发展为核心,统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '待棚户区安置工作基本结束后,根据我区棚户区的实际情况,逐步拆除棚户区内房屋。目前,葫芦岛市自然资源南票分局正在对棚户区内房屋拆除后的土地进行统筹规划,易商则商,易林则林。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>47</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>区政协八届四次会议关于将快递网点下乡进农村的建议第号提案的答复</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-07-05</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2021n_29909/202112/t20211201_1077065.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['区政协八届四次会议《关于将快递网点下乡进农村的建议》第103号提案的答复_葫芦岛市南票区人民政府', '一是鼓励快递企业在农村设立分支机构,提倡快递企业与农村电商或零售网点达成共识,合作开展快递代收发业务。', '三是组织电商及快递行业外出到先进地区考察学习,借鉴先进经验,提升我区快递行业发展空间。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>47</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>葫芦岛市农业农村局赴梨树考察学习黑土地保护性耕作模式</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://nync.hld.gov.cn/ywdt/bdxw/202103/t20210324_1030464.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['3月17日，为深入贯彻落实习近平总书记提出的认真总结推广好“梨树模式”等重要指示精神，扎实推进中央、省、市关于黑土地保护性耕作项目安排部署，确保葫芦岛市保护性耕作项目顺利实施，经辽宁省农业农村厅农机生产管理处朱宝玉处长协调指导，葫芦岛市农业农村局副局长戴亿政，携市直相关负责同志，带领各县（市）区农业农村局、农业服务中心相关负责同志和从事保护性耕作项目的合作社负责人共18人，赴吉林省四平市梨树县学习调研黑土地保护性耕作先进模式--“梨树模式”。', '日，为深入贯彻落实习近平总书记提出的认真总结推广好“梨树模式”等重要指示精神，扎实推进中央、省、市关于黑土地保护性耕作项目安排部署，确保葫芦岛市保护性耕作项目顺利实施，经辽宁省农业农村厅农机生产管理处朱宝玉处长协调指导，葫芦岛市农业农村局副局长戴亿政，携市直相关负责同志，带领各县（市）区农业农村局、农业服务中心相关负责同志和从事保护性耕作项目的合作社负责人共', '首先，梨树县农业科学院相关负责同志同葫芦岛市农业农村局一行，参观中国黑土地博物馆。通过梨树县农业技术推广总站主要负责同志影像、图片和实物相结合的讲解方式，让大家了解“梨树模式”产生背景和发展历程，宽窄行、均匀行秸秆全覆盖还田模式、秸秆条带旋耕全量还田模式等内容。明确保护性耕作在蓄水保墒、培肥土壤、减少侵蚀保护耕地、土壤生物性状改善、稳产高产等方面的优势。', '随后，到梨树县国家百万亩绿色食品（玉米）标准化生产基地（2020年7月22日，习近平总书记视察梨树第一站），现场观看保护性耕作的土质、土层、秸秆预留、宽窄行和均匀行等情况。', '日，习近平总书记视察梨树第一站），现场观看保护性耕作的土质、土层、秸秆预留、宽窄行和均匀行等情况。', '最后，在卢伟农机专业合作社，参观合作社农用机械库房，听取全国农业劳动模范卢伟农机农民专业合作社董事长介绍合作社的经营情况，学习合作社在黑土地保护性耕作规模化经营和农业机械化等方面的经验。', '此次“梨树模式”考察学习，葫芦岛市一行人收获颇丰，进一步理解习近平总书记关于保护性耕作重要讲话精神，更深刻理解“保护性”三个字的重要意义。为推进葫芦岛市黑土地保护性耕作工作，提供宝贵经验，指明正确方向。在今后工作中，一要积极做好宣传，提升农户认识；二要抓好县级、乡级应用基地的建设。树立示范典型。三要加强组织领导，完善相关政策，加大推进力度，确保葫芦岛市保护性耕作工作顺利开展。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>县营商局选址电商产业园成立绥中县项目管家工作站</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2020-12-17</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/bmdt/202012/t20201217_1013069.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['早在11月初，绥中县营商局联合新区营商局赴兴城市考察学习斯达威泳装超级产业园区葫芦岛市优化营商环境示范园做法，了解项目管家工作站建设情况、开展的主要工作、典型经验等，之后经多方考察调研，最后决定选址在我县电商产业园建立绥中县项目管家工作站。', '工作站对有关信息进行了公示，包括联系人基本信息、项目管家职责、服务平台的网址及APP等内容。今后将', '通过企业反馈、走访调研、电话沟通、会议交流等多种形式，了解项目和企业问题和诉求，并做到全程跟踪解决，按时回访情况，杜绝“走过场、摆样子”，要切实']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>绥中县工商联年部门预算公开</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/czyjs/bmysgk_421001/2021ysgk/rmtt/202102/t20210203_1022109.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['第一部分 部门概况 一、主要职责 绥中县工商联是中国共产党领导的人民团体和民间商会，是县委和县政府联系非公有制经济的桥梁和纽带，是政府管理非公有制经济的助手，承担着引导私营经济发展的职能。 1、参政议政。参与全县政治、经济、社会生活中的主要问题的政治协商，发挥民主监督的作用。 2、做好工商界代表人士政治安排的推荐工作。 3、发扬自我教育的优良传统，宣传、贯彻党和国家的方针、政策，加强和改进思想政治工作，坚持对广大会员进行团结、教育、引导、服务，促进非公有制经济健康发展，提倡爱国、敬业、守法，提高会员素质，培养积极分子队伍。 4、引导会员积极参加国家经济建设，推进社会主义市场经济体制逐步完善，促进社会全面发展。 5、指导同业公会和行业商会等专业组织的工作。 6、代表并维护会员的合法权益，反映会员的意见、要求和建议;为会员提供有关证明，协调关系，参与调解经济纠纷。 7、引导会员把自身企业的发展与国家发展结合起来，把个人富裕与全体人民的共同富裕结合起来，弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业，积极参加扶贫光彩事业。 8、为会员提供信息、培训、科技、管理、法律、会计、审计融资、咨询等服务，帮助会员改进经营管理，完善财会制度，照章纳税，提高自身素质和生产技术、产品质量。 9、组织会员考察学习，举办和参加各种对内对外展销会、交易会，帮助会员开拓国内、国外市场，协助引进资金、技术、人才。 10、承办政府交办和有关部门委托事项。 二、单位构成 纳入2021年部门预算编制范围的为县工商联本级，没有二级预算单位。 第二部分2021年部门预算表 一、收支预算总表 二、收入预算总表 三、支出预算汇总表（经济科目） 四、收支预算总表（政府性基金） 五、政府性基金收入支出明细表（经济科目） 六、纳入专户收费支出明细表（经济科目） 七、一般公共财政预算总表 八、一般公共财政支出汇总表（功能科目） 九、一般公共财政支出汇总表（经济科目） 十、一般公共预算基本支出明细表—工资福利 十一、一般公共预算基本支出明细表—商品服务 十二、一般公共预算基本支出明细表—对个人和家庭 十三、财政拨款收支总表 十四、财政拨款安排基本支出明细表 十五、非税收入安排基本支出明细表 十六、项目支出明细表 十七、非税收入征收计划表 十八、单位基本信息表 十九、政府采购明细表 二十、政府购买服务预算表 二十一、预算绩效目标表 二十二、三公经费总表 第三部分 部门预算情况说明 一、2021年收支预算的总体说明 按照综合预算的原则，绥中县工商联所有收入和支出均纳入部门预算管理。收入包括：财政拨款收入；支出包括：一般公共服务支出、社会保障和就业支出、医疗卫生与计划生育支出、住房保障支出。2021年收支总预算50.64万元。 二、2021年预算收支增减变化情况说明 2021年收入总预算数50.64万元，其中，一般公共预算财政拨款收入50.64万元。预算支出50.64万元，其中，工资福利支出42.50万元，商品服务支出机关运行经费6.14万元，对个人和家庭补助支出2.00万元。 2021年一般公共预算拨款增加0.26万元，工资福利支出增加2.42万元，主要是普调工资；商品服务支出减少2.16万元，主要原因是厉行节约规定，严格控制各项支出；对个人和家庭补助支出没有增减。 三、“三公”经费预算情况说明 2021年“三公”经费预算数0万元，其中：公务接待费0万元；公务用车运行费0万元，公务用车购置费0 万元。 四、部门预算政府采购等情况说明 2021年政府采购预算安排0万元。 五、部门预算绩效目标等情况说明 2021年我部门没有安排项目支出，项目支出为0万元。 第四部分 名词解释 1.财政拨款收入：指县级财政当年拨付的资金。 2.基本支出：指保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 3.项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 4.行政事业性收费收入：指依据法律、行政法规、国务院有关规定、国务院财政部门会同价格主管部门共同发布的规章或者规定，省、自治区、直辖市人民政府财政部门会同价格主管部门共同发布的规定所收取的各项收费收入。 5.政府性基金收入：反应各级政府及其所属部门根据法律、行政法规规定并经国务院或财政部批准，向公民、法人和其他组织征收的政府性基金，以及参照政府性基金管理或纳入基金预算、具有特定用途的财政资金。 6.其他收入：指除上述“财政拨款收入”、“行政事业性收费收入”、“政府性基金收入”以外的收入。 7.“三公”经费：指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反应单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '绥中县工商联是中国共产党领导的人民团体和民间商会，是县委和县政府联系非公有制经济的桥梁和纽带，是政府管理非公有制经济的助手，承担着引导私营经济发展的职能。', '1、参政议政。参与全县政治、经济、社会生活中的主要问题的政治协商，发挥民主监督的作用。', '3、发扬自我教育的优良传统，宣传、贯彻党和国家的方针、政策，加强和改进思想政治工作，坚持对广大会员进行团结、教育、引导、服务，促进非公有制经济健康发展，提倡爱国、敬业、守法，提高会员素质，培养积极分子队伍。', '4、引导会员积极参加国家经济建设，推进社会主义市场经济体制逐步完善，促进社会全面发展。', '6、代表并维护会员的合法权益，反映会员的意见、要求和建议;为会员提供有关证明，协调关系，参与调解经济纠纷。', '7、引导会员把自身企业的发展与国家发展结合起来，把个人富裕与全体人民的共同富裕结合起来，弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业，积极参加扶贫光彩事业。', '8、为会员提供信息、培训、科技、管理、法律、会计、审计融资、咨询等服务，帮助会员改进经营管理，完善财会制度，照章纳税，提高自身素质和生产技术、产品质量。', '9、组织会员考察学习，举办和参加各种对内对外展销会、交易会，帮助会员开拓国内、国外市场，协助引进资金、技术、人才。', '按照综合预算的原则，绥中县工商联所有收入和支出均纳入部门预算管理。收入包括：财政拨款收入；支出包括：一般公共服务支出、社会保障和就业支出、医疗卫生与计划生育支出、住房保障支出。2021年收支总预算50.64万元。', '2021年一般公共预算拨款增加0.26万元，工资福利支出增加2.42万元，主要是普调工资；商品服务支出减少2.16万元，主要原因是厉行节约规定，严格控制各项支出；对个人和家庭补助支出没有增减。', '4.行政事业性收费收入：指依据法律、行政法规、国务院有关规定、国务院财政部门会同价格主管部门共同发布的规章或者规定，省、自治区、直辖市人民政府财政部门会同价格主管部门共同发布的规定所收取的各项收费收入。', '5.政府性基金收入：反应各级政府及其所属部门根据法律、行政法规规定并经国务院或财政部批准，向公民、法人和其他组织征收的政府性基金，以及参照政府性基金管理或纳入基金预算、具有特定用途的财政资金。', '6.其他收入：指除上述“财政拨款收入”、“行政事业性收费收入”、“政府性基金收入”以外的收入。', '7.“三公”经费：指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反应单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>47</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>县营商局选址电商产业园成立绥中县项目管家工作站</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2020-12-15</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/shgysy/glhfwxx/shzz/202012/t20201229_1015111.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['县营商局联合新区营商局赴兴城市考察学习斯达威泳装超级产业园区葫芦岛市优化营商环境示范园做法，了解项目管家工作站建设情况、开展的主要工作、典型经验等，']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>47</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>我市国土空间规划编制工作走在全省前列</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2020-11-06</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://zrzy.hld.gov.cn/ywdt/sjdt/202011/t20201106_1007350.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['我市有序推进国土空间规划编制工作，目前已经形成开发保护现状评估、资源环境承载力与适宜性评价、发展战略与目标体系、三区三线初划等规划成果，在省自然资源厅近期工作调度中，我市国土空间规划编制工作走在全省14市前列。', '一是及时建立调整组织机构。我市及时成立了以市委书记、市长任双组长的领导小组，市委常委会、市政府常务会多次听取专题汇报。因部分成员单位领导职务变动，及时调整了领导小组成员名单，增补了分管领导名单及具体联络人员名单，确保了国土空间规划编制工作的有序开展。', '二是及时组建工作专班。抽调全市城市规划、土地、林业、海洋、地理信息等领域专业技术人员成立国土空间规划编制工作办公室，统筹协调全市规划编制工作，通过招标组建由国家级设计单位中规院和苏地源组成的技术联合体，支撑全市规划编制工作。', '三是扎实开展宣传普及工作。围绕“什么是国土空间规划”、“为什么编国土空间规划”等主题开展国土空间规划认知宣传。先后印发习近平关于生态文明和国土空间规划论述宣传册、国土空间规划国家政策文件汇编200余份，发送至各个地区和部门，组织了两场500余人次参加的规划编制科普讲座，并在葫芦岛日报、葫芦岛电视台录制专题访谈，全面提升各单位和市民群众对国土空间规划的认知度。', '四是全面开展材料收集及调研工作。及时召开会议进行安排部署，研究制订调研计划。利用半个月的时间，采取分组进行的形式，通过现场踏勘等方式到各县（市）区政府、开发区管委会、市委政研室、市政府研究室、市发展改革委、市住建局等单位和部门开展了调研工作，深入了解发展现状与国土空间方面诉求，掌握发展目标、方向等，全面组织对涉及的全市24个成员单位进行资料收集，为规划编制奠定基础。', '五是召开座谈会听取意见建议。先后邀请市工信局、市应急局、市教育局、市民政局等市直部门和渤海造船厂集团有限公司、中国石油天然气有限公司锦西石化分公司、中冶葫芦岛有色金属集团有限公司、航锦科技股份有限公司等大型企业进行座谈，围绕县（市）区总体发展战略、思路、存在的瓶颈问题，城市建设、生态环境保护、自然资源开发利用、土地利用效率等方面进行沟通交流。', '六是多次开展考察及培训工作。通过多次赴外地考察学习、聘请专家技术培训等方式，组织对干部群众进行专题辅导讲座，进一步提高做好国土空间规划工作的认识。', '七是组织各县（市）区编制工作同步推进。各县（市）区同时开展空间规划编制工作，及时完成领导机构设置，成立领导机构。完成了工作方案和工作预算的编制工作，落实经费，完成了基础工作招标，开展了基础资料收集完善工作，各项工作有序进行。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>47</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>龙港区狠抓生态环境保护工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-11-05</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/hdjl/zxft/202011/t20201105_1007119.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['主持人：倾听百姓心声，解答百姓疑难，传递政策信息，公开行政行为，网友朋友们大家好，欢迎收看本期的政务访谈，县区工作领导谈的第5期，我们荣幸邀请到龙港区袁伶区长，龙港区环保局王建新局长，自然资源局曹士奇局长，农业农村局王立慧局长针对龙港区的生态环境保护工作进行解答，袁区长，您好。', '主持人：生态环境是人类生存、生产与生活的基本条件。长期以来，党和政府十分重视生态建设与环境保护，将其作为一项基本国策。龙港区近几年也是把生态环境工作作为第一民生工作来抓。首先第一个问题我想请袁区长为大家简单介绍一下龙港区近几年的生态环境保护工作情况?', '袁伶区长：龙港区作为我市的主城区，党委、政府始终认真践行习近平生态文明思想，高度重视生态环保工作，在具体工作中严格贯彻落实生态环境保护法律法规，把生态文明建设摆在压倒性位置，抓重点、补短板、强弱项，持续不断做好绿色生态“加法”和环境污染“减法”，出台了一系列文件措施，实施了一揽子治理工程，形成了生态环境保护“党政同责、一岗双责，条块结合、齐抓共管”的良好工作格局，全区生态环境质量得到大幅提升。', '(一)领导率先垂范高位推动。为了加大对生态环境保护工作的组织领导，我区专门成立了由区委书记和我任双组长的环境保护建设工作领导小组，构建横向到边、纵向到底的责任体系，同时建立了定期通报和例会制度，调度生态环境保护各项工作的推进落实情况，并按照“六重大一包保”的工作机制，对于每一项环境保护方面的问题，都明确由一名副县级领导牵头负责，一个专班具体负责，切实推进问题的有效解决，通过凝聚全区各方面力量，共同担起加强生态文明建设的政治责任，来不断满足人民群众对良好生态环境的需求。', '(二)污染防治攻坚战成效明显。全力推进大气、水、土壤污染防治工程，生态环境质量明显改善。大气方面：全面铺开子站周边清洁能源替代和煤改气工程，实现清洁取暖、健康过冬;集中开展餐饮业油烟整治行动，油烟净化器安装率达97%;淘汰城市建成区内10吨以下燃煤锅炉223台。治水方面：深入推进河长制，城区黑臭水体和国控入海河流五类水体全面消除，河流水质明显提升。土壤方面：稻池村土壤重金属污染风险管控项目加快推进，年底前具备“销号”条件。狠抓环保问题整改，国家海洋督察整改任务全部完成，中央环保督察和“回头看”反馈问题、信访案件整改均已完成序时进度。', '(三)高质量发展和高水平保护协同推进。学好用好绿水青山就是金山银山的理论，严格贯彻生态产业化、产业生态化，生态优先绿色发展行动计划有序推进。加快推进渤海综合治理项目，海岸带修复工程已全部建设完工。实施青山保护和荒山绿化工程，累计植树24.6万株，造林绿化5.6万平方米。深入实施“百村美丽，千村整洁”专项行动，农村卫生厕所普及率达到99%;完成双树、兴北等5个村垃圾分类工程和双树乡污水收集处理系统主体工程建设。落实污染物排放总量控制制度，全面完成国家下达的年度主要污染物减排和控制温室气体排放的约束性指标，为经济发展腾出更多空间和容量。', '(四)深化生态文明体制改革取得实效。落实环保执法“双随机、一公开”工作要求，做好污染源现场管理工作。不断完善大环保工作机制，严厉打击生态环境违法犯罪，污染物排放总量明显下降，治污能力显著提高，环境质量持续改善。截至目前，我区共处理“12369”环保热线、民心网、网格等平台举报案件117件，群众满意度在95%以上。', '主持人：好的，通过刚刚袁区长的介绍，使我们对龙港区近几年生态环境保护工作的整体情况有了一定的了解，尤其是各项数据的体现，可以说真真切切的让百姓感受到了我们的生活环境在变好。', '近年来，大气污染防治工作一直是百姓非常关注的焦点，我想问一下环保部门，今年，龙港区在大气污染防治方面有什么新的举措吗?', '区环保局局长王建新：龙港区是葫芦岛市的中心城区，人口较为密集，随着百姓生活水平的逐步提高，人们对空气质量也越来越重视，大气污染防治工作成为百姓关注的焦点。近几年，龙港区深入贯彻落实习近平生态文明思想，不断提高空气质量管理的精细化水平，强化重污染天气应对，更大力度推进大气污染防治工作。2019年，实现新老城区空气质量优良天数比例76.2%，PM2.5浓度47微克/立方米，优良天数超过了市定任务目标。在我们的努力下，截止10月28日优良天数比例82.1%，去年同期75.4%(任务指为74.3%);今年PM2.5浓度下降至41微克/立方米。去年同期45微克立方米(任务指标43微克立方米)。', '今年，按照市政府的统一要求，我们着重开展了国控空气质量检测子站周边环境整治工程。该工程以辖区2个国控空气质量检测子站为中心半径500米区域为范围，拟对连湾街道荒地村、跃进村和双龙街道曹屯村共3个村屯，2145户居民实施清洁能源替代工程。年初以来，我区先后赴河北省石家庄市、朝阳市等地考察学习先进经验。经调研认为，在国控空气质量监测点位周边实施“煤改气”工程，能够在保证居民冬季取暖条件不变的前提下，大幅降低居民的取暖费用，同时降低燃烧散煤对大气环境质量造成的不良影响，全面提高城区的空气质量。目前，该工程进展顺利，正在安装相关设备，预计在11月20日前可整体完工。', '主持人：王局长的回答中让我印象最深刻的就是大气污染防治工作这，我们说空气的质量真的是涉及每一位百姓的身体健康，我相信在我们的不断改进下我们区的空气质量会越来越好。', '我们龙港区地理位置优越，临海是我们龙港区的地理优势，尤其是美丽的313海滨和望海寺海滨，都是我们独特的资源。刚刚，袁区长也在第一个问题中提到了渤海综合治理，据了解，此项工作是我区的自然资源局来负责，那么这个问题就请自然资源局的曹局长来介绍一下这个渤海综合治理项目的具体情况。', '区自然资源局局长曹士奇：渤海综合治理生态修复项目是今年我区渤海攻坚战的重要举措，项目地点位于龙港区北港街道牛营子村海域向海一侧岸段，通过拆除构筑物、生态化海堤改造和植被修复等措施，对连山湾(北港街道牛营子村外侧)海域受损的岸线岸滩和滨海湿地进行修复。具体包括建设生态海堤 3000米，拆除现有人工堤坝 2700米，恢复滨海湿地 142 公顷，完成海岸带植被群落恢复工程3000米，项目总投资3883.51万元。', '截至目前，人工堤坝拆除、滨海湿地恢复等工程已经全部完工，建成生态海堤2100米，整个工程已经全部完工，目前正在进行验收中。', '刚刚袁区长还提到了稻池村污染管控项目，这个项目备受百姓关注，目前的进展情况是怎么样的，这个问题我们请农经局的王局长介绍一下。', '区农经局王立慧局长：稻池村农田土壤修复工作从2013年开始，经东方卫视、央视2套等新闻媒体报道土地重金属污染问题后，引起广泛关注。2015年3月，环保部东北督查局及辽宁省督导组调查锌厂及稻池村周边地区排污情况，明确稻池村农田土壤重金属污染原因是长期经受原国有大中型企业污染造成，包括1937年建厂的葫芦岛锌厂常年排放含重金属工业粉尘飘落，造成周边土壤多种重金属超标。2015年底，中冶葫芦岛有色金属集团有限公司完成治理，实现达标排放后，龙港区政府启动了土壤重金属污染防治工作，同时环保部东北督查中心与辽宁省环保厅对龙港区稻池村土壤重金属污染修复工作进行挂牌督办。2019年12月末，经市政府向省政府申请，将稻池村土壤重金属污染防治项目变更为严格管控项目，并将项目范围由500亩扩大到6000亩。', '区农经局王立慧局长：龙港区高度重视稻池村土壤污染管控工作，采取果断有效措施，以强有力的执行力确保项目落实落地，确保完成中央环保督察整改任务。一是加强组织领导。按照党政同责、一岗双责的原则，成立由区委、区政府主要领导同志任组长的领导小组，下设6个工作组，并在管控现场设立临时指挥部，第一时间制定时间表路线图，全力推进管控工作。二是落实包保责任。组建57个包保工作组，区直各部门派出专门工作组，实行“部门——重点户”的“一对一”精准包保模式，在指挥部统一指挥下，各部门主要负责同志“包干到户”，分别入户开展宣传引导、政策解读、协议签订等各项工作，充分运用机关干部集体智慧，构建全员上阵抓管控的工作新格局。三是积极进行政策解读。向稻池村居民发放了《关于重申禁止在严格管控类农用土地上种植可食用农作物的通告》2000余份，分别由街道5个工作组和57个包保部门入户对村民进行政策宣讲和思想疏导，及时解开村民思想包袱，消除抵触情绪。四是全力清除地上农作物。于6月末，对在稻池村污染土壤上种植的农作物进行集中清除，经过连续11个小时的高效作业，地上粮食作物已全部清除，4000余亩土地重新达到管控条件。五是强力推进现场施工。进场施工后，截至目前，已经完成除草2699亩，完成第一遍翻混面积约4200亩，完成旋耕约1500亩，钝化药剂进场约500吨。整个工程预计年底前完工。', '主持人：好的，谢谢各位局长的解答，本期节目就要接近尾声了，但是生态环境保护工作一直在路上，这项最基本的民生问题还有很长远的路要走。那么袁区长针对生态环境保护工作还有什么想对网友说的呢?', '袁伶区长：生态环境保护工作是关系中华民族永续发展的根本大计，功在当代、利在千秋，关系人民福祉，关乎民族未来。抓好生态环境保护工作是一项重要的政治任务，更是一项系统性工程，需要政府、企业及社会各层面的长期共同努力，更需要广大群众的积极配合和参与。让我们携手共进，共同关心、支持和参与环境保护工作，为决胜全面建成小康社会、实现中华民族伟大复兴的中国梦共同奋斗。', '主持人：以上就是龙港区政府袁区长给我们分享的龙港区在生态环境保护方面所做的工作和努力。谢谢袁区长的做客，追赶超越关键在实干，生态环境保护关键在行动。我们相信在龙港区委、区政府的努力下，龙港区生态环境保护工作一定能够再上新台阶，再创新局面。再次感谢袁区长接受我们的专访，今天的《政务访谈》节目就到这里。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>47</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>省卫健委组织丹东等六市卫生系统人员就尘肺病康复站筹建工作来葫芦岛市第六人民医院考</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2020-12-11</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://yjzz.hld.gov.cn/xwzx/bmdt/202012/t20201211_1012428.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['省卫健委组织丹东等六市卫生系统人员就尘肺病康复站筹建工作来葫芦岛市第六人民医院考察', '12月8日，省卫健委组织我省丹东等六市卫生系统人员就尘肺病康复站筹建工作来葫芦岛市第六人民医院考察学习。', '月8日，省卫健委组织我省丹东等六市卫生系统人员就尘肺病康复站筹建工作来葫芦岛市第六人民医院考察学习。', '在市六院尘肺病治疗中心，考察人员详细了解了市六院尘肺病治疗中心建立的指导原则、设备引进、治疗方法、治疗方案制订、治疗流程、治疗效果、术后护理、康复训练、尘肺病研究所、康复站建设运行等情况，', '为减轻地区尘肺病患者病痛，改善他们的生活质量，2017年，葫芦岛市第六人民医院把尘肺病治疗中心做为重点学科，重点建设，通过引进优秀人才和技术，购进先进诊疗设备，推行专业的护理和康复治疗，把市六院尘肺病治疗中心建成国内水平上乘的专业特色科室，葫芦岛第六人民医院也成为我市卫健委指定的尘肺病治疗康复定点医院，我省仅有的两家批准开展岩盐气熔胶疗法医院之一。至2019年底，市六院尘肺病治疗中心成功完成肺灌洗手术50余例，接待患者2000余人。葫芦岛第六人民医院尘肺病治疗中心不仅各项建设日臻完善，而且积累了丰富的诊疗康复经验，受到了社会各界的充分认可和广泛赞誉。', '在考察过程中，考察人员对市六院把群众利益放在首位，把关爱尘肺病患者贯穿诊疗工作始终，突出公益性，注重质量，大力加强软硬件建设，努力提高尘肺病治疗能力表示高度赞赏，对开发区重视尘肺病防治工作，多部门密切配合，协同推进，建立完善的尘肺病防治体系，努力探索建立尘肺病防治长效机制给予好评，并表示回去后要认真研究、落实好政策，借鉴市六院在尘肺病治疗康复工作中好的做法和经验，在国家、省卫健委的支持指导下建设好本市的尘肺病康复站，积极努力为广大尘肺病患者送去福音。', '在考察过程中，考察人员对市六院把群众利益放在首位，把关爱尘肺病患者贯穿诊疗工作始终，突出公益性，注重质量，大力加强软硬件建设，努力提高尘肺病治疗能力表示高度赞赏，对开发区重视尘肺病防治工作，多部门密切配合，协同推进，', '认真研究、落实好政策，借鉴市六院在尘肺病治疗康复工作中好的做法和经验，在国家、省卫健委的支持指导下建设好本市的尘肺病康复站，积极努力为广大尘肺病患者送去福音。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>47</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>建昌县营商环境建设稳步推进</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2020-12-03</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/zmhd/zxft/202012/t20201203_1011124.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['主持人：倾听百姓心声，解答百姓疑惑;传递政策信息，公开政务行为。观众朋友们大家好，欢迎收看县区工作领导谈的第四期。本期节目我们邀请到的是建昌县人民政府副县长张东生同志和建昌县营商环境建设局局长马敬极同志就建昌县营商环境建设工作与大家进行交流。', '张县长：主持人好，观众朋友们大家好。很高兴来到《政务访谈》栏目，就我县营商环境的相关工作和大家一起交流，在此，非常感谢大家对我县的政务工作，特别是营商环境建设工作的关注和支持，也感谢政务访谈栏目提供这样一个和广大朋友交流的机会。', '主持人：近年来，省、市、县各级党委、政府坚持把优化营商环境作为转变政府职能、激发市场活力的“牛鼻子”来抓，营商环境明显优化。营商环境目前是广大市民和社会各界人士最关心的问题，张县长，您能给我们谈一谈建昌县营商环境建设的相关情况吗?', '张县长：首先，在营商环境建设方面，县委、县政府主要领导同志都高度重视，县委书记李智同志，亲自为建昌县的营商环境进行把脉、定调、把关，确定了以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平总书记在深入推进东北振兴座谈会上的重要讲话精神，全面落实9月28日省委全体(扩大)会议精神，全面落实国家和省市优化营商环境的决策部署，一体践行、立体推进改革与创新、协调、绿色、开放、共享新发展理念，以切实增强人民群众的幸福感和获得感为出发点，聚焦市场化、法治化、国际化的总要求，强优势补短板，全面建设办事方便、法治良好、成本竞争力强、生态宜居的一流投资营商环境，为建昌改革发展提供有力支撑。这样一个指导思想，确定了以优化营商环境为基础，全面深化改革，聚焦思想观念短板，有效解决“官本位”思想严重、服务意识欠缺等问题;聚焦体制机制短板，有效解决政府办事效率不高的问题;聚焦经济结构短板，有效解决成本竞争力不强的问题;聚焦对外开放短板，有效解决生态环境不优问题，全面激发市场主体活力和社会创造潜力的工作目标，全力打造全力打造办事方便、法治良好、成本竞争力强、生态宜居的一流投资营商环境，进一步提升建昌竞争力，确定了党委常委政府副县长、人大、政协、工青妇齐抓共管的领导体制，为了使群众办事更加方便快捷，有更好的体验感，政府县长张祥波同志在财政十分紧张的情况下，拨款100多万元，用于服务大厅的软硬件建设。', '主持人：张县长，营商环境关乎我县的发展和未来，请您给观众们介绍下建昌县具体采取了哪些针对性措施来确保各项任务落到实处，群众取得了哪些实惠和便利?', '张县长：好的。我县在全面优化营商环境工作中一共有51项具体措施。大体上就是将继续深化“放管服”改革。深化商事制度改革，提升企业开办和注销便利度。深入推进工程建设项目审批制度改革。加快工程建设项目审批制度“全覆盖、全流程、全方位”改革，大力精简审批环节、材料和事项，深化不动产登记改革。实现政务服务统一入口出口、统一身份认证、办件业务数据实时共享，做到“网络通”“数据通”“业务通”，确保政务服务“进一网、能通办”。建成“一网通办”总门户。实现群众办事一号申请，避免重复提交办事材料、证明和证件。大力推进“一件事、一次办”。实现主题内事项一张表单填报、一套材料提交、一个流程办理，做到“一件事一次办好”。加强项目管家建设。建立完善项目管家工作站，为所有规上、限上企业和重点项目配备项目管家，提供全便利服务。举办“营商环境服务驿站”活动。每月举办一次活动，由1位副县长主持，邀请企业家、有关部门主要负责人及工作人员参加。通过与企业家在“服务驿站”面对面互动交流，广泛收集企业意见建议，倾听企业生产经营中遇到的困难问题，主动高效地解决企业反映的问题。优化纳税等等环境。', '还有很多实际工作，我们都将一一落实营商环境建设和群众生产生活息息相关，重点是企业受益最大，长远说关乎经济社会和谐发展。为进一步优化营商环境，提升服务水平，提高政务办事效率，我县按国家、省、市相关工作要求，采取了许多针对性措施，下面就请我们建昌县营商局局长马敬极同志为大家介绍一下具体工作情况。', '主持人：好的马局长，目前，全省上下全力攻坚“一网通办”工作，咱们建昌县在“一网通办”工作上采取了哪些举措?', '马局长：俗语说，时间就是金钱，效率就是生命。我县从18年以来，就按国家、省、市相关工作要求，由县营商局牵头，协调相关业务部门，着力推进线上“一网通办”工作，实现政务数据“替人跑”，逐步实现审批规范化、制度化和科学化。一是对所有政务服务事项统一管理，建立了事项基本信息库，包括事项整理、事项目录、事项查询、事项变更、事项统计等，保证了事项标准统一、整体联动、业务协同，与各应用系统保持数据同源、同步更新。目前，建昌县“10+1”政务服务事项3420项，依申请“6+1”事项1064项，网上可办率100%，全程网办率43%，平均办理时间压缩率75%，即办率24%，跑一次率99%，平均跑动次数0.58次，平均材料数3.8个，平均环节数2.89个。“兜底性”材料一律取消。二是建昌县高频事项梳理工作。《建昌县第一批100个高频事项清单》、《建昌县第二批100个高频事项清单》已在县公共行政服务中心大厅及政务服务网公示。按照“一网通办”工作最新要求，又梳理出《建昌县第三批100个高频事项“最多跑一次”清单》。截至目前，全县300个高频事项均达到“最多跑一次”标准，其中100个高频事项实现不见面办理。', '主持人：据我所知，从2018年开始，全省开展项目管家工作，马局长，请您介绍下咱们建昌县的项目管家工作开展情况。', '马局长：2018年，我县开始项目管家工作，2020年我县梳理重点企业和项目共79家，其中规上企业20家，限上企业19家，5000万以上重点项目13家，飞地项目4家，全市722家占税额88%以上企业23家，为以上项目和企业配备管家29位。制定了《2020年项目管家服务企业和项目责任清单》，目前，29个项目管家走访了49个企业和项目，收集问题42个，解决问题 34个。项目管家指导企业制定开复工预案和疫情防控预案33个，现场指导帮助企业解决开复工问题40个，解决具体问题24个，捐赠消毒液1吨，办理车辆通行证15个，捐赠口罩0.93万个。', '主持人：营商环境的核心主要体现在政务服务上，关于政务服务大厅工作人员的服务质量方面，我们有什么考核机制?', '马局长：我县制定了“好差评”制度工作目标、内容和工作要求，针对个别差评的个人和单位，敢于曝光，敢于直面病灶，为我县优化营商环境工作护航保驾，确保我县营商环境持续优化。通过线上微信公众号、微信群有针对性的多渠道开展宣传，提高企业群众对“好差评”工作的知晓度和参与度。线下设置“好差评”二维码台牌，工作人员主动引导办事群众扫码对政务服务进行“好差评”。用标准化提升行政审批服务质量。以办事群众需求为导向，编制证照受理流程图、推行受理一次性告知清单制度，制定行政审批工作细则提升审批效率。同时，发放证照材料受理清单，为群众提供“一站式”公共服务。建立科学绩效考评机制，将考核制度与“好差评”工作相结合，倒逼窗口工作人员转变作风，不断提高综合业务能力和服务水平，从而推动政务服务质量不断提高。', '主持人：我们都知道，江浙地区在营商环境建设方面一直走在前列，去年以来，市领导多次带领有关部门去江浙地区考察学习，请问马局长，咱们县学到了哪些先进经验?', '马局长：我们常说，它山之石可以攻玉。我们建昌县积极学习外地先进经验，根据上级有关要求，编制了《建昌县梳理编制“一件事”事项工作实施方案》，召开了“建昌县‘一件事’改革工作会议”，对“一件事”做出全面安排部署。同时，强化事项梳理，设置“一件事综合窗口”25个，并公示具体办事人员和联系方式，实现“一件事”线下办理;“一件事”事项库维护工作按照市里统一部署正在有序推进，尽快实现“一件事”线上线下融合办理。利用开展“一件事一次办”改革工作的有利契机，以为群众提供优质高效的服务为出发点和落脚点，进一步完善窗口服务制度，规范窗口人员工作行为。', '县政府针对群众反映强烈而政府相关部门协调可以办理的有关事项，进行了认真反复的梳理，印发了《建昌县创建“零证明”城市工作方案》，成立“零证明”专项领导小组，制定了建昌县第一批证明事项清单。同时，加强宣传工作，印发宣传手册，真诚接受广大群众的监督，保证我们建昌人人都是发展环境，发展环境人人有责，让群众携手共同建设我们自己的美好家园。', '主持人：今年春节以来，暴发了百年不遇的新冠疫情，为有效防控疫情，掌控人员流动情况，省营商局开发了“辽事通”，在“辽事通”应用推广方面，听说建昌县得到了市政府领导的好评，并在全市推广建昌经验，请问建昌县是如何做好这项工作呢?', '马局长：建昌县持续将辽事通“健康码”应用推广作为重点工作，在全县范围内充分利用广播、电视、微信、重点公共场所张贴海报等多种方式，大力宣传“健康码”推广应用的目的、意义和对老百姓的好处，强调其是居民外出务工、出行、出入公共场所及机关单位的重要电子凭证。截至目前，我县机关事业单位及28个乡镇“健康码”已注册238558人，打卡1459636人次。我县有两家医院(县人民医院和县新区医院)正在联合第三方进行在线预约挂号系统建设。“自来水、燃气、公交、供暖等相关事项应接尽接”工作按序推进。', '主持人：马局长，感谢您的详细介绍，让我们了解了建昌近年来营商环境建设工作的开展情况和取得的成果。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>47</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>绥中县工商联年度部门决算</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020-11-05</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/czyjs/bmjsgk/2019jsgk/rmtt/202011/t20201111_1007996.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['绥中县工商联是中国共产党领导的人民团体和民间商会，是县委和县政府联系非公有制经济的桥梁和纽带，是政府管理非公有制经济的助手，承担着引导私营经济发展的职能。', '、参政议政。参与全县政治、经济、社会生活中的主要问题的政治协商，发挥民主监督的作用。', '、发扬自我教育的优良传统，宣传、贯彻党和国家的方针、政策，加强和改进思想政治工作，坚持对广大会员进行团结、教育、引导、服务，促进非公有制经济健康发展，提倡爱国、敬业、守法，提高会员素质，培养积极分子队伍。', '、引导会员积极参加国家经济建设，推进社会主义市场经济体制逐步完善，促进社会全面发展。', '、代表并维护会员的合法权益，反映会员的意见、要求和建议;为会员提供有关证明，协调关系，参与调解经济纠纷。', '、引导会员把自身企业的发展与国家发展结合起来，把个人富裕与全体人民的共同富裕结合起来，弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业，积极参加扶贫光彩事业。', '、为会员提供信息、培训、科技、管理、法律、会计、审计融资、咨询等服务，帮助会员改进经营管理，完善财会制度，照章纳税，提高自身素质和生产技术、产品质量。', '、组织会员考察学习，举办和参加各种对内对外展销会、交易会，帮助会员开拓国内、国外市场，协助引进资金、技术、人才。', '年度一般公共预算财政拨款基本支出56.58万元，其中：人员经费45.52万元，主要包括基本工资、津贴补贴、奖金、其他社会保障缴费、机关事业单位基本养老保险缴费、其他工资福利支出、离休费、退休费、抚恤金、生活补助、奖励金、住房公积金、采暖补贴、其他对个人和家庭补助的支出；日常公用经费10.24万元，主要包括办公费、印刷费、手续费、水费、电费、邮电费、取暖费、物业费、差旅费、因公出国（境）费用、维修（护）费、租赁费、会议费、培训费、公务接待费、劳务费、委托业务费、工会经费、福利费、公务用车运行维护费、其他交通费用、其他商品和服务支出、办公设备购置、专用设备购置、信息网络及软件购置更新。', '指除上述“财政拨款收入”、 “上级补助收入”、“事业收入”、“经营收入”、“附属单位上缴收入”等以外的收入。', '指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“上级补助收入”、“事业收入”、“经营收入”、“附属单位上缴收入”、“其他收入”不足以安排当年支出情况下，使用以前年度积累的事业基金（事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>47</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>葫芦岛市积极推进国土空间规划工作</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://zrzy.hld.gov.cn/ywdt/sjdt/202009/t20200904_998932.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['葫芦岛市高度重视国土空间规划编制工作，市委、市政府印发了《葫芦岛市国土空间规划编制工作方案》，成立市委书记、市长任双组长的领导小组，市委常委会、市政府常务会多次听取专题汇报。通过多次赴外考察学习、聘请专家技术培训等方式，组织对干部群众进行专题辅导讲座，进一步提高做好国土空间规划工作的认识。二是严格要求，组织资料收集及调研。多次召开领导小组成员工作会议，组织对涉及全市24个成员单位进行资料收集。采取分组形式，通过现场踏勘、座谈等方式开展了调研工作，深入了解发展现状与国土空间方面诉求，掌握发展目标、方向等，为规划编制奠定基础。三是提升质量，开展专题研究和项目招标。完成了解开发保护现状评估、村庄规划编制工作任务。落实经费，完成了基础工作招标。有序开展“双评估”、“双评价”、重点专题研究，城市开发边界正在试划，各项工作按时序推进。四是上下联动，各县区编制工作同步推进。各县（市）区同时开展空间规划编制工作，目前均已完成领导机构设置，成立领导机构。完成了工作方案和工作预算的编制工作，开展了前期准备工作，基础资料正在收集完善。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>47</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>我市社区党建工作考察团到开发区考察学习</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020-07-23</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://yjzz.hld.gov.cn/xwzx/kfqxw/202007/t20200723_990984.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为进一步加强社区党组织建设，全面提升社区管理服务能力，近日，市委组织部组织全市街道书记进行社区党建工作拉练考察学习，7月17日上午，我市社区党建工作考察团来到开发区进行考察学习。', '近日，市委组织部组织全市街道书记进行社区党建工作拉练考察学习，7月17日上午，我市社区党建工作考察团来到开发区进行考察学习。', '考察团先后来到毛祁屯街道玉麟社区、复兴社区、杨家杖子街道杨家杖子社区，实地参观了社区志愿者服务站、道德讲堂、党员活动室等功能室，了解了社区党组织基本情况、党员志愿者服务情况、党组织战斗堡垒作用发挥等情况。开发区各社区以党的建设为引领，丰富载体，完善功能，大力创建情系居民、服务规范、便民高效、居民生活绿色健康的品牌社区。社区党建的强大引领作用为社区的规范建设、服务功能完善、治理水平提升提供了强有力的保障，深受居民好评。', '考察团在考察时对我区社区党建工作创新思路和丰富载体取得的显著成效给予了肯定，认为我区在社区党建工作中已经形成了一套科学有效的工作体系，创造了许多可学习借鉴的经验。考察期间，开发区街道、社区干部还与考察团成员进行了广泛深入的交流，一致表示要进一步加强联系，相互学习，共同提高，促进城市基层党建工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>关于对县政协十届三次会议关于加强农村科普宣传和科技培训为农村经济发展助力提案</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-07-23</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/xxgk_3511/zfxxgk/fdzdgknr/jytadf/zxtadf/xzx_2020/202007/t20200723_990888.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['关于对县政协十届三次会议《关于加强农村科普宣传和科技培训,为农村经济发展助力提案》第29号提案的答复', '您（你们）提出的关于《加强农村科普宣传和科技培训,为农村经济发展助力提案》已收悉，现答复如下：', '多年来我县农民教育培训以实施新型职业农民培训工程为载体，全面落实习近平总书记关于“发展是第一要务，人才是第一资源，创新是第一动力”的重要讲话精神，紧紧围绕促进产业兴旺目标任务，坚持就地培养和吸引提升并重，结合实际制定措施，不断发展壮大适应现代农业需求的高素质农民队伍。', '1.科技培训助力产业扶贫。一是解决贫困地区制约产业发展的经营人才匮乏、技术落地难等问题。加大对贫困地区新型经营主体带头人的培训力度，帮扶带动周边贫困户提高产业发展水平和自身发展能力。二是利用科普惠农服务站对贫困人口开展科技培训。组织相关部门赠送各类科普书籍、科普资料、科普挂图，组织广大干群学习先进的经营理念、种养殖技术，创造更多的农村复合型人才。三是利用科技宣传月、科普活动周、科技、文化、卫生“三下乡”等多种载体，深入开展科普宣传活动，提高农民科技文化素质。', '2.科技示范推动产业调整。一是围绕区域特色杂粮、食用菌、畜禽标准化养殖、结合“一村一品、一乡一业”、特色农产品品牌创建、农业信息进村入户、农机大户及合作社发展、农村人居环境改善等重点工作和领域开展教育培训，全面提升乡村产业发展水平。二是强化考察学习。组织种养大户、种养能手参加博览会、考察参观科普示范基地，开拓视野，学习新技术和成功经验，为促进当地产业发展、调整产业结构起到推动作用。', '3.政策惠农促进能力提升。一是开展新型职业农民培育，制定工作方案和扶持奖励办法，培养有文化、懂技术、善经营、会管理的新型职业农民，为农业现代化提供强有力的人力保障和智力支撑。二是涉农政策整合助力新型农民创业发展，目前累计落实新型职业农民扶持补助资金近18万元，协助银行贷款1500万元。三是实施科普惠农兴村计划，争取资金，培植并推荐申报优秀科普示范基地、专业技术协会、农村科普带头人，以点带面、榜样示范，带动广大农民提高科学文化素养，掌握生产劳动技能，提升“造血”功能。', '4.创新驱动助推创业发展。一是实施“上级学会入建计划”和 “专家工作站推进计划”，开展项目合作,建立“学会服务站”,形成对我县产业振兴、科技创新和人才发展的战略支撑作用。二是措施得力，助推创业创新。通过开展农技推广服务、引导土地有序流转、新的集体经营方式等助推创业发展。', '我县新型职业农民培育已探索建立了完整的培育制度，累计落实新型职业农民培育补助资金811万元，培育各类新型职业农民3126人，计划十三五末期达到4000人左右。', '近年来，尽管我们对农民培训做了大量的工作，仍存在不足。对你们提出的问题我们将认真研究，按照有关政策要求进一步抓好落实。在此，对大家提出的宝贵意见表示感谢，并请您继续关注我们的工作，多提宝贵意见，以促进我们的工作进步。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>绥中县纪委监委规章制度</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2020-10-29</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://jjjc.hld.gov.cn/xqdt/szx/xxgk_24868/qt_24933/202010/t20201029_1006258.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['六、严格遵守机关工作纪律，坚持请销假制度，不得无故迟到或旷工，因病因事不能上班，及时请假，无故旷工者取消当年评先选优资格。', '十二、坚持各科室主任的工作汇报制度。按照年初制定的工作目标责任制和各科室内的工作任务，定期向主管领导或常委会汇报工作，每年年末对工作进行全面总结，并形成书面材料，上报领导后交办公室存档。', '四、下乡执行公务一律在食堂就餐，不准喝酒，在城内执行公务一律不准接受吃请（含绥中镇、城郊乡）。', '为了进一步规范纪委常委会的议事决策行为，保证纪委常委会会议决策的民主化、科学化、规范化，根据《中国共产党章程》、《中国共产党地方委员会工作条例》和《中国共产党党内监督条例（试行）》等党内有关规定，结合县纪委工作实际，特制定本议事规则。', '1、坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实科学发展观，坚持党要管党、从严治党，践行“三严三实”要求，营造良好的政治生态，在思想上、政治上、行动上与党中央和省、市、县要保持一致。', '2、坚持民主集中制原则，实行常委会集体领导和个人分工负责相结合的制度。凡属纪委常委会职责范围内的重要事项，必须按照“集体领导、民主集中、个别酝酿、会议决定”的原则，再集体讨论决定。', '1、传达学习中央、省、市、县委和政府以及上级纪检监察机关关于党风廉政建设和反腐工作的会议精神、重要文件、重大决策部署和领导同志重要讲话、重要批示精神、重要文件。', '2、研究决定全县纪检监察工作的重大问题、重要工作和重要活动部署，研究决定需提请县委审定的事项。', '3、研究审定县纪委向党代会提交的工作报告，研究审定县纪委常委会向县纪委全会提交的工作报告和提请全会审议的重要事项，研究决定召开县纪委全会和其他重要会议的有关事项。', '1、县纪委常委会一般每月召开一次，如遇重要情况可随时召开，县纪委常委会由纪委书记召集并主持。书记不能参加可以委托副书记召集并主持。常委会议必须有半数以上常委到会方能召开。研究案件，讨论干部问题时必须有三分之二常委到会方能召开。', '2、议题由书记、副书记、常委办公会提出。会议材料由各有关室准备，会务由办公室承办。', '3、每次常委会召开前，由办公室负责制作《县纪委常委会议议题表》内容包括，会议名称、会议时间、会议地点、议题名称、汇报人、参加人员、列席人员等并按程序报纪委书记审定。', '7、讨论研究案件检查、审理、申诉和复查的干部任免、调整、奖罚议题时是当事人近亲属或与当事人有利害关系的常委，要按照有关规定回避。', '8、常委会议与会人员，要遵守保密纪律，对会议内容及讨论情况严格保密，不得泄露否则追究当事人的责任。', '根据《关于党内政治生活的若干准则》的规定，常委、委员应定期召开民主生活会，交流思想，开展批评与自我批评。', '二、民主生活会的内容：检查班子执行党的方针政策情况和思想作风工作等方面存在的问题，上级党委、纪委有专门部署或实际工作中有急需解决的问题，随时召开。', '三、充分做好思想准备，根据确定的生活会内容，责成办公室提前发出通知，使常委、委员有较充分的准备，写出发言的提纲。', '四、认真开展批评和自我批评，既要澄清思想，又要团结同志，联系实际，有的放矢。通过批评与自我批评，总结经验教训，达到提高思想、改进工作、端正作风、增强团结的目的。', '1、机关党支部每季度召开一次支委会或全体党员大会，组织学习、分析党员思想状况，研究支部工作。', '2、每季度召开一次党小组生活会，交流思想，总结汇报工作和学习情况，开展批评和自我批评。', '2、支部成员和党小组长要经常找党员谈心，特别是对有思想波动的党员，支部要有明确分工，做好思想政治工作。', '1、坚持领导走访制度，并做到“两知”，一要知道家庭住址，二要知道家庭状况和生活水平。', '2、委内同志之间，各室之间要团结协作，互相帮助，使每个同志都感到集体的温暖，树立集体荣誉感。', '一、严格按照《中国共产党纪律检查机关监督执纪工作规则》和《监察机关监督执法工作规定》规定的程序和要求查办案件，不得擅自受理案件，不得瞒案不报，压案不报，或者拒不执行、拖延执行领导的工作安排。', '二、严格执行2人以上办案制度，不许1人办案，包括调查取证，调取各种资料账册，不得单独接触涉嫌违纪人员及其亲属或联系人。', '三、办案过程中不允许接受涉案单位、涉案人员的吃请。到乡镇办案一律在食堂就餐，不许喝酒。不许接受被调查对象赠送的礼品、礼金。', '四、不允许假公济私，以办案为名敲诈勒索单位或个人钱物或为自己和他人办事，达到个人目的。', '五、坚持原则，秉公执纪，不允许办人情案，不允许向涉案单位或被调查人通风报信，泄露案情。', '六、严格执行办案人员回避制度，严禁篡改、隐瞒、销毁或伪造证据，歪曲事实，弄虚作假，故意夸大或缩小案情。', '七、严格执行保密制度，调查核实的案卷要严格保管，不得将案卷交给别人保存，不经领导批准不准让非相关人员阅看或复印卷内材料。', '八、办案人员调取、暂扣的与违纪有关的证据、财物以及代为保管的涉嫌违纪人员的随身物品等，必须依法开具相应的清单，按照有关规定妥善保管。', '九、坚持文明办案制度，严格按照法律和党规履行办案职责，不得对群众推诿、敷衍、刁难，不得要特权侵占损害群众利益。严禁对被调查人或有关人员采取违反党章或国家法律的手段。', '十、上级机关或有关部门要结果的案件上报前必须经主要领导或主管领导审阅同意，不允许未经审阅而擅自上报。', '十一、调查人员和案件管理人员违反上述办案纪律的，视情节轻重和造成的后果，按照有关规定严肃追究纪律责任，涉嫌犯罪的，移送司法机关。', '一、机关工作人员必须模范遵守工作纪律，按时出勤、按时退勤。机关工作人员在工作期间，必须坚持较高的在位率。', '二、机关工作人员工作期间外出开会、办案，由室主任告知主管常委去向和事由；常委外出开会、办案，告知分管副书记去向和事由；副书记外出开会、办案，告知书记去向和事由。', '四、机关工作人员因事、因病（含带薪休假）不能正常上班的，必须按以下现行规定执行请假（休假）制度。', '1.科员请假1天以内，由主任批准；3天以内，由分管常委批准，办公室备案；一周以内，由主管副书记批准，办公室备案；一周以上，由书记批准，办公室备案。', '2.主任请假1天以内，由分管常委批准；2天以内，由主管副书记批准，办公室备案；2天以上，由书记批准，办公室备案。', '4.机关工作人员按有关规定休干部假、探亲假、产假、婚假等假期的，按第1、2条规定逐级批准。', '六、假满后必须及时销假，遇特殊情况需要续假的，应于假期满之时提前请示准许方可续假。', '二、学习内容由组织部在会前确定，主要传达会议精神和上级重要文件，时势政策教育，业务学习培训，思想讨论交流及重大通报等内容。', '三、学习采取灵活多样的方式，如听专题辅导、报告会，观看电教片、外出参观、考察学习。', '四、严肃学习纪律，全体机关人员应增强参加学习的自觉性，无特殊或紧急情况，都应按时参加学习，不得无故缺席。确实因事不能参加，应遵循《机关工作人员考勤制度》，逐级向主管领导说明原因。', '五、学习期间全体机关人员要作好会议学习笔记，保持良好的学习秩序。非特殊情况不要随意进出，确因有事需临时外出，必须向主管领导请假，并在办完事后及时返回参加学习。', '为进一步加强县纪委监委机关的财务管理，合理利用有限资金，确保机关各项工作高效运行，根据有关要求特制定本制度。', '一、贯彻“勤俭办事、节约经费”原则。年初由办公室负责对上年度经费支出情况进行分析，并根据本年度需要，提出各方面经费支出款项及数额，形成机关本年度经费预算计划。', '二、办公室每月向主管财务的领导汇报一次经费收支情况，每季度向书记汇报一次经费收支情况，年末将对本年度经费收支情况进行决算。', '三、财务审批严格执行主管领导“一支笔”原则。财务事项发生后，经办人在取得的合法票据上写明事由并签字后，送办公室主任审核，报主管财务的领导审批，由核算员统一报销。大额支出需经常委会通过方可支付。', '四、各部室筹备会议所需物品、购置办公设备及用品等，必须先请示主管财务的领导，经其同意后，由办公室负责统一购买。', '五、购买物品、车辆维修、装潢等一次性花销500元以上时，需办公室主任及核算员一起结算。', '六、单位公款一律不准外借。机关干部因出差等所需费用必须由主管财务领导批准预支，事后按相关政策规定报销。', '为认真贯彻落实《中共中央、国务院关于党政机关厉行节约、制止奢侈浪费的有关规定》，进一步加强机关廉政建设，结合县纪委监委机关工作实际，制定如下接待管理制度：', '1、上级机关和外县（市）区相关单位来宾，由办公室主任负责接待，并报主管领导批准，统一由办公室安排。', '2、各部室对应的上级部门来客，要先向办公室通报来客人数、时间、工作期限，提交工作函，办公室负责登记并向主管领导汇报后统一安排食宿。', '接待标准要严格执行绥中县关于公务接待的相关规定，同时突出地方特色，就餐标准要控制在每人每餐50元，不安排酒水和香烟。', '为全面加强车辆管理，保证车辆完好率、利用率，根据机关现有车辆状况及工作实际，做如下规定：', '一、办公室主任负责车辆管理与派车，重点保证办案用车，部室用车应提前向办公室申请，县内及葫芦岛市内出车，由办公室主任负责；车辆出省需经主管办公室领导批准方可派车。', '1、司机凭办公室开出的加油凭证到指定加油站加油，如有特殊情况需签字加油，必须征得办公室主任同意，违者不予报销。', '2、车辆维修必须经办公室主任同意，持修车通知单到指定修车厂修车，并由办公室主任负责结算，修车的回执单与底根内容相符。公务出车在中途需修车时，必须征得办公室主任批准方可修车。', '4、实行车辆吨公里用油、维修两项费用的单车核算制度，用油、维修、高速费、过桥费每月统计一次，统计数据上报主管领导。', '2、工作日无出车任务、工作日下班后及公休日，车辆必须停放单位院内，如擅自停放到别处发生车辆损坏、丢失等，一切责任和经济损失由个人承担。', '3、严禁司机在工作日饮酒，不允许因婚丧嫁娶等情况私自用车，对车辆要经常进行维护、保养和检查，保持车辆清洁卫生和车况良好，确保安全行车。', '一、绥纪发、绥纪通文件，由有关部室起草后，先交办公室，在行文规范和内容上进行审核，再送主管领导审阅签发；具有指导性和其它重要内容的，由书记签发。', '三、转发上级文件，由有关部室起草转发通知，办公室审核，经主管领导签发，重要的由书记审定签发。', '四、代县委起草的文件，呈报县委书记、副书记审批的文件，由有关部室起草，主管领导审阅后报书记审阅。', '五、联合发文，以其它单位为主的，由有关部室提出意见，送主管领导审阅后会签；以我委为主的，先按委内文件审批程序办事，后办理会签手续，文件编号为主单位的文号。', '七、文件审定签发后，再行编号和确定份数，各类文件送印、校对由起草部室负责，由办公室负责存档。', '一、县纪委监委的公章由办公室文书专人管理，各部室的公章分别由该部门指定专人保管使用。', '二、原则上任何人不得携带公章外出，确需携带公章外出的需经主管办公室副书记批准，不准随便将公章和介绍信交与他人管理、使用。', '五、任何人不准开具空白介绍信，如因特殊情况需要空白介绍信时，需经分管副书记批准，用后要及时填写空白介绍信用途，未使用的空白介绍信要及时退还办公室。', '九、所有使用印章的人员，要严格填写印章使用登记表，并由主管领导审批后方可加盖印章。', '二、机关内禁止存放个人的贵重物品和现金，出入办公室要随手关手、锁门，下班后要锁好门窗。', '三、按规定保管好现金、印章、文件、档案、微机等物品。配备相应设施，做到防盗、防水、防火、防蛀，杜绝重大泄密现象和各类事故发生。', '二、保守案件秘密，不得泄露各类检举、揭发信访函件内容及立案调查处理过程中的有关材料情况。', '三、公章、介绍信、档案、文件、统计资料、重要器材，由专人负责保管，放在保险柜或铁皮柜内，不得随意乱放。', '四、起草文件要根据文件的内容确定密级和发放范围，严格执行文件登记、借阅制度，对各种文件、资料要认真进行登记，坚持定期清点，按时清退和归档。外单位借用文件凭介绍信，并经有关领导批准方可借用。', '九、不经领导批准，不得将带密级的文件资料私自带出办公室或翻印、复印、外传、抄记等。', '十一、办公桌上不得乱摆乱放密级文件，离岗时，要将文件入橱加锁，密级文件绝对不许在除指定保管人员之外的任何人手中过夜。', '十二、工作调动时，有关人员应将自己保管和使用的各类文件清理、登记、履行交接手续或退还有关部门。', '十三、做好文件的清理、上缴和销毁工作。上缴文件要严格进行登记，文件销毁必须严格登记，并经主管领导批准，由两人监销，防止文件丢失。', '十四、使用电脑打字，电传发文时要采取保密措施，对所使用的磁盘、磁带和打印纸要严加管理。', '十六、对机关工作人员经常进行保密教育，深入学习贯彻《保密法》，确保国家机密的安全。', '十七、如发现失密、泄密情况，要及时报告。对失、泄密的有关人员，要根据情节轻重予以严肃处理。', '二、经常保持卫生区整洁。要坚持每日上班前清扫清理，办公室内和楼道保持四壁无尘，地面清洁无杂物。办公用品摆放整齐有序，保持整洁。', '四、委内成立卫生检查小组，对委内环境卫生进行检查，对卫生工作先进的科室予以表扬，对落后的科室提出批评和改进意见。', '一、档案管理人员要认真学习、宣传、贯彻《档案法》，增强法制观念和档案意识，有效地保护和利用档案，更好地为社会主义现代化的建设服务。', '三、及时收集、整理有关档案资料，按要求立卷，并做好保管、定期交接、销毁和统计工作。', '四、做好档案的利用与信息反馈工作，提高档案的利用价值，发挥档案为“两个文明”服务的作用。', '五、根据实际需要编制检索工具，为快速、准确地查找档案资料提供条件，服务要热情、耐心、周到。', '七、档案员对档案的安全完整负有重要责任，档案的借阅要有记录，如因工作失职造成档案受损丢失，视情节轻重给予行政处分。', '二、查阅时，需要摘抄、复印的要经档案员同意，经认真复核后，经手人在抄件上签字盖章。', '五、查阅人要接受档案员的指导，严禁在档案上勾画、折卷、涂改等，如有违反者应及时报告主管办公室领导处理。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>47</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>关于印发龙港区加快夜经济发展工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2020-04-27</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.lgq.gov.cn/zwgk/zfxxgk/fdzdgknr/zfbwj/hlzbf/202007/t20200715_988540.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['为推动我区“夜经济”快速发展，扩大夜间经济规模，丰富夜间服务项目，培育新的消费增长点，扩大夜晚消费，满足人民群众多层次、多样化消费需求，根据我区实际情况，制定此方案。', '坚持政府引导、政策推动、市场化运作、行业监督负责相结合的原则，以培养市民夜间消费习惯、打造夜间消费街区、完善夜间服务功能为重点，全力打造独具特色、布局合理、业态多元的夜经济模式，使其成为我区经济社会发展的重要推动力。', '以扩大消费，满足市民和游客夜间消费需求为出发点，按照市夜经济发展工作目标，全力打造龙港区“一圈、一河、一带”（一圈：玉皇商城、大润发及飞天广场商圈；一河：五里河；一带：南起龙湾海滨北至葫芦山庄）的夜经济空间格局。', '（一）着力打造“夜经济”重点载体。突出特色，提升品质，打造夜经济“打卡”地。重点培育提升玉皇商城、大润发及飞天广场夜间消费集聚区业态品质，推动兴宫中街省级示范步行街改造升级，加强美化亮化，完善基础设施和功能建设，集购物、餐饮、文化、旅游、休闲为一体，打造龙港区夜间休闲娱乐商业圈。加强“一河”、“一带”净化、绿化治理工作。（责任单位：区商务局、区文广局、区城市管理综合行政执法局、区市场监管局）', '（二）利用各类大型活动提升夜间消费热情。依托CBD和平广场、飞天广场、兴宫中街等公共场地，结合市政府举办的各类大型活动，适时引导和组织企业参与或举办啤酒节、美食节、文化节、特色演艺及特色展销会系列活动，点亮滨城夜经济之夏。通过宣传推广，打造与葫芦岛泳装文化、沙滩文化、葫芦文化相结合的夜经济名片，满足市民和游客的夜晚消费需求，提升消费热情。（责任单位：区商务局、区文广局、区委宣传部、区城市管理综合行政执法局、区市场监管局、CBD管委会）', '（三）努力扩大夜晚商品销售。倡导商贸流通企业延时营业，鼓励和引导大型商贸企业营业时间延时至22时以后，引导兴宫中街、飞天广场等商业街区营业时间延时至21时以后，发展24小时便利店；开展不同主题、多种形式的系列促销活动，将每年6月至8月列为夜间消费重点促进月；鼓励大型商贸企业设立夜卖场，举办夜间酬宾、打折、返利等常态化促销活动，开展形式多样的夜间延时消费大酬宾活动，增强夜经济吸引力。（责任单位：区商务局、区城市管理综合行政执法局、区市场监管局）', '（四）繁荣活跃夜晚餐饮市场。大力推动美食一条街、酒吧一条街、夜市小吃街创建活动，丰富夜晚餐饮市场；鼓励餐饮企业在旺季和节假日期间将营业时间延长至凌晨；鼓励和提倡举办啤酒节、美食节、消夏节、纳凉节等活动，以节促市，进一步提升夜晚餐饮消费水平。（责任单位：区商务局、区城市管理综合行政执法局、区市场监管局）', '（五）提升夜晚旅游水平。推出夜晚旅游特色项目和路线，在五里河及其两侧建筑物，全面实施具有文化特色的美化工程，打造城市夜景游览项目；在龙湾海滨-CBD打造海滨沙滩游览和游船游轮欢乐游项目；以葫芦古镇、月亮河为依托，打造夜晚传统文化旅游娱乐项目；在龙湾公园、龙背山公园，安装艺术彩灯，打造园林夜景游览项目。（责任单位：区文广局、区住建局、龙兴投资集团）', '（六）发展夜晚体育健身活动。利用公园、广场等公共场所组织丰富多彩的健身活动，大力开展群众体育活动；鼓励和引导企业、社会组织和团体举办适合大众参与的各类比赛，掀起全民健身热潮；依托室内体育场馆，发展羽毛球、健美操、瑜伽等健身俱乐部，丰富广大群众夜晚体育活动。（责任单位：区文广局、各乡街）', '（七）丰富夜晚文化娱乐生活。加快文化娱乐场所建设，完善中心城区文化娱乐设施；组织和引导图书馆、文化馆、博物馆等场所开展丰富多彩的文化活动；充分利用市内广场、社区、公园等现有场所开展各具特色的经常性的文艺演出、节日庆典等活动；积极推进夜间电影文化，组织和引导影院加强夜场电影放映、开展农村公益电影放映。（责任单位：区文广局、各乡街）', '（一）加强领导，成立组织。建立区发展夜经济工作协调机制，由区政府主要领导牵头，分管领导负责，商务、文广、公安、城市执法、住建、交通运输、生态环境、市场监管、宣传、财政等部门和各乡街各负其责，合力推进全区夜经济发展。', '（二）复制先进经验，做好统筹规划。适时组织相关部门及相关企业，到城市发展水平相当、夜经济发展较好的国内城市考察学习，复制先进经验，按照全市夜经济发展规划，结合我区实际，统筹规划好我区夜经济发展格局。 （责任单位：区商务局）', '（三）提升基础设施建设，加强配套服务与管理。一是加强城市的亮化美化建设。将重点建设的夜经济街区纳入环境整治和亮化、绿化工程的年度工作重点，提高净化、亮化、绿化、美化水平。二是加强夜间交通保障。协调市交通部门，进一步优化重点夜经济街区周边的公交的服务保障，适时调整、加密夜间运行班次。适当增加夜间停放车位，鼓励加强出租车夜间车辆调配。三是完善配套服务和管理。完善食品安全、治安、消防等配套管理措施和服务功能，切实提升服务夜经济发展的管理保障水平。完善夜经济街区的水电气供给、污水收集排放、垃圾分类处理等配套设施建设保障。（责任单位：区住建局、区交通局、区市场局、公安局龙港分局）', '（四）加大政策和资金支持力度。制定放宽沿街摆卖等相关政策，在符合环保、治安、消防、环卫等相关规定前提下，放宽相关摆卖管制，允许沿街商户利用街面开展形象展示推广活动。出台扶持政策，对符合夜经济商圈、街区建设的商业主体，给予资金奖励支持，对企业开展延时服务、举办夜间促销活动等给予政策和资金支持。（责任单位：区住建局、区市场局、区生态环境局、公安局龙港分局）']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>47</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>绥中草莓遇疫情科技拓宽发展思路</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://mzj.hld.gov.cn/ztzl/wqzt/fyfkzl/202003/t20200317_911213.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['眼下正是大棚草莓采摘收获的时节。记者在绥中县大台山百果园草莓采摘大棚里看到，一排排的草莓鲜红娇嫩、长势喜人，村民们正在采摘草莓。', '据草莓采摘园负责人介绍，园内三栋占地6亩的草莓采摘大棚都是去年新建的，经过去丹东考察学习，采用传统和梯架式种植相结合的栽培技术，选取优良品种，草莓种植不喷洒农药，全程无公害管理，让大家吃得放心。', '张东说，一月中旬草莓成熟后，就开园采摘。但受疫情影响，成熟的草莓无人采摘。他就和工作人员研究，拓展发展思路，学习网络销售技巧和方法，随着订单逐渐增多，采摘园又忙了起来，每斤25元的价格，还可以送货上门，效益稳步上升。', '谈起下一步发展，张东表示，尽管疫情影响一部分收成，但大台山百果园“科技强农、质量强农、服务强农”的宗旨不会变。他们将做优做强现代农业产业，为绥中农业高质量发展作出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>47</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>兴城市白塔乡学典型比先进白塔乡村屯整治正在进行时</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-04-29</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/ztzl/ztzl_lishizt/ztzl_cjgjwscsjxs/202004/t20200429_953033.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['4月28日上午，兴城市白塔乡党委组织党政班子成员和各村书记30余人，到徐大堡镇海滨村、曹庄镇后湖村就环境整治工作进行了参观考察学习。', '首先活动中，海滨村书记李航在村部给随行人员上了生动的一课：李航从打破常规进行街道整治、农村垃圾五指分类、疫情期间采取强制措施及调动群众积极性等方面进行了经验介绍。', '随后，大家先后深入到海滨村、后湖村的街头巷尾，那里一条条水泥路面干净整洁，到处都是鸟语花香，不时传来鸡鸣犬吠，一幅幅宁静、和谐、美丽的乡村画卷，给同志们带来了心灵的震撼。最后一行人参观了白塔乡村屯整治典型：清水村的庭院环境整治和塔沟村西塔屯的河道治理。', '通过此次参观考察学习，白塔乡各村书记下决心将以村屯环境整治、造福一方百姓为己任，学典型、比先进、找差距，抓落实，全乡将以提升村容村貌为抓手，全面铺开环境整治工作。（刘丽杰）']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>47</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>兴城市领导到葫芦古镇考察学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2020-04-09</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/zwyw/202004/t20200409_927771.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['特约记者张旭报道 4月2日，兴城市委书记、市人大常委会主任朱德义率队到葫芦古镇旅游度假区考察学习。', '朱德义一行先后参观了葫芦山庄历史馆、葫芦岛安全科普体验馆、葫芦海湾射击场、葫芦岛国防教育馆、防空体验馆，看运作模式、听发展规划、学经营理念，对葫芦古镇发展历史、管理流程、业态布局、营销模式进行深入了解。并与葫芦岛市文化旅游和广播电视局、葫芦古镇旅游度假区负责人进行交流，介绍兴城“两链一线、一圈一带、一区一城”战略布局。', '朱德义说，这是一次交流之旅、学习之旅、结缘之旅，考察收获颇丰，开眼界长见识。兴城作为旅游城市，资源禀赋优越，现在需要的就是产业、要素和理念的支撑，需要“画龙点睛”的项目和产品激活旅游市场。兴城将把发展旅游产业提升到一个新的高度，确立了“旅游立市”新定位，着力壮大乡村旅游，构建龙型黄金旅游海岸线，打造环首山旅游文化经济圈，做大古城文化、温泉文化、海岛文化，释放旅游价值、商业价值，建设旅游地产，盘活优势资源，实现旅游带动城市增值。兴城的旅游发展将创造难得的合作机遇，欢迎有识之士加盟共谋发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>47</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>葫芦岛市人民政府办公室关于印发葫芦岛市加快夜经济发展工作方案的通知</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/zwgk/fdzdgknr/lzyj/hzbf/2020n/202003/t20200311_905887.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['葫芦岛市人民政府办公室关于印发葫芦岛市加快夜经济发展工作方案的通知_葫芦岛市人民政府', '为推动我市“夜经济”快速发展，扩大夜间经济规模，丰富夜间服务项目，培育新的消费增长点，扩大夜晚消费，满足人民群众多层次、多样化消费需求，根据我市实际，制定此方案。', '坚持政府引导、政策推动、市场化运作、行业监督、属地负责相结合的原则，以培养市民夜间消费习惯、打造夜间消费街区、完善夜间服务功能为重点，全力打造独具特色、布局合理、业态多元的夜经济模式，使其成为我市经济社会发展的重要推动力。', '以扩大消费，满足市民和游客夜间消费需求为出发点，按照三城同盛的城市发展思路，全力打造葫芦岛市“三圈、两河、一带”（三圈：连山区百货大楼及民安步行街商圈，龙港区玉皇商城、大润发及飞天广场商圈，兴城市古城商圈；两河：连山河、五里河；一带：龙湾海滨-CBD-兴城海滨海岸带）的夜经济空间格局。', '突出特色，提升品质，打造夜经济“打卡”地。重点培育提升百货大楼及民安步行街夜间消费集聚区，通过改造设施、提升服务、加强管理，打造连山区夜间购物商圈；重点培育提升玉皇商城、大润发及飞天广场夜间消费集聚区业态品质，创建兴宫中街省级示范步行街，加强美化亮化，完善基础设施和功能建设，集购物、餐饮、文化、旅游、休闲为一体，打造龙港区夜间休闲娱乐商圈；重点培育提升兴城古城夜间消费集聚区，通过建设宁远古城驿站、丰富古城古装演绎、商铺传统风格装饰改造、规范古文化商品经营，打造传统文化主题夜间旅游购物商圈。加强“两河”“一带”净化、绿化、亮化工作。其他县（市）区结合本地实际，着力打造1条以上夜经济特色街区。（责任单位：市商务局，各县〈市〉区人民政府）', '突出特色，提升品质，打造夜经济“打卡”地。重点培育提升百货大楼及民安步行街夜间消费集聚区，通过改造设施、提升服务、加强管理，打造连山区夜间购物商圈；重点培育提升玉皇商城、大润发及飞天广场夜间消费集聚区业态品质，创建兴宫中街省级示范步行街，加强美化亮化，完善基础设施和功能建设，集购物、餐饮、文化、旅游、休闲为一体，打造龙港区夜间休闲娱乐商圈；重点培育提升兴城古城夜间消费集聚区，通过建设宁远古城驿站、丰富古城古装演绎、商铺传统风格装饰改造、规范古文化商品经营，打造传统文化主题夜间旅游购物商圈。加强“两河”“一带”净化、绿化、亮化工作。其他县（市）区结合本地实际，着力打造1条以上夜经济特色街区。', '拟在CBD和平广场、比基尼广场，以市政府名义举行葫芦岛市繁荣发展夜经济启动仪式，结合泳装博览会，举办啤酒节、美食节、文化节、特色演艺及特色展销会系列活动，点亮滨城夜经济之夏。通过宣传推广，打造与葫芦岛泳装文化、沙滩文化相结合的夜经济名片，满足市民和游客的夜晚消费需求，提升消费热情。（责任单位：市商务局、市文旅广电局、市委宣传部、CBD管委会）', '经济启动仪式，结合泳装博览会，举办啤酒节、美食节、文化节、特色演艺及特色展销会系列活动，点亮滨城夜经济之夏。通过宣传推广，打造与葫芦岛泳装文化、沙滩文化相结合的夜经济名片，满足市民和游客的夜晚消费需求，提升消费热情。', '倡导商贸流通企业延时营业，鼓励和引导大型商贸企业营业时间延时至22时以后，引导民安步行街、飞天广场等商业街区营业时间延时至21时以后，发展24小时便利店；开展不同主题、多种形式的系列促销活动，将每年6月至8月列为夜间消费重点促进季；鼓励大型商贸企业设立夜卖场，举办夜间酬宾、打折、返利等常态化促销活动，开展形式多样的夜间延时消费大酬宾活动，增强夜经济吸引力。（责任单位：市商务局，各县〈市〉区人民政府）', '倡导商贸流通企业延时营业，鼓励和引导大型商贸企业营业时间延时至22时以后，引导民安步行街、飞天广场等商业街区营业时间延时至21时以后，发展24小时便利店；开展不同主题、多种形式的系列促销活动，将每年6月至8月列为夜间消费重点促进季；鼓励大型商贸企业设立夜卖场，举办夜间酬宾、打折、返利等常态化促销活动，开展形式多样的夜间延时消费大酬宾活动，增强夜经济吸引力。', '大力推动美食一条街、酒吧一条街、夜市小吃街创建活动，丰富夜晚餐饮市场；鼓励餐饮企业在旺季和节假日期间将营业时间延长至凌晨；鼓励和提倡举办啤酒节、美食节、消夏节、纳凉节等活动，以节促市，进一步提升夜晚餐饮消费水平。（责任单位：市商务局，各县〈市〉区人民政府）', '大力推动美食一条街、酒吧一条街、夜市小吃街创建活动，丰富夜晚餐饮市场；鼓励餐饮企业在旺季和节假日期间将营业时间延长至凌晨；鼓励和提倡举办啤酒节、美食节、消夏节、纳凉节等活动，以节促市，进一步提升夜晚餐饮消费水平。', '推出夜晚旅游特色项目和路线，在“两河”（五里河和连山河）及其两侧建筑物，全面实施具有文化特色的美化工程，建设水幕电影放映设施，打造城市夜景游览项目；在“一带”（龙湾海滨-CBD-兴城海滨海岸带）打造海滨沙滩游览和游船欢乐游项目；以葫芦古镇、兴城古城、月亮河、温泉水上乐园、加勒比海为依托，打造夜晚传统文化旅游娱乐项目；在龙湾公园、龙背山公园及连山区体育广场，安装艺术彩灯，打造园林夜景游览项目。（责任单位：市文旅广电局，连山区、龙港区、兴城市人民政府）', '推出夜晚旅游特色项目和路线，在“两河”（五里河和连山河）及其两侧建筑物，全面实施具有文化特色的美化工程，建设水幕电影放映设施，打造城市夜景游览项目；在“一带”（龙湾海滨-CBD-兴城海滨海岸带）打造海滨沙滩游览和游船欢乐游项目；以葫芦古镇、兴城古城、月亮河、温泉水上乐园、加勒比海为依托，打造夜晚传统文化旅游娱乐项目；在龙湾公园、龙背山公园及连山区体育广场，安装艺术彩灯，打造园林夜景游览项目。', '利用公园、广场等公共场所组织丰富多彩的健身活动，大力开展群众体育活动；鼓励和引导市内体育场馆对外开放，积极争办各类体育赛事，举办适合大众参与的各类比赛，掀起全民健身热潮；发展球类、健美操、瑜伽等健身俱乐部，为广大群众提供夜晚体育活动场所。（责任单位：市文旅广电局，各县〈市〉区人民政府）', '利用公园、广场等公共场所组织丰富多彩的健身活动，大力开展群众体育活动；鼓励和引导市内体育场馆对外开放，积极争办各类体育赛事，举办适合大众参与的各类比赛，掀起全民健身热潮；发展球类、健美操、瑜伽等健身俱乐部，为广大群众提供夜晚体育活动场所。', '加快文化娱乐场所建设，完善中心城区文化娱乐设施；组织和引导图书馆、文化馆、博物馆等场所开展丰富多彩的文化活动；充分利用市内广场、社区、公园等现有场所开展各具特色的经常性的文艺演出、节日庆典等活动；积极引导影院增加夜场电影场次、开展农村公益电影巡回放映。（责任单位：市文旅广电局，各县〈市〉区人民政府）', '加快文化娱乐场所建设，完善中心城区文化娱乐设施；组织和引导图书馆、文化馆、博物馆等场所开展丰富多彩的文化活动；充分利用市内广场、社区、公园等现有场所开展各具特色的经常性的文艺演出、节日庆典等活动；积极引导影院增加夜场电影场次、开展农村公益电影巡回放映。', '建立市发展夜经济工作协调机制，由市政府主要领导牵头，分管领导负责，商务、文旅广电、公安、住建、交通运输、生态环境、市场监管、宣传、财政等部门和各县（市）区人民政府各负其责，合力推进全市夜经济发展。', '适时组织相关部门及相关企业，到城市发展水平相当、夜经济发展较好的国内城市考察学习，复制先进经验，结合我市实际，统筹规划我市夜经济发展格局。（责任单位：市商务局，各县〈市〉区人民政府）', '适时组织相关部门及相关企业，到城市发展水平相当、夜经济发展较好的国内城市考察学习，复制先进经验，结合我市实际，统筹规划我市夜经济发展格局。', '一是加强城市的亮化美化建设。将重点建设的夜经济街区纳入环境整治和亮化、绿化工程的年度工作重点，提高净化、亮化、绿化、美化水平。二是加强夜间交通保障。进一步优化重点夜经济街区周边公交服务保障，适时调整、加密夜间运行班次。适当增加夜间临时停放车位，鼓励加强出租车夜间车辆保障。三是完善配套服务和管理。完善食品安全、治安、消防等配套管理措施和服务功能，切实提升服务夜经济发展的管理保障水平。完善夜经济街区的水电气供给、污水收集排放、垃圾分类处理等配套设施建设保障。（责任单位：市住房城乡建设局、市交通运输局、市市场监管局、市公安局，各县〈市〉区人民政府）', '一是加强城市的亮化美化建设。将重点建设的夜经济街区纳入环境整治和亮化、绿化工程的年度工作重点，提高净化、亮化、绿化、美化水平。二是加强夜间交通保障。进一步优化重点夜经济街区周边公交服务保障，适时调整、加密夜间运行班次。适当增加夜间临时停放车位，鼓励加强出租车夜间车辆保障。三是完善配套服务和管理。完善食品安全、治安、消防等配套管理措施和服务功能，切实提升服务夜经济发展的管理保障水平。完善夜经济街区的水电气供给、污水收集排放、垃圾分类处理等配套设施建设保障。', '（责任单位：市住房城乡建设局、市交通运输局、市市场监管局、市公安局，各县〈市〉区人民政府）', '在符合环保、治安、消防、环卫等相关规定前提下，制定沿街摆卖相关政策，允许沿街商户利用街面开展展示推广活动。出台扶持政策，对符合夜经济商圈、街区建设的商业企业主体，给予资金奖励支持，对企业开展延时服务、举办夜间促销活动等给予政策和资金支持。（责任单位：市住房城乡建设局、市市场监管局、市生态环境局、市公安局，各县〈市〉区人民政府）', '在符合环保、治安、消防、环卫等相关规定前提下，制定沿街摆卖相关政策，允许沿街商户利用街面开展展示推广活动。出台扶持政策，对符合夜经济商圈、街区建设的商业企业主体，给予资金奖励支持，对企业开展延时服务、举办夜间促销活动等给予政策和资金支持。', '（责任单位：市住房城乡建设局、市市场监管局、市生态环境局、市公安局，各县〈市〉区人民政府）']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>47</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>年政府工作报告</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/xxgk_3511/zfgzbg1/202002/t20200203_868987.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['现在，我代表建昌县人民政府向大会报告工作，请予审议，并请县政协委员和其他列席人员提出意见。', '一年来，县政府坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻落实党的十九大和十九届二中、三中、四中全会精神，全面学习贯彻习近平总书记在辽宁考察和深入推进东北振兴座谈会上的重要讲话精神，重实干、强执行、抓落实，全力推进脱贫发展振兴各项工作，全县经济持续向好、人民生活不断改善、社会大局和谐稳定。', '理想信念更加坚定。坚持用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，不断推进政府党组织规范化建设，认真落实民主生活会和党组中心组理论学习制度，扎实开展“不忘初心、牢记使命”主题教育，守初心、担使命、找差距、抓落实，特别是聚焦为民服务解难题，以8890服务平台为抓手，解决群众诉求案件3453件，做到政府工作讲政治、业务工作重党建，凝聚起政府系统推动脱贫发展振兴的强大力量。', '政治能力更加过硬。牢固树立“四个意识”、坚定“四个自信”，做到“两个维护”，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。坚决贯彻落实党中央和上级决策部署，“大棚房”、违建别墅、大坑腌菜等问题整改到位。严格落实全面从严治党要求和意识形态工作责任制，从严从实抓好中央和省委巡视反馈意见整改，已售商品房产权证办理等整改任务有效落实，整改成效初步显现。', '“飞地经济”取得新突破。把“飞地经济”作为破解区位难题、推进脱贫攻坚、实现“转身向海”的关键一招，重点在标准化厂房建设、招商引资和模式创新上发力。建昌脱贫攻坚飞地产业园和食品园区14.13万平方米标准化厂房建成；与浙江金磐中谷文化公司签订飞地产业园招商运营管理合作协议，引进装备制造等项目17个、总部经济企业11家，总投资16.42亿元。建昌脱贫攻坚飞地产业园、八家子飞地产业园被确定为第一批省级“飞地经济”园区。我县与浙江金磐中谷文化公司跨省合作发展“飞地经济”的模式得到省、市肯定，大连等地到建昌脱贫攻坚飞地产业园考察学习，新华社等国家级媒体进行了宣传报道。', '有效投资稳定增长。全年开复工500万元以上项目67个，完成固定资产投资18亿元，增长9.2%。19个亿元以上项目被列入市重点项目，完成投资9.9亿元，增长17%。项目结构更加合理，产业类项目达到24个，占比36.4%；完成投资6.9亿元，占比38%。润驰橡胶制品加工项目试生产，嘉碳超高功率石墨电极项目一期投产，为经济高质量发展提供了有力支撑。', '乡村振兴扎实推进。整理土地539亩，建设高标准农田18298亩。划定粮食生产功能区和重要农产品生产保护区68.5万亩；调减玉米种植面积1万亩，创建国家杂粮绿色高效区25个，种植杂粮21万亩，粮食产量达到5.7亿斤；发展设施农业3500亩；新建苹果、板栗等高效精品科技示范园22个，食用菌、蓝莓等市级高效农业园6个；栽植经济林1.41万亩；新改扩建养驴合作社8家。第一产业增加值增长5%左右。深化农业农村改革，颁发土地承包经营权证12.9万份，276个村完成集体成员身份认证，培育省级示范家庭农场100个。整治农村人居环境，创建省级美丽示范村9个、整洁村142个。', '工业经济稳定运行。八家矿业、正源矿业等重点工业企业运行平稳；龙汇食品公司肉食品深加工项目开工，中昌农业发展公司军民融合项目列入省第一批军民融合企业名录；实施工业技改项目9个；新增规模以上企业2家，1家企业纳入“规升巨”企业培育库，全县规模以上工业企业达到18家。规模以上工业产值和第二产业增加值均实现13%以上的增长，位居全市前列，成为拉动经济增长的主要动力。', '服务业加快发展。完成第四次全国经济普查，查实法人单位3986家、个体户25043户，法人单位和个体户实现双增长；新建基层供销社9个，新增品牌连锁店1家、限上企业6家、乡村金融服务点1个、电商服务站5个、农村综合服务社72个，城乡流通体系不断完善。制定建昌旅游主体功能区建设实施方案，推进龙潭大峡谷深度开发等6个项目，天香源景区晋升为市文化产业示范基地，鲁迅美术学院人文学院写生创作实践基地落户贺杖子乡；成功举办梨花文化节和冰雪旅游文化节；全年接待游客257万人次，第三产业增加值增长6%左右。', '民营经济健康发展。落实大规模减税降费政策，全年预计减税降费7077万元；清理拖欠民营企业账款7610万元，努力为企业减负，民营企业上阵更轻松。建设小微企业名录库，新增市场主体5163户，增长17%；实现个转企83户；申报省科技重点研发项目5个、省科技重大专项项目1个、市科技重点研发项目4个，新增科技型中小企业2家，转化科技成果2项，技术合同成交额完成1320万元，民营企业发展活力更强劲。', '脱贫攻坚决战决胜。开展“大排查、大普查、大督查”，精准推进脱贫工作。进一步压实县级领导干部包乡、村和贫困户责任，选派86名干部到乡镇助力脱贫攻坚；金融扶贫贷款惠及1万多贫困户；6030个入户式、159个分布式光伏电站带动1.3万多贫困户增收；“两小补助”项目扶持贫困户9410户；“百企带千户”项目扶持企业137家，带动贫困户2000多户；就业扶贫提供公益性岗位967个；解决了85名贫困家庭儿童落户问题；集体经济“空壳村”和贫困户存量D级危房全部销号，教育扶贫政策全学段覆盖，基本医疗保障政策有效落实，文化服务场所和标准化村卫生室全覆盖，农村饮水安全实现全保障，水泥路面实现村村通。全年11913人、6个贫困村脱贫销号，全县整体达到脱贫标准，历史性地摘掉了贫困县帽子。', '污染防治取得新进展。中央环保督察反馈的22个问题和32件群众信访案件按要求完成整改任务，“回头看”反馈的14个问题序时推进；绿盾专项行动36个违法点位问题完成整改34个。深入落实河长制，实施大凌河城区段、蒿桑河汤神庙段治理工程；修复水毁河道12处，治理水土流失面积7500亩，整改销号“四乱”问题18处，水源地21个问题全部完成整改；提标改造大凌河王家窝铺断面，确保大凌河水质稳定达标。开展第三次国土调查；绿化造林22.5万亩。15家企业完成煤改电，2台20吨/小时以上燃煤锅炉在线监控设施安装、5台燃煤锅炉环保设施提标改造完成，截至11月末，PM2.5浓度下降到34μg/m3，优良天数比例达到78.3%。', '风险隐患有效防控。化解政府性债务20251万元，政府债务余额在省定债务限额以内。加强基金收支管理，优化财政预算安排，确保养老金按时足额发放。坚持房子是用来住的、不是用来炒的定位，商品住房库存平均去化周期控制在20个月以内。防控非法集资风险，对民间投融资中介等机构进行排查，查处无证照经营企业16家，侦破爱农化肥集资诈骗案和锦州易鑫资本融资公司涉嫌“套路贷”案，规范了金融市场秩序，守住了不发生系统性风险的底线。', '改革力度不断加大。完成政府机构改革；深化税务征管体制改革，在全市率先实现首笔城乡居民养老保险费款划转入库；推进“放管服”改革[10]，承接许可事项2项，取消行政许可事项2项；100个高频事项实现“最多跑一次”；设立工程建设项目审批综合服务窗口；首批106项涉企审批事项实现告知承诺，企业开办时间压减至3个工作日以内；一体化在线平台与省、国家政务服务平台实现对接，24个行政审批部门、968项政务服务事项进驻公共行政服务中心，依申请类政务服务事项网上可办率达到90%以上。', '开放合作有新成果。制定了《建昌县融入“一带一路”建设实施方案》，建立了项目库，澳大利亚QMC公司钻具研发项目签约；外贸企业发展到7家，完成进出口总额6000万元，增长70%。狠抓京津冀协同发展和与常州对口合作机遇，大力招商引资，与中国休闲食品协会建立合作关系，大唐风电设备生产等26个项目签约，省外资金到位6.5亿元，增长19.6%。', '城乡建设协调推进。新改建和维修农村公路285公里，建设村内道路220公里、农村道路安防工程275.8公里；在32个村开展生活垃圾分类减量；新建和维修农村饮水安全工程180处，乡村更加宜居。完成县城南桥、北桥除险加固和轿顶山道路，及华昌、农行、窑匠沟养路段家属院、老党校东侧等胡同改造工程，加宽改造黑山河路。加大城市违建拆除力度，新区幼儿园东侧违建房屋拆除完毕，水泥厂拆迁过半。特别是，克服重重困难，全力推进绕城公路建设，征地和林木等地上物动迁全部完成，房屋拆除和通讯设施迁改完成90%以上，建成大中小桥15座，路基及涵洞工程完成85%；积极回应百姓关切，全力整治城区交通秩序，老城区三轮车等“三小”车辆全面禁行，优化县城公交线路，切实维护了城区交通秩序和市容环境，城市形象明显改善。', '社会事业协同发展。消除中小学大班额25个；普惠性幼儿园发展到102所；改造农村薄弱学校10所，职专一部主体和职教中心实训基地二部工程完工；实施营养餐改善计划，新改扩建食堂31所；建立健全校园及周边安全管理机制，为60所中小学配备法治副校长；招聘乡村教师120人，选拔高中教师74人，制定“县管校聘”工作方案，乡村教师待遇有效保障。启动“大病不出县”两年行动计划，新改扩建村卫生室90家、标准化乡镇卫生院12家，县人民医院二部综合楼主体完工；严厉打击欺诈骗保违规行为，守住了医保基金安全底线。建设了47个村文化广场，融媒体中心建成，在市第五届全民运动会上我县获得团体总分第三名的佳绩。', '社会大局保持稳定。推进城乡基层治理，新建5个村服务中心。强化食品药品安全监管，102所学校及托幼机构、18家大型餐饮服务单位实施明厨亮灶，监督抽验药品71批次、食品378批次；排查整治各领域安全隐患，完成非煤矿山矿业权核减计划，建成应急广播示范体系工程；深入开展扫黑除恶专项斗争，破获刑事案件24起，打掉犯罪团伙7个，顺利完成“迎大庆、保平安”各项工作，社会大局安定有序。', '深入开展“重强抓”专项行动。紧盯重要指标完成、重要部署实施、重点任务推进、重大项目落地，205项重点任务完成193项，解决了一大批历史遗留难题，干成了一批打基础、利长远、惠民生的大事实事，促进了干部作风转变，推动了脱贫发展振兴。', '扎实推进法治建设。落实行政执法“三项制度”，县公共法律服务中心如期建成，村居普法阵地全覆盖。实施审计项目33项，审计监督作用充分发挥。自觉接受县人大法律监督和县政协民主监督，定期向县人大报告工作、向县政协通报情况，26件人大代表议案、建议，30件政协提案全部按时办结。', '努力为基层减负。认真贯彻落实中央为基层减负的部署，大力精简文件，县政府文件同比减少36.7%。坚持合并开会或套开会议，开短会、开管用的会，优化改进各种督查考核和调研活动，把更多的精力放在抓工作上，有效地推进了工作落实。', '档案、信访、供电、烟草、邮政、路政、兵役、民族宗教、工会、红十字会、共青团和妇女儿童等工作也取得了新进步。', '各位代表，2019年的成绩来之不易，凝聚着全县人民的智慧和汗水。在此，向给予政府工作大力支持的人大代表和政协委员，向工商联、人民团体和无党派人士，向驻建部队、武警官兵、驻建单位，向关心支持建昌脱贫发展振兴的各界人士，表示诚挚的感谢！', '回顾过去一年的工作，我们清醒地看到存在的问题和不足，主要表现在：一是经济总量偏小，受经济下行压力影响和自身发展水平制约，财源增长乏力，重大项目储备不够，投资后劲有待加强；二是生态保护任务依然繁重，建昌地处大凌河、六股河等河流上游，是省水土保持型重点生态功能区，畜禽养殖污染、生活污水垃圾治理等任务较重，生态保护压力较大；三是农村基础设施、公共服务和城市功能配套、精细化管理需进一步加强，教育、医疗、养老、文化等领域还存在不少短板；四是办事难现象仍然存在，营商环境仍需进一步改善。对此，我们一定高度重视，从严从实抓紧解决。', '2020年是全面建成小康社会、推进建昌振兴发展的重要一年。我们将坚持以习近平新时代中国特色社会主义思想为指导，贯彻落实党的十九大，十九届二中、三中、四中全会精神和习近平总书记关于深入推进东北振兴的重要讲话精神，坚持稳中求进工作总基调，坚持新发展理念，按照“一带五基地”和“五大区域发展战略”的总体部署，落实好“1+8”文件，聚焦脱贫发展振兴目标，编制好“十四五”规划，打好“三大攻坚战”，做好“六稳”工作，统筹推进稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作。', '经济社会发展的主要预期目标是：地区生产总值增长6%左右；规模以上工业增加值增长7%左右；固定资产投资增长7.5%左右；社会消费品零售总额增长7%左右；一般公共预算收入增长3.4%左右；农民人均可支配收入增长7.5%左右。', '各位代表！做好2020年政府工作，完成上述目标，最根本的是在习近平新时代中国特色社会主义思想的指引下，坚持党的领导制度，坚定政治方向，强化政治能力，增强“四个意识”、坚定“四个自信”、做到“两个维护”，确保政府工作始终沿着正确方向前进。', '必须深入开展“不忘初心、牢记使命”主题教育，在学习教育、调查研究、检视问题、整改落实上持续用力，坚持在全局下定位、大局下行动，真正把党中央和上级党组织的决策部署转化为工作思路，细化为实际举措，实化为具体行动。重点抓好六个方面工作：', '巩固脱贫成果。坚持摘帽不摘责任、摘帽不摘政策、摘帽不摘帮扶、摘帽不摘监管，克服松懈思想，做到责任不放松、工作不松劲；继续实施“百企带千户”和“两小补助”项目，推动光伏、中药材和肉牛等扶贫产业发展，确保新增贫困人口稳脱贫、脱贫人口不返贫；加大投入，持续改善销号村基础条件，确保销号贫困村发展稳定，不“滑坡”；落实好“三保障”政策，让贫困学生安心上学，贫困人口基本医疗和住房安全有保障；抓实脱贫攻坚成果巩固提升，推动脱贫攻坚与乡村振兴有效衔接。', '全力抓好污染防治。坚持生态文明制度体系，编制国土空间规划和“三线一单”，优化国土生态空间。狠抓中央环保督察和“回头看”及各专项行动问题整改，坚决完成各项任务。深入落实“河长制”，强化日常巡查，持续整治“四乱”问题；治理水土流失面积1.2万亩；完成河流河道确权划界；实施大凌河城区段干流堤防、六股河防洪治理等工程。坚决防治大气污染，严控秸秆焚烧，确保PM2.5和优良天数达标。推进国土绿化，实施造林18.5万亩、退化草原生态修复3.3万亩、退牧还草11.5万亩，做好八家子铅锌矿周边土壤风险防控及修复工作。特别是，做好土地开发和保护文章，充分利用第三次国土调查成果，开发整理残次林地和未利用地，确保新增1.8万亩耕地，作为城乡建设用地增减挂钩节余指标上市交易，增加县本级收入，实现生态保护和经济社会效益的双赢。', '防范化解重大风险。强化财政预算管理，细化预算编制，确保养老金按时足额发放。严守债务管理红线，加强政府性债务限额管理，减存控增，确保综合债务率处于安全区域。开展金融机构风险排查，严厉打击非法金融和非法集资违法犯罪活动，加强对企业债务违约、互联网金融等风险管控，坚守住不发生区域性、系统性风险的底线。', '着力发展“飞地经济”。认真落实省、市支持“飞地经济”的实施意见，在体制、模式、项目建设上下足功夫。一是完善异地管理体制，推进建昌脱贫攻坚飞地产业园人员和税务、金融、综合审批窗口全面进驻，打造高效、便捷的服务环境。二是强化模式创新，深化与浙江金磐中谷文化公司合作，努力把建昌脱贫攻坚飞地产业园打造成为跨省合作的标杆。三是推进“满园”发展，建昌脱贫攻坚飞地产业园200亩在建区和食品园区2.4万平方米标准化厂房实现企业项目“满园”入驻。四是发展总部经济，出台总部经济政策，鼓励支持大型企业集团在飞地产业园设立全国或区域性总部，引进总部企业30家。五是完善财税利益分享机制，支持乡镇之间项目“互飞”，引导项目向园区集聚，每个乡镇至少引进一个固投1500万元以上的项目，推动乡镇发展，壮大县域经济。', '全力推进乡村振兴。一是建设高标准农田3.2万亩，粮食产量稳定在5.3亿斤左右；大力发展硬质玉米、黄小米、核桃、香菇、蓝莓及中草药等特色产业，扩大有机杂粮种植面积，中草药种植要发展到8000亩；发展设施农业3500亩。落实稳定生猪生产政策，生猪存栏量要稳定在20万头以上；推动肉牛养殖，牛存栏量要达到5.5万头以上，增加优质农产品供给。二是深化农业农村改革，利用国家乡村振兴产业发展项目资金，推广“村集体经济组织+企业+农户”经营方式，强化村集体经济管理，推进一乡一所供销社建设，促进小农户与现代农业发展有机衔接，培育家庭农场8家，壮大村集体经济。三是深入开展“百村美丽、千村整洁”行动，完成畜禽粪污资源化利用项目，改造85%以上示范村户用厕所，力争90%左右的村庄生活垃圾得到治理；新改建和维修农村公路125.4公里，新建村内道路和农村道路安防工程各200公里；创建美丽示范村7个、整洁村118个。四是提高村干部待遇和村办公经费标准，强化基层组织建设，努力推动农业发展、农村繁荣、农民增收。', '持续壮大县域工业。一是改造提升传统产业，支持八家矿业等企业发展壮大，推动北京金隅加气灰生产线等项目落地，超高功率石墨电极二期项目投产，促进石灰石、膨润土、锰矿石等矿产资源精深加工业发展，延伸产业链条。二是发展壮大装备制造业，强力推进鑫盈环保公司环保设备、江苏茗雨轩固体废弃物环保处理设备生产等项目建设。三是大力发展农产品加工业，加快龙汇食品公司肉食品深加工项目建设，格兰登堡精酿啤酒和亿丰蓝莓饮品等项目投产。四是推进建昌矿业产业园和食品产业园建设，加大僵尸企业盘活力度，让闲置资源迸发新活力。', '协调推进服务业。一是坚持集聚发展方向，推进县城中心商贸集聚区建设，加快商贸等生活型服务业提档升级和物流等生产性服务业发展；落实城乡居民和各类群体收入增长三年行动计划，改善消费环境，释放消费潜力，形成新的经济增长点。二是推进温泉康养休闲旅游项目落地，加快龙潭大峡谷景区升级步伐，完善天香源景区功能配套设施，完成中生代化石保护项目,深度开发枣木杠沟等冰雪旅游和辽西第一党小组、红崖洞等红色旅游项目，把现有景区及特色旅游乡镇穿点成线，打造精品旅游线路，构建全域旅游新格局。', '持之以恒优化营商环境。深化“放管服”改革，承接好下放行政许可事项，加速推进“一网一门一次”和“一件事”改革；深化“证照分离”改革，推进市场登记注册便利化。深化政务大厅标准化建设，完善一体化在线平台，加快推进审批服务“马上办、网上办、就近办、一次办”。落实国家和省《优化营商环境条例》，开展营商环境专项整治，努力为各类市场主体投资兴业营造稳定、公平、透明、可预期的良好环境。', '加大科技创新力度。一是围绕材料、制造、食品深加工、节能环保、现代农业等重点领域，遴选引领和示范作用突出的项目，争取上级资金支持，提升科技创新能力。二是实施“专精特新”工程，支持中小企业申报“专精特新”项目，打造一批“专精特新”知名品牌。三是实施农村实用人才培养计划，培训农村实用人才750人以上。四是制定更加灵活、更为柔性的政策措施，积极引进高层次技能型人才，留住用好本地人才，为建昌振兴发展提供智力支撑。', '坚定不移发展民营企业。深入贯彻落实习近平总书记在民营企业座谈会上的重要讲话精神，认真落实国家和省、市支持政策，项目管家实现规模以上企业全覆盖，破解民营企业发展难题，确保新增规模以上工业企业2家。持续落实减税降费政策，积极清欠民营企业账款，不断增强企业获得感，激发市场活力。', '积极融入“一带一路”。牢牢把握省“一带一路”综合试验区、中东欧“17+1”经贸合作示范区建设机遇，融入省、市平台，加强与日韩俄等国家交流合作，推进澳大利亚QMC公司钻具研发生产项目。促进外贸稳定发展，支持建元膨润土等企业开拓韩国、智利等市场；积极融入中蒙俄经济走廊建设，支持本地企业利用“哈洽会”等平台参展，让优质产品“走出去”，把先进技术和好的项目“请进来”。', '深化区域合作。加强与常州对口合作，对接京津冀协同发展战略，加强与中国休闲食品协会、天津辽宁商会、北京青年企业家协会等机构合作，突出矿产资源综合利用、装备制造、农产品深加工、绿色建材等产业，加大招商引资力度，努力引进一批建链、补链、强链项目，力争省外内资增长10%左右。', '全面提升城市功能。明年，县政府将排除万难，克服各种困难，全力推进绕城公路建设，年底前务必建成通车。将下大力气从严整治城区交通秩序，加大超限治理力度，县城区全面禁行三轮车等“三小”车辆，加强城市公交设施建设，提升公共交通运营能力，切实解决群众出行安全和出行难等问题。将统筹推进城市开发、城区道路及绿化等配套设施建设，严厉打击违建行为，对县城冰沟岭、县医院南、污水处理厂北、高速路口等出口路段进行绿化、净化；实施黑山河北侧路坝结合工程，打通黑山河南岸道路，改造凌河西街南段道路及实验小学东侧胡同等小街小巷，做好5个老旧小区和237户棚户区改造工作；特别是，积极回应民生关切，启动水上公园改造工程，将其打造成为集生态、运动、休闲、游乐为一体的综合性城市公园，全面提高县城品质和承载能力。', '不断完善公共服务体系。整改落实国家义务教育均衡发展督查反馈问题，继续招聘乡村教师，进一步完善义务教育阶段营养餐计划，改造乡村学校12所；加大普惠性幼儿园扶持力度，治理城区公办幼儿园5所，每个乡镇至少办好一所中心园，多渠道扩大学前教育资源供给，办好人民满意的教育。落实“大病不出县”两年行动计划，启动县人民医院内科病房楼建设，做实城乡紧密型医共体，推进县人民医院与锦州、沈阳、上海、北京等三甲医院建立医联体，不断提升医疗保障水平。坚持以社会主义核心价值观引领文化建设制度，学习贯彻《新时代公民道德建设实施纲要》《新时代爱国主义教育实施纲要》，完善城乡公共文化服务体系，举办好第十一届全民读书节和第四届全民运动会，开展好第七次全国人口普查。', '全力推进平安建昌建设。坚持共建共治共享社会治理制度，落实安全生产责任制，加强非煤矿山等重点领域安全监管，抓好校园安全；强化食品药品监管，开展食品安全专项整治，切实保障人民群众生命健康安全。坚持和发展新时代“枫桥经验”，规范村（居）调解组织建设，提升基层调解能力，努力将矛盾化解在基层；充分发挥8890服务平台群众诉求“晴雨表”和投诉主渠道作用，解决好人民群众反映的高频事项和难点、堵点问题，化解信访矛盾隐患；深入推进扫黑除恶专项斗争，强化建章立制，依法严厉打击各类违法犯罪，坚决维护社会大局和谐稳定。', '各位代表，党的十九届四中全会，为坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化指明了方向，我们要坚定制度自信，增强制度意识，强化制度执行力，不断提升治理体系和治理能力现代化水平，倾力打造为人民服务、对人民负责、让人民满意的服务型政府。', '崇尚清廉，永葆本色。严格落实全面从严治党主体责任和意识形态工作责任制，严格落实中央八项规定及其实施细则精神，坚决抵制官僚主义、形式主义等“四风”问题，深化政务公开，强化权力运行制约，推进党风廉政建设，做到清白为官、干净干事，干部清正、政府廉洁。', '强化法治，依法行政。落实人民当家作主制度，严格遵守宪法和法律，自觉接受县人大法律监督，加强同县政协的民主协商，认真听取人大代表、政协委员和各方面建议，发挥好审计监督作用，推进公共法律服务平台三级覆盖，高质量办好人大建议和政协提案，使政府决策更接地气、更合民意。', '勇于担当，真抓实干。坚持把“重强抓”专项行动作为推工作、转作风、塑形象的重要载体，坚持“干”字当头，敢于担当作为，对定下的事咬住不放，对推进的事一抓到底，干一件成一件、做一桩成一桩，使发展成效让人民群众看得见、摸得着、感受得到。', '各位代表!奋斗创造历史，实干成就未来。让我们紧密团结在以习近平同志为核心的党中央周围，在县委的领导下，在县人大、县政协的监督支持下，勇担新使命，奋楫再出发，努力开创建昌振兴发展的新局面！']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>47</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>坚定政治方向发挥独特优势营造和谐氛围强化责任担当奋力谱写连山振兴发展新篇章</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019-12-30</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/zwyw/201912/t20191230_862866.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['坚定政治方向 发挥独特优势 营造和谐氛围 强化责任担当 奋力谱写连山振兴发展新篇章——政协连山区第七届委员会第三次会议隆重召开-连山区人民政府', '坚定政治方向 发挥独特优势 营造和谐氛围 强化责任担当 奋力谱写连山振兴发展新篇章——政协连山区第七届委员会第三次会议隆重召开', '12月24日-26日，乘着党的十九大和十九届二中、三中、四中全会的东风，备受全区人民瞩目的政协连山区第七届委员会第三次会议在区文化中心隆重召开。来自全区各界的政协委员，满载着连山人民追求幸福生活的期望，带着谋划发展的拳拳之心，满怀豪情欢聚一堂，积极履行政治协商、民主监督、参政议政职责，共谋连山发展大计，共商兴业惠民之策。', '区政协主席李岩代表政协连山区第七届委员会常务委员会作工作报告。区政协副主席张亚莉受政协葫芦岛市连山区第七届委员会常务委员会的委托，向大会报告七届二次会议以来提案工作情况。', '会议审议通过了选举办法；补选了政协连山区第七届委员会常务委员会委员；宣读了表彰决定，对优秀政协委员进行了表彰；会议审议通过了政协连山区第七届委员会第三次会议提案征集情况的报告；以举手表决的方式通过了大会各项决议。', '报告指出，2019年是全区完成“十三五”规划主要目标任务、实现高质量发展取得新进展的一年，也是区政协围绕中心、服务大局履行职能取得显著成效的一年。一年来，在中共连山区委的坚强领导下，区政协常委会全面贯彻落实中共十九大和十九届二中、三中、四中全会精神，深入学习贯彻习近平总书记系列重要讲话精神、习近平总书记在辽宁考察时和在深入推进东北振兴座谈会上重要讲话精神，落实省委“1+8”系列文件，牢牢把握团结、民主两大主题，紧紧围绕补齐拉长“四个短板”、落实“六项重点工作”和全区中心工作，积极履行政治协商、民主监督、参政议政职能，充分发挥协商民主重要渠道和专门协商机构作用，为助推连山区全面振兴、全方位振兴作出了积极贡献。', '一、强化学习，坚定方向，政治基础更加牢固。区政协始终把思想政治建设摆在首位，强化政治理论学习，广泛凝聚发展共识，切实把好履职的“方向盘”。组织20次党组会议学习和政协常委、委员集中学习，把习近平总书记关于加强和改进人民政协工作的重要思想作为人民政协履职实践的理论基础,以理论大学习、思想大武装、工作大研讨推动政协工作质量大提升；主动融入发展大局。确保区委、区政府的工作推进到哪里，政协工作就跟进到哪里，正能量就汇聚到哪里，充分发挥人民政协协调关系、汇聚力量、建言献策、服务大局的重要作用。积极配合省委第二巡视组工作，对巡视组提出的工作要求，做到第一时间回应、第一时间行动、第一时间落实，以实际行动做好“政治体检”工作；扎实开展主题教育，按照中央的决策部署及省市区委要求，区政协认真开展“不忘初心、牢记使命”主题教育，坚持把转变作风和推动工作贯穿主题教育始终，进一步营造了风清气正的政治生态和履职环境。', '二、围绕中心，服务大局，协商议政取得新成效。围绕全局问题竭诚尽智，全体政协委员就脱贫攻坚、重点项目建设、生态环境治理、教育事业发展、城市基础设施建设等事关全区经济社会发展的热点难点问题，提出意见建议117条；聚焦民营经济、旅游产业集思广益，围绕“加快民营企业发展”议题，组成专题调研组，形成了《关于加快我区民营企业发展的调查报告》。把“加快旅游产业发展”确定为区政协七届九次常委会议专题协商议题，形成了《立足乡村振兴，重视资源利用，努力加快连山区旅游产业发展》专题调研报告；瞄准垃圾分类、土地储备献计出力，组织部分常委、委员以及相关部门的负责同志，到全国第一批农村生活垃圾分类及资源化利用示范地区新宾县考察学习。形成了《关于新宾县推进农村生活垃圾分类及资源化利用的考察报告》。就土地储备体制、机制、规划、资金等问题，提出建立组织机构、优化收储方式、建立资金运作系统等建议，形成了《关于推进我区土地储备市场良性运转的调研报告》。', '三、拓宽渠道，增强实效，民主监督实现新突破。开展专项民主监督，竭力助推民生改善，遴选60名政协委员担任民主监督员，组成12个民主监督小组，分别派驻区司法机关、行政执法部门等24家单位开展民主监督，努力优化全区营商环境，增强发展活力，助推全区经济实现高质量发展；强化提案信息工作，着力聚焦公众关切，全年共收到委员提案163件，立案135件。共编发信息110条，有32条信息被上级采用，区政协信息工作连续两年在全市政协系统排名第一；全力助推中心工作，充分彰显为民情怀，一年来，区政协组织各界别委员、机关干部及社会爱心人士做好事30余件，捐资8万多元，以务实、高效的工作作风展现了政协人的责任与担当。', '四、凝心聚力，互促共进，团结民主展现新局面。坚持团结共事，进一步发挥统一战线法宝作用，一年来，各党派团体、工商联、无党派人士共参加政协各类活动累计500余人次，提交提案62件，反映社情民意信息70条；加强联谊交流，促进协同互动，主动配合市政协开展专题调研，围绕“规范校外培训机构管理”“促进文化旅游品牌提档升级”等子课题，组成专题调研组，开展协商座谈，形成了《关于规范校外培训机构管理的调研报告》《深挖内涵，讲好故事，促进文化旅游品牌提档升级调研报告》上报市政协；编辑文史资料，做到以史资政，经过编撰组一年多的不懈努力，总字数长达33.2万字的《难忘的六昼夜——塔山阻击战》出版发行。区政协为辽宁政协文史馆捐赠政协文史资料图书12种24册。', '五、固本强基，积极作为，自身建设迈上新台阶。激发委员履职活力，一年来，委员们在工作中建功、在履职中尽责、在实干中奉献，不断为政协工作注入新的生机和活力，涌现出了一批履职尽责、扶危解难、引领发展的先进典型，有50名政协委员被授予“优秀政协委员”称号，7名离任政协委员被授予“优秀政协之友”称号，他们用实际行动，展示了新时代政协委员的新风采；重视发挥专委会作用，先后组织委员开展履职活动65次，督办提案20件。一年来，各专委会较好地发挥了联系委员、团结各界、协商议政的基础性作用；强化政协机关建设，政协党组严格履行党风廉政建设“一岗双责”责任，全年会议活动、“三公”经费大幅下降。坚持“三会一课”制度，按时召开专题民主生活会和组织生活会。组织机关干部参加连山区庆祝新中国成立70周年、连山区成立30周年“讴歌新时代，踏上新征程”诵读活动，共同营造“全民阅读，书香连山”的良好氛围。组织政协委员积极参加市政协庆祝新中国成立70周年书画摄影展，选送各类作品16幅。', '报告指出，2020年是我国实现第一个百年奋斗目标，全面建成小康社会和“十三五规划”的收官之年。区政协常委会将以习近平新时代中国特色社会主义思想为指导，全面贯彻中共十九大和十九届二中、三中、四中全会精神，以坚持和完善中国特色社会主义制度、推进国家治理体系和治理能力现代化为重点，进一步落实省委“1+8”系列文件和省委政协会议精神，继续开展“不忘初心、牢记使命”主题教育，紧扣团结和民主两大主题，认真贯彻落实中共连山区委六届十二次全会精神，围绕中心，服务大局，突出脱贫攻坚履职重点，积极组织和带领全体政协委员，认真履行政治协商、民主监督、参政议政职能，切实发挥人民政协协调关系、汇聚力量、建言献策、服务大局作用，以高质量履职成效为加快建设富庶文明美丽幸福连山作出新的贡献。', '2020年，区政协着重做好以下五方面工作：一、突出从严治党，提高政治站位，进一步抓好党建工作；二、畅通协商渠道，推进协商民主，进一步增强议政实效；三、强化民主监督，创新活动载体，进一步加大监督力度；四、注重团结合作，加强联谊交流，进一步促进社会和谐；五、加强自身建设，改进工作作风，进一步提高履职能力。', '报告建议，连山区正处在一个充满希望、充满朝气、充满活力的新起点，区政协要在中共连山区委的坚强领导下，倍加珍惜时代机遇，倍加珍惜组织重托，倍加珍惜人民期盼，以更加高昂的激情、更加科学的方法、更加务实的作风，为决胜全面建成小康社会、建设富庶文明美丽幸福连山、开创政协工作新局面而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>47</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社赴安徽省宿州市供销社学习考察</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019-12-26</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968686.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['近日，葫芦岛市供销社组织带领各县（市）区供销社赴安徽省宿州市供销社学习考察，重点围绕村级基层社内容进行了实地考察，并先后与安徽省宿州市供销社、埇桥区供销社进行了交流。', '在考察学习中，埇桥区供销社村级基层社“参股带动、科技引领、自营养殖、资源开发”代表性的经营模式为葫芦岛市供销社基层社建设提供了宝贵经验。', '通过学习考察，葫芦岛市供销社要将宿州市埇桥区村级基层社建设，增加就业岗位，降低种地成本，农民实现增收；壮大了村集体经济，提供充足资金来源能够及时护养公共设施，公益事业长足发展，民生显著改善；助力乡村振兴，有力地巩固农村基层政权等经验积极运用到实际工作中。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>47</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>建昌县第十七届人民代表大会第三次会议举行第二次全体会议</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-12-30</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/zwyw/202001/t20200102_863104.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['12月26日建昌县第十七届人民代表大会第三次会议在人民会堂举行第二次全体会议。会议听取了县人大常委会工作报告、县人民法院工作报告和县人民检察院工作报告，表决通过《关于接受贾良平同志辞去县人大常委会主任职务请求的决定（草案）》。', '2019年，县人大常委会在县委的领导下，认真学习贯彻习近平新时代中国特色社会主义思想和党的十九大、十九届二中、三中、四中全会精神，坚持党的领导、人民当家作主、依法治国有机统一，紧紧围绕县委重大决策部署，团结和依靠全体代表，认真履行宪法和法律赋予的各项职权。全年共举行常委会会议6次，主任会议13次，听取和审议专项工作报告15项，依法作出决议、决定9项，提出审议意见11项，组织调查、执法检查和视察6次，依法任免国家机关工作人员32人次，圆满完成了县十七届人大二次会议确定的各项目标任务，为全县经济社会发展和民主法治建设作出了应有贡献。', '坚持党的领导，提高政治站位 。牢牢把握正确政治方向。坚持用习近平新时代中国特色社会主义思想统领新时代人大工作，牢固树立“四个意识”，切实增强“四个自信”，坚决做到“两个维护”，自觉把党的领导贯彻人大工作各方面、全过程。坚持重大事项、重要工作向县委请示报告制度，保证人大工作始终突出政治、服务大局。', '认真讨论决定重大事项。坚持抓重点、议大事、求实效原则。通过开展视察、听取专项报告、审议意见落实 “回头看”等形式对决议决定的落实情况进行跟踪监督，切实维护决议决定的严肃性和权威性。', '依法做好人事任免工作，认真行使人事任免权，严格执行人事任免办法，规范任免各个环节，提升任免工作质量，确保县委重要人事意图顺利实现。', '突出中心工作，助力振兴发展。强化计划和预算审查监督。建立预算联网监督系统，实现人大对政府全口径预决算的审查监督。推动落实县政府向常委会报告国有资产管理情况制度，首次听取了我县国有资产管理情况的报告，进一步规范和改进国有资产管理，使国有资产更好服务全县振兴发展。强化生态环境整治监督。听取审议县政府2018年度环境状况和环境保护目标完成、河长制落实情况的报告。对林业生态建设情况进行视察。督促县政府加快环保设施建设，夯实环保工作基础，有力推动环境保护工作和生态环境持续改善。强化公共文化服务体系建设监督。组织部分代表考察学习外地公共文化服务先进经验，提出了“提高对文化的认识，制定文化发展规划，设立文化专项基金，配强配齐县乡两级文化工作者，加强文化基础设施建设，建设户外专业球类场所，科学规划水上公园大修项目”等专题审议意见。', '聚焦医保维民益。要求县政府“继续深化医疗卫生体制改革，充分发挥医保的基础性作用；加强人才队伍建设，充实骨干人才力量；加强医保基金监管，提高医保基金使用绩效；严厉打击欺诈骗保行为，加大对违法行为的查处力度”。县政府认真落实，切实保障和维护了全县医保基金安全和人民群众根本利益。', '聚焦城市道路保畅通。年初，常委会再次把城区道路交通整治列入监督重点，县政府出台《建昌县城区交通秩序综合整治实施方案》，并提交县人大常委会批准，随后常委会又听取审议了此项工作进展情况的报告，提出了建议和要求。县政府认真研究，精心部署，逐步加大整治力度，巩固整治成果，城区乱象有所缓解，交通环境有所改善。', '聚焦代表建议促落实。二次人代会共收到代表议案建议26件，常委会交办后，领导牵头、相关委室跟踪督办，切实推进建议落实。截止目前，一大批涉及交通、水利、环保等民生方面的建议得到有效落实。', '加强司法监督，促进公正司法。高度重视法院刑事审判工作，听取审议了县法院此项工作情况的报告，提出了完善审判工作机制、提高办案质效等要求。高度关注检察院侦查监督工作，听取审议了县检察院此项工作情况的报告，提出了进一步增强监督意识、规范侦查监督工作、加强侦查监督队伍建设等要求。高度聚焦扫黑除恶专项斗争听取审议了县政府此项工作情况的报告，提出了提高政治站位、强化线索摸排、建立联动机制等要求。县政府保持对黑恶势力违法犯罪活动的高压态势，以最高规格推进、最强攻势宣传、最严标准核查、最实举措打击、最大限度整治，取得了阶段性成果。强化执法检查，规范依法行政。高度关注安全生产工作，督促县政府建立行之有效的安全生产工作机制。高度重视残疾人保障工作，要求县政府加强残疾人康复、教育、劳动就业、社会保障等工作。狠抓信访工作，维护和谐稳定。把受理和督办群众来信来访作为关注民生、了解民情、反映民意的重要渠道，维护群众的合法权益。坚持信访接待日制度，全年共接待群众来信来访33件65人次，全部依法依规交办并跟踪督办，促进了一批信访问题得到妥善处理。', '改进代表工作，激发代表活力。注重培训，提升代表履职能力。先后组织了各级人大代表分组培训、常委会组成人员集体培训、乡镇人大主席专题培训，有效提升了代表整体素质和依法履职能力。丰富活动，加强代表履职服务。畅通代表知情知政渠道，建立常委会领导联系委员、完善“双联系”等制度，深化代表小组活动，积极推进“代表之家”相关工作。继续在全县各级代表中开展“牢记职责和使命争做人民好代表”主题活动，助力全县脱贫攻坚和振兴发展。强化指导，推动乡镇人大工作。坚持邀请乡镇人大主席列席常委会会议，关注乡镇人大工作开展情况。', '加强自身建设，提高整体素质。加强思想建设，在开展主题教育中增强政治定力。注重调查研究广度，把握检视问题精度，加大整改落实力度，真正使教育成果转化为增强党性、提高能力、改进作风、推动工作的动力。提升履职能力，在务实为民中展现良好形象。主动适应新时代、新形势、新任务对人大工作提出的新要求，强化组成人员履职规范。注重理论研究，在强化宣传中营造浓厚氛围。推进人大理论研究和新闻宣传工作，坚持正确的舆论导向。', '贾良平说，过去一年，是县人大常委会找准定位、转变方式的一年，是紧贴中心、实干担当的一年，是解放思想、务实创新的一年。在肯定成绩的同时，我们也清醒地认识到，人大及其常委会的工作还存在一些差距，主要是：依法履职的能力和水平还需进一步提升；监督工作的力度和实效还需进一步加大；代表活动的内容和形式还需进一步丰富等。对于这些问题和不足，将切实采取有效措施加以改进和解决。', '各位代表，2020年是全面深化改革和推进高质量发展的关键之年，也是全面建成小康社会的收官之年。新的一年，县人大常委会工作的指导思想是：以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大和十九届二中、三中、四中全会精神，以政治建设为统领，以人民为中心，继续助力“三大攻坚战”，致力乡村振兴和民生改善，依法履行宪法和法律赋予的职权，不断推动全县经济社会和民主法治建设全面发展。', '2020年，县人大常委会将以政治建设为统领，努力开辟新境界。坚决服从县委集中统一领导，主动把人大工作置于县委中心工作中去思考、谋划和推进，将县委要求贯穿行权履职全过程。依法行使重大事项决定权，依法行使人事任免权，确保党委意图通过法定程序成为人民群众的共同意志；加强对国家机关工作人员的任后监督，促进干部敢于负责、勇于担当、依法行政、公正司法。', '以聚焦发展为己任，努力展现新担当。围绕全县改革发展稳定大局的重大问题，突出工作重点，持续开展正确监督、有效监督。强化重大事项监督，常委会重点听取审议县政府关于国民经济和社会发展计划、预决算执行和预算调整、审计工作和审计发现问题整改、上年度环境状况和环境保护目标完成以及行政事业性国有资产管理等工作情况的报告，视察全县乡村振兴战略实施情况，考察学习预算审查监督先进工作经验。持续发力民生事项监督，常委会听取审议县政府关于义务教育均衡发展、养老服务等工作情况的报告，跟踪检查县政府关于公共文化服务体系建设审议意见的落实情况，考察学习先进地区义务教育均衡发展情况。深化司法监督工作，常委会听取审议县政府关于基层人民调解和法律服务工作情况的报告，对《税收征收管理法》、《母婴保健法》等法律贯彻落实情况进行执法检查，对县法院关于司法责任制落实情况进行调查。继续做好人大信访、规范性文件备案审查、“一府一委两院” 落实审议意见等相关工作，确保人大各项工作取得实效。', '以激发动能为依托，努力汇聚新合力。坚持突出代表主体地位，进一步强化代表学习培训，进一步搭建好代表履职平台，充分发挥代表小组、“代表之家”作用，利用好微信公众号等网络阵地，为代表履职创造更加便利条件；进一步丰富代表活动，完善代表建议督办机制，加强乡镇人大工作，强化对乡镇人大工作的指导，不断提升乡镇大人工作整体水平。', '继续巩固“不忘初心、牢记使命”主题教育成果，加强政治理论和业务知识学习，用政治的眼光定大事、用开放的眼光议要事、用民生的眼光办好事。继续完善常委会各项工作制度，加强素质和能力建设，增强依法履职本领，力求做到议事有水平、监督有力度、创新有特色、落实有成效。继续加强人大新闻宣传和理论研究工作，拓宽人大工作新思路，探索人大工作新举措，使人大职权行使更加充分有效。', '各位代表、同志们！潮起海天阔，扬帆正当时。让我们高举习近平新时代中国特色社会主义思想伟大旗帜,更加紧密地团结在以习近平同志为核心的党中央周围,在县委的正确领导下,紧紧依靠全县人民,充分凝聚代表力量,不忘初心、砥砺前行，求真务实、依法履职，不断推动全县人大工作再上新台阶,为建昌全面振兴发展作出新的更大的贡献！', '会上，县人民法院院长王海燕代表县人民法院向大会作《建昌县人民法院工作报告》；县人民检察院检察长王久成代表县人民检察院向大会作《建昌县人民检察院工作报告》。大会以举手表决的方式通过了《关于接受贾良平同志辞去县人大常委会主任职务请求的决定（草案）》。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>47</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社赴山西省晋中市供销社学习考察收获颇丰</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2019-12-26</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968687.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['近日，葫芦岛市供销社组织带领各县（市）区供销社理事会主任赴山西晋中市供销社学习考察，重点围绕基层组织体系建设，特别是新建、改造基层社等内容进行了实地考察，并先后与山西省晋中市供销社、平遥县供销社进行了交流。', '在考察学习中，晋中市供销社因地制宜，定向施策，创新“自主改造、筑巢引凤；两社联合、优势互补；社村共建、联手恢复；产业融合、龙头带动；股份合作、政府引领”。五种模式，推进基层社恢复改造给予我们很大启发。', '通过考察学习，葫芦岛市供销社更加要坚持把供销社真正办成农民的合作经济组织，为农服务是供销社必须坚持的立身之本，把供销社真正办成农民的合作经济组织是供销社改革的方向和最终目的，是中央11号文件明确规定的，也是符合葫芦岛市供销社系统实际情况的。要把供销社真正办成农民的合作经济组织，就必须要立足于三农，解决好为农服务问题，新建、改造基层社，密切与农民利益联结，供销社才有生命力，才能不断发展壮大。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>47</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>解答我市的脱贫攻坚工作的有关情况</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019-11-20</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/zmhd/zxft/201911/t20191120_856817.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['主持人：倾听百姓心声，解答百姓疑难;传递政策信息，公开行政行为。网友朋友们大家好，欢迎收看本期的政务访谈。今年，是脱贫攻坚的决战决胜之年，为让我市贫困群众与全国全省人民一道迈入小康，全市上下勠力同心、齐力攻坚，坚持精准扶贫、精准脱贫，不断推动脱贫攻坚各项工作。今天我们的节目就请来了扶贫办的黄仕波副主任，为我们解答我市的脱贫攻坚工作的有关情况。', '答：主持人好，观众朋友们好!这是我第二次来到政务访谈与大家交流，再次感谢社会各界人士一直以来对我市脱贫攻坚工作的关心、支持，也真诚地欢迎大家对我市扶贫工作提出宝贵意见。', '主持人：黄主任，据我所知，包括全部人口和村脱贫销号、建昌县摘帽在内，今年全市脱贫工作将于10月底全部完成，这是一项重大而艰巨的任务，为了确保任务完成，我市近几年来的脱贫工作取得了哪些成就，又打下了哪些基础呢?', '答：党的十八大以来，全市上下坚持以习近平新时代中国特色社会主义思想为指导，坚决贯彻落实中央和省委省政府脱贫攻坚工作的决策部署，把脱贫攻坚作为重大政治任务和首要民生工程，把贫困人口脱贫作为全面建成小康社会的底线任务和标志性指标，举全市之力，深入推进脱贫攻坚举措落实，取得了重大决定性成就。', '二是“两不愁三保障”基本实现。从目前情况看，贫困群众不愁吃、不愁穿可以说普遍做到，总体实现。9万多因病致贫的贫困群众已得到新农合、大病保险、医疗救助等健康扶贫政策措施的有效扶持，并通过产业、资产收益分红等帮扶措施实现脱贫。对全市2.9万名困难家庭学生落实教育扶贫政策，实施危房翻建6300余户，累计修建精准扶贫路791.6公里，困扰群众的出行难、吃水难、用电难、通讯难、上学难、就医难、住危房等问题基本得到有效解决。', '三是乡村建设能力明显增强。向贫困乡村选派389名优秀干部任第一书记，派驻105支驻村工作队开展驻村帮扶，农村基层党组织凝聚力和战斗力得到明显增强，农村基层治理能力和管理水平明显提升，贫困村基础设施、生产生活条件逐步改善，综合发展能力显著提升，全市有集体经济收入村达到916个，占1066个行政村的86%。', '四是脱贫攻坚工作体系进一步完善。从中央到省、市、县逐级建立健全了政策体系、责任体系、投入体系、动员体系、考核体系、监督体系。', '主持人：黄主任，去年您在政务访谈上通报了2018年全市确保3.7万贫困人口实现稳定脱贫、65个贫困村脱贫销号的目标，请问完成情况如何。', '答：2018年既是贯彻落实党的十九大精神的开局之年，也是全国实施“打赢脱贫攻坚战三年行动”的第一年。经过多方共同努力，全市实际3.9万贫困人口实现稳定脱贫，65个贫困村脱贫销号。', '2018年脱贫攻坚主要有以下几个特点：一是打赢脱贫攻坚战三年行动实现良好开局。二是深度贫困地区脱贫攻坚取得实质性进展。在市委市政府举全市之力支持建昌打好脱贫攻坚战的基础上，省委、省政府将南票区纳入深度贫困地区支持范围，与全省其他10个深度贫困县(市)区享受同等政策扶持。三是脱贫攻坚模式推广创新。探索“飞地”经济模式，壮大建昌县乡村财力带动脱贫。深入推广“党支部+合作社+基地+贫困户”等多种精准模式，兴城碱厂乡荣获2018年全国脱贫攻坚组织创新奖。四是脱贫产业强力推进。大力推进泳装下乡、光伏进村、种养入户，累计建成扶贫车间91家，建立村级电商服务站110个，实施脱贫产业项目779个，全省产业扶贫现场会在我市召开。五是政策保障更加有力。突出贫困村基础设施、生产生活条件改善，深化政策保障措施落地落实，实施危房翻建3858户，南票区3万元解决贫困户安全住房经验在全省推广。加大健康扶贫和贫困村基础设施建设力度，实现重大疾病救治全兜底、看病就医零负担，65个年度脱贫村全部实现了“四有三通”。六是作风建设和干部培训取得明显成效。开展“脱贫攻坚作风建设年”活动和“重强抓”专项行动，对389名选派干部、105支驻村工作队队长和部分贫困乡镇、村干部培训，脱贫攻坚责任进一步夯实，工作作风持续转变。', '主持人：黄主任，今年是脱贫攻坚决胜之年，目前距10月底已不足3个月时间，请问我市将以哪些工作为抓手推进脱贫工作，以此确保全年任务的完成。', '答：决胜之战要用决战的办法打，年初以来，全市坚决用习近平总书记东北振兴座谈会讲话精神、出席全国两会各代表团审议时讲话精神、在重庆召开座谈会讲话精神和求发书记、一军省长葫芦岛调研的指示要求统一思想和行动，坚持问题导向，聚焦摘帽销号，一鼓作气、迎难而上，深入推进全市脱贫攻坚工作。', '一是尽锐出战。聚焦建昌摘帽、南票脱困、17个贫困村销号，市委书记、市长分别包扶建昌县和南票区，市委常委、市政府副市长包扶17个预脱贫村。精选39家市直部门重点对口帮扶建昌县28个乡镇，增派12家定点帮扶单位对南票缸窑岭镇贫困村实施驻村定点帮扶全覆盖。', '二是弱点突破。市委市政府始终把发展脱贫产业作为扶长远扶根本的重要举措持续推进。书记、市长多次听取全市产业情况汇报，脱贫攻坚领导小组在建昌县召开全市产业拉练现场会。特别是力威市长亲自带队赴义县考察学习，推广“龙头企业+合作社+贫困户”和“飞地项目+园区+乡村”等脱贫模式，有力解决了贫困地区产业基础薄弱、带动能力不足，实现村村有产业、有项目，今年预脱贫1.4万户全部实现了项目叠加。建昌飞地产业园5个项目投产，绥中调整3700亩土地为2个贫困乡镇发展飞地经济。', '三是聚力攻坚。集中力量解决“两不愁三保障”突出问题，统筹2000万元专项资金对贫困人口特慢病报销给予补偿，医疗补充保险工作加快推进;全市2830户危房改造任务7月中旬完成;对全市2.6万名贫困学生落实教育补助政策;筹集4000万资金积极解决499名贫困人口安全用水;及时调整131家单位开展驻村定点帮扶;整合乡村振兴产业资金2300万元，支持贫困村发展壮大村集体经济;大力推进“互联网+”社会扶贫，动员1万多名社会各界爱心人士与5700个贫困对象成功对接，捐助资金10.81万元，全省名次列前。', '四是强力推进。加大投入力度，市本级预计投入扶贫专项财政资金9000万元，已下拨扶贫专项资金5615万元，其中支持建昌县、南票区资金4470万元。加强扶贫队伍建设，落实机构改革，将市县两级扶贫部门变为政府工作部门，全市贫困乡镇全部配置专职扶贫办主任。坚决贯彻落实《葫芦岛市进一步强化脱贫攻坚相关责任的意见》，对完成任务好的乡镇党委书记优先提拔重用，市扶贫办两位挂职同志已提拔使用。市纪检监察部门通报6起扶贫领域腐败和形式主义官僚主义问题，处理违规违纪和履职不力干部6人。', '五是巩固成果。坚持把完成年度任务与巩固扩大脱贫成果相结合。深化推进“三查”工作，全面提升脱贫质量;坚持脱贫攻坚与实施农村最低生活保障制度有效衔接，应纳尽纳、应保必保，做好防止返贫工作;坚持脱贫攻坚与乡村振兴相结合，持续推进脱贫产业，建立稳定增收机制，壮大村集体经济，提升发展能力。', '下一步，我们将结合“不忘初心、牢记使命”主题教育，以决战决胜脱贫攻坚为根本使命，重点围绕提高脱贫质量、提高工作质量、提高帮扶质量，持续推进产业扶贫、驻村定点扶贫、对口协作扶贫、“互联网+”社会扶贫、基础设施扶贫和贫困退出预验收等六项主要工作，完成脱贫攻坚各项任务目标，为葫芦岛的全面振兴作出贡献!']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>47</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>朱德义主持召开企业家座谈会</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-11-21</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/zwyw/201911/t20191121_856915.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['11月11日至15日，朱德义带领部分企业家到江苏省无锡市、镇江市等地参观考察学习。座谈会上，参加考察学习的企业家们就参观考察学习谈体会。他们一致认为，这是一次头脑风暴，提升理念、开拓思路，找到了差距。纷纷表示，要对标先进，改变工作思路，不断发展壮大企业，为兴城经济社会发展做出贡献。', '朱德义在讲话中说，与会企业家代表着兴城高度、深度、广度，未来仍然代表兴城高度、深度、广度。市委、市政府与兴城企业家同频共振，企业家也要读懂市委、市政府的发展蓝图。', '就参观考察学习和下一步工作，朱德义说，党建引领是企业发展的重要源动力，要注重“党建+文化”发展模式。发展是企业永恒的保鲜剂，要不断发展壮大，企业才能长久生存下去。现代企业管理制度是未来企业发展的通行证、识别码，企业要做到企业化、专业化、社会化。全域经济、全域规划是未来发展方向，企业要抢占先机、要企业下乡。抱团发展要成为企业共识，企业间要结成利益共同体。营商环境任重道远，要全方位打造营商环境。企业家们要齐心协力将企业发展好，兴城经济社会发展才能更好。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>47</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>区政协八届二次会议第号提案的答复函关于我区对动迁后的废旧房屋进行后续处置的建</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019-12-06</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2019n_29911/201912/t20191206_860330.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['区政协八届二次会议第60号提案的答复函《关于我区对动迁后的废旧房屋进行后续处置的建议》_葫芦岛市南票区人民政府', '区政协八届二次会议第60号提案的答复函《关于我区对动迁后的废旧房屋进行后续处置的建议》', '南票棚户区拆迁安置工作从2014年起到目前为止，共搬迁到打渔山新城区12262户，但仍有571户居民居住在棚户区中。主要原因：一是家庭产权纠纷；二是因经济困难无法办理结算入住；三是九龙街道棚户区位于城市建城区内，因工作及其它方面因素影响未签订协议还有378户；四是部分居民认为政策不合理；五是房屋所有人失联。我区棚户区改造的范围大部分是原南票矿务局在上世纪五十、六十年代统建连脊房屋，导致部分房屋无法拆除。', '为了改变南票棚户区改造安置后脏、乱、差的环境，在2017年12月6日，时任南票区区长董金旭同志在葫芦岛市南票区第九届人民代表大会第一次会议上做政府工作报告，强调未来五年工作目标：加快生态文明建设进程，实现人居环境新变化，切实践行“绿水青山就是金山银山”理念，实施蓝天、碧水和沃土工程。严守生态保护红线，稳步推进矿山生态环境治理和山水林田修复。实施棚户区、采沉区闲置土地治理与利用，持续开展城乡环境整治和造林绿化。', '切实践行“绿水青山就是金山银山”理念，实施蓝天、碧水和沃土工程。严守生态保护红线，稳步推进矿山生态环境治理和山水林田修复。实施棚户区、采沉区闲置土地治理与利用，持续开展城乡环境整治和造林绿化。', '为实现这个目标，南票区政府在2018年6月14日由时任南票区政府常务副区长王建华同志带队40多人到北票市考察学习。这次考察组借鉴北票经验和我区实际情况向政府提出建议：制定区域性总体发展规划，以产业转型为主线，以循环产业园区发展为核心，统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '为实现这个目标，南票区政府在2018年6月14日由时任南票区政府常务副区长王建华同志带队40多人到北票市考察学习。这次考察组借鉴北票经验和我区实际情况向政府提出', '建议：制定区域性总体发展规划，以产业转型为主线，以循环产业园区发展为核心，统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '2019年末，南票区棚户区安置工作基本结束，待棚户区安置工作基本结束后，根据我区棚户区的实际情况，逐步拆除棚户区内房屋。目前，南票区规划局、葫芦岛市自然资源南票分局正在对棚户区内房屋拆除后的土地进行统筹规划，易商则商，易林则林。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>47</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>区人大九届二次会议第号建议的答复函关于棚户区改造搬迁后土地再利用的建议</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019-12-04</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/rdta/2019n_29918/201912/t20191204_859983.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['区人大九届二次会议第40号建议的答复函《关于棚户区改造搬迁后土地再利用的建议》_葫芦岛市南票区人民政府', '2013年初形成了《南票区国有工矿棚户区房屋征收补偿安置方案》草稿，并将方案草稿专题向市长、主管副市长汇报，在市政府建议下组织相关人员到阜新、北票、凌源、喀佐等地进行考察学习后，形成了方案征求意见稿，召开征求意见动员会，广泛征收居民、社区、街道、有关单位意见，召开专题征求意见会，形成方案讨论稿，提交政府常务会议讨论，于2014年9月19日面向社会发文公布。', '为了保证棚户区居民利益，我们聘请了4家有资质的房屋评估公司，和我单位工作人员一同深入我区棚户区范围内的居民家中，对棚户区居民的房屋及附属物进行评估。在评估的过程中，我们做了详细记录，并征求了棚户区居民对棚改的看法和意见，各街道包扶工作组及政策咨询组工作人员深入到各街道，对前期房屋评估价格进行公示及复估工作，向各街道居民发放并收回参加棚改的《申请表》。', '南票棚户区拆迁安置工作从2014年起到目前为止，共搬迁到打渔山新城区11888户，但仍有571户居民居住在棚户区中。主要原因：一是家庭产权纠纷；二是因经济困难无法办理结算入住；三是九龙街道棚户区位于城市建成区内，因工作及其它方面因素影响未签订协议还有378户；四是部分居民认为政策不合理；五是房屋所有人失联。而我区棚户区改造的范围大部分是原南票矿务局在上世纪五十、六十年代统建连脊房屋，导致部分房屋无法拆除。', '为了改变南票棚户区改造安置后脏、乱、差的环境，在2017年12月6日南票区区长董金旭同志代表在葫芦岛市南票区第九届人民代表大会第一次会议做政府工作报告未来五年工作目标时强调：加快生态文明建设进程，实现人居环境新变化。切实践行“绿水青山就是金山银山”理念，实施蓝天、碧水和沃土工程。严守生态保护红线，稳步推进矿山生态环境治理和山水林田修复。实施棚户区、采沉区闲置土地治理与利用，持续开展城乡环境整治和造林绿化。', '日南票区区长董金旭同志代表在葫芦岛市南票区第九届人民代表大会第一次会议做政府工作报告未来五年工作目标时强调：', '切实践行“绿水青山就是金山银山”理念，实施蓝天、碧水和沃土工程。严守生态保护红线，稳步推进矿山生态环境治理和山水林田修复。实施棚户区、采沉区闲置土地治理与利用，持续开展城乡环境整治和造林绿化。', '为实现这个目标，南票区政府在2018年6月14日由区政府常务副区长王建华同志带队40多人到北票市考察学习。这次考察组借鉴北票经验和我区实际情况向政府提出建议：制定区域性总体发展规划，以产业转型为主线，以循环产业园区发展为核心，统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '为实现这个目标，南票区政府在2018年6月14日由区政府常务副区长王建华同志带队40多人到北票市考察学习。这次考察组借鉴北票经验和我区实际情况向政府提出', '建议：制定区域性总体发展规划，以产业转型为主线，以循环产业园区发展为核心，统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '2019年末，南票区棚户区安置工作基本结束，待棚户区安置工作基本结束后，根据我区棚户区的实际情况，逐步拆除棚户区内房屋。目前，南票区规划局、葫芦岛市自然资源南票分局正在对棚户区内房屋拆除后的土地进行统筹规划，易商则商，易林则林。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>47</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>动物疫病防控相关知识</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019-10-29</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/zxft/201910/t20191029_853918.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['主持人：倾听百姓心声，解答百姓疑难;传递政策信息，公开行政行为。网友朋友们大家好，欢迎收看本期的政务访谈。随着社会经济的快速发展，畜产品需求量不断增长，而由于饲养规模的增大和牲畜调运的频繁，导致的疫情风险急剧增加，而动物疫病的防控工作则是养殖业持续稳定发展和畜产品市场稳定供给的保障。今天我们的节目邀请到了我市现代农业发展服务中心郑志祥副主任，就动物疫病防控方面的知识进行解答。', '答:动物疫病指的是动物传染病和寄生虫病。根据动物疫病对养殖业生产和人体健康的危害程度，《中华人民共和国动物防疫法》将规定管理的动物疫病分为一类疫病、二类疫病和三类疫病共157种。很多动物疫病有着传播速度快，病死率高的特点，一旦某种动物发生某种疫病不加以及时控制蔓延开的话，轻者威胁同群动物的健康和生命，给养殖者带来经济损失，重则威胁群体性的生存乃至损害人类健康，给社会经济带来无法预估的后果。', '答：人畜共患病，就是人类和畜禽之间共患疾病。我国常见的人畜共患病有26种，像高致病性禽流感、狂犬病、炭疽、牛结核、布鲁氏菌病等都是我们熟悉的，这些疫病都可以感染人类，影响人类健康，甚至导致死亡。', '答:我市主要的人畜共患病是布鲁氏菌病，也就是常说的布病。辽宁是全国布病重点防控地区，我市又是我省的重点防控地区，布病主要感染羊、牛，猪、犬也能感染，同时也会感染人。布鲁氏菌主要侵害家畜的生殖系统，导致流产，人感染布病如果治疗不及时，会导致不孕不育，关节疼痛，降低劳动能力。', '我市布病流行有以下几个特点：一是季节性发病明显，人间和畜间布病疫情主要集中在3-7月，占总数的70%以上，显示产羔季节布病的流行风险加剧。二是职业性发病明显。目前我市人感染布病例主要集中在农村，农民发病占总数的98%，主要为养羊户，在高危人群中感染率达5.75%;三是发病呈地区和家庭聚集性。我市人畜病例具有一定的地方聚集性，据调查，有多个农村家庭集体发病，最多的有祖孙三代四口人感染，最小的病例才几岁，在造成家中无劳动力的同时，产生医药费集中支出情况，加剧因病致贫现象。', '答：2012年开始，葫芦岛市人间和畜间布病疫情呈快速上升趋势，成为辽宁省布病重要的流行地区，尤其是兴城等地人间疫情形势严峻，严重威胁我市公共卫生安全和畜牧业健康发展。当时的市动监局在通过对本地布病疫情形势深入调研并赴内蒙古自治区考察学习的基础上，决定从2013年-2015年在全市范围内开展布病防控三年战役，采取先检测净化，后集中免疫，大力开展宣传，继续开展“手套工程”，同时严格检疫监管的技术路线，确保实现新疫点和新检出的阳性动物数量比上年下降20%以上。另外，针对布病疫苗口服效果差，注射反应大的问题，建昌疫控中心研究发明了具有自主知识产权的“羊布病免疫阴道喷注器”，对羊采用“阴道喷注法”进行布病免疫，通过几年的对比试验和推广，取得了圆满成功。在实施三年战役后各类动物布病阳性率降至0.5%以下，全市恢复为布病控制区，有力的扭转了布病疫情上升势头，取得了阶段性成果。2016年，省畜牧局决定在全省开展为期3年的布病防控专项行动，坚持“免、检、消、杀、管”综合防控措施，坚持人畜同步、分区防治，分类指导的原则，普通牛羊抽检净化后再免疫的政策，进行布病防控，目前布病疫情得到了有效控制。', '我们国家对动物疫病实行“预防为主”的方针，为此国家及省、市、县各级政府部门配套重大动物疫病强制免疫疫苗资金，招标购买疫苗，由畜牧兽医部门负责重大动物疫病强制免疫疫苗的供应和管理，免费提供给养殖场户。通过春、秋季两次集中免疫和每月补免，保证全市应免动物100%免疫，免疫密度常年在90%以上。同时我们市、县两级疫控系统利用自己的兽医实验室全年开展动物疫病监测工作，采集家畜、家禽血液及其他样品进行实验室检测，掌握全市免疫抗体水平及病原感染情况，指导全市重大动物疫病免疫工作并对疫情发生风险进行评估预警。在2014年小反刍兽疫、2017年的H7N9流感和目前的非洲猪瘟疫情防控中，我市畜牧兽医部门积极开展流行病学调查、实验室检测、检疫监管等综合防控措施，确保我市疫情稳定。', '答：养殖户要做好动物疫病的防控，最重要的是要了解动物疫病发生的条件，做好生物安全管理。动物疫病的发生离不开传染源、传播途径和易感动物三个基本条件。从疫病发生的基本条件来看，养殖场户要降低或消除疫病风险，就必须从传染源、传播途径、易感动物三个环节入手。生物安全管理就是从疫病发生基础的角度，对疫病进行预防的步骤和过程，即减少或消除疫病风险的过程。', '饲养动物疫病的传染源主要是感染患病的动物，其他像污染的车辆、粪便、饲料等都属于间接的传染源。生物安全管理对于传染源的控制要做到以下几点：', '一是饲养方式。养殖户要尽量做到自繁自养、全进全出的饲养模式，提倡智能养殖等创新养殖模式。', '二是引入动物的管理。对于新引进的畜禽，尤其是种畜要进行重大动物疫病的检测，掌握免疫情况，及时补免，到场后隔离饲养，避免疫病在潜伏期内，直接合群后传染给健康畜禽。根据不同动物疫病的潜伏期，一般隔离20-30天左右。', '三是开展疫病净化。对一些致病率高，对生产和人类影响较大的动物疫病，要定期开展净化措施，例如禽类的沙门氏菌、牛羊布病，奶牛结核等。净化的前提是监测，对监测阳性动物予以淘汰或无害化处理。通过定期监测和净化，逐步消除特定病原在养殖场的存在。', '四是做好消毒工作。养殖场户还要建立有效的消毒制度，定期消毒。在一批动物出栏后，圈舍应当进行彻底的清洗消毒，根据具体情况，比如疫病情况、生产安排等，间隔一定的时间(一般1到6个月)，再补栏。', '切断传播途径是避免疫病传播的有效方法，从生物安全的角度来说，在饲养场的选址设计上，要远离交通要道、屠宰场等影响动物防疫因素的地方;场内生活区和生产区要分开;圈舍内分净道和污道;饲养场门口要设有消毒池、更衣消毒室;建立无害化处理设施，对病死动物进行无害出处理;做好防鼠、防虫、防鸟措施等等。在人员管理上，本场工作人员进入场区时要更换工作服和鞋，工作服和鞋应定期消毒;尽量避免外部人员和车辆进入场区，如需进入必须严格消毒处理。在发病动物的处理上，一旦有发病动物，要及时进行隔离。相当一部分动物疫病，对生产影响不大，通过隔离治疗是可以在动物群中消除的，这一部分疫病，就需要及时隔离治疗，避免发病动物和健康动物接触，以尽快恢复动物生产力，最大限度地降低损失。对于防疫法中规定的一类动物疫病，不能进行治疗，更不能出售、调运，要及时上报，由畜牧兽医相关部门处理。', '保护易感动物的主要手段就是免疫。养殖场户要根据抗体检测的情况，制定科学的免疫程序，并实施免疫，保证免疫密度和免疫效果，降低疫病发生风险。同时要加强饲养管理，注意圈舍温湿度的控制、通风换气，保持圈舍内空气新鲜也是减少动物发病的一个重要方面。', '答：各类动物诊疗机构的兽医、饲养、经营动物和生产、经营动物产品等人员发现可疑动物疫情时，必须立即向当地县(市)动物防疫监督机构报告。报告的内容包括：疫情发生的时间、地点、发病的动物种类和品种、动物来源、临床症状、发病数量、死亡数量、是否有人员感染、已采取的控制措施、疫情报告的单位和个人、联系方式等。', '县(市)动物防疫监督机构接到报告后，应当立即赶赴现场诊断，必要时可请省级动物防疫监督机构派人协助进行诊断，认定为疑似重大动物疫情的，应当在2小时内将疫情逐级报至省级动物防疫监督机构，并同时报所在地人民政府兽医行政管理部门。省级动物防疫监督机构应当在接到报告后1小时内，向省级兽医行政管理部门和农业部报告。省级兽医行政管理部门应当在接到报告后的1小时内报省级人民政府。特别重大、重大动物疫情发生后，省级人民政府、农业部应当在4小时内向国务院报告。认定为疑似重大动物疫情的应立即按要求采集病料样品送省级动物防疫监督机构实验室确诊，省级动物防疫监督机构不能确诊的，送国家参考实验室确诊。确诊结果应立即报农业部，并抄送省级兽医行政管理部门。突发重大动物疫情由农业部认定并公布，任何单位和个人不得瞒报、漏报，更不得公布动物疫情。', '根据突发重大动物疫情的性质、危害程度、涉及范围，将突发重大动物疫情划分为特别重大(Ⅰ级)、重大(Ⅱ级)、较大(Ⅲ级)和一般(Ⅳ级)四级。发生突发重大动物疫情时，事发地的县级、市(地)级、省级人民政府及其有关部门按照分级响应的原则作出应急响应。同时，要遵循突发重大动物疫情发生发展的客观规律，结合实际情况和预防控制工作的需要，及时调整预警和响应级别。要根据不同动物疫病的性质和特点，注重分析疫情的发展趋势，对势态和影响不断扩大的疫情，应及时升级预警和响应级别;对范围局限、不会进一步扩散的疫情，应相应降低响应级别，及时撤销预警。突发重大动物疫情应急处理要采取边调查、边处理、边核实的方式，有效控制疫情发展。', '在疫情报告期间，应当立即划定疫点，调查疫源，了解免疫和监测情况，采取临时隔离控制措施，当地县级以上人民政府对疫点做出封锁决定并采取扑杀、销毁、无害化处理等措施。', '疫点内按规定扑杀所有易感动物和销毁有关产品，并对病死动物、扑杀动物、被销毁的动物产品、排泄物、污染的饲料、污水等进行无害化处理，对圈舍、场所等按固定进行严格的清洗消毒。', '疫区内对易感动物及产品的处理和疫点一样，进行扑杀、消毒和无害化处理。在疫区周围设置警示牌，在出入疫区的交通路口设置临时动物检疫消毒站，配备动物防疫技术人员和警务人员，实行24小时值班。禁止易感动物进出、相关产品和其他可疑污染物运出。', '疫情在效控制扑灭后，要终止应急响应。疫区内所有的动物及其产品按规定处理后，经过该疫病的至少一个最长潜伏期无新的病例出现，由政府兽医主管部门对疫情控制情况进行评估，按程序报批宣布疫情解除，终止应急响应。特别重大突发动物疫情由农业部对疫情控制情况进行评估，提出终止应急措施的建议，按程序报批宣布。重大突发动物疫情由省级人民政府兽医行政管理部门对疫情控制情况进行评估，提出终止应急措施的建议，按程序报批宣布，并向农业部报告。较大突发动物疫情由市(地)级人民政府兽医行政管理部门对疫情控制情况进行评估，提出终止应急措施的建议，按程序报批宣布，并向省级人民政府兽医行政管理部门报告。一般突发动物疫情，由县级人民政府兽医行政管理部门对疫情控制情况进行评估，提出终止应急措施的建议，按程序报批宣布，并向上一级和省级人民政府兽医行政管理部门报告。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>47</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>司法局赴锦州市司法局考察学习</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019-10-24</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/bmdt/201910/t20191024_853414.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['为推动我市矛盾纠纷排查化解等各项工作实现更高水平发展，进一步开阔思维视野，10月18日下午，兴城市司法局丁桂清局长等一行四人赴锦州市司法局考察学习。', '考察学习组实地参观了锦州市人民调解中心，听取了锦州市司法局领导和同志们关于矛盾纠纷排查化解工作的先进经验介绍，随后参观学习了锦州市公共法律服务中心、社区矫正监管指挥中心、党员活动中心、司法书屋等并详细了解了关于机关党建及律师党建等工作情况。', '丁桂清一行受到了锦州市司法局领导的高度重视和热情欢迎。锦州市司法局局长李汝杰、副局长李振奎、人民参与和促进法治科科长孙巍陪同考察学习。', '参观过程中，丁桂清表示，“他山之石，可以攻玉”，锦州市的人民调解中心建设起步早、工作经验丰富，尤其是在创新发展新时代“枫桥经验”，实现矛盾纠纷多元化解工作方面为兴城提供了值得学习借鉴的先进经验，此行收获很大、受益匪浅。接下来，兴城市司法局将以“锦州经验”为榜样和指引，结合本地情况，完善相关制度和措施，推动人民调解工作向纵深发展。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>47</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>兴城市司法局赴锦州市考察学习</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019-10-21</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://sfj.hld.gov.cn/xwzx/yaowen/201910/t20191021_853067.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['市矛盾纠纷排查化解等各项工作实现更高水平发展，进一步开阔思维视野，10月18日下午，兴城市司法局', '考察学习组实地参观了锦州市人民调解中心，听取了锦州市司法局领导和同志们关于矛盾纠纷排查化解工作的先进经验介绍，随后参观学习了锦州市公共法律服务中心、社区矫正监管指挥中心、党员活动中心、司法书屋等并详细了解了关于机关党建及律师党建等工作情况。', '热情欢迎。锦州市司法局局长李汝杰、副局长李振奎、人民参与和促进法治科科长孙巍陪同考察学习。', '锦州市的人民调解中心建设起步早、工作经验丰富，尤其是在创新发展新时代“枫桥经验”，实现矛盾纠纷多元化解工作方面为', '将以“锦州经验”为榜样和指引，结合本地情况，完善相关制度和措施，推动人民调解工作向纵深发展。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>47</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>兴城市委召开第次常委会</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019-10-11</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/zwyw/201910/t20191011_851421.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['会议听取了“不忘初心、牢记使命”专项整治工作推进情况汇报。就做好下一步工作，朱德义指出，“不忘初心、牢记使命”专项整治工作不是额外工作，而是分内职责；既是上级要求，更是群众期盼；要用中央标准解决兴城问题，做到全覆盖。他要求，要狠抓工作创新，因地制宜，改革创新。要组织安排三个层次的培训班到先进地区考察学习先进理念和经验做法，重点解决领导干部本领恐慌问题，最终达到推动各项工作不断创新的目的。要狠抓重点难点，围绕突出问题，把狠抓重点、突出难点、打造亮点作为工作重心，结合党建一局一品创建工作，举全市之力集中攻坚。要狠抓成果转化，把专项整治和主题教育有机结合，在学习中找思路、找方法、找项目、找差距，在整治中转观念、重履职、改作风、提效能，加快推动兴城经济社会发展。', '会议研究审议了高铁兴城西客站“地标”方案。本次方案共48041人参与投票，赞成方案一“兴盛之城”设计30652人，占总数64%；赞成方案二“兴城之门”设计17389人，占总数36%。经会议研究审议原则采纳第一套方案。朱德义指出，兴城西客站“地标”方案属于公众建筑、公众事件，要提高公共项目的群众参与度、知晓度，要尊重民意。建交集团要严格按照方案设计，抓紧施工，争取早日竣工。', '会议审议并原则通过了软弱涣散村党组织整顿方案。朱德义强调，基层党建是网底工程，不是攻坚战，而是一种长期、常态、长效工程。要强化督察指导，认真履职尽责，确保整顿转化工作取得明显成效。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>47</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>集团领导率队赴锦州考察公共停车场项目</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019-09-16</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.hldcjjt.com/xwzx/jtzx/201909/t20190916_848418.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['9月10日，集团党委副书记、副董事长、总经理王景田率集团考察组到锦州交通发展（集团）有限公司，考察学习公共停车场建设相关工作。锦州交通发展（集团）有限公司党委书记、董事长王琳、副总经理孙晓猛、总经理助理明磊接待了集团考察组，双方进行了热情友好的洽谈。', '在座谈会上，王琳对葫芦岛市建交集团考察组来访表示欢迎。他说，葫锦两市作为兄弟城市，原本就是一家人，两大集团也是在国企改革的大背景下组建并发展起步的市属国企，愿意进行交流与合作，互相学习借鉴。', '会上，考察组听取了锦州交通发展集团的业务开展情况介绍，并重点就公共停车场业务开展过程中存在的停车场资源划入和整合、智慧停车平台建设、收费模式及标准等问题，与锦州交通发展集团进行了深入详细的交流和探讨。', '随后，考察组一行实地考察了锦州“智慧车场管理平台”信息中心、公共区域停车场，对公共停车场车辆管理、缴费记录、收入分析等方面进行了深入了解。', '王景田在座谈和考察交流过程中表示，公共停车场建设既是满足市民出行停车需求，也是创建文明城市、强化城区交通管理的重要内容。此行到锦州交通发展集团考察学习，对公共停车场业务的建设和发展有了全新的认识，对于很多问题也寻求到了解决办法。欢迎随时到建交集团交流考察，希望今后双方在交通领域实现合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>47</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>集团组织基层党支部书记赴大梨树村开展不忘初心牢记使命主题党性教育活动</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.hldcjjt.com/dqgz/gzdt/201907/t20190729_839947.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['集团组织基层党支部书记赴大梨树村开展“不忘初心、牢记使命”主题党性教育活动_葫芦岛市城建交通集团有限公司', '为深入开展“不忘初心、牢记使命”主题教育活动，进一步增强党员的使命感和责任感，7月25日—26日，集团党委委员、纪委书记邱亦文带领20名基层党支部（总支）书记赴丹东凤城市大梨树村，开展党性教育活动。', '为深入开展“不忘初心、牢记使命”主题教育活动，进一步增强党员的使命感和责任感，7月25日—26日，集团', '在大梨树村党群服务活动中心，全体人员观看了毛丰美先进事迹宣传片《丰碑》，参观了毛丰美事迹陈列馆，深入了解了大梨树村发展变迁，体会了毛丰美同志作为优秀基层干部干事创业的艰辛历程。在花果山广场，远眺漫山遍野的果树，眼前又浮现出当年毛丰美同志带领全村老少治理荒山、栽种果树，鸡叫亮天干、头顶烈日干、披星戴月干的壮观劳动场面。在“干”字文化广场，全体人员面对党旗，再一次举起了右手，重温入党誓词。铿锵的誓词，坚定的承诺，让每一位党员的心灵再一次被震撼、洗礼和感动，再次深刻体会了毛丰美同志“苦干、实干、巧干”精神内涵。', '观看了毛丰美先进事迹宣传片《丰碑》，参观了毛丰美事迹陈列馆，深入了解了大梨树村发展变迁，体会了毛丰美同志作为优秀基层干部干事创业的艰辛历程。在花果山广场，远眺漫山遍野的果树，眼前又浮现出当年毛丰美同志带领全村老少治理荒山、栽种果树，鸡叫亮天干、头顶烈日干、披星戴月干的壮观劳动场面。在“干”字文化广场，全体', '观看了毛丰美先进事迹宣传片《丰碑》，参观了毛丰美事迹陈列馆，深入了解了大梨树村发展变迁，体会了毛丰美同志作为优秀基层干部干事创业的艰辛历程。在花果山广场，远眺漫山遍野的果树，眼前又浮现出当年毛丰美同志带领全村老少治理荒山、栽种果树，鸡叫亮天干、头顶烈日干、披星戴月干的壮观劳动场面。在', '面对党旗，再一次举起了右手，重温入党誓词。铿锵的誓词，坚定的承诺，让每一位党员的心灵再一次被震撼、洗礼和感动，再次深刻体会了毛丰美同志“苦干、实干、巧干”精神内涵。', '面对党旗，再一次举起了右手，重温入党誓词。铿锵的誓词，坚定的承诺，让每一位党员的心灵再一次被震撼、洗礼和感动，再次深刻体会了毛丰美同志', '两天的考察学习，大家都被毛丰美同志的先进事迹和崇高精神深深震撼。大家表示，要以毛丰美同志为榜样，进一步提升党性修养，传承忠诚、干净、担当精神，提升市场意识、开拓意识、危机意识、创新意识，明确思路，抢抓机遇，践行“干”字精神，在国企改革发展中做出应有的贡献。', '两天的考察学习，大家都被毛丰美同志的先进事迹和崇高精神深深震撼。大家表示，要以毛丰美同志为榜样，进一步提升党性修养，传承忠诚、干净、担当精神，提升市场意识、开拓意识、危机意识、创新意识，明确思路，抢抓机遇，践行']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>47</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>解读我市推进飞地经济工作情况</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2019-07-16</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/zxft/201908/t20190809_844083.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['主持人：发展“飞地经济”，是市委、市政府以习近平新时代中国特色社会主义思想为指导，贯彻落实“四个着力”“三个推进”的重要举措;是践行新发展理念、推动高质量发展、开展“重强抓”专项行动的重要内容;是繁荣壮大乡镇经济、加快发展县域经济、推进乡村振兴战略的重要抓手。去年9月份全省“飞地经济”现场会召开以来，我市通过强化要素保障、出台激励政策、优化招商模式、建立多样利益分配机制等做法，形成了“飞地经济”发展新局面。今天，我们请到市新能源和创新产业发展中心党组书记、主任，市“飞地经济”工作领导小组办公室主任沈劲松同志，就“飞地经济”有关话题做以访谈。', '答：“飞地经济”是指两个相互独立、经济发展存在落差的行政地区打破原有行政区划限制，通过跨空间的行政管理和经济开发，实现两地资源互补、经济协调发展的一种区域经济合作模式。', '“飞地经济”在推进工业化和招商引资中，可促使缺少发展工业条件的地区把工业和招商引资项目放到行政区域外、具有综合优势的“飞地工业园区”里去，其产生的产值、税收，由园区和引资方按比例分成。同时，还可利用税收分配、政绩考核等一系列科学的利益分享机制，扩大两地合作广度，加深两地合作深度，从而实现互利共赢。', '答：当前，随着区域经济联系的紧密，“飞地经济”模式在区域经济一体化的推动力下得到了更快更好的发展。从我市实践来看，实施“飞地经济”战略，在促进县域产业发展、提升乡镇财力、壮大村集体经济以及推动欠发达地区经济发展等方面可以取得积极效果，已成为推动乡村振兴战略的重要引擎。总的来说，“飞地经济”有四方面作用：', '我市大部分县域乡镇产业基础薄弱，部分乡镇甚至是零基础。发展“飞地经济”，通过合理规划建立园区，优化资源配置，不但使土地、基础设施等资源实现共享，还可以最大限度地发挥产业的聚集功能和规模效应，实现产业向骨干企业集中，企业向园区集中，有效克服企业散、小、多问题，降低项目投入成本和企业运行成本。', '乡镇财政体制不活一直是困扰我市县域经济发展的主要症结之一，大部分乡镇属于农业乡镇，几乎没有税收，即使有少量税收也多源于域内的服务业，行政开支依靠上级划拨。2018年我市实施县乡财政体制改革后，县乡财权和事权明确，实施“分灶吃饭”，县里不再给乡镇兜底，无形中增加了经济发展较弱的乡镇压力。如工业基础薄弱的连山区白马石乡，2018年财政支出核定数268万元，实际支出426万元，缺口158万元。发展“飞地经济”，对提升乡镇财力具有强劲的助推作用，是扩大乡镇财政收入来源的重要途径。', '我市村级集体经济发展不均衡，有经营收入的村子很少。如何壮大村集体经济，一直是我市努力破解的难题。目前，一些地区已经开始试水让村集体参与到发展“飞地经济”中来，如兴城市四家村自建小微企业园，积极引进“飞地”项目，增加了村集体经济收入。各地区通过制定相应奖励政策，鼓励村干部群众、驻村工作队等群体发挥优势，狠抓招商引资，有效调动了大家投身经济建设的积极性。', '招商引资和发展产业，离不开资源、区位、基础设施等资源条件。我市6个县(市)区受自然条件、资源禀赋、区位交通等因素影响，经济发展并不平衡，而“飞地经济”就是欠发达地区经济发展强有力的“助推器”。为加快脱贫步伐，市政府帮助建昌县“借笼养鸡”，专门在葫芦岛经济开发区开辟1500亩的“建昌脱贫攻坚飞地产业园”，前期基础设施投资不需建昌承担，项目达产后产生的税收全部归属建昌。目前，已有7个项目落户该产业园，总投资达7.42亿元，其中5个已投产，总投资3.14亿元。', '答：年初以来，我市认真执行《辽宁省人民政府关于支持“飞地经济”发展的实施意见》和《葫芦岛市加快推进“飞地经济”发展工作方案》，把发展“飞地经济”摆在市政府工作的重要位置，纳入“重强抓”专项行动，强化组织领导，狠抓工作落实，取得初步成效。', '答：在年初的全市“两会”上，《政府工作报告》提出“飞地经济”年度任务：市本级建设10万平方米标准化厂房，各县(市)区不少于5万平方米;新增“飞地”项目100个以上，完成固定资产投资14亿元以上，每个乡镇至少引进1个项目。为确保指标完成，主要开展了以下几方面工作：', '市委、市政府领导高度重视“飞地经济”，多次召开会议、实地调研，形成强大合力抓落实，为发展“飞地经济”提供坚强组织保障。3月14日，市委书记、市人大常委会主任王健到连山区调研“飞地经济”，对有关工作做出指示。市长王力威先后10余次主持召开市政府常务会议、党组会议和专题办公会议，着力推进“飞地经济”加快发展。1月2日、2月18日、3月27日和5月21日，王力威先后4次主持召开全市推进“飞地经济”工作会议、工作调度会议和工作推进会议;4月4日和4月28日，先后两次到有关县(市)区实地调研，协调解决有关困难和问题。副市长潘东波、马文志也多次召开会议、现场调研，对发展“飞地经济”进行部署。目前，各县(市)区均设置了“飞地”专门机构，配备专人负责日常工作。市飞地办已建立全市所有从事“飞地”工作人员花名册，其中各地区近70人。', '各县(市)区根据每块“飞地”所在开发区的产业定位，逐个明确了“飞地”的主导产业和招商方向。我市还把建设标准化厂房作为吸引投资、引进项目的着力点和突破口，切实做到“项目未至、厂房先建”，以展示形象、体现诚意。', '市投资集团在“建昌脱贫攻坚飞地产业园”建设的标准化厂房于2月底开工，预计6月底前完工。各县(市)区也通过租赁、引进工业地产商、盘活闲置厂房等方式启动厂房建设，正在加紧施工。目前，全市标准化厂房总占地面积达830余亩，总建筑面积约37.9万平方米。', '去年11月和今年1月，市飞地办两次组织各地区“飞地”机构人员赴喀左县，考察学习“飞地经济”先进经验。3月7日—9日，市招商部门组织部分县(市)区人员到南京开展招商培训考察活动，为在江苏招商搭建平台。', '去年12月和今年2月、4月，市飞地办先后三次到各地区调研“飞地经济”工作，探讨工作中遇到的有关问题，共同研究解决之策。几个月来，市飞地办多次与省发改委地区处沟通，就省《实施意见》及政策支持方向、考核奖励办法等问题进行探讨，筛选出6个园区申请纳入省“飞地经济”政策支持和考评奖励范围。', '今年，我市把发展“飞地经济”列入“重强抓”专项行动重要内容，以督查考核倒逼责任落实、任务落地、指标完成。市飞地办成立6个调度组，分别对应各县(市)区，每周调度一次，每月形成总结，每季度召开推进会议。同时，制定主要任务评价表，已在4月初通报一季度考核结果。市飞地办与市督考办还共同起草了《葫芦岛市“飞地经济”工作考核办法》，近期将报市政府下发。为及时掌握工作进展情况，至6月中旬，市飞地办已策划出版13期《飞地经济工作简报》。市长王力威先后4次做出批示，对简报工作给予肯定。', '3月16日，新华社刊发《辽宁力推“飞地经济”助区域均衡发展》一文，特别提到我市为建昌专设“脱贫攻坚飞地产业园”。3月19日—20日，省政府发展研究中心来葫调研，对我市“借笼养鸡”、“筑巢引凤”、政策扶持、委托招商等做法给予充分肯定。5月9日，省政府督查室就“重强抓”专项行动中涉及“飞地经济”内容到市飞地办督查，对我市工作给予较高评价。6月3日，辽宁日报在一版“倒头题”位置和三版近一整版重点报道了我市“飞地经济”工作。', '按照一军省长提出的“突出地域性，打好特色牌”工作要求，我市立足区位条件、发展基础、资源禀赋、特色优势，积极创新思维理念，形成了“借笼养鸡”、“筑巢引凤”、村屯自建、委托招商、做强“总部”、吸引外资等十种工作模式，推进“飞地经济”加快发展。主要包括：', '一是实施无偿帮扶模式，助推建昌脱贫攻坚提质增速;二是实施厂房先建模式，助力企业轻装上阵谋发展;三是实施京津冀产业转移模式，打造关外“飞地经济”桥头堡;四是实施外资企业集聚模式，拓展对外开放空间;五是实施村屯自建模式，助力小微企业壮大集体经济;六是实施委托招商模式，有效提升招商引资质量;七是实施做强总部模式，形成互利共赢发展格局;八是实施盘活资产模式，不断扩展“飞地”发展平台;九是实施多元化筹资模式，减轻政府财政负担;十是实施乡镇“互飞”模式，实现利益链共建共享。', '为全面调动各县(市)区和乡镇发展“飞地经济”的积极性、主动性，市飞地办协调市财政、工信、招商、统计、营商等部门起草了9个支持“飞地经济”发展的配套政策，其中6个已正式下发。按照这些政策，市级财政每年安排1亿元专项资金，通过贴息补助、奖励项目、扶持产业、建立基金等方式支持“飞地经济”。其中，每年安排1000万元专项扶持资金，对“飞地”招商融资困难大的重点工业企业流动资金贷款进行贴息补助。每年安排2000万元专项资金，对落地的“飞地”项目进行奖励。每年安排2000万元，对在“飞地产业园”内投资建设工业地产的企业进行扶持。投入5000万元建立“飞地经济”发展基金，支持“飞地”产业发展。此外，金融机构每年投入总额度20亿元的战略性支持资金，专门支持“飞地经济”发展。市飞地办汇总这些政策文件后，形成《葫芦岛市支持“飞地经济”发展奖励政策》， 6月3日以葫政办发〔2019〕56号形式正式印发实施。', '市金融发展局积极落实金融机构20亿元战略性支持资金政策，组织中行和市投资集团开展对接座谈，拟为标准化厂房建设项目提供2.3亿元信贷资金。申贷资料已通过预准入程序，正接受进一步的项目审核。各县(市)区也出台了相关扶持政策。', '答：当前，我市“飞地经济”发展势头良好，各县(市)区及乡镇招商热情不减。为确保完成年度目标，我市将进一步强化要素保障，完善政策措施，严格督办考核，为“飞地经济”发展提供有力保障。', '(一)进一步树立全局观念，转变发展思路，持续推进“飞地经济”加快发展。我市将继续把发展“飞地经济”作为振兴葫芦岛的关键举措，与改革开放、乡村振兴、脱贫攻坚等各项工作紧密结合，狠抓落实，常抓不懈，用“飞地经济”壮大乡镇产业规模，推进三次产业融合发展，进而形成“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”的发展局面。', '(二)进一步抓好重点工作，强化要素保障，不断激活乡镇发展活力。一是依据时限要求，认真完成招商引资、项目服务等各项节点目标，确保工作落实落地。二是加快标准化厂房建设，坚持边建设、边招商，力争实现厂房建成，项目进驻。三是依照项目落地情况，及时调整“飞地”地块面积，确保总体推进不受影响。四是继续以简报为载体，督促各县(市)区扎实做好工作，使其成为推动“飞地经济”发展的一个重要抓手和有效途径。', '(三)进一步推进政策落实，壮大乡镇财力，为推动乡村振兴提供持续保障。在前期出台各项支持“飞地经济”发展的政策基础上，我市将逐步完善政策体系，不断优化发展环境，确保政策真正落地落实。同时，与乡镇加强对接，落实资金补助、利益分成等保障措施，激发乡镇开展“飞地”招商的积极性。', '通过大力发展“飞地经济”，我市全力促进一批大项目、好项目落地，以达到“引来一个项目，带来一个企业;引来一个企业，带动一个产业”的效果，切实解决乡镇有资源无产业、有项目无土地、有期盼无干劲的问题，进而推进乡镇经济创新发展、转型发展、优质发展，真正让“飞地经济”成为加快实现高质量发展的重要引擎。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>47</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>市卫生健康委赴朝阳县考察学习健康扶贫先进工作经验</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019-07-25</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://wsjk.hld.gov.cn/xwzx/gzdt/201907/t20190729_839550.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['7月23日，委党组书记、主任刘志伟带队赴朝阳县考察学习健康扶贫工作。委党组副书记王克非，有关县（市）区卫生健康局长及健康扶贫工作负责任人，委机关有关科室负责人，建昌县人民医院有关科室负责人参加考察。', '上午，考察团一行在朝阳县中心医院，本着虚心学习、借鉴经验的诚恳态度，与朝阳市卫生健康委及朝阳县卫生健康局、县中心医院领导进行了面对面的咨询和交流，现场听取了朝阳县卫生健康局、县中心医院负责人健康扶贫工作及大病专项救治情况介绍，现场考察了该院一站式”服务及绿色通道建设情况，大病专项救治台账管理情况。朝阳市卫生健康委党组书记、主任张庆贺，朝阳县人民政府副县长张晓辉陪同考察。', '下午，在朝阳县人民政府副县长张晓辉、朝阳市卫生健康委副主任王立民陪同下，刘志伟带领考察团到朝阳县乌兰和硕乡考察学习，先后到乡卫生院、黄道营子村卫生室及入户实地考察，主要学习了解建档立卡贫困户慢病签约工作。', '考察团成员纷纷表示，要学习借鉴朝阳县健康扶贫工作的好做法、好经验，将考察所学快速落实，弥补短板，确保年底前全面完成健康扶贫各项工作任务。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>47</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>雷家店乡红薯粉坚守传统工艺传承舌尖美味</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020-07-22</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/xzdt/202007/t20200722_990416.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['随着时代进步，食品加工大多已实现机械化，而雷家店乡骆杖子村的粉条制作却仍坚守手工制粉的传统工艺，在传承舌尖美味的同时，更使传统手工粉化身为致富“大明星”。', '来到“洪源名珠—兄弟”粉厂，呈现在眼前的是一片繁忙景象。记者看到，红薯粉手工艺每一道工序都有着严格的技术要求，漏丝前调粉以一次性调好效果最佳，粉团温度控制在30至42摄氏度。漏丝时动作要轻快，把控好粉浆粘稠度，粉浆稀了，会出现断条现象，粉浆干了，则会粗细不均。掌瓢师傅更是要把控好速度，不快不慢地让丝条沉入锅底再浮出水面，另一位师傅默契配合，引粉条出锅，动作要娴熟，不能让浮起的粉条碰着刚漏下的丝条，否则粉条会被弄断或弄乱。', '为了保证红薯粉丝的口感，“洪源名珠—兄弟”粉厂坚持纯手工制作，创始人郑洪文说:“只有 真正的纯手工制作，才能让粉丝柔软又筋道，久煮不烂、夹而不断，口感达到最佳。', '食品行业，原材料的选择可谓至关重要。为此，郑洪文曾多次赴外地考察学习，引进优良红薯品种“脱毒”，采用农家有机肥，流转土地进行集中连片种植，严把原材料质量关。', '手工红薯粉晶莹剔透、其味绵绵，红薯粉中的碳水化合物、膳食纤维等，具有增强食欲、滋润肌肤的功效，是男女老少火锅美食中必不可少的美味。目前“洪源名珠—兄弟”粉厂的红薯粉大批量供应至全国多地区的彤德莱火锅连锁店和商业超市，成为了市场上的“明星产品”。', '为进一步提高红薯粉销量，打造品牌，下一步，“洪源名珠—兄弟”粉厂将继续扩大红薯种植规模，并通过“互联网+”模式在线上大力推广，依托传统手工艺制粉的优势，使手工红薯粉丝更好地走向全国各地，传承传统工艺的舌尖美味。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>47</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>市市场监管局赴锦州考察学习互联网明厨亮灶工作</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020-05-22</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://scjg.hld.gov.cn/zx/gzdt/202005/t20200522_965154.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['为贯彻落实《关于落实主体责任强化校园食品安全管理的指导意见》要求，进一步推动学校及幼儿园、供餐单位落实食品安全主体责任，加快构建长效机制，', '明厨亮灶”工程资金投入状况、系统功能拓展、对监管发挥的作用、工作推进中遇到的困难、改进方向等进行交流讨论。随后，实地参观了“食品安全远程监控中心平台”，市县两级建立并使用了监管平台。系统了解了锦州市“互联网', '明厨亮灶”信息化建设思路、远程监控中心运行机制以及利用网格化监管平台实现信息化监管和传统执法的无缝对接等具体工作做法。', '通过本次的考察学习，葫芦岛市市场监管局收益颇丰，将进一步学习兄弟市的先进经验，对标一流，补齐短板，建立符合我市实际“互联网', '明厨亮灶”及溯源系统，拓展思维，创新方法，积极探索方便市场监管的新模块、新功能，逐步实现“互联网', '明厨亮灶”智慧全域监管，保障全市人民群众吃得放心、吃得安心，守护“舌尖上的安全”。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>47</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>绥中县人民政府关于市政协六届二次会关于建议妥善解决城内车多路窄停车难等问题</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020-05-09</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/rddbzxwy/xzxjydf/202104/t20210412_1035773.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['绥中县人民政府关于市政协六届二次会《关于建议妥善解决城内车多，路窄，停车难等问题的提案》议第21号提案的答复', '我县对您的提案非常重视，对应您的提案内容，多次召开会议研究车辆占道停车难问题的解决方案，尤其是去凌海、兴城考察学习后，结合兄弟城市的先进经验，制定了市容交通整治方案。加强了对违章停车的管理力度，同时也对商贩占道经营，占据停车位经营的问题进行了集中整治。', '2．规范了西关菜市场，规定商贩不得占道经营，保证车辆通行顺畅。下一步，我县将进一步安排部署，已选址建立新的菜市场，彻底取缔西关露天菜市场。', '4．取缔了实验小学附近、站北市场临时商户的经营行为。保证车辆通行顺畅，同时保证有足够的停车位供机动车停放。', '5．取缔了肖家菜市场西侧商贩占道经营行为，同时协调市政部门、城郊乡肖家村对该路段重新铺设路面，保证车辆通行有序。为县医院开辟出了一条生命通道，群众拍手称快。', '6．针对 “僵尸车”、二手车租赁占道等情况，进行了专项整治，通过做思想工作，大部分车主已将车辆移走，保证停车位有效利用。', '7．行政执法局对县城规划区内道路两侧业主私设的禁停标识牌等物品多次进行了集中整治，同时也对商户进行了批评与教育。', '8．在交通整治方面，县执法局和县公安局将按照上海同济大学城市交通组织规划专家小组的方案要求，合理规划设计机动车、非机动车停车位。提升绥中县中心片区交通和综合环境，梳理绥中县中心片区道路功能及内外交通组织。我县将停车管理统一交由县执法局机动大队管理，确保整治工作常态化，着力解决我局权限内乱停车问题。', '今后我县将继续督促各部门按照各自的职责，加大宣传与整治力度，针对机动车乱停乱放和占用停车位的现象形成常态化管理，确保车辆通行顺畅，停车有序。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>47</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>互学互帮共促发展葫芦岛市司法局赴辽阳市考察学习</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2019-06-06</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://sfj.hld.gov.cn/xwzx/yaowen/201906/t20190606_830645.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['日上午，葫芦岛市司法局由魏博副局长率队一行六人到辽阳市辽阳县司法局考察学习人民调解工作先进经验。', '考察学习组一行受到了辽阳县委及市县两级司法局的高度重视和热情欢迎。辽阳县委副书记孙柏野、辽阳市司法局副局长吕中华、人民参与和促进法制科科长杨扬、辽阳县司法局局长吴栋、副局长王丽陪同考察学习。', '考察学习组首先观看了辽阳县人民调解工作专题汇报片。随后，吴栋局长详细介绍了“人民调解日”活动的开展情况、取得的社会效果以及工作中的经验体会。', '考察学习期间，两市还就公共法律服务体系建设、社区矫正等司法行政相关工作进行了深入交流探讨。', '魏博副局长表示，深刻了解了辽阳县人民调解工作，尤其是“人民调解日”活动坚持以人民为中心，构建矛盾纠纷多元化解的工作格局，新的社会治理模式。接下来，葫芦岛市各级司法行政机关将以“辽阳经验”为榜样和指引，结合本地情况，研究出台相关制度和措施，推动人民调解工作深入开展。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>47</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社细化重点改革任务推进重点难点工作</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2019-07-01</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968648.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['近日，葫芦岛市供销社围绕深化供销合作社综合改革召开座谈会，进一步细化改革任务，推进重点难点工作开展。', '会议研究综合改革《重点改革任务工作要点及任务分解表》、解决供销社空白区社—龙港区供销社综合改革问题、确定外地考察学习等内容。', '一是综合改革《重点改革任务工作要点及任务分解表》。研究了《全市供销社网销服务体系建设工作要点》等9个工作要点。党委书记、理事会主任侯驰要求，进一步对《重点改革任务及任务分解表》结构调整和细节调整，在充分征求各县（市）区供销社意见基础上，将于近日召开综合改革推进会，进一步明确任务。', '二是解决供销社空白区社龙港区供销合作社综合改革问题。拟与龙港区区委、区政府积极沟通，确定龙港区深化供销合作社综合改革负责领导及具体工作部门，并将 “新建、改造基层社及农村综合服务社”作为龙港区工作重点。', '三是确定外地考察学习。拟围绕“农村综合服务社、农产品流通体系建设、电子商务”三个方面赴先进地区和典型地区考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>47</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>葫芦岛市绥中县供销社赴正定县供销社考察学习</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2019-06-05</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xczx/202005/t20200529_970151.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['近日，葫芦岛市绥中县供销社主任常立民带领相关业务科室人员赴河北省石家庄市正定县考察学习。', '考察组全面总结正定县社先进经验。一是发挥传统日用消费品网络优势和盘活社有资产，推动新供销新超市“瑞天”品牌，改造新建基层供销社成为瑞天超市直营店，吸引社会资源加盟瑞天超市，“建龙头、树品牌、构网络”让瑞天家喻户晓，构建起便捷高效为农服务新体系。超市统一管理，统一配送，从店面内外规范服务标准和管理制度，商品统购统销，保证产品质量安全，为今后的发展打好基础。二是依托瑞天超市线下实体店，发展农村电商，实现“线下展示体验，线上网络营销的超市+电商互动销售模式，通过微信、网上商城等网络服务新模式，宣传供销社新形象。三是拓展服务功能，构建服务平台。建设综合服务中心，与村两委合作建设集日用品、电子商务，养老旅游等一站式、菜单式综合服务；农超对接，打通农产品进城销售新渠道联合专业合作社成立联合社，优势互补，资源共享，更好地应对市场竞争，全力打造农产品品牌更好地管理发展；建设土地流转服务站和金融互助社，帮助农户把剩余土地集中进行现代化规模种植，通过金融互助社解决种养殖资金短缺的问题，更好促进农业现代化的实现。', '考察组全面对比找差距补短板。正定县供销社剩余资产较多，在原有资产基础上，整合资源发挥原有网络优势，以县公司租金为启动资金改造基层社，依托日用消费品销售成立瑞天连锁加盟超市盘活和利用剩余资产，在综合改革工作上走在了前沿。', '通过实地考察和当地经验介绍，对正定县供销社综合改革的情况有了一定了解，绥中县供销社将吸收其成功做法，结合绥中县供销社实际，推进综合改革工作。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>47</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>葫芦岛市绥中县供销社赴凌海市供销社学习考察</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2019-05-09</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xczx/202005/t20200529_970143.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['近日，葫芦岛市绥中县供销社主任常立民带领相关业务科室人员赴凌海市供销社考察。此次考察是常立民主任新任职后的第一次考察学习，旨在近距离学习发展先进社的典型经验和做法，取长补短，争取早日适应新职务带来的新任务，并促进绥中县供销社更好更快发展进步。', '考察学习中，考察组成员实地参观了凌海市供销社具有典型代表意义的先进基层社、专业社和社有产业，并参加座谈会听取了凌海市供销社的改革发展情况。', '考察学习后，常主任对工作提出要求，要求相关科室要尽快梳理总结全系统基本情况和工作开展情况，党委将召开专题会议，充分借鉴凌海市供销社成功经验和做法，研究全系统改革发展新思路、明确工作目标任务、制定科学有效的工作措施，进一步推进绥中县供销社综合改革和各项工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>47</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>区考察团到喀左县学习创城工作经验</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2019-05-06</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/qndt/201904/t20190430_826619.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['4月19日，区委宣传部、区市场监督管理局、区文明办、区住建局、各街道等相关部门负责人组成考察团就创城工作赴朝阳喀左县考察学习。', '区考察团一行先后到天佑陶艺有限责任公司、龙源湖休闲旅游度假区、利州农贸市场进行考察参观。每到一处，考察团成员都详细听取各处相关情况介绍。在天佑陶艺有限责任公司，考察团成员了解了喀左县利用当地紫砂资源、发掘创新传统紫砂技艺、打造喀左文化产业精品的发展之路；在龙源湖休闲旅游度假区和利州农贸市场，考察团成员详细了解了喀左县在环境综合整治、城市建设和管理、市场整治等相关工作情况。', '在随后召开的座谈会上，喀左县相关负责人分别介绍了喀左县基本情况及创城工作的经验做法。喀左县全称喀喇沁左翼蒙古族自治县，总人口43万。这些年来，喀左县紧紧围绕“工业强县、项目支撑、城市牵动、体制创新”的发展战略，坚持全面协调可持续发展，统筹推进经济建设、政治建设、文化建设、社会建设以及生态文明建设“五位一体”的总体布局，形成了经济发展、文化繁荣、社会稳定、民族团结、人民安居乐业的良好局面。喀左县先后获得全国文明县城、国家卫生县城、国家园林县城、全国民族团结进步县等称号，是全国首批全域旅游创建工作示范单位。2008年，喀左县正式启动了创建省级文明城工作，县委、县政府确定以创建文明城、卫生城、园林城、旅游城、环保模范城为主的“五城”连创工作格局，整合各种创建资源，有计划、有重点梯次推进各类创建活动，发挥文明创建的整体效能，为创建文明城奠定了坚实的基础。2009年9月，喀左县通过了全省文明县城验收，2010年1月被省委、省政府命名表彰为首批全省文明县城。2011年跨入全国文明县城行列，自2015年后，通过复查，一直保留荣誉。', '考察中，考察团成员对朝阳市喀左县创城工作给予了高度赞扬，喀左县创城工作思路清晰、特色鲜明、成效显著，有很多好经验好做法值得连山学习借鉴。这次考察学习让连山区的领导干部拓宽了视野、打开了思路、增长了见识，考察团要把这种好经验、好做法带回去，融入连山区的创城工作和实际发展中，把连山区建设得更加美丽，希望今后双方进一步加强沟通交流，互相借鉴经验，促进两地相互发展。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>47</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>徐大堡镇到外地学习考察</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019-06-26</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/xzdt/201906/t20190626_835251.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['为了更好地开展人居环境整治，有力助推乡村振兴和全域经济发展，兴城市徐大堡镇于6月22日至23日，由乡党委书记王德鑫、镇长田坛带队，带领镇村两级干部、小组长、部分村民代表共计92人。前往抚顺市新宾县考察学习农村生活垃圾分类和资源化利用;前往盘锦市大洼县参加考察学习“稻田认养农业”和田园综合体。', '在抚顺市新宾县上夹河镇，上夹河镇党委书记介绍了当地农村生活垃圾治理办法，即可腐烂的堆肥沤粪，可燃烧的分解燃烧，可卖的积攒变卖，建筑垃圾填坑垫道，其他垃圾暂存，简称“五指分类法”。', '参观考察的人员都感觉受益匪浅，决心一定要把自己家乡的环境整治好，努力增加农民收入，让百姓过上幸福、舒适的生活。（田素学）']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>47</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>市新能源和创新产业发展中心一季度重强抓专项行动进展情况</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019-03-15</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/zwgk/fdzdgknr/zdly/juecengzhixing/zhixingqingkuang/201903/t20190321_822705.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['市新创中心主要承担“重点工作抓落实专项行动”中第73项和89项工作的落实。根据《葫芦岛市人民政府办公室关于调度一季度市政府“重实干、强执行、抓落实”专项行动进展情况的通知》(葫政办发〔2019〕26号)要求，市新创中心开展如下重点工作。', '年初，我中心依据《辽宁省与江苏省对口合作实施方案》，协调各地区及有关单位共同谋划2019年合作内容，制定《葫芦岛对口常州合作2019年工作计划》，明确重点推进工作内容。按照《分工方案》，我市与常州主要任务分工为推动创业创新合作。1月份，我中心与市科技局研究制定《葫芦岛市与常州市对口合作2019年“双创”工作计划》，上报省发改委，为制定两省对口合作工作计划奠定基础。', '2月27日，省发改委向各市政府发出《辽苏对口合作2019年度工作计划征求意见》，我中心会同相关部门和地区，对涉及我市工作计划部分征求意见，并反馈至省发改委。', '1月3日，为深入贯彻落实全省市长座谈会精神，我中心制定《葫芦岛市贯彻落实全省市长座谈会精神深化与常州对口合作任务分解方案》。', '2月22日，围绕省“重强抓”专项任务第81项及市“重强抓”专项任务第73项内容，制定我市对口江苏工作专项行动绩效考核指标，并与省发改委沟通衔接，得到确认。', '3月5日，对《辽宁沿海经济带年攻坚计划2019年重点任务》中涉及对口常州工作进行目标任务分解。', '3月11日，为承接省“重强抓”专项行动任务，落实好我市对口常州工作，制定《葫芦岛市对口常州专项行动工作方案》，同时对每项任务细化分解，形成《葫芦岛对口常州“五个一”实施方案》。', '年初以来，市飞地办认真执行《辽宁省人民政府关于支持“飞地经济”发展的实施意见》，筛选出6个园区申请纳入省“飞地经济”政策支持和考评奖励范围，推进我市“飞地经济”加快发展。至3月初，全市规划“飞地经济”区域面积4.546平方公里，引进“飞地”项目29个，总投资45.11亿元。目前，20个项目已开工建设，其中9个已投产。', '1月2日和2月18日，市长王力威分别主持召开全市推进“飞地经济”工作会议和“飞地经济”工作调度会，对有关工作进行部署。2月28日，市委常委、副市长潘东波和副市长马文志到“建昌脱贫攻坚飞地产业园”调研，对发展“飞地经济”提出要求。各县(市)区均参照市工作领导小组设置组织机构，设立“飞地办”，确保工作扎实推进。', '按照《葫芦岛市加快推进“飞地经济”发展工作方案》，各县(市)区进一步明确每块“飞地”的产业定位、主导产业和招商重点，加快标准化厂房建设。由市投资集团在葫芦岛经济开发区“建昌脱贫攻坚飞地产业园”建设的标房已于2月底开工，5月底前完工;各县(市)区的标房建设也已启动，争取6月底前完工，并力争实现厂房建成，项目进驻。', '为激发“飞地经济”发展活力，调动各县(市)区和乡镇的积极性和工作热情，市飞地办协调市财政、工信、招商、统计、营商等市直部门起草了10个支持“飞地经济”发展的配套政策，其中6个已正式出台。各地区纷纷奔赴全国各地开展“飞地”招商，两个多月来总招商次数达120余次。', '1月16日，市飞地办拜访省发改委地区处处长李勇，就《辽宁省人民政府关于支持“飞地经济”发展的实施意见》以及“飞地”园区的设立、项目的认定等问题进行交流。并与地区处加强沟通，指导各县(市)区合理设立“飞地园区”，及时调整园区面积，以保证园区符合省考核要求。1月17日，组织各地区主管副县(市)区长及“飞地”机构负责人，赴喀左考察学习“飞地经济”工作经验。2月21日和26日，深入各地区调研“飞地经济”工作，交流、探讨问题解决之策。3月7日—9日，市招商引资和项目建设服务中心组织部分县(市)区人员到南京开展招商培训考察活动。', '市飞地办制定了《葫芦岛市发展乡镇“飞地经济”督查考核办法》，成立6个“飞地经济”工作调度组，分别对应各地区，每周调度一次，每月形成总结。2月下旬以来，市飞地办多次与各县(市)区沟通、交流，完善主要任务评价表，加强任务考核。为督促各县(市)区做实做好工作，市飞地办已出版6期《“飞地经济”工作简报》，主要刊登工作动态、经验做法、项目进展情况。市长王力威已两次做出批示，对简报工作给予充分肯定。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>47</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>区考察团到喀左县考察飞地经济工作</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019-03-06</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/qndt/201903/t20190306_821297.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['2月21日，区长鲁秀红带领全区各乡镇、街道负责人赴朝阳市喀左县考察学习“飞地经济”及城市建设工作。', '考察团一行先后视察了龙源湖景区、十公里凌河旅游景观廊道；在利州园区印刷包装产业基地视察了北京通美晶体技术有限公司；视察了北京博宇半导体科技有限公司、东晟高新碳材有限公司石墨电极项目和喀左县“飞地经济”核心区。', '每到一处，考察团一行都详细听取各项目“飞地经济”落实开展和工业运行情况。喀左县把发展“飞地经济”作为实施乡村振兴战略的主要抓手，作为发展县域经济的有利引擎，形成“飞地经济”合力，打造“飞地经济”平台，建立“飞地经济”激励机制，狠抓“飞地经济”考核，举全县之力，打造了“飞地经济”核心区。核心区分为南北两区，主导产业分别定位纸塑包装业和装备制造业。目前，两个核心区已引进项目18个，开工建设12个。伴随着“飞地经济”的快速发展，2018年9月13日，全省推进“飞地经济”工作现场会在喀左县召开，“喀左经验”也在全省全面推广。', '座谈会上鲁秀红说，朝阳市喀左县“飞地经济”发展思路清晰、特色鲜明、成效显著，走在全省前列，树立了标杆，探索出了一些可复制、可推广的好经验、好做法。鲁秀红希望考察成员要认真学习借鉴先进经验，学习喀左县委、县政府在全力推进县域经济发展中，将招商引资作为一种理念深深根植于全县干部头脑中和行动上。学习其全力招商、紧盯项目，一张蓝图一抓到底的精准和干劲儿。学习其竭诚服务，创优环境，为落地项目高效实施打造优质环境的“保姆式”服务。要通过考察学习，充分认识发展“飞地经济”的重要意义，推动招商引资向更大规模、更宽领域、更高水平迈进。鲁秀红还真诚邀请喀左县各界人士到连山做客，加强两地沟通交流，促进两地发展。', '考察期间，鲁秀红一行还到利州工业园区的天佑陶艺有限责任公司、御城紫陶制品有限公司实地参观，了解喀左县利用当地紫砂资源，发掘创新传统紫砂技艺，打造喀左文化产业精品的发展之路。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>47</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>葫芦岛市工业和信息化委员会部门预算年</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-01-22</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://gxj.hld.gov.cn/zwgk/xxgkml/fdzdgknr/czyjs/bmysgk/201901/t20190122_818585.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['（一）组织贯彻国家和省新型工业化发展战略和政策，协调解决新型工业化进程中的有关问题；拟订工业、信息化的发展规划并组织实施；推进产业结构战略性调整和优化升级，推进信息化和工业化融合，推进', '（二）制定并组织实施工业行业规划、计划和产业政策，提出优化产业布局和结构调整的政策建议，起草相关地方性规范性文件，负责工业和信息化行业管理工作，拟定并组织实施工业八大产业发展政策措施，指导行业质量管理工作。', '（三）分析工业经济发展趋势，提出调节政策建议和调控目标；负责日常工业经济的调控；监测分析工业运行态势，发布相关信息，进行预测预警和信息引导；协调解决工业运行发展中的有关问题；负责工业应急管理、产业安全、国防动员有关工作，联络、协调驻葫中省直企业。', '（四）负责提出工业和信息化固定资产投资规模和方向(含利用外资和境外投资)、市级财政性建设资金安排的意见；按规定权限，管理国家规划内和年度计划规模内固定资产投资项目。', '（五）拟订高技术产业中涉及生物医药、新材料、信息产业等的规划、政策和标准并组织实施；指导行业技术创新和技术进步；组织实施科技重大项目，推进相关科研成果产业化，推动软件业、信息服务业和新兴产业发展。', '&lt;中国制造2025&gt;葫芦岛行动计划》的组织实施与统筹协调工作，提出推进制造强市的工作措施和政策建议。', '（七）承担振兴装备制造业组织协调的责任；组织拟订重大技术装备发展和自主创新规划、政策，依托重点工程建设协调有关重大专项的实施；推进重大技术装备国产化，指导引进重大技术装备的消化创新。', '（八）拟订并组织实施工业和信息化的能源节约和资源综合利用、清洁生产促进政策；参与拟订能源节约和资源综合利用、清洁生产促进规划；组织协调相关重大示范工程，负责推广新能源汽车。', '（九）依法行使全市电力行政管理职责，协调电力运营中的有关问题，培育电力市场；参与制定交通产业发展政策。', '（十）统筹推进全市信息化工作，协调信息化建设中的重大问题；指导协调通信运营业发展，促进电信、广播电视和计算机网络融合；指导协调电子政务发展，推动跨行业、跨部门的互联互通和重要信息资源的开发利用、共享。', '（十一）统一管理无线电频谱资源，依法监督管理无线电台(站)；协调处理军地间无线电管理相关事宜；协调处理电磁干扰事宜，维护空中电波秩序，依法组织实施无线电管制。', '（十二）负责指导全市工业领域信息安全和全市信息安全保障体系建设，指导监督政府部门、重点行业的重要信息系统与基础信息网络（除公共电信网）的安全保障工作，参与处理网络与信息安全的重大事件。', '发展工作，拟定发展国防科技工业规划和政策，推进产业布局调整和重组，负责推动军工核心能力建设和计量、质量等工作，按分工负责国防科技成果的保护和推广工作，负责军工电子行业管理，负责军队与地方武器装备科研生产重大项目的组织协调和军工单位与地方之间的服务协调工作，推进军转民、民参军有关协调工作，负责民爆器材行业管理和核事故应急相关工作。', '（十四）负责中小微企业、民营经济发展的宏观指导和综合协调，拟定并组织实施发展规划和相关政策措施，检测分析发展动态，推动建立完善服务体系，协调解决有关重大问题。', '（十六）配合有关部门做好工业招商引资工作，参与工业重大招商引资活动，协调工业招商引资项目的跟踪落实和相关指导、协调、服务工作。', '2019年部门预算编制范围的二级预算单位包括：葫芦岛市工业和信息化委员会机关本级。', '按照综合预算的原则，葫芦岛市工业和信息化委员会所有收入和支出均纳入部门预算管理。收入均为一般公共预算财政拨款收入；支出包括：社会保障和就业支出、医疗卫生与计划生育支出、资源勘探信息等支出、住房保障支出。', '“三公”经费预算数比上年减少11.48万元，其中公务用车运行维护费减少10.7万元，公务接待费减少0.78万元。减少原因为事业单位改革，部门二级预算单位减少的4个。但葫芦岛市工业和信息化委员会本级“三公”经费预算数与上年相比无变化，均为7.9万元。', '2.本年燃油和保险费政府采购项目由原来的市财政部门统一采购、直接支付改为市直各部门采购、授权支付，本单位燃油和保险费预算5.4万元，根据《转发关于公布2018-2019年度辽宁省政府集中采购目录及采购限额标准的通知》（葫财采[2017]391号）文件规定，不纳入政府采购预算范围，由部门采购。', '2019年，葫芦岛市工业和信息化委员会无固定资产购置预算。共有车辆5辆，其中：一般公务用车2辆，收回3辆；单位价值50万元以上通用设备0台（套），单价100万元以上专用设备0台（套）。', '企业做大做强；促进我市泳装特色产业经济向高质量发展阶段迈进，打造世界泳装行业标准和风向标。', '指标1：数量指标：工作经费30万元，其中赴外地考察学习费用9万元，深入县区调研、服务、指导工作经费6万元，聘请专家评审费8万元，政策业务培训费7万元。', '指标1：数量指标：对首次进入规模以上（营业收入2000万元以上）的工业企业每户给予一次性奖励10万元。经工信委审核预计2018年符合条件的升规企业40户，需发放奖励资金400万元。', '4.行政事业性收费收入：指依据法律、行政法规、国务院有关规定、国务院财政部门会同价格主管部门共同发布的规章或者规定，省、自治区、直辖市人民政府财政部门会同价格主管部门共同发布的规定所收取的各项收费收入。', '5.政府性基金收入：反应各级政府及其所属部门根据法律、行政法规规定并经国务院或财政部批准，向公民、法人和其他组织征收的政府性基金，以及参照政府性基金管理或纳入基金预算、具有特定用途的财政资金。', '6.其他收入：指除上述“财政拨款收入”、“行政事业性收费收入”、“政府性基金收入”以外的收入。', '7.“三公”经费：指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反应单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '8.一般公共服务（类）财政事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '9.一般公共服务（类）财政事务（款）一般行政管理事务（项）：反映行政单位（包括实行公务员管理的事业单位）未单独设置项级科目的其他项目支出。', '10.一般公共服务（类）财政事务（款）预算改革业务（项）：反映财政部门用于预算改革方面的支出。', '11.一般公共服务（类）财政事务（款）财政国库业务（项）：反映财政部门用于财政国库集中收付业务方面的支出。', '12.一般公共服务（类）财政事务（款）事业运行（项）：反映事业单位的基本支出，不包括行政单位（包括实行公务员管理的事业单位）后勤服务中心、医务室等附属事业单位。 13.一般公共服务（类）财政事务（款）其他财政事务支出（项）：反映除上述项目以外其他财政事务方面的支出。', '14.社会保障和就业（类）行政事业单位离退休（款）归口管理的行政单位离退休（项）：反映实行归口管理的行政单位（包括实行公务员管理的事业单位）开支的离退休经费。', '15.社会保障和就业（类）行政事业单位离退休（款）事业单位离退休（项）：反映实行归口管理的事业单位开支的离退休经费。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>47</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>市法院召开智慧法院建设部署会议</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-01-31</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://sfj.hld.gov.cn/pfyfzl/201901/t20190131_819334.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['会上，市法院党组书记、院长王淑俐传达省法院张学群院长带队考察河北法院的讲话精神，介绍赴河北法院考察学习的经验和心得。要求全市两级法院一定要把“一化两中心”建设作为推动高质量发展的重中之重，为审判和执行工作插上智慧之翼，严格按照“六统一”原则开展建设，高水平定位，高起点谋划，高标准建设，高效益运行，妥善处理好六大关系。开展好葫芦岛地区“智慧法院”建设的推进工作，争优秀，创特色。', '会上，市法院党组书记、院长王淑俐传达省法院张学群院长带队考察河北法院的讲话精神，介绍赴河北法院考察学习的经验和心得。要求全市两级法院一定要把', '王淑俐院长对2019年全市两级法院重点工作进行部署：一要在打造智慧法院上狠下功夫，全力推进“一化两中心”建设。二要巩固执行成果建立长效机制，使执行工作中好做法、好经验、好成果常态化、长效化。三要深抓案件质效，完善员额法官退出机制，切实保障员额法官“有进有出”。四要强化涉诉信访工作，完善向败诉当事人 释明判决结果义务。五要深入开展扫黑除恶专项斗争，重点摸排涉黑涉恶案件线索。六要强化法院队伍管理，坚持正确的选人用人导向，坚定不移推进党风廉政建设和反腐败斗争。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>47</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>葫芦岛市司法局考察绥中县法治文化基地建设和公共法律服务平台建设情况</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2019-04-02</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://sfj.hld.gov.cn/xwzx/yaowen/201904/t20190402_823685.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['葫芦岛市司法局考察绥中县法治文化基地建设和公共法律服务平台建设情况_葫芦岛市司法局', '考察期间听取了绥中县主要领导对法治基地建设、公共法律服务平台建设情况的汇报。姜局长对下一步工作提出了具体要求，并到大台山']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>47</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>缸窑岭镇组织村干部参观学习本市特色产业</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019-01-10</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/tpxw/201901/t20190110_817488.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['缸窑岭镇以产业扶贫、精准脱贫为抓手，将产业技术培训作为产业扶贫的有效途径。1月3日，由镇党委书记、镇长带队，分管扶贫副镇长和缸窑岭镇各驻村第一书记、村支部书记、主任到兴城市辽宁种蜂场，兴城华山街道食用菌种植大棚基地，建昌养马甸子乡食用菌种植大棚基地参观学习，学习了养蜂技术及食用菌大棚管理、合作社经营模式等方面的先进经验。 此次学习第一站是辽宁种蜂场，场里的负责人介绍了种蜂的养殖、销售，蜂种繁育推广等。随后到达兴城华山街道食用菌种植大棚基地,基地负责人带领学习人员参观了鲍菇的种植一体化,并详细介绍了菌菇的种植技术，参观了鲍菇、鲜菇等新型种植大棚。接着前往建昌养马甸子乡食用菌种植大棚基地参观学习，乡党委书记带领学习人员参观了解食用菌鲜菇的种植技术。 通过这次考察学习，学习人员对食用菌种植有了新的认识，拓宽了视野，开拓了思路，明确了方向，进一步增强了带动村民致富的决心。 图为参观学习现场。刘悦文并摄', '缸窑岭镇以产业扶贫、精准脱贫为抓手，将产业技术培训作为产业扶贫的有效途径。1月3日，由镇党委书记、镇长带队，分管扶贫副镇长和缸窑岭镇各驻村第一书记、村支部书记、主任到兴城市辽宁种蜂场，兴城华山街道食用菌种植大棚基地，建昌养马甸子乡食用菌种植大棚基地参观学习，学习了养蜂技术及食用菌大棚管理、合作社经营模式等方面的先进经验。', '此次学习第一站是辽宁种蜂场，场里的负责人介绍了种蜂的养殖、销售，蜂种繁育推广等。随后到达兴城华山街道食用菌种植大棚基地,基地负责人带领学习人员参观了鲍菇的种植一体化,并详细介绍了菌菇的种植技术，参观了鲍菇、鲜菇等新型种植大棚。接着前往建昌养马甸子乡食用菌种植大棚基地参观学习，乡党委书记带领学习人员参观了解食用菌鲜菇的种植技术。', '此次学习第一站是辽宁种蜂场，场里的负责人介绍了种蜂的养殖、销售，蜂种繁育推广等。随后到达兴城华山街道食用菌种植大棚基地', '通过这次考察学习，学习人员对食用菌种植有了新的认识，拓宽了视野，开拓了思路，明确了方向，进一步增强了带动村民致富的决心。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>47</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>市政协五届四次会议关于如何解决项目落地难的建议第号的答复</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2018-12-18</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/jytabl/shizxta/shizxwjsc2017/201812/t20181218_815477.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['市政协五届四次会议《关于如何解决项目落地难的建议》第260号的答复_葫芦岛市人民政府', '今年我市正在筹建市民服务中心，相关建设方案已在葫芦岛日报上进行公示，广泛征求市民意见。市民服务中心包括集中审批办事大厅部分，预计面积为9000平米。待新场馆建成后，我市将深入推进行政审批“两集中，两到位”，实现“一个窗口受理、一站式审批、一条龙服务”。目前，市行政服务中心位于新区劳动大厦右裙楼，面积1500平米，由于受场地限制，现进入中心集中审批的市直部门13家，设44个办事窗口，进厅工作人员60人。立足现有条件，今年市行政服务中心采取五项措施，营造更加便捷的政务服务环境。', '一是按照“应进必进”的原则督促项目进厅。要求进厅部门学习借鉴食药监局的做法，把审批事项集中到一个科室，整科室进驻中心大厅办理，对窗口充分授权，真正实行“一站式办结，一条龙服务”。市公安局高度重视，加大力度，将机关审批科室业务整合，集中进入中心大厅办理。市人防局、市卫计委、市质监局窗口在整改前项目不多，现大部分业务在窗口受理。', '积极协调各部门选派政治素质高、业务能力强的在编人员进驻市行政服务中心工作。各进厅部门在中心设窗口首席代表，首席代表由部门中层以上实职干部担任，杜绝临时人员在窗口顶岗。市人防局、市海洋和渔业局、市质监、市财政局、市公安局等进厅单位对窗口工作人员进行了调整，配强了服务人员。', '对照第三方评估中发现的营商环境问题，采取消号整改的方式，逐项整改落实。要求各进厅部门对各自负责的审批服务事项进行“再压缩”、“再提速”，进一步简化流程，减少环节，办事周期较法定时限大幅缩短。在市领导和财政局的大力支持下，今年5月我们对办事大厅进行了装修改造，服务环境有了很大改善。', '二是转变服务理念，优化服务方式。对重点企业和重大项目实行领办、带办、特事特办，做到能够即办的一律即办，不能即办的全程跟踪办理。中心大厅实行企业登记注册“五证合一、一照一码”和企业简易注销程序。我们还创新开展了窗口审批先办后补“容缺受理”业务，让企业和群众少跑腿，最大限度的为企业和群众排忧解难。市消防局窗口深入兴城华联商城、丽汤温泉水上乐园进行现场办公，开辟消防审批“绿色通道”，制定专人跟踪服务措施；市工商局窗口为我市五大集团的设立开辟“绿色通道”，通过延时服务，上门服务，已为五个母公司及建交集团办理了工商审批注册；对投资5500万的辽宁鑫圣福源生物科技有限公司和投资5000万的葫芦岛天然富硒矿泉水有限公司注册登记时，实行“速办”，让企业当天拿到了营业执照。', '四是我市正在积极推进网上审批平台建设，市政府多次召开推进会，责成市大数据中心牵头，市审批办、市政府有关部门、各县（市）区政府配合，尽早将我市审批事项等逐步纳入网上审批平台运行，打造政务服务“一张网”，实行网上受理、网上办理、网上反馈，实现线上、线下高度融合，让企业和群众办事更方便、更快捷。目前网上审批平台建设已拟定需求方案，市大数据中心正在对软件开发进行考察学习。', '五是开展优化营商环境专题宣传教育。在中心办事大厅屏幕滚动播放《条例》内容，悬挂广告标语牌，还分别召开了全体机关干部会议、中心各窗口负责人会议，认真学习《条例》内容，强化服务意识，提高服务效率，采取多种形式开展宣传活动，努力为企业健康发展创造良好的市场化氛围。围绕优化营商环境主题，牢固树立人人都有责任，人人都是营商环境的理念，切实增强优化营商环境的责任感、紧迫感和使命感。', '加大减政放权力度作为转变政府职能的重点任务，也是当前全面深化改革的关键环节，更是推进供给侧改革的需要。按照《葫芦岛市人民政府关于公布葫芦岛市行政审批制度改革保留行政许可类审批和调整取消下放行政审批及其他行政职权事项的决定》（葫政发[2015]15号），我市全面清理了非行政许可类审批，消除了审批管理的“灰色地带”，保留了行政审批事项178项。对行政许可类审批事项的清理，需按照中央、省的统一部署推进和落实。市编委办将积极关注政策动向，待上级做出相应调整，第一时间落实。目前我市共调整取消下放行政职权542项，其中，取消126项，下放268项，合并68项，缓征收费2项，向社会组织转移职能2项，调整为内部职权事项76项。6个县（市）区合计取消、调整行政职权327项，进一步激发了市场活力。下一步，结合当前经济社会发展的实际需要，在广泛征求基层意见的基础上，将对保留的行政职权事项进行进一步的梳理，坚持以需求为导向，从反映强烈的问题入手，变部门“端菜”为基层“点菜”，提高放权的针对性。坚决把该放的彻底放开、该减的彻底减掉，该清的彻底清除，提高放权的含金量，真正让广大人民群众感受到减政放权的“获得感”。', '继续推广行政许可标准化，再造审批流程。我市根据《行政许可标准化指引（2016年版）》，引导各审批部门开展行政审批标准化建设工作，对行政许可事项设置、流程设置和行政许可服务标准及监督评价体系建设等环节进行标准化规范，提高行政许可的标准化水平，进一步规范行政审批行为。重点引导各审批部门探索审批流程再造，进一步压缩审批时限，创新服务方式，按照便民高效的原则，为每项审批绘制运行流程图，最大限度简化不必要的环节。目前已研究制定《葫芦岛市本级行政审批流程再造实施方案（草案）》，待市政府常务会议审定后实施。', '2015年底我市下发了《落实〈辽宁省人民政府办公室关于清理规范省政府部门行政审批中介服务的实施意见〉的实施意见》，全面清理中介服务事项，破除中介服务垄断，规范中介服务收费，加强中介服务监管，完善中介服务机构信用体系和考核评价机制。', '今年2月份开始，我市开展了行政审批中介服务涉企收费常态化检查。由市编办、市财政局、市政府督查室和软环境办公室等部门各负其责，齐抓共管，综合整治。认真分析涉企中介服务收费的热点和难点问题，突出对行政审批前置中介服务的各类技术审查、论证、评估、评价、检验、检测、鉴证、鉴定等收费的检查。', '今年4月，我市公布了市直行政审批中介服务事项清单。包括项目名称、设置依据、服务时限、收费标准等。依照相应规定应由审批部门委托相关机构为其审批提供的技术性服务事项，一律纳入行政审批程序，由审批部门委托开展，不得增加或变相增加申请人的义务。审批部门能够通过征求相关部门意见、加强事中事后监管解决，或申请人可按要求自行完成的事项，一律不得设置中介服务事项；现有或已取消的行政审批事项，一律不得转为中介服务事项；严禁将一项中介服务拆分为多个环节。', '各行政审批部门所属事业单位、主管的社会组织及其举办的企业，不得开展与本部门行政审批相关的中介服务。审批部门不得以任何形式指定中介服务机构，开展与行政审批相关联的中介服务事项。凡未纳入《中介清单》的中介服务事项，一律不得作为行政审批的受理条件。同时市政府还公布了葫芦岛市本级中介机构名单，选择具有良好信誉的中介组织，保证各种中介行为不影响项目审批的进度。', '今年5月，市委书记孙轶到葫芦岛经济开发区进行工作调研，对园区承载能力建设进行了工作部署。葫芦岛经济开发区自2006年成立以来，已累计完成基础设施投资50亿元，开发土地面积24.41平方公里，其中22.41平方公里实现“七通一平”，园区综合配套服务水平不断提升，综合产业园区已形成了良好的供电、供水、供热、工业蒸汽、道路、通信、天然气等比较完善的基础配套能力，基本可以满足项目的配套要求。园区还先后引进了特种设备检验检测，正渤环保产业园、中国移动、葫芦岛银行等生产服务业、金融服务业项目，园区综合配套服务水平不断提升。占地180亩、计划总投资3亿元的葫芦岛小微企业双创园项目，由产业制造区、青创梦工厂、企业孵化中心、MINI总部基地、园区运营中心5部分组成。全部建成投入运营后，预计可引入小微企业300家。目前已完成商贸服务中心施工，计划年底前完成标准化厂房、商贸服务中心、综合办公楼等设施建设。', '兴城滨海经济区自2008年启动建设以来，始终把公共基础建设放在首位，在进行“七通一平”路网建设的同时，各类公共设施建设同步跟进。经济区先后投资2717万元建设了自来水厂，将烟台河水引入园区；投资7603万元建设了供热厂，现有供暖面积近30万平方米；投资2438万元建设了污水处理厂，实现了园区污水全处理。同时，经济区引入电力、新奥燃气、联通、电信、移动等公共服务类企业入驻，铺设管网各19公里。共完成绿化面积12万平方米，实现了路网与绿化同步建设的目标。', '东戴河新区进一步完善基础及配套设施。全面启动东戴河核心城区和临港产业园区“七通一平”建设。高标准完成新区道路、绿化和景观河等建设工程，加大电力、燃气、供暖等设施建设力度，实施污水处理厂和垃圾处理厂项目，推进高中、职业学院等公共设施建设，加快回迁小区建设步伐。东戴河新区共建设道路85公里，机动车道面积158万平方米，铺设供水、供暖、供气、给排水等各类管线663公里，完成绿化面积230万平方米，建设完成26平方公里“七通一平”。', '市财政局自2015年起，编制了全市《涉企收费目录清单》、《行政事业性收费目录清单》、《基金目录清单》和《考核考务性收费目录清单》，以文件形式下发至所有执收单位。2017年的目录清单已在财政局网站和葫芦岛日报上公布。市财政局实行了行政事业性收费的一票制管理，将行政事业性收费全部纳入非税收入收缴系统进行管理，实行“单位开票、银行代收、财政监管”的管理形式。市财政局加强对窗口工作人员的岗前培训和上岗后教育。同时，加大对执收单位的稽查力度，对重点涉企收费落实情况进行跟踪检查。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>47</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>市政协六届一次会议解决中小企业融资难问题的建议第号的答复</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2018-12-07</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/jytabl/shizxta/shizxljyc2018/201812/t20181207_814252.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['市政协六届一次会议《解决中小企业融资难问题的建议》第315号的答复_葫芦岛市人民政府', '您提出的315号提案《解决中小企业融资难问题的建议》收悉，感谢您对我市中小企业贷款难问题的关注，现答复如下：', '一直以来，中小企业融资难始终是制约其发展的重要因素，也是我办致力于解决的一个难题。近年来，我办会同市人民银行、银监分局以及相关市直部门多管齐下，积极推进中小企业融资工作，努力缓解中小企业融资难融资贵的问题，具体开展了以下工作：', '我办充分利用政府、银行、企业三方联席会议制度，发挥政府服务职能，搭建了集政府政策宣传、银行产品发布、企业融资项目推介于一体的全市投融资网上服务平台，解决了政府、银行、企业三方信息不对称问题，实现了三方信息的无缝对接，为银行、企业提供实时线上对接渠道。截至目前，平台共发布金融产品64个，注册中小企业12家，其中银行已授信项目1个、在审项目8个，', '1、协助葫芦岛银行与省农担公司建立合作机制。今年3月份，葫芦岛银行与辽宁省农业信贷担保有限责任公司签订战略合作协议，担保总额度达10亿元。通过与辽宁省农业担保公司的合作，葫芦岛银行将不断加大对“三农”的信贷投放力度，优先支持新型农业经营主体，积极推进农村一二三产业融合发展，全面服务农业农村基础设施建设，大力扶持农业科技创新，积极助力我市乡村振兴战略的实施。目前，各项业务正在积极推进中。', '2、推进邮储银行与省农担公司开展“农担贷”业务。市邮储银行与省农担公司建立合作机制，引入省农担公司对农户贷款进行担保，最高贷款额度达500万元，最长期限达5年，成功解决了农业主体抵押物不足的问题。截至6月份，共放款4865万元。', '一是市本级和县区财政共投入风险补偿金0.35亿元，与建设银行分别搭建了5个“助保贷”平台（市本级、连山区、绥中县、打渔山园区、东戴河新区）；二是市财政在葫芦岛银行存储“下岗失业人员小额担保贷款担保基金”，为下岗失业人员提供贷款，目累计发放2.5亿元；三是市、县两级政府和兴城市泳装行业协会共同投入资金2000万元，支持兴城农商行推广“兴农通”，小微企业互助保证金贷款；四是兴城市、绥中县、建昌县、连山区、南票区政府共投入风险补偿基金2500万元，在农业银行建立贫困户贷款风险补偿机制；五是市财政出资1000万元，由市农委与邮储银行建立风险补偿机制。', '组织市国税局和葫芦岛银行深入对接，推动葫芦岛银行开展手研发创新，利用市国税局评选出的年度纳税信用企业评级名单作为评定企业信用程度的重要依据，将企业纳税信用与融资信用相结合，对纳税信用优良的小微企业，逐步实现贷款免抵押免担保的信用贷款。目前，葫芦岛银行正在积极研发相应的金融产品。', '我办对重点企业上市挂牌跟踪指导，帮助企业协调解决实际困难，规范企业行为，全力推动企业通过上市、挂牌等直接融资方式解决资金难题。目前，在我办不断努力下，我市重点培育上市企业——伊菲股份已经纳入省金融办在全省的预选上市企业重点培育对象；伊菲科技、厚能股份、中维高新3户企业在“新三板”实现挂牌；33户企业在辽宁股权交易中心挂牌。', '二是扩大金融机构贷款利率加点幅度。将金融机构使用人民银行再贷款资金发放的贷款最高加点幅度由原来3个百分点扩大到最高加点幅度不得超过5个百分点，有效覆盖金融机构风险溢价，但金融机构使用人民银行支小再贷款发放的小微企业贷款利率不得高于7.75%（一年期）。', '三是适当降低支小再贷款的申请条件。将地方法人金融机构上年末本外币小微企业贷款（含个人经营性贷款）比例由不低于30%调整为不低于20%。', '四是创新支小再贷款发放模式。由原来金融机构先向人民银行申请获得支小再贷款额度、再对小微企业进行放款，增加了可先向小微企业放款、再向人民银行申请获得支小再贷款资金的发放模式。对同一金融机构，两种支小再贷款发放模式可同时使用。', '五是延长支小再贷款发放时间。采取“一次授信、多次发放”模式，引导金融机构按需申请并提前储备贷款项目和客户，提高再贷款审批发放效率。', '一是引导金融机构提高小微企业不良贷款容忍度。市银监分局对金融机构适度提高小微企业不良贷款容忍度，切实完善、落实小微尽职免责制度，对小微贷款不良率高出自身各项贷款不良率年度目标2个百分点（含）以内的机构，或小微贷款不良率不高于3.5%的机构，不作为监管部门监管评级的扣分因素。', '二是积极督促金融机构降低中小企业融资成本。一是要求金融机构要坚持“金融惠民”理念，规范服务收费项目，加大对中小企业减费让利力度，减轻中小企业财务负担，帮助中小企业渡过难关。二是督促金融机构积极落实“续贷”、“循环贷”政策。在守住风险底线的基础上，要努力提高无还本“续贷”在中小企业贷款中的比重，解中小企业通过外部高息“搭桥”资金“倒贷”的问题，缓解中小企业资金压力。三是督促金融机构要合理设置流动资金贷款期限，研发适合中小企业的中长期固定资产贷款产品，在风险可控的前提下，可自主确定中小企业贷款资金支付方式。', '市财政局根据《中国人民银行沈阳分行 辽宁省财政厅 辽宁省人力资源和社会保障厅转发关于实施创业担保贷款支持创业就业工作的通知》（沈银发[2016]209号）精神，在我市以个体、合伙经营和组织起来创业（含网络创业），且已办理《就业创业证》（原《就业失业登记证》）的城乡劳动者（不受户籍限制），以及当年吸纳就业人数达到原有职工总数15%以上的小微企业（国家限制的建筑业、娱乐业以及销售不动产、转让土地使用权、广告业、房屋中介、桑拿、按摩、网吧、氧吧除外，下同），均可享受创业担保贷款扶持政策。根据《关于印发辽宁省普惠金融发展专项资金管理实施细则的通知》（辽财债[2017]263号）精神，专项资金安排支出用于对符合政策规定条件的创业担保贷款给予一定贴息。', '2018年7月6日，省财政厅和省金融办联合下发了《关于完善小微企业创业担保贷款财政贴息工作流程的通知》（辽财债[2018]250号）。根据文件，将由中央、省、市财政按照既定比例，对小微企业创业担保贷款进行贴息。', '（一）充分发挥投融资服务平台作用，提高银企对接效率一是督促银行机构在全市投融资网上服务平台实时更新本行的金融产品，为有融资需求的企业提供更多、更合适的选择，及时与线上申贷的企业对接；二是在全社会开展广泛宣传，提供投融资平台的认知度，让更多企业可以通过投融资服务平台实现融资。', '通过组织银行机构为企业讲解最新的金融政策、申贷要求、审批流程等金融知识，辅导企业通过健全工作机制、规范财务报表、办理相关证照等途径取得申请贷款所需的各项要件，将本来不能获得贷款的“三农”、小微民营企业培育成为符合银行贷款条件的企业。', '组织资本市场业务知识培训活动，提高小微企业直接融资的积极性。继续推行资金激励政策，对在“新三板”挂牌并融资的企业，予以补助100万元，补助资金由市、县两级按1:1的比例分阶段进行配备，鼓励企业利用资本市场加快发展。', '市人民银行计划向人民银行沈阳分行申请增加支小再贷款额度6亿元、再贴现额度4亿元，专门用于支持全市金融机构将更多资金投向小微企业等经济社会重点领域和薄弱环节，有效降低小微企业融资成本。通过普惠金融定向降准释放金融机构资金11.5亿元，引导金融机构增加小微企业信贷投放、降低企业融资成本和开展债转股。', '着手建立工作机制，规范各类金融机构小微企业贷款业务，使各类银行机构统一贷款审批流程，明确贷款审批要点，逐步整合业务流程，将原有分散操作改为合并进行，减少重复劳动，简化业务流程，提高审批效率。', '2017年4月13日，市发改委下发《葫芦岛市人民政府办公室关于成立葫芦岛市政府投融资创新工作领导小组的通知》（葫政办发[2017]72号），经市政府研究，我市拟设立三支产业基金及一支创业基金，分别是京津冀产业协同发展基金、PPP投资基金、文化旅游产业基金和创新创业投资基金。下一步，市发改委将尽快与基金机构进行对接洽谈，寻求有实力的合作伙伴，为葫芦岛地区发展提供帮助，最大限度的挖掘资本市场，力争早日为占小企业提供优质服务。', '我办计划组织葫芦岛银行等地方银行机构赴武汉市学习在科技金融产品创新、支持中小微企业、以及精准扶贫等方面的先进做法和经验。督导银行机构根据学习考察的先进经验，结合我市实际，创新研发支持科技企业、小微企业、及精准扶贫类的金融产品，切实发挥地方银行对全市经济发展的促进作用。如有需要，我办将根据您的建议，继续组织金融机构比照秦皇岛等地区制定切合我市经济发展实际的信贷政策，解决我市中小企业融资难题。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>47</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>市政协六届一次会议关于充实农业科技人才助力农村精准扶贫的建议第号的答复</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2018-12-06</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/jytabl/shizxta/shizxljyc2018/201812/t20181206_814072.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['市政协六届一次会议《关于充实农业科技人才，助力农村精准扶贫的建议》第221号的答复_葫芦岛市人民政府', '市政协六届一次会议《关于充实农业科技人才，助力农村精准扶贫的建议》第221号的答复', '今年以来，我委认真落实省委办公厅 省政府办公厅《辽宁省支持深度脱贫地区脱贫攻坚行动方案》（辽委办发〔2017〕96号）、市政府办公室《关于印发葫芦岛市农业产业精准扶贫五年规划2016-2020年的通知》（葫政办发〔2018〕6号）精神，以产业扶贫为重点，充分发挥农业科技人才在脱贫攻坚中的示范引领作用，多形式、多渠道广泛深入开展农业科技大培训，着力打造一支技术精、作风硬的技术干部队伍和农村实用人才队伍，为全面打赢脱贫攻坚战提供技术保障，为推动我市现代农业发展，促进农业增产、农民增收奠定了坚实基础。', '市农委党委高度重视农村实用人才培养工作，把农村人才培养开发纳入全市农业农村经济发展规划之中，纳入党委议事日程之中，做到了责任明确，人员、经费有保障。一是健全领导机构。成立了葫芦岛市新型职业农民培育工程领导小组，主管农业副市长任组长，市农委主任任副组长，成员有市财政局、市农委相关人员。二是制定了文件。印发了《新型职业农民培育工程实施方案》，出台了《新型职业农民培育工作管理办法》。三是提供经费保障。将农村实用人才培养与新型职业农民培育工程、基层农技推广补助项目有机结合，党委书记亲自跑项目，共争取项目资金369万元。四是健全联系制度。全市共遴选市级农业专家77人、县乡农技指导员330人，联系服务专业大户2915人。五是建立督查考核机制。将农村人才开发（新型职业农民培育）纳入市政府对县（市）区政府粮食安全省长责任制考核内容。', '前些年，我市在乡镇农技推广机构改革过程中出现的体系断线、推广断层、阵地散失、手段滞后等问题。2011年市政府下发了《关于加快推进全市基层农业技术推广体系改革的通知》（葫政办传〔2011〕34号），明确了乡镇农业技术推广机构人、财、物由县（市）区农经（发）局管理。绥中县、建昌县乡镇农业站“三权”归县农发（经）局管理，兴城市实现了县乡双重管理体制。通过理顺管理体制，调动了广大基层农技人员工作积极性，提高了农技推广效能。', '近些年各乡镇农业站实施了“五项制度”，即人员聘用制度、工作考评制度、推广责任制度、人员培训制度和多元推广制度等5项制度。通过完善各项工作制度，进一步完善农技推广运行机制，提高了基层农技人员履行农技推广职责的能力。2017年全市共确定323名技术指导员，遴选了1952个示范主体，推广了81个主导品种、57项优质安全、节本增效、绿色环保的农业主推技术。全市共建立了9个农业科技试验示范基地，开展示范展示，组织观摩交流。', '市农委从事业单位遴选77名专家，组建7个科技特派团，即：农业科技特派团、蔬菜科技特派团、果蚕科技特派团、畜牧科技特派团、农机科技特派团、种子科技特派团、农业标准化科技特派团。各科技特派团采取集中授课、现场指导、经验交流等多种形式进行培训，全年专家下乡服务640人次、推广主导品种170个、推广主推技术43项、印发技术手册1.57万册、印发明白纸10.37万份、培训基层农技人员2075人次、培训农村实用人才3.05万人次。', '立足提升贫困村产业水平，突出抓好种养大户、家庭农场主、农民专业合作社等骨干技术人才的培训，通过田间讲解、地头培训、面对面传授、示范带动等途径，培养一批农村脱贫致富带头人。2017年全市共培育新型经营主体带头人1180人，贫困人口60人、现代青年农场主34人。培育工作采取“一点两线全程分段”方式，分层分类分模块开展培育工作。', '围绕设施蔬菜、果业、养殖业，以培养当地农村实用人才为主，实现由简单“办班”向系统“育人”转变。选择一部分有一定产业、生产发展有积极性的贫困户与他们结对帮扶，并辐射带动周边群众共同致富。2018年全市计划培育2200名新型职业农民，分三批选派57名农村实用人才带头人赴外地考察学习，其中赴朝阳凌源市范杖子村20人、丹东市凤城大梨树村37人。通过实施“育人”计划，培养一支有文化、懂技术、会经营的新型职业农民队伍，为发展现代农业提供强有力的人才支撑。', '依托基层农技推广补助项目和新型职业农民培育工程，2018年全市计划建立15家学员实训基地和8家试验示范基地。组织学员在实训基地接受不少于5天技能提升培训，在试验示范基地开展4次以上观摩活动。', '从县乡两级基层农技人员中，计划遴选280名优秀技术指导员，参加市里组织的师资培训班。培训工作着眼于全面提高基层农技人员素质，增强基层农技推广体系服务能力，加快农业科技成果转化应用。', '依托我市3个院士专家工作站，围绕急需解决的重大关键技术难题，组织协调院士专家及其创新团队与本单位研发人员开展联合攻关，促进成果转化和产业化，助力脱贫攻坚。协助市委组织部继续做好2018年院士专家工作站建站工作。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>47</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>县十六届人大一次会议关于绥中瓜果蔬菜农药超标问题第号的答复</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019-01-11</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/rddbzxwy/xrdjydf/202104/t20210412_1035279.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['您好！您提出的“ 关于绥中瓜果蔬菜农药超标问题”建议收悉，现将有关情况代政府答复如下：', '近年来，绥中县政府高度重视农产品质量安全工作，强化落实农产品安全责任制，收到了较好的成效。', '国务院办公厅关于加强农产品质量安全监管工作的通知（国办发〔2013〕106号）明确各级农业部门要加强农产品种植养殖环节质量安全监管，切实担负起农产品从种植养殖环节到进入批发、零售市场或生产加工企业前的质量安全监管职责。 1、领导重视，落实责任。农发局成立了农产品质量安全工作领导小组，并与各乡镇签订责任状，纳入绩效考核内容。为进一步提升我县农产品质量监管能力，农发局农产品质量安全领导小组成员，赴省内国家级农产品安全县（法库县、大洼县、朝阳县）考察学习，并形成考察报告，学到了先进经验。', '2、落实农产品生产主体监管名录制度和生产记录制度。2017年，以乡镇为单位建立了农产品生产主体监管名录，印制并发放生产记录15000余册，农产品生产主体严格执行禁限用农药管理；农药间隔期制度。印制黄瓜、茄子、番茄、辣椒标准化生产操作规程公示板4000余张。', '3、建立农产品质量安全监管平台。将农业投入品经营单位和农产品生产单位纳入平台管理，部分有条件的生产企业、合作社使用了二维码追溯系统，实现了“生产有记录，信息可查询，流向可追踪，责任可追溯”。', '4、加强农产品检验检测。例行监测6800个样品；风险监测80个样品；监督抽查25个样品；专项检查15个样品。只有风险监测1个样品不合格，其余全部合格。', '5加快推进农业标准化。大力推进农业标准化生产，不断扩大蔬菜水果标准园，稳步发展无公害、绿色、有机和地理标志农产品,全县无公害、绿色认证面积113万亩。加强农产品质量认证监管和标志使用管理，充分发挥“三品一标”在产地管理、过程管控等方面的示范带动作用，用品牌引领农产品消费，增强公众信心。', '《食用农产品市场销售质量安全监督管理办法》（国食药监总局令第20号）明确食品药品监管部门负责食用农产品市场销售质量安全监督管理工作，即食用农产品进入集中交易市场、商场、超市、便利店等市场主体后的贮存、运输、销售等过程的监管。', '建立健全食品安全管理制度，有食用农产品质量安全风险防控措施和食品安全事故处置方案；配备专职或兼职食品安全管理人员、专业技术人员，组织食品安全知识培训；建立入场销售者档案并按规定保存，向所在地县级食品药品监管部门报告批发市场相关信息；建立食用农产品市场准入制度，查验并留存入场销售者的社会信用代码或者身份证复印件，食用农产品产地证明或者购货凭证、合格证明文件；建立食用农产品检查制度，对不符合食品安全标准等违法行为的，按照相应规定或者协议进行处理和报告；在市场醒目位置公示食用农产品有关信息；与入场销售者签订食用农产品质量安全协议；配备检验设备和检验人员，或者委托具有资质的食品检验机构，开展食用农产品抽样检验或者快速检测；印制统一格式的销售凭证，要求销售者如实记录和保存；', '食用农产品进入集中交易市场，销售者应当提供社会信用代码或者身份证复印件，食用农产品产地证明或者购货凭证、合格证明文件。无法提供社会信用代码（或者身份证复印件）的，不得入场销售。无法提供产地证明、购货凭证、合格证明文件三者中任意一项的，集中交易市场开办者应当自行或委托进行抽样检验或者快速检测；抽样检验或者快速检测合格的，方可进入市场销售。食用农产品生产企业和农民专业合作经济组织入场销售的，应当提供社会信用代码和合格证明文件。商场、超市、便利店等销售食用农产品，应当建立食用农产品进货查验记录制度，记录供货者及购进食用农产品的相关信息。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>47</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>市政协六届一次会议关于南票区棚户区改造搬迁后旧房隐患的提案第号的答复</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2018-12-06</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/jytabl/shizxta/shizxljyc2018/201812/t20181206_814070.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['市政协六届一次会议《关于南票区棚户区改造搬迁后旧房隐患的提案》第216号的答复_葫芦岛市人民政府', '2013年初，我区形成了《南票区国有工矿棚户区房屋征收补偿安置方案》草稿，并将方案草稿专题向市长、主管副市长汇报，在市政府建议下组织相关人员到阜新、北票、凌源、喀佐等地进行考察学习后，形成了方案征求意见稿，召开征求意见动员会，广泛征收居民、社区、街道、有关单位意见，召开专题征求意见会，形成方案讨论稿，提交区政府常务会和区委常委会议讨论，于2014年9月19日面向社会发文公布。', '为了保证棚户区居民利益，我区聘请了4家有资质的房屋评估公司，和我区防治办工作人员一同深入棚户区范围内的居民家中，对棚户区居民的房屋及附属物进行评估。在评估的过程中做了详细记录，并征求了棚户区居民对棚改方案的意见和建议，各街道包扶工作组及政策咨询组工作人员深入到各街道，对前期房屋评估价格进行公示及复估工作，向各街道居民发放并收回参加棚改的《申请表》。', '南票棚户区拆迁安置工作从2014年启动至今，共搬迁到打渔山新城区10655户，但仍有一部分居民居住在棚户区中。主要原因：一是家庭产权纠纷，据统计此类共有76户；二是因经济困难无法办理结算入住，全区共有72户；三是九龙街道棚户区位于城市建成区内，因工作及其它方面因素影响未签订协议还有494户；四是部分居民认为政策不合理；五是房屋所有人失联，无法签订协议有24户。而我区棚户区改造的范围大部分是原南票矿务局在上世纪五十、六十年代统建连脊房屋，导致部分房屋无法拆除。', '（一）制定今后五年工作目标。为改变南票棚户区改造安置后脏、乱、差的环境，2017年12月6日，南票区区长董金旭在南票区九届人大一次会议做政府工作报告，未来五年工作目标时强调：加快生态文明建设进程，实现人居环境新变化。切实践行“绿水青山就是金山银山”理念，实施蓝天、碧水和沃土工程。严守生态保护红线，稳步推进矿山生态环境治理和山水林田修复。实施棚户区、采沉区闲置土地治理与利用，持续开展城乡环境整治和造林绿化。', '（二）学习借鉴先进地区工作经验。6月14日，常务副区长王建华带队40多人到北票市考察学习。这次考察组借鉴北票经验和我区实际情况向政府提出建议：制定区域性总体发展规划，以产业转型为主线，以循环产业园区发展为核心，统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '（三）启动棚改安置和采沉安置腾退（可利用）土地工作。区政府领导召开办公会议，以园区扩区为契机，启动赵家屯、邱皮沟等街道棚改房屋拆迁工作，预计今年可完成土地平整工作，明年可引进项目开展工程建设。以光石碳素等现有企业扩建为契机，启动苇子沟街道棚改拆迁工作。我区棚户区安置工作将于今年年末基本结束，根据我区棚户区的实际情况，将逐步拆除棚户区内房屋。目前，我区规划局、国土分局正在对棚户区内房屋拆除后的土地进行区域性总体规划、行业规划和专项规划等各类规划众多。从我区实际情况出发，制定区域性总体发展规划。规划编制以沉陷区综合治理为基础，以产业转型为主线，以循环产业园区发展为核心，统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '（四）消除搬迁后的旧房隐患。棚户区改造是一项造福百姓的利民工程，随着百姓搬迁新居，剩下大面积的老旧房屋。为消除旧房隐患，一是各街道和派出所对老旧房屋定期巡查，制订包保责任人，设立警示标语，严禁人员入内，特别是教育学生假期禁止到此区域玩耍，确保人身安全。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>47</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>区政协八届一次会议第号提案的答复函关于基层卫生院卫生事业费与公共卫生事业费用途</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2018-10-31</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2018n/201810/t20181031_809143.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['区政协八届一次会议第69号提案的答复函(关于基层卫生院卫生事业费与公共卫生事业费用途的建议)_葫芦岛市南票区人民政府', '区政协八届一次会议第69号提案的答复函(关于基层卫生院卫生事业费与公共卫生事业费用途的建议)', '您的第一个建议，政府对基层卫生单位按其功能拨付卫生事业费及基本医疗所需资金。我局已积极与上级部门和本级政府汇报，考察学习其它县、区卫生部门的拨付方法。', '年已开始执行公共卫生费按季度申请预拨款，财政也已预拨一个季度的公共卫生费。我局业务人员会对卫生院及村卫生室的公共卫生工作情况进行考核，实行按劳分配，预拨款多退少补的政策。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>47</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社赴抚顺市清原县供销社考察学习土地确权工作先进经验和做法</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2018-11-09</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968628.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['葫芦岛市供销社赴抚顺市清原县供销社考察学习土地确权工作先进经验和做法_葫芦岛市供销合作社联合社', '为深入贯彻落实《中共中央、国务院关于深化供销合作社综合改革的决定》和辽宁省委、省政府《关于深化供销合作社综合改革实施意见》文件精神，进一步推动葫芦岛市供销社土地确权工作，强化土地、房产监管，保证资产安全，促进社有资产保值、增值，葫芦岛市供销社于11月5日赴抚顺市清原县供销社察学习土地确权工作的先进经验和做法。参加此次考察学习的人员有葫芦岛市供销社、葫芦岛市不动产登记中心、葫芦岛市各县（市）区供销社、县区国土部门的领导和工作人员。', '考察学习期间，葫芦岛市供销社考察人员与抚顺市清原县供销社召开了座谈会，清原县供销社传授了土地确权工作好的经验和做法，回答了葫芦岛市供销社考察提纲提出的问题，葫芦岛市供销社参会人员结合自身工作中遇到的实际问题与清原县供销社展开积极交流探讨，此次考察学习使考察人员受益匪浅。通过此次考察学习，为葫芦岛市土地确权工作完成提供了更加充分的经验，将进一步加快葫芦岛市供销社土地确权工作的步伐。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>47</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>葫芦岛市建昌县供销社积极落实赴清原县供销社考察学习土地确权工作</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2018-11-13</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xczx/202005/t20200529_970099.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['葫芦岛市建昌县供销社积极落实赴清原县供销社考察学习土地确权工作_葫芦岛市供销合作社联合社', '为更好贯彻落实赴抚顺清原考察学习土地确权工作精神，顺利完成建昌县供销社系统土地确权工作任务，建昌县供销社主任董成广主持召开班子成员会议，传达学习了清原县供销社土地确权工作先进经验和做法，认真学习了市供销社“关于开展土地、房产确权工作调查”文件精神，结合建昌县供销社系统土地、房产现状开展综合梳理，制定《建昌县供销社土地确权实施方案》，对下步如何搞好全系统土地确权工作进行指导规范，按照《实施方案》要求，分步实施土地确权工作，在市供销社指导下，在县政府领导下，在各乡镇政府和村委会支持下，提前完成全系统土地确权工作任务。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>47</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>区九届人大一次会议第号建议的答复函</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018-10-31</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/rdta/2018n_29919/201810/t20181031_809234.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['农业产业升级、实现乡村振兴发展、实施精准脱贫等方面具有重要作用，已成为农村经济发展的新亮点和经济转型升级的新引擎。', '我区电子商务发展较慢，农村电商工作刚刚起步，基础较差，目前仅高桥镇、虹螺岘镇、金星镇等乡镇有零星业务，没有区级电商平台，知名电商尚未进驻我区。', '年以来，区商务局组织了文君甘薯等企业参与全国网上农产品展销会，与阿里巴巴、京东、乐村淘等电子商务平台也进行多次洽谈，商讨合作意向，并先后去北镇、兴城考察学习，积累发展农村电商经验。', '年重点工作也明确指出，深入实施“快递下乡”和农村电商邮政寄递工程，推进建制村直接通邮。', '金星蔬菜、高桥蒜苗、暖池葡萄、北边黄瓜、虹豆香干豆腐等一批优势特色农产品远近闻名，已成为我区特色产品的品牌和名片。', '农村基础设施建设正在逐步完善：全区通信网络基本实现全网覆盖，“村村通”道路全面覆盖所有乡镇和建制村，物流快递配送日趋完善。', '尽快出台政策文件，重点围绕金融、用地、税收等方面予以支持，符合条件农村电商网点和快递给予相应的补贴。', '加快引进第三方电商平台在我区成立区域性总部，对我区特色农产品进行线上销售；鼓励本地农村电商带头人创建电商平台。', '加大人才培训力度。年底前区商务局与知名电商、院校合作，对有意发展电商的人员进行培训，重点针对贫困人群开展电商实操、美工、网页制作、产品包装营销等能力培训', '以上的答复如有不妥，请批评指正。最后，再次衷心感谢您对我区我区农村电子商务发展工作的关心、理解和支持！']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>47</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>区政协八届一次会议第号提案的答复函关于制定棚户区采沉区闲置土地治理与利用规划</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2018-10-30</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2018n/201810/t20181030_808977.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['区政协八届一次会议第27号提案的答复函(关于制定棚户区、采沉区闲置土地治理与利用规划的建议)_葫芦岛市南票区人民政府', '区政协八届一次会议第27号提案的答复函(关于制定棚户区、采沉区闲置土地治理与利用规划的建议)', '2013年初，我区形成了《南票区国有工矿棚户区房屋征收补偿安置方案》草稿，并将方案草稿专题向市长、主管副市长汇报，在市政府建议下组织相关人员到阜新、北票、凌源、喀佐等地进行考察学习后，形成了方案征求意见稿，召开征求意见动员会，广泛征收居民、社区、街道、有关单位意见，召开专题征求意见会，形成方案讨论稿，提交区政府常务会和区委常委会议讨论，于2014年9月19日面向社会发文公布。', '为了保证棚户区居民利益，我区聘请了4家有资质的房屋评估公司，和我区防治办工作人员一同深入棚户区范围内的居民家中，对棚户区居民的房屋及附属物进行评估。在评估的过程中做了详细记录，并征求了棚户区居民对棚改方案的意见和建议，各街道包扶工作组及政策咨询组工作人员深入到各街道，对前期房屋评估价格进行公示及复估工作，向各街道居民发放并收回参加棚改的《申请表》。', '南票棚户区拆迁安置工作从2014年启动至今，共搬迁到打渔山新城区10655户，但仍有一部分居民居住在棚户区中。主要原因：一是家庭产权纠纷，据统计此类共有76户；二是因经济困难无法办理结算入住，全区共有72户；三是九龙街道棚户区位于城市建成区内，因工作及其它方面因素影响未签订协议还有494户；四是部分居民认为政策不合理；五是房屋所有人失联，无法签订协议有24户。而我区棚户区改造的范围大部分是原南票矿务局在上世纪五十、六十年代统建连脊房屋，导致部分房屋无法拆除。', '（一）制定今后五年工作目标。为改变南票棚户区改造安置后脏、乱、差的环境，2017年12月6日，南票区区长董金旭在南票区九届人大一次会议做政府工作报告，未来五年工作目标时强调：加快生态文明建设进程，实现人居环境新变化。切实践行“绿水青山就是金山银山”理念，实施蓝天、碧水和沃土工程。严守生态保护红线，稳步推进矿山生态环境治理和山水林田修复。实施棚户区、采沉区闲置土地治理与利用，持续开展城乡环境整治和造林绿化。', '（二）学习借鉴先进地区工作经验。6月14日，常务副区长王建华带队40多人到北票市考察学习。这次考察组借鉴北票经验和我区实际情况向政府提出建议：制定区域性总体发展规划，以产业转型为主线，以循环产业园区发展为核心，统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '（三）启动棚改安置和采沉安置腾退（可利用）土地工作。区政府领导召开办公会议，以园区扩区为契机，启动赵家屯、邱皮沟等街道棚改房屋拆迁工作，预计今年可完成土地平整工作，明年可引进项目开展工程建设。以光石碳素等现有企业扩建为契机，启动苇子沟街道棚改拆迁工作。我区棚户区安置工作将于今年年末基本结束，根据我区棚户区的实际情况，将逐步拆除棚户区内房屋。目前，我区规划局、国土分局正在对棚户区内房屋拆除后的土地进行区域性总体规划、行业规划和专项规划等各类规划众多。从我区实际情况出发，制定区域性总体发展规划。规划编制以沉陷区综合治理为基础，以产业转型为主线，以循环产业园区发展为核心，统筹考虑发展方向、建设规模、产业布局、土地治理等问题。', '（四）消除搬迁后的旧房隐患。棚户区改造是一项造福百姓的利民工程，随着百姓搬迁新居，剩下大面积的老旧房屋。为消除旧房隐患，一是各街道和派出所对老旧房屋定期巡查，制订包保责任人，设立警示标语，严禁人员入内，特别是教育学生假期禁止到此区域玩耍，确保人身安全。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>47</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>区政协八届一次会议第号提案的答复函关于加快农业产业结构调整增加农民收入的建议</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2018-10-30</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2018n/201810/t20181030_808923.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['区政协八届一次会议第9号提案的答复函(关于加快农业产业结构调整，增加农民收入的建议)_葫芦岛市南票区人民政府', '区政协八届一次会议第9号提案的答复函(关于加快农业产业结构调整，增加农民收入的建议)', '您好!您的《关于加快农业产业结构调整，增加农民收入的建议》提案收悉，现将办理情况答复如下：', '二位委员在提案中提到的蔬菜种植模式改变的问题和拓宽销售途径的问题，这些年来，国家和地方财政一直在进行扶持在作为政府的职能部门，一直在想办法，也进行了不少有益的尝试，具体说来，有以下几个方面：', '一是基础设施逐步完善。北方城市设施蔬菜种植基地项目通过国家验收。新增设施蔬菜面积358亩，更新改造果园6213亩，新建果树标准园20个，其中4个被评为市级高效科技示范园。新改建标准养殖场9家，其中2家被评为辽西北五市畜禽标准化养殖场、5家被评为生态标准化养殖场。完成荒山造林1万亩，退化林分修复1.5万亩，封山育林1.6万亩，精品造林300亩。投资278万元，实施小型农田水利工程1项、水库除险加固工程1项、农田水利维修养护工程10项。', '二是结构调整步伐加快。深入推进农业供给侧结构性改革，编制完成“两区两带”现代农业发展规划。划定粮食生产功能区23万亩、重要农产品生产保护区1万亩。调减玉米2万亩，流转土地3万亩，完成深松整地3万亩。发展农民专业合作社38户、家庭农场9户。启动编制高桥农产品加工园区发展规划，促进农业产业集群发展。积极培育绿色品牌，“小南沟桑葚”“辽西文君甘薯”被评为绿色食品，暖池塘镇被评为大枣“辽宁特产之乡”，高桥镇绿丰蒜苗被评为“辽宁名牌农产品”。', '三是惠农政策有效落实。发放耕地地力保护补贴2880万元、耕地轮作补贴270万元、农产品产地初加工补助350万元、农机购置补贴220万元。持续加强农技推广力度，引进农业新品种6个，推广新技术5项。努力拓宽农民增收渠道，实名制技术培训1022人。积极应对极端自然天气，农业保险按时发放。稳妥做好非洲猪瘟、美国白蛾疫情防控。', '1、对农民专业合作社的扶持。自2003年起，国家财政拿出专项资金对农民专业合作社进行各项补贴扶持，我们熟知的农机补贴、农民专业合作社示范社奖补资金等。为的是把零散经营的农民组织起来，形成统一经营管理，统一打造品牌的合力。', '2、在农产品品牌建设方面的扶持。我们省和市财政也在农产品认证，特别是绿色食品认证方面给予较大力度的补贴，比如省农委提供产品检测费用，给予奖补资金；市农委不定期给予产地环评和产品检测费用的补贴等；市农委和区农经局、乡镇地方政府帮助注册地理标志、集体商标、普通商标给本地农产品使用。', '3、在技术推广方面。通过“阳光工程”、“设施蔬菜培训”等大型培训项目，对本地农民进行技术培训；组织乡镇主管农业领导、农技人员，村班子成员、合作社带头人走出去考察学习先进技术；示范推广先进技术等。', '4、在农产品营销方面。组织农事企业、农民专业合作社等参加各种展销会、博览会；组织企业与大型超市和电商平台接触等。就金星镇来讲，二位委员反映的改造产地批发市场的问题，镇里也在积极同客商接洽中。', '近几年来，我们本地农产品销售也涌现出新的模式，如金星更好家庭农场做的绿色蔬菜配菜，虹螺岘文君甘薯合作社做的线上线下结合的营销模式，谷大姐家庭农场的采摘模式，虹螺岘小南沟桑葚的采摘节及认养模式，都比较有代表性，也比较成功。就大规模的蔬菜生产提升质量、拓宽销售而言，如二位委员在提案中提到的那样，打造统一品牌、统一种植，是需要广大生产者、特别是农民专业经济组织达成共识，需要龙头带动，我们也希望我们本地有更多的企业、合作社站出来，带动大家共闯致富路。我们各相关职能部门必定会全力以赴给予支持和帮助。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>47</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>区政协八届一次会议第号提案的答复函关于重点打造扶持文君甘薯电子商务平台的建议</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2018-10-30</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2018n/201810/t20181030_808928.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['区政协八届一次会议第12号提案的答复函(关于重点打造扶持文君甘薯电子商务平台的建议)_葫芦岛市南票区人民政府', '区政协八届一次会议第12号提案的答复函(关于重点打造扶持文君甘薯电子商务平台的建议)', '首先十分感谢您对文君甘薯电子商务平台发展关注和支持。发展农村电子商务，对于推动农业产业升级、实现乡村振兴发展、实施精准脱贫等方面具有重要作用，已成为农村经济发展的新亮点和经济转型升级的新引擎。', '2017年，国家发展改革委等7部门联合下发通知，同意大连市、葫芦岛市等共17个城市创建国家电子商务示范城市。', '我区电子商务发展较慢，农村电商工作刚刚起步，基础较差，目前仅高桥镇、虹螺岘镇、金星镇等乡镇有零星业务，没有区级电商平台，知名电商尚未进驻我区。', '为加快我区农村电商发展，近年来，区商务局组织了文君甘薯等企业参与全国网上农产品展销会，与阿里巴巴、京东、乐村淘等电子商务平台也进行多次洽谈，商讨合作意向，并先后去北镇、兴城考察学习，积累发展农村电商经验。', '（一）着手成立南票区促进电子商务发展工作领导小组，全面推进我区农村电子商务发展；积极出台政策文件，加大对农村电商发展的扶持力度，对符合条件农村电商服务站点和快递给予相应的补贴；', '（二）积极引入阿里巴巴等知名电商在我区成立区域性总部，建立市场化运营模式，搭建区、乡、村服务网络，实现“网货下乡”和“农产品进城”的双向物流；', '（三）加大支持力度。年内与文君甘薯进行合作，组织电商精准扶贫培训300人次，扶持建设乡村电商（扶贫）网点（网店）5个，全力助推文君甘薯做大做强，在金融、用地、税收等方面对文君甘薯予以支持。', '以上的答复如有不妥，请批评指正。最后，再次衷心感谢您对文君甘薯电子商务平台发展的关心、理解和支持！']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>47</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>我区召开扫黑除恶专项斗争专题培训会</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2018-08-31</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.lgq.gov.cn/zwgk/jbxxgk/zfhy/qthy/201808/t20180831_801984.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['8月16日，我区召开全区扫黑除恶专项斗争专题培训会议，区委副书记赵宜洋、区委常委、政法委书记陈雷、区扫黑除恶领导小组成员单位及各乡街主要负责人参加会议。', '会上，龙港公安分局相关负责人就赴河北考察学习扫黑除恶专项斗争工作相关情况进行了汇报，区委政法委相关负责人就如何做好扫黑除恶专项斗争工作对与会人员进行了专题培训。', '会议要求：要统一思想认识，进一步提高政治站位。开展扫黑除恶专项斗争，是以习近平同志为核心的党中央作出的重大决策，全区各部门要切实提高政治站位，增强“四个意识”，坚决贯彻落实习近平总书记重要指示精神和党中央决策部署，深刻认识开展扫黑除恶专项斗争的极端重要性和现实紧迫性；要明确职责任务，进一步压实工作责任。要加强组织领导，进一步形成强大合力。扫黑除恶是一项全局性工作，既需要政法部门牵头积极推动，又离不开各部门协同配合，要加强协调联动，主动作为，扎实做好扫黑除恶各项工作，切实履行好工作职责，紧盯薄弱环节，精准施策，攻坚克难，扎实推动全区扫黑除恶专项斗争不断取得新突破、新进展、新成效。', '开展扫黑除恶专项斗争，是以习近平同志为核心的党中央作出的重大决策，全区各部门要切实提高政治站位，增强“四个意识”，坚决贯彻落实习近平总书记重要指示精神和党中央决策部署，深刻认识开展扫黑除恶专项斗争的极端重要性和现实紧迫性；', '开展扫黑除恶专项斗争，是以习近平同志为核心的党中央作出的重大决策，全区各部门要切实提高政治站位，增强', '。扫黑除恶是一项全局性工作，既需要政法部门牵头积极推动，又离不开各部门协同配合，要加强协调联动，主动作为，扎实做好扫黑除恶各项工作，切实履行好工作职责，紧盯薄弱环节，精准施策，攻坚克难，扎实推动全区扫黑除恶专项斗争不断取得新突破、新进展、新成效。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>47</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>积极推进城区停车设施项目</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2018-08-23</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.hldcjjt.com/xmzl/xmdt/201808/t20180824_801017.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['城区停车设施项目是创建全国文明城市，实现“三城同盛”发展战略的重要举措。集团积极与政府相关部门协调，多措并举推进该项目建设。 日前，城区停车设施项目完成了城区停车现状调查、项目建设布点初选、投资测算等工作，并与市直相关部门进行了对接，与社会合作方进行了广泛接触。下一步，集团将会同市规划局、住建委、发改委、公安局等部门及连山、龙港、兴城等县（市）区，到大连、沈阳、邯郸等停车设施建设先进城市进行考察学习，借鉴成功经验，并结合我市实际，探索符合我市的停车设施建设模式，进而确定合作方，编制实施方案，在具备开工建设条件后，将第一时间进行施工建设。', '日前，城区停车设施项目完成了城区停车现状调查、项目建设布点初选、投资测算等工作，并与市直相关部门进行了对接，与社会合作方进行了广泛接触。下一步，集团将会同市规划局、住建委、发改委、公安局等部门及连山、龙港、兴城等县（市）区，到大连、沈阳、邯郸等停车设施建设先进城市进行考察学习，借鉴成功经验，并结合我市实际，探索符合我市的停车设施建设模式，进而确定合作方，编制实施方案，在具备开工建设条件后，将第一时间进行施工建设。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>47</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>市五届人大六次会议关于加快发展南票紫砂产业的建议第号的答复</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2018-08-30</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/jytabl/shirddbjy/shiwjrdlc2017/201808/t20180830_801882.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['市五届人大六次会议《关于加快发展南票紫砂产业的建议》第81号的答复_葫芦岛市人民政府', '近年来，我市把发展文化创意经济作为重点工作加以推进，为此专门成立了葫芦岛市文化创意产业促进中心，协调促进我市文化创意产业发展的相关工作。紫砂作为工艺美术，是文化创意产业的一部分，目前，我市正全力谋划南票紫砂产业的发展，坚持以中高端精品创名，以工艺作品富民，以工业产品强区，引导南票紫砂在创意中崛起，努力把南票建成一座集文化创意和产业规模于一体的新的现代北方陶都。 紫砂产业的发展需要市、区两级政府和市直各部门共同协调推进，目前，在市委、市政府的带领和指导下，南票区政府及市直相关部门围绕各自的职能作用，强化政策扶持，加强沟通协调，注重服务指导，为今后紫砂产业蓬勃发展和地区经济转型发展提供了更加强劲的驱动力。', '一、主要工作成效 1、夯实产业基础 我市紫砂产业从零基础起步，对此，市工信委立足行业发展，充分发挥协调、服务的职能作用，在没有现成经验可循的条件下，经过多次对宜兴、喀左等地进行考察学习，同时积极引进紫砂工艺大师和相关企业，在实践中不断摸索出一条产业发展之路，使我市紫砂产业得到了迅速发展。目前，我们已注册成立了葫芦岛市陶瓷研究所有限公司、葫芦岛市南票区紫砂工艺文化研究发展有限公司和葫芦岛南票天赐紫砂陶业有限公司等专门从事紫砂工艺研发、制品制作的企业，紫砂产业雏形基本形成。 2、开展人才培训 南票紫砂产业还处于起步阶段，相关技术还不成熟，专业紫砂从业人员还比较匮乏，对此，市工信委以丰富人才队伍建设、增强紫砂技术人才储备为重点开展工作。目前，我市共有3个紫砂人才培训站，已培训紫砂技术人员100余人，而且为满足和储备更多的紫砂从业人员，相关的培训站建设和培训计划也在持续进行。 3、加大扶持力度 市工信委成立了企业代办服务中心，为工业企业项目落地后提供全程式、保姆式代办服务，打造高效优质的服务平台，切实改善我市投资软环境，帮助企业“加油减负”。 同时，积极争取省扶持资金，借助省特种资源办的专项发展资金，努力为我市符合条件的紫砂精深加工项目争取扶持资金，缓解企业投资压力。目前，我们为葫芦岛南票天赐紫砂陶业有限公司的人才培训项目争取到补助资金60万元。 4、加强宣传和推广 我市在紫砂作品、产品方面的研发和试制工作取得了良好进展和喜人成绩，目前已有紫砂壶、紫砂花盆等作品产品制作成功，对此，市工信委积极组织相关企业参加中国辽宁“玉龙杯”评选活动。在第五届“玉龙杯”上，我市参评的《德钟》和《国色天香》紫砂作品荣获优秀奖；在第六届“玉龙杯”上，我市参评的《窑变寿桃》、《四方抽盖壶》和《周盘壶》紫砂作品分别荣获银奖、铜奖和优秀奖。从两届“玉龙杯”的获奖情况看，我市精美的工艺紫砂作品不仅得到了有效展示和充分肯定，也极大提高了我市紫砂产业和紫砂文化的知名度和美誉度。 另外，为更好的促进紫砂产业发展和紫砂作品展示，我们积极推动葫芦岛南票天赐紫砂陶业有限公司的紫砂博物馆建设，目前，该公司已在南票及新区富都花园建立了紫砂作品展示场馆，现都已完成改造装修，并向社会公众开放展示', '二、下步主要工作 针对南票紫砂产业下一步发展和壮大，各级政府和市直各相关部门进一步强化了政策扶持和工作开展力度，主要开展了以下几方面工作：', '1、加大政策扶持力度 一是由市工信委组织起草并报市政府审定，出台了《葫芦岛市五个产业发展政策政策》、《葫芦岛市工业供给侧结构性改革实施方案》、《关于落实“五个一批”工作的实施方案》、《葫芦岛市民营工业企业培育行动方案(2017-2018年)》等政策措施，立足我市实际，突出政策引领，为紫砂产业发展提供宽广的政策支撑体系。 二是南票区出台了《2017年推进紫陶产业发展工作方案》，提出了紫陶产业发展的总体要求、工作目标、主要任务和保障措施，并成立了南票区紫陶产业发展领导小组，由区委书记、区长任组长，领导小组下设办公室在区发改局，负责全区紫陶产业发展的组织协调和日常事务。', '2、强化公共服务职能 一是南票区正在加紧制定紫砂产业发展规划及人才培训实施意见，并已责成相关部门对紫砂产业用地进行规划，保证紫砂项目入驻有地可用。同时，加大紫砂资源储量的勘察力度，正在制定紫砂矿产资源管理办法，保证紫砂资源的合理开采和原料供应。 二是市人社局通过申报创业孵化基地补贴，营造良好创业氛围。我省设有创业孵化基地专项补贴资金，对于符合申报条件的创业孵化基地，可以申请专项补贴资金扶持，为创业者提供有效服务，实现创业带动就业倍增效应。另外，市人社局通过开展产业园区特色培训及企业新招用人岗前培训的方式，对紫砂产业从业人员开展技能培训并予以特定补贴：根据我市紫砂产业发展对技能人才的需求状况，开展定向、定岗、订单式特色培训；对陶瓷原料准备工、陶瓷烧成工、陶瓷装饰工等按照我市《职业培训政府补贴专业目录》给予劳动者职业培训补贴和职业技能鉴定补贴；对新招用且签订6个月以上期限劳动合同的省内外劳动者，在岗前培训后继续履行合同的，按照政府培训补贴目录中确定的补贴标准对企业给予直接补贴。 三是市工信委继续组织我市紫砂企业参加中国辽宁“玉龙杯”评选活动，利用我市优秀的紫砂作品，提升我市紫砂产业在全省乃至全国的知名度和美誉度。同时，利用专项资金的扶持政策，积极为我市紫砂企业申报符合条件的专项资金扶持，为紫砂企业减少资金压力，推动紫砂产业发展。', '3、加大宣传推介力度 一是推动南票紫砂文化创意产业基地建设。通过南票区政府、市旅游委、市工信委以及紫砂企业的共同努力，着力推进紫砂文化创意产业园三期工程——紫砂小镇建设，现已完成可研性报告和项目规划的编制工作，预计2020年完成并投入使用，届时将成为集紫砂制作、品茶休闲、度假养生于一体的文化小镇，带动地方经济发展。目前，位于新区富都花园的紫砂博物馆已经开馆，8月份还将在国家AAA级景区缸窑岭明性寺建立紫砂奇石博物馆，用于展出南票紫砂产品。 二是设立南票紫砂推广点。目前，在北京、沈阳、锦州、葫芦岛市区等地设立了南票紫砂形象店，用于推广宣传紫砂。目前推广作用已经体现，吸引了众多紫砂企业和有志于投资紫砂产业的企业来南票进行考察。 三是设立北方紫砂陶都、紫砂展销中心及旅游产品销售中心。借助兴城比基尼广场的便利资源和品牌效应，兴城市政府不断加大对南票区紫砂产业的帮扶力度，支持南票紫砂产业在兴城比基尼广场设立北方紫砂陶都、紫砂展销中心及旅游产品销售中心，以提高和扩大葫芦岛紫砂的影响力和知名度。 四是举办南票紫砂文化周。2016年，我市办了首届“一带一路”宜兴紫砂葫芦岛行暨2016南票紫砂文化周活动，取得了良好的效果。', '今年，南票和宜兴再度联手举办“一带一路”宜兴吕派师徒壶艺辽宁葫芦岛行暨2017南票紫砂文化周活动，通过紫砂，推动葫芦岛与宜兴实现经济文化联动，协同发展。市旅游委、市广播电视台充分发挥职能作用，通过电视、报纸、微信公众号等对外开设专栏宣传，宣传活动非常成功。 五是积极做好舆论宣传。市广播电视台将在《葫芦岛新闻》、《零距离》等新闻栏目中加大对南票紫砂产业的宣传力度，并定期向省电视台推介播稿。积极宣传市政府对南票紫砂产业的扶持政策、措施，宣传南票区在紫砂产业发展中的新做法、新成果。通过舆论引导，吸引更多的客商来此投资兴业，推动南票紫砂产业做大做强。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>47</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>愿做朗月脱贫领路人记兴城市白塔乡朗月村第一书记王科伟</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2018-09-12</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/mtbd/201809/t20180912_803251.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['7月31日，天刚蒙蒙亮，朗月村第一书记王科伟已经驱车前往绥中县宽邦镇，这是他第三次带领村两委班子和村民代表来到绥中县宽邦镇考察、学习旱黄瓜产业基地模式和经验。“绥中县宽邦镇的荣利蔬菜批发市场是葫芦岛市最大的旱黄瓜批发市场，市场每天旱黄瓜销量可达1000吨，成交额约为360万元。附近的村民全部种植旱黄瓜，一个棚一年可收入10万元。”王科伟为记者介绍。', '今年39岁的王科伟，是华润万家东北业务单元鞍辽区高级采购经理，5月来到兴城市白塔乡朗月村任第一书记。经过几个月的走访调研，他发现，该村自然资源贫瘠，耕地种植以玉米和花生为主，种植结构单一，再加上连年旱涝等自然灾害，农作物产量连年递减，农民纯收入仅为500元左右，当地农民很难维系生计。如何发挥土地的效能，带领百姓脱贫致富，成为王科伟心头最沉重的思考。“因为我也是农民出身，我知道农民最离不开的就是土地，所以我想发展种植产业，调整村里的种植结构，为百姓脱贫致富提供长久的依靠。”王科伟说。', '抱着带领村民脱贫致富的决心，王科伟连续三次带领村民代表来到绥中县宽邦镇考察学习，“绥中县距离我们不过七八十公里，却能把旱黄瓜产业做得这么成熟，这先进的种植经验和发展模式值得我们学习。”朗月村党支部书记卢良说。感受到产业脱贫致富的可行性和必要性，村两委班子和村民代表纷纷摩拳擦掌，也想回去大干一场。这为两委班子和村民们开启了一道希望之门，也唤醒了村民骨子里沉睡已久的“农民精神”。“我们真切地感受到王书记身上那一股子的决心和干劲，从大棚的建设到黄瓜的种植，王书记跟我们一起学习、一起研究，到现在他都能算上半个旱黄瓜种植专家了。”卢良说。翻开一本30页的《朗月村精准扶贫计划》，从村子简介到扶贫规划，再到兴城市白塔乡朗月村温室大棚蔬菜种植基地项目的每一步实施，王科伟都记录得清清楚楚。如今，朗月村温室大棚蔬菜种植基地项目已经开始逐步实施，申请注册了朗月村第一个合作社——兴城市朗月润农种植专业合作社，正式打响“朗月脱贫振兴攻坚战”的第一枪。“我们计划9月20日开始进行旱黄瓜温室大棚建设，共建设温室大棚22座，总面积约为9.45万平方米，建设工期40天，11月初正式投产。”王科伟告诉记者，建设大规模种植产业园区能够大幅度提升土地收益，这不仅能够壮大村集体经济，帮助无劳动能力的贫困户，也能够吸收当地的贫困百姓到园区内打工挣钱，进而形成“以农养贫”可再生扶贫模式。', '一边肩负组织重托，一边肩负全体村民厚望。王科伟总是这样告诉自己“我是来干事的，而不是来享受的，乡村振兴不是一个口号，而是要脚踏实地为农村的发展做一点有意义的事情。”如今的朗月村发生了很大变化：村里有了自来水，学校里多了很多体育器材，村里的水利设施正在不断完善……接下来，王科伟打算和华润集团的阿胶产业对接，发展朗月村的养驴产业，带领全村百姓脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>47</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>北方城市设施蔬菜种植基地试点通过验收</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2018-06-07</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/zwgk/fdzdgknr/zdxm/xmsphzxx/jgxx/201810/t20181010_806159.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['记者马东飞报道 6月4日，省农委办公室下发《辽宁省农委办公室关于2016年北方城市设施蔬菜种植基地试点项目验收结果的通知》(辽农办农发〔2018〕223号)，我市创建的北方城市设施蔬菜种植基地试点项目通过验收。项目累计总投资1.056亿元。', '据了解，北方城市设施蔬菜种植基地试点项目是2016年经省农委批准在我市创建的跨年实施项目，项目共完成新建日光温室291栋，面积638.1亩。旧棚改造231栋、300.53亩，物化技术和生产技术配套1337栋、1933.79亩。该项目由市农委牵头，市蔬菜管理中心组织项目相关人员成立了项目实施技术指导组，对项目建设和技术集成进行技术指导。全市在项目区实施过程中进行了20余次现场调研，考察学习5次，结合日光温室蔬菜提质增效安全生产示范推广，现代设施农业小区建设、种植业调整等项目示范推广了物联网技术、智能水肥一体化技术、大垄(畦)双行地膜覆盖栽培技术、臭氧防病技术、智能防风技术等设施30余项，为我市设施蔬菜发展起到了很好的引领作用。', '项目建设实现了项目区内生产技术水平和设施装备化水平大幅度提高，也促使合作社和农户的联系更加紧密，蔬菜标准化栽培、绿色防控设施进一步普及，产业化销售水平进一步提升，蔬菜的产品质量安全水平进一步提高，促进了蔬菜产业的发展，带动了农民增收致富。项目建设期间，新增番茄、黄瓜等蔬菜产量1.21万吨，新增经济效益3230万元，解决了1000余名劳动力就业，社会效益显著。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>47</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>葫芦岛市北方城市设施蔬菜种植基地试点项目验收通过</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2018-06-06</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://nync.hld.gov.cn/ywdt/bdxw/201806/t20180606_793824.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['按照国家及省有关文件要求，经过自主申报、专家评审、社会公示，我市被确定承担2016年北方城市设施蔬菜种植基地试点项目，2018年4月下旬，市级自验通过并上报省农委、省财政厅。2018年5月8日-10日，省专家组先后到南票区、兴城市对承担本项目的建设单位葫芦岛市南票区高升蔬菜专业合作社联合社、葫芦岛市南票区大兴乡富农蔬菜专业合作社、兴城市益民果蔬种植专业合作社和兴城市蓝渤新宇果蔬种植专业合作社4家项目单位进行了现场核验。6月4日，省农委办公室下发《辽宁省农委办公室关于2016年北方城市设施蔬菜种植基地试点项目验收结果的通知》（辽农办农发〔2018〕223号），文件指出：经过专家组现场考核、实地查验，4家项目实施单位全部按要求完成项目建设任务，达到实施方案确定的建设目标要求，通过了省级专家组验收，并经公示无异议。', '项目由市农委牵头，市蔬菜管理中心组织项目相关人员成立了项目实施技术指导组、对项目建设和技术集成进行技术指导。全市在项目区实施过程中进行了20余次现场调研，考察学习5次，结合日光温室蔬菜提质增效安全生产示范推广，现代设施农业小区建设、种植业调整等项目示范推广了物联网技术、智能水肥一体化技术、大垄（畦）双行地膜覆盖栽培技术、臭氧防病技术、智能防风技术等设施30余项，为我市设施蔬菜发展起到了很好的引领作用。', '项目建设实现了项目区内生产技术水平和设施装备化水平大幅度提高，也促使合作社和农户的联系更加紧密，蔬菜标准化栽培、绿色防控设施进一步普及，产业化销售水平进一步提升，蔬菜的产品质量安全水平进一步提高，促进了蔬菜产业的发展，带动了农民增收致富。项目建设期间，新增番茄、黄瓜等蔬菜产量1.21万吨，新增经济效益3230万元，解决了1000余名劳动力就业，社会效益显著。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>47</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>解决群众办事难打造优质办事窗口系列访谈市公积金</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-05-20</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/zxft/jiuban/201806/t20180625_795528.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['主持人：倾听百姓心声，解答百姓疑难;传递政策信息，公开行政行为。网友朋友们，大家好，欢迎收看本期的政务访谈。为贯彻落实辽宁省人民政府办公厅“办事难”专项整治工作和落实第十二届“5.15政务公开日”活动主题，自本期节目起，“政务访谈”栏目将开展“解决群众办事难，打造优质办事窗口”的系列访谈，我们节目将邀请全市14个对百姓办事的部门进行访谈。今天我们栏目就来到了我市住房公积金，请各位网友跟随我们的镜头一起了解一下。', '旁白：市住房公积金管理中心营业大厅面积640平方米，设立一个咨询台，19个服务窗口，共9家单位入驻大厅联合办公，分别为中行、农行、工行、建行、葫芦岛银行，不动产登记中心、物业维修资金、担保公司，评估公司。通过将分散在各单位、各部门的服务事项，统一管理规范和服务标准，向营业大厅集中，构建了“一站式”公积金服务大厅。', '大厅共设43个工作岗位。1—5号银行窗口办理公积金汇补缴、基数变更等对公业务;6—14号窗口办理公积金提取，转移，贷款受理，贷后变更等个人业务;15—16号窗口办理贷款抵押合同签订。17号窗口办理不动产登记业务;18号窗口办理期转现业务;19号窗口办理抵押物查档评估业务。', '为更好地实现便民利民服务，改善营商环境，中心于2016年对业务系统实行了升级改造。改革财务核算方式，账户全部签约住建部搭建的公积金专用结算平台;改变贷款委托银行模式，中心自主核算;改进业务办理，全过程在线流程化控制。搭建起“以会计核算为核心，以客户服务为中心，以内控监管为主线”的一体化综合管理系统。', '系统升级给客户带来的最大便利是业务办理速度明显提升。提取公积金实时到账，公积金对冲还贷、全额结清贷款即办即结。中心业务处理速度达到了银行的核算能力。', '中心近年来竭力打造以客户需求为驱动的全过程服务体系，设立咨询台、成立客服部，为职工提供业务咨询、交流、办理和投诉渠道;积极拓宽服务渠道，陆续开通网站、网厅、微信、微博、12329热线、短信、手机APP、自助查询终端八项综合服务平台，依托平台将服务窗口延伸至职工面前，做好服务工作“最后一公里”。', '营业大厅以服务设施建设为主线，科学调整布局，完善功能分区，精心营造和谐舒适服务环境。咨询台提供各种办事指南及业务流程宣传册;窗口提供各种填单模板及温馨提示;自助区为客户提供查询打印服务;等候区更新座椅写字台，开放电子借阅机，为客户提供专业、文明、便捷、舒适的服务环境。', '营业大厅把加强和改进服务作为解决“办事难”的切入点和突破口，陆续推出了一系列特色便民服务举措。开通绿色通道;实行“5+2”工作制，双休日正常办理业务;开展延时服务、预约服务、上门服务等便民特色服务。诸多服务举措合力形成了公积金良好的服务氛围，受到了各界群众的一致赞誉，社会反响良好。', '为规范营业大厅的管理，实现优质文明服务，营业大厅制订完善了《公积金业务操作手册》、《营业大厅服务规范》等多项规章制度，通过开展“优秀窗口”、“优秀柜员”评比活动，规范了服务行为，提高了服务质量。通过积极落实省市优化营商环境建设要求，优质文明服务水平显著提升，营业大厅连续多年获得国家和省、市各种荣誉称号。', '服务工作永无止境，我们将不断激发全体员工凝心凝力、干事创业的热情，着力营造新常态下重商、为商、亲商的浓厚氛围，加快建设一流营商环境，为打造宜居宜业宜旅的滨海新城作出新贡献。', '主持人;通过我们的镜头可以初步了解公积金的办事流程，下面有请公积金的刘海鹏副主任和我们一起聊聊为解决百姓办事难，部门又做了那些工作。', '答：开展“办事难”问题专项整治，是深入贯彻习近平总书记关于东北、辽宁一系列重要讲话和重要指示精神、扎实推进振兴发展的具体举措，是认真落实中央巡视工作要求、坚持即知即改、立行立改的实际行动，对于促进干部作风大转变、群众福祉大提升、营商环境大改观具有十分重要的意义。我们充分认识到开展“办事难”问题专项整治的重要意义，按照省、市两级统一部署，集中力量解决群众和企业反映突出的“办事难”问题，进一步增强群众和企业的获得感、满意度，为奋力开拓新征程提供有力保障。', '为广大缴存企业及职工服务，实现“住有所居”的梦想，是我们住房公积金服务的宗旨。作为直接面对群众服务的窗口单位，我们要以更大的决心、更有力的举措、更务实的作风，着力在解决具体问题上下功夫，确保整治取得看得见、摸得着、实实在在的成果。', '问题二：请问刘主任，市公积金中心在解决“办事难”问题专项整治有什么具体的整治方向?', '答：我们结合市直机关开展的“强作风、作表率、促发展”活动，聚焦营商环境建设，对照市委、市政府“办事难”问题专项整治三大类20项整治任务，认真梳理整改环节，列出整改清单，细化整改措施，明确整改时限。我们充分发挥窗口单位、营业大厅直接联系服务群众的政务前沿和“最后一公里”作用，在对省内外先进地区进行广泛考察学习的基础上，建设“一站式”服务大厅，优化业务流程，压缩审批时限，推行“互联网+公积金服务”， 创新服务方法，丰富服务手段，拓宽服务渠道。中心着力促进机关作风大转变、重点工作大突破、服务质量大改进，做好民生十件事，积极探索更加便捷的服务方式，增强缴存单位及职工的获得感。', '问题三：中心在优化服务环境方面作出很多积极探索，请问都有哪些方便群众办事的好做法?', '规范服务行为，做到真心为民。中心通过开展优质文明服务知识教育，邀请专家、教授开展服务礼仪知识讲座;举办“情绪管理”、“职业心态”主题培训;修订完善《营业大厅优质服务规范》等多项规章制度;定期开展“优秀窗口”、“优秀柜员”、评比活动，规范服务行为，提高服务质量。', '拓展大厅业务，做到改革利民。通过引进不动产登记、物业维修资金、查档评估、担保公司、银行等9家与公积金业务相关联的单位、部门进驻营业大厅，构建成我省首家“一站式”公积金服务大厅。通过将分散在各单位、各部门的服务事项向公积金营业大厅集中，统一管理规范和服务标准，营业大厅实现了一条龙办结所有公积金业务，做到了“进一扇门，办所有事”，为办事群众提供了更加方便快捷的服务，大大提高了工作效率。', '例如：以前职工办理公积金贷款业务，要在公积金、不动产登记中心、银行、产权处之间来回奔波三四趟，分别办理申请、查档、评估、抵押、领证、送证等6个环节。现在，在营业大厅一次就可以办理完所有部门的业务，相关手续及数据由各部门后台传送，大大减轻了办事群众的负担，避免了群众多头跑，反复跑。', '问题四：大家都知道，公积金作为政策性的购房资金，以往的申请流程比较复杂，手续比较繁琐，那么我们市公积金中心是如何简化办事流程，方便群众呢?', '答：中心依托升级改造业务系统，改革财务核算方式，职工账户全部签约住建部搭建的公积金专用结算平台;改变以往贷款委托银行的模式，由中心自主核算;改进业务办理模式，业务全程在线流程化控制。搭建起“以会计核算为核心，以客户服务为中心，以内控监管为主线”的一体化综合管理信息系统。', '在此基础上，我们剔除单位盖章、婚姻证明等不合理的繁琐手续以及手工记账、委托银行放贷等不必要的中间环节。通过优化岗位设置，再造业务流程，简化办理要件，推行综合柜员制等一系列配套举措，把以往分散在各科室的审批人员全部向大厅集中，每个综合柜员窗口都能够办理所有类型的公积金业务，实现了业务流程扁平化，大厅之外无审批，为职工提供高效便捷服务。', '现在中心业务处理已经达到银行的核算水平，新系统给职工办事带来的最大便利是业务处理速度明显提升，时间显著缩短。', '比如：现在职工提取公积金，审核通过后，人不出大厅，款项实时到帐;对冲还贷、用公积金结清贷款即办即结。以前，我们需要等待银行交换处理票据，返回数据后中心进行手工记账。业务处理由以往的3至7天到现在只需要几秒就能完结。', '问题五：在当今信息技术突飞猛进的情形下，我们市公积金中心是如何利用信息化手段，解决群众办事难问题?', '答：我们利用信息技术，整合各种平台资源，建立了以网站、网上营业厅、手机APP、12329热线、短信、微信、微博、自助终端为一体的综合服务平台，通过打造以“互联网+公积金服务”为核心的综合服务平台，公积金中心变“管”为“服”，凡是与公积金业务相关的业务咨询、业务办理等所有服务事项“全程在线”，实现“上一个网服务全方位”，以信息化为载体，丰富服务手段，创新服务方式，解决群众办事难的具体问题。', '例如：通过平台的多元化服务手段，职工在移动终端或电脑上即可实时查询个人账户信息，预约申请办理业务，咨询办理疑难问题等。不用向以前那样，得专门上营业厅咨询问题。', '中心依托综合服务平台将服务窗口延伸至职工面前，打通服务群众“最后一公里”，网络营业厅(个人版、企业版)的推出，实现了线上审批，推动了公积金网上办理、掌上办理等服务的开展。通过推行“不见面审批”，让缴存职工享受更多足不出户的公积金服务，为缴存企业和职工提供了更加便捷高效的服务。', '问题六：据了解，市公积金中心在解决群众办事难问题推行了一系列便民利民措施，下面请刘主任为我们详细解说：', '答：我们始终以群众满意为工作的出发点和落脚点，把加强和改进服务作为解决“办事难”的切入点和突破口，充分发挥住房公积金在惠民生、去库存、促发展中的保障作用。从便民处着手、细微处用心，转变工作作风，创新服务举措，提高服务效能，陆续推出了一系列惠民便民服务举措。', '一是营业大厅提供爱心服务。为群众提供纸抽、花镜、热水等，为办事职工提供免费复印、打印服务;二是开通绿色服务通道。对老弱病残等职工群体，充分考虑需求，实行主动上门服务，让群众切身体会到便民措施带来的实惠。三是市本级营业大厅实行5+2工作制，双休日正常办理业务，在我市窗口单位尚属首家。为广大职工解决了“上班时间没空办事、休息时间没处办事”的困扰;四是开通手机APP预约业务，为职工提供个性化需求服务;五是缴存开户实行“多证合一”，提供具有统一社会信用代码的工商营业执照就可以开户，简化缴存单位办事程序;六是增加生活困难和患重大疾病职工提取公积金额度，缓解职工家庭实际困难;七是与市中级人民法院联合下发《关于建立住房公积金执行联动机制的若干意见》，从法律层面维护了职工、住房公积金缴存人及债权人的合法权益;八是简化租房提取手续，增加提取额度，为无房职工解决租房实际困难;九是对在东戴河购买自住住房的职工，精简业务流程，实行优惠贷款政策，助力东戴河新区振兴发展。十是实行异地公积金贷款政策。外市职工在我市购房，可享受本市公积金贷款的政策;十一是开通公积金异地转移。简化手续，户随人走，职工因工作调动办理转移只需在转入地提供身份证就可以办理。', '服务永无止境，我们公积金中心将始终坚持服务大局、服务群众，确保“办事难”整治工作扎实推进，形成长效机制，不断推出便企利民的实际举措，为缴存企业及职工提供便捷高效的优质服务。', '主持人:本期的节目就到这里，感谢网友朋友们的收看，下期节目我们将请来我市工商局的领导解答服务百姓办事的工作，我们下期再见。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>47</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>省农委组织专家验收我市北方城市设施蔬菜种植基地试点项目</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2018-05-17</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://nync.hld.gov.cn/ywdt/bdxw/201805/t20180517_791596.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['月9日-10日，省农委经作处孙德军副处长组织6位专家对我市承担的北方常识设施蔬菜种植基地试点项目进行验收。', '专家组先后到南票区、兴城市对承担本项目的建设单位葫芦岛市南票区高升蔬菜专业合作社联合社、葫芦岛市南票区大兴乡富农蔬菜专业合作社、兴城市益民果蔬种植专业合作社和兴城市蓝渤新宇果蔬种植专业合作社进行现场验收，并根据验收标准查验了各类项目档案材料。', '项目由市农委牵头，市蔬菜管理中心组织项目相关人员成立了项目实施技术指导组、对项目建设和技术集成进行技术指导。全市在项目区实施过程中进行了20余次现场调研，考察学习5次，结合日光温室蔬菜提质增效安全生产示范推广，现代设施农业小区建设、种植业调整等项目示范推广了物联网技术、智能水肥一体化技术、大垄（畦）双行地膜覆盖栽培技术、臭氧防病技术、智能防风技术等设施30余项，为我市设施蔬菜发展起到了很好的引领作用。', '项目建设实现了项目区内生产技术水平和设施装备化水平大幅度提高，也促使合作社和农户的联系更加紧密，蔬菜标准化栽培、绿色防控设施进一步普及，产业化销售水平进一步提升，蔬菜的产品质量安全水平进一步提高，促进了蔬菜产业的发展，带动了农民增收致富。项目建设期间，新增番茄、黄瓜等蔬菜产量1.21万吨，新增经济效益3230万元，解决了1000余名劳动力就业，社会效益显著。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>47</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>关于对县政协十届一次会议第号关于进一步加强建昌县村集体经济发展的建议的答复</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2018-05-16</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/xxgk_3511/zfxxgk/fdzdgknr/jytadf/zxtadf/xzx_2018/201808/t20180827_801273.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['关于第一条：“对村干部进行必要的培训------”。治穷先治愚，不怕办不到就怕想不到。我县地域偏远，经济落后，人的思想僵化，知识匮乏，求富求变意识淡泊。发展村经济村干部的素质非常重要。我局在2017年8月份已对全县村干部进行了一次发展壮大村集体经济的培训。乡村干部积极性很高，效果很好。下一步我局将积极与县政府进行沟通，争取财政资金，组织部分发展村集体经济有潜力的村干部到外地进行考察学习。', '关于第二条：村集体经济的会计工作面临两个问题：一个是财会机构的设置，一个是会计制度的执行。我局也一直在探讨村集体经济的财会机构设置问题，下一步将与一些典型乡镇进行交流，与财政局有关股室共同早日制定村集体经济财会机构设置指导意见、工作制度。', '关于第三条：发展壮大集体经济，吸收社会资金走股份合作道路，是一个重要发展方向。但这涉及到国家政策指导，社会资本的谨慎性决策问题，要逐步发展。我局将与发改局共同努力，促进这种经营模式的形成。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>47</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>气象局赴营口市气象局开展党建业务调研工作</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2018-07-20</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/bmdt/201807/t20180720_798103.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['通讯员苏婉报道 为提升兴城市气象局党建工作水平，7月18日该局党支部一行5人赴营口市气象局开展“党建+业务”调研学习工作。', '在营口市气象局，兴城市气象局党务干部一行参观学习了营口市气象局的内部建设、制度建设、亮点工作、“三会一课”开展情况、“党员进社区”活动情况等，并到营口市大石桥气象局深入细致地了解了“党建+业务”工作情况，实地考察学习了大石桥气象局的乡镇预报、预报预警业务开展的先进经验及“一般站”的地面观测无人值守情况等。', '通过此次调研学习，气象局党务干部们纷纷表示，将积极吸收先进经验，结合本局的工作实际，扎实做好基层党建工作，将党建工作与业务工作紧密结合，做到以党建促业务，为做好兴城市气象服务工作做出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>47</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>南票区组团赴建昌县考察学习产业扶贫工作</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2018-01-11</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/tpxw/201801/t20180111_778466.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['为推动南票区扶贫开发工作取得新突破，学习借鉴兄弟县的先进理念和发展经验，12月21日，区委书记郭毅、副书记宋跃、区政府副区长张立民带领相关部门负责人赴建昌考察学习产业扶贫工作。', '郭毅一行先后来到建昌县小德营子乡贾家屯村集体服装加工厂、二道湾子乡澜盛绿色生态农业基地、巴什罕乡戴杖子村华能集团光伏项目等八个产业扶贫项目进行实地考察，通过听取介绍、查阅资料等形式，详细了解建昌县的产业发展、产业带动、扶贫小额信贷等情况，并与当地领导就扶贫产业项目进行了深入交流。', '郭毅表示，此次考察学习受益匪浅。建昌县产业扶贫工作从问题导向出发、从顶层设计入手、从体制机制突破，以增加农民收入为核心，以财政引导、产业支撑、担保跟进、银行放贷、风险防范为支撑，探索出了“扶贫小额信贷+贫困户”、“强党支部+脱贫合作社+弱劳动力”、“光伏项目+贫困户”等脱贫模式，有力的加快了贫困百姓的脱贫致富步伐，值得我区学习和借鉴。', '郭毅要求随行人员要以此次考察学习为契机，总结好、学习好、领悟好、运用好建昌县产业扶贫工作的先进经验，理清思路，结合实际，以精准扶贫为目标，全力做好我区产业规划、发挥好龙头企业带动作用、搭建好多部门联动的工作机制，汇报好、宣传好、扶持好产业扶贫项目。要提高认识，下大力气，及时研究解决工作推进中出现的新情况、新问题，确保脱贫攻坚工作取得新进展。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>47</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>打造七彩街市</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2018-02-08</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://zjj.hld.gov.cn/zwzx/zjxw/201802/t20180208_781657.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['乘车或步行在夜晚的龙湾大街，不经意间，街边会忽然“跳”出一只孔雀，抑或是几只小鹿、小狗，还有晶莹剔透的钻石、发光的宝葫芦、立体感十足的苹果，他们争相跃入你的眼帘，让你觉得仿佛置身仙境一般。在形态各异亮化小品景观的映衬下，夜幕下的葫芦岛城区一下子灵动起来。 每年的春节亮化工程是扮靓城市、营造欢乐喜庆节日氛围的重头戏。细心的市民会发现，今年的亮化景观与历年都不同，造型多样，生动活泼，充满新意，令人赏心悦目。 今年我市春节亮化小品景观花样翻新，不仅养眼，而且寓意深刻，处处散发着浓郁的中华传统文化气息，同时也展现出新时代、新征程下，市委、市政府带领全市280万人民决胜全面小康的坚强决心和信心。将亮化小品景观创意与我市的经济社会发展以及中华传统文化结合起来，这在我市尚属首次，而且也正契合了今年中央对春节活动重在体现创新的要求。 亮化景观小品到底有着怎样的寓意呢？ 全市主干道两侧的亮化小品共有27个不同景观，分布在8个道路节点。', '龙湾大街中法岗。这儿的亮化小品真多。8个苹果寓意四平八稳，做事稳当；五色彩虹寓意百姓生活五彩缤纷；3只小狗寓意旺财、3只小鹿寓意福禄，象征着市民对美好生活的期盼；3只海星是海洋的符号，寓意着我市是一座充满活力的海滨城市；海星后面挂着彩色灯串的五棵大树，命名为幸福树，寓意滨城百姓的日子一年更比一年好。', '城市名字是葫芦岛，亮化小品景观当然少不了葫芦题材了。夜晚，市政府广场的几处葫芦造型看上去活灵活现，好像葫芦娃要跳出来一样。为了打造逼真鲜活的葫芦，上面的灯串都是工作人员现场手工编制上去的。葫芦寓意福禄，打造了金葫芦、宝葫芦，寓意葫芦岛市民永远幸福安康。后面的树林没是一片幸福树，树上挂的都是中国老百姓过年最喜爱的东西，有寿桃、满天星、鲁冰花、小福灯、红苹果，每一个小挂件挂在树干的什么地方，都是经过精心定位的，看着舒服，亮起来更好看。', '市交通局路口的亮化小品是孔雀开屏造型，寓意吉祥降临，滨城百姓生活多姿多彩；后面绿化树作衬景，寓意孔雀生活在我们这座国家级森林城市中，彰显城市生态文明主题。', '一路来到龙湾公园。大门口10年以上的树上挂满了各种寓意吉祥的小挂件。此处景观被命名为荷塘月色，寓意我市的生态文明建设蒸蒸日上。', '报晓园是新城区一处十分幽静的景观。这里紧靠路边有一棵20多年的大树。设计者做亮化时首要的原则是充分借助大自然景物来营造效果。在报晓园这选点时，这棵大树一下子就被相中了，而且这棵大树也激发了设计者的创作灵感，在把它装扮成参天福树的同时，又在树下做了一个‘天降宝石’造型，并在这片区域悬挂了20个时来运转灯，寓意在市委、市政府的正确领导下，在全市人民的共同努力下，我市抢抓机遇，多项经济指标增幅排在全省前列，经济实现快速发展，百姓的钱袋子越来越鼓了,可见今年的亮化小品创意充满鲜明的时代感。', '海滨公寓路口的海豚造型全部是用手工灯串装扮起来的，一只顶球，一只顶苹果，寓意岁岁平安，好运连连。海豚下面是用小珍珠串起来的小树球，用浪花网灯衬托，寓意海洋滋养我们的城市，带给市民富裕美好的生活。 参观新城区亮化工程的最后一站是龙背山公园。大门口的龙池前边是一排大红灯笼，池中用手工串编制了一池清水景观，充满了喜庆祥和的气氛。 新城区的亮化注重从细处着眼，打造小品景观，而老城区的亮化，则注重从大格局处入手，打造满城大红灯笼高高挂的喜庆氛围。老城区中央路、新华大街、兴工大街、连山大街、化工街、化机路6条主干道两侧，共悬挂了2340个八美缎的红灯笼。纵观亮化景观，无论是细处着眼还是大格局入手，浓妆淡抹总相宜。 今年的春节亮化工程继续本着节俭的原则，2017年春节亮化使用的红灯笼，100%回收再利用，今年用了960个；挂灯笼的横担100%再利用；灯线100%再利用。回收LED红光灯泡作为备用灯泡。现在，工人们正加班加点进行安装、调试，整完一处亮一处，确保小年前所有的亮化品种全部点亮，正常运行，特别是2340个灯笼，亮灯率达100%。过年要有年味儿。灯亮了，年味儿就起来了。 在设计亮化小品景观的前期,为了寻找好的创意，负责亮化工作的同志自费到南方考察学习，取经回来后，和住建委领导一起，反复研究方案。坚持节俭创新原则，紧密结合我市实际，把国家园林城市、国家森林城市、海滨旅游城市的特色以及生态文明建设等内容巧妙地融入小品景观的创意中。正是有了他们这种撸起袖子加油干的干劲，今年的亮化小品景观才格外出彩儿，一经亮相，便受到广大市民和市有关领导的赞许和肯定。', '2月5日晚，在老城区寒冷的冬夜里，亮化工作人员顺着梯子爬到灯杆上，把红灯笼一个个安装到横担上。因为天气太冷，操作几分钟，工人就得搓搓手，半个小时下来，手、脸都冻成紫色了。所有工程指挥及工作人员已经连续干了47天了。施工过程中，为了不影响交通和保证行人安全，施工全部选择在晚上进行。12月、1月正是北方冬天最冷的时间段，最低气温达到-20℃。在悬挂、编制灯串作业时，不能戴手套，接触的大都是铁器，很多工作人员手、脸都冻伤了，可为了早日让灯亮起来，我们这些工人也真是拼了。', '亮化工程是春节期间重要的民生工程，市住建委党委高度重视此项工作。委主要领导和设计人员共同研究方案，施工过程中多次到现场明察暗访，发现问题，第一时间在微信工作群中作部署，提出意见和建议。 花小钱，办大事，办老百姓喜欢的事。这是市住建委提出的亮化工作口号。“远远的街灯明了，好像是闪着无数的明星。天上的明星现了，好像是点着无数的街灯。”今年春节亮化工程，打造了一个具有葫芦岛特色的七彩街市。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>47</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>葫芦岛市中级人民法院工作报告</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2018-02-27</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.hldrd.gov.cn/rmdbdh/srdyc/hybg1/202007/t20200716_988989.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['——2018年1月10日在葫芦岛市第六届人民代表大会第一次会议上 葫芦岛市中级人民法院代院长 王淑俐 各位代表： 现在，我代表市中级人民法院向大会报告工作，请予审议。 市五届人大一次会议以来，全市法院在市委的正确领导下，在市人大及其常委会依法监督、市政府大力支持和市政协民主监督下，全面贯彻落实党的十八大和十八届三中、四中、五中、六中全会精神，深入学习宣传贯彻党的十九大精神，坚持服务市委中心工作，忠实履行宪法法律赋予的职责，全面加强审判执行工作，扎实推进司法改革，各项工作取得新进展。 一、坚持以服务大局为宗旨，提供有力司法保障 服务供给侧结构性改革。积极开展破产审判工作，将破产案件管辖权收归市中院，圆满完成葫芦岛锌业股份有限公司系列破产重整案件审理工作，妥善化解法律风险、经营风险和社会风险。稳妥处理“僵尸企业”，推进执行案件移送破产审查工作，受理“执转破”案件38件，统筹解决执行难和破产难问题，淘汰落后产能，促进产业结构调整。加强对土地使用权出让转让、房地产合作开发、商品房买卖等类型案件的审理，审结房地产纠纷案件3429件，保障房地产市场平稳有序健康发展。 营造法治化营商环境。将审判执行工作融入全市经济社会发展总体布局，依法严惩各类危害社会经济秩序犯罪，平等保护各类市场主体合法权益，依法纠正行政机关违法行政行为。开展“我为营商环境建设做贡献”大讨论活动和“规范司法行为，优化营商环境”专项活动，出台工作方案，排查破坏营商环境的10类突出问题，制定23条措施加以规范，运用司法手段为营造法治化营商环境贡献力量。 助推法治政府建设。推进行政机关负责人出庭应诉工作，在全省率先开展行政审判管辖机制改革和庭审方式改革，连续6年发布行政审判白皮书，提出规范行政执法建议，为法治政府建设建言献策。与市政府法制办建立行政司法联系制度，推行定期通报分析行政机关败诉案件、司法与行政培训资源共享等举措，提高行政机关干部履职能力，推动法治政府建设进程。 二、坚持以执法办案为中心，认真履行审判职责 四年来，全市法院共受理各类案件126648件，同比上升57.7%，审（执）结111848件，同比上升47.5%。其中，市中院受理各类案件14172件，同比上升80.4%，审（执）结13521件，同比上升84.8%。 依法打击刑事犯罪。全市法院审结刑事案件8820件，同比下降0.24%，市中院审结刑事案件1564件，同比上升29.1%。认真贯彻宽严相济刑事政策，严把案件事实关、证据关和法律关。严厉打击故意杀人、故意伤害、绑架、抢劫、黑社会性质组织等犯罪1602件，审结社会影响巨大的栾立明持枪抢劫银行案、盆国富等特大贩毒案等多起大要案。突出打击破坏金融秩序和市场秩序犯罪，审结集资诈骗、非法吸收公众存款、非法经营等犯罪案件92件，有力维护我市金融秩序和经济秩序。依法从宽处理未成年罪犯234名，对符合条件的84名服刑罪犯办理特赦。 妥善化解民商事纠纷。全市法院审结民商事案件71409件，同比上升43.3%，市中院审结民商事案件9173件，同比上升74.4%。推进案件繁简分流机制，依法适用小额诉讼程序，努力提高办案效率。推动家事审判方式改革试点工作，指定专门合议庭审理家事案件，审结婚姻家庭、继承等纠纷17820件。依法办理劳动争议、医疗、交通事故、产品质量等民生热点案件11817件，妥善审理借款、买卖等商事合同纠纷31584件，审结知识产权案件71件，有力维护人民群众合法权益和公平竞争的市场秩序。推进多元化纠纷解决机制，与市工商联、妇联、交警部门建立诉前调解对接机制，将调解贯彻案件审理全过程，调解撤诉结案29046件，调撤率40.7%，有效化解矛盾，促进社会和谐。 稳妥处理行政争议。全市法院审结行政案件4872件，同比上升254%，市中院审结行政案件1235件，同比上升329%。实行行政诉讼案件集中、交叉管辖制度，实现司法地域管辖与行政管理区域的相对分离，对行政相对人的诉权保护力度明显增强；判决变更、撤销、确认行政行为违法784件。严格审查非诉执行案件，准予执行1003件。运用调解方式化解行政争议，案件协调撤诉比例达22.3%，实现了法律效果和社会效果的统一。 着力破解执行难题。全市法院执结案件25632件，同比上升53.2%，市中院执结案件1244件，同比上升94.4%。开展执行案款清理、涉金融债权案件清理、涉民生案件集中执行等专项活动，执结积案2000余件，发放执行款2.4亿元，执行到位金额3亿元，有效保障了申请人合法权益。认真贯彻市人大常委会《关于进一步加强全市法院执行工作的决议》，与市发改委、市公安局、市住房公积金管理中心、市不动产中心等建立和完善执行联动机制，严厉打击规避执行、抗拒执行行为，纳入失信名单3337人，限制高消费3521人，司法拘留732人，向公安机关移送涉嫌拒执犯罪案件35起。2017年，在葫芦岛电台、日报和各类网络媒体同步曝光失信被执行人信息300余人次。积极推行网络司法拍卖，网拍标的物796件，标的物成交率98%，成交金额1.08亿元，溢价率59%，节省佣金502万元，执行工作成效显著提高。 加强立案信访窗口建设。全面实行立案登记制，彻底解决“告状难”问题。立案窗口实行“柜台式”办公、“一站式”服务，一小时案件录入率达90%以上。全面推进涉诉信访机制改革，创新诉访分离、案件处置、责任捆绑、带案下访、统筹协调等工作机制，处理群众来信562件，接待群众来访2812人，实现了全市法院信访案件减量退位，取得良好社会效果。积极开展社会矛盾纠纷排查化解专项行动，深入推进律师代理申诉制度，圆满完成十九大期间控访维稳工作，为维护社会稳定做出突出贡献。2014年，最高人民法院将市中院确定为全国法院涉诉信访改革试点法院，并在全国法院涉诉信访改革推进会上做经验介绍。 三、坚持以司法改革为驱动，不断提高审判质效 深入推进审判权运行机制改革，形成全方位、立体化改革模式。2014年，市中院被确定为审判权运行机制改革全省和全国试点法院。经过四年的探索和实践，形成了以审判权力运行“去行政化”，组织结构“扁平化”，监督主体“多元化”，审判管理“制度化”为标志的，涵盖审判权运行机制、信访工作机制、监督机制、审判管理机制、队伍建设和党建工作机制的全方位、立体化改革模式。改革后，月均结案数上升63%，调撤率较全省均值高9.1%，一审服判息诉率上升5.4%，投诉率下降8%，法官庭审更加规范，裁判文书说理更加透彻，人民群众满意度逐年提高。先后有百余家法院前来考察学习，新华社、《人民法院报》、《辽宁日报》等主流媒体多次报道了改革情况。最高法院、省、市主要领导对改革工作做出批示，予以肯定。 深入贯彻落实司法责任制改革，为司法体制改革奠定良好基础。建立“一个合议庭即一个审判庭”模式，切断了行政权对审判权的干预；将裁判文书签署权下放给合议庭，真正实现“谁办案谁负责”；变院、庭长审批制为审理制，优质审判资源重回审判一线，院、庭长直接审理案件达全院案件总量的27.3%。建立新型监督评价机制，内设案件评查委员会和评查合议庭，外引独立第三方评价机制；建立办案质量终身负责制和错案责任倒查问责制，实行过问案件登记报告制度、程序外留痕机制，确保法官依法独立公正行使审判权。 稳妥开展司法体制改革试点工作，开创改革新篇章。2016年，市中院被省法院确定为全省司法体制改革试点法院。全市法院紧密结合实际，积极稳妥推进以法官员额制为重点的改革试点工作，采取“考试+考核”的综合评定方式，把审判工作实绩、业务能力水平、思想政治素质、职业品德和司法廉洁作为选任法官的重要考核标准，科学确定员额比例，合理制定入额标准，精心开展入额遴选，先后两批次完成259名员额法官遴选工作，确保政治素质高、办案能力强、审判经验丰富的法官进入到员额法官队伍中。此外，市中院还积极探索内设机构改革，扎实推进法官、法官助理、书记员单独职务序列、法官工资制度等配套制度的落实，圆满完成了改革试点工作。 四、坚持以党建工作为抓手，全面提升队伍素质 加强思想政治建设。扎实开展党的群众路线教育实践活动、“三严三实”专题教育、“两学一做”学习教育，引导干警牢固树立“四个意识”，坚定“四个自信”，坚定法治信仰，站稳政治立场，始终确保正确政治方向。认真学习宣传贯彻党的十九大精神，深刻认识依法治国的核心价值理念，以高度的政治自觉、思想自觉和行动自觉，着力在学懂弄通做实上下功夫，用实际行动将党的十九大精神落到实处。 加强司法队伍建设。多渠道、多形式开展业务培训，加强司法能力建设。四年来选送省级以上法官学院培训法官1865人次，开展全市基层法院授课活动，着力提高法官法律适用能力和矛盾化解能力。加强法院文化建设，打造“快乐工作、健康生活”的机关文化，开展“忠诚、干净、担当”主题实践活动，营造积极向上的工作氛围。全市法院25个集体、27名干警受到省级以上表彰，市中院被省法院记集体二等功。 加强党的基层组织建设。市中院对基层党支部进行了“扁平化”改革，由院党组成员或副处级以上党员干部担任支部书记，强化了党的组织体系，增强了党组织的凝聚力和号召力。 加强党风廉政建设。落实全面从严治党主体责任，广泛开展廉洁司法警示教育，强化监督责任，开展审务督察59次，发现问题并整改32件，深入开展司法巡查，先后与基层法院全体领导班子成员和中层干部进行个别谈话，梳理问题和困难58个，提出整改建议和意见65条，切实改进司法作风。加大案件查办力度，按照“四个一律”和“五个严禁”要求，以“零容忍”态度主动查处干警25名，其中开除2人，给予行政撤职1人，给予其他党政纪处分22人。法院干警违纪违法行为举报投诉率明显下降，队伍纪律作风明显转变。 五、坚持以接受监督为保障，推动工作科学发展 自觉接受人大依法监督和政协民主监督。严格执行向人大及其常委会报告工作制度，先后就审判权运行机制改革、执行工作等向市人大常委会进行专题报告。认真做好代表、委员沟通联络工作，办理代表建议案和政协委员提案16件，满意率100%；邀请人大代表、政协委员视察、旁听庭审900人次，寄送《法院之窗》、审判通报、法院工作报告等资料3160份。市中院聘请35名人大代表、政协委员担任特约监督员，定期听取意见和建议，不断改进工作。 开展独立第三方评价。2015年起，市中院探索建立独立第三方评价机制，连续3年委托东北大学社会调查中心对市中院司法公正、司法廉洁等方面进行社会满意度调查。独立的第三方视角覆盖了内部评价无法辐射的领域，得到社会公众、当事人、律师及案件利害关系人最直接的监督、最中肯的建议。市中院还将第三方评价领域拓展至庭审和裁判文书，由第三方组织专家对每位员额法官庭审质量和裁判文书质量进行客观评价，推动法院工作。 全面深化司法公开。遵循“以公开促公正、以公正促公信”工作理念，全面推进审判流程、执行信息、裁判文书和庭审四大公开平台建设，着力构建开放、动态、透明、亲民的阳光司法机制。全市法院案件开庭率达 98.1%，再审案件复查听证率100%，裁判文书上网率98%。市中院微博视频直播庭审17场，点击率突破300万人次。健全“法院开放日”长效机制，让公众走进法院、亲近司法，培育全社会法律意识和法治信仰。 各位代表，过去四年，全市法院工作的发展进步是市委领导、市人大监督、市政府、市政协及社会各界大力支持的结果。在此，我代表全市法院干警表示衷心的感谢！ 我们也清醒地认识到，全市法院工作还存在着不少困难和问题，案多人少的矛盾依然突出，少数法官业务能力、纪律作风意识有待提升，便民利民措施还有所欠缺，信息化建设严重滞后，司法公开力度还有待进一步提高。对此，我们将进一步采取有效措施认真加以解决。 2018年全市法院总体工作思路是：牢记十九大赋予的历史使命，自觉用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，始终坚持党对法院工作的绝对领导。做到始终围绕中心服务大局，认真履行审判职责，为葫芦岛市经济社会发展创造安全的政治环境、稳定的社会环境、公正的法治环境、优质的服务环境。 一是坚持为大局服务，在保障经济社会发展上要有新作为。聚焦全市振兴发展，全力维护社会稳定，依法打击各类犯罪，开展好企业破产重整工作，依法促进供给侧结构性改革。加强对各种所有制组织和自然人财产权的平等保护，依法制裁违法、违约、失信行为，激发非公有制经济活力。积极开展司法建议活动，创新服务机制，继续推出行政审判白皮书，促进依法行政，适时发布金融审判白皮书，降低经营风险。 二是坚持为人民司法，在服务和改善民生方面要有新作为。牢固树立以人民为中心思想，高度关注人民最关心、最直接、最现实的利益问题。强化服务意识，加强便民诉讼网络建设，依法从重从快打击涉民生犯罪，化解涉民生纠纷，加大涉民生案件执行力度。有效发挥立案、信访、法庭便民作用，健全完善矛盾纠纷多元化解机制，完善诉前调解机制，将繁简分流落实到各种案件类型和办案全过程，用实际行动落实好为民司法。 三是坚持推进司法体制综合配套改革，在提高审判质效上要有新作为。规范法官的自我管理职能，强化院、庭长的协调监督职能，落实审判委员会的统筹指导职能，正确处理放权与监督的关系。建立科学的绩效评价体系，实现业绩评价与员额退出、惩戒、激励机制有效衔接。推进以审判为中心的刑事诉讼制度改革，推进依法裁判实质化。推进法院内设机构改革，完善配套改革措施。加强执行工作统一管理和协调，进一步完善与有关部门的执行联动机制，努力实现“两到三年基本解决执行难”的目标。 四是坚持公正廉洁司法，在提升队伍能力素质上要有新作为。加强法官廉政意识教育，牢固树立“四个意识”，整治司法行为不规范问题。加强法官业务培训，增强法官助理辅助办案能力，完善书记员管理制度，多层次提升司法能力。推进法院文化建设，营造健康向上的司法生态。强化党内监督，严守司法廉洁底线，以“零容忍”态度惩治司法腐败，推进法院队伍正规化、专业化、职业化建设，打造过硬队伍。 五是坚持自觉接受各界监督，在提高司法公信上要有新作为。自觉接受人大、政协、监察委、检察机关和社会各界监督，促进法院公正司法。深化四大司法公开平台建设，拓宽审判流程信息公开渠道，努力实现裁判文书上网全覆盖，加大执行信息公开力度，加强庭审直播录播工作。完善第三方评价机制，以提升司法公信为目标，不断改进法院工作。 各位代表，公平正义是人民法院的永恒追求，惩恶扬善是人民法院的责任担当。在新的一年里，我们将认真落实党的十九大精神，不忘初心，牢记使命，锐意进取，扎实工作，不断开创新时代法院工作新局面，为我市实现更高水平发展提供有力司法保障。 报告中有关用语的说明： 1、本报告数据统计周期为2014年1月1日至2017年12月15日。 2、执转破：最高法院2017年1月20日印发《关于执行案件移送破产审查若干问题的指导意见》，全面推进执行案件移送破产审查工作。 3、栾立明持枪抢劫银行案：2014年3月29日7时许，在我市中国工商银行新华大街支行门前，被告人栾立明持枪抢劫运钞车，并开枪击中一名押解人员腿部，劫取人民币、港币、美元、欧元等现钞折合人民币近200万元。此案在我市造成巨大影响，社会关注度极高，案件起诉至我院后，院领导高度重视，精心组织审判，依法判处被告人栾立明死刑，缓期二年执行，并进行了新闻报道。 4、盆国富等特大贩毒案：该案件涉毒品数量达45公斤，是我市已审结的最大一起贩卖毒品案件。经开庭审理，依法判处主犯盆国富、林升业死刑。案件经省院复核完毕，已报最高人民法院核准。辽宁新北方、葫芦岛市电视台等多家媒体对此进行了专题报道，取得了良好的社会效果和法律效果。 5、葫芦岛锌业股份有限公司破产重整案件：2015年市中院在审理“锌厂”破产重整系列案件中积极作为，协调各方最终在法定期限届满最后一刻完成重整，避免了企业破产所面临的摘牌、停产、退市，使股民和数万企业职工生活得到保障，企业走上良性发展的轨道。 6、特赦：特赦是指国家元首或者国家最高权力机关对已受罪行宣告的特定犯罪人，免除其全部或者部分刑罚的制度。2015年，市中院依据《全国人民代表大会常务委员会关于特赦部分服刑罪犯的决定》，与市公安局、检察院、司法局、安全局及各县区司法局密切配合，圆满完成了本地区特赦工作。 7、案件繁简分流机制：2016年9月12日最高人民法院发布《关于进一步推进案件繁简分流的意见》，规定科学调配和高效运用审判资源，依法快速审理简单案件，严格规范审理复杂案件，实现简案快审、繁案精审。 8、小额诉讼程序：修改后的《民事诉讼法》第一百六十二条规定，基层人民法院和它派出的法庭审理符合本法第一百五十七条第一款规定的简单的民事案件，标的额为各省、自治区、直辖市上年度就业人员年平均工资百分之三十以下的，实行一审终审。 9、行政诉讼案件集中、交叉管辖制度：将司法审判区域与行政管理区域分离，南票区法院管辖的行政案件集中交叉到兴城法院管辖，其他县区法院之间实行交叉异地管辖，具体为，建昌辖区案件交叉到绥中法院，绥中辖区案件交叉到建昌法院，兴城辖区案件交叉到连山法院，连山辖区案件交叉到龙港法院，龙港辖区案件交叉到兴城法院。 10、员额制：法院在编制内根据办案数量、辖区人口、经济发展水平等因素确定的法院的法官限额。 11、四个一律：接受当事人及其委托律师吃请、娱乐、财物的，一律停止执行职务；利用职权插手案件办理影响公正执法、滥用职权侵犯当事人合法权益的，一律调离执法岗位；徇私枉法、贪赃枉法的，一律清除出政法队伍；构成犯罪的，一律依法追究刑事责任。这是中央政法委的要求。 12、五个严禁：严禁接受案件当事人及相关人员的请客送礼；严禁违反规定与律师进行不正当交往；严禁插手过问他人办理的案件；严禁在委托评估、拍卖等活动中徇私舞弊；严禁泄露审判工作秘密。这是最高法院的要求。', '市五届人大一次会议以来，全市法院在市委的正确领导下，在市人大及其常委会依法监督、市政府大力支持和市政协民主监督下，全面贯彻落实党的十八大和十八届三中、四中、五中、六中全会精神，深入学习宣传贯彻党的十九大精神，坚持服务市委中心工作，忠实履行宪法法律赋予的职责，全面加强审判执行工作，扎实推进司法改革，各项工作取得新进展。', '服务供给侧结构性改革。积极开展破产审判工作，将破产案件管辖权收归市中院，圆满完成葫芦岛锌业股份有限公司系列破产重整案件审理工作，妥善化解法律风险、经营风险和社会风险。稳妥处理“僵尸企业”，推进执行案件移送破产审查工作，受理“执转破”案件38件，统筹解决执行难和破产难问题，淘汰落后产能，促进产业结构调整。加强对土地使用权出让转让、房地产合作开发、商品房买卖等类型案件的审理，审结房地产纠纷案件3429件，保障房地产市场平稳有序健康发展。', '服务供给侧结构性改革。积极开展破产审判工作，将破产案件管辖权收归市中院，圆满完成葫芦岛锌业股份有限公司系列破产重整案件审理工作，妥善化解法律风险、经营风险和社会风险。稳妥处理', '营造法治化营商环境。将审判执行工作融入全市经济社会发展总体布局，依法严惩各类危害社会经济秩序犯罪，平等保护各类市场主体合法权益，依法纠正行政机关违法行政行为。开展“我为营商环境建设做贡献”大讨论活动和“规范司法行为，优化营商环境”专项活动，出台工作方案，排查破坏营商环境的10类突出问题，制定23条措施加以规范，运用司法手段为营造法治化营商环境贡献力量。', '营造法治化营商环境。将审判执行工作融入全市经济社会发展总体布局，依法严惩各类危害社会经济秩序犯罪，平等保护各类市场主体合法权益，依法纠正行政机关违法行政行为。开展', '助推法治政府建设。推进行政机关负责人出庭应诉工作，在全省率先开展行政审判管辖机制改革和庭审方式改革，连续6年发布行政审判白皮书，提出规范行政执法建议，为法治政府建设建言献策。与市政府法制办建立行政司法联系制度，推行定期通报分析行政机关败诉案件、司法与行政培训资源共享等举措，提高行政机关干部履职能力，推动法治政府建设进程。', '助推法治政府建设。推进行政机关负责人出庭应诉工作，在全省率先开展行政审判管辖机制改革和庭审方式改革，连续', '依法打击刑事犯罪。全市法院审结刑事案件8820件，同比下降0.24%，市中院审结刑事案件1564件，同比上升29.1%。认真贯彻宽严相济刑事政策，严把案件事实关、证据关和法律关。严厉打击故意杀人、故意伤害、绑架、抢劫、黑社会性质组织等犯罪1602件，审结社会影响巨大的栾立明持枪抢劫银行案、盆国富等特大贩毒案等多起大要案。突出打击破坏金融秩序和市场秩序犯罪，审结集资诈骗、非法吸收公众存款、非法经营等犯罪案件92件，有力维护我市金融秩序和经济秩序。依法从宽处理未成年罪犯234名，对符合条件的84名服刑罪犯办理特赦。', '妥善化解民商事纠纷。全市法院审结民商事案件71409件，同比上升43.3%，市中院审结民商事案件9173件，同比上升74.4%。推进案件繁简分流机制，依法适用小额诉讼程序，努力提高办案效率。推动家事审判方式改革试点工作，指定专门合议庭审理家事案件，审结婚姻家庭、继承等纠纷17820件。依法办理劳动争议、医疗、交通事故、产品质量等民生热点案件11817件，妥善审理借款、买卖等商事合同纠纷31584件，审结知识产权案件71件，有力维护人民群众合法权益和公平竞争的市场秩序。推进多元化纠纷解决机制，与市工商联、妇联、交警部门建立诉前调解对接机制，将调解贯彻案件审理全过程，调解撤诉结案29046件，调撤率40.7%，有效化解矛盾，促进社会和谐。', '稳妥处理行政争议。全市法院审结行政案件4872件，同比上升254%，市中院审结行政案件1235件，同比上升329%。实行行政诉讼案件集中、交叉管辖制度，实现司法地域管辖与行政管理区域的相对分离，对行政相对人的诉权保护力度明显增强；判决变更、撤销、确认行政行为违法784件。严格审查非诉执行案件，准予执行1003件。运用调解方式化解行政争议，案件协调撤诉比例达22.3%，实现了法律效果和社会效果的统一。', '着力破解执行难题。全市法院执结案件25632件，同比上升53.2%，市中院执结案件1244件，同比上升94.4%。开展执行案款清理、涉金融债权案件清理、涉民生案件集中执行等专项活动，执结积案2000余件，发放执行款2.4亿元，执行到位金额3亿元，有效保障了申请人合法权益。认真贯彻市人大常委会《关于进一步加强全市法院执行工作的决议》，与市发改委、市公安局、市住房公积金管理中心、市不动产中心等建立和完善执行联动机制，严厉打击规避执行、抗拒执行行为，纳入失信名单3337人，限制高消费3521人，司法拘留732人，向公安机关移送涉嫌拒执犯罪案件35起。2017年，在葫芦岛电台、日报和各类网络媒体同步曝光失信被执行人信息300余人次。积极推行网络司法拍卖，网拍标的物796件，标的物成交率98%，成交金额1.08亿元，溢价率59%，节省佣金502万元，执行工作成效显著提高。', '加强立案信访窗口建设。全面实行立案登记制，彻底解决“告状难”问题。立案窗口实行“柜台式”办公、“一站式”服务，一小时案件录入率达90%以上。全面推进涉诉信访机制改革，创新诉访分离、案件处置、责任捆绑、带案下访、统筹协调等工作机制，处理群众来信562件，接待群众来访2812人，实现了全市法院信访案件减量退位，取得良好社会效果。积极开展社会矛盾纠纷排查化解专项行动，深入推进律师代理申诉制度，圆满完成十九大期间控访维稳工作，为维护社会稳定做出突出贡献。2014年，最高人民法院将市中院确定为全国法院涉诉信访改革试点法院，并在全国法院涉诉信访改革推进会上做经验介绍。', '深入推进审判权运行机制改革，形成全方位、立体化改革模式。2014年，市中院被确定为审判权运行机制改革全省和全国试点法院。经过四年的探索和实践，形成了以审判权力运行“去行政化”，组织结构“扁平化”，监督主体“多元化”，审判管理“制度化”为标志的，涵盖审判权运行机制、信访工作机制、监督机制、审判管理机制、队伍建设和党建工作机制的全方位、立体化改革模式。改革后，月均结案数上升63%，调撤率较全省均值高9.1%，一审服判息诉率上升5.4%，投诉率下降8%，法官庭审更加规范，裁判文书说理更加透彻，人民群众满意度逐年提高。先后有百余家法院前来考察学习，新华社、《人民法院报》、《辽宁日报》等主流媒体多次报道了改革情况。最高法院、省、市主要领导对改革工作做出批示，予以肯定。', '深入贯彻落实司法责任制改革，为司法体制改革奠定良好基础。建立“一个合议庭即一个审判庭”模式，切断了行政权对审判权的干预；将裁判文书签署权下放给合议庭，真正实现“谁办案谁负责”；变院、庭长审批制为审理制，优质审判资源重回审判一线，院、庭长直接审理案件达全院案件总量的27.3%。建立新型监督评价机制，内设案件评查委员会和评查合议庭，外引独立第三方评价机制；建立办案质量终身负责制和错案责任倒查问责制，实行过问案件登记报告制度、程序外留痕机制，确保法官依法独立公正行使审判权。', '稳妥开展司法体制改革试点工作，开创改革新篇章。2016年，市中院被省法院确定为全省司法体制改革试点法院。全市法院紧密结合实际，积极稳妥推进以法官员额制为重点的改革试点工作，采取“考试+考核”的综合评定方式，把审判工作实绩、业务能力水平、思想政治素质、职业品德和司法廉洁作为选任法官的重要考核标准，科学确定员额比例，合理制定入额标准，精心开展入额遴选，先后两批次完成259名员额法官遴选工作，确保政治素质高、办案能力强、审判经验丰富的法官进入到员额法官队伍中。此外，市中院还积极探索内设机构改革，扎实推进法官、法官助理、书记员单独职务序列、法官工资制度等配套制度的落实，圆满完成了改革试点工作。', '加强思想政治建设。扎实开展党的群众路线教育实践活动、“三严三实”专题教育、“两学一做”学习教育，引导干警牢固树立“四个意识”，坚定“四个自信”，坚定法治信仰，站稳政治立场，始终确保正确政治方向。认真学习宣传贯彻党的十九大精神，深刻认识依法治国的核心价值理念，以高度的政治自觉、思想自觉和行动自觉，着力在学懂弄通做实上下功夫，用实际行动将党的十九大精神落到实处。', '加强司法队伍建设。多渠道、多形式开展业务培训，加强司法能力建设。四年来选送省级以上法官学院培训法官1865人次，开展全市基层法院授课活动，着力提高法官法律适用能力和矛盾化解能力。加强法院文化建设，打造“快乐工作、健康生活”的机关文化，开展“忠诚、干净、担当”主题实践活动，营造积极向上的工作氛围。全市法院25个集体、27名干警受到省级以上表彰，市中院被省法院记集体二等功。', '加强司法队伍建设。多渠道、多形式开展业务培训，加强司法能力建设。四年来选送省级以上法官学院培训法官', '加强党的基层组织建设。市中院对基层党支部进行了“扁平化”改革，由院党组成员或副处级以上党员干部担任支部书记，强化了党的组织体系，增强了党组织的凝聚力和号召力。', '加强党风廉政建设。落实全面从严治党主体责任，广泛开展廉洁司法警示教育，强化监督责任，开展审务督察59次，发现问题并整改32件，深入开展司法巡查，先后与基层法院全体领导班子成员和中层干部进行个别谈话，梳理问题和困难58个，提出整改建议和意见65条，切实改进司法作风。加大案件查办力度，按照“四个一律”和“五个严禁”要求，以“零容忍”态度主动查处干警25名，其中开除2人，给予行政撤职1人，给予其他党政纪处分22人。法院干警违纪违法行为举报投诉率明显下降，队伍纪律作风明显转变。', '加强党风廉政建设。落实全面从严治党主体责任，广泛开展廉洁司法警示教育，强化监督责任，开展审务督察', '自觉接受人大依法监督和政协民主监督。严格执行向人大及其常委会报告工作制度，先后就审判权运行机制改革、执行工作等向市人大常委会进行专题报告。认真做好代表、委员沟通联络工作，办理代表建议案和政协委员提案16件，满意率100%；邀请人大代表、政协委员视察、旁听庭审900人次，寄送《法院之窗》、审判通报、法院工作报告等资料3160份。市中院聘请35名人大代表、政协委员担任特约监督员，定期听取意见和建议，不断改进工作。', '自觉接受人大依法监督和政协民主监督。严格执行向人大及其常委会报告工作制度，先后就审判权运行机制改革、执行工作等向市人大常委会进行专题报告。认真做好代表、委员沟通联络工作，办理代表建议案和政协委员提案', '开展独立第三方评价。2015年起，市中院探索建立独立第三方评价机制，连续3年委托东北大学社会调查中心对市中院司法公正、司法廉洁等方面进行社会满意度调查。独立的第三方视角覆盖了内部评价无法辐射的领域，得到社会公众、当事人、律师及案件利害关系人最直接的监督、最中肯的建议。市中院还将第三方评价领域拓展至庭审和裁判文书，由第三方组织专家对每位员额法官庭审质量和裁判文书质量进行客观评价，推动法院工作。', '全面深化司法公开。遵循“以公开促公正、以公正促公信”工作理念，全面推进审判流程、执行信息、裁判文书和庭审四大公开平台建设，着力构建开放、动态、透明、亲民的阳光司法机制。全市法院案件开庭率达 98.1%，再审案件复查听证率100%，裁判文书上网率98%。市中院微博视频直播庭审17场，点击率突破300万人次。健全“法院开放日”长效机制，让公众走进法院、亲近司法，培育全社会法律意识和法治信仰。', '各位代表，过去四年，全市法院工作的发展进步是市委领导、市人大监督、市政府、市政协及社会各界大力支持的结果。在此，我代表全市法院干警表示衷心的感谢！', '我们也清醒地认识到，全市法院工作还存在着不少困难和问题，案多人少的矛盾依然突出，少数法官业务能力、纪律作风意识有待提升，便民利民措施还有所欠缺，信息化建设严重滞后，司法公开力度还有待进一步提高。对此，我们将进一步采取有效措施认真加以解决。', '2018年全市法院总体工作思路是：牢记十九大赋予的历史使命，自觉用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，始终坚持党对法院工作的绝对领导。做到始终围绕中心服务大局，认真履行审判职责，为葫芦岛市经济社会发展创造安全的政治环境、稳定的社会环境、公正的法治环境、优质的服务环境。', '一是坚持为大局服务，在保障经济社会发展上要有新作为。聚焦全市振兴发展，全力维护社会稳定，依法打击各类犯罪，开展好企业破产重整工作，依法促进供给侧结构性改革。加强对各种所有制组织和自然人财产权的平等保护，依法制裁违法、违约、失信行为，激发非公有制经济活力。积极开展司法建议活动，创新服务机制，继续推出行政审判白皮书，促进依法行政，适时发布金融审判白皮书，降低经营风险。', '二是坚持为人民司法，在服务和改善民生方面要有新作为。牢固树立以人民为中心思想，高度关注人民最关心、最直接、最现实的利益问题。强化服务意识，加强便民诉讼网络建设，依法从重从快打击涉民生犯罪，化解涉民生纠纷，加大涉民生案件执行力度。有效发挥立案、信访、法庭便民作用，健全完善矛盾纠纷多元化解机制，完善诉前调解机制，将繁简分流落实到各种案件类型和办案全过程，用实际行动落实好为民司法。', '三是坚持推进司法体制综合配套改革，在提高审判质效上要有新作为。规范法官的自我管理职能，强化院、庭长的协调监督职能，落实审判委员会的统筹指导职能，正确处理放权与监督的关系。建立科学的绩效评价体系，实现业绩评价与员额退出、惩戒、激励机制有效衔接。推进以审判为中心的刑事诉讼制度改革，推进依法裁判实质化。推进法院内设机构改革，完善配套改革措施。加强执行工作统一管理和协调，进一步完善与有关部门的执行联动机制，努力实现“两到三年基本解决执行难”的目标。', '三是坚持推进司法体制综合配套改革，在提高审判质效上要有新作为。规范法官的自我管理职能，强化院、庭长的协调监督职能，落实审判委员会的统筹指导职能，正确处理放权与监督的关系。建立科学的绩效评价体系，实现业绩评价与员额退出、惩戒、激励机制有效衔接。推进以审判为中心的刑事诉讼制度改革，推进依法裁判实质化。推进法院内设机构改革，完善配套改革措施。加强执行工作统一管理和协调，进一步完善与有关部门的执行联动机制，努力实现', '四是坚持公正廉洁司法，在提升队伍能力素质上要有新作为。加强法官廉政意识教育，牢固树立“四个意识”，整治司法行为不规范问题。加强法官业务培训，增强法官助理辅助办案能力，完善书记员管理制度，多层次提升司法能力。推进法院文化建设，营造健康向上的司法生态。强化党内监督，严守司法廉洁底线，以“零容忍”态度惩治司法腐败，推进法院队伍正规化、专业化、职业化建设，打造过硬队伍。', '四是坚持公正廉洁司法，在提升队伍能力素质上要有新作为。加强法官廉政意识教育，牢固树立', '五是坚持自觉接受各界监督，在提高司法公信上要有新作为。自觉接受人大、政协、监察委、检察机关和社会各界监督，促进法院公正司法。深化四大司法公开平台建设，拓宽审判流程信息公开渠道，努力实现裁判文书上网全覆盖，加大执行信息公开力度，加强庭审直播录播工作。完善第三方评价机制，以提升司法公信为目标，不断改进法院工作。', '各位代表，公平正义是人民法院的永恒追求，惩恶扬善是人民法院的责任担当。在新的一年里，我们将认真落实党的十九大精神，不忘初心，牢记使命，锐意进取，扎实工作，不断开创新时代法院工作新局面，为我市实现更高水平发展提供有力司法保障。', '2、执转破：最高法院2017年1月20日印发《关于执行案件移送破产审查若干问题的指导意见》，全面推进执行案件移送破产审查工作。', '3、栾立明持枪抢劫银行案：2014年3月29日7时许，在我市中国工商银行新华大街支行门前，被告人栾立明持枪抢劫运钞车，并开枪击中一名押解人员腿部，劫取人民币、港币、美元、欧元等现钞折合人民币近200万元。此案在我市造成巨大影响，社会关注度极高，案件起诉至我院后，院领导高度重视，精心组织审判，依法判处被告人栾立明死刑，缓期二年执行，并进行了新闻报道。', '4、盆国富等特大贩毒案：该案件涉毒品数量达45公斤，是我市已审结的最大一起贩卖毒品案件。经开庭审理，依法判处主犯盆国富、林升业死刑。案件经省院复核完毕，已报最高人民法院核准。辽宁新北方、葫芦岛市电视台等多家媒体对此进行了专题报道，取得了良好的社会效果和法律效果。', '5、葫芦岛锌业股份有限公司破产重整案件：2015年市中院在审理“锌厂”破产重整系列案件中积极作为，协调各方最终在法定期限届满最后一刻完成重整，避免了企业破产所面临的摘牌、停产、退市，使股民和数万企业职工生活得到保障，企业走上良性发展的轨道。', '6、特赦：特赦是指国家元首或者国家最高权力机关对已受罪行宣告的特定犯罪人，免除其全部或者部分刑罚的制度。2015年，市中院依据《全国人民代表大会常务委员会关于特赦部分服刑罪犯的决定》，与市公安局、检察院、司法局、安全局及各县区司法局密切配合，圆满完成了本地区特赦工作。', '7、案件繁简分流机制：2016年9月12日最高人民法院发布《关于进一步推进案件繁简分流的意见》，规定科学调配和高效运用审判资源，依法快速审理简单案件，严格规范审理复杂案件，实现简案快审、繁案精审。', '8、小额诉讼程序：修改后的《民事诉讼法》第一百六十二条规定，基层人民法院和它派出的法庭审理符合本法第一百五十七条第一款规定的简单的民事案件，标的额为各省、自治区、直辖市上年度就业人员年平均工资百分之三十以下的，实行一审终审。', '9、行政诉讼案件集中、交叉管辖制度：将司法审判区域与行政管理区域分离，南票区法院管辖的行政案件集中交叉到兴城法院管辖，其他县区法院之间实行交叉异地管辖，具体为，建昌辖区案件交叉到绥中法院，绥中辖区案件交叉到建昌法院，兴城辖区案件交叉到连山法院，连山辖区案件交叉到龙港法院，龙港辖区案件交叉到兴城法院。', '10、员额制：法院在编制内根据办案数量、辖区人口、经济发展水平等因素确定的法院的法官限额。', '11、四个一律：接受当事人及其委托律师吃请、娱乐、财物的，一律停止执行职务；利用职权插手案件办理影响公正执法、滥用职权侵犯当事人合法权益的，一律调离执法岗位；徇私枉法、贪赃枉法的，一律清除出政法队伍；构成犯罪的，一律依法追究刑事责任。这是中央政法委的要求。', '12、五个严禁：严禁接受案件当事人及相关人员的请客送礼；严禁违反规定与律师进行不正当交往；严禁插手过问他人办理的案件；严禁在委托评估、拍卖等活动中徇私舞弊；严禁泄露审判工作秘密。这是最高法院的要求。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>47</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>葫芦岛市政府工作报告年任务指标分解</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2018-03-22</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/zwgk/fdzdgknr/zdly/juecengzhixing/zhixingqingkuang/201803/t20180322_785657.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['按照市政府统一要求，现将葫芦岛市2018年《政府工作报告》任务分解下达各县（市）区、开发区，市直有关部门，做好2018年有关工作。', '地区生产总值增长7%；规模以上工业增加值增长8%；固定资产投资增长13.5%；一般公共预算收入增长10%；社会消费品零售总额增长6%；城镇和农村居民人均可支配收入均增长6.5%。', '继续开展“项目年”活动，落实包扶机制，完善激励制度，加强要素保障，确保重点项目顺利实施。安排亿元以上重点项目200个，总投资2100亿元，完成投资210亿元。徐大堡核电一期、锌业股份20万吨电解锌等70个项目开工建设，大唐热电联产、北方铜业电解铜等60个项目竣工投产。', '狠抓招商引资，盯住京津冀抢转移项目，对接江苏、长三角、珠三角要合作项目，咬住外商外资引进外资项目，关注中央政策申报项目，全年引进内资160亿元，实际利用外资1亿美元。', '一季度，拟举办在外企业家春节回乡联谊活动，赴上海开展招商引资活动，计划引进内资32亿元，完成外资1000万美元；二季度，拟参加省商务厅在深圳开展的', '活动，计划引进内资48亿元，完成外资2000万美元；三季度，拟参加省商务厅在北京开展的“招商周”活动，计划引进内资48亿元，完成外资3000万美元；四季度，拟参加省商务厅在上海开展的', '深化工业供给侧结构性改革，拓展产业门类，挖掘经济增长点。实施工业重点项目54个，30万吨燃料乙醇、锦西石化醚化技改等10个项目建成投产。发展新兴产业，加快建设明盛数码彩晶玻璃、泰德尔楼宇自控等5个重点项目。延长产业链条，实施中冶葫芦岛有色30万吨铜冶炼、孚迪斯高温复合材料等22个项目。推进，开工建设航空有机玻璃等重点项目13个，产业示范园初步形成规模。放大泳装产业优势，建设泳装研发、生产和销售基地，创建国家知名品牌示范区，努力成为标准制定者和行业风向标。', '一季度，制定工业供给侧改革2018年计划，实施技术创新四大工程，制发、泳装产业支持性资金的意见，摸清项目建设情况；二季度，编制完成和泳装发展规划，5个新兴产业项目、22个产业链项目和13个项目争取全部开工，科技创新四大工程全面展开，帮助企业完善相关资料；三季度，5个项目基本建成，按小升规培育计划，进度超1500万企业30户以上，完成工业固定资产投资60亿元，完成对接活动4次、军方对接3次，工业总产值达90亿元。四季度，10项重点工业项目投产，完成工业固定资产投资80亿元；新增规上企业30户；工业总产值达120亿元；全市12户重点骨干企业互联网应用平台普及率达到100%，培育3-5个制造业“双创”平台试点示范项目；申报省级企业技术中心2个、省中小企业“专精特新”产品（技术）10项。', '推进传统服务业提质升级、产业集聚、转型发展。优化传统产业，加快兴隆大家庭等商贸综合体建设，新增规上服务业企业20家、限上商贸企业50家。发展新兴业态，重点培育金融、会展、新型地产、健康养老、社区服务、文化创意、体育产业等新模式、新业态，加快推进二手车等各类交易市场建设。推进园区发展，建设东城商贸物流集聚区、兴城滨海服务业新业态集聚区。壮大电商产业，创建国家电子商务示范市。', '一季度，将限上商贸企业新增50家指标分解到各县（市）区，拟定壮大电商产业方案，做好全市规上服务业企业入统数据统计联合审定工作；二季度编印《葫芦岛市关于推进服务业创新发展（2018-2025）行动计划》，指导县区培育挖掘新增限上商贸企业；三季度强化对东城商贸物流集聚区、兴城滨海服务业新业态集聚区发展的调查研究，形成相关分析报告；四季度会同市统计局做好全市规上服务业企业入统数据统计联合审定年底收口工作。全年持续组织本地优质特色企业参加全国性大型展会，支持举办泳装展、房展、车展等本地特色专业性展会；国家出台新的《二手车流通管理办法》后，组织具体操作。', '继续实施“六个一工程”，建设丽汤首山温泉、亲海玻璃栈道等重点旅游项目，改造提升九门口长城、兴城古城等景区。保护传统古村落，发展乡村旅游。完善基础设施，改造锥子山长城等景区道路。提高服务质量，发展智慧旅游。改善旅游环境，实施东戴河景区综合整治。旅游总收入增长25%，对接京津冀旅游先行区取得实质性进展。', '一季度，“六个一”工程基本数据及情况统计，出台我市《关于促进乡村旅游发展的实施意见》，完成微信、APP、政务平台建设，旅游收入计划完成52.45亿元；二季度，在建项目全部复工并建设，对乡村旅游工作进行前期调研，完成旅游一卡通平台、官方PC平台、统购统销平台建设，旅游收入计划完成63.12亿元；三季度，推进项目建设，并上报项目落实进展情况，就乡村旅游建设开展招商引资，各平台宣传推广，旅游收入计划完成82.6亿元；四季度，上报项目落实进展情况，继续开展招商引资和各平台宣传推广，旅游收入计划完成55.62亿元。', '继续落实“五个围绕”，壮大农村集体经济，推进农业产业化发展。调减玉米面积，发展设施农业、认养农业、生态农业。打造品牌果业，发展精品果园。发展现代化养殖，推进北京大北农畜牧、新加坡林虾集团智能水产养殖等项目。发展农产品深加工产业，加快建设35万吨大豆精深加工、大宇调味品扩建等农业产业化项目。推进产业集聚发展，加快兴城优质花生出口示范区、建昌食品产业园建设，兴城农产品加工集聚区达到省级标准。推进特色乡镇试点，打造一批产业鲜明、环境优美的特色乡村。', '一季度，编制完成《葫芦岛市实施乡村振兴战略三年行动计划（2018-2020年）》，起草工作方案，做好水产健康养殖示范场创建（复查）准备工作；二季度，启动全市农村集体“三资清查”工作，完成调减玉米种植任务，设施农业开工建设，完成新建果园栽植和高效精品科技示范园认定，待省厅下达文件后，开展创建（复查）申报工作；三季度，确定认养农业典型，设施农业完成1万亩，积极参加果品展销会，做好项目督导；四季度，基本完成全市农村集体', '工作，设施农业全部完工，完成全年每个县(市)区建成1个认养典型任务，按照省厅要求，开展水产健康养殖示范场创建（复查）、验收等工作。', '推进文旅集团股权多元化，重点推进水务集团水利勘测设计院混合所有制改革。一季度确认混改企业名单；二季度调研论证；三季度形成混改方案；四季度完成混改任务。', '贯彻落实《葫芦岛市持续深化“放管服”改革大力推进“13513”工作的实施意见》，持续精简行政职权事项，动态管理权责清单等4个基础管理清单，编发《葫芦岛市政务服务事项目录》。一季度制定方案，明确责任；二季度、三季度，初步完成“联合踏勘”等5个机制建设；四季度搭建完成3个平台，形成营商环境考核标准体系，并考核评价。', '一季度成立行政审批承诺制服务中心（目前，该中心已成立完毕，暂未配备人员）；二季度配备领导干部及工作人员；三、四季度，逐步、扎实开展项目审批承诺制工作。', '一季度了解掌握各政府部门的职责运行情况；二季度做好政府机构改革预案储备；三季度积极探索机构编制动态管理办法；四季度研究起草市政府机构改革方案。', '、深化经营性事业单位改革，重点做好市乌金塘水库管理局划入水务集团相关工作。一季度制定改革方案；二季度修改完善方案；三季度汇报方案；四季度做好撤销机构、收回编制、注销事业单位法人等后续工作。2、推进行政类事业单位改革。一、二季度学习借鉴试点地区的经验和做法，对行政类事业单位职能运行情况进行调研；三季度按照省的统一进度安排适时提出职能划转、机构调整和编制置换具体方案；四季度按进度做好改革后续相关工作。3、深化公益类事业单位改革。对职责单一、性质相近、职能弱化消亡和规模过小的事业单位进行精简压缩和优化整合（参照省直做法统筹推进）。4、加强对县（市）区事业单位改革的指导和监督检查（全年）。', '一季度起草全市农村集体产权制度改革工作方案，带领县区到先进地区考察学习产权制度改革经验；二季度全面启动全市农村集体产权制度改革工作，全面推进全市农村土地确权收尾工作，各县（市）区向省提交确权数据库；三季度深入推进农村集体产权制度改革，加强农村土地确权的自检自查工作；四季度基本完成全市农村集体三资清查工作；各县（市）区完善数据库建设，提交的数据库要通过省及农业部检查，年底前达到颁证前状态。', '一季度出台相关县乡财税体制改革文件，督促各县（市）区在2月底前完成对乡镇财政收入基数的核定，并做好预算安排，组织实施乡级国库集中支付系统软件、硬件政府采购；二季度组织实施乡级国库集中支付软件、硬件部署调试，并实现县乡联网。严格落实市对下转移支付预算，同时积极向上争取资金，通过增量资金提高对县区补助力度；三季度严格落实市对下转移支付预算，同时积极向上争取资金，通过增量资金提高对县区补助力度；四季度严格落实市对下转移支付预算，同时积极向上争取资金。', '我市煤炭去产能工作重点为蛤蟆山矿业有限公司的一井、二井共24万吨煤炭产能（此项工作需按照市政府要求，做好相关推进工作）。', '市工信委、发改委、商务局、住建委、农委、林业局、安监局、金融办、扶贫办等有关部门，各县（市）区政府，各开发区（园区）管委会', '把沿海经济带作为对外开放主战场，贯彻落实沿海经济带三年攻坚计划，培育主导产业，发展特色园区。', '一季度，协调各县市区、开发区及有关部门建立全市贯彻落实市沿海经济带三年攻坚计划定期调度机制，调度第一季度贯彻落实情况；二、三、四季度末分别调度各季度市三年攻坚计划落实情况。', '年产30万吨燃料乙醇项目计划2月底核准该项目，6月项目开始施工建设，年底前建成；35万吨大豆精深加工项目计划5月开始施工建设，年底前主体工程完成60%，设备进驻完成50%；阳光干细胞项目计划3月底项目正式供电，5月项目投产；天马辉光电产业园、青牛软件园等信息产业项目计划今年复工建设。', '一季度继续推进凌云化工、载大瀛嘉氟化项目以及葫芦岛铝业3#、4#、5#和喷涂车间厂房建设建设。推进山东先达农化产业基地、天富凯业项目的前期手续办理，并为海擎重工一期恢复生产做准备；二季度凌云化工项目基本完成设备安装调试，具备试生产条件。山东先达和天富凯业项目开工建设。争取海擎重工一期恢复生产；三季度凌云化工和载大瀛嘉氟化工项目试生产，山东先达和天富凯业继续实施土建工程建设；四季度山东先达和天富凯业继续实施土建工程建设，完成葫芦岛铝业3#、4#、5#和喷涂车间厂房主体工程建设。', '一季度继续与有意向进入财贸科技园的企业进行洽谈；二季度围绕农产品加工集聚区引进项目；三季度持续为入园泳装企业做好服务；四季度园区高新技术产业初具规模。', '季度精谷科技精密仪器装置项目已签订1项目合作协议书并开始施工建设，北宇星通科技型材加工项目、华燃燃气项目和华电森源电器项目已签落地协议，以上4个项目争取年内投产；二季度北宇星通科技型材加工项目、华燃燃气项目和华电森源电器项目完成环评、土地等相关手续；三季度发展两家高端流体设备、精密仪器产业项目；四季度争取以上4个项目投产，并发展两家高端流体设备、精密仪器产业项目。', '一季度建立项目储备平台，形成项目储备库。完成相关优惠政策制定，协调相关部门，为兰得化工办理燃气和供电接入手续，做好园区1138米的道路设计工作；二季度，启动渤船总装生产线给水管线延伸的招投标及施工，中能源罐式集装箱项目厂房、办公楼建设及项目设备安装工作。根据征地补偿工作的进展，安排B区征地区域的土地回填整平，并研究相关配套设施的建设。办理七星钢管项目土地招拍挂手续，并配合该项目用地的场地整平和围墙施工；三季度启动渤船重工委托的前沿回填的招投标工作，并组织好施工。完善A区南侧部分地块的用地手续，根据企业的开工情况，配合国土部门收回闲置土地。做好港池和航道疏浚项目的后续管理。直缝焊管项目、石化管件项目办理相关手续；四季度做好大唐220KVA线路的现场施工和港池炸礁工程的收尾验收工作，配合审计部门做好完工工程的审计工作。直缝焊管、石化管件项目基础设施建设、厂房建设及办公楼建设。', '一季度进行二期项目规划设计；二季度项目开工；三季度按计划施工；四季度项目主体完工。', '一季度关注国家第三批增量配电网业务试点审批进度，积极与配电网建设合作单位做好准备工作；二、三、四季度推进项目电力工程建设。', '一季度召开推进开发区体制机制改革工作会；二季度完成市管开发区管委会内设机构优化整合，在全市开发区管委会中确定1—2家探索实行公司化试点单位；三季度配合跟进试行公司化试点的管委会机构编制事项的调整工作。每季度协调兴城滨海经济区、东戴河新区、打渔山泵业产业园区等重点园区，掌握园区体制机制改革推进情况。', '主动融入“一带一路”建设，推进与招商局集团合作，加快港口建设。葫芦岛港开工建设疏港铁路专用线，大力发展临港产业，加快推进300万吨大豆深加工、低温丙烷等重点项目；绥中港加快建设港前物流园区、产业园区，实现对外开放。扩大利用外资，促进进出口贸易，鼓励对外投资，构建对外开放新格局。', '一季度研究我省与招商局集团合作协议内容，提前谋划我市港口融入辽宁沿海港口资源整合的发展思路，并调研港口物流园区2018年项目投资计划及建设内容。做好港口专用线前期方案论证、设计等工作；二季度重点推进葫芦岛港集团有限公司粮食仓储物流项目、辽宁港铁国际物流实业集团有限公司葫芦岛国投生物能源公司30万吨乙醇专用线项目，并完成季度投资计划。完成葫芦岛港铁路专用线建设方案；三季度编制葫芦岛港口物流发展规划。做好疏港铁路前期各项工作；四季度推进葫芦岛港集团有限公司、辽宁港铁国际物流实业集团有限公司、葫芦岛北龙物流集团、绥中港集团有限公司，并完成年度投资；开工建设疏港铁路。每季度出口占全省比重不低于1.7%，进口占全省比重不低于1%；推进1家企业实现对外投资，12月底前完成。', '落实县域经济发展三年行动计划，整合优势资源，制定产业规划，明确功能定位，走城乡统筹、产城融合、特色发展之路，发挥辐射作用，带动乡村振兴。县（市）区发展园区经济，重点实施牵动型项目。乡镇突出本地优势，重点实施特色项目。村屯壮大集体经济，重点实施强村富民项目。把发展县域经济的着力点放在民营经济上，消除体制障碍，突出要素保障，健全政策体系，搭建服务平台，引导金融资源流向民营经济，提振民营经济发展信心，做大民营经济总量。', '一季度调研确定每个县（市）“一园一区一镇”，督促县（市）明确本县（市）“一园一区一镇”规划。调度各县（市）三年行动计划中的“一园一区一镇”名称地址等有关情况；二季度对6个县（市）区园区项目进行检查，督促项目进展。调度6个县（市）区园区重点项目有关情况；三季度落实壮大村屯集体经济，对省、市扶持村屯经济有关项目进行检查，调度扶持（4000万）村屯经济发展20个项目；四季度调度6县（市）区三季度主要经济指标完成情况。', '一季度英泰山海听涛项目、恒大御景湾二期、隆东广场住宅等续建项目复工；二、三季度万豪５星级酒店和商业综合体项目、隆泰弈文化产业园、新奥温泉城项目、规划综合馆等新开工项目开工；四季度做好各项目的检查，验收工作。实现城区出租车互通：一季度调研摸底；二季度制发文件；三季度规范执法，促进互通。', '一季度委托市公路勘测设计院对新建、大中修项目开展外业勘测，并对新建项目进行施工图设计；二季度委托市公路勘测设计院对大中修项目进行施工图设计，督促各村完成新建项目路基工程，完成大中修工程招投标工作，完成大中修工程总体形象进度30%；三季度完成大中修项目和新建工程总体形象进度100%；四季度完成工程质量检测、鉴定、验收及归档工作。', '实施“暖房子”工程，持续改造棚户区、老旧小区。整治连山河、茨山河、五里河城区段，建设三河入海口生态湖。', '一季度待政府同意实施计划后开展测量招标和测量工作；二季度开展工程设计和造价咨询工作；三季度工程开工；四季度工程竣工。', '一季度完成《项目建议书》、《可行性研究报告》，《选址意见书》、《用地意见函》、《社会稳定风险评估》等工作；二季度完成项目立项；三季度工程开工；四季度完成工程量5%（完成时限2020年6月底）。', '一季度完成立项、水保批复；二季度完成规划选址、矿产压覆；三季度完成用地预审、工可编制、环保批复、稳评等工作；四季度完成初步设计批复、用地审批、设计批复、招标。', '一季度完成排迁工作；二季度工程开工，并完成路基工程；三季度完成路面工程；四季度工程完工。', '一季度铺轨200米，预铺道岔2组，安装天桥临时墩、组对平台；二季度完成天桥及雨棚，站房综合楼混凝土结构、砌筑工程及钢结构安装完成90%，四电通信、信号、接触网完成30%；三季度完成站场填方、铺轨以及站台，站房综合楼混凝土结构、砌筑工程及钢结构安装完成90%，装修完成80%，完成污水处理站，四电通信、信号、接触网、电力完成80%；四季度完成站房综合楼、四电工程，静态验收及转线开站，并对正线进行拉通试验及动态检测。', '完成外环路提升工程，建成海韵路。延伸文兴路、高新五路，改造茨齐路，打通滨河路，畅通城市道路，提升城市品质，彰显城市魅力。', '一季度路灯工程进场施工；二季度完成总进度的85%；三季度7月底完成设备安装、系统调试，试照明。海韵路：一季度完成梁板预制；二季度竣工通车。高新五路：一季度龙港区政府完成拆迁；二季度完成工程总进度的80%；三季度，8月底工程竣工通车。滨河路：一季度方案制定；二季度征收、招投标；三季度开工；四季度竣工。', '一季度完成现场勘测，制定方案；二季度工程开工；三季度完成总工程量的90%；四季度工程竣工。', '：一季度完成勘察设计；二季度完成预算及招投标；三季度完成改造工程；四季度完成竣工验收工作。', '：一季度完成项目建议书和规划选址工作；二季度完成环评、稳评、能评工作，初步进行施工设计；三季度工程开工；四季度完成工程量的15%（完成时限2019年底）。', '：一季度完成现场勘测和方案制定工作；二季度完成图纸设计、项目预算和招投标工作； 三季度工程开工；四季度工程完成总工程量的40%（完成时限2019年底）。', '实施龙湾大街雨污分流改造，因与大唐热电供热管线和电业局供电管线同步实施，今年完成40%工程量，剩余部分明年实施。', '一季度做好消防栓等消防基础设施的建设准备工作，落实职责、经费等事项。完成消防训练基地项目建议书和规划选址工作；二季度开工维修建设消防栓等消防基础设施。完成消防训练基地项目环评、稳评、能评工作以及初步施工设计；三季度完成消防栓、消防水鹤、取水码头建设工作。完成消防训练基地项目施工前准备工作，做好施工建设；四季度完成消防训练基地主体结构前两层建设（完成时限2019年年底）。', '健全社保体系。继续提高城乡低保标准，确保养老金按时足额发放，全面实施跨省住院费用联网直接结算。促进就业创业，城镇登记失业率控制在5%以内。', '一季度，做好城乡低保、特困人员救助供养标准提高的准备工作，统计提标涉及人员情况，并测算所需资金情况。城镇新增就业0.05万人；二季度，起草下发提高城乡低保、特困人员救助供养标准文件，城镇新增就业0.05万人；三、四季度，对各县（市）区城乡低保、特困人员救助供养提标工作进行督促检查，城镇新增就业分别为0.2万人、0.4万人。各季度城镇登记失业率均低于5%，确保企业职工养老金每个月按时足额发放。', '一季度计划规划选址意见书、社会稳定风险评估报告、用地预审、立项批复；二季度计划设计方案修改、规划布展招标、PPP融资，并开工建设；三、四季度计划主体框架施工。', '一季度，深入基层开展调查研究，为政策出台打好基础；二季度起草城市社区建设标准政策文件，报请市政府审议通过后下发；三季度开展和谐社区建设示范单位创建活动；四季度及时总结社区治理工作好经验、好做法，借鉴推广外地社区治理与服务创新先进典型经验，培养树立我市社区治理工作先进典型。', '实施“智慧教育”工程，建昌、南票通过国家义务教育均衡发展验收。抓好婴幼儿照护和儿童早期教育，解决学生课外负担重、“择校热”“大班额”问题。', '一季度完成村小、教学点局域网综合布线并专网融合调通，出台《葫芦岛市在职教师违规办班补课行为处理规定》，签订《葫芦岛市在职教师不参与违规办班补课公开承诺书》，印发《关于继续全面实施消除大班额计划 规范义务教育招生行为的通知》，建立“葫芦岛市2018年义务教育阶段大班额基准台账”；二季度完成所有村小、教学点、幼儿园的班班通工作，开展师德师风教育和春季教育收费检查，重点整治教辅材料过多过滥问题，检查教师《承诺书》签订情况；开展联合执法检查活动，对在职老师校外违规办班补课进行巡查；三季度完善软件项目并通过验收，组织协调建昌、南票区义务教育均衡发展工作迎接国家认定，重点整治暑假期间学校和在职教师违规办班补课问题，组织全市2018年义务教育阶段招生和学籍注册工作，核查并上报“2018年义务教育阶段大班额”进展情况。四季度围绕“智慧教育”开展评比竞赛活动，开展联合执法检查活动，对在职老师校外违规办班补课进行巡查，对解决学生课外负担重问题不到位的单位进行督促整改。', '医联体牵头医院通过建立联合病房、人才培养、技术帮扶等方式，提高基层医疗机构服务能力，', '一季度制定《工作方案》，确定乡镇（街道）综合文化站示范点10个，村（社区）综合性文化服务中心示范点20个；二季度调研、指导各县（市）区开展建设并检查；三季度督促各县（市）区严格按照标准建设，开展相应的文化活动；四季度检查验收，组织上报相关材料。', '一季度完成2017年人力资源市场统计报告工作，安排经费1000万元，设立人才引进基金；二季度出台《推进沿海经济带和县域经济发展人才发展三年滚动计划（2018-2020年）》，做好人才项目的引进、培养工作；三季度出台《葫芦岛市高层次人才管理考核办法（试行）》《葫芦岛市高层次人才项目绩效评价办法（试行）》，做好人才项目的实施、推进工作；四季度出台《2018年度葫芦岛市产业创新领军人才选拔推荐实施意见》，做好人人才项目的资助、奖励工作。', '加快整体脱贫。坚持精准扶贫、精准脱贫，实施“五个联动”，落实“五个一批”，推进产业扶贫、金融扶贫、技能脱贫，强化驻村帮扶，形成脱贫攻坚合力，确保3.7万人、65个贫困村脱贫。', '一季度开展产业项目调研，协调“五个一批”部门全面推进脱贫攻坚工作， 配合市住建委做好危房翻建工作，指导督查各地区贫困户建档立卡及返贫人口识别情况；二季度指导督查各地区贫困户建档立卡及返贫人口识别情况，对市直驻村工作队队员开展培训，协调“五个一批”部门全面推进脱贫攻坚；三季度持续做好建档立卡贫困户、返贫人口精准识别，持续对全市扶贫项目建设、资金使用进行督导检查，开展全市扶贫项目拉练，做好脱贫攻坚第三方评估迎检准备工作，协调“五个一批”部门全面推进脱贫攻坚工作；四季度实现3.7万建档立卡人口稳定脱贫，65个贫困村脱贫销号。', '强化风险防范。健全风险防范预警机制，落实各类管控措施，明确监管责任，严肃督查问责，确保不发生养老金支付、政府性债务、企业金融债务等各类风险，坚决打好防范化解重大风险攻坚战。', '一季度制定《葫芦岛市养老保险基金风险防范工作方案》、《葫芦岛市企业养老保险基金支付风险应急处置预案》，研究制定市属企业预防金融债务风险工作方案，化解企业金融债务风险3户，化债9.07亿元；二季度制定市属企业财务预算管理办法，积极争取省补助资金，做到时间过半、任务过半，化解企业金融债务风险3户，累计化债13.98亿元；三季度起草市属企业审计管理办法，积极争取省补助资金，化解企业金融债务风险4户，累计化债38.3亿元；四季度出台市属企业审计管理办法，确保完成全年预算任务，确保养老金按时足额发放，化解企业金融债务风险3户，累计化债40亿元。', '此外，加强对“7+4”类机构的风险排查和研判，协调市政府有关部门对非法集资风险早发现、早处置；做好银行机构及企业信用风险的防范。', '市财政局、人社局、国资委、金融办、工信委、人民银行葫芦岛市中心支行、葫芦岛银监局等有关部门，各市属企业集团，各县（市）区政府，各开发区（园区）管委会', '一季度开展“春雷”专项行动和全国“两会”期间安全生产督查；二季度开展“蓝盾”专项行动和安全生产月活动；三季度开展“飓风”专项行动及汛期安全工作；四季度开展“利剑”安全生产专项行动，做好省考核组对我市安全生产工作督查考核工作。', '一季度制定我市“减存控增”工作方案，全面梳理排查信访矛盾存量；二季度建立信访访矛盾存量台账，全力开展“减存控增”攻坚行动；三季度对交办的“减存控增”信访案件进行督办；四季度对“减存控增”工作进行阶段性总结，提高信访案件办结率和化解率，保持全市信访形势平稳向好。', '一季度大力报道双拥工作和国防教育的新动态;二季度出台《葫芦岛市随军家属就业安置意见》;三季度出台《葫芦岛市军人子女教育优待办法》;四季度督促各县（市）区将双拥共建材料装订成册备检。', '一季度召开全市精神文明建设表彰大会暨创建全国文明城市工作推进大会；二季度下发《全国文明城市测评工作任务分解表》，组织开展“创城”督导检查和暗访调研；三季度做好省文明办对我市文明城市测评各项准备工作；四季度做好中央文明办对我市文明城市测评各项准备工作，适时召开“创城”迎检工作部署会议。', '一季度出台《葫芦岛市创建国家卫生城镇工作实施方案》，完成兴城市创建国家卫生城市级暗访；二季度开展爱国卫生活动月，召开全市创城工作协调会；三季度做好兴城市创建国家卫生城省级技术评估准备工作；四季度迎接兴城市创建国家卫生城省级技术评估，对市本级创城工作进行检查考评。', '一季度制定《2018年葫芦岛市食品安全抽检计划实施方案 》；二、三季度按照实施方案完成相应百分比抽检任务；四季度完成全年879批次抽检任务。', '坚持民生为本。以改善环境、治理河流为重点，以便民、利民、惠民为目标，将财政支出的80%以上用于民生建设，扎实做好十大民生工程、28件民生实事，确保中央各项惠民政策彻底贯彻落实。', '树立法治思维，坚持依法行政，严格遵循重大行政决策法定程序。强化服务意识，实施营商环境建设计划，持续开展营商环境建设年活动，打造“营商环境关外第一市”。弘扬实干精神，激发创业激情，让苦干、实干成为政府干部的鲜明特质。增强“八个本领”，狠抓工作落实，做到主动抓落实、敢于抓落实、善于抓落实、坚决抓好落实，保证各项决策部署落到实处。', '一季度制发《关于政府系统加强全面从严治党狠抓落实务求实效的实施意见》、《关于加强政府自身建设实施方案》，召开全市干部大会，制定2018年营商环境建设工作计划；二、三季度以“重实干、强执行、抓落实”为主题，抓好国家、省、市领导的讲话、指示（批示）以及各级《政府工作报告》落实，抓好营商环境9个方面专项整治，并对各县（市）区、市属开发区开办企业、投资项目审批、不动产登记三项指标开展调查；四季度抓好市政府各项工作总结，重点对省政府部署的“重实干、强执行、抓落实”电视电话会议精神落实情况进行回顾总结，促进市政府各项工作不断提升。', '坚决服从市委领导，自觉接受人大依法监督、政协民主监督，主动接受社会监督。加强政府党的建设，坚持“一岗双责”，严格履行全面从严治党主体责任，严格落实意识形态工作责任制。加强党风廉政建设，严格落实中央八项规定精神，严防“四风”反弹回潮，切实防止“十种新表现”，保护风清气正的政治生态。', '一季度完成市委交给的各项任务，将上年人大代表、政协委员的建议提案下发各有关部门办理，同时严格遵守中央八项规定精神，保持工作作风；二、三季度完成市委交给的各项任务，对建议提案办理情况进行定期督办，同时严格遵守中央八项规定精神，严防“四风”反弹回潮，切实防止“十种新表现”。落实“一岗双责”， 严格履行全面从严治党主体责任，严格落实意识形态工作责任制；四季度完成市委交给的各项任务，对建议提案办理情况进行总结汇报，并作《政府工作报告》。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>47</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>解读我市农业供给侧结构性改革相关政策</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2017-12-20</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/hdjl/zxft/jiuban/201712/t20171220_774612.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['一、李主任，国家始终高度重视“三农”工作，特别是今年中央1号文件，以深入推进农业供给侧结构性改革，加快培育农业农村发展新动能为主题，第14次聚焦“三农”。请问我市都出台了哪些相关政策?', '为贯彻落实中央、省农村工作会议和中央1号文件精神，特别是习近平总书记提出的“着力加强供给侧结构性改革，这是三十五时期的一个发展战略重点，是衣领子、牛鼻子”的要求，市委、市政府高度重视，专门成立了推进农业供给侧结构性改革工作领导小组，还相继出台了《加快发展设施农业的实施意见》、《加快发展农产品加工业的实施意见》、《加快秸秆综合利用的实施意见》、《加快发展农业农村新业态、培育新动能，助力脱贫攻坚实施方案》、《推进农村土地连片流转，发展适度规模经营的实施方案》等系列文件。加强了对全市农业供给侧结构性改革工作统筹与领导。', '积极扶持发展现代农业，重点对新建设施农业给予配水、配电、贷款、以奖代补等政策扶持;市财政列支900万元用于市级高效精品科技示范果园以奖代补，还计划建立500万元农产品加工业发展资金，支持农产品加工业发展和品牌创建，加快补齐农产品加工业短板等等，都为我市农业供给侧结构性改革工作提供了坚实的组织和政策保障，各项工作扎实有效推进。', '二、深入推进农业供给侧结构性改革，重点是调整优化农业产业结构，请问咱们市农委在这方面都做了哪些工作?', '在市委、市政府的高度重视和正确领导下，市农委全面贯彻落实中央、省、市决策部署，特别是紧紧把握市委孙轶书记在全市农村工作会议上提出的“五个围绕”总体要求，积极依托自身优势做特色，大力推进农业产业结构调整、优化，增加优质特色农产品供给。', '一是不断优化粮经作物比例。全市共调减玉米种植面积30.08万亩，超额完成省政府任务指标13.58万亩，适量增加花生、杂粮和薯类等优质粮油和经济作物面积，同时实施耕地轮作试点项目18.5万亩。', '二是把设施农业作为农业减灾增效的主要产业予以重点扶持。首次提出打造辽宁高效精品设施农业大市工作目标，全市计划新建高标准设施农业2万亩，目前完成1.87万亩，并积极推进10个市级设施农业标准园和国家北方城市设施蔬菜种植基地试点项目，努力提升全市设施农业整体水平。', '三是着力打造品牌果业。继续实施2016年市委、市政府提出的建设东北果业强市发展战略，全市应用新品种、新技术，新建果园6.29万亩、改造老残果园6万亩。积极推进我市今年争取到的2个国家级果树、蔬菜有机肥替代化肥示范县项目，创建省高效精品果园项目8个，建设市级高效精品科技示范果园项目50个。', '四是大力发展标准化规模畜禽养殖。重点发展生猪、肉鸡、肉牛产业，突出黑猪、荷包猪、獭兔、六股河鸭蛋等特色品种，创新发展肉驴、蜜蜂产业，成功引进北京大伟嘉、大北农集团百万头生猪和江西双胞胎集团40万头生猪养殖项目，并争取到国家畜禽养殖废弃物资源化利用试点县项目1个、省大型畜禽养殖场粪污治理项目18个、辽西北五市畜禽标准化生态养殖场(小区)建设项目12个，目前全市畜牧业发展态势良好。', '通过以上农业产业结构调整，我市农业综合生产能力不断提升，预计到年底，全市粮食产量达到84万吨，设施蔬菜产量126.78万吨，水果产量142万吨，肉蛋奶总产量50万吨，同比分别增长5.5%、15.7%和8.3%。区域特色产业布局逐步形成，绥中县成为国家级现代农业示范区和全国苹果产品质量安全示范区，兴城市、绥中县、连山区成为国家级瘦肉型商品猪基地县和国家设施农业优势区，建昌县成为省级现代肉牛示范规划区和国家设施农业优势区，兴城市、绥中县为环渤海苹果优势区等等。', '为加快补齐我市农产品加工业短板，市农委积极围绕大城市、大超市、大市场做龙头、做品牌。', '一是承接京津冀和江浙等地区产业转移。依托我市优质特色产业，加大招商引资力度，重点引进一批成长性好、市场潜力大、科技含量高、品牌竞争力强、节能环保等优势产业项目，加快发展农产品精深加工业，推进每个县(市)区建设1个农产品加工园区，目前兴城市农产品加工集聚区初具规模，入驻企业17家、投产3家，建昌食品园区也已建成，入园项目11个、3个已正常运行。计划到年底培育省级重点龙头企业4个，市级重点龙头企业6个，不断延长农业产业链条，提高农产品附加值。', '二是积极实施品牌发展战略，全市今年共申报及续报无公害农产品80万亩、绿色食品4.1万亩，成功申报辽宁名牌农产品5个、辽宁特产之乡4个，累计分别达到10个和11个。积极组织新型农业经营主体参加各类农博会，其中获得第十届中国国际(沈阳)农产品交易会金奖13个、全国秋子梨评鉴会奖项5个，我市优质特色农产品知名度和市场竞争力不断提升。同时，积极建设优质特色农产品供给基地，发展“互联网+”农业，通过“实体+互联网”、订单农业等方式，不断增加京津冀等市场供给。最为典型的是，兴城市馨予农业利用互联网平台，成功将我市水果打入上海大超市;兴城宏伟远洋公司对接北京美菜网建设万亩蔬菜直供基地，月供应北京2个超市205家连锁店7万斤蔬菜;绥中等地水果年销往京津冀地区20万吨以上。', '四、李主任，为深入推进农业供给侧结构性改革，咱们市农委在加快培育农业农村发展新动能方面有哪些新举措?', '为落实中央、省1号文件精神，市委、市政府创新提出围绕高端人群做精品，引入城市资本、人才、技术到农村发展六大新型业态，加快培育农业农村发展新动能，成立了由孙轶书记和王力威市长任组长的市工作领导小组，层层落实工作责任和任务。', '召开了有市、县(市)区和乡镇党政主要领导、市直有关部门、规模以上企业和商会负责人等近400人参加的全市动员大会，进行工作动员部署。市农委抽调4名工作人员组建农业新业态办公室，加强工作统领和督导。4月初，相继开展认养农业、体验农业、产业带动3个主题月活动，全市共确定果蔬、家畜(禽)、粮食、土地和古树名木认养项目81项，体验和休闲旅游农业项目115项。投资28.5万元建立葫芦岛沃家农场认养平台，30余个市直部门参与其中，新业态的发展，加快了我市农业生产规模化、标准化进程，正在成为推动我市传统农业转型升级的新支点，同时也强势助力脱贫攻坚，激发生产动力，带动5250户农村贫困户适时调整种植业或养殖业结构，实现增产增收。', '五、李主任，既然是农业供给侧结构性改革，有加法，也应有减法，请问咱们市农委在减法方面做了哪些工作?', '一是实施化肥和农药使用量零增长行动，大力推广测土配方施肥、有机肥、高效和低毒、低残留农药、农作物重大病虫害专业化统防统治与绿色防控技术，全市主要实施测土配方施肥70万亩，飞防水稻二化螟1.95万亩，促进化肥减量增效、农药减量控害。', '三是加大农作物秸秆“四化”综合利用力度。按照市委、市政府工作部署，市农委成立了加快推进秸秆综合利用工作领导小组和7个工作推进小组，先后组织县(市)区、有关部门等同志赴阜新等地考察学习，大力发展秸秆膨化、微储、收储运体系建设三种利用模式，兴城市成功入选省秸秆综合利用示范县，预计到年底全市秸秆综合利用量、利用率分别达到121.71万吨和90%，努力打造秸秆无燃烧、全利用城市。', '六、李主任，从上面介绍可以看出，咱们市农委在调结构、补短板、促改革、创绿色、惠民生等方面都做了很多工作，也取得了显著成效。党的十九大提出了乡村振兴发展战略，请问市农委对下一步农业供给侧结构性改革工作是如何谋划的?', '党的十九大强调指出，要坚持把解决好“三农”问题作为全党工作重中之重，坚持农业农村优先发展，并提出了乡村振兴发展战略。下一步，农委将借乘十九大东风，在市委、市政府的坚强领导下，振奋精神，再接再厉，牢固树立“四个意识”和“五大发展理念”，按照产业兴旺、生态宜居、乡风文明、治理有效、生活富裕的总要求，坚持以“5个围绕”为总基调，深入推进农业供给侧结构性改革，加快推进农业农村现代化，全面提升农业发展质量效益和竞争力，推动“三农”经济发展再上新台阶，为建设生态宜居美丽富庶葫芦岛做出新的贡献。重点抓好以下三方面工作：', '一是优化布局结构。因地制宜调减玉米种植面积，稳定发展花生、设施农业、水果业和畜禽规模养殖等优质特色产业，创建粮食生产功能区、重要农产品生产保护区、特色农产品优势区和现代农业产业园。', '二是促进三产深度融合和产销对接。加快发展农产品精深加工业，建设全程可追溯、互联共享的农产品质量安全追溯监管综合服务平台、冷链物流等现代农产品流通体系，大力发展订单农业、认养农业、配送农业等新型业态，扩大“实体+互联网”叠加效应，逐年增加京津冀和东三省等市场农畜产品有效供给。', '一是推动农业绿色发展，实现2020年化肥和农药使用量零增长，全市畜禽规模养殖场粪污处理设施化率、农作物秸秆综合利用率均达95%以上。二是做大做强优势特色产业，发展适度规模高产、优质、高效、生态、安全的农畜生产基地。三是以建制镇和特色产业小镇为抓手，加快宜居宜业特色村镇建设。', '第三，加快构建现代农业经营体系，实现小农户和现代农业有机衔接。一是深化农村综合改革。保持土地承包关系稳定并长久不变，积极推进“三权”分置和农村集体产权制度改革，到2020年全面完成农村承包土地经营权确权登记颁证，引导土地规范有序流转，壮大集体经济，发展多种形式适度规模经营。', '三是加快金融创新，推进“农担贷”、“牧担贷”工作，加快我市花生、设施农业和畜禽养殖业等优势特色产业提质升级。', '四是强化创新驱动。加强农村致富带头人和新型职业农民培育，培养造就一支适应现代农业发展需要的懂农业、爱农村、爱农民的“三农”工作队伍，提升科技成果转化效率。', '五是实施项目牵动。加强营商环境建设，全力开展招商引资，以标准化现代项目为抓手，同时培育发展农业产业化联合体，通过龙头企业带动合作社，合作社更好地服务农民，带动农业乡村振兴发展。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>47</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>谋发展铺就致富路贫困村增收喜脱贫沙锅屯乡后富隆山村壮大村级集体经济侧记</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2017-12-21</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/tpxw/201712/t20171221_775115.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['谋发展铺就致富路 贫困村增收喜脱贫——沙锅屯乡后富隆山村壮大村级集体经济侧记_葫芦岛市南票区人民政府', '沙锅屯乡后富隆山村是个城乡混居的区域，全村总户数376户，其中农业户300户，非农业户76户，总人口1070人，党员33人，土地1390亩，荒山1570亩。建档立卡贫困人口128户188人，就是这样一个人均耕地面积不足一亩，村集体经济底子较薄弱的贫困村，在村党支部的带领下，集思广益、共谋发展，因地制宜走出了一条致富路。', '受自然条件限制，后富隆山村发展生产受阻。村“两委”于2016年5月召开3次群众代表大会进行集体研究，8月、9月由乡村两级党组织带领村党员参与，经过多次到通辽、赤峰、建昌、朝阳、北票等地考察学习，切身感受发达地区勤劳致富的先进经验，转变“被动脱贫”的观念，建立勇于尝试的心态。最终结合村情实际确定发展养牛项目，成立了后富母牛繁育基地。', '在驻村工作队辽宁省冶金地质勘查局的帮扶下，2016年10月初开始建厂，11月初完成基地建设，初步投资10万元，可饲养繁育母牛50头。11月份投资16万元购置母牛21头，由村集体经营，饲养方式采取圈养加放养的模式，平时以圈养方式为主，秋冬季节以放养为主，由专人把牛放到山坡及大地里放养，即节约了饲料，又能让牛适当的运动，确保牛健康成长。母牛繁育基地，现由2名专职人员看管，定期有4人给牛做防疫，2017年1月迎来了第一头小牛诞生，随后又喜添七头小牛，目前八头小牛已出售，售价为72000元，为全村128户188人贫困户每人分红300元，共分红56400元，结余15600元为村集体所有。', '后富隆山村这种“党支部+贫困户”的发展举措，不仅让贫困户切切实实感受到了精准扶贫的“获得感”，为扶贫向致富迈进提供了更大的保障，更使村集体完成了“空壳村”摘帽的任务，增强了村党组织的凝聚力和战斗力。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>47</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>绥中县人大常委会工作报告年</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2017-12-18</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/qtgkxx/qtbg_421001/202002/t20200219_884277.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['我受县十五届人大常委会委托，向大会报告五年来的主要工作，并对下一步工作提出建议，请予审议。', '县十五届人大常委会任期的五年，是我县攻坚克难、砥砺奋进，经济建设和社会事业取得重大成就的五年，也是县人大常委会各项工作取得新突破的五年。五年以来，在县委的坚强领导下，县人大常委会不负重托，牢记使命，深入贯彻落实党的十八大、十九大精神和中央、省、市、县委决策部署，始终坚持党的领导、人民当家作主和依法治国有机统一，始终保持昂扬向上、团结奋进的精神状态，围绕中心工作，依法履行职责。', '五年来，县人大共召开常委会会议47次，主任会议54次，听取和审议“一府两院”工作报告76项，组织专题视察15次，作出决议决定43项，较好地发挥了地方国家权力机关职能作用，为“四个绥中”建设做出了积极贡献。', '坚持党对人大工作的绝对领导，牢牢把握正确的政治方向。县人大常委会始终把坚持党的领导贯穿于依法履职全过程，牢固树立“四个意识”。在各项工作中，坚决贯彻执行中央和省、市、县委重大决策部署。切实发挥常委会党组领导核心作用，坚持重要工作党组讨论决定，重大事项及时向县委请示报告。将县委重视、政府关注、人民关心、社会关切作为人大工作的重中之重，统筹安排人大监督、决定、任免、代表等各项工作和重要活动，保证了县委重大决策部署和重要举措的贯彻落实。', '着力贯彻县委扶贫攻坚工作部署，深入扎实开展精准扶贫工作。2015年以来，常委会严格按照中央“六个精准”和“五个一批”要求，深入扎实地开展了对加碑岩乡上房子村的精准扶贫工作。常委会班子坚持亲临一线，靠前指挥。县人大驻村工作队主动作为，全面落实帮扶责任。发挥人大优势，动员全县各级人大代表和社会各界力量参与扶贫工作，不断凝聚脱贫攻坚强大合力。通过实施日常救助、基础帮扶和智力帮扶，保障了贫困户的基本生活，改善了村民生产生活条件，增强了贫困户自主发展的信心和决心。通过实施产业帮扶，采取党支部+合作社+贫困户的模式，发展特色种植业和养殖业，促进了贫困户增收。运营民俗传统村落旅游服务中心——“上房家园”，启动爱国主义教育基地——“辽西第一个党支部”项目，发挥旅游产业的带动作用，促进了相关产业发展。县人大的精准扶贫工作得到了省市县各级领导的充分肯定和加碑岩乡群众的广泛认可，精准扶贫工作事迹被《共产党员》、《辽宁日报》等多家省市级新闻媒体宣传报导，树立了帮扶贫困落后地区脱贫致富的样板。', '五年来，县人大常委会始终坚持“在监督中支持，在支持中监督”的工作理念，紧紧围绕全县工作大局和事关群众切身利益的热点难点问题开展监督，不断创新监督方式，切实增强监督实效。', '强化对计划、预算的审查监督。五年来，共听取和审议计划、预算执行报告10项，财政决算、部门预算报告各5项，作出批准上年度决算决议5项，作出调整计划、预算决议6项。通过深入调研、审议专项报告等形式，全面了解掌握全县经济运行情况，及时发现和分析新情况、新问题，提出对策建议，保证了经济发展质量和效益的不断提升。', '强化对重点项目建设的监督。县人大常委会把对全县重点项目建设的监督作为工作重点，多次组织人大代表对我县滨海公路、永加线和猴山水库等一批重点项目和惠民工程进行专题视察和调研。2013年，常委会还专门听取了新区管委会关于东戴河新区重点项目建设情况的工作汇报，提出了具体的意见和建议，强有力助推新区发展。', '强化对“三农”工作的监督。县人大常委会先后听取和审议了我县设施农业发展、小城镇建设和宜居乡村建设等情况的工作报告，支持和督促县政府及有关部门积极解决“三农”工作中存在的问题，推进了新农村建设和农业产业化进程。', '高度关注民生热点难点。民生无小事。2013年，常委会将群众反映比较强烈的城区交通秩序问题作为监督重点，在充分调研的基础上，通过“延时审议”、限时整改等手段，对城内交通管理工作进行了监督，有力地促进了城区交通整治工作。2014年，常委会针对群众反映强烈的滨海旅游“欺客宰客”等问题，进行了明查暗访，形成了调研报告，为县委、县政府和新区管委会规范我县旅游市场、优化沿海旅游环境提供了重要参考。村“两委”换届选举工作是村级政权建设的关键，一直以来倍受群众关注。2015年，常委会深入全县25个乡镇、96个行政村和7个社区，对全县村级政权建设情况进行了专题调研，对长期以来我县村级政权建设存在的问题，提出了建设性意见，为县委、县政府决策提供了有力依据。', '密切关注社会事业发展。关注社会保障事业，常委会先后就全县“五保”供养、新型农村合作医疗、城乡低保和残疾人权益保障情况等进行调研，提出了有针对性的意见和要求；关注教育事业发展，切实做到年年有议题，常抓不放松。先后听取审议了校园及校车安全、师德师风建设、学前教育、教育经费使用和管理以及义务教育均衡发展情况等报告；关注医疗卫生事业发展，听取了全县基本药物制度实施情况、乡村医生队伍建设情况等报告，提出了可操作性的意见建议，推动医疗卫生事业健康发展。', '持续关注社会治理创新。常委会先后听取了社区矫正、宗教事业、禁毒工作等专项工作报告，并明确要不断提高社会管理水平，正确处理各种利益纠纷，积极化解社会矛盾，不断推动政府加强和创新社会治理，努力让群众有更多的安全感、受益感。', '认真开展执法检查。常委会先后开展了《城乡规划法》、《水法》、《环保法》、《食品安全法》、《省宗教事务条例》和《农产品质量安全法》等法律法规的执法检查，全面掌握这些法律法规在我县的实施情况，重点督促政府解决执法中存在的问题，不断提升依法行政水平。', '加强司法工作监督。五年来，常委会听取和审议了司法机关关于案件办理和队伍建设等方面的工作报告14项，分别提出了相应的审议意见。司法机关高度重视审议意见的贯彻落实工作，在提高执行工作效率、提升行政审判质量、加大反贪反渎工作力度、强化诉讼监督和司法队伍建设等方面取得了新的成效，维护了法律的尊严。', '扎实做好信访工作。常委会不断完善信访办理机制，提高办理效果。五年来，共受理群众来信来访895件，1991人次。较好地化解了社会矛盾，维护了人民群众的合法权益。', '三、时刻把实现党的主张意图作为中心任务，在全力推进决策民主化、科学化、法治化上取得新突破', '（一）依法决定重大事项。常委会始终坚持深入基层，深入群众，在充分调查研究和审议的基础上，认真履行法定程序，适时就事关经济社会发展和人民群众切身利益的重要事项作出决议决定，切实把县委决策转化为全县人民的意志。2013年，常委会作出了《关于批准绥中县行政区划调整的决定》，有力地支持了县政府的工作。五年来，常委会还分别就城市规划、生态县建设、金融贷款、换届选举、棚户区改造、财政预决算、部门预算和预算调整等重大事项，依法作出决议决定，推动了政府重点工作的顺利开展。', '（二）依法行使人事任免权。常委会坚持党管干部与人大依法任免干部相统一的原则，认真贯彻市委、县委意图，严格法定程序。五年来，共任免国家工作人员184人，任命县人民法院陪审员77名。实行新任命国家机关工作人员向宪法宣誓制度，制定了《绥中县人大常委会决定任命、任命和表决通过国家工作人员就职宣誓实施办法》，有力维护了宪法的权威。不断加强任后监督，五年以来，先后对25个政府组成部门开展了工作评议，并将评议结果向社会公开，有效推动了政府部门依法行政和工作效能。', '2017年6月，我县全面启动县乡人大换届选举工作。常委会按照县委总体安排部署，坚持党的领导、坚持发扬民主、坚持依法办事，严格按程序开展了各项工作，保证了换届选举各阶段工作风清气正、依法有序、顺利进行。', '（一）强化组织领导，全面落实工作责任。常委会深入各乡镇和有关部门单位，就换届选举工作开展了调研，针对工作的新情况、新特点及困难和问题，逐一分析研判，提出对策和措施。及时下发《中共绥中县人大常委会党组关于做好全县县乡两级人民代表大会换届选举工作的意见》，依法设立了选举委员会，压实责任，保证工作扎实有序推进。', '（二）强化宣传培训，营造良好换届氛围。通过张贴和发布“致选民的一封信”等形式，提高群众的认识，调动选民参与选举的热情，选民参选率达82.8%。围绕选区划分、选民登记和投票选举等关键环节，组织选举委员会成员和工作人员等，分期开展培训，明确了各时间节点的任务和责任。并通过微信平台，实时对各选举单位进行业务指导，进一步营造浓厚的工作氛围。', '（三）强化督查指导，确保选举圆满完成。通过深入基层调研、定期听取工作汇报、个别谈话、查阅资料等方式，全面掌握各阶段工作情况，针对工作中容易出现的问题和情况，提出了具体的指导意见，确保人大代表选举程序的严谨性和合法性。', '五年来，县人大常委会始终坚持把代表工作作为一项基础性工作来抓，采取有效措施，支持和保障代表依法履行职责。', '加强代表培训，不断提升履职能力。五年来，共组织代表培训20余次，实现了基层代表的全覆盖培训。2017年，县十六届人大代表选举产生后，为及时学习传达十九大精神，提升全体县人大代表的素质和履职能力，创新思路和方法，把对代表的常规培训提前到人代会之前进行。这次培训，使代表统一了思想，明确了履职责任、途径和方式，增强了人大代表为人民的历史使命感，为圆满完成新一届人代会各项任务奠定了坚实的思想基础。', '搭建活动平台，不断拓宽履职空间。常委会把深化代表小组活动作为基础性、经常性工作，多次对代表小组活动提出指导性意见。不断拓宽代表知情知政渠道，坚持和完善了县人大代表列席常委会、参加“三查（察）一评”活动制度。五年来，共分批邀请基层人大代表列席会议和参加活动达700余人次，代表的桥梁和纽带作用得到进一步发挥。加强对驻绥市人大代表的履职监督，分期分批地开展了驻绥市人大代表述职评议工作，市人大代表履职能力、履职热情都有了明显的提高。', '扎实督办建议，促进履职成果转化。常委会高度重视代表建议办理工作，不断完善督办机制，努力增强办理实效。每年都听取和审议县政府办理代表建议情况的报告。进一步完善了代表建议办理面商制度和重点建议常委会领导督办制度。制定和完善了代表建议办理激励机制。五年来，代表所提出的413件建议，已全部办理完毕并答复代表，代表满意率和基本满意率达100%。', '加强对乡镇人大的联系指导，提高工作整体水平。坚持常委会领导分片联系乡镇人大制度，经常深入乡镇，走访代表，指导工作，提高了乡镇人大工作制度化、规范化水平。坚持每年召开乡镇人大主席会议和人大工作经验交流会，分期组织乡镇人大主席外出考察学习，认真落实乡镇人大主席列席常委会会议制度，进一步提升了乡镇人大工作整体水平。', '六、时刻把加强人大自身建设作为永恒主题，在全力增强人大队伍凝聚力和战斗力上取得新突破', '县人大常委会主动适应新时代新任务对人大工作的新要求，不断加强理论学习，规范制度建设，改进工作作风，提高履职能力和水平，确保了各项工作卓有成效地顺利开展。', '注重学风建设，提高自身素质。常委会把创建“学习型”机关，提高干部素质摆上重要位置，坚持学习贯彻党的十八大、十九大和习近平总书记系列重要讲话精神，扎实开展了党的群众路线教育实践活动、“三严三实”专题教育，积极推进“两学一做”学习教育常态化、制度化，有效地提高了常委会组成人员和机关干部的整体素质和履职能力。', '注重制度建设，规范工作程序。积极探索新形势下人大工作的新规律新特点，按照 《监督法》的新要求，先后制定或修订了《绥中县人大常委会办会流程》、《关于进一步规范“一府两院”及有关部门研究处理审议意见、视察意见、评议意见和主任会议纪要工作的意见》、《绥中县人大常委会关于规范性文件备案审查办法》等23项工作制度。进一步完善了会前调查研究、会中认真审议、会后监督意见跟踪督办以及组织视察、工作评议结果公开、监督活动与效果公开等工作机制，切实提高了人大工作的质量和效率。', '注重作风建设，强化服务理念。五年来，县人大常委会在依法履职中求真务实，围绕审议议题组织委员和代表深入基层，摸实情，求实效，真诚倾听群众呼声，真实反映群众愿望，真情关心群众疾苦。共开展了90余次调研活动，撰写了调研报告90余篇。围绕县委中心工作，经常深入所联系的乡镇、部门，了解情况，检查指导，督促落实精准扶贫、企业帮扶、信访维稳、护林防火、抗旱防汛等工作。常委会扎实的工作作风，切实保证了职能作用的有效发挥。', '各位代表，成绩来之不易，经验弥足珍贵！回顾五年的工作实践，我们对于新时代加强和改进人大工作的规律和特点，有了更加深刻的认识和把握。同时，我们更加深切地体会到：', '只有自觉坚持和紧紧依靠党的领导，牢固树立“四个意识”，人大工作才能沿着正确方向，不断开创新的局面；', '只有紧密服从服务于全县发展大局，高度关注民生福祉，人大工作才能抓到关键处，增强实效性，提高满意度；', '只有深入调查研究，密切联系人大代表和人民群众，人大工作才能打牢民意基础，贴近民生，顺应民心；', '只有适应人大依法履职的需要，切实搞好人大机关和队伍建设，人大工作才能获得充分的组织保障，发挥应有的作用；', '只有紧跟时代步伐，不断推出创新举措，人大工作才能实现新突破，永远充满新的生机和活力。', '同时，我们也清醒地看到，进入新时代，全县人大工作与党的要求和人民群众美好生活的新期盼还有差距，主要是：监督工作实效有待进一步增强，密切联系群众和代表工作还需进一步加强，常委会自身思想、作风建设仍需进一步改进。这些问题应在今后的工作中引起高度重视。', '各位代表，县十五届人大常委会不负重托，依法履职，取得了显著的成绩。这是县委正确领导的结果，是县人大常委会组成人员、全县各级人大代表和全体机关干部职工兢兢业业，扎实履职的结果，是县“一府两院”和各乡镇人大密切配合、团结协作的结果，是全县人民充分信任、大力支持的结果。在此，我谨代表县十五届人大常委会，向所有关心、支持人大工作的各位领导和同志们表示崇高的敬意和衷心的感谢！', '各位代表，县十五届人大常委会任期届满，本次大会将选举产生第十六届人大常委会。在县委的坚强领导下，全县人大工作进入了新时代。按照新时代，新思想，新征程的要求，新的一届县人大常委会要有而且必须要有新的作为。新一届人大常委会的工作思路和总体要求是：坚持以党的十九大精神和习近平新时代中国特色社会主义思想为指导，认真贯彻省、市人大工作会议精神和县委决策部署，坚持党的领导、人民当家作主和依法治国有机统一，以深化改革为动力，以创新创业为引领，以满足人民日益增长的美好生活需要为出发点和落脚点，突出抓好“党的建设”这条主线，全面担负起宪法法律赋予的各项职责，为坚决打赢经济发展“翻身仗”、社会事业“持久仗”、精准脱贫“攻坚仗”，奋力夺取“四个绥中”建设新突破作出新的贡献。', '——要坚持党的领导，在强化理想信念上下功夫。坚决维护以习近平同志为核心的党中央权威和集中统一领导，坚持强化学习贯彻十九大精神，不断增强“四个意识”，坚定“四个自信”，举办人大代表“新时代，新思想，新征程，新作为”大讲堂。深入贯彻落实十九大报告关于人大及其常委会的各项任务，依法履行宪法法律赋予的各项职责，着力完成县委和上级人大的部署和要求。要继续做好对加碑岩乡上房子村的精准脱贫帮扶工作。坚持发挥优势，动员力量，因地制宜，因户施策，助力贫困户如期脱贫。', '——要依法履行职权，在增强监督实效上下功夫。要以推进“四个绥中”建设新突破为主线，聚焦绥中发展，坚持“在监督中支持，在支持中监督”的工作理念，不断强化监督工作效能。进一步加强对政府预算和决算的审查监督，促进县政府逐步建立完整预算管理体系。把促进生态文明建设摆在更加突出的位置，加强对污水处理、城乡垃圾无害化处理和农村面源污染等方面的监督，切实为人居环境的优化和改善保驾护航。要重视全县营商环境建设，实现政府组成部门评议全覆盖，推进政府不断提高行政效率，提高公信力和执行力。继续关注和重视“三农”问题，推进城乡统筹协调发展。加强对权力运行的监督，继续强化对“一府两院”的监督，开展对监察工作的监督，促进“一府一委两院”依法正确行使职权。更加注重维护社会公平正义，支持督促推进司法改革，维护司法公正。', '——要聚焦热点难点重点，在保障和改善民生上下功夫。要把人民利益摆在至高无上的位置，多谋民生之利，多解民生之忧。围绕让全县人民过上更加美好的生活，依法监督，推进民生工程，实现人大代表视察调研民生工程、政府惠民实事制度化。督促政府有效落实各项惠民举措，把顺民意、解民忧、惠民生的各项实事办好、办到位。综合运用各种监督形式方法，对群众关注的饮水安全、食品安全、义务教育发展等情况以及就业难、看病难、入托难、出行难、执行难等问题加强监督，让发展成果更多更公平地惠及全县人民。', '——要探索多种途径，在提高代表工作质量上下功夫。注重提高代表素质和履职能力，实施县人大代表培训五年行动计划。加强服务保障，完善服务信息，保证代表的知情权。扩大代表对监督等工作的参与，改进代表议案、建议办理工作，推动解决社会发展和民生领域中的突出问题。完善代表联系群众制度，加强代表履职考评工作。建立代表履职档案和履职写实，进一步完善代表激励机制。创新和规范代表活动的内容方式，开展县人大常委会联系人大代表，人大代表联系群众的“双联系”活动，认真组织好对市人大代表的述职评议工作。', '——要适应形势要求，在加强人大常委会自身建设上下功夫。把学习贯彻十九大精神放在首位，强化人大常委会党组政治理论学习，扎实开展“不忘初心、牢记使命”主题教育，深入推进“学习型”机关建设，着力推进“四个意识”、“四个全面”落地生根。认真组织常委会组成人员对新时代新思想新观念的学习讨论，进一步统一思想，凝心聚力，推动发展。坚持转变作风，深入实际，贴近群众，认真搞好调查研究，不断提升履职能力和水平。', '各位代表，新的时代赋予我们新的使命！让我们在党的十九大精神的鼓舞下，在县委的坚强领导下，不忘初心，砥砺前行，为实现 “四个绥中”建设新突破的宏伟蓝图，书写更多的精彩和辉煌！']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>47</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>区政协七届五次会议第号提案的答复函</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2017-12-21</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.npq.gov.cn/xxgk/zfxxgk/fdzdgknr/jytadfgk/zxya/2017n/201712/t20171221_774783.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['服务业委的指导下，我局始终致力于发展电子商务工作。组织文君甘薯等企业参与全国网上农产品展销会；与阿里巴巴、京东、乐村淘等电子商务平台进行洽谈，商讨合作意向，发展农村电子商务；积极向电子商务发展先进的地区学习，先后去北镇、兴城考察学习，积累发展电子商务的经验。', '农村电子商务平台配合密集的乡村连锁网点，以数字化、信息化的手段，通过集约化管理、市场化运作、成体系的跨区域跨行业联合，构筑紧凑而有序的商业联合体，降低农村商业成本、扩大农村商业领域、使农民成为平台的最大获利者，使商家获得新的利润增长。', '我区农村电商工作刚刚起步，基础较差，目前仅高桥镇、虹螺岘镇及金星镇有零星业务，区级电商平台没有。为', '加快发展我区农村电商，通过壮大新业态促消费惠民生，更好地服务“三农”，结合我区实际，', '建议以阿里巴巴菜鸟物流配送为主，阿里巴巴“农村淘宝”项目通过搭建县、乡、村服务网络，补贴物流费用，打通县村物流，实现“网货下乡”和“农产品进城”的双向物流。同时，在培养南票本地电商人才的过程中引入阿里巴巴集团的培训模式和经验。', '级综合服务中心；二是建好村级服务网点；三是选好“村淘”合伙人；四是抓好“村淘”项目培训；五是完善农村物流配送体系；六是加快建立商品质量可追溯体系；七是深入挖掘农村电商资源。', '发展农产品电子商务具体工作由区外经贸局牵头执行，整合发展电商的各种资源，我局就将各乡镇的现有优秀的农产品资源，进行详细摸底，掌握我区发展情况，整合我区优秀的农产品资源，形成合力，统一安排部署发展电子商务。由区劳动就业局，加大培训力度，培训电商人员，为我区电子商务的发展特别是农村电子商务的发展提供人力资源。由区农经局负责对农产品监管，从而保证产品质量，做好体系认证等工作。高桥镇正在建立电商平台，成立了南票区青创中心电商基地，发展农村电子商务。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>47</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>促进高校毕业生在基层成长成才人社部市场司负责人就高校毕业生基层成长计划相</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2017-12-18</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://rsj.hld.gov.cn/zwgk/zqsk/201712/t20171218_774081.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['促进高校毕业生在基层成长成才——人社部市场司负责人就《高校毕业生基层成长计划》相关问题进行解读_葫芦岛市人力资源和社会保障局', '促进高校毕业生在基层成长成才——人社部市场司负责人就《高校毕业生基层成长计划》相关问题进行解读', '日前，人社部、中组部、教育部、财政部、共青团中央联合印发了《高校毕业生基层成长计划》（以下简称《计划》），引导高校毕业生更好在基层就业创业，促进高校毕业生在基层成长成才。近日，人社部市场司负责人就《计划》出台背景、主要内容以及如何推动贯彻落实等进行解读。 问：请您介绍一下《计划》的出台背景。 答：高校毕业生是国家宝贵的人才资源，基层是高校毕业生成长成才的重要平台。党的十九大报告提出要鼓励高校毕业生多渠道就业创业，加强青年人才选拔培养，引导人才向基层一线流动。中共中央办公厅、国务院办公厅《关于进一步引导和鼓励高校毕业生到基层工作的意见》和国务院《关于做好当前和今后一段时期就业创业工作的意见》对实施高校毕业生基层成长计划提出了明确要求。按照中央部署和要求，五部门联合制定实施《计划》，将更好地引导高校毕业生在基层就业创业，促进高校毕业生在基层成长成才，建设高素质基层人才队伍，为基层经济社会发展提供人才支持。 问：《计划》的目标任务和主要内容是什么？ 答：高校毕业生基层成长计划主要面向以各种形式在基层服务工作的高校毕业生，力争用10年左右的时间，通过强化教育培训、实践锻炼、职业发展、管理服务等全链条的扶持措施，建设一支结构合理、素质优良、作风过硬的基层青年人才队伍。通过建立分层次、多渠道的基层优秀青年后备人才选拔体系，有计划、有重点地遴选一批具有坚定政治信念、现代管理理念和管理能力的基层管理人才，一批具有钻研精神、专业知识水准和实践经验的基层专业技术人才，一批具有创新精神、市场意识和经营管理能力的基层创新创业人才。 《计划》针对高校毕业生基层成长的特点和需求，从能力素质培育、岗位锻炼成才、职业发展支持、成长环境营造、服务体系建设和后备人才选拔等方面，提出了六个具体计划，对高校毕业生在基层成长成才提供支持。 问：《计划》将采取哪些培养措施帮助高校毕业生在基层成长成才？ 答：针对基层高校毕业生培养需求，《计划》重点从能力素质培育和岗位锻炼两方面帮助毕业生成长成才。 在能力素质培育方面，《计划》规定，与高校毕业生相关的各类培训项目、培训经费要向基层倾斜。全国每年培训人数不少于1万人，基层高校毕业生参加创业培训、职业技能培训的，按规定给予职业培训补贴。建立基层人才导师结对帮扶制度，推动国家、省市学术技术带头人、高层次人才与基层高校毕业生建立结对培养关系。鼓励行业部门实施基层人才专项培训计划。鼓励有条件的地方选送扎根基层高校毕业生到国外境外考察学习等。 在岗位锻炼方面，《计划》提出，各地及各用人单位要积极搭建工作平台，将基层高校毕业生放在重要岗位上培养锻炼。建立健全导师培养制度，由单位负责同志或业务带头人进行“一对一”传帮带；建立健全多岗位锻炼制度，有针对性地进行多岗位锻炼，培养一专多能复合型人才；建立健全交流锻炼制度，选派到上级单位或发达地区挂职锻炼、跟班学习等。 问：基层工作生活环境是大家普遍关心的话题，《计划》为高校毕业生提供怎样的工作生活保障？为引导他们在基层成长成才，《计划》提供怎样的服务支持？ 答：围绕改善基层高校毕业生工作生活条件，《计划》提出，落实新录用到中西部地区、东北地区或艰苦边远地区、国家扶贫开发工作重点县县以下机关事业单位工作的高校毕业生高定级别工资档次或薪级工资相关政策。将基层高校毕业生纳入当地人才政策扶持范围，符合条件的提供住房、医疗、子女就读、落户、职称申报等方面配套支持。同时，各级各类人才表彰奖励项目进一步向基层一线倾斜，将基层高校毕业生纳入表彰奖励对象范围。 围绕形成关心关爱基层高校毕业生成长的良好氛围，《计划》提出实施基层成长服务体系建设计划。加强党组织对高校毕业生基层成长的领导和引导，对党员加强教育管理和激励关怀，严格组织生活和纪律约束；对非党员的优秀人才加强政治引领和政治吸引，使他们在基层充分感受党的关怀关爱，沿着正确方向健康成长。人社部门会同有关部门建立高校毕业生基层成长联系服务机制，开展座谈、走访慰问等活动，密切与基层高校毕业生联系。教育、卫生、农业、文化等行业部门要关心关爱本行业基层高校毕业生，格外关注长期在基层艰苦岗位上工作的高校毕业生，了解他们思想动态和工作生活情况，帮助解决实际困难。公共就业和人才服务机构要及时提供就业创业服务，落实相关政策扶持。同时，鼓励基层用人单位结合实际，加大对高校毕业生的政策倾斜和照顾。 问：对于年轻人来说，广阔的职业发展空间很重要，《计划》在这方面有哪些新举措？ 答：围绕拓展高校毕业生职业发展空间，《计划》明确了6项具体支持政策，并将通过实施后备人才计划，加大支持力度，助力扎根基层的优秀青年成长成才。 助推高校毕业生职业发展的具体措施有：一是在干部人才选拔任用中坚持基层导向。二是适当提高基层事业单位中、高级专业技术岗位设置比例。三是对优秀的基层高校毕业生在专业技术职务（职称）评聘、人才项目选拔、出国深造、参加进修学习和学术会议等方面予以优先。四是创新完善基层专业技术人才职称评审制度，对长期在基层一线工作且做出重要贡献的可破格晋升职称等级。五是对参加高校毕业生基层服务项目服务期满后留在基层工作的人员，及时纳入高校毕业生基层成长计划，跟踪培养。六是对工作条件特别艰苦或岗位职责重、压力大的基层高校毕业生，适时组织交流或轮岗。 与此同时，《计划》提出建立分层次、多渠道的基层后备人才选拔体系。人社部会同有关部门建立国家基层成长计划后备人才库，每年从基层优秀高校毕业生中遴选5000人左右；各地建立本地后备人才库。对基层成长后备人才纳入本地青年干部队伍、人才队伍建设规划予以支持，在干部人才选拔、岗位职务（等级）晋升等方面作为重点人选对象，同时各级财政提供适当的培养经费补助。 问：《计划》印发后，如何抓好贯彻落实？ 答：《计划》要求，地方各级党委和政府要将实施高校毕业生基层成长计划作为贯彻落实十九大精神的实际行动，作为贯彻落实中办、国办关于进一步引导和鼓励高校毕业生到基层工作意见的具体措施，加强对本地基层成长计划的组织领导。各地人社部门要积极会同组织、教育、财政、共青团等部门和单位研究制定具体实施方案。各地区、各部门要统筹做好经费保障，综合利用相关资金，为基层高校毕业生的培养培训、项目资助、事业发展等提供积极支持。同时，建立高校毕业生基层成长计划督导机制，定期评估基层成长计划实施效果评估。组织多形式多渠道宣传活动，力争将符合条件的优秀高校毕业生均纳入基层成长计划，树立一批基层高校毕业生先进典型，加大舆论宣传引导。', '答：高校毕业生是国家宝贵的人才资源，基层是高校毕业生成长成才的重要平台。党的十九大报告提出要鼓励高校毕业生多渠道就业创业，加强青年人才选拔培养，引导人才向基层一线流动。中共中央办公厅、国务院办公厅《关于进一步引导和鼓励高校毕业生到基层工作的意见》和国务院《关于做好当前和今后一段时期就业创业工作的意见》对实施高校毕业生基层成长计划提出了明确要求。按照中央部署和要求，五部门联合制定实施《计划》，将更好地引导高校毕业生在基层就业创业，促进高校毕业生在基层成长成才，建设高素质基层人才队伍，为基层经济社会发展提供人才支持。', '答：高校毕业生基层成长计划主要面向以各种形式在基层服务工作的高校毕业生，力争用10年左右的时间，通过强化教育培训、实践锻炼、职业发展、管理服务等全链条的扶持措施，建设一支结构合理、素质优良、作风过硬的基层青年人才队伍。通过建立分层次、多渠道的基层优秀青年后备人才选拔体系，有计划、有重点地遴选一批具有坚定政治信念、现代管理理念和管理能力的基层管理人才，一批具有钻研精神、专业知识水准和实践经验的基层专业技术人才，一批具有创新精神、市场意识和经营管理能力的基层创新创业人才。', '《计划》针对高校毕业生基层成长的特点和需求，从能力素质培育、岗位锻炼成才、职业发展支持、成长环境营造、服务体系建设和后备人才选拔等方面，提出了六个具体计划，对高校毕业生在基层成长成才提供支持。', '答：针对基层高校毕业生培养需求，《计划》重点从能力素质培育和岗位锻炼两方面帮助毕业生成长成才。', '在能力素质培育方面，《计划》规定，与高校毕业生相关的各类培训项目、培训经费要向基层倾斜。全国每年培训人数不少于1万人，基层高校毕业生参加创业培训、职业技能培训的，按规定给予职业培训补贴。建立基层人才导师结对帮扶制度，推动国家、省市学术技术带头人、高层次人才与基层高校毕业生建立结对培养关系。鼓励行业部门实施基层人才专项培训计划。鼓励有条件的地方选送扎根基层高校毕业生到国外境外考察学习等。', '在岗位锻炼方面，《计划》提出，各地及各用人单位要积极搭建工作平台，将基层高校毕业生放在重要岗位上培养锻炼。建立健全导师培养制度，由单位负责同志或业务带头人进行“一对一”传帮带；建立健全多岗位锻炼制度，有针对性地进行多岗位锻炼，培养一专多能复合型人才；建立健全交流锻炼制度，选派到上级单位或发达地区挂职锻炼、跟班学习等。', '问：基层工作生活环境是大家普遍关心的话题，《计划》为高校毕业生提供怎样的工作生活保障？为引导他们在基层成长成才，《计划》提供怎样的服务支持？', '答：围绕改善基层高校毕业生工作生活条件，《计划》提出，落实新录用到中西部地区、东北地区或艰苦边远地区、国家扶贫开发工作重点县县以下机关事业单位工作的高校毕业生高定级别工资档次或薪级工资相关政策。将基层高校毕业生纳入当地人才政策扶持范围，符合条件的提供住房、医疗、子女就读、落户、职称申报等方面配套支持。同时，各级各类人才表彰奖励项目进一步向基层一线倾斜，将基层高校毕业生纳入表彰奖励对象范围。', '围绕形成关心关爱基层高校毕业生成长的良好氛围，《计划》提出实施基层成长服务体系建设计划。加强党组织对高校毕业生基层成长的领导和引导，对党员加强教育管理和激励关怀，严格组织生活和纪律约束；对非党员的优秀人才加强政治引领和政治吸引，使他们在基层充分感受党的关怀关爱，沿着正确方向健康成长。人社部门会同有关部门建立高校毕业生基层成长联系服务机制，开展座谈、走访慰问等活动，密切与基层高校毕业生联系。教育、卫生、农业、文化等行业部门要关心关爱本行业基层高校毕业生，格外关注长期在基层艰苦岗位上工作的高校毕业生，了解他们思想动态和工作生活情况，帮助解决实际困难。公共就业和人才服务机构要及时提供就业创业服务，落实相关政策扶持。同时，鼓励基层用人单位结合实际，加大对高校毕业生的政策倾斜和照顾。', '答：围绕拓展高校毕业生职业发展空间，《计划》明确了6项具体支持政策，并将通过实施后备人才计划，加大支持力度，助力扎根基层的优秀青年成长成才。', '助推高校毕业生职业发展的具体措施有：一是在干部人才选拔任用中坚持基层导向。二是适当提高基层事业单位中、高级专业技术岗位设置比例。三是对优秀的基层高校毕业生在专业技术职务（职称）评聘、人才项目选拔、出国深造、参加进修学习和学术会议等方面予以优先。四是创新完善基层专业技术人才职称评审制度，对长期在基层一线工作且做出重要贡献的可破格晋升职称等级。五是对参加高校毕业生基层服务项目服务期满后留在基层工作的人员，及时纳入高校毕业生基层成长计划，跟踪培养。六是对工作条件特别艰苦或岗位职责重、压力大的基层高校毕业生，适时组织交流或轮岗。', '与此同时，《计划》提出建立分层次、多渠道的基层后备人才选拔体系。人社部会同有关部门建立国家基层成长计划后备人才库，每年从基层优秀高校毕业生中遴选5000人左右；各地建立本地后备人才库。对基层成长后备人才纳入本地青年干部队伍、人才队伍建设规划予以支持，在干部人才选拔、岗位职务（等级）晋升等方面作为重点人选对象，同时各级财政提供适当的培养经费补助。', '答：《计划》要求，地方各级党委和政府要将实施高校毕业生基层成长计划作为贯彻落实十九大精神的实际行动，作为贯彻落实中办、国办关于进一步引导和鼓励高校毕业生到基层工作意见的具体措施，加强对本地基层成长计划的组织领导。各地人社部门要积极会同组织、教育、财政、共青团等部门和单位研究制定具体实施方案。各地区、各部门要统筹做好经费保障，综合利用相关资金，为基层高校毕业生的培养培训、项目资助、事业发展等提供积极支持。同时，建立高校毕业生基层成长计划督导机制，定期评估基层成长计划实施效果评估。组织多形式多渠道宣传活动，力争将符合条件的优秀高校毕业生均纳入基层成长计划，树立一批基层高校毕业生先进典型，加大舆论宣传引导。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>47</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>政协建昌县第十届委员会第一次会议隆重召开</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2017-12-11</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/zwyw/201712/t20171211_772723.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['12月5日至7日，政协建昌县第十届委员会第一次会议隆重召开。来自全县各界的240名政协委员肩负着全县人民的期望和重托，齐聚一堂，认真履行政治协商、民主监督、参政议政的职责，共商建昌发展大计，共谋建昌脱贫良策。 会议选举霍洪军为政协建昌县第十届委员会主席。县四个班子领导出席会议。 县政协主席霍洪军代表政协建昌县第九届委员会常务委员会向大会作工作报告。 大会通过了各项决议。 报告全面回顾了过去五年来政协建昌县委员会的工作。 报告指出：九届县政协常委会牢牢把握团结和民主两大主题，紧紧围绕县委、县政府的中心工作，切实履行政治协商、民主监督、参政议政职能，为加快建设小康建昌贡献了智慧和力量。 一是坚持围绕中心，服务工作大局，为促进经济发展出谋划策，做到了“三个围绕”。五年来，县政协围绕全县经济社会发展过程中的重点难点问题开展考察调研，共为县委、县政府提供调研报告11篇。2013年，组织委员赴广西灵川、朝阳喀左考察学习城乡建设发展经验，撰写的调研报告得到县委高度重视。2015年，对全县旅游产业发展进行调研，提出的意见建议被有关部门采纳和借鉴。2017年，对脱贫攻坚工作开展专题调研，对产业脱贫结构调整，推进农业供给侧改革提出的意见建议得到县委高度认可；紧紧围绕中心工作开展协商议政，共提出调研意见建议168条。其中，针对县城镇化建设方面提出意见建议91条，针对文化建设等问题提出意见建议62条，针对精准脱贫工作提出意见建议15条。在这些意见中，关于农田水利、土地流转、脱贫攻坚等方面的意见建议得到了县委的充分肯定，协助市政协对食品安全、污水处理、“三农”发展等问题提出的意见建议得到市委、市政府的充分肯定；紧紧围绕建昌发展战略开展民主监督。制定了《关于加强和改进人民政协民主监督工作的意见》，通过组织委员参加听证会形式，把民主监督贯穿于履行职能的全过程。五年来，政协委员1500余人次参加了县级领导班子考核、自来水价格调整、出租车运价调整、旅游开发控制规划论证、司法审判等监督活动，有效地促进了相关工作的开展。 二是坚持探索创新，完善管理机制，为推动全局工作献智出力，做到了“三个加强”。加强了政协制度建设。制定并实施了《委员履行职责量化考核办法》，每年第一次常委会议，向常委通报委员上一年度考核结果，作为对委员评优和调整的重要依据。五年来，共约谈委员8人，劝退1人。加强了对委员教育培训。采取名师讲座、专题研讨、道德讲堂等多种形式组织委员学习6次，其中《世界农业发展进程和农业科技发展趋势》 《用社会主义核心价值观引领家庭、家教、家风》 《学习习近平总书记在参加十二届全国人大五次会议辽宁代表团审议时的重要讲话》等专题学习，增强了委员主动履职意识，提高了委员政策理论水平及道德修养。加强了委员履职形式的创新。立足政协职能优势，充分利用会议、视察、民主评议、提案、反映社情民意等有效途径，努力实现委员的履职形式多样化、实效化。 三是坚持以人为本，关注民生民情，为社会和谐发展建言献计，做到了“三个落实”。助力民生实事落实。五年来，先后就教育、医疗、住房等社会事业共组织开展专项视察、知情视察17次，参与委员达800余人次。在2014年“4.25山火”“4.26学生溺水”事件中，积极作为，敢于担当，组成善后工作领导小组，使事件得到圆满妥善处理；在2015年的罕见旱灾中，积极建言，为促进农业生产做出了贡献；针对龟灵春酒业再生产，努力协商，使“龟灵春”酒业重新恢复经营；在精准脱贫工作中，引导委员积极投入财力、物力帮扶贫困户，折合人民币100余万元。加强提案督办落实。九届县政协共收到委员提案422件，其中立案295件，并案129件，办复率100%。其中，《关于加快推进农村土地流转的建议》等提案，得到了县政府与相关部门的高度重视，对提出的意见建议积极落实，取得了良好的社会效果。注重社情民意信息的落实。五年来，共收到反映社情民意信息211条。其中《关于建立青山水库上游生态补偿机制》被评为市十佳信息，得到了市委、市政府的高度关注。《关于突破辽西北计划的建议》得到了省委、省政府的高度重视，已把建昌纳入该计划，使建昌得到了与朝阳、阜新等地区同等的政策，为全县经济发展做出了贡献。 四是坚持发扬民主，扩大团结联谊，为促进和谐发展凝心聚力，做到了“三个深化”。充分发挥政协代表性强、联系面广、包容性大的优势，紧密联系各界人士，深化合作参政；发挥政协统一战线组织团结联谊功能，深化联络联谊；每年都举办以“迎中秋、庆国庆”为主题的台属、归侨、侨眷座谈会，畅谈祖国大好形势，激发建设美丽建昌热情；加强与省、市和兄弟县区政协的联谊交流，接待营口大石桥市政协、沈阳大东区政协、内蒙塞罕坝政协等考察团，加深了彼此友谊，提升了建昌形象；采取走出去、请进来、向知情人约稿等方法，深化政协文化创新。2015年，编撰出版了40多万字的《建昌抗日十四年》，建昌抗战载入史册；2017年，通过四年多的征集、编辑工作，70多万字的大型文史资料《可爱建昌》完成出版。 五是坚持务实高效，加强自身建设，为提高履职能力夯实基础，做到了“三个强化”。强化机关党建工作。通过中心组学习、党风廉政建设、履职考核、责任追究等各项规章制度的不断完善，促进党建工作的制度化、规范化和程序化。强化党员干部教育培训，开展党员谈心谈话和民主评议，严格党员日常教育管理，丰富组织生活。强化机关履职作用，提高人民政协民主监督能力。各专委会认真贯彻落实监督意见，综合运用听取审议专项工作报告、专题调研、专题询问等方式方法加强监督。 六是对今后五年政协工作提出了宏观思路和工作目标。今后五年县政协工作的总体要求是，认真贯彻落实党的十九大精神，以“生态立县、农业富县、旅游兴县、工业强县”四大发展战略为引领，在县委的正确领导下，围绕团结和民主两大主题，积极履行政治协商、民主监督、参政议政职能，努力为全县决胜脱贫攻坚、实现小康社会贡献智慧和力量。一是突出创新融合主线，着力在推动转型上有新作为。发挥民主协商的“重要渠道”和“专门机构”作用，更加灵活、更加经常地开展专题协商、对口协商。组织好视察监督、提案监督、专项集体民主监督。创新提案机制，提升办理水平。以包案督办、追踪督办、视察督办等形式，促进提案工作整体水平全面提升。二是突出履职为民主旨，着力在改善民生上有新成效。努力使政协履行职能的过程成为倾听民声、反映民意、维护民权、保护民利的过程。三是突出团结、民主主题，在构建和谐社会上有新贡献。继续加强同侨属、归侨、侨眷的联系和团结，积极稳妥地开展联谊工作；加强同少数民族群众和宗教界人士以及信教群众的联系；进一步抓好文史编辑，鼓舞人心，激发活力。 报告最后指出，小康在望，逐梦不远。人民政协使命光荣、责任重大。唯有团结奋斗，才能不辱崇高使命；唯有再接再厉，才能不负历史重托。县政协要在县委的坚强领导下，高举团结和民主两面旗帜，共同肩负起实现整体脱贫、决胜全面建设小康社会的历史重任，为建设富庶美丽和谐幸福的小康建昌不懈奋斗！', '12月5日至7日，政协建昌县第十届委员会第一次会议隆重召开。来自全县各界的240名政协委员肩负着全县人民的期望和重托，齐聚一堂，认真履行政治协商、民主监督、参政议政的职责，共商建昌发展大计，共谋建昌脱贫良策。', '报告指出：九届县政协常委会牢牢把握团结和民主两大主题，紧紧围绕县委、县政府的中心工作，切实履行政治协商、民主监督、参政议政职能，为加快建设小康建昌贡献了智慧和力量。', '一是坚持围绕中心，服务工作大局，为促进经济发展出谋划策，做到了“三个围绕”。五年来，县政协围绕全县经济社会发展过程中的重点难点问题开展考察调研，共为县委、县政府提供调研报告11篇。2013年，组织委员赴广西灵川、朝阳喀左考察学习城乡建设发展经验，撰写的调研报告得到县委高度重视。2015年，对全县旅游产业发展进行调研，提出的意见建议被有关部门采纳和借鉴。2017年，对脱贫攻坚工作开展专题调研，对产业脱贫结构调整，推进农业供给侧改革提出的意见建议得到县委高度认可；紧紧围绕中心工作开展协商议政，共提出调研意见建议168条。其中，针对县城镇化建设方面提出意见建议91条，针对文化建设等问题提出意见建议62条，针对精准脱贫工作提出意见建议15条。在这些意见中，关于农田水利、土地流转、脱贫攻坚等方面的意见建议得到了县委的充分肯定，协助市政协对食品安全、污水处理、“三农”发展等问题提出的意见建议得到市委、市政府的充分肯定；紧紧围绕建昌发展战略开展民主监督。制定了《关于加强和改进人民政协民主监督工作的意见》，通过组织委员参加听证会形式，把民主监督贯穿于履行职能的全过程。五年来，政协委员1500余人次参加了县级领导班子考核、自来水价格调整、出租车运价调整、旅游开发控制规划论证、司法审判等监督活动，有效地促进了相关工作的开展。', '二是坚持探索创新，完善管理机制，为推动全局工作献智出力，做到了“三个加强”。加强了政协制度建设。制定并实施了《委员履行职责量化考核办法》，每年第一次常委会议，向常委通报委员上一年度考核结果，作为对委员评优和调整的重要依据。五年来，共约谈委员8人，劝退1人。加强了对委员教育培训。采取名师讲座、专题研讨、道德讲堂等多种形式组织委员学习6次，其中《世界农业发展进程和农业科技发展趋势》 《用社会主义核心价值观引领家庭、家教、家风》 《学习习近平总书记在参加十二届全国人大五次会议辽宁代表团审议时的重要讲话》等专题学习，增强了委员主动履职意识，提高了委员政策理论水平及道德修养。加强了委员履职形式的创新。立足政协职能优势，充分利用会议、视察、民主评议、提案、反映社情民意等有效途径，努力实现委员的履职形式多样化、实效化。', '三是坚持以人为本，关注民生民情，为社会和谐发展建言献计，做到了“三个落实”。助力民生实事落实。五年来，先后就教育、医疗、住房等社会事业共组织开展专项视察、知情视察17次，参与委员达800余人次。在2014年“4.25山火”“4.26学生溺水”事件中，积极作为，敢于担当，组成善后工作领导小组，使事件得到圆满妥善处理；在2015年的罕见旱灾中，积极建言，为促进农业生产做出了贡献；针对龟灵春酒业再生产，努力协商，使“龟灵春”酒业重新恢复经营；在精准脱贫工作中，引导委员积极投入财力、物力帮扶贫困户，折合人民币100余万元。加强提案督办落实。九届县政协共收到委员提案422件，其中立案295件，并案129件，办复率100%。其中，《关于加快推进农村土地流转的建议》等提案，得到了县政府与相关部门的高度重视，对提出的意见建议积极落实，取得了良好的社会效果。注重社情民意信息的落实。五年来，共收到反映社情民意信息211条。其中《关于建立青山水库上游生态补偿机制》被评为市十佳信息，得到了市委、市政府的高度关注。《关于突破辽西北计划的建议》得到了省委、省政府的高度重视，已把建昌纳入该计划，使建昌得到了与朝阳、阜新等地区同等的政策，为全县经济发展做出了贡献。', '四是坚持发扬民主，扩大团结联谊，为促进和谐发展凝心聚力，做到了“三个深化”。充分发挥政协代表性强、联系面广、包容性大的优势，紧密联系各界人士，深化合作参政；发挥政协统一战线组织团结联谊功能，深化联络联谊；每年都举办以“迎中秋、庆国庆”为主题的台属、归侨、侨眷座谈会，畅谈祖国大好形势，激发建设美丽建昌热情；加强与省、市和兄弟县区政协的联谊交流，接待营口大石桥市政协、沈阳大东区政协、内蒙塞罕坝政协等考察团，加深了彼此友谊，提升了建昌形象；采取走出去、请进来、向知情人约稿等方法，深化政协文化创新。2015年，编撰出版了40多万字的《建昌抗日十四年》，建昌抗战载入史册；2017年，通过四年多的征集、编辑工作，70多万字的大型文史资料《可爱建昌》完成出版。', '五是坚持务实高效，加强自身建设，为提高履职能力夯实基础，做到了“三个强化”。强化机关党建工作。通过中心组学习、党风廉政建设、履职考核、责任追究等各项规章制度的不断完善，促进党建工作的制度化、规范化和程序化。强化党员干部教育培训，开展党员谈心谈话和民主评议，严格党员日常教育管理，丰富组织生活。强化机关履职作用，提高人民政协民主监督能力。各专委会认真贯彻落实监督意见，综合运用听取审议专项工作报告、专题调研、专题询问等方式方法加强监督。', '六是对今后五年政协工作提出了宏观思路和工作目标。今后五年县政协工作的总体要求是，认真贯彻落实党的十九大精神，以“生态立县、农业富县、旅游兴县、工业强县”四大发展战略为引领，在县委的正确领导下，围绕团结和民主两大主题，积极履行政治协商、民主监督、参政议政职能，努力为全县决胜脱贫攻坚、实现小康社会贡献智慧和力量。一是突出创新融合主线，着力在推动转型上有新作为。发挥民主协商的“重要渠道”和“专门机构”作用，更加灵活、更加经常地开展专题协商、对口协商。组织好视察监督、提案监督、专项集体民主监督。创新提案机制，提升办理水平。以包案督办、追踪督办、视察督办等形式，促进提案工作整体水平全面提升。二是突出履职为民主旨，着力在改善民生上有新成效。努力使政协履行职能的过程成为倾听民声、反映民意、维护民权、保护民利的过程。三是突出团结、民主主题，在构建和谐社会上有新贡献。继续加强同侨属、归侨、侨眷的联系和团结，积极稳妥地开展联谊工作；加强同少数民族群众和宗教界人士以及信教群众的联系；进一步抓好文史编辑，鼓舞人心，激发活力。', '报告最后指出，小康在望，逐梦不远。人民政协使命光荣、责任重大。唯有团结奋斗，才能不辱崇高使命；唯有再接再厉，才能不负历史重托。县政协要在县委的坚强领导下，高举团结和民主两面旗帜，共同肩负起实现整体脱贫、决胜全面建设小康社会的历史重任，为建设富庶美丽和谐幸福的小康建昌不懈奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>47</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>小小葵花子叩开致富门</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2017-12-22</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/xzdt/201712/t20171222_775249.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['“今年在春山专业种植合作社的帮助下种了30亩地的葵花子，亩产达500斤左右，按照约定的价格收购，应该能比去年种玉米增收近3万元。没想到小小葵花子帮我致富了，明年我还要接着种。”12月13日，在建昌县玲珑塔镇红草沟村，春山专业种植合作社社员王薇看着堆满屋子的一袋袋的葵花子高兴地对记者说。', '建昌县春山种植合作社是一个“民办、民管、民受益”的社会法人团体，为葵花子种植户提供新品种、推广新技术，进行技术交流，提供产前、产中和产后的服务，组织职工群众进行葵花子收购、销售和深加工等。目前，春山种植合作社拥有会员200多人，带动农户200多户，种植面积达到2000多亩。在带动当地经济发展的同时，也给当地农民铺就了一条新的致富路。', '2015年，社长马春山去内蒙古赤峰等地考察时了解到，这些地方盛产向日葵，而且已经形成健全的葵花子产业链，经济效益显著。考虑到赤峰和建昌的环境气候很相似，马春山认为带领社员种植向日葵不仅能帮助农民调整产业结构，推动农业稳定发展，还能帮助农民增收。就这样，合作社先后到内蒙、黑龙江、新疆等地考察学习向日葵种植经验和种植技术，先后引进了适合建昌县丘陵地区种植的优良品种向日葵。', '2017年，在县委、县政府及县直有关部门的大力支持下进行了大面积推广，在石佛、牤牛营子、药王庙、玲珑塔等10个乡镇发展社员200多户，共种植向日葵2000多亩，全部都是订单农业，统一提供种子和葵花子专用肥，无偿提供技术服务，全程进行技术跟踪指导。经过一年的辛勤耕耘，2000多亩向日葵再次喜获丰收，得到了社员的一致认可。', '要路沟乡吴坤杖子村的李享荣也是春山合作社的社员，今年初，她家在200亩的山楂树下种上了葵花子。虽然受树的影响产量并不十分高，但亩产还是达到近400斤。按照约定的最低收购价，今年也能小赚一笔。', '马春山说，这几天合作社正在收购葵花子，因为等级不同，今年与社员签的收购价从4元、4元5到5元不等。小小葵花子让社员们看到了致富希望，马春山的信心也更足了：“与社员签订合同，签订订单，由我们提供种子、化肥并免费提供技术服务，使社员做到技术、销路有保证，让社员种得放心，逐步形成以合作社带动为纽带，实现外联市场，内联千家万户，将来还会集信息、加工、运销、服务于一体，使社员不仅获得生产环节的效益，而且能分享加工、流通环节的利润，从而大大增加社员的收入。”“十九大报告指出，保持土地承包关系稳定并长久不变，第二轮土地承包到期后再延长三十年。这给乡亲们吃上了定心丸，更是给我吃上定心丸。今年种植向日葵效果不错，下一步，我们会扩大规模，争取明年达到1万亩。同时发展多茬种植模式，头一茬种青豆，第二茬种向日葵，实现一年一茬生产向多茬生产、一季增收向二季增收转变，加快农民增收致富步伐。”马春山对记者说，“多茬种植不仅提高土地的利用效率，而且也降低了风险，收益还会更高，可以成为农民增收致富的新亮点。我要想办法继续带领大家提高收入，老百姓多收入点，他们富了，我才能富。今后合作社要逐年增加订单，争取通过几年的努力，使建昌成为向日葵产业基地，带动更多的农民增收致富。”']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>47</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>促进高校毕业生在基层成长成才人社部市场司负责人就高校毕业生基层成长计划相</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2017-12-22</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/zwgk/zwgkzdgz/shgysy/jycy/201712/t20171222_775343.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['促进高校毕业生在基层成长成才——人社部市场司负责人就《高校毕业生基层成长计划》相关问题进行解读-连山区人民政府', '促进高校毕业生在基层成长成才——人社部市场司负责人就《高校毕业生基层成长计划》相关问题进行解读', '日前，人社部、中组部、教育部、财政部、共青团中央联合印发了《高校毕业生基层成长计划》（以下简称《计划》），引导高校毕业生更好在基层就业创业，促进高校毕业生在基层成长成才。近日，人社部市场司负责人就《计划》出台背景、主要内容以及如何推动贯彻落实等进行解读。', '答：高校毕业生是国家宝贵的人才资源，基层是高校毕业生成长成才的重要平台。党的十九大报告提出要鼓励高校毕业生多渠道就业创业，加强青年人才选拔培养，引导人才向基层一线流动。中共中央办公厅、国务院办公厅《关于进一步引导和鼓励高校毕业生到基层工作的意见》和国务院《关于做好当前和今后一段时期就业创业工作的意见》对实施高校毕业生基层成长计划提出了明确要求。按照中央部署和要求，五部门联合制定实施《计划》，将更好地引导高校毕业生在基层就业创业，促进高校毕业生在基层成长成才，建设高素质基层人才队伍，为基层经济社会发展提供人才支持。', '答：高校毕业生基层成长计划主要面向以各种形式在基层服务工作的高校毕业生，力争用10年左右的时间，通过强化教育培训、实践锻炼、职业发展、管理服务等全链条的扶持措施，建设一支结构合理、素质优良、作风过硬的基层青年人才队伍。通过建立分层次、多渠道的基层优秀青年后备人才选拔体系，有计划、有重点地遴选一批具有坚定政治信念、现代管理理念和管理能力的基层管理人才，一批具有钻研精神、专业知识水准和实践经验的基层专业技术人才，一批具有创新精神、市场意识和经营管理能力的基层创新创业人才。', '《计划》针对高校毕业生基层成长的特点和需求，从能力素质培育、岗位锻炼成才、职业发展支持、成长环境营造、服务体系建设和后备人才选拔等方面，提出了六个具体计划，对高校毕业生在基层成长成才提供支持。', '答：针对基层高校毕业生培养需求，《计划》重点从能力素质培育和岗位锻炼两方面帮助毕业生成长成才。', '在能力素质培育方面，《计划》规定，与高校毕业生相关的各类培训项目、培训经费要向基层倾斜。全国每年培训人数不少于1万人，基层高校毕业生参加创业培训、职业技能培训的，按规定给予职业培训补贴。建立基层人才导师结对帮扶制度，推动国家、省市学术技术带头人、高层次人才与基层高校毕业生建立结对培养关系。鼓励行业部门实施基层人才专项培训计划。鼓励有条件的地方选送扎根基层高校毕业生到国外境外考察学习等。', '在岗位锻炼方面，《计划》提出，各地及各用人单位要积极搭建工作平台，将基层高校毕业生放在重要岗位上培养锻炼。建立健全导师培养制度，由单位负责同志或业务带头人进行“一对一”传帮带；建立健全多岗位锻炼制度，有针对性地进行多岗位锻炼，培养一专多能复合型人才；建立健全交流锻炼制度，选派到上级单位或发达地区挂职锻炼、跟班学习等。', '问：基层工作生活环境是大家普遍关心的话题，《计划》为高校毕业生提供怎样的工作生活保障？为引导他们在基层成长成才，《计划》提供怎样的服务支持？', '答：围绕改善基层高校毕业生工作生活条件，《计划》提出，落实新录用到中西部地区、东北地区或艰苦边远地区、国家扶贫开发工作重点县县以下机关事业单位工作的高校毕业生高定级别工资档次或薪级工资相关政策。将基层高校毕业生纳入当地人才政策扶持范围，符合条件的提供住房、医疗、子女就读、落户、职称申报等方面配套支持。同时，各级各类人才表彰奖励项目进一步向基层一线倾斜，将基层高校毕业生纳入表彰奖励对象范围。', '围绕形成关心关爱基层高校毕业生成长的良好氛围，《计划》提出实施基层成长服务体系建设计划。加强党组织对高校毕业生基层成长的领导和引导，对党员加强教育管理和激励关怀，严格组织生活和纪律约束；对非党员的优秀人才加强政治引领和政治吸引，使他们在基层充分感受党的关怀关爱，沿着正确方向健康成长。人社部门会同有关部门建立高校毕业生基层成长联系服务机制，开展座谈、走访慰问等活动，密切与基层高校毕业生联系。教育、卫生、农业、文化等行业部门要关心关爱本行业基层高校毕业生，格外关注长期在基层艰苦岗位上工作的高校毕业生，了解他们思想动态和工作生活情况，帮助解决实际困难。公共就业和人才服务机构要及时提供就业创业服务，落实相关政策扶持。同时，鼓励基层用人单位结合实际，加大对高校毕业生的政策倾斜和照顾。', '答：围绕拓展高校毕业生职业发展空间，《计划》明确了6项具体支持政策，并将通过实施后备人才计划，加大支持力度，助力扎根基层的优秀青年成长成才。', '助推高校毕业生职业发展的具体措施有：一是在干部人才选拔任用中坚持基层导向。二是适当提高基层事业单位中、高级专业技术岗位设置比例。三是对优秀的基层高校毕业生在专业技术职务（职称）评聘、人才项目选拔、出国深造、参加进修学习和学术会议等方面予以优先。四是创新完善基层专业技术人才职称评审制度，对长期在基层一线工作且做出重要贡献的可破格晋升职称等级。五是对参加高校毕业生基层服务项目服务期满后留在基层工作的人员，及时纳入高校毕业生基层成长计划，跟踪培养。六是对工作条件特别艰苦或岗位职责重、压力大的基层高校毕业生，适时组织交流或轮岗。', '与此同时，《计划》提出建立分层次、多渠道的基层后备人才选拔体系。人社部会同有关部门建立国家基层成长计划后备人才库，每年从基层优秀高校毕业生中遴选5000人左右；各地建立本地后备人才库。对基层成长后备人才纳入本地青年干部队伍、人才队伍建设规划予以支持，在干部人才选拔、岗位职务（等级）晋升等方面作为重点人选对象，同时各级财政提供适当的培养经费补助。', '答：《计划》要求，地方各级党委和政府要将实施高校毕业生基层成长计划作为贯彻落实十九大精神的实际行动，作为贯彻落实中办、国办关于进一步引导和鼓励高校毕业生到基层工作意见的具体措施，加强对本地基层成长计划的组织领导。各地人社部门要积极会同组织、教育、财政、共青团等部门和单位研究制定具体实施方案。各地区、各部门要统筹做好经费保障，综合利用相关资金，为基层高校毕业生的培养培训、项目资助、事业发展等提供积极支持。同时，建立高校毕业生基层成长计划督导机制，定期评估基层成长计划实施效果评估。组织多形式多渠道宣传活动，力争将符合条件的优秀高校毕业生均纳入基层成长计划，树立一批基层高校毕业生先进典型，加大舆论宣传引导。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>47</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>绥中县年第一季度重点工作情况</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2017-12-24</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/zdxmhggzypz/zdjsxm_421002/202002/t20200220_887544.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['年初以来，县政府紧紧围绕建设“四个绥中”的总目标，牢牢锁定县委全会报告和政府工作报告确定的各项任务，求真务实，改革创新，真抓实干，推动了全县经济社会健康发展。第一季度，一般公共预算收入2.3亿元，同比下降7.4%；固定资产投资1,631万元，同比增长24.2%；社会消费品零售总额14.9亿元，同比增长9.7%；工业用电量0.45亿千瓦时，同比增长1%。规上工业产值9.8亿元，同比增长5%；规上工业增加值2.8亿元，同比增长3.7%。此外，县政府还加强了对一季度主要经济运行指标的调度，确保地区生产总值、固定资产投资、一般公共预算收入等主要指标能够完成市里下达我县任务。', '。此外，县政府还加强了对一季度主要经济运行指标的调度，确保地区生产总值、固定资产投资、一般公共预算收入等主要指标能够完成市里下达我县任务。', '一是认真完成市县工作任务分解工作。县政府已将市政府印发的23项指标任务，全部融入政府工作报告分解表中。分解表共涉及45项具体工作任务，涉及近20位县领导和全县各乡镇、县直及新区各部门。目前任务分解表制作完毕并已下发至各乡镇，县直和新区各部门及驻绥各单位。任务分解表明确了责任领导、责任部门和完成时限，为高质量完成全年各项工作奠定了坚实基础。二是全力督促各部门、各乡镇加快工作落实。在全县经济工作会议上，县政府对2017年各项工作提出了明确要求，一要举全县之力加快东戴河新区发展，引领全县经济发展；二要扎实做好招商引资和项目建设年工作，增强全县经济发展动力；三要同步抓好城乡经济发展，促进全面繁荣；四要全力化解债务，确保全县经济健康持续发展；五要统筹抓好民生社会事业，将经济发展成果惠及全县人民。在此基础上，县政府又召开了工作任务落实情况调度会，对下一步工作逐项进行调度。县政府要求各相关部门、乡镇及农场要严格按照“定性、定量、定标准、定时限、定责任”的原则，确保各项目标任务落到实处；要根据职能分工，对号入座，主动作为，务实高效推动各项工作落实；要制定具体实施计划，进一步细化目标、分解任务，夯实责任、倒排时间，确保事有专管之人、人有明确之责、责有限定之期，形成一级抓一级、层层抓落实的工作格局；要强化督促检查，严格目标考核，及时跟踪问效，确保各项目标任务落到实处；要强化措施，加强沟通衔接，密切分工协作，做到既各司其职、各负其责，又相互配合形成合力，努力营造上下联动、齐抓共管抓落实的良好氛围，确保高标准、按时限完成全年各项目标任务。此外，各相关部门、乡镇及农场还要树立“成本意识”，要以最小的财政投入，获得最佳的经济和社会效益。三是全面提升新区产业发展能力。1月7日，我县赴北京与国务院发展研究中心相关专家一同召开了东戴河新区产业发展战略研讨课题开题座谈会，与会专家就新区产业发展提出了很好的意见。目前，国务院发展研究中心相关专家正在为新区做产业规划，随着各位专家对新区认识的不断深入，将为新区提出更有针对性、更有操作性的产业发展规划。四是加快惠民实事工程建设步伐。城区环境综合整治工作全面开展，县政府多次召开城区环境卫生综合整治工作会议，并赴江苏宿迁市宿城区、山东威海市环翠区开展了为期4天的考察学习活动，先后现场考察了小区物业管理、新型环卫保洁体系、医院周边市容整治、城管信息指挥中心、环卫数字化管理信息中心、网格化社会服务管理信息平台等11个先进典型，听取了当地环境综合治理工作的经验介绍，其人性化、制度化、企业化、机械化的先进综合整治经验，让我县认识到了发展差距，又受到了启迪，增强了工作信心。目前，县政府正结合自身实际情况，制定完善《绥中县城区环境综合整治工作实施方案》，重点从整治城区环境卫生、市容市貌、交通秩序、运输管理等突出问题出发，实现集中整治和长效管理相结合，通过赴先进地区学习管理经验、加大对不文明行为的持续曝光力度等方式，从根本上治理城区“脏、乱、差”问题，打造市容整洁、环境优雅、生态良好、文明和谐的绥中城市新形象。盛京医院东戴河分院576.5亩土地证、可研批复和地勘已办理完毕；绥中北站客运站项目已被省交通厅纳入全省道路运输“十三五”发展规划；物流园区东侧北外环与新兴街连接工程、日供水5万吨净水厂工程正在积极办理前期审批手续；新区棚户区改造工程审批手续已上报市开发办，正在全力开展核量前期准备工作；果树节水灌溉工程主体工程和水源工程基本完成，目前正在进行配套工程建设；9,000名贫困人口精准脱贫工作全面推进，已制定《2017年脱贫攻坚实施方案》，并对扶贫项目进行了详细安排；高清视频监控系统已初步建成，共联入新平台685个点位，其中在线381个，目前正在进行调试验收。', '位县领导和全县各乡镇、县直及新区各部门。目前任务分解表制作完毕并已下发至各乡镇，县直和新区各部门及驻绥各单位。任务分解表明确了责任领导、责任部门和完成时限，为高质量完成全年各项工作奠定了坚实基础。二是全力督促各部门、各乡镇加快工作落实。在全县经济工作会议上，县政府对', '年各项工作提出了明确要求，一要举全县之力加快东戴河新区发展，引领全县经济发展；二要扎实做好招商引资和项目建设年工作，增强全县经济发展动力；三要同步抓好城乡经济发展，促进全面繁荣；四要全力化解债务，确保全县经济健康持续发展；五要统筹抓好民生社会事业，将经济发展成果惠及全县人民。在此基础上，县政府又召开了工作任务落实情况调度会，对下一步工作逐项进行调度。县政府要求各相关部门、乡镇及农场要严格按照', '的原则，确保各项目标任务落到实处；要根据职能分工，对号入座，主动作为，务实高效推动各项工作落实；要制定具体实施计划，进一步细化目标、分解任务，夯实责任、倒排时间，确保事有专管之人、人有明确之责、责有限定之期，形成一级抓一级、层层抓落实的工作格局；要强化督促检查，严格目标考核，及时跟踪问效，确保各项目标任务落到实处；要强化措施，加强沟通衔接，密切分工协作，做到既各司其职、各负其责，又相互配合形成合力，努力营造上下联动、齐抓共管抓落实的良好氛围，确保高标准、按时限完成全年各项目标任务。此外，各相关部门、乡镇及农场还要树立“成本意识”，要以最小的财政投入，获得最佳的经济和社会效益。三是全面提升新区产业发展能力。', '日，我县赴北京与国务院发展研究中心相关专家一同召开了东戴河新区产业发展战略研讨课题开题座谈会，与会专家就新区产业发展提出了很好的意见。目前，国务院发展研究中心相关专家正在为新区做产业规划，随着各位专家对新区认识的不断深入，将为新区提出更有针对性、更有操作性的产业发展规划。四是加快惠民实事工程建设步伐。', '天的考察学习活动，先后现场考察了小区物业管理、新型环卫保洁体系、医院周边市容整治、城管信息指挥中心、环卫数字化管理信息中心、网格化社会服务管理信息平台等', '个先进典型，听取了当地环境综合治理工作的经验介绍，其人性化、制度化、企业化、机械化的先进综合整治经验，让我县', '认识到了发展差距，又受到了启迪，增强了工作信心。目前，县政府正结合自身实际情况，制定完善《绥中县城区环境综合整治工作实施方案》，重点从整治城区环境卫生、市容市貌、交通秩序、运输管理等突出问题出发，实现集中整治和长效管理相结合，通过赴先进地区学习管理经验、加大对不文明行为的持续曝光力度等方式，', '1.组织保障进一步夯实。一是完善组织机构。按照县委的统一部署，全力支持绥中港开发建设工作，全面建立了对接联动机制，从土地、税费减免、争取上级政策等方面对绥中港发展给予支持。二是明确问题清单、任务清单和落实清单。在充分征求绥中港务集团意见基础上，县政府对制约绥中港发展问题进行了认真梳理，制定了《绥中港集团需要绥中县协调解决的问题及资金预算情况一览表》，围绕土地、口岸扩大开放、税费政策等11类、34项具体问题，建立问题清单、任务清单和落实清单，逐个问题明确责任领导和责任部门，列出推进措施和资金预算情况，积极帮助绥中港解决问题。目前，绥中港一号门北侧铁路物流园区与滨海公路十字路口交通信号灯设置工作基本完成，其余工作正在扎实开展。县政府、东戴河新区督查室定期不定期进行督促检查，确保相关工作有效落实。', '按照县委的统一部署，全力支持绥中港开发建设工作，全面建立了对接联动机制，从土地、税费减免、争取上级政策等方面对绥中港发展给予支持。二是明确问题清单、任务清单和落实清单。在充分征求绥中港务集团意见基础上，县政府对制约绥中港发展问题进行了认真梳理，制定了《绥中港集团需要绥中县协调解决的问题及资金预算情况一览表》，围绕土地、口岸扩大开放、税费政策等', '项具体问题，建立问题清单、任务清单和落实清单，逐个问题明确责任领导和责任部门，列出推进措施和资金预算情况，积极帮助绥中港解决问题。目前，绥中港一号门北侧铁路物流园区与滨海公路十字路口交通信号灯设置工作基本完成，其余工作正在扎实开展。县政府、东戴河新区督查室定期不定期进行督促检查，确保相关工作有效落实。', '2.基础设施建设稳步推进。正推进104#、105#2个10万吨级通用泊位、港内2号路工程及5万平方米港内堆场、7#、8#通用库、港内2#地磅房等工程前期工作，力争早日开工建设。口岸开放顺利推进。口岸查验设施主体工程已完成，为海关、海事、检验检疫等部门提供了临时开放办公用房，配齐了各类办公设施；海事、检验检疫、边防查验设施和海关监管设施基本建成。', '地磅房等工程前期工作，力争早日开工建设。口岸开放顺利推进。口岸查验设施主体工程已完成，为海关、海事、检验检疫等部门提供了临时开放办公用房，配齐了各类办公设施；海事、检验检疫、边防查验设施和海关监管设施基本建成。', '3.临港经济加速推进。成功与北京恩希培养基技术有限公司就东戴河绿色食品加工产业园区项目完成签约，并与绥中港就该项目相关问题达成共识。该园区共规划8个项目，计划投资80亿元，年产值300亿元。目前，10万吨高级油脂加工项目正积极推进可研报告编制工作，力争7月开工建设；150万吨大豆处理项目，力争11月完成立项并开工建设；年产30万吨燃料乙醇项目可研报告已编制完成，正积极推进土地预审等前期工作。', '成功与北京恩希培养基技术有限公司就东戴河绿色食品加工产业园区项目完成签约，并与绥中港就该项目相关问题达成共识。该园区共规划', '县政府全力开展“项目建设年”活动，持续树立“抓项目就是抓经济发展，抓项目就是抓民生改善，抓项目就是抓社会稳定”的理念。出台了2017年“项目建设年”活动实施方案，进一步明确了工作任务和工作目标，确定了考评及奖励办法。此外，县政府常务会议研究通过了《绥中县重点项目领导帮扶实施方案》，并报县委常委会研究审议，该方案强化了我县重点项目帮扶协调机制，将全力保障我县“项目建设年”活动扎实开展。', '活动实施方案，进一步明确了工作任务和工作目标，确定了考评及奖励办法。此外，县政府常务会议研究通过了《绥中县重点项目领导帮扶实施方案》，并报县委常委会研究审议，该方案强化了我县重点项目帮扶协调机制，将全力保障我县“项目建设年”活动扎实开展。', '2017年，我县安排开复工项目40个，计划总投资181.34亿元。按项目性质划分：新开工项目20个，计划投资50.18亿元；复工项目20个，计划投资131.16亿元。目前，县政府正狠抓项目调度，积极推进项目开复工。预计到3月末，全县开复工项目15个，其中，续建项目12个，新开工项目3个。预计到6月末，开复工项目累计28个，其中，续建项目20个全部复工，新开工项目8个。其余12个新开工项目8月底前可全面开工建设。其中：猴山水库正在积极推进复工前期准备工作，计划3月15日前全面复工，年内完成工程建设，并具备落闸蓄水条件；移民工作正在全面开展，预计6月底前完成全部移民工作。3月2日，赵化明省长来绥调研猴山水库建设，并对我县相关工作给予高度评价。教育园区一初中移址新建工程正在开展工程复工前期准备工作，计划3月份复工建设，9月份工程竣工并投入使用。宽邦500KV输变电建设工程站址部分地上物补偿已发放完毕。电厂配套煤炭专用码头项目前期工作已完成，即将开工建设。', '年初以来，我县坚持招商“三种常态”和“四个办法”，充分发挥绥中电厂和绥中港对经济发展的带动作用，聚焦高能耗无污染、来料加工、来件装配等税收贡献大的工业项目精准招商，力争将电、热、航运优势打造成绥中工业经济发展的核心竞争力。县政府不断加大招商引资工作力度，开展了8次“走出去、请进来”活动，取得了积极成果。', '，充分发挥绥中电厂和绥中港对经济发展的带动作用，聚焦高能耗无污染、来料加工、来件装配等税收贡献大的工业项目精准招商，力争将电、热、航运优势打造成绥中工业经济发展的核心竞争力。县政府不断加大招商引资工作力度，开展了', '其中：1月5日，县政府与中国神华能源股份有限公司就直供电事宜进行洽谈，取得了积极进展；1月6日，赴北京成功与中国农机院10万吨高级油脂加工项目完成签约，与中促旅规划院就我县旅游规划问题进行深入洽谈；2月24日，随市政府主要领导赴北京召开了“融入京津冀协同发展项目推进及签约座谈会”，推进赛伯乐众创产业园、青牛软件产业园等6个项目，北大未名环保装备（垃圾机组）生产、东戴河绿色食品加工产业园区2个项目成功签约。此外，县政府还与辽宁国华农业科技有限公司、北京神雾集团等多家企业就来绥投资进行了深入洽谈。', '在全力开展招商活动的同时，县政府还坚持招商与引资并行，积极谋划成立东戴河开发总公司，发行东戴河发展母基金，并在此基础上，陆续发行东戴河去库存基金、农业发展基金、文创产业基金、循环产业基金、新材料基金及旅游健康基金，打造东戴河产业基金群，为优质项目解决资金问题，实现以金融吸聚产业的目标。', '为进一步加强政府性债务管理、防范化解政府债务风险，县政府全面推进组建企业集团工作，计划组建绥中县水务集团有限公司、绥中县交通运输集团有限公司、绥中县城市建设集团有限公司三个企业集团，并通过注入优良资产做实做大绥中县长城投资有限公司。目前，县政府第31次常务会议已讨论通过了《绥中县人民政府关于组建企业集团实施方案》《绥中县国有资产清查工作实施方案》，按照重大事项报告制度，待报人大常委会通过后，再报县委研究。', '为进一步加强政府性债务管理、防范化解政府债务风险，县政府全面推进组建企业集团工作，计划组建绥中县水务集团有限公司、绥中县交通运输集团有限公司、绥中县城市建设集团有限公司三个企业集团，并通过注入优良资产做实做大绥中县长城投资有限公司。目前，县政府第', '次常务会议已讨论通过了《绥中县人民政府关于组建企业集团实施方案》《绥中县国有资产清查工作实施方案》，按照重大事项报告制度，待报人大常委会通过后，再报县委研究。', '我县成功完成了省市“两会”、春节假日等特殊敏感时期森林防火、安全生产、信访维稳相关工作，正进一步将各项工作做实做细，确保全国“两会”期间全县经济社会总体形势大局稳定。', '一是全面贯彻落实全市森林防火工作电视电话会议精神，召开了全县春季森林防火工作会议，明确了抓好预防，从源头上消除隐患和科学组织扑救；坚决避免人员伤亡，最大限度减少损失“两个重点环节”，特别是要抓好“重点人群、重点区域和重点时段”的防控工作。二是进一步完善了森林防火工作机制，修订了森林火灾应急预案，制定了全年《森林防火宣传教育工作方案》和《森林防火工作方案》，调整了县森防指成员，进一步明确细化了职责分工。三是严格落实了护林防火责任。各乡镇、各农（林）场成立了森林防火工作领导小组，并实行承包责任制，乡镇、农（林）场领导包村（组），机关干部包片，村干部、护林员、扑火队员包地头、山头、坟头。四是强化了野外火源管理。集中力量开展了两轮核查检查和清理工作，共统计5,942个林地和林缘500米以内的墓地，统计并清理4,655块林缘及山体边缘200—500米内秸秆地块，并将统计结果上报至市森防指办。五是全面加大了宣传力度。共更新宣传牌200余块；春节及元宵节期间发动全体护林员挨家挨户进行安全用火宣传教育；利用278个气象大喇叭、25个气象信息显示屏24小时滚动播放森林防火安全知识。六是严格执行了24小时领导带班和双人双岗值班制度，做到了“灭火机不离身、通讯器材不离手、工作人员不离岗”。七是强化了督查检查，对有防火任务的所有乡镇开展了两轮森林防火检查，切实排查整治了火灾隐患，做到发现问题，及时整改。', '全面贯彻落实全市森林防火工作电视电话会议精神，召开了全县春季森林防火工作会议，明确了抓好预防，从源头上消除隐患和科学组织扑救；坚决避免人员伤亡，最大限度减少损失', '的防控工作。二是进一步完善了森林防火工作机制，修订了森林火灾应急预案，制定了全年《森林防火宣传教育工作方案》和《森林防火工作方案》，调整了县森防指成员，进一步明确细化了职责分工。三是严格落实了', '各乡镇、各农（林）场成立了森林防火工作领导小组，并实行承包责任制，乡镇、农（林）场领导包村（组），机关干部包片，村干部、护林员、扑火队员包地头、山头、坟头。四是强化了野外火源管理。', '。七是强化了督查检查，对有防火任务的所有乡镇开展了两轮森林防火检查，切实排查整治了火灾隐患，做到发现问题，及时整改。', '一是多次召开全县安全生产工作会议，第一时间贯彻落实省、市关于安全生产工作相关要求，按照“党政同责、一岗双责、失职追责、各负其责”要求，落实了企业主体责任、部门监管责任和领导责任。二是按照“全覆盖、零容忍、重实效、严执法”要求，坚持“四必查”原则，全面建立了安全生产“四个清单”，在全县范围内开展了安全生产大检查“回头看”活动，切实加强了对道路交通、非煤矿山、易燃易爆企业监管监察力度；对2015年“大调研”时未完成治理的3项重大隐患和2项一般隐患逐条逐项进行整改；制定了切实可行的事故应急救援预案，进一步配齐配好应急救援设备、器材，积极开展应急救援预案的实战演练，确保各项安全保障措施落实到位。三是不断强化对烟花爆竹的监管，召开了全县烟花爆竹监管工作会议，下发了《关于加强2017年春节期间烟花爆竹安全监管工作的通知》，对春节期间烟花爆竹监管工作进行了全面部署，审批发放烟花爆竹经营零售许可证236户，成立2个专项执法检查小组持续开展巡查活动，实现了春节期间烟花爆竹安全事故为零。四是假期校园安全工作有效开展，对学生进行了假前消防、交通、食品卫生、燃放烟花爆竹等方面的安全常识教育，并通过发放“致家长的一封信”等形式，提高了家长的安全意识和监护人责任意识。五是为贯彻市消防安全委员会《关于督促整改火灾隐患的函》（葫消安委〔2016〕12号）文件要求，县政府全力整改涉及我县的8家单位共30处火灾隐患。截至目前，已整改火灾隐患13处，预计4月底整改火灾隐患5处，其余12处火灾隐患预计6月底前整改完毕。', '多次召开全县安全生产工作会议，第一时间贯彻落实省、市关于安全生产工作相关要求，按照', '项一般隐患逐条逐项进行整改；制定了切实可行的事故应急救援预案，进一步配齐配好应急救援设备、器材，积极开展应急救援预案的实战演练，确保各项安全保障措施落实到位。三是不断强化对烟花爆竹的监管，召开了全县烟花爆竹监管工作会议，下发了《关于加强', '年春节期间烟花爆竹安全监管工作的通知》，对春节期间烟花爆竹监管工作进行了全面部署，审批发放烟花爆竹经营零售许可证', '个专项执法检查小组持续开展巡查活动，实现了春节期间烟花爆竹安全事故为零。四是假期校园安全工作有效开展，对学生进行了假前消防、交通、食品卫生、燃放烟花爆竹等方面的安全常识教育，并通过发放', '等形式，提高了家长的安全意识和监护人责任意识。五是为贯彻市消防安全委员会《关于督促整改火灾隐患的函》（葫消安委', '一是深入贯彻落实省、市维护社会稳定工作电话电视会议精神，坚决执行“五个坚决防止”工作方针和县委“四个到位”工作要求，先后印发了《绥中县2016年信访工作情况通报》《绥中县信访工作责任追究制度》《绥中县信访维稳考核评价体系》和《绥中县信访事项督查督办工作方法（试行）》，建立健全了我县信访框架体系。二是坚持信访矛盾纠纷排查、积案化解、领导包保责任落实、信息系统建设“四个狠抓”，截至目前，已排查出各类矛盾纠纷238案786人，对排查出的问题做到了早发现、早处理，牢牢把握了信访工作主动权；全面落实了“四位一体”包保制度，切实把重点人、重点群体稳控在当地、吸附在当地；对长期缠访、闹访、恶意登记人员及进京非访人员，及时采取有效处置手段，落实了“轻刑快办”机制。', '年信访工作情况通报》《绥中县信访工作责任追究制度》《绥中县信访维稳考核评价体系》和《绥中县信访事项督查督办工作方法（试行）》，建立健全了我县信访框架体系。二是坚持信访矛盾纠纷排查、积案化解、领导包保责任落实、信息系统建设', '包保制度，切实把重点人、重点群体稳控在当地、吸附在当地；对长期缠访、闹访、恶意登记人员及进京非访人员，及时采取有效处置手段，落实了', '为全力做好迎接国家环保部东北环保督查中心对全省环境保护工作检查各项准备，县政府进一步强化红线意识、筑牢底线思维，切实改善全县环境质量，召开了专题会议，对我县存在的各类环保待整改问题逐项进行了研究部署，制定了《关于我县目前亟待解决的重大环境问题清单》，明确了整改内容、解决措施、责任部门、配合部门和完成时限，重点要求各乡镇、各相关部门要把整改工作作为当前首要工作，做到一把手亲自抓、负总责，并将责任层层分解落实，细化到科室，细化到岗位、细化到个人，各司其职、各负其责，切实做到责任到位、措施到位、组织到位、管理到位，确保将整改工作落到实处。目前，各乡镇、各相关部门按照工作分工，正在全力抓好落实，确保整改工作取得实效。', '为全力做好迎接国家环保部东北环保督查中心对全省环境保护工作检查各项准备，县政府进一步强化红线意识、筑牢底线思维，切实改善全县环境质量，召开了专题会议，对我县存在的各类环保待整改问题逐项进行了研究部署，制定了《关于我县目前亟待解决的重大环境问题清单》，明确了整改内容、解决措施、责任部门、配合部门和完成时限，重点要求', '各乡镇、各相关部门要把整改工作作为当前首要工作，做到一把手亲自抓、负总责，并将责任层层分解落实，细化到科室，细化到岗位、细化到个人，各司其职、各负其责，切实做到责任到位、措施到位、组织到位、管理到位，确保将整改工作落到实处。', '城区环境综合整治工作不断加强，在巩固前期工作成果的基础上，持续加大了工作力度和监管强度，实现了春节期间城区环境整洁有序；交通环境整治工作不断进步，全面投入警力向一线倾斜，设置临时执勤点3个，启动警务工作站2个，安排80名警力24小时执勤，在102国道六股河桥头设置分流点，每日早7时至晚7时安排专门警力执勤，确保群众出行畅通，截至目前，检查危化品运输车辆175台，查获涉牌涉证违法行为8起，酒驾3起，超速80起，违停210起。此外，2月28日—3月3日，县政府考察团一行赴江苏宿迁、山东威海考察环境综合整治先进经验，并结合自身实际，完善、出台我县实施方案，确保城市环境综合整治取得明显成效。供暖工作顺利开展，县政府把供暖工作作为最重要的民生工作来抓，不断加强监管和督查力度，对便民热线中群众反映的供暖问题，责成政府督查室、供暖办等相关部门持续进行督查督办，确保有效解决，供暖工作获得百姓好评。城市亮化工作稳步推进，积极开展县城亮化工作，在中央路、102线、人民公园等主要街路、公园安装了亮化设施，营造了喜庆祥和的节日氛围。', '在巩固前期工作成果的基础上，持续加大了工作力度和监管强度，实现了春节期间城区环境整洁有序；交通环境整治工作不断进步，全面投入警力向一线倾斜，设置临时执勤点', '日，县政府考察团一行赴江苏宿迁、山东威海考察环境综合整治先进经验，并结合自身实际，完善、出台我县实施方案，确保城市环境综合整治取得明显成效。供暖工作顺利开展，县政府把供暖工作作为最重要的民生工作来抓，不断加强监管和督查力度，对便民热线中群众反映的供暖问题，责成政府督查室、供暖办等相关部门持续进行督查督办，确保有效解决，供暖工作获得百姓好评。城市亮化工作稳步推进，积极开展县城亮化工作，在中央路、', '两个“国家级”晋升工作进展顺利。经全力争取，我县五花顶省级自然保护区晋升国家级自然保护区及长城国家级森林公园申报工作均顺利通过国家级专家评审，国家林业局已对长城国家级森林公园下达正式批复决定。目前，保护区及公园建设正在全面完善机构编制，增派专业力量，高质量编制整体规划，并研究通过PPP模式，发展、建设和利用好公园资源。通过两个“国家级”建设，我县生态环境将得到进一步改善，全县林业经济、旅游产业发展质量将得到有效提升。春耕备耕工作全面展开，一是积极组织农资下摆到户，今年全县种子需求量720万公斤，已下摆371万公斤；全县春耕需要化肥8.7万吨，已下摆2.63万吨；农膜需求量3,000吨，已下摆2,000吨。目前，我县春耕生产所需种子、化肥、农药、农膜等农业生产资料货源充足，价格基本与去年持平，市场供应保障有力。二是加大农资市场监管力度，召开专题会议进行安排部署，出台了《农业投入品安全生产工作实施方案》，集中开展了农资打假专项检查、棚菜烟剂专项整治等多项行动，共出动执法人员160人次，执法车辆32车次，检查农资经营业户52户，其中立案查处30户。三是加强宣传工作，张贴国家禁限用农药品种目录等宣传海报500余张，发放农药识假辨劣等维权手册400余册，提高了农民防范、维权意识，避免上当受骗。农业结构调整稳步开展，我县设施农业发展受到省政府赵化明省长高度评价。正以国家级现代农业示范区建设为重点，进一步扩大“塔山蔬芳园、富见、山海一蓝”等优质品牌影响力，打造我县农业名片；已完成调减玉米种植面积12万亩；积极帮助许家兴达蔬菜合作社申报省2017年数字农业建设试点项目；西甸子镇田野餐桌现代农业先导示范区基地建设正在全面推进；土地流转工作积极开展，预计全年流转土地21万亩。农业科技培训全面推进，进一步完善了新型职业农民培育实施方案、新型农民培育认定管理办法，充分利用农闲时节，组织农民开展农业科技新品种、新技术培训活动，举办了设施蔬菜、果树栽培等培训班，培训人员达2,600余人。电商进农村进展顺利。成功成为东北大学秦皇岛分校电商创业实训基地；已完成全县85家电商服务站铺设工作；出台了村级网点筛选标准及电商进农村工作培训计划，培训人员1,500人次。温暖过冬工作扎实开展，采取走访慰问、发放春节物资等方式，妥善安排“五保户”、“低保户”生活，确保了困难群众温暖过冬、祥和过年。', '经全力争取，我县五花顶省级自然保护区晋升国家级自然保护区及长城国家级森林公园申报工作均顺利通过国家级专家评审，国家林业局已对长城国家级森林公园下达正式批复决定。目前，保护区及公园建设正在全面完善机构编制，增派专业力量，高质量编制整体规划，并研究通过', '建设，我县生态环境将得到进一步改善，全县林业经济、旅游产业发展质量将得到有效提升。春耕备耕工作全面展开，一是积极组织农资下摆到户，今年全县种子需求量', '吨。目前，我县春耕生产所需种子、化肥、农药、农膜等农业生产资料货源充足，价格基本与去年持平，市场供应保障有力。二是加大农资市场监管力度，', '提高了农民防范、维权意识，避免上当受骗。农业结构调整稳步开展，我县设施农业发展受到省政府赵化明省长高度评价。正以国家级现代农业示范区建设为重点，进一步扩大', '年数字农业建设试点项目；西甸子镇田野餐桌现代农业先导示范区基地建设正在全面推进；土地流转工作积极开展，预计全年流转土地', '万亩。农业科技培训全面推进，进一步完善了新型职业农民培育实施方案、新型农民培育认定管理办法，充分利用农闲时节，组织农民开展农业科技新品种、新技术培训活动，举办了设施蔬菜、果树栽培等培训班，培训人员达', '下一阶段，县政府将狠抓县委全会报告、政府工作报告各项工作落实，特别是要全力做好以下5项重点工作：', '下一阶段，县政府将狠抓县委全会报告、政府工作报告各项工作落实，特别是要全力做好以下', '一是全面推进经济工作再上新台阶，以全力支持绥中港建设为抓手，加快我县对外开放步伐；以深入开展“项目建设年”活动为契机，狠抓招商引资，不断改善经济发展软环境，全面推进重点项目建设；以狠抓增收节支为基础，不断提高经济运行质量。二是重点做好安全生产、信访排查化解和森林防火工作，确保全国“两会”等特殊时期，全县经济社会大局持续稳定。三是做好城区环境综合整治工作，营造整洁、顺畅的城市环境。四是加快推进各项惠民实事工程建设，坚决兑现对全县人民的承诺。五是扎实有序开展好春耕备耕工作，确保农业、农村工作实现良好开局。', '全面推进经济工作再上新台阶，以全力支持绥中港建设为抓手，加快我县对外开放步伐；以深入开展', '活动为契机，狠抓招商引资，不断改善经济发展软环境，全面推进重点项目建设；以狠抓增收节支为基础，不断提高经济运行质量。二是重点做好安全生产、信访排查化解和森林防火工作，确保全国', '等特殊时期，全县经济社会大局持续稳定。三是做好城区环境综合整治工作，营造整洁、顺畅的城市环境。四是加快推进各项惠民实事工程建设，坚决兑现对全县人民的承诺。五是扎实有序开展好春耕备耕工作，确保农业、农村工作实现良好开局。', '在县委的坚强领导下，在县人大、县政协的监督支持下，县政府将全力完成2017年的各项工作任务，为早日建成“实力绥中、活力绥中、智力绥中、魅力绥中”，全面建成小康社会而务实工作！']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>47</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>郑宏伟政协葫芦岛市第四届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2017-12-26</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/wzfz_22804/szfxx_421002/gzbg/202002/t20200219_885298.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['四届二次会议以来，市政协常委会在中共葫芦岛市委的正确领导和市政府的大力支持下，以贯彻落实市委政协工作会议精神为主线，动员组织参加政协的各党派团体、各族各界人士和广大政协委员，紧紧围绕全市中心工作，认真履行政治协商、民主监督、参政议政职能，充分发挥协调关系、汇聚力量、建言献策、服务大局的作用，圆满完成了全年各项任务，为建设沿海经济强市、构建和谐葫芦岛作出了积极贡献。', '把贯彻落实市委政协工作会议精神，作为一项重要的政治任务来抓。按照市委的要求和部署，组织会同相关部门分赴6个县(市）区和12个市直部门进行了调研检查，并以市政协党组名义向市委作出报告。目前，全市政协工作呈现出“党委重视、政府支持、政协主动、各方配合、社会关注”的良好态势。', '政治协商质量进一步提升。全市各级党政组织按照《中共葫芦岛市委关于把政治协商纳入决策程序的规定》要求，坚持“三在前、三在先”原则，把政治协商纳入了民主决策程序。市政协紧紧围绕我市的重大战略、重要部署和群众高度关注的热点难点问题，议大事、聚焦点，精选协商课题；主动邀请市党政主要领导参加常委会议、并通报有关情况，进一步拓展了市委、市政府、市政协领导层面协商的新机制，提升了协商层次；在充分运用“学、听、看、议”协商方式的同时，变单向建言为互动协商，变关门协商为开门协商，使协商活动更有成效，形成了“全委会议整体协商、常委会议专题协商、主席会议重点协商、专委会对口协商”的多层次、宽领域的协商格局。全年共开展各种层次的协商议政活动26次，提交专项建议报告8份。', '民主监督力度进一步加大。全市各级政府部门主动要求监督、自觉接受监督的意识明显增强。市政协把加大民主监督力度作为2011年的重点工作。一年来，通过召开民主监督小组组长培训会、座谈会和派驻单位负责人座谈会等形式，提升了民主监督的组织化程度；坚持“寓监督于支持与服务之中”的工作理念，把事前监督和跟踪监督、日常监督和重点监督、委员监督和社会监督结合起来，丰富了民主监督形式；紧紧围绕事关经济发展、人民群众普遍关注的民生问题，根据派驻单位的性质、特点，选择不同的监督主题、重点和载体，提高了民主监督的实效性。44个民主监督小组全年共开展监督活动100余次，提出监督意见建议300多条。', '参政议政渠道进一步拓宽。通过邀请市党政主要领导通报工作，召开政情通报会等形式，拓宽了知情明政的渠道；通过组织委员参加市政府工作报告及其他报告的讨论、重大工程项目的论证、重要民生政策的征求意见会等形式，拓宽了参与讨论重大事项的渠道；市政府分管领导和有关部门在办理提案、建议案和制定政策、措施的过程中，都邀请市政协领导、提案人、专家委员等一起研究，并将意见建议转化为政策措施和具体行动，拓宽了直接参与决策、参与抓落实的渠道。', '紧扣全市工作大局，发挥人才智力优势，为推动我市科学发展集聚真知灼见，贡献智慧与力量。', '为加快服务业发展进行调研协商。针对我市服务业发展相对滞后的现状，组织各民主党派、工商联，县(市)区政协和100多名委员，重点针对金融、商贸、旅游、物流、信息、会展等产业的发展情况，考察学习外地先进经验，深入各县（市）区、主题概念园区、市直有关部门和部分企业，摸情况，找问题，想对策，形成了《大力发展金融业，加快辽西区域性金融中心建设步伐》等21篇专题调研报告和1份综合调研报告。经四届七次常委会议协商讨论后，向市委、市政府提交了《关于推进我市服务业加快发展的建议案》，其主要建议被全市加快服务业发展大会的工作报告所采纳，并纳入我市服务业发展规划。培育龙头企业、打造产业集群、建设优势产业等诸多建议转化为市政府的具体政策、措施。关于服务业集聚区认定、发展会展业等方面的意见建议得到了有效落实。', '为推动我市沿海经济带发展建言献策。积极参加辽宁沿海经济带政协论坛活动，学习考察山东沿海四市的发展经验，深入到我市沿海县(市)区、市直相关部门进行调研，提出了优化开发理念、科学合理规划、提升保护并重等建议，形成了《关于要给百姓留下近海亲水的共享海岸线的建议》，上报省、市党政有关部门。陈政高省长、邴志刚副省长和我市党政主要领导对此建议非常重视，均做出了重要批示，有力地促进了我市海岸线开发利用理念的调整和更新，推动了近海亲水岸线百姓共享工程的规划和建设，也为辽宁沿海经济带政协论坛的调研成果作出了重要贡献。', '为建设生态宜居城市献智出力。组织委员对我市泳装企业开展调研视察，《创办泳装节，宣传和发展葫芦岛》、《关于兴城市泳装产业发展的建议》等提案得到落实；连续3年跟踪视察永安长城景区的保护与开发工作，助力景区8项工程顺利推进，景区有望今年对外开放；关注我市设施农业发展情况，深入乡村实地视察，提出意见建议；关注城建难点，就锦葫路改造、茨山河治理等工程进行多次跟踪视察，针对存在的问题及时提出解决措施和办法；开展联合考察、视察活动，就推进温泉水开发利用、加大招商引资力度、加快葫芦岛港建设等提出站位高、操作性强的建议；扎实开展“关注森林”活动，围绕提升城区美化亮化品位、治理交通拥堵、推广节水灌溉技术等提出50余条建议。', '为优化软环境建设开展民主评议。为进一步促进我市软环境的优化和改善，从2011年开始，市政协会同市纪检监察部门、市直机关工委，组织166名市政协民主监督员，利用3年时间，对全市49个部门的软环境建设情况，进行专题民主评议。2011年各评议组通过问卷调查、座谈、明查暗访、网评、调阅卷宗等形式，对18个被评议部门的软环境建设情况进行了全面调研。一年来，共向社会发放调查问卷3800份，组织召开各类座谈会78次，走访、暗访、约谈达1800余人次，深入到被评议单位调研41次，形成评议报告18篇，查找问题113个，提出整改意见建议80余条，对促进我市软环境建设起到了积极作用。这项工作得到了省政协的充分肯定，认为是创新民主监督形式、增强民主监督实效、推进社会管理与创新的新突破。我市政协在省政协社会法制会议上专门作了经验介绍。', '以调研成果破解民生难题。2011年是我市推进医改的攻坚年，一些长期存在的体制性、机制性和结构性矛盾凸显出来。市政协把深化医药卫生体制改革，破解医改难题，作为四届六次常委会的专题调研课题。在学习考察、调查研究、科学论证、常委会专题协商的基础上，形成了7篇专题调研报告和1份综合建议案，提出了“提高基本医疗卫生服务保障水平、加快推进基本药物制度综合改革、不断促进公共卫生服务均等化”等建议。市委、市政府对此调研成果给予了高度评价，认为市政协勇于挑战难题，医改课题选得准、问题找得准、意见提得准，对全市的医改工作具有很强的指导性和借鉴性。市政协还组织委员就我市大中专毕业生就业、社区管理、新农村建设等方面出现的新问题开展专题调研。全年向党政部门报送调研报告36篇，以市委文件形式转发7件，为市委、市政府科学决策提供建议和参考。', '以专项视察聚焦民生热点。针对群众反映强烈的出租车、三轮车运营不规范等问题，组织委员专题视察，提出优先发展城市公交等建议，助推市政府开展交通整治“三大战役”并取得阶段性成果；关注供暖质量问题，连续多年进行民主评议、跟踪评议，通过入户查看、问卷调查等形式，收集意见，提出建议，为市供暖部门提高服务质量提供参考；就食品安全问题，参与市有关部门组织开展的食品安全监管工作专项整治活动；组织委员深入到各县（市）区对人口和计划生育服务工作进行实地视察，提出抓紧落实计划生育服务中心建设项目，逐步建立和完善计划生育网络化服务体系等建议，促进了相关工作的加强和改进；对市公安局开展的“清网行动”、禁毒工作进行视察，提出了建立长效机制等建议。', '以提案落实推动民生改善。把提案落实作为推动民生改善的重要抓手。全年共征集提案576件，立案491件，办复率为100%，其中民生方面的提案占57%。狠抓征集环节，从源头上保证提案质量。狠抓办理环节，对市公安局、市教育局的提案办理情况进行了“后评议”。通过办前高层运作、联合调研等形式，使委员提出的增开公交线路、保障低收入者家庭生活水平、加强养老机构建设等提案得到了落实。特别是对《加大保障性住房建设力度，确保困难群体住有所居》、《大力推进城区供水管网改扩建工程》两个“一号提案”进行了跟踪督办。先后4次组织委员到保障房建设工地进行实地视察，提出意见建议10余条，为全市保障性住房建设工作超额完成省定指标发挥了作用；先后8次组织委员和市民代表到供水管网改造现场视察，提出督办意见建议50余条。市政府经过努力，改造工程提前1年完成，6万户、18万人的“吃水难”问题得以解决。', '以信息渠道反映民生诉求。切实发挥政协社情民意信息“直通车”的作用。2011年信息工作实现了委员参与最多，收集数量最多，采用篇数最多的新突破。全年共征集信息1231条，编发《葫芦岛政协信息》141期。其中《以立法手段推动住房保障规范运行》等9条被全国政协采用，《关于棚户区改造相关问题的建议》等14条被省委、省政府采用，《亟盼提高辽宁整体工资水平》等8条被省政协采用，《“村村通”公路损毁严重，农民盼望及时养护》等5条被省领导批示,《春耕农民有“六盼”》等52条被市委、市政府采用。这些民意信息已进入党政决策视野，所提意见建议得到了重视和采纳。市政协荣获省政协系统信息工作一等奖，在全国政协第二批信息联系点第六次会议上作了经验介绍。', '紧紧把握团结和民主两大主题，最大限度地调动各方面的积极性，倾力协调各方关系，努力为建设沿海经济强市凝聚智慧和力量。', '在加强团结合作中集聚能量。以建设和谐葫芦岛为目标，积极为各民主党派、工商联、无党派人士和人民团体履行职责创造条件，搭建平台。在市政协全会、常委会议、主席会议及其他活动中，尊重和优先保障各党派以本党派名义发表意见建议。积极组织各民主党派、工商联、无党派人士和人民团体参加有关调研、视察、民主监督、民主评议等活动。一年来，各党派、工商联，人民团体提交提案90件，反映社情民意390条；委员活动小组发挥界别优势，提出提案17件，反映社情民意信息150条。市民建、市致公党联合提出的《加大保障性住房建设力度，确保困难群体住有所居》被市政协列为2011年的“一号提案”；九三学社报送的《关于进一步提高个税起征点的建议》等信息被全国政协采用。', '在扩大联谊交流中增进共识。大力加强对外交往和联谊工作。热情周到地做好外地人员来葫参观、考察、调研的接待服务，为宣传葫芦岛、展示葫芦岛、推介葫芦岛发挥了积极作用。协助恢复侨联组织，为归侨侨眷参政议政搭建平台。深入侨资、台资企业视察，帮助企业解决实际困难。加强与新社会阶层、民族宗教等社会各界人士的联系，通过走访慰问、座谈联欢等形式，努力把市第四次党代会精神传达到各个层面，把各族各界人士的思想和行动进一步统一到市委、市政府的重大决策部署和要求上来。', '在彰显文史特色中扩大影响。加大实地采访力度，撰写文史稿件79篇。举行纪念辛亥革命100周年座谈会，就辛亥宁远州起义历史遗迹保护等提出建议。开展纪念“九一八”事变80周年活动，组织委员视察南票区下五家子惨案纪念陵园，赴绥中县大台山义勇军纪念馆和矾石村义勇军指挥部旧址调研，就抗日遗址遗迹保护提出意见建议。组织委员深入调研，形成了《关于挖掘“重庆号起义”资源，打造文化品牌的建议》的调研报告，得到市委、市政府主要领导的重视与批示。出版《重庆号起义与葫芦岛》文史书籍与画册。配合省政协开展文史征集工作，为《我与辽宁振兴》、《山河作证--辽宁抗日遗址遗迹纪实》征集、报送稿件34篇。通过承办中国乡土诗人协会年会，参加省政协摄影展等，为我市深入开展文化艺术创作、交流、研究、展览活动搭建了新平台。', '充分发挥委员主体作用是市政协2011年力求突破的重点工作。一年来，积极探索完善委员管理与服务、激励与约束并重的工作机制，极大地激发了委员的履职热情。', '创新委员管理机制。出台了《委员履职量化考核办法》，明确委员履职的刚性要求、量化标准和考核方法。把委员履职内容细分为41个履职小项，逐一进行量化打分，实现了强化委员管理的新突破，这一做法在省内政协系统尚属首家。根据量化考核结果，首次对委员年度履职情况、出席全会情况进行了通报，对不参会、不尽责的16名委员进行了约谈，发挥了激励先进、鞭策后进的作用；首次以委员履职得分为主要依据，采取定量考核与定性考核相结合的方法，确定了“优秀政协委员”、“优秀提案者”、“优秀民主监督员”等系列表彰人选。出台了《关于进一步加强委员学习培训的意见》，推进了委员学习的制度化建设。改版升级了委员管理系统，初步实现了委员管理的数字化、系统化、规范化。', '完善委员服务机制。按照“把委员管理寓于感情沟通之中、建立在服务保障之上”的工作理念，修订完善了《联系常委、委员制度》，重新确定了联系的内容、形式、方法，广泛与委员交朋友、沟通感情。一年来，主席、副主席和常委们深入到基层单位和各县（市）区，走访、联系委员280余名，让委员们深切感受到政协组织的温暖与关怀，激发了他们履职的积极性和主动性。制定了《委员活动小组经费使用管理办法》，为委员活动小组提供了必要的经费和后勤保障。多次召开委员活动小组组长座谈会，起到了典型引路、相互提高的作用。', '委员活动空前活跃。一年来，33个委员活动小组均开展了学习、视察、调研、联谊等活动，共计57次，呈现出委员人人常年都在组织之中、人人常年都在活动之中的生动局面。全年以委员活动小组名义形成调研、视察、考察报告26篇；踊跃参加“五个一”活动，绝大多数委员做到了开展一次调研活动、撰写一份提案、反映一条社情民意信息、参加一次小组活动、办一件好事；农林委员专家组、企业管理委员专家组注重发挥技术、管理等方面的优势，通过举办培训讲座、实地指导等形式，积极为农林经济发展、中小企业经营管理把脉、支招；开展以“人民政协爱人民，同心托起大学梦”为主题的捐资助学活动，共捐款12.76万元，资助贫困大学生31名。', '把开展创先争优活动作为加强机关建设的总抓手。坚持在继承中汲取发展智慧，在创新中激发前进动力，努力提高市政协机关的整体活力和水平。', '创先争优活动取得新实效。制定并实施了《市政协机关干部“创先争优”活动方案》，明确职责、细化要求。突出政协特色，在表彰先进集体、先进个人的同时，首次设立了公文能力奖、组织活动奖、创新贡献奖等单项奖。隆重召开了市政协机关创先争优总结大会，表彰先进，振奋士气，全面激发了干部职工的工作激情，机关干部职工的工作能力和服务水平得到了明显加强，形成了“比学赶帮超”、团结和谐、谋事干事的良好氛围。', '文化建设展示新风貌。举办6次“政协讲坛”活动，由政协机关干部轮流作辅导讲座，内容涉及经济、法律、文学、历史等多个领域，充分调动了干部职工“讲与学”两个方面的积极性，有效地提高了机关全员的综合素质和履职能力；以庆祝建党九十周年为契机，组织开展了书画影展、诗歌朗诵比赛、登山等活动，活跃了机关文化生活，“书香政协”、“活力政协”的风貌初步显现。', '制度建设得到新加强。进一步建立和完善了财务、公务用车管理、后勤保障等工作规范。出台了《市政协机关公文处理办法》等6项办文、办会、办事等工作制度，形成了用制度管人、按制度办事的良好局面。市政协机关的服务质量和办事效率得到了全面提升，制度化、程序化、规范化建设进一步深化。', '对外宣传再上新台阶。重视与宣传部门和新闻媒体的联系沟通，充分利用市内外媒体、网络等平台，大力宣传市政协重点工作、重要会议、重大活动和委员履职亮点。开展了政协系统第15届好新闻评选活动，有53篇新闻稿件获奖；精心办好市政协网站，出台了管理办法，完善了网上提案、信息、办公等功能；编发《葫芦岛政协》6期；全年在各级媒体刊物上发表理论新闻稿件520余篇，较好地展示了市政协有为有位的整体形象，进一步扩大了政协工作的社会影响。', '各位委员、同志们，一年来，市政协紧紧围绕全市经济社会发展的重大问题和人民群众关注的热点难点问题，既开展了全局性的宏观层面的建言献策，又狠抓了促进民生改善的具体实事，有力地推动了全市政协工作再上新台阶。可以说，过去的2011年，是市政协智慧成果大丰收的一年，是“三察 (查)内容非常丰富的一年，是委员活动空前活跃的一年，是履职实效更加显著的一年。在此，我代表市政协常委会，对给予市政协工作坚强领导和大力支持的市委、市人大、市政府和社会各界，对履职尽责、奋发有为的全体委员，表示衷心的感谢和崇高的敬意!', '在总结成绩的同时，我们也要清醒地认识到，工作中还有一些差距和问题。一是建言献策质量有待进一步提高，具有重大前瞻性、影响全局的精品还需再增多；二是民主监督力度和实效还需再加大；三是委员作用发挥和履职能力还需再提高，委员小组活动的层面、内容、方式还有待进一步拓宽和深化。这些问题与不足，需要我们在今后的工作中认真思考和研究，并切实加以改进。', '各位委员、同志们，站在建设沿海经济强市新的历史起点上，我市科学发展、赶超发展、跨越发展的战略目标更加清晰，“工业强市、项目支撑、沿海开放和民生保障”的战略部署更加明确，推进全市经济总量位次前移、富民强市的战略举措更加务实。全市各级政协组织和广大政协委员要在大局中找准定位，在履职中抓好对接，在行动上全面助推，立足政协特点，发挥政协优势，为实现市第四次党代会提出的宏伟目标而奋发努力。为此，确定2012年市政协常委会工作总的指导思想是：高举中国特色社会主义伟大旗帜，以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，按照中共十七届五中、六中全会，省、市党代会和市委四届三次全会的部署和要求，牢牢把握团结和民主两大主题，建言献策求精品，民主监督求实效，履职机制求创新，自身建设求活力，更加有效地推动科学发展、关注民生改善、促进社会和谐，全面提升履职能力和水平，为不断开创我市经济社会发展新局面创造新业绩。', '开展加强和创新社会管理调研。加强和创新社会管理，是中共中央在新的历史时期提出的一项重大战略任务。为进一步促进这一战略部署的贯彻落实，市政协将组织各方力量，分析我市社会管理面临的新形势、新挑战，从建立健全长效机制、构建社会管理新格局、完善考核体系和评价机制等方面入手，开展专题调研，力求推出一批高质量、有影响、操作性强的调研成果。市政协四届十次常委会议专题协商后，形成建议案报送市委、市政府，为我市和谐发展建睿智之言，献务实之策。', '组织中小微企业发展情况调研。发展中小微企业以及推进和活跃创业活动，对我市调整产业结构、增加居民收入、增强发展活力等具有重要的现实和长远意义。为此，拟对我市中小微企业发展，以及推进和活跃创业活动进行重点调研，召开市政协四届十一次常委会议进行专题协商，努力形成一系列协商议政精品，为我市中小微企业发展壮大加温助力。', '深入进行多领域的调研视察活动。以政协各专门委员会为依托，就青山保护工程、现代物流业、旅游产业、“一场五馆”管理与运营、滨海大道规划建设、文物保护与利用等问题开展调研活动。围绕我市金融业、农民专业合作社、外经外贸企业发展等进行跟踪视察。继续关注我市沿海经济带建设，积极参加辽宁沿海经济带政协论坛活动，努力打造一批优秀调研视察成果，为市委、市政府科学决策提供参考依据。', '围绕民生主题开展民主监督。组织委员开展农村社会治安情况的专题监督和宗教教职人员社会保障情况的跟踪视察。进一步完善民主监督机制，代市委起草《关于完善人民政协民主监督工作机制的规定》。各民主监督小组重点围绕民生问题确定年度监督主题，选择监督载体，进一步提高监督实效。', '针对民生改善进行调研视察。密切关注公共服务、教育文化、收入分配、物价稳定、就业医疗等民生重点问题，促进各项惠民政策的出台和落实。特别要就校车的配备、运营、管理等问题，组织市、县 (市)区两级政协委员进行调研督办。积极开展食品药品安全监管、打造“中国太极岛”、涉外劳务输出等专题调研。继续对医改进展情况、职业教育资源整合、锦葫路改造、茨山河治理、水资源保护、城区供暖、人口出生缺陷干预等工作进行跟踪视察。', '积极反映群众诉求、多办实事。切实深入基层，抓住人民群众衣、食、住、行、暖等关系切身利益的问题，通过提案、反映社情民意信息等多种方式，积极反映各个层面群众的呼声和诉求。倡导委员开展科技服务、送医下乡、捐资助学、扶贫济困等公益活动。全力协助市委、市政府做好协调关系、化解矛盾、理顺情绪的工作，努力维护风清气顺、人和业兴的良好局面。', '扎实推进民主评议工作。全面总结2011年全市软环境建设专题民主评议工作，认真梳理、系统剖析被评议单位在软环境建设中存在的问题，形成综合评议报告报送市委、市政府，并为市目标责任制考核和行风评比提供参考依据。2012年拟对15个部门进行民主评议，继续优化和改善我市发展软环境。', '加强合作共事。大力支持各民主党派、工商联，人民团体借助政协组织平台充分表达意见、主张，参与全市重大决策和安排部署的协商讨论，主动邀请他们参加相关会议、学习考察、调研视察等活动。修订《关于市政协各参加单位参与政协活动情况统计办法》。探索建立与党政有关部门横向配合，与县 (市)区政协组织纵向联动的调研、视察和提案督办等工作机制。', '做好团结联谊工作。加强与民族宗教界委员的经常性联系，宣传和贯彻党的民族宗教政策，促进民族团结、宗教和睦。密切关注社会各阶层正当的利益诉求，充分调动社会新阶层的积极性和创造性。通过召开中秋座谈会、在葫港澳台侨外相关企业负责人座谈会、台湾政情以及东南亚政情通报会等形式，为我市进一步扩大开放、招商引资、发展经济牵线搭桥。', '突出政协文史工作特色。积极探索文史资政与和谐文化相结合的新途径，充分挖掘文史团结育人与服务现实相融合的新方式，突出精品意识，体现地方特色，为我市文化大发展大繁荣作出新贡献。出版《葫芦岛抗日斗争全记录》，配合省政协做好《我与辽宁文化遗产》稿件征集工作。', '强化提案在政协履职全局中的地位和作用。坚持以质量求发展的科学导向，确定好“一号”提案，力争多出“精品”提案；完善重点提案遴选和督办机制，分层次督办一般性提案，扩大“后评议”范围，保证办理成效；运用知情明政平台、协商沟通平台、资源利用平台，积极为提案工作提供全方位服务。', '加大宣传工作力度。进一步加强与各级新闻媒体的沟通与合作。举办第16届政协好新闻评选活动。加强网络知识培训，实现运用网络平台征集办理提案、反映社情民意信息，完成政协机关及工作人员开设微博工作。办好《葫芦岛政协》双月刊。', '召开全市政协工作经验交流会。结合贯彻落实市委政协工作会议精神调研检查成果，及时总结推广市、县 (市)区两级政协组织在履职实践过程中形成的新经验、好做法，适时召开全市政协工作经验交流会。', '推进界别和专委会工作。各界别活动小组要根据自身特点和优势，选择党政所需、群众所求、界别所能、委员所长的相关课题开展调研视察。各专委会要认真组织委员搞好学习调研、视察评议、反映社情民意信息、撰写提案等工作。积极开展联络联谊活动，探索发挥委员作用的新方法、新途径，切实提高专委会工作的组织化程度。各专委会要更加突出界别特色，要把对口联系制度落到实处。', '强化委员队伍建设。举办委员培训班；邀请专家进行“社会管理科学化”专题辅导；继续开展“五个一”活动；全力做好委员履职量化考核工作；加强同委员经常性的联系和沟通；总结委员小组活动经验，召开委员活动小组经验交流会；开展加强委员管理、发挥委员主体作用调研活动；组织好在葫全国和省政协委员赴异地视察活动。', '提高政协理论研究水平。成立市政协理论研究会。加强人民政协理论与基层工作相结合的应用性研究，动员市政协各参加单位、县(市)区政协、市政协各委（室）和广大政协委员，结合工作实际开展政协理论研究活动，提高我市政协理论研究水平。', '继续深入开展创先争优活动。以建设“学习型、服务型、创新型、效能型、和谐型”机关为目标，完善创先争优考评方案，强化绩效考核，推进机关目标管理。加强机关内网建设，继续办好“政协讲坛”。加强机关干部教育培训、选拔交流等工作。', '各位委员、同志们，我市正处在实现新的历史跨越的关键时期，人民政协肩负的责任更加重大，使命更加光荣。让我们在中共葫芦岛市委的坚强领导下，和衷共济、开拓创新、扎实履职、奋发作为，为顺利实施我市“十二五”规划，加快建设沿海经济强市作出新的更大的贡献！']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>47</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>绥中县海洋与渔业局赴丹东市学习整治渔船船证不符先进工作经验</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2017-11-24</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/bmdt/202004/t20200425_943154.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['为进一步做好我县整治渔船“船证不符”和推进清理取缔“三无渔船”工作，经县政府同意，我局组织渔政、渔监、船检部门于近期到丹东市学习考察该市在整治“船证不符”和清理取缔“三无渔船”行动中的先进经验及做法。', '为进一步做好我县整治渔船“船证不符”和推进清理取缔“三无渔船”工作，经县政府同意，我局', '在丹东市海洋与渔业局工作人员的陪同下，考察组一行听取了丹东市开展“船证不符”整治行动相关情况汇报，就《丹东市整治海洋渔业船舶“船证不符”实施方案》内容与丹东市海洋与渔业局工作人员进行交流、讨论。考察组一行深入到东港市海洋与渔业局学习了整治“船证不符”工作的具体措施及开展情况。', '通过此次考察学习，我局深入学习了丹东市的先进工作经验，深刻总结本部门的不足，积极为县政府清理取缔“三无渔船”出谋划策，不断推进渔船“船证不符”整治工作。', '通过此次考察学习，我局深入学习了丹东市的先进工作经验，深刻总结本部门的不足，积极为县政府清理取缔']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>47</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>果蚕局开展新型职业农民培训工作简讯</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2017-11-03</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/bmdt/202004/t20200425_943048.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['绥中县是果业大县，也是国家省市重点扶持县，自2008年以来在果农培训上一直得到上级政府的支持，今年培训名额80人，该培训班主要三个内容，一是考察，二是理论学习，三是实训。我站于10月23日开展了果业技术培训考察项目，我们考察了六个地方，分别是绥中县满江红果业专业合作社、绥中县明水惠民果业专业合作社、绥中县大粟村大青山果业合作社、葫芦岛市南票区领运农业发展有限公司、辽宁省葫芦岛市建昌县兴业种植专业合作社、辽宁省果树科学研究所，以上六个合作社果园建设特点分别是桥砧密植早丰技术、绥中白梨建园三年丰产技术、山地寒富矮化中间砧管理技术、新品种早产早丰管理技术、水肥一体化高标准果园管理技术、科研与生产高度结合创新技术。', '日开展了果业技术培训考察项目，我们考察了六个地方，分别是绥中县满江红果业专业合作社、绥中县明水惠民果业专业合作社、绥中县大粟村大青山果业合作社、葫芦岛市南票区领运农业发展有限公司、辽宁省葫芦岛市建昌县兴业种植专业合作社、辽宁省果树科学研究所，以上六个合作社果园建设特点分别是桥砧密植早丰技术、绥中白梨建园三年丰产技术、山地寒富矮化中间砧管理技术、新品种早产早丰管理技术、水肥一体化高标准果园管理技术、科研与生产高度结合创新技术。', '经过四天的考察学习，学员们的管理理念有了很大的改变，深刻的体会到了，没有创新，就没有发展；没有配套的高效管理技术，就是没有高效益；没有优新品种，就没有优势；没有先进的管理体系，就没有市场竞争力。通过感性认识的提升，下一部理论学习可以有的放矢，找到学习的方向，更好的完善自己，丰富自己。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>47</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>建昌县农经局组织杂粮生产专业新型职业农民外出考察</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2017-11-22</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/bmdt/201711/t20171122_769212.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['日前，建昌县农经局组织新型职业农民杂粮生产专业的学员外出参观考察，考察团由农经局副局长李忠富和种子管理站站长薛文武带队，考察学习历时四天，先后参观了北票市聚龙绿色食品集团、建平县泰然有机杂粮、怀志米业、大勇加工厂和海军机械总厂。学员们纷纷表示看到了自己想看的，学到了自己想学的，收获很大。', '此次参观考察学习，即是一堂生动的新型职业农民培育工程的课外实践课程，也是农经局深刻学习领会十九大精神、加快推进农业供给侧结构性改革的一项重要举措。旨在不断创新科技培训的方式方法，加强农业从业者的劳动技能水平，掌握农业生产加工的新技术新模式，促进我县农业发展。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>47</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>举全区之力打赢脱贫攻坚战</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2017-10-25</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/zwyw/201710/t20171025_763342.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['要动员全党全国全社会力量，坚持精准扶贫、精准脱贫，坚持中央统筹省负总责市县抓落实的工作机制，强化党政一把手负总责的责任制，坚持大扶贫格局，注重扶贫同扶志、扶智相结合，深入实施东西部扶贫协作，重点攻克深度贫困地区脱贫任务，确保到二〇二〇年我国现行标准下农村贫困人口实现脱贫，贫困县全部摘帽，解决区域性整体贫困，做到脱真贫、真脱贫。', '10月18日召开的党的十九大开幕会上，习近平总书记再次把扶贫提高到新的战略高度，并对扶贫攻坚提出了新思想、新目标和新征程。从2013年起，连山区始终把脱贫攻坚作为最大的政治任务和民心工程。按照“六个精准、五个一批”战略，坚持以项目促脱贫，变输血为造血，2014年以来，全区贫困人口由6552户、15002人减少到2190户、4712人，贫困村由9个减少到3个。发展建设了新台门华盈粮食收储公司、塔山“峰圆”禽类养殖合作社等52个扶贫产业项目。 今年，连山区社会事业和民生工程扎实推进，切实做好社会保障工作。全区企业参保户数已达920 户，在职参保职工4.76万人。积极调整养老保险收入预算，确保了养老金按时足额发放。扎实做好城乡低保救济工作，积极为尘肺病患者提供救助，预计全年为5600名尘肺病患者发放救助金2680万元。实施积极的就业政策，预计今年全区城镇新增就业4050人、完成目标任务的202%，城乡登记失业率控制在4.7%以下，零就业家庭保持动态为零。积极开展民政“救急难”工作，截至目前共发放救助金157万元，救助1494 户，2089人次。 10月14日，区长鲁秀红带领区营商局、区发改局、区财政局、区交通局等区直相关部门负责人及各乡镇负责人组成的考察团到建昌县小德营子乡就精准扶贫工作进行考察学习。 考察团一行先后到辽宁省扶贫村集体经济发展试点村小德营子乡贾家屯村实地察看了就业扶贫服装加工车间和光伏扶贫电站项目。 小德营子乡有5个脱贫重点村，建档立卡未脱贫户657户1754人，其中低保贫困户431户1155人；一般贫困户226户、599人。近几年来，建昌县小德营子乡党委、政府坚持以打好打胜脱贫攻坚为主战场，以帮助建档立卡贫困户上项目为重点，以实现“建档立卡贫困村摘帽、户销号”为目标，以产业扶贫、光伏扶贫、服装加工、发展村集体经济为突破口，坚持因村制宜，因户施策，分类指导，实行责任到人，精准发力，倒逼作战。到2017年底，通过乡、村干部的积极努力，全乡657户建档立卡贫困户基本实现户户有项目，户户有稳定收入，争取实现整乡脱贫。 当天，考察学习结束后，区长鲁秀红召开了连山区精准扶贫工作安排部署会。会上，各乡镇和区直部门相关负责人分别汇报了各自扶贫工作进展情况及工作中存在的困难和差距。 鲁秀红说，通过这次考察，感触很深，很受教育，也学到很多东西。就做好下一步工作，鲁秀红说，要高度重视，认识差距，把精准扶贫工作当成第一政治任务，用滚石上山的劲头，举全区之力抓好精准扶贫工作；要抓紧时间，规范档案管理，并做好村支书、村主任、贫困扶贫户关于填表的培训工作；要加大投入，全力以赴抓项目、抓产业，做到精准识别，精准施策；要加大宣传力度，加强督查，明确职责，抓紧落实；要结合全区实际，强化问题导向，针对贫困群众自身特点，通过产业扶贫或发展村级经济走出符合实际的脱贫致富路子；要切实增强基层组织的示范引领和带动作用，把精准扶贫工作作为一项政治工程、责任工程、民心工程，加强领导，加大工作力度，把全区精准扶贫工作做得有声有色。 10月17日是第四个全国扶贫日，为深入贯彻落实区扶贫办对扶贫日活动的决策部署，弘扬扶贫济困和友善互助的核心价值观，全区社会各界纷纷行动起来，开展扶贫日宣传活动，通过悬挂标语、发放宣传单等形式，进行扶贫政策宣传，营造良好的宣传氛围，推动全社会共同参与扶贫工作。 10月17日上午，连山区司法局工作人员深入到寺儿堡镇营盘村集中开展“走进贫困户、助困解忧愁”帮扶活动。帮扶组一行首先和村委负责人进行了座谈，并捐赠了1500元用于帮扶村五户贫困户。在营盘村干部的带领下，帮扶组逐一到贫困户家中走访，与困难群众面对面，详细询问他们在思想、生活上的困难及对今后的打算，向他们宣传国家设立扶贫日的意义、党的强农惠农及扶贫相关政策等，鼓励他们树立信心，努力改善生产生活条件，早日实现脱贫致富。 10月17日，区物价局组织党员干部深入定点帮扶村山神庙子乡山西村和锦郊街道地藏寺村，开展脱贫攻坚走访慰问活动，为地藏寺村贫困户曹德元和山西村贫困户刘广顺分别送去慰问金5000元，扶贫款共计10000元。本次扶贫助民活动，进一步加强了与贫困户的密切联系，确实做到帮有措施、扶有目标、确见实效，在全局掀起了扶贫热潮，营造了关心扶贫事业的良好氛围。 10月17日，区劳动就业管理局在连山区大公园开展了“就业扶贫行动日”活动，为本市贫困劳动者送政策、送服务、送岗位、送信息，促进其就业脱贫。 在站前街道友谊社区，劳动保障协理员带领社区多名贫困人员参加扶贫主题活动，通过广泛咨询为他们进行了就业推荐、职业指导、扶贫政策宣讲等系列帮扶措施，通过“一对一”指导帮扶，进一步提高贫困劳动者的应聘成功率，力争做到“就业一人，脱贫一户”。 据悉，全区民营人力资源服务机构以及多家知名企业纷纷加入到活动中，共有数十家企业提供适合帮扶对象就业岗位数百个，并针对就业扶贫对象普遍年龄偏大，未经过技能培训，就业相对比较困难等特点，此次招聘入职门槛比较低，如某单位招聘保洁人员，年龄放宽到50岁，无学历限制，待遇在1500元到2000元，提供五险一金和餐补。 2018年，连山区继续坚持扶贫开发、产业带动、劳动培训与教育、医疗、社保等政策兜底相结合，年底前完成2190户、4712名建档立卡贫困人口脱贫；新台门镇新台门村、山神庙乡琉璃瓦村和孤竹营子乡史家沟村3个贫困村完成销号任务；扶贫产业项目累计达到100个以上，做到识别精准、数据精准、措施精准，杜绝“数字脱贫”。 今后5年，实现全区最初确定的建档立卡贫困户6552户、15002人全部脱贫和西部9个贫困村整体脱贫销号，利用 2019、2020两年时间巩固精准扶贫成果。我们有理由相信，十九大报告对于“精准扶贫，精准脱贫”的总体安排，以及提出的新思想、新要求、新策略和新方法，必将能保证全区打赢脱贫攻坚战。', '10月18日召开的党的十九大开幕会上，习近平总书记再次把扶贫提高到新的战略高度，并对扶贫攻坚提出了新思想、新目标和新征程。从2013年起，连山区始终把脱贫攻坚作为最大的政治任务和民心工程。按照“六个精准、五个一批”战略，坚持以项目促脱贫，变输血为造血，2014年以来，全区贫困人口由6552户、15002人减少到2190户、4712人，贫困村由9个减少到3个。发展建设了新台门华盈粮食收储公司、塔山“峰圆”禽类养殖合作社等52个扶贫产业项目。', '今年，连山区社会事业和民生工程扎实推进，切实做好社会保障工作。全区企业参保户数已达920 户，在职参保职工4.76万人。积极调整养老保险收入预算，确保了养老金按时足额发放。扎实做好城乡低保救济工作，积极为尘肺病患者提供救助，预计全年为5600名尘肺病患者发放救助金2680万元。实施积极的就业政策，预计今年全区城镇新增就业4050人、完成目标任务的202%，城乡登记失业率控制在4.7%以下，零就业家庭保持动态为零。积极开展民政“救急难”工作，截至目前共发放救助金157万元，救助1494 户，2089人次。', '10月14日，区长鲁秀红带领区营商局、区发改局、区财政局、区交通局等区直相关部门负责人及各乡镇负责人组成的考察团到建昌县小德营子乡就精准扶贫工作进行考察学习。', '考察团一行先后到辽宁省扶贫村集体经济发展试点村小德营子乡贾家屯村实地察看了就业扶贫服装加工车间和光伏扶贫电站项目。', '小德营子乡有5个脱贫重点村，建档立卡未脱贫户657户1754人，其中低保贫困户431户1155人；一般贫困户226户、599人。近几年来，建昌县小德营子乡党委、政府坚持以打好打胜脱贫攻坚为主战场，以帮助建档立卡贫困户上项目为重点，以实现“建档立卡贫困村摘帽、户销号”为目标，以产业扶贫、光伏扶贫、服装加工、发展村集体经济为突破口，坚持因村制宜，因户施策，分类指导，实行责任到人，精准发力，倒逼作战。到2017年底，通过乡、村干部的积极努力，全乡657户建档立卡贫困户基本实现户户有项目，户户有稳定收入，争取实现整乡脱贫。', '当天，考察学习结束后，区长鲁秀红召开了连山区精准扶贫工作安排部署会。会上，各乡镇和区直部门相关负责人分别汇报了各自扶贫工作进展情况及工作中存在的困难和差距。', '鲁秀红说，通过这次考察，感触很深，很受教育，也学到很多东西。就做好下一步工作，鲁秀红说，要高度重视，认识差距，把精准扶贫工作当成第一政治任务，用滚石上山的劲头，举全区之力抓好精准扶贫工作；要抓紧时间，规范档案管理，并做好村支书、村主任、贫困扶贫户关于填表的培训工作；要加大投入，全力以赴抓项目、抓产业，做到精准识别，精准施策；要加大宣传力度，加强督查，明确职责，抓紧落实；要结合全区实际，强化问题导向，针对贫困群众自身特点，通过产业扶贫或发展村级经济走出符合实际的脱贫致富路子；要切实增强基层组织的示范引领和带动作用，把精准扶贫工作作为一项政治工程、责任工程、民心工程，加强领导，加大工作力度，把全区精准扶贫工作做得有声有色。', '10月17日是第四个全国扶贫日，为深入贯彻落实区扶贫办对扶贫日活动的决策部署，弘扬扶贫济困和友善互助的核心价值观，全区社会各界纷纷行动起来，开展扶贫日宣传活动，通过悬挂标语、发放宣传单等形式，进行扶贫政策宣传，营造良好的宣传氛围，推动全社会共同参与扶贫工作。', '10月17日上午，连山区司法局工作人员深入到寺儿堡镇营盘村集中开展“走进贫困户、助困解忧愁”帮扶活动。帮扶组一行首先和村委负责人进行了座谈，并捐赠了1500元用于帮扶村五户贫困户。在营盘村干部的带领下，帮扶组逐一到贫困户家中走访，与困难群众面对面，详细询问他们在思想、生活上的困难及对今后的打算，向他们宣传国家设立扶贫日的意义、党的强农惠农及扶贫相关政策等，鼓励他们树立信心，努力改善生产生活条件，早日实现脱贫致富。', '10月17日，区物价局组织党员干部深入定点帮扶村山神庙子乡山西村和锦郊街道地藏寺村，开展脱贫攻坚走访慰问活动，为地藏寺村贫困户曹德元和山西村贫困户刘广顺分别送去慰问金5000元，扶贫款共计10000元。本次扶贫助民活动，进一步加强了与贫困户的密切联系，确实做到帮有措施、扶有目标、确见实效，在全局掀起了扶贫热潮，营造了关心扶贫事业的良好氛围。', '10月17日，区劳动就业管理局在连山区大公园开展了“就业扶贫行动日”活动，为本市贫困劳动者送政策、送服务、送岗位、送信息，促进其就业脱贫。', '在站前街道友谊社区，劳动保障协理员带领社区多名贫困人员参加扶贫主题活动，通过广泛咨询为他们进行了就业推荐、职业指导、扶贫政策宣讲等系列帮扶措施，通过“一对一”指导帮扶，进一步提高贫困劳动者的应聘成功率，力争做到“就业一人，脱贫一户”。', '据悉，全区民营人力资源服务机构以及多家知名企业纷纷加入到活动中，共有数十家企业提供适合帮扶对象就业岗位数百个，并针对就业扶贫对象普遍年龄偏大，未经过技能培训，就业相对比较困难等特点，此次招聘入职门槛比较低，如某单位招聘保洁人员，年龄放宽到50岁，无学历限制，待遇在1500元到2000元，提供五险一金和餐补。', '2018年，连山区继续坚持扶贫开发、产业带动、劳动培训与教育、医疗、社保等政策兜底相结合，年底前完成2190户、4712名建档立卡贫困人口脱贫；新台门镇新台门村、山神庙乡琉璃瓦村和孤竹营子乡史家沟村3个贫困村完成销号任务；扶贫产业项目累计达到100个以上，做到识别精准、数据精准、措施精准，杜绝“数字脱贫”。', '今后5年，实现全区最初确定的建档立卡贫困户6552户、15002人全部脱贫和西部9个贫困村整体脱贫销号，利用 2019、2020两年时间巩固精准扶贫成果。我们有理由相信，十九大报告对于“精准扶贫，精准脱贫”的总体安排，以及提出的新思想、新要求、新策略和新方法，必将能保证全区打赢脱贫攻坚战。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>47</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>绥中县外经贸局赴常州考察学习</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2017-10-16</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/bmdt/202004/t20200425_942942.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['按照省发展改革委《关于组织参加2017年江苏省经贸洽谈活动的通知》精神，为扎实有效推进我市与常州开展对口合作，绥中县对外贸易经济合作局积极响应并参与，组派副局长高猛和刘帅两名同志，赴常州进行考察学习。我们先后参加了“2017世界地板业工商峰会”和“2017常州机器人及智能制造国际技术暨第三届武进国家高新区绿色智能制造海智对接交流会”。期间，我们与多家企业进行了对接，向企业介绍绥中经济发展现状及发展规划，并宣传了绥中所特有的资源和发展优势，多家企业负责人对我县的发展优势表示出了浓厚的兴趣，个别企业家近期要来绥进行实地考察。', '按照省发展改革委《关于组织参加2017年江苏省经贸洽谈活动的通知》精神，为扎实有效推进我市与常州开展对口合作，绥中县对外贸易经济合作局积极响应并参与，组派副局长高猛和刘帅两名同志，赴常州进行考察学习。我们先后参加了“2017世界地板业工商峰会”和“2017常州机器人及智能制造国际技术暨第三届武进国家高新区绿色智能制造海智对接交流会”。期间，我们与多家企业进行了对接，向企业介绍绥中经济发展现状及发展规划，并宣传了绥中所特有的资源和发展优势，多家企业负责人对我县的发展优势表示出了浓厚的兴趣，个别企业家近期要来绥']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>47</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>辽宁农业供给侧结构性改革的实践引发水稻种植大户的思考</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2017-09-14</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://nync.hld.gov.cn/ywdt/snxw/201709/t20170914_757999.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['种粮大户于会怀经营和代耕的稻田达1530公顷，从育苗到秋收基本实现机械化。这样的实力在辽宁省农民中并不多见，可他时常有些焦虑，焦虑中又在急切地盼望。', '我们知道，从种植户的微观个体层面看，瞄准需求端发力，推进农业供给侧结构性改革，是需要以调整种植结构、转变种植方式、提升种植技术和农产品科技含量做支撑的。', '辽宁省的水稻种植面积在70万公顷以上，年产量50亿公斤以上，种植户133万户。于会怀遇到的问题，他们也会碰到，甚至比于会怀的感触更深。', '他指着绿油油的稻田告诉记者，后两个月的天气如果没有太大的意外变化，今年的收成肯定能超过去年，而且很有可能是历年来最好的收成。', '傍晚时分，稻田中央的频振式杀虫灯发出蓝色荧光，合作社的技术骨干于永辉正在清理布兜内被杀灭的害虫。', '记者看到，一望无垠的稻田内，每隔100米左右就有一盏这样的太阳能自发电一体式杀虫灯。', '于永辉告诉记者，这种灯系绿色无毒化杀虫，可降低害虫落卵量80%左右。“它们会根据环境光亮程度自动启动开始工作，每6亩地安一盏灯就能基本除掉田间害虫。”', '在合作社的仓库里，技术员正在对一排排的小型水稻联合收割机精心检修，准备即将到来的收割。', '记者了解到，除了粮食种植专业合作社，于会怀还经营着淮海家庭农场，流转加上代耕代种的耕地总共有1530公顷，这些地已全部改造为可以实现全程机械化作业的水田。社员们集体集资购买的拖拉机、插秧机、收割机等400台（套）大型农机，每年从水稻育苗、春耕、田间管理到秋收基本实现机械化，工作效率为人工种植的70倍。', '稻田里的频振式杀虫灯是于会怀合作社今年在农业科学化道路上迈出的重要一步，因为他们的这块稻田属于国家农田高标准示范田，现在这200套杀虫灯是由国家农业部出资安装的。', '别看那一盏盏小小的蓝色灯光不起眼，作用大着呢。它利用害虫较强的趋光、趋波、趋色、趋性信息的特性，将光的波长、波段、波的频率设定在特定范围内，近距离用光、远距离用波，加以诱到的害虫本身产生的信息引诱成虫扑灯。灯外配以频振式高压电网触杀，使害虫落入灯下的接虫袋内，达到杀灭害虫的目的。', '于永辉说，杀虫灯对于水稻害虫如稻螟、叶蝉、稻二化螟、稻三化螟、稻飞螟、稻纵卷叶螟等杀灭效果显著。因为基本不用喷洒农药了，也从根本上消除了农业环境污染，这样生产出来的水稻既能保证产量又能保证绿色安全，保持生态平衡。像水稻、蔬菜、果树等病虫害发生量大、用药频繁的农作物最好都能用上这东西才好。', '说起缺点嘛，于会怀说：“就是有点贵啊！一般的农户无论从观念上还是在投入能力上都有困难，毕竟每套设备加上地面配套基础设施要在4000元左右，老百姓舍不得买这么贵的东西。”', '于会怀相信自己在水稻种植这一行当里的影响力，许多新招儿都是在他试过之后，大家跟着效仿的。他告诉记者，他们合作社用上杀虫灯后，周边的许多农户都来看新鲜，一是看看这先进玩意儿到底效果咋样，另外也看这东西是不是个样子货，别花个大价钱用不上几天就坏掉，那可就赔大了。', '作为全国人大代表和全国劳动模范，于会怀总是感到肩上的责任很重，他说，他想提个大力推广使用杀虫灯的建议，“如果能够得到推广，那全国的庄稼地里得少打多少农药啊！果真那样的话，土地由于多年过度使用化肥农药带来的土质板结就会得到改善，食品安全也能得到保障。”', '于会怀说，种水稻需要大量的水，这谁都知道。近两年随着玉米种植效益的下滑，许多旱田改为水田，大面积水田的出现必然要使用大量水资源。对农民的种植成本而言，也是一笔不小的费用。早就听说有水稻旱种技术，可是我们这些靠水稻生产为主业的人一定要自己尝试成功才行。', '2014年，于会怀合作社专门拿出一块面积为1.3公顷的土地试种旱直播水稻。这两年的试验结果显示，旱直播水稻与传统灌溉水稻相比，每公顷水稻可节约灌溉用水6000立方米，水电、人工等成本合计每公顷可节约4500元至6000元。让于会怀有些着急的是，他们的旱直播水稻种植技术不过关，导致产量比传统灌溉移栽水稻低30%至40%。', '“咱们农民种什么就是秋天看收成，但越是这样就越需要科学技术来撑腰提气！”于会怀说，听沈阳农业大学的专家说，科学实验表明，旱直播水稻的产量已经能够与传统灌溉移栽稻相差无几了，关键是专家能为我们提供高产、抗病、抗灾能力强的旱直播水稻种子，能来做技术指导，相信我们这些水稻老把式还是能够掌握种植旱直播水稻的关键技术的。不管怎么样，于会怀还是相信科学技术，“明年，我们把旱直播水稻试验田从1.3公顷扩大到10公顷。”', '于会怀告诉记者，旱直播水稻的优势还不仅仅在消耗水量方面。“每年3月下旬，我们就得为春耕水稻育苗做准备工作了。‘春天看苗三分喜’，那可是一项费工、费时、费钱的大工程，而旱直播水稻直接省略了这一步骤。”', '说到这儿，于会怀算了一笔账：从选种、筛土、做苗床到准备育苗，5台育苗机70个人不停地工作20天才能满足他们合作社对稻苗的需要，光是人工费就得14万元。更重要的是育苗用基质用土，平均每立方米基质土能育苗360盘，这360盘苗刚好够一公顷稻田插秧，合作社和农场总共有1500多公顷的稻田，每年至少消耗1500立方米的优质河滩土。“我们全省每年六七十万公顷的水稻种植面积，就得消耗六七十万立方米的优质土壤资源，旱直播水稻由于不需要育苗，就省下了土壤基质的消耗，这可不是一笔小账啊！”', '于会怀种水稻远近闻名，自己经营和代耕代种的土地也有1500多公顷，但土地越多就越是觉得自己的机械化水平低。', '于会怀告诉记者，这些年，他也没少到各地考察学习先进经验，在一些农博会和农机展示现场上，他着实眼馋那些三四百马力的进口大型拖拉机。虽然自己的合作社也基本实现了水稻种植的全程机械化，各种类型的拖拉机、插秧机、水稻联合收割机等大型机械也有400台（套）之多，但他仍感到效率低。', '“一台售价300多万元的大马力拖拉机看似很贵，但干起活来机械效率绝对抵得上七八台价值十几万元的80马力的拖拉机，更何况现在人工费高，每台拖拉机省下来的人工费，还是划算的。只是那些大马力拖拉机对于像我们这种已经不算小的专业合作社也是天价的，那么大一笔支出靠水稻种植的利润肯定支付不起，而金融机构对于农业专业合作社的贷款一向也是十分慎重的。对于我们这样的种粮大户来说，拥有大马力、高效率、低能耗的农机是进一步提高生产效率，降低成本的当务之急。”于会怀说。', '2017年5月8日，李克强总理在河南省开封市考察中联重科股份有限公司开封工业园，参观该公司的拖拉机装配车间和农机服务信息中心时，李克强说，农业现代化需要大马力拖拉机，“中国制造2025”更需要大马力发动机。', '于会怀说：“我看了这条新闻之后信心倍增，我坚信国家会重视种粮大户的需求，相信我们能在不远的时间里用上我国自主知识产权的物美价廉的大马力拖拉机。”', '让于会怀着急的事还有不少，这不，农忙时节快到了，合作社在秋收季节经常同时雇佣150人以上，这些人的劳动技能培训和提高也是一件大事；想到自己在2018年要开一家水稻深加工的企业，觉得自己的知识已经不够用了……']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>47</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>市三带参观团到素珠营子乡佟杖子村参观学习</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2017-09-13</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/xzdt/201709/t20170913_757716.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['9月8日下午，葫芦岛市委组织部组织兴城市62名村党组织书记，到素珠营子乡佟杖子村考察学习“三带”典型，对村集体经济发展情况进行了实地参观。', '在佟杖子村，参观团首先参观了村集体建设的大棚项目，了解了佟杖子村大棚项目建设情况。该项目总投资1000余万元，占地300亩，建设大棚6700延长米，通过种植紫苏和兴办水果采摘园，已经成为本村脱贫攻坚、发展壮大村级集体经济、带领带动贫困户以及广大群众脱贫致富的主导产业。', '随后，参观团对佟杖子村食用菌厂的规模和现代化生产线进行实地考察，并听取了党支部书记佟海坡就项目发展前景和收益的介绍。', '参观团对佟杖子村集体经济发展状况给予好评，并表示今后会学习佟杖子村的典型经验，发展壮大村集体经济。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>47</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>南票区抓三带走好富民强村路</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2017-10-13</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/npxw/201710/t20171013_761816.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['近年来，南票区按照围绕经济抓党建、抓好党建促经济的工作思路，积极寻找党建工作新载体，在全区农村大力实施“村书记带头致富、带领群众致富、带动村集体致富”工程，积极走好富民强村路，增强了农村基层党组织的凝聚力和战斗力。 一是坚持选对人、培养人，走好带头致富之路。从源头上把好选人用人关，通过推行“两推一选”方式，从后备干部中“选”，从机关干部中“派”，从优秀回乡大中专毕业生、复员退伍军人和退休机关干部中“推”等多渠道选任村党组织书记，坚持把信念强、懂技术、会经营、作风正的能人党员选任为村党组织书记，配强班子。2016年村党支部换届后，新一届村“两委”正职中经济能人和致富带头人达到60%以上，涌现出了万井刚等带头致富的榜样，切实优化了班子结构，增强了整体合力。大力实施“递进培养”工程，努力把致富能手中的优秀分子培养成为党员，把勤劳致富的党员培养成为村干部，把勤劳致富的村干部培养成带领集体经济发展的模范。启动了“村党组织书记素质提升工程”，通过“1+X”（1个支部书记全员综合培训班；X个依据村书记自身特长、各村资源区位等实际举办的多个实地参观考察、专项技能小型培训班）的培训模式，采取“理论+实践”、“学习+考察”、“本地+外地”等教育培训方式，为村党组织书记“充电”，不断增强村党组织书记的综合素质和能力。6月1日，举办了全区村党支部书记培训班。9月11日至13日，组织全区135名村书记到兴城市参观学习“三带”典型，开阔了视野，丰富了发展思路，增强了“三带”能力。 二是坚持抓产业、促脱贫，走好带领村民致富之路。南票区把带领村民致富与精准扶贫紧密结合，享政策之先、举全区之力，积极探索符合山区实际、注重群众增收的富民之路。缸窑岭镇山咀村党支部书记郭庭合，在市场调研后发现养驴市场前景好、潜力大，便带领村“两委”班子发展养驴，利用扶贫资金购驴119头，预计到年底出售肉驴可获利5万元。沙锅屯乡后富隆山村党支部书记刘广兴多次到外地考察学习，转变“被动脱贫”观念，结合村情实际成立了后富母牛繁育基地，为增加村集体收入奠定了基础。目前全区已形成了以暖池塘葡萄种植项目和沙锅屯肉牛养殖项目为代表的“合作社+贫困户+打工”的入股分红模式，以缸窑岭镇5个村畜牧养殖为代表的集体养殖模式，以全区手工编织扶贫项目为代表的“培训+就业+创业”的订单式产业扶贫模式，以大兴乡土台子村地瓜粉厂和虹螺岘镇小寺村养殖基地为代表的“农业产业链”模式，已建成31个扶贫项目，实现产业脱贫4787人。 三是坚持明思路、抓示范，走好带动村集体经济之路。区委今年研究制定下发了《南票区2017-2020年发展壮大村级集体经济工作实施意见》，按照“突出重点，逐村会诊，一村一策，强力推进，逐个销号”的思路，各村党支部书记带领村“两委”班子因地制宜，积极探索，确定了种植养殖、农产品加工、光伏发电并网、矿石木材加工、资产资源租赁、观光旅游、工程服务等产业项目，奠定了发展村集体经济基础。大力实施“党建促脱贫示范引领工程”，在全区10个乡镇各打造出1个党建促脱贫攻坚示范引领样板工程，以农、工、商业项目建设为抓手，进行立项实施，通过样板工程建设，每个乡镇每年打造出2－3个有效的产业脱贫模式，同时至少有2个经济“空壳村”摘帽子，培育出一批主导产业更加突出、品牌优势更加明显、农村经济更具活力、农民生活更加富裕的集体经济强村。眼下，各村项目进展顺利，到年底可完成年度摘帽计划，到2020年底，可实现空壳村全部摘帽。 （翟新民）']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>47</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>南票把握三个坚持护航三带一路</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2017-09-29</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/npxw/201709/t20170930_760134.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['南票区按照围绕经济抓党建、抓好党建促经济的工作思路，积极寻找党建工作新载体，在全区农村大力实施“村书记带头致富、带领群众致富、带动村集体致富”工程，积极走好富民强村路，增强农村基层党组织的凝聚力和战斗力。', '一是坚持选对人、培养人，走好带头致富之路。从源头上把好选人用人关，通过推行“两推一选”方式，从后备干部中“选”，从机关干部中“派”，从优秀回乡大中专毕业生、复员退伍军和退休机关干部中“推”等多渠道选任村党组织书记，坚持把信念强、懂技术、会经营、作风正的能人党员选任为村党组织书记，配强班子。2016年村党支部换届后，新一届村“两委”正职中经济能人和致富带头人达到60%以上，涌现出了骆红军、万井刚等带头致富的榜样，切实优化了班子结构，增强了整体合力。大力实施“递进培养”工程，努力把致富能手中的优秀分子培养成为党员，把勤劳致富的党员培养成为村干部，把勤劳致富的村干部培养成带领集体经济发展的模范。启动了“村党组织书记素质提升工程”，通过“1+X”（1个支部书记全员综合培训班；X个依据村书记自身特长、各村资源区位等实际举办的多个实地参观考察、专项技能小型培训班）的培训模式，采取“理论+实践”、“学习+考察”、“本地+外地”等教育培训方式，为村党组织书记“充电”，不断增强村党组织书记的综合素质和能力。6月1日，举办了全区村党支部书记培训班，9月11-13日，组织全区135名村书记到兴城市参观学习“三带”典型，开阔了视野，丰富了发展思路，增强了“三带”能力。', '二是坚持抓产业、促脱贫，走好带领村民致富之路。南票区把带领村民致富与精准扶贫紧密结合，享政策之先、举全区之力，积极探索符合山区实际、注重群众增收的富民之路。缸窑岭镇山咀村支部书记郭庭合，在市场调研后发现养驴市场前景好、潜力大，便带领村“两委”班子发展养驴，利用扶贫资金购驴119头，预计到年底出售可获利5万元。沙锅屯乡后富隆山村书记刘广兴多次到外地考察学习，转变“被动脱贫”的观念，结合村情实际成立了后富母牛繁育基地，为增加村集体收入奠定了基础。目前全区已形成以暖池塘葡萄种植项目和沙锅屯肉牛养殖项目为代表的“合作社+贫困户+打工”的入股分红模式，以缸窑岭镇五个村畜牧养殖为代表的集体养殖模式，以全区手工编织扶贫项目为代表的“培训+就业+创业”的订单式产业扶贫模式，以大兴乡土台子村地瓜粉厂和虹螺岘镇小寺村养殖基地为代表的“农业产业链”模式，建成31个扶贫项目，实现产业脱贫4787人。', '三是坚持明思路、抓示范，走好发展村集体经济之路。区委研究制定下发《南票区2017-2020年发展壮大村级集体经济工作实施意见》，按照“突出重点，逐村会诊，一村一策，强力推进，逐个销号”的思路，各村党支部书记带领村“两委”班子因地制宜，积极探索，确定了种养殖、农产品加工、光伏发电并网、矿石木材加工、资产资源租赁、观光旅游、工程服务等产业项目，奠定了发展村集体经济基础。大力实施“党建促脱贫示范引领工程”，在全区10个乡镇各打造出1个党建促脱贫攻坚示范引领样板工程，以农、工、商业项目建设为抓手，进行立项实施，通过样板工程建设，每个乡镇每年打造出2－3个有效的产业脱贫模式，同时至少有2个经济“空壳村”摘帽子，培育出一批主导产业更加突出、品牌优势更加明显、农村经济更具活力、农民生活更加富裕的集体经济强村。目前，各村项目进展顺利，到年底可完成年度摘帽计划，到2020年底，可实现空壳村全部摘帽。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>47</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>全区招商引资表彰大会召开</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2017-09-06</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/zwyw/201709/t20170905_756283.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['8月30日上午，连山区召开招商引资表彰大会，进一步加强招商引资工作。区四个班子领导，扶贫开发区、打渔山园区、虹螺山管理局副县级干部，乡镇街道党政领导班子成员，区直部门班子成员等参加会议。会议由区委副书记、区长鲁秀红主持。会上宣读了《进一步加强全区招商引资工作的实施方案》、《关于对2017年招商引资引荐人奖励的决定》。', '年初以来，在区委、区政府的正确领导下，全区各级各部门以及社会各界人士，紧紧围绕全区经济社会发展大局，依托产业基础和区位优势，积极引进外来项目，不断提高招商引资实效，涌现出了一批招商项目引荐人。他们积极搜集招商线索，加强联络，先后引进了一批好项目、大项目，并成功落地开工建设，为全区经济社会发展做出了突出贡献。为兑现《连山区招商引资引荐人奖励暂行办法》，调动全社会招商引资积极性，经区委、区政府研究，决定对2017年符合招商引资引荐人奖励政策并已经开工建设项目的8名引荐人先期奖励5万元。后续奖励根据项目建设进展情况，按《连山区招商引资引荐人奖励暂行办法》执行。', '会议希望受奖励的引荐人再接再厉，继续发挥模范带头作用，为扩大对外开放、推动全区县域经济发展奋发努力，再立新功。全区各级、各部门、各企业以及全体干部群众，要以舍我其谁的主人翁精神，紧扣“解放思想、改革开放、实干兴区”的主题，大力营造“全区抓项目、全民抓项目、全力以赴抓项目”的浓厚氛围，用实际行动向受奖励的引荐人学习，立足实际，抓住京津冀产业转移的机遇，千方百计招商引商、招大引强，再掀全区招商引资工作新热潮，为建设“开放、创新、宜居、繁荣”的新连山作出更大贡献。', '区委书记王忠平说，招商引资工作是区委区政府工作的重中之重。上半年，全区上下把招商引资工作作为推进连山振兴发展的重大举措，共引进省域外资金实际到位7.25亿元，达到去年同期的2.6倍。一般公共预算收入实现12.2亿元，同比增长23%。这就充分证明了抓项目建设、抓招商引资是促进经济发展的正确选择。全区上下要增强责任感和使命感，抓住当前最好的招商引资时期，统一思想、全员参与，理清思路、创新方法，对照前段时间到铁岭县考察学习招商引资为契机，以时不我待、只争朝夕的精神全面安排部署好下半年的招商引资工作。', '要拓宽思路、创新方法，进一步加大招商引资力度。招商引资既是全区经济社会发展的强大动力，也是拓展新的发展空间的迫切需要，是提升连山知名度和影响力的有效途径，也是转变观念、锻炼干部队伍的重要平台。全区要充分发挥每名党员干部的积极性、主动性和创造性，发扬想尽千方百计、说遍千言万语、走遍千山万水、吃尽千辛万苦的锲而不舍精神，通过各种办法，寻找、挖掘与省内外、国内外的一切关系，共创招商大业。要强化“首位”意识，要从战略和全局的高度，充分认识到招商引资工作的极端重要性和紧迫性；要强化“参与”意识，形成招商引资、人人有责，全民大招商的新局面；要强化“争先”意识，区委、区政府在今后的工作中，将以全体党政领导、机关干部招商引资成果排座次，以经济发展实绩论英雄，真正形成“招商者优先”的用人导向，健全考核奖惩机制，要把抓不抓招商引资和招商引资抓的怎么样，作为衡量“一把手”领导能力、发展本领的“试金石”，用考核奖惩机制催生压力、激发活力，树立干事创业的导向。在招商引资项目中，农业上要以设施农业为主，工业以临港产业为主。此外，物流产业、加工制造、旅游文化、健康养老都可以作为招商引资项目进行考察对接。', '要适应新的发展形势，不断改进工作方法，创新招商引资方式。要突出飞地招商，对落户异地的招商引资企业税收进行分劈，互惠互利、资源共享，从根本上解决各乡镇之间区位、资源不平衡的问题，实现招商引资全区一盘棋；要倡导以商引商，认真对待每一户外来投资企业，及时帮助落户企业解决实际问题，为企业成长、发展提供良好的服务，让投资者自觉引资、扩资、增资，形成“引进一个、建好一个、带来一批”的联动效应；要坚持外出招商，采取组团式招商、驻点招商、小分队招商等形式，一年四季招商不止、引资不断，形成千方百计招项目、千山万水引资金的局面；要突出招商实效，力求抓实每一个招商环节，保证外来资金和项目引得进、留得住、养得大。', '在做好招商引资工作的同时，全区上下一定要进一步打造营商文化，重信守诺、尊商护商，在文化建设上要持续发力，让孝道文化成为最好的软环境，不断改进工作作风，扩大“双随机一公开”工作成效，切实做到服务客商零距离，推动全区招商引资工作再上新台阶，为全区经济社会的健康稳定发展作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>47</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>组织部组织村书记赴兴城学习</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2017-09-11</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/szxw/202004/t20200425_939984.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['按照中央和省、市委关于抓党建促脱贫攻坚的部署要求，9月7日，县委组织部组织明水、秋子沟、加碑岩、永安堡四个乡镇的村党支部书记共40余人前往兴城市，考察学习“三带”典型党建工作。', '与会人员先后参观了兴城市东辛庄镇张虎村养鸡专业合作社、刘台子乡前刘村蓝渤生态农业科技有限公司、曹庄镇后湖村党支部、兴城市众帮制衣有限公司等处，每到一处，大家认真听取讲解、观看展板，详细了解兴城市“三带”典型党建工作方面的经验、做法，认真学习和借鉴，进一步开拓了视野，打开了工作思路。“这次县委组织部带领我们村书记来兴城参观学习，我深受启发，我们村也建了个采摘园，但规模非常小，到兴城参观学习后，我开阔了眼界，像‘企业+合作社+农户’的这种模式，值得我们学习，我要把这种好的经验和模式带回去，带领村民脱贫致富。”永安堡乡北河村党支部书记孙国华对记者说。', '此次考察学习，使与会人员受益匪浅，大家纷纷表示，要把兴城党建工作好的做法和经验带回去，并结合实际，进一步创新党建工作方式方法，探索抓党建促脱贫攻坚的新路子，推动基层党建和脱贫攻坚工作取得更大的成效。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>47</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>我市多措并举确保城市公立医院综合改革顺利实施</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2017-08-28</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://wsjk.hld.gov.cn/xwzx/gzdt/201708/t20170828_754229.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['8月26日，伴随着零时钟声，我市城市公立医院综合改革正式启动实施。半年来，我市抓住关键环节，周密安排部署，多措并举，确保城市公立医院改革稳步顺利实施。', '月26日，伴随着零时钟声，我市城市公立医院综合改革正式启动实施。半年来，我市抓住关键环节，周密安排部署，多措并举，确保城市公立医院改革稳步顺利实施。', '抓好改革方案制定。我市全面贯彻落实国家和省级党委、政府关于公立医院综合改革的政策要求，在深入调研、精心测算、充分协商、科学论证的基础上，以目标和问题双导向，制订任务明确、路线清晰、措施有力、分工具体的实施方案，确保公立医院综合改革平稳有序推进。3月份着手起草《葫芦岛市城市公立医院综合改革实施方案》，4月份《方案》征求意见稿形成，5—6月份经过两轮征求意见，并经市医改领导小组严格审核把关，确保改革举措指向明确、实用管用、解决问题。', '。我市全面贯彻落实国家和省级党委、政府关于公立医院综合改革的政策要求，在深入调研、精心测算、充分协商、科学论证的基础上，以目标和问题双导向，制订任务明确、路线清晰、措施有力、分工具体的实施方案，确保公立医院综合改革平稳有序推进。3月份着手起草《葫芦岛市城市公立医院综合改革实施方案》，4月份《方案》征求意见稿形成，5—6月份经过两轮征求意见，并经市医改领导小组严格审核把关，确保改革举措指向明确、实用管用、解决问题。', '建立强有力的领导体制和医疗、医保、医药三医联动机制。参照《中共辽宁省委办公厅、辽宁省人民政府办公厅印发关于持续推进深化医药卫生体制改革的实施意见的通知》和《辽宁省人民政府办公厅关于调整辽宁省深化医药卫生体制改革领导小组组成人员的通知》精神，我市于5月21日对市深化医药卫生体制改革领导小组组成单位和人员进行了调整，由市政府市长任领导小组组长。', '参照《中共辽宁省委办公厅、辽宁省人民政府办公厅印发关于持续推进深化医药卫生体制改革的实施意见的通知》和《辽宁省人民政府办公厅关于调整辽宁省深化医药卫生体制改革领导小组组成人员的通知》精神，我市于5月21日对市深化医药卫生体制改革领导小组组成单位和人员进行了调整，由市政府市长任领导小组组长。', '学习他地经验。4月16日至20日，我市组织各县（市）区政府主管县（市）区长、卫生计生局局长及县（市）区级医院院长，市医改领导小组部分成员单位（物价、财政局、人社局）到安徽省滁州天长市和深圳市罗湖区考察学习医改相关工作。5月17日组织市发改委（物价局）、市人社局、市财政局等单位负责人和市中心医院院长到鞍山市学习医改工作经验。', '开展价格测算工作。5月4日启动价格测算工作，组织市发改委（物价局）、财政局、人社局、卫生计生委对参加改革的10家机构进行价格测算工作安排和布置。6月5日开展价格测算数据审核工作，组织市发改委（物价局）、财政局、人社局、卫生计生委对参加改革的10家机构测算数据审核，确认价格调整和补偿等相关数据。6月10日起，对参加改革的10家机构调整项目价格进行精细测算。6月30日起按照省调整项目标准对10家机构进行多次精细测算。8月26日零时，新价格正式启用，标志着我市医改顺利启动。', '月4日启动价格测算工作，组织市发改委（物价局）、财政局、人社局、卫生计生委对参加改革的10家机构进行价格测算工作安排和布置。6月5日开展价格测算数据审核工作，组织市发改委（物价局）、财政局、人社局、卫生计生委对参加改革的10家机构测算数据审核，确认价格调整和补偿等相关数据。6月10日起，对参加改革的10家机构调整项目价格进行精细测算。6月30日起按照省调整项目标准对10家机构进行多次精细测算。8月26日零时，新价格正式启用，标志着我市医改顺利启动。', '开展医疗费用监测。按照辽宁省《关于建立健全公立医院医疗费用重点指标监测和发布制度的通知》，对全市二级以上公立医院医疗费用重点指标进行监测。建立医改任务台账，并分解成市级指标台账，并按时完成省医改台账上报工作任务。', '。按照辽宁省《关于建立健全公立医院医疗费用重点指标监测和发布制度的通知》，对全市二级以上公立医院医疗费用重点指标进行监测。建立医改任务台账，并分解成市级指标台账，并按时完成省医改台账上报工作任务。', '开展全员培训。5月18日，对全市所有参加改革的城市公立医院院长、主管院长、医改科室负责人就医改政策进行市级培训。6月1-2日组织参加改革的公立医院院长参加国家在福建省三明市举办的全国公立医院综合改革培训班。6月9日，借举办葫芦岛市首届院长研讨会之机，请省卫生计生委体改处计立群处长作医改政策专题讲座，完成了对政府、卫生计生行政部门的培训。6月30日邀请上级主管部门对我市宣传和医改工作进行专题讲座，完成对全市卫生计生宣传工作人员的医改政策培训。6月30日前各参加改革机构分别完成了本院职工的全员培训工作。进入8月份，各参加改革机构对院内重点科室、重点部门工作人员进行强化培训，确保熟知改革政策，能够对来院就诊患者进行正确引导和讲解，让广大人民群众接受改革、支持改革。', '。5月18日，对全市所有参加改革的城市公立医院院长、主管院长、医改科室负责人就医改政策进行市级培训。6月1-2日组织参加改革的公立医院院长参加国家在福建省三明市举办的全国公立医院综合改革培训班。6月9日，借举办葫芦岛市首届院长研讨会之机，请省卫生计生委体改处计立群处长作医改政策专题讲座，完成了对政府、卫生计生行政部门的培训。6月30日邀请上级主管部门对我市宣传和医改工作进行专题讲座，完成对全市卫生计生宣传工作人员的医改政策培训。6月30日前各参加改革机构分别完成了本院职工的全员培训工作。进入8月份，各参加改革机构对院内重点科室、重点部门工作人员进行强化培训，确保熟知改革政策，能够对来院就诊患者进行正确引导和讲解，让广大人民群众接受改革、支持改革。', '做好宣传工作。8月份，城市公立医院综合改革进入政策宣传发动阶段。市医改办会同市卫生计生委、市发改委、市人社局等相关部门于8月22日录播葫芦岛电视台“舆情聚焦”节目，介绍我市城市公立医院综合改革政策。8月23日，召开了“葫芦岛市城市公立医院综合改革政策”新闻发布会，向社会公布我市城市公立医院综合改革政策，同时市医改办录播市政府政务公开访谈栏目，回答广大网友朋友们对我市城市公立医院综合改革关注的问题。从8月20日起，葫芦岛新闻网、葫芦岛日报、晚报、葫芦岛市卫生计生委网站都开始对我市城市公立医院综合改革政策进行宣传报道，葫芦岛电视台连续播放“城市公立医院综合改革”启动时间和参加改革机构名单字幕，让广大人民群众都了解改革政策，正确认识改革、理解改革、参与改革，营造我市良好的改革氛围。', '。8月份，城市公立医院综合改革进入政策宣传发动阶段。市医改办会同市卫生计生委、市发改委、市人社局等相关部门于8月22日录播葫芦岛电视台“舆情聚焦”节目，介绍我市城市公立医院综合改革政策。8月23日，召开了“葫芦岛市城市公立医院综合改革政策”新闻发布会，向社会公布我市城市公立医院综合改革政策，同时市医改办录播市政府政务公开访谈栏目，回答广大网友朋友们对我市城市公立医院综合改革关注的问题。从8月20日起，葫芦岛新闻网、葫芦岛日报、晚报、葫芦岛市卫生计生委网站都开始对我市城市公立医院综合改革政策进行宣传报道，葫芦岛电视台连续播放“城市公立医院综合改革”启动时间和参加改革机构名单字幕，让广大人民群众都了解改革政策，正确认识改革、理解改革、参与改革，营造我市良好的改革氛围。', '对参加改革机构准备工作情况进行督导。8月23-24日，市政府主管副市长朱云带队，市卫生计生委、市发改委、市人社局、市财政局等相关部门参加，对我市参加改革的10家公立医院改革准备情况逐一进行了督导，对参加改革机构准备工作给予肯定，提升了机构参加改革的信心。同时也对督导中发现的问题及时提出，督促机构立即整改，确保改革顺利实施。', '。8月23-24日，市政府主管副市长朱云带队，市卫生计生委、市发改委、市人社局、市财政局等相关部门参加，对我市参加改革的10家公立医院改革准备情况逐一进行了督导，对参加改革机构准备工作给予肯定，提升了机构参加改革的信心。同时也对督导中发现的问题及时提出，督促机构立即整改，确保改革顺利实施。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>47</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>扶贫办组织乡镇赴朝阳考察学习</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2017-09-04</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/bmdt/202004/t20200425_942738.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['本报讯 为进一步学习借鉴外地在精准扶贫工作方面的成功经验，加快寻找扶贫攻坚的突破口，提升全县脱贫攻坚工作水平，日前,县扶贫办组织24个乡镇的扶贫工作人员赴朝阳考察学习精准扶贫工作。', '县扶贫办一行先后到北票市精准扶贫信息交流管理中心、君华种植合作社、北票市大三家镇塘坊村、北票市蒙古营镇等处进行参观学习，大家边听、边看、边思、边议，结合自身工作实际，逐一对照、发掘亮点、查找不足，认为朝阳精准扶贫工作模式好、思路新、力度大、势头猛，工作有特色、成效好，创造出了许多可复制、能推广的经验和做法。主要经验和做法有以下几个方面：', '一是数据精准，实施脱贫攻坚好方略。北票精准扶贫信息交流管理中心以展现扶贫业务为主线，通过使命、担当、精准、发力、支撑、圆梦等六个展区进行展示，体现了朝阳市的精准扶贫工作上下贯通、层次分明、责任清晣的扶贫工作体系，形成了“上级统筹、乡镇推进、村组落实、全民参与”的工作格局。', '二是因地制宜，选准脱贫攻坚好项目。君华种植合作社以“4+4+2”的模式，即合作社和村集体分别占纯收益的40%，剩余的20%为建档立卡贫困户的收益。发展特色产业，以种植香瓜、板蓝根等作物作为精准扶贫的核心支撑和首选路径，将近期脱贫与长远致富相结合，实现“长短结合、互补共促”，增强内生动力，确保贫困户脱贫有依托、可持续、不反弹。', '三是摸清底数，实现档案精准分放有序。蒙古营镇归档的贫困户档案，以户为单位，每份档案都有明确的目录及相关明细，并在档案盒外面清晰印着每个档案的编号，明确了每一户、每一人的信息，使脱贫攻坚档案工作真正做到精准到位，有序管理。', '在这次学习中，县扶贫办人员虚心取经问道，细心观察思考，既学习了朝阳市扶贫工作先进经验，开阔了眼界、启迪了思维，看到了自己的差距不足，同时也对全县实现整体脱贫充满了信心。通过学习朝阳市精准扶贫的成功经验，得到了以下几点启示：摸清底数、精准识别，是抓好精准扶贫的可靠基础；拿好意见、定好方案，是抓好精准扶贫的前提条件；发展产业、增加收入，是抓好精准扶贫的关键所在；金融撬动、完善服务，是抓好精准扶贫的重要内容；整合力量、形成合力，是抓好精准扶贫的力量源泉；加强督考，兑现奖罚，是抓好精准扶贫的有力保障。大家纷纷表示，回去后要进一步借鉴好的经验和做法，创新工作思路，创新方式方法，扎实做好精准扶贫、精准脱贫工作，充分发挥作用，助力打赢脱贫攻坚战。（金雪娇）']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>47</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>医改首日新政运行平稳医院秩序井然</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2017-08-28</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/zwgk/fdzdgknr/zdmsxx/ylws/201708/t20170828_754075.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['8月26日，是我市城市公立医院改革启动实施的第一天。医改新政是否顺利实施?医改新政给医院和患者带来了哪些变化?患者如何评价……记者就此到参加此次改革的日常门诊量最大的市中心医院进行了实地采访。', '为了确保8月26日零时启动医改万无一失，在25日当晚，市中心医院相关负责人和相关各科室的工作人员整晚加班，坚守各自岗位，为医改新政策的启动做好准备。25日23时，医院信息管理系统暂停，全院进入手工应急方式，同时医院开始将此前在测试库中完成的医改新价格表导入生产库，23时17分导入完成。26日零时，随着新的药品价表和医疗服务价表开始使用，市中心医院医改工作正式启动，全面实施药品零差率销售，取消药品加成，调整医疗服务价格，与全市医改工作实现“同频同振”。市中心医院常务副院长、院医改办主任申奥告诉记者，为确保医改顺利实施，市中心医院强化组织领导，成立了院深化医改领导小组和17个院深化医改工作组，强调分工落实，组织考察学习医改试点医院的医改先进经验，做好培训工作，按时间节点扎实推进医改工作，全力以赴确保26日零时启动医改工作万无一失。', '26日6时，药剂科的工作人员全部到岗，做好药品供应工作;7时30分，门诊所有收费窗口提前开放。当日，医院各项医疗工作有序进行，各大信息系统平稳运行，患者如约就医。', '在市中心医院连山院区二楼取药窗口前，李先生拿着刚从窗口取来的10盒“消栓肠溶胶囊”笑着对记者说：“医院的药品确实便宜了，我父亲患有静脉血栓两年了，一直吃这药，每隔一段时间我就来买一次，原来这药每盒56.6元，现在每盒49.2元，我这一次就省了74元钱。取消药品加成，对老百姓来说实惠多多，我点赞。”', '取消药品加成， 实施药品零差率销售(中药饮片除外)，是此次城市公立医院综合改革的一个标志性动作，这也是让广大市民格外关注此次医改的一个重要方面。市中心医院药剂科科长张静对记者说，26日一大早，市中心医院连山院区药局就接到一位慢性病患者的咨询电话，问是否药真的便宜了，当听说他常吃的那种药便宜了不少时，患者连连称赞。据张静介绍，此次医改，市中心医院的近千种药物进行调价，全部取消药品加成(中药饮片除外)，其中心脑血管用药、抗肿瘤药、抗生素类药降价幅度较大。比如降血脂常用药立普妥(产地辉瑞)原药价75.90元，调价后为55.5元;降血压常用药络活喜(产地辉瑞)，原药价38.1元，调价后为29.88元;降血压常用药厄贝沙坦片(产地恒瑞)，原药价19.78元，调价后7.00元;抗肿瘤用药卡培他滨片(产地正大天晴)，原价248.7元，调价后98.99元等。对于慢性病患者，此次医改药品降价给他们带来的实惠感受会更深。', '让患者实实在在感受到医改的实惠，不仅仅是药价的降低。此次公立医院综合改革中，还降低了大型医用设备检查治疗以及检验项目的价格。比如医改前拍一个身体部位的CT和核磁共振分别需要330元和990元，调价后分别下降至290元和770元。市中心医院不仅对26日收费的CT和核磁共振检查按调价后收费，而且对于26日之前已交费但在26日当天进行的CT和核磁共振检查也按调价后的价格收取费用。当日在市中心医院连山院区进行核磁共振检查的患者闫先生就享受到了实实在在的优惠。', '当日下午， 在市中心医院连山院区二楼，刘女士正在等待血检和尿检结果。她告诉记者，因为听说医改检验费会降低，特意等到医改当日来的。血检和尿检的检验费确实照以前便宜了。上次做血常规检查27.5元，今天降为25.3元;尿检也由27.5元降为25.3元。', '在此次城市公立医院综合改革中，为体现医务人员技术劳务价值，在保证公立医院良性运行、医保基金可承受、群众整体负担不增加的前提下，提升了体现医务人员技术劳务价值的医疗服务项目价格，主要提高了诊查、护理、中医、手术、康复等服务项目的价格。比如取消挂号费，普通诊查费提高到8元。群众对此是否接受?记者当日在门诊大厅注意到，前来就医的群众对于诊查费上调一事都能够接受，就诊秩序一切如常。前来就医的高桥中学教师刘先生对记者说：“我能理解，医生看病挺辛苦的，而且都是技术活，一般人干不了。再者药品取消加成，医院也要运营，不提高医疗服务费用，医院靠什么维持运转?取消药品收入，让医生专注在医疗质量上，这是应该的。” 很多医护人员也表达了同样的观点，认为：提高医务人员的劳动价值和技术价值，感到了被尊重、被认可。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>47</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>区考察团赴铁岭县考察招商引资工作</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2017-08-22</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/zwyw/201708/t20170822_753085.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区招商引资经验，促进连山区招商引资工作更好更快发展，8月14日，区委书记王忠平带领区部分副县级领导干部和各乡镇、街道、部委办局主要负责人共计40余人组成考察团，利用一天时间赶赴铁岭市铁岭县考察学习招商引资工作。', '考察团一行先后来到铁岭县中利光电新材料有限公司、长飞光纤光缆沈阳有限公司、辽宁圣加伦控制系统有限公司参观考察，听取企业负责人汇报，查看企业建设规模。在参观学习中，大家详细了解企业生产、科技创新、产业融合发展等情况，各企业负责人还分别就招商引资发展方向及有效做法、公司为何选择落户铁岭县为题，分享了招商引资的经验和心得。', '20多年来，铁岭县始终把招商引资上项目作为经济发展的总抓手，全民招商氛围浓厚，以园区建设为载体，形成了汽车零部件、通信材料、新型建材、装备制造、静脉环保、农产品加工六大产业集群。“十二五”期间，全县累计引入域外投资项目459个，其中包含27家世界500强、中国500强和行业领军企业。2016年，全县引进项目96个，其中亿元以上项目28个，上市公司7家。今年以来，全县已签约项目55个，其中亿元以上项目21个，开复工项目61个，竣工项目21个，招商引资和项目建设实现了时间任务“双过半”。', '座谈中，铁岭县工业园区管委会主任王大民介绍了园区招商引资工作好的经验和做法。铁岭县委书记李长涛就全县招商引资总体工作，招商策略、意识、格局，招商队伍建设情况作了具体介绍。', '区委书记王忠平说，兄弟县区招商引资的理念、思路和做法让大家受益匪浅。铁岭县精准定位产业方向，推动产业集群集聚发展，大手笔推进项目建设的发展思路、举措和成效给考察团留下了深刻的印象，全县招商引资一盘棋的思路更值得连山人民见贤思齐。王忠平希望大家通过考察学习，吸取兄弟县区的成功做法和宝贵经验，结合实际补短板，认真思考谋划，将学习考察的压力转化为推动发展的动力，促进全区招商引资工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>47</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>谋发展铺就致富路贫困村增收喜脱贫</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2017-08-17</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/npxw/201708/t20170831_755536.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['沙锅屯乡后富隆山村是个城乡混居的区域，全村总户数376户，其中农业户300户，非农业户76户，总人口1070人，党员33人，土地1390亩，荒山1570亩。建档立卡贫困人口128户188人，就是这样一个人均耕地面积不足一亩，村集体经济底子较薄弱的贫困村，在村党支部的带领下，集思广益、共谋发展，因地制宜走出了一条致富路。', '受自然条件限制，后富隆山村发展生产受阻。村“两委”于2016年5月召开3次群众代表大会进行集体研究，8月、9月由乡村两级党组织带领村党员参与，经过多次到通辽、赤峰、建昌、朝阳、北票等地考察学习，切身感受发达地区勤劳致富的先进经验，转变“被动脱贫”的观念，建立勇于尝试的心态。最终结合村情实际确定发展养牛项目，成立了后富母牛繁育基地。', '在驻村工作队辽宁省冶金地质勘查局的帮扶下，2016年10月初开始建厂，11月初完成基地建设，初步投资10万元，可饲养繁育母牛50头。11月份投资16万元购置母牛21头，由村集体经营，饲养方式采取圈养加放养的模式，平时以圈养方式为主，秋冬季节以放养为主，由专人把牛放到山坡及大地里放养，即节约了饲料，又能让牛适当的运动，确保牛健康成长。母牛繁育基地，现由2名专职人员看管，定期有4人给牛做防疫，目前母牛长势健壮，原购入的7头幼牛现已长成成牛，而且2017年1月迎来了第一头小牛诞生，随后又喜添六头小牛，现7头小牛长势非常好，为该村增加村集体收入奠定过了基础。同时坚持一业为主，多业并举，把传统产业做优，优势产业做大，把村里的荒山利用起来，发展榛子会项目，拓宽致富途径。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>47</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>赴北票兴城考察扶贫工作</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2017-08-21</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/szxw/202004/t20200425_939947.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['8月15日，县委副书记刘洪林、副县长庄巍带领相关部门、乡镇负责人赴北票、兴城等地考察学习精准扶贫项目。', '刘洪林一行先后来到北票市精准扶贫信息管理交流中心、北票市台吉镇442生态产业扶贫项目、大三家塘坊村驻村工作队帮扶产业和兴城市碱厂乡泳装扶贫项目等处，通过实地查看、听取汇报、翻阅资料等形式，详细了解当地精准扶贫、产业发展等工作开展情况。', '刘洪林说，北票市和兴城市的精准扶贫工作领导重视，措施得力，扶贫开发力度大，真正把扶贫资金和项目用在了刀刃上、用到了群众身上，很多做法对我们的启发很大，值得我们学习和借鉴。回去后，要进一步提高对扶贫工作重视程度，仔细梳理学习考察的内容，结合全县工作实际，理清工作思路，明确目标任务，加快推进扶贫攻坚进程。要把扶贫工作与日常工作相结合，进一步创新思路，打造亮点，扎实做好各项脱贫攻坚工作，坚决打赢脱贫攻坚战，确保全县贫困人口如期脱贫。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>47</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>绥中考察团赴北京平谷区考察果业发展</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2017-06-27</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/szxw/202004/t20200425_939860.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['6月19日，县委副书记蔡波、副县长朱生文带领相关部门和24个乡镇的负责人及前所果树农场、大台山果树农场果业专家一行40余人，赴北京市平谷区就果业发展与现代果业种植进行考察学习。', '“这里海拔多少，水是怎么抽上来的，用多大蓄水池？”在平谷区熊儿寨镇东晓新月农场，蔡波一行与平谷区果业办的负责人就农场的引水上山、节水灌溉、果树灌溉等方面进行交流，并重点就果树采用微喷灌溉方法，解决果树所需水源问题，最大限度降低气象因素对果业生产的影响进行了深入探讨。', '在平谷区大华山镇挂甲峪山庄，蔡波一行观看了该村新农村建设视频，参观了农家院和村党支部，听取了村党支部负责人对挂甲峪山庄总体情况的介绍。挂甲峪山庄面积约5平方公里。全村146户，约500口人，三面环山。多年来，该村充分抓住政府实行“富民政策”的好时机，从山区农村实际出发，实施了“十上山”工程，即道路修上山，水利蓄上山，优质大桃栽上山，再生能源用上山，科技文化跟上山、电信网络布上山、文体项目建上山、有机果品推上山、旅游客人游上山、生态别墅建上山的惠民工程，极大地改善了全村贫穷落后面貌，成为社会主义新农村建设的典范，也成为了京东闻名的绿色环保“季节小江南”，并受到党和国家领导人的多次视察和肯定。', '在平谷区大华山镇丛海逸园休闲娱乐园，蔡波一行还参观了温室大棚，认真听取了当地有机果业的发展介绍，并对当地有机果业种植技术进行学习。随后，大家在娱乐园办公楼会议室进行座谈，听取了北京桃园智能化远程控制节水灌溉技术集成与示范项目介绍。', '蔡波说，此次到平谷区参观考察，主要是学习果业和现代果业种植、节水灌溉和抗旱自救等方面内容。大家一定要认真学习借鉴好经验、好做法，进一步转变观念，开拓思路，做好果业发展和果树管理等工作，更好地促进果业增效、果农增收。回去后大家要认真落实，对照先进找差距，立足本地实际，把好的经验和做法运用到各自工作中。', '蔡波要求，各乡镇、相关部门要提出计划、拿出办法，下一步怎么抓、怎么干，要形成材料报到县委办。水利部门要牵头研究出台应对旱情的措施和办法，拿出意见，拿出解决办法，制定绥中县的实施细则。县委督查室要做好跟踪督查，对落实工作不力、存在问题的乡镇、部门，对消极懈怠的同志，要严肃追责。', '朱生文说，此次考察平谷区引水上山、滴水灌溉、密植果树等项目，给我们很好的启示。回去后，大家要认真研究，因地制宜，结合“五个围绕”，把当地特色做成精品，把设施农业做起来，把新农村建设搞起来，把新农村建设和旅游开发结合起来，把休闲农业做好，不断做大做强设施农业和现代农业，加快推动全县农业和新农村建设取得新成效。', '市水利局、市果蚕局技术专家参加了考察，并对绥中水利设施建设、果业发展提出了好的意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>47</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>孙轶来兴调研农业抗旱工作</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2017-06-22</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/zwyw/201706/t20170622_738167.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['特约记者李明睿报道 6月17日上午，葫芦岛市委书记孙轶率领相关部门负责同志来到兴城市，就做好农业抗旱相关工作进行专题调研。葫芦岛市委常委、秘书长、市总工会主席张海平陪同调研。', '孙轶一行先后来到红崖子镇新齐村、碱厂乡碱厂村、徐大堡镇海滨村和李金村实地查看了农业抗旱救灾情况。在红崖子镇新齐村，孙轶走进田间地头查看花生出苗情况，同当地有关负责同志共同研究抗旱措施。孙轶指出，各级有关部门要密切关注天气情况，科学研判旱情发展趋势，有针对性地做出安排部署，要借助旱情调整农业种植结构，加快土地流转，发展高效农业、设施农业、节水农业。农技部门要到旱作农业发达地区，考察学习先进农业抗旱技术，并推广在我市推广应用，实现农业减产不减收。', '在碱厂乡碱厂村，孙轶来到该村的村办泳装厂加工车间，了解应对旱情农村劳动力自救增收情况。孙轶指出，面对旱情，广大乡村可以依靠产业结构调整，加快培育农村新型经营主体和服务主体，积极开展招商引资，解决农村劳动力就业问题。', '在位于徐大堡镇海滨村的芦笋种植示范园内，孙轶同示范园负责人了解土地灌溉情况。孙轶指出，拉水浇灌模式费用高、水资源有效利用率低，要采用节水滴灌技术，实施节水管道设施建设，可有效缓解旱情、节约种植成本。在徐大堡镇李金村喜地种植专业合作社，孙轶查看了农业产业调整发展情况，并建议合作社增加种植四季花卉，增加农业观光项目。', '调研中，孙轶强调，在全力做好抗旱播种、人畜饮水安全等工作的同时，要进一步通过典型示范，教育引导农民改变传统观念，主动调整种植结构，大力发展节水设施农业，切实改变雨养农业现状。要加大农业高效节水项目建设投入力度，为抗旱救灾提供水利保障。要结合脱贫攻坚工作，加强农业技术指导，帮助贫困户解决实际困难。要立足长远、重在治本，大力推进农业供给侧结构性改革，大力发展农产品深加工产业，不断提升农业综合生产能力。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>47</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>市政协召开五届十五次主席会议</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2017-06-20</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/xwdt/zwyw/201706/t20170620_737993.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['记者徐永恒报道 6月19日，市政协召开五届十五次主席会议。市政协主席郑宏伟主持会议并讲话。 会议审议《关于我市海岸带保护与开发利用情况的调研报告》（征求意见稿），审议通过《政协葫芦岛市委员会关于进一步发挥政协界别作用的意见》，审议《中国人民政治协商会议葫芦岛市第五届委员会任免名单》（草案），听取市政协五届十四次常委会议筹备情况的汇报。 郑宏伟在讲话中指出，年初以来，市政协围绕“海岸带保护与开发利用”课题，成立5个专题调研组，深入开展调研、听取政府部门工作介绍，充分吸纳社会各界及专家学者意见，并到外地考察学习，形成了1份综合调研报告和21篇分课题调研报告。这些建言成果，既是市政协围绕中心、服务大局的重要体现，也是广大委员履职尽责、有效作为的责任担当。 郑宏伟强调，葫芦岛因海而生、依海而兴，优势在海、特色在海、发展潜力也在海。保护好、开发好、利用好海岸带资源，是彰显我市城市特色的现实需要、是我市践行“五大发展理念”的重要抓手、是落实国家和省、市政府相关决策部署的具体行动，既关系到我市当前的改革发展大局，也关系到我市今后接续发展的千秋大业。市委、市政府高度重视海岸带保护与开发利用工作，出台了一系列制度，采取了一系列措施，当前要下大气力推进国家和省、市关于海岸带保护与开发利用的政策、部署落地生效，努力把我市海岸带打造成强市富民的产业带、绿色环保的生态带、近海亲水的旅游带、美丽宜居的城市带。 郑宏伟要求，离本届政协收官还有不到6个月的时间，要倍加珍惜宝贵时间，倍加珍惜委员荣誉，全力做好收官之年的各项工作。特别是要把做好收官之年的各项工作与落实习近平总书记的“四个着力”、“三个推进”的要求部署结合起来，与全面推进“两学一做”学习教育常态化制度化结合起来，始终做到心系国事、情牵民生、德润人心，以更加优异的履职业绩向党和人民交上一份满意的政协答卷！ 市政协党组副书记、常务副主席夏雨恩，市政协党组副书记、副主席毕荣昌，市政协副主席刘德兴、静大成，市政协秘书长那军出席会议。', '记者徐永恒报道 6月19日，市政协召开五届十五次主席会议。市政协主席郑宏伟主持会议并讲话。', '会议审议《关于我市海岸带保护与开发利用情况的调研报告》（征求意见稿），审议通过《政协葫芦岛市委员会关于进一步发挥政协界别作用的意见》，审议《中国人民政治协商会议葫芦岛市第五届委员会任免名单》（草案），听取市政协五届十四次常委会议筹备情况的汇报。', '郑宏伟在讲话中指出，年初以来，市政协围绕“海岸带保护与开发利用”课题，成立5个专题调研组，深入开展调研、听取政府部门工作介绍，充分吸纳社会各界及专家学者意见，并到外地考察学习，形成了1份综合调研报告和21篇分课题调研报告。这些建言成果，既是市政协围绕中心、服务大局的重要体现，也是广大委员履职尽责、有效作为的责任担当。', '郑宏伟强调，葫芦岛因海而生、依海而兴，优势在海、特色在海、发展潜力也在海。保护好、开发好、利用好海岸带资源，是彰显我市城市特色的现实需要、是我市践行“五大发展理念”的重要抓手、是落实国家和省、市政府相关决策部署的具体行动，既关系到我市当前的改革发展大局，也关系到我市今后接续发展的千秋大业。市委、市政府高度重视海岸带保护与开发利用工作，出台了一系列制度，采取了一系列措施，当前要下大气力推进国家和省、市关于海岸带保护与开发利用的政策、部署落地生效，努力把我市海岸带打造成强市富民的产业带、绿色环保的生态带、近海亲水的旅游带、美丽宜居的城市带。', '郑宏伟要求，离本届政协收官还有不到6个月的时间，要倍加珍惜宝贵时间，倍加珍惜委员荣誉，全力做好收官之年的各项工作。特别是要把做好收官之年的各项工作与落实习近平总书记的“四个着力”、“三个推进”的要求部署结合起来，与全面推进“两学一做”学习教育常态化制度化结合起来，始终做到心系国事、情牵民生、德润人心，以更加优异的履职业绩向党和人民交上一份满意的政协答卷！', '市政协党组副书记、常务副主席夏雨恩，市政协党组副书记、副主席毕荣昌，市政协副主席刘德兴、静大成，市政协秘书长那军出席会议。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>47</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>葫芦岛市建昌县供销社赴盘锦和山东考察学习</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2017-05-18</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xczx/202005/t20200529_969723.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['近日，葫芦岛市建昌县供销社在党委书记、理事会主任董成广带领下，一行4人赴盘锦市供销社、山东省威海市供销社进行考察学习。重点围绕供销社电子商务、基层社改造、连锁经营网络建设、为农服务中心、土地流转与托管等内容进行学习。考察组实地考察了盘锦市供销社电子商务有限公司、金社裕农乡村百货超市石庙子店、山东威海市荣成市涯西镇供销社为农服务中心、临港区供销社先进经验和做法。实地考察结束后，又分别与大洼县供销社、威海市供销社、荣城市供销社、临港社供销社有关同志进行了交流座谈。通过此次考察学习，考察组成员一致认为收获颇丰，学习到了很多新的发展理念和方法，为建昌县供销社下一步深化供销合作社综合改革指明方向，奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>47</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>关于实施畅通工程建议的答复</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2017-05-12</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/jytabl/shizxta/shizxwjsc2016/201705/t20170512_722822.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['建立智能化交通信号控制系统。建立交通管理控制中心操作平台，努力实现道路交通信号系统自动化、指示信息系统电子化、交通监视系统可视化、公共交通体系优先化等目标。今年预算投资80余万元，先期对城区19处灯控路口建设智能信号控制系统，实现交通信号自适应、线协调及区域性协调控制体系。减少车辆在区域内的运行时间、停车次数以及运行延误，提升区域交通的运行效率。', '（一）规范管理研判。交警支队抽调人员组建专门团队全力开展城区道路停车泊位整体规划建设。截止目前，已初步完成考察学习、《道路停车泊位管理办法》草拟、建设规划研判、经营管理调研及相应前期准备工作。拟制了包含总则、设置、管理、停放、法律责任四大版块的《葫芦岛市机动车道路停车泊位管理办法》（草拟稿），并将《办法》（草拟稿）上报市政府法制办审查。', '（二）建设规划构想。聘请中国人民公安大学交通管理系教授来葫，会通市投资集团就城区道路停车泊位规划做专题调研。专家建议制定包含停放区域划分、停车智能管理、停放功能定位等内容的详细规划，具备前瞻性、可操作性，分新城区、老城区分项规划，分期实施。前期需落实交通现状分析、实地现场勘测、具体数据统计、停车需求调研等具体事项。现中国人民公安大学已出台《葫芦岛市道路停车泊位规划启动方案》，随即进入正式规划阶段。', '聘请中国人民公安大学交通管理系教授来葫，会通市投资集团就城区道路停车泊位规划做专题调研。专家建议制定包含停放区域划分、停车智能管理、停放功能定位等内容的详细规划，具备前瞻性、可操作性，分新城区、老城区分项规划，分期实施。前期需落实交通现状分析、实地现场勘测、具体数据统计、停车需求调研等具体事项。现中国人民公安大学已出台《葫芦岛市道路停车泊位规划启动方案》，随即进入正式规划阶段。', '（三）集中专项整治。 自年初以来，针对新城区锦葫路、海辰路、滨海路、龙绣街框定内的区域，分为宣传发动、提示告之和处罚整治三个阶段全力推进规范停车管理。', '自年初以来，针对新城区锦葫路、海辰路、滨海路、龙绣街框定内的区域，分为宣传发动、提示告之和处罚整治三个阶段全力推进规范停车管理。', '自2016年1月22日至3月11日，在市各主流媒体、微信平台等多次宣传，发放提示告之单10000余份。 3月11日至今，对锦葫路、文化路、文翠路、文艺路、龙玉街、龙程街、海日路、海星路、海月路、海辰路等重点路段及政府门前、大润发商场、飞天广场、凯旋城、首创象墅、奥园小区等主要区域进行全面的集中整治，累计处罚违法停车违法行为2135余起。', '至今，对锦葫路、文化路、文翠路、文艺路、龙玉街、龙程街、海日路、海星路、海月路、海辰路等重点路段及政府门前、大润发商场、飞天广场、凯旋城、首创象墅、奥园小区等主要区域进行全面的集中整治，累计处罚违法停车违法行为2135余起。', '（四）资源有效拓展。对具备设置停车泊位的道路资源，正式《规划》出台前先期进行交通标线施划设置。在新华大街、连山大街、中央大街、兴工大街、龙程街、渤海街、群英路等路段非机动车道内施划路内停车泊位190个；人行步道方砖停车泊位近500个。目前，施划作业继续进行中。', '对具备设置停车泊位的道路资源，正式《规划》出台前先期进行交通标线施划设置。在新华大街、连山大街、中央大街、兴工大街、龙程街、渤海街、群英路等路段非机动车道内施划路内停车泊位190个；人行步道方砖停车泊位近500个。目前，施划作业继续进行中。', '道路停车资源拓展实施中存在实际困难。如部分区域土地使用权限不明确、人行道盲道设置占道过于居中占用资源、马路边石过高车辆无法进出、商家店铺占用摆摊设点、私自规划门前设置专用区域等，导致可规划利用的停车资源得不到有效拓展。尤其在一些重点学校、中心商业区、政府重要办事机构等区域，“停车难”现象越发突显。', '在道路停车泊位施划作业中，也经常遇到商家及单位认为方砖上的区域管辖归城管部门不应归交警部门，要求交警出示政府规划文件；路面破损无法施划；人为阻拦和设置障碍等困难，更有甚者，明确表示交警部门施划可以，但必须由所属门前商家自用，如社会公用就不让交警施划。', '商家及单位认为方砖上的区域管辖归城管部门不应归交警部门，要求交警出示政府规划文件；路面破损无法施划；人为阻拦和设置障碍等困难，更有甚者，明确表示交警部门施划可以，但必须由所属门前商家自用，如社会公用就不让交警施划。', '建议政府牵头组织成立停车管理办公室，将安监、规划、住建、人防、物价、工商、税务等部门纳入成员，明确职责，专人专职，联合办公，整体推进。政府牵头组织统一规划设计、统一建设改造，打造样板工程。选择适宜区域规划、住建、交警、城管局等部门同步联合办公，打造规范化停车管理示范区。参照示范区分阶段、分区域逐片推广，以点带面逐步实现全城区停车规范化。', '对滨海路、海辰路、龙湾大街南延路旅游季（5月1日—10月31日）实施货车（轻、微型货车除外）禁行管制措施；非旅游季（11月1日—次年4月30日）实施外埠重、中型货车适时禁行管制措施； 对龙程街、海滨路实施外埠重、中型货车适时禁行管制措施； 强化综合治理。充分发挥道路交通安全委员会办公室职能，积极主动参与城区道路交通规划建设，提升交警规划建设话语权，推进实现道路安全设施建设的同步规划、同步建设、同步验收；同步强化重大建设项目交警先期参与权，对城区规模性建设项目实施交通影响评价；强化公共交通规划建设，实现规划与实施的协调统一。', '对滨海路、海辰路、龙湾大街南延路旅游季（5月1日—10月31日）实施货车（轻、微型货车除外）禁行管制措施；非旅游季（11月1日—次年4月30日）实施外埠重、中型货车适时禁行管制措施；', '强化综合治理。充分发挥道路交通安全委员会办公室职能，积极主动参与城区道路交通规划建设，提升交警规划建设话语权，推进实现道路安全设施建设的同步规划、同步建设、同步验收；同步强化重大建设项目交警先期参与权，对城区规模性建设项目实施交通影响评价；强化公共交通规划建设，实现规划与实施的协调统一。', '警力下沉，现城区各路口新增执勤点位43处，交警支队机关和机动大队每天106人次早晚高峰上岗加勤，实现路面见警率和管理效率最大化。', '违法停车整治在保障新区整治成果的同时，规范化管理逐步向老城区拓展。分阶段、分区域在中央大街、连山大街、兴工大街、新华大街和渤海路、群英路、永昌路、红星路等主要道路全力开展。 结合公安部及省厅的年度打击整治任务，充分运用异地调警、不定时整治、区域性集中行动等措施，每月开展不少于四次的统一行动，突出对酒驾、毒驾、货车超载、客车超员及涉牌涉证等重点违法行为的打击。', '违法停车整治在保障新区整治成果的同时，规范化管理逐步向老城区拓展。分阶段、分区域在中央大街、连山大街、兴工大街、新华大街和渤海路、群英路、永昌路、红星路等主要道路全力开展。', '结合公安部及省厅的年度打击整治任务，充分运用异地调警、不定时整治、区域性集中行动等措施，每月开展不少于四次的统一行动，突出对酒驾、毒驾、货车超载、客车超员及涉牌涉证等重点违法行为的打击。', '今年，已对智能指挥中心建设项目、9处路口信号灯设施建设项目、5万平道路交通热熔标线项目等多项工程进行申报，待资金落实后即可启动建设。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>47</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>关于缓解主城区停车难问题的建议的答复</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2017-05-10</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/hdjl/jytabl/shirddbjy/shiwjrdsc2016/201705/t20170510_717825.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['按市政府部署和要求，针对城区机动车乱停乱放的现象，交警支队认真研判，全力开展了机动违法停车集中整治活动。', '交警支队抽调人员组建专门团队全力进行城区道路停车泊位整体规划建设。截止目前，已初步完成考察学习、《道路停车泊位管理办法》草拟、建设规划研判、经营管理调研及相应前期准备工作。', '交警部门会同相关职能部门在盲道改造、绿化改造、路面维护和停车智能化管理、立体停车设施、动态监管等停车规划领域进行了深入研判。同时聘请中国人民公安大学交通管理系教授来葫做专题调研。初步规划制定具备前瞻性、可操作性包含停放区域划分、停车智能管理、停放功能定位等内容的详细规划，分新城区、老城区分项规划，分期实施。前期需落实交通现状分析、实地现场勘测、具体数据统计、停车需求调研等具体事项。现中国人民公安大学已出台《葫芦岛市道路停车泊位规划启动方案》，随即进入正式规划阶段。', '自年初以来，针对新城区锦葫路、海辰路、滨海路、龙绣街框定内的区域，分为宣传发动、提示告之和处罚整治三个阶段全力推进规范停车管理。', '3月11日至今，对锦葫路、文化路、文翠路、文艺路、龙玉街、龙程街、海日路、海星路、海月路、海辰路等重点路段及政府门前、大润发商场、飞天广场、凯旋城、首创象墅、奥园小区等主要区域进行全面的集中整治，累计处罚违法停车违法行为2135余起。', '至今，对锦葫路、文化路、文翠路、文艺路、龙玉街、龙程街、海日路、海星路、海月路、海辰路等重点路段及政府门前、大润发商场、飞天广场、凯旋城、首创象墅、奥园小区等主要区域进行全面的集中整治，累计处罚违法停车违法行为2135余起。', '对具备设置停车泊位的道路资源，正式《规划》出台前先期进行交通标线施划设置。在新华大街、连山大街、中央大街、兴工大街、龙程街、渤海街、群英路等路段非机动车道内施划路内停车泊位190个；人行步道方砖停车泊位443个。目前，施划作业继续进行中。', '对重点区域进行专项规划建设。对实验二小门前施划限时停车泊位83个；渠化改造中法岗西行入口，增设右转弯机动车道一条；新增限时禁行标志一处；将海辰路中法岗至军分区岗间道路中心虚线更改施划为交通实线；同步规划实施实验一小、渤海小学、一高中等重点区域限时禁行交通管制措施，确保重点区域机动车行有规、停有序。', '（一）资源拓展不畅。我市城区历史遗留原本停车资源欠帐就很多，随着机动车保有量的与日俱增，停车需求同比例增长。就道路停车资源而言，人行道是很大的可开发停车资源，但城区目前人行道停车资源未能得到充分利用。如部分区域土地使用权限不明确、人行道盲道设置占道过于居中占用资源、马路边石过高车辆无法进出、商家店铺占用摆摊设点、私自规划门前设置专用区域等，导致可规划利用的停车资源得不到有效拓展。尤其在一些重点学校、中心商业区、政府重要办事机构等区域，“停车难”现象越发突显。', '在道路停车泊位施划作业中，也经常遇到商家及单位认为方砖上的区域管辖归城管部门不应归交警部门，要求交警出示政府规划文件；路面破损无法施划；人为阻拦和设置障碍等困难，更有甚者，明确表示交警部门施划可以，但必须由所属门前商家自用，如社会公用就不让交警施划。', '商家及单位认为方砖上的区域管辖归城管部门不应归交警部门，要求交警出示政府规划文件；路面破损无法施划；人为阻拦和设置障碍等困难，更有甚者，明确表示交警部门施划可以，但必须由所属门前商家自用，如社会公用就不让交警施划。', '（二）整治环境不良。受停车资源的限制，供需不平衡的交通矛盾日益突显，交警部门的整治措施，有时引发个别市民不满。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>47</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>秦皇岛市供销社到葫芦岛市考察共同推进深入交流学习深化合作领域</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2017-04-13</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xczx/202005/t20200529_969710.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['秦皇岛市供销社到葫芦岛市考察共同推进深入交流学习 深化合作领域_葫芦岛市供销合作社联合社', '近日，秦皇岛市供销社在理事会副主任董学强的带领下，一行9人到葫芦岛市供销社考察学习。考察组重点围绕电子商务、综合服务中心建设等方面，先后到兴城农村淘宝兴城服务中心、闻家供销社日杂农资超市、连山区于家农资综合服务站、兴远蔬菜专业合作社蔬菜基地等地进行了考察，双方就基层社改造、农村电子商务建设、为农服务等广泛交换意见，互相学习，探索合作领域，进一步促进了两地的交流合作。葫芦岛市供销社监事会主任毛忠华全程陪同。', '此次考察学习，是继秦皇岛市供销社与葫芦岛市供销社签署《合作框架协议》后，进一步深入对接和实质性推进。两市供销社将在《合作框架协议》指导下，在业务、产业、物流和平台、营销网络及项目等方面加强合作，深入对接交流、互访互动，提升合作层次，拓宽合作领域，深化合作内容，在葫秦两市签署区域合作框架协议的大环境影响和带动下，以服务“三农”为宗旨，以《中共中央国务院关于深化供销社综合改革的决定》为指导，协同推进两市供销合作事业共同进步、共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>47</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>县委全会报告年</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2017-04-13</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/qtgkxx/qtbg_421001/202002/t20200219_884267.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['这次会议的主要任务是：认真贯彻和落实党的十七大和十七届三中、四中、五中全会精神，回顾总结2010年和十一五时期工作，研究确定我县2011年和今后五年的工作思路、发展目标和主要任务，动员全县广大党员干部群众，牢牢抓住扩大经济社会管理权限这一前所未有的重大历史机遇，充分发挥我县独有的区位优势、资源优势和政策优势，进一步解放思想、振奋精神，团结一心、开拓进取，以崭新的姿态、务实的作风和更大的气魄，全力建设沿海经济强县，确保我县在“十二五”末期跻身全省十强县和全国百强县行列。', '这次会议的主要任务是：认真贯彻和落实党的十七大和十七届三中、四中、五中全会精神，回顾总结', '年和今后五年的工作思路、发展目标和主要任务，动员全县广大党员干部群众，牢牢抓住扩大经济社会管理权限这一前所未有的重大历史机遇，充分发挥我县独有的区位优势、资源优势和政策优势，进一步解放思想、振奋精神，团结一心、开拓进取，以崭新的姿态、务实的作风和更大的气魄，全力建设沿海经济强县，确保我县在', '2010年是十一五规划的最后一年，十一五时期是我县经济社会发展历史上极不平凡的一个阶段。五年来，县委团结和带领全县人民真抓实干，开拓进取，战胜了一个又一个困难，夺取了一个又一个新的胜利，全县上下呈现出政治和谐安定、经济加快发展、社会全面进步、人民安居乐业的良好局面。', '年是十一五规划的最后一年，十一五时期是我县经济社会发展历史上极不平凡的一个阶段。五年来，县委团结和带领全县人民真抓实干，开拓进取，战胜了一个又一个困难，夺取了一个又一个新的胜利，全县上下呈现出政治和谐安定、经济加快发展、社会全面进步、人民安居乐业的良好局面。', '过去的五年，是获得重大机遇的五年。五年来，我县凭借自身独有的发展优势，赢得了一系列重大机遇，被确定为全省县域经济发展重点县，滨海经济区成为辽宁“五点一线”沿海开发开放战略重点支持区域，今年10月我县开始享受市级经济社会管理权限。各种机遇叠加，把绥中推向了一个更高的发展平台。', '五年来，我县凭借自身独有的发展优势，赢得了一系列重大机遇，被确定为全省县域经济发展重点县，滨海经济区成为辽宁', '月我县开始享受市级经济社会管理权限。各种机遇叠加，把绥中推向了一个更高的发展平台。', '过去的五年，是经济快速增长的五年。全县地区生产总值年均增长15%，地方财政一般预算收入年均增长20.4%，全社会固定资产投资年均增长54.2%，社会消费品零售总额年均增长20.7%，规模以上工业总产值年均增长44.4%，出口创汇年均增长18%。绥中已经步入了发展的快车道，开始了由传统农业大县向沿海工业强县的历史性转变，国民经济总体呈现出规模扩张、结构改善、质量提高、活力增强的良性运行态势。', '步入了发展的快车道，开始了由传统农业大县向沿海工业强县的历史性转变，国民经济总体呈现出规模扩张、结构改善、质量提高、活力增强的良性运行态势。', '过去的五年，是城乡面貌巨变的五年。城乡基础设施建设不断完善，新体育场、利伟实验中学和垃圾处理场、污水处理厂先后建成投入使用。城市开发改造水平不断提升，集中供暖、供气工程扎实推进，高标准完成了滨海公路和村通油路（水泥路）工程，文化体育广场遍布城乡，滨海经济区的开发建设成为绥中城市化进程的重要里程碑。', '城乡基础设施建设不断完善，新体育场、利伟实验中学和垃圾处理场、污水处理厂先后建成投入使用。城市开发改造水平不断提升，集中供暖、供气工程扎实推进，高标准完成了滨海公路和村通油路（水泥路）工程，文化体育广场遍布城乡，滨海经济区的开发建设成为绥中城市化进程的重要里程碑。', '过去的五年，是群众受益最多的五年。县委坚持把改善民生作为工作的出发点和落脚点，不折不扣地落实党的各项惠民政策。全面取消农业税，免除义务教育阶段学费、课本费，积极推进养老保险、居民基本医疗保险和新型农村合作医疗，提高了低保补助标准，实现了和谐社会人人共享。全县农民人均纯收入年均增长11.9%，城镇居民可支配收入年均增长12.4%。', '县委坚持把改善民生作为工作的出发点和落脚点，不折不扣地落实党的各项惠民政策。全面取消农业税，免除义务教育阶段学费、课本费，积极推进养老保险、居民基本医疗保险和新型农村合作医疗，提高了低保补助标准，实现了和谐社会人人共享。全县农民人均纯收入年均增长', '过去的五年，是干部思想解放的五年。深入开展学习实践科学发展观活动，坚持把解放思想作为工作动力源泉。完成了全省学习实践活动试点任务，组织了解放思想大讨论，开展了卓有成效的学习培训活动，广大党员干部开阔了视野，开拓了思路，领导发展和服务创新能力有了明显提升。', '深入开展学习实践科学发展观活动，坚持把解放思想作为工作动力源泉。完成了全省学习实践活动试点任务，组织了解放思想大讨论，开展了卓有成效的学习培训活动，广大党员干部开阔了视野，开拓了思路，领导发展和服务创新能力有了明显提升。', '1、滨海经济区建设实现重大突破。基础设施建设快速推进。固定资产投资完成20亿元，起步区二期、三期路网和道路亮化、绿化工程及街路标识基本完工，东戴河大桥顺利通车，供水、供电、供气、供暖、通讯工程全部完成并投入使用，实验学校、孟家农民新村和商贸市场建设工程如期竣工，创业大厦和消防中心主体建设工程顺利完成。产业集群初步形成。成功在北京、上海、香港、韩国等地举办主题招商活动，取得了显著成果，累计引进电子信息、新材料、生物制药和装备制造类企业224家，协议投资额365亿元，其中开工建设企业100家，50家企业建成投产或具备投产条件。生态新城正在崛起。编制了《万家新城控制性详细规划》、《碣石大遗址公园保护与开发规划》，并即将通过审批；山海同湾地产项目已经开盘，合生天戴河项目进展顺利，昆仑五星级酒店、恒泰·博海地产项目破土动工；与香港佳兆业集团合作的辽宁东戴河国际旅游新城和与香港裕汇集团有限公司合作的碣石遗址公园综合开发项目正式启动，我县沿海开发进入了新的阶段。', '亿元，起步区二期、三期路网和道路亮化、绿化工程及街路标识基本完工，东戴河大桥顺利通车，供水、供电、供气、供暖、通讯工程全部完成并投入使用，实验学校、孟家农民新村和商贸市场建设工程如期竣工，创业大厦和消防中心主体建设工程顺利完成。产业集群初步形成。成功在北京、上海、香港、韩国等地举办主题招商活动，取得了显著成果，累计引进电子信息、新材料、生物制药和装备制造类企业', '家企业建成投产或具备投产条件。生态新城正在崛起。编制了《万家新城控制性详细规划》、《碣石大遗址公园保护与开发规划》，并即将通过审批；山海同湾地产项目已经开盘，合生天戴河项目进展顺利，昆仑五星级酒店、恒泰', '佳兆业集团合作的辽宁东戴河国际旅游新城和与香港裕汇集团有限公司合作的碣石遗址公园综合开发项目正式启动，我县沿海开发进入了新的阶段', '2、工业经济实力明显增强。全县25个乡镇新建、改建、扩建投资1,000万元以上工业项目13个，其中亿元以上项目3个。易轩堂海洋生物制品项目、万佳果业二期工程顺利推进。维远型材二期、艺工玻璃纤维和辽宁西海岸生物制品项目相继建成投产。编制完成了《绥中海洋装备产业基地发展规划和起步区控制性详细规划》，大连东方精工船舶、天津俊昊中小船舶修造等项目正在积极洽谈中。工业经济整体实力和运行质量进一步提升，全县规模以上工业企业达到108家，全口径工业总产值突破百亿元大关，规模以上工业总产值预计实现43.7亿元，比2005年增长535%。全年实际利用外资预计实现4,000万美元，出口创汇预计实现2,440万美元，比2005年增长156.8%。', '个。易轩堂海洋生物制品项目、万佳果业二期工程顺利推进。维远型材二期、艺工玻璃纤维和辽宁西海岸生物制品项目相继建成投产。编制完成了《绥中海洋装备产业基地发展规划和起步区控制性详细规划》，大连东方精工船舶、天津俊昊中小船舶修造等项目正在积极洽谈中。工业经济整体实力和运行质量进一步提升，全县规模以上工业企业达到', '3、“三农”工作深入推进。坚持产业化、城镇化、市场化发展方向，以农业增效带动农民增收、农村繁荣。不断深化农业产业结构调整，全县新建省级设施农业小区1,020个，国家级万亩粮食高产示范区7个，畜牧养殖小区50个，新建水果先导示范园60个，千亩苹果优新品种示范基地3个，圆满完成了省政府下达的任务目标。粮食生产再获丰收，水果、水产品、肉蛋奶、蔬菜产量稳步增长，农业产业化龙头企业达到115家，农业总产值预计实现58.1亿元，比2005年增长84.4%。继续加强农田水利基础设施建设，完成了王石灌区四期工程，对龙屯、大风口等水库进行了除险加固，积极推进猴山水库建设工程。全年完成各类农建骨干工程159项，安全饮水工程83处，有望再次问鼎省“大禹杯”。深入推进社会主义新农村建设，出台了《鼓励支持小城镇建设的实施细则》，开展了试点村“达标升级”活动。完成村屯路面硬化120公里，新建沼气池2,000个，文化体育广场13座。着力提高农民组织化程度，农民专业合作组织达到283个，基本实现了全县覆盖；开展了“科技活动周”、“科普之冬”活动，举办各类农技培训班500余期，培训农民15.5万人次。', '坚持产业化、城镇化、市场化发展方向，以农业增效带动农民增收、农村繁荣。不断深化农业产业结构调整，全县新建省级设施农业小区', '个，圆满完成了省政府下达的任务目标。粮食生产再获丰收，水果、水产品、肉蛋奶、蔬菜产量稳步增长，农业产业化龙头企业达到', '。继续加强农田水利基础设施建设，完成了王石灌区四期工程，对龙屯、大风口等水库进行了除险加固，积极推进猴山水库建设工程。全年完成各类农建骨干工程', '4、第三产业发展形成良好态势。旅游开发步伐加快，编制了永安长城景区和三山景区修建性详细规划，启动了道路等基础设施建设工程，完成了碣石大遗址公园项目策划，加大了九门口景区推介力度，规范了滨海农家乐旅游管理，旅游市场继续升温，预计全年接待游客181万人次，旅游总收入实现7.94亿元。城乡市场繁荣活跃，新增135个“万村千乡市场工程”农家店和77个“家电下乡”网点，我县第一家四星级宾馆——宏跃大酒店建成营业。全县社会消费品零售总额预计实现40.4亿元，比2005年增长155.7%。金融行业出现新气象，成立了全市首家民间资本参与的股份制银行——长丰村镇银行。汽运产业健康发展，货车总量高位运行，新增车辆2,175台，汽贸城项目正在积极推进，运输大县地位进一步巩固。', '旅游开发步伐加快，编制了永安长城景区和三山景区修建性详细规划，启动了道路等基础设施建设工程，完成了碣石大遗址公园项目策划，加大了九门口景区推介力度，规范了滨海农家乐旅游管理，旅游市场继续升温，预计全年接待游客', '5、城乡基础设施日趋完善。乡村道路建设取得新进展，圆满完成了绥青线改建工程，对102、306国道进行了重点养护，启动了滨河大道建设工程，公铁立交桥建成通车。城区基础设施不断完善，编制了《绥中县城控制性详细规划》，完成了和平街、西关路、老马路的综合改造，实施了北外环路亮化、绿化工程，正在兴建六股河河滨公园，积极推进集中供热和管道天然气入户工程，新增城区集中供热面积100万平方米、管道天然气用户1,500户。城市开发改造步伐加快，完成开发改造面积36.8万平方米，启动了六股河沿岸、南门口片区城市改造工程。城市综合治理力度持续加大，垃圾处理场投入使用，城市环境卫生有一定好转，城市品位有一定提升。', '国道进行了重点养护，启动了滨河大道建设工程，公铁立交桥建成通车。城区基础设施不断完善，编制了《绥中县城控制性详细规划》，完成了和平街、西关路、老马路的综合改造，实施了北外环路亮化、绿化工程，正在兴建六股河河滨公园，积极推进集中供热和管道天然气入户工程，新增城区集中供热面积', '万平方米，启动了六股河沿岸、南门口片区城市改造工程。城市综合治理力度持续加大，垃圾处理场投入使用，城市环境卫生有一定好转，城市品位有一定提升。', '6、各项社会事业全面协调发展。教育事业得到优先发展，4所九年一贯制学校主体工程和19所学校危房改造工程顺利完工，教育资源进一步优化，教师教育切实加强，高考工作再创佳绩。人口和计划生育工作稳步推进，人口出生率控制在6.88‰。体育事业蓬勃发展，成功举办了第十二届全民运动会，全民健身热潮正在兴起。卫生事业健康发展，乡镇卫生院设施设备得到改善，新型农村合作医疗参合率达到90.2%。文化阵地建设切实加强，新建9个乡镇综合文化站、133个农家书屋，开展了丰富多彩的文化活动。稳步推进了有线电视台改制和网络整合工作，实现了城乡一网化管理。就业再就业工作取得新成效，实名制就业、实名制劳务输出和普惠制培训等均超额完成省定指标，城镇登记失业率控制在3.9%以下。社会保障体系日趋完善，养老保险参保人员达到37,332人，城镇职工、居民基本医疗保险参保人数97,881人，工伤保险、生育保险、失业保险均完成年度目标。城乡低保对象实行动态管理，共发放保障金2,850万元。继续开展“金秋助学”和助贫越冬活动，共资助810名贫困家庭大学生，发放救助金120余万元，为101户农村受灾低保户修建了住房，弱势群体的生产生活得到有效保障。', '所学校危房改造工程顺利完工，教育资源进一步优化，教师教育切实加强，高考工作再创佳绩。人口和计划生育工作稳步推进，人口出生率控制在', '。体育事业蓬勃发展，成功举办了第十二届全民运动会，全民健身热潮正在兴起。卫生事业健康发展，乡镇卫生院设施设备得到改善，新型农村合作医疗参合率达到', '个农家书屋，开展了丰富多彩的文化活动。稳步推进了有线电视台改制和网络整合工作，实现了城乡一网化管理。就业再就业工作取得新成效，实名制就业、实名制劳务输出和普惠制培训等均超额完成省定指标，城镇登记失业率控制在', '人，工伤保险、生育保险、失业保险均完成年度目标。城乡低保对象实行动态管理，共发放保障金', '7、民主法治建设成果得到巩固。支持人大代表、政协委员围绕全县重点工作开展集中督查和专题调研，充分发挥了人大、政协推动发展、服务大局的作用。积极落实党的民族宗教政策，切实加强党管武装工作，有效发挥了工会、共青团、妇联、科协等群团组织联系群众的桥梁作用，爱国统一战线不断巩固和壮大。积极落实省扩权改革任务，与省直部门进行了对接，进一步提升了我县依法行政能力。围绕“三项重点工作”，扎实开展平安创建活动，加强了社会治安综合治理，积极推进公安信息化建设，严厉打击各种刑事犯罪活动，着力做好信访稳定和安全生产工作，社会大局持续稳定，有望连续七年获得省级“平安县”称号。', '支持人大代表、政协委员围绕全县重点工作开展集中督查和专题调研，充分发挥了人大、政协推动发展、服务大局的作用。积极落实党的民族宗教政策，切实加强党管武装工作，有效发挥了工会、共青团、妇联、科协等群团组织联系群众的桥梁作用，爱国统一战线不断巩固和壮大。积极落实省扩权改革任务，与省直部门进行了对接，进一步提升了我县依法行政能力。围绕', '，扎实开展平安创建活动，加强了社会治安综合治理，积极推进公安信息化建设，严厉打击各种刑事犯罪活动，着力做好信访稳定和安全生产工作，社会大局持续稳定，有望连续七年获得省级', '8、党的建设不断加强。深入学习贯彻党的十七届四中、五中全会精神，扎实开展了第三批学习实践科学发展观和创先争优活动。认真开展“读《政道》、学仇和”和干部理论学习、苏州考察学习、“走出去、请进来”业务学习培训活动，促使广大党员干部思想解放，投身经济社会建设的热情日益高涨。修改完善了《党政领导班子和领导干部绩效考核与管理办法》，制定了《党政正职领导干部招商引资与农业产业结构调整工作考核实施方案》，坚持定量与定性相结合，突出对领导干部完成重点工作的考核，充分调动了党员干部干事创业的积极性。较好地完成了村级组织换届选举任务，一批有能力、懂经营、能干事、会干事的年轻人进入村“两委”班子，扎实开展了村书记培训和农村党员干部现代远程教育，基层组织的创造力、凝聚力和战斗力进一步增强。全面贯彻落实党风廉政建设责任制，狠抓领导干部廉洁自律工作，立案查处各类违纪案件140件，党政纪处分140人，其中副科级以上人员16人。不断优化经济发展环境，狠抓“四项制度”落实，搞好“三个评议”活动，对不满意率超过10%的6名领导干部进行了诫勉谈话，予以全县通报，极大地改善了政务环境、法制环境和服务环境。', '深入学习贯彻党的十七届四中、五中全会精神，扎实开展了第三批学习实践科学发展观和创先争优活动。认真开展', '业务学习培训活动，促使广大党员干部思想解放，投身经济社会建设的热情日益高涨。修改完善了《党政领导班子和领导干部绩效考核与管理办法》，制定了《党政正职领导干部招商引资与农业产业结构调整工作考核实施方案》，坚持定量与定性相结合，突出对领导干部完成重点工作的考核，充分调动了党员干部干事创业的积极性。较好地完成了村级组织换届选举任务，一批有能力、懂经营、能干事、会干事的年轻人进入村', '班子，扎实开展了村书记培训和农村党员干部现代远程教育，基层组织的创造力、凝聚力和战斗力进一步增强。全面贯彻落实党风廉政建设责任制，狠抓领导干部廉洁自律工作，立案查处各类违纪案件', '名领导干部进行了诫勉谈话，予以全县通报，极大地改善了政务环境、法制环境和服务环境。', '同志们，即将过去的2010年和十一五时期，我县取得了令人瞩目的成绩，成绩来之不易，经验弥足珍贵。这些成绩的取得，是上级党委政府正确领导、全力支持的结果，是广大党员干部真抓实干、攻坚克难的结果，是全县人民群众齐心协力、团结奋斗的结果。在此，我代表县委向全县广大党员干部和人民群众，向所有关心支持绥中发展的各界人士致以崇高的敬意和衷心的感谢！', '年和十一五时期，我县取得了令人瞩目的成绩，成绩来之不易，经验弥足珍贵。这些成绩的取得，是上级党委政府正确领导、全力支持的结果，是广大党员干部真抓实干、攻坚克难的结果，是全县人民群众齐心协力、团结奋斗的结果。在此，我代表县委向全县广大党员干部和人民群众，向所有关心支持绥中发展的各界人士致以崇高的敬意和衷心的感谢！', '在充分肯定成绩的同时，也要清醒地看到我县经济和社会发展中依然存在着一些不容忽视的矛盾和问题：一是县域经济综合实力依然比较薄弱，农业抗御自然灾害的能力还不强，工业经济主导地位还没有形成，第三产业对社会贡献率仍然较低，经济发展速度还不够快，运行质量还不够理想；二是社会发展滞后于经济发展，解决民生问题的压力很大，影响社会稳定的因素仍然存在，一些历史遗留问题以及体制机制改革中引发的新矛盾和新问题不断显露；三是经济发展环境与发展需求还存在较大距离，部门服务效能、服务水平和服务质量都需进一步提升；四是个别党员干部的思想还不够解放，大局意识、忧患意识不强，能力素质还不能适应新的形势任务要求。这些问题，需要我们在今后的工作中认真加以解决。', '2011年，是实施十二五规划的开局之年，也是我县全面履行扩权职责、实现率先发展的第一年，绥中经济社会进入了新的历史阶段。今后五年，是我县全面建成小康社会的关键时期，是深化改革开放、加快转变经济发展方式的攻坚时期，也是经济社会发展大有作为的重要战略机遇期。', '年，是实施十二五规划的开局之年，也是我县全面履行扩权职责、实现率先发展的第一年，绥中经济社会进入了新的历史阶段。今后五年，是我县全面建成小康社会的关键时期，是深化改革开放、加快转变经济发展方式的攻坚时期，也是经济社会发展大有作为的重要战略机遇期。', '我们拥有了前所未有的大好机遇。省委、省政府扩大绥中经济社会管理权限，让我县真正拥有了其他县区无法比拟的政策优势，为我们在辽宁沿海经济带中快速崛起提供了先决条件，这是绥中建县百年来最大的发展机遇；绥中独有的区位、交通、资源、岸线优势将进一步放大，已经成为吸引国内外关注的焦点、热点和亮点，我县的知名度和竞争力正在迅速提高；随着滨海经济区建设的深入推进，承接京津唐秦都市圈辐射能力日益增强，必将引领全县在更高水平、更高层次上加速发展；广大党员干部群情振奋，干事创业的愿望更加迫切，争先进位的氛围已经形成。发展正逢其时，发展已聚其力，绥中一定会在新一轮大发展中实现历史性的跨越！', '我们同样面对前所未有的严峻挑战。从宏观环境看，世界经济增速放缓，国际形势更加复杂，国内通胀压力趋于增强，资源和环境问题影响日益加深；从周边环境看，环渤海经济圈强手林立，各大经济区相互博弈，竞争空前激烈；从省内环境看，绥中担负着扩权改革、率先发展的艰巨使命，万众瞩目，压力十分明显；从我县自身看，一切工作都要从头开始，从零做起，在经济总量、发展质量和速度等方面不但要超越自我，更要勇于超越强者。重任在肩，责无旁贷，我们已经被推向改革的风口浪尖！', '机遇与挑战并存，机遇大于挑战。站在新的历史起点上，面对机遇集成、一触即发的有利态势，我们必须继续解放思想，敢于用更大的气魄谋划未来，加快崛起步伐；善于用更高的标准评价工作，推动创新发展；勇于用更积极的态度应对困难，实现新的突破。要切实增强机遇意识、责任意识和科学发展意识，以求真务实的作风，雷厉风行的效率，全力以赴的干劲，实现绥中经济社会的飞速发展，用五年时间进入沿海经济强县行列，把绥中建设成为连接辽宁与河北，具有地级市功能的支点城市，建成“海岸中关村，生态新城区”，创造绥中发展更加辉煌的业绩！', '机遇与挑战并存，机遇大于挑战。站在新的历史起点上，面对机遇集成、一触即发的有利态势，我们必须继续解放思想，敢于用更大的气魄谋划未来，加快崛起步伐；善于用更高的标准评价工作，推动创新发展；勇于用更积极的态度应对困难，实现新的突破。要切实增强机遇意识、责任意识和科学发展意识，以求真务实的作风，雷厉风行的效率，全力以赴的干劲，实现绥中经济社会的飞速发展，用五年时间进入沿海经济强县行列，把绥中建设成为连接辽宁与河北，具有地级市功能的支点城市，建成', '基于对形势的分析研判，明年及十二五期间全县经济社会发展总的指导思想是：深入学习贯彻落实党的十七大和十七届三中、四中、五中全会精神，坚持以科学发展观为统领，牢牢抓住东北振兴、沿海开放和扩权强县等重大历史机遇，坚定不移地实施沿海开发、工业强县、项目牵动战略，以绥中滨海经济区建设为核心增长极，统筹发展现代农业和现代服务业，壮大县域经济实力，加速城镇化进程，更加扎实改善民生，强力推进和谐社会建设，为实现绥中经济社会科学发展、创新发展、和谐发展而努力奋斗。', '深入学习贯彻落实党的十七大和十七届三中、四中、五中全会精神，坚持以科学发展观为统领，牢牢抓住东北振兴、沿海开放和扩权强县等重大历史机遇，坚定不移地实施沿海开发、工业强县、项目牵动战略，以绥中滨海经济区建设为核心增长极，统筹发展现代农业和现代服务业，壮大县域经济实力，加速城镇化进程，更加扎实改善民生，强力推进和谐社会建设，为实现绥中经济社会科学发展、创新发展、和谐发展而努力奋斗。', '——综合实力跨上新台阶。确保全县地区生产总值达到520亿元，年均增长42%；地方财政一般预算收入达到35亿元，年均增长40%以上；社会固定资产投资5年累计达到1,500亿元，年均增长30%；社会消费品零售总额达到100亿元，年均增长20%。滨海经济区对全县经济增长的贡献率达到65%以上。确保在十二五末期，进入全省县域经济十强县，全国县域经济百强县行列。', '——结构优化取得新突破。加快产业升级进程，逐步从农业大县转向沿海经济强县。三次产业结构比调整为10:55:35，第二产业比重明显提高。科技研发投入不断增加，高新技术产业增加值占规模以上工业增加值的比重提高到30%以上。', '，第二产业比重明显提高。科技研发投入不断增加，高新技术产业增加值占规模以上工业增加值的比重提高到', '——可持续发展能力获得新提升。城乡生态环境质量显著改善，达到国家卫生、环保模范县标准。能源消耗显著降低，万元生产总值能耗降低20%。全县森林覆盖率达到56%以上。县城全年环境空气质量好于二级标准的天数达到85%。', '城乡生态环境质量显著改善，达到国家卫生、环保模范县标准。能源消耗显著降低，万元生产总值能耗降低', '——和谐绥中建设取得新成绩。农村居民人均纯收入年均增长17%，城镇居民人均可支配收入年均增长16%。城镇登记失业率控制在4%以下。基本公共服务能力明显提高。覆盖城乡的基本医疗制度、公共卫生制度和社会保障制度基本建成并逐步完善。新型农村合作医疗覆盖率达到100%。', '。基本公共服务能力明显提高。覆盖城乡的基本医疗制度、公共卫生制度和社会保障制度基本建成并逐步完善。新型农村合作医疗覆盖率达到', '2011年全县主要经济预期目标：县内生产总值比上年增长33%；地方财政一般预算收入增长35%；全社会固定资产投资增长62%；规模以上工业总产值增长128.8%；社会消费品零售总额增长22%；城镇居民人均可支配收入增长12%；农民人均纯收入增长13%；外贸出口增长52%；实际利用外资额达到1亿美元。', '绥中最大的优势在沿海，大发展的希望也在沿海。全县上下要继续把沿海经济带作为经济发展的主战场，坚持以沿海产业园区建设为抓手，加速工业化进程，力促沿海开发走出更快的速度，迈上更高的层次，推动县域经济发展实现新的跨越。', '1、着力优化沿海经济布局，加速形成主导产业集群。依托优质岸线，大做“海”字文章。要坚持把建设“大园区”与做强“大产业”相结合，加速绥中滨海经济区、石河临港产业区和海洋装备产业基地三个重点产业区域建设，尽快形成信息、先进制造、临港和现代物流、海洋装备制造、农产品深加工五大产业集群，全力打造绥中的工业支撑体系。滨海经济区要充分发挥区位优势，努力承接北京中关村等国内外知名信息产业区域的辐射，重点发展信息产业，打造具有较强国际竞争力、国内一流的现代化数字产业基地。要大力发展能源装备、工程机械、电力机械装备等低能耗、低污染、高附加值的装备制造业，形成具有强大支撑力和生命力的产业集群。要积极推动生态新城建设，着力引进知名学校、医院等配套设施项目，加快碣石大遗址公园相关项目开发，力争猴山水库、绥秦轻轨等重大项目尽快进入实质性建设阶段，以重点项目带动产业发展、完善城市功能，为经济区注入生机与活力。石河临港产业区要以石河亿吨大港建设为依托，重点发展煤化工、临港装备制造、港口物流等产业，努力把这一区域做成我国沿海煤化工产业带和环渤海地区物流产业链的重要节点。海洋装备产业基地要根据现有船舶修造产业基础，大力发展渔轮、游艇和特种船舶修造业，迅速挤占特种船舶修造市场空间，通过实施错位发展，做强做大船舶修造产业。要以滨海经济区为龙头，积极促进三个区域的协调发展，打造我县经济牵引带，拉动腹地经济发展，推进绥中经济由内陆型向沿海型的转变。', '相结合，加速绥中滨海经济区、石河临港产业区和海洋装备产业基地三个重点产业区域建设，尽快形成信息、先进制造、临港和现代物流、海洋装备制造、农产品深加工五大产业集群，全力打造绥中的工业支撑体系。滨海经济区要充分发挥区位优势，努力承接北京中关村等国内外知名信息产业区域的辐射，重点发展信息产业，打造具有较强国际竞争力、国内一流的现代化数字产业基地。要大力发展能源装备、工程机械、电力机械装备等低能耗、低污染、高附加值的装备制造业，形成具有强大支撑力和生命力的产业集群。要积极推动生态新城建设，着力引进知名学校、医院等配套设施项目，加快碣石大遗址公园相关项目开发，力争猴山水库、绥秦轻轨等重大项目尽快进入实质性建设阶段，以重点项目带动产业发展、完善城市功能，为经济区注入生机与活力。石河临港产业区要以石河亿吨大港建设为依托，重点发展煤化工、临港装备制造、港口物流等产业，努力把这一区域做成我国沿海煤化工产业带和环渤海地区物流产业链的重要节点。海洋装备产业基地要根据现有船舶修造产业基础，大力发展渔轮、游艇和特种船舶修造业，迅速挤占特种船舶修造市场空间，通过实施错位发展，做强做大船舶修造产业。要以滨海经济区为龙头，积极促进三个区域的协调发展，打造我县经济牵引带，拉动腹地经济发展，推进绥中经济由内陆型向沿海型的转变。', '发展能源装备、工程机械、电力机械装备等低能耗、低污染、高附加值的装备制造业，形成具有强大支撑力和生命力的产业集群。', '迅速挤占特种船舶修造市场空间，通过实施错位发展，做强做大船舶修造产业。要以滨海经济区为龙头，积极促进三个区域的协调发展', '2、全力推进招商引资，不断增强经济发展动力。要始终把招商引资作为抓经济的有力手段，以招商促开放，以引资促发展。要在招商引资质量上寻求突破。突出重点区域、重点行业和重点企业开展招商，适时提高项目准入门槛，逐步由招商引资向招商选资转变，着力引进一批科技含量高、附加值高、税收高的项目，着力引进一批能延伸主导产业链、关联程度高的项目，着力引进一批牵动性强、投资大的龙头型、基地型项目，特别是要着眼于世界500强、行业100强企业进行重点招商，每年要确保100户企业入驻。要在招商引资方式上实现转变。充分发挥园区集聚产业功能，逐步变全员招商为专业招商、产业招商，变行政招商为委托招商、以商招商，推动招商引资工作良性发展，逐步进入常态化轨道。要在招商引资领域上逐步拓展。加大在文教、卫生等社会事业项目上的招商力度，力争实现新突破。要在招商引资目标责任考评上扩大范围。由重招商数量向重招商质量转变，并向服务项目开工、投产、达效和壮大延伸，切实做好项目跟进服务工作，推动落地项目早日开工建设，鼓励和扶持本地民营企业做大做强。要在优化经济发展环境上继续用力。牢固树立“人人都是投资环境，事事关系绥中发展”的观念，强化整治经济发展环境措施，扎实开展各项评议活动，严肃查处破坏经济发展环境行为，彻底打通症结，切实优化服务，以最优的投资环境吸引客商，以最佳的服务环境感动客商，以最美的人居环境留住客商，全力打造“东北最优软环境”名片，让绥中成为客商投资的首选、兴业的福地。', '要始终把招商引资作为抓经济的有力手段，以招商促开放，以引资促发展。要在招商引资质量上寻求突破。突出重点区域、重点行业和重点企业开展招商，适时提高项目准入门槛，逐步由招商引资向招商选资转变，着力引进一批科技含量高、附加值高、税收高的项目，着力引进一批能延伸主导产业链、关联程度高的项目，着力引进一批牵动性强、投资大的龙头型、基地型项目，特别是要着眼于世界', '户企业入驻。要在招商引资方式上实现转变。充分发挥园区集聚产业功能，逐步变全员招商为专业招商、产业招商，变行政招商为委托招商、以商招商，推动招商引资工作良性发展，逐步进入常态化轨道。要在招商引资领域上逐步拓展。加大在文教、卫生等社会事业项目上的招商力度，力争实现新突破。要在招商引资目标责任考评上扩大范围。由重招商数量向重招商质量转变，并向服务项目开工、投产、达效和壮大延伸，切实做好项目跟进服务工作，推动落地项目早日开工建设，鼓励和扶持本地民营企业做大做强。要在优化经济发展环境上继续用力。牢固树立', '的观念，强化整治经济发展环境措施，扎实开展各项评议活动，严肃查处破坏经济发展环境行为，彻底打通症结，切实优化服务，以最优的投资环境吸引客商，以最佳的服务环境感动客商，以最美的人居环境留住客商，全力打造', '3、大力发展现代农业，促进农业提质增效。要始终围绕农业增效、农民增收目标，扎实持久地推进农业产业结构调整。大力发展设施农业，向规模化要效益；大力发展特色农业，向高附加值要效益；大力发展观光农业，向农业综合开发利用要效益。要加快农田水利、电力等设施建设步伐，积极推广应用新技术、新品种、新材料，全方位服务农业生产。要着力引进农产品加工企业，一定要引进10亿元以上的农业产业化龙头项目，大力扶持农业产业化龙头企业发展，加强农村专业化市场建设，逐步形成龙头带基地、公司连农户、贸工农一体化的经营模式。要积极组建农村社会化服务组织，壮大农民经纪人队伍，培养和造就有文化、懂技术、会经营的新型农民，进一步提高农民进入市场的组织化程度。', '要始终围绕农业增效、农民增收目标，扎实持久地推进农业产业结构调整。大力发展设施农业，向规模化要效益；大力发展特色农业，向高附加值要效益；大力发展观光农业，向农业综合开发利用要效益。要加快农田水利、电力等设施建设步伐，积极推广应用新技术、新品种、新材料，全方位服务农业生产。要着力引进农产品加工企业，一定要引进', '亿元以上的农业产业化龙头项目，大力扶持农业产业化龙头企业发展，加强农村专业化市场建设，逐步形成龙头带基地、公司连农户、贸工农一体化的经营模式。要积极组建农村社会化服务组织，壮大农民经纪人队伍，培养和造就有文化、懂技术、会经营的新型农民，进一步提高农民进入市场的组织化程度。', '4、加快第三产业发展，繁荣活跃城乡经济。要按照“依托资源、注重项目、突出特色、锤炼精品”的思路，推进旅游产品的开发和旅游文化的包装，精心打造以碣石遗址公园为代表的“秦汉文化”，以九门口、永安长城为代表的“明清文化”旅游品牌，加快引进具有强大吸引力的海滨休闲游乐项目，推动绥中旅游产业大发展。要下大力气做强传统商贸业，有效盘活和利用各类商业资源，充分发挥县城核心商圈的支撑和带动作用，不断提高餐饮、娱乐业经营管理水平和服务档次。要加快蔬菜花卉等农产品专业批发市场、农村集贸市场建设步伐，大力发展汽运产业、物流产业，着手兴建汽贸城，规划建设物流园区，让绥中逐步成为运输强县，真正成为连接关内外的重要商品集散地。', '旅游品牌，加快引进具有强大吸引力的海滨休闲游乐项目，推动绥中旅游产业大发展。要下大力气做强传统商贸业，有效盘活和利用各类商业资源，充分发挥县城核心商圈的支撑和带动作用，不断提高餐饮、娱乐业经营管理水平和服务档次。要加快蔬菜花卉等农产品专业批发市场、农村集贸市场建设步伐，大力发展汽运产业、物流产业，着手兴建汽贸城，规划建设物流园区，让绥中逐步成为运输强县，真正成为连接关内外的重要商品集散地。', '5、加速基础设施建设，提高城镇化水平。科学编制我县小城镇发展规划，积极引入市场化运作模式，逐渐形成开放、多元的建管体制，加快建设一批功能完善、环境优美、充满时代气息的新型小城镇，不断提高我县城镇化水平。推进乡村道路建设，积极实施屯屯通油路工程，确保完成滨河大道建设任务，尽快打通西北山区连接海滨的便捷通道，构筑“三横五纵”大路网格局。加快城市开发改造步伐，确保明年城区地产开发面积在100万平方米以上。实施南外环路和中央路北延工程，高质量完成六股河公园建设，启动站前广场和北站广场改造工程，不断扩大公共休闲空间，着力提升城市品位。加强城市综合治理，重拳整治城区市政秩序，全力打造文明宜居城市。', '科学编制我县小城镇发展规划，积极引入市场化运作模式，逐渐形成开放、多元的建管体制，加快建设一批功能完善、环境优美、充满时代气息的新型小城镇，不断提高我县城镇化水平。推进乡村道路建设，积极实施屯屯通油路工程，确保完成滨河大道建设任务，尽快打通西北山区连接海滨的便捷通道，构筑', '万平方米以上。实施南外环路和中央路北延工程，高质量完成六股河公园建设，启动站前广场和北站广场改造工程，不断扩大公共休闲空间，着力提升城市品位。加强城市综合治理，重拳整治城区市政秩序，全力打造文明宜居城市。', '社会事业的发展规模和水平是社会和谐程度的重要标志，要不断加强社会公共服务，让人民群众及时享有经济快速发展带来的成果，促进经济社会协调发展。', '1、加强精神文明建设，繁荣先进文化。着力加强社会主义核心价值体系建设，提高全民文明素质和科学素质。深入推进社会公德、职业道德、家庭美德、个人品德建设，广泛开展道德模范、五好家庭、十星级文明户评比和文明单位、文明乡镇、文明村屯等群众性精神文明创建活动。提倡修身律己、尊老爱幼、勤勉做事、平实做人，推动形成“我为人人、人人为我”的社会氛围。加强未成年人思想道德建设，切实保护青少年身心健康。大力发展文化产业，挖掘绥中文化资源，打造以地方民俗为主的地域文化特色品牌，推动我县文化事业繁荣发展。深入推进文化惠民工程，加强乡镇综合文化站和农家书屋基础设施建设，重视互联网等新兴媒体运用和管理，扎实开展文化下乡、文化广场活动，培养和树立全县人民积极干事创业的精神风貌。', '着力加强社会主义核心价值体系建设，提高全民文明素质和科学素质。深入推进社会公德、职业道德、家庭美德、个人品德建设，广泛开展道德模范、五好家庭、十星级文明户评比和文明单位、文明乡镇、文明村屯等群众性精神文明创建活动。提倡修身律己、尊老爱幼、勤勉做事、平实做人，推动形成', '的社会氛围。加强未成年人思想道德建设，切实保护青少年身心健康。大力发展文化产业，挖掘绥中文化资源，打造以地方民俗为主的地域文化特色品牌，推动我县文化事业繁荣发展。深入推进文化惠民工程，加强乡镇综合文化站和农家书屋基础设施建设，重视互联网等新兴媒体运用和管理，扎实开展文化下乡、文化广场活动，培养和树立全县人民积极干事创业的精神风貌。', '2、协调发展各项事业，满足人民群众需求。坚持优先发展教育，加快九年一贯制学校建设，逐步改善农村办学条件；高度重视学前教育，大力抓好职业教育，办好人民满意的教育。进一步整合优化医疗卫生资源，改善医疗卫生条件，完善县、乡、村三级医疗服务网络建设，提升地区医疗服务能力和就医质量，不断满足群众就医需求。加强各类传染病预防控制，妥善处置公共卫生突发事件。做好人口和计划生育工作，提高出生人口素质，遏制出生人口性别比偏高趋势。积极整合全县有线电视资源，实施有线电视数字化工程，尽快实现户户通有线电视目标。完善体育基础设施，启动体育综合场馆建设，广泛开展全民体育活动，促进全民身体健康。', '坚持优先发展教育，加快九年一贯制学校建设，逐步改善农村办学条件；高度重视学前教育，大力抓好职业教育，办好人民满意的教育。进一步整合优化医疗卫生资源，改善医疗卫生条件，完善县、乡、村三级医疗服务网络建设，提升地区医疗服务能力和就医质量，不断满足群众就医需求。加强各类传染病预防控制，妥善处置公共卫生突发事件。做好人口和计划生育工作，提高出生人口素质，遏制出生人口性别比偏高趋势。积极整合全县有线电视资源，实施有线电视数字化工程，尽快实现户户通有线电视目标。完善体育基础设施，启动体育综合场馆建设，广泛开展全民体育活动，促进全民身体健康。', '3、不断完善社会保障体系，持续改善民生。实施积极的就业政策，大力开发各类就业岗位，切实加强对高校毕业生、下岗失业人员、复转军人和农民工的就业服务，鼓励和支持自主创业，以创业带动就业。全面推进城乡医疗保险和新型农村社会养老保险工作，不断扩大社会保险覆盖范围。加大扶贫帮困力度，实施扶贫开发和大病救助工程，推进廉租房建设，确保城乡低保户、农村五保户和其他弱势群体的生活得到保障。', '实施积极的就业政策，大力开发各类就业岗位，切实加强对高校毕业生、下岗失业人员、复转军人和农民工的就业服务，鼓励和支持自主创业，以创业带动就业。全面推进城乡医疗保险和新型农村社会养老保险工作，不断扩大社会保险覆盖范围。加大扶贫帮困力度，实施扶贫开发和大病救助工程，推进廉租房建设，确保城乡低保户、农村五保户和其他弱势群体的生活得到保障。', '4、着力推进民主法制建设，加速依法治县进程。充分发挥人民代表大会及其常委会作用，推进决策科学化、民主化、法制化。充分发挥人民政协优势，提高政治协商、民主监督、参政议政实效。以积极负责的态度推进扩权改革，加快政府职能转变，用好用足各项管理权限，切实提高工作效率和服务水平，提高科学理政、依法行政能力，努力建设勤政规范、运转协调、公正透明、廉洁高效的政府。支持工会、共青团、妇联、科协等组织围绕各自职能，团结带领群众在各条战线创先争优。积极开展军民共建活动，巩固军政军民团结。进一步发展壮大爱国统一战线，做好民族宗教工作，引导和鼓励社会各个阶层人士积极投身沿海经济强县建设。突出民主选举、民主决策、民主管理、民主监督关键环节，完善政务、村务，包括党务公开制度，扩大和发展基层民主。推进公正司法，保证审判机关、检察机关依法公正地行使审判权、检察权。深入开展法制宣传教育，弘扬法治精神，增强全社会守法用法意识。', '充分发挥人民代表大会及其常委会作用，推进决策科学化、民主化、法制化。充分发挥人民政协优势，提高政治协商、民主监督、参政议政实效。以积极负责的态度推进扩权改革，加快政府职能转变，用好用足各项管理权限，切实提高工作效率和服务水平，提高科学理政、依法行政能力，努力建设勤政规范、运转协调、公正透明、廉洁高效的政府。支持工会、共青团、妇联、科协等组织围绕各自职能，团结带领群众在各条战线创先争优。积极开展军民共建活动，巩固军政军民团结。进一步发展壮大爱国统一战线，做好民族宗教工作，引导和鼓励社会各个阶层人士积极投身沿海经济强县建设。突出民主选举、民主决策、民主管理、民主监督关键环节，完善政务、村务，包括党务公开制度，扩大和发展基层民主。推进公正司法，保证审判机关、检察机关依法公正地行使审判权、检察权。深入开展法制宣传教育，弘扬法治精神，增强全社会守法用法意识。', '5、深入开展争创活动，巩固平安稳定成果。高度重视稳定工作，为经济发展提供良好空间。积极开展新一轮争创平安县活动，加强社会治安综合治理，依法防范和严厉打击各种违法犯罪活动，切实增强人民群众安全感。妥善处理人民内部矛盾，坚持事要解决原则，以高度负责的精神做好群众来信来访工作。认真做好安全生产和消防工作，保证食品药品安全，完善各类突发事件应急机制，确保人民生命财产安全，确保社会大局持续稳定。', '高度重视稳定工作，为经济发展提供良好空间。积极开展新一轮争创平安县活动，加强社会治安综合治理，依法防范和严厉打击各种违法犯罪活动，切实增强人民群众安全感。妥善处理人民内部矛盾，坚持事要解决原则，以高度负责的精神做好群众来信来访工作。认真做好安全生产和消防工作，保证食品药品安全，完善各类突发事件应急机制，确保人民生命财产安全，确保社会大局持续稳定。', '把握重大历史机遇，建设沿海经济强县，关键在人，核心在于加强和改善党的领导。要切实加强党的执政能力和先进性建设，不断提高党领导经济社会发展能力和水平，积极打造风清气正、干事创业的政治环境。', '一要切实加强党的思想建设。深入贯彻落实党的十七届五中全会精神，坚持用科学发展观武装头脑、指导实践，进一步解放思想、更新观念，善于适应新形势，抢抓新机遇，敢于突破体制机制障碍，形成有利于创新创业、改革发展的浓厚氛围。要推进学习型党组织建设，强化党性修养，锤炼思想作风，全面提高各级领导干部的理论素养，注重抓好干部实践锻炼，切实增强干部完成急难险重任务的能力，努力适应扩权改革需要。', '深入贯彻落实党的十七届五中全会精神，坚持用科学发展观武装头脑、指导实践，进一步解放思想、更新观念，善于适应新形势，抢抓新机遇，敢于突破体制机制障碍，形成有利于创新创业、改革发展的浓厚氛围。要推进学习型党组织建设，强化党性修养，锤炼思想作风，全面提高各级领导干部的理论素养，注重抓好干部实践锻炼，切实增强干部完成急难险重任务的能力，努力适应扩权改革需要。', '二要切实加强领导班子和干部队伍建设。要认真做好县、乡党委换届工作，按照“干事、懂行、廉洁、和谐”的要求，加强领导班子建设，打造一支充满激情、团结和谐、干净干事的领导班子，形成驾驭全局和领导发展的坚强核心。严格执行《党政领导干部选拔任用工作条例》，在完善干部提名、改进干部考察、规范竞争性选拔、加强干部监督等方面取得新进展。加大干部考核选拔力度，不断提高选人用人公信度，对抓经济有招法、抓发展有成效、抓稳定有水平的干部，要大胆提拔；对积极投身工作、快速打开局面和始终埋头苦干的同志，要大胆使用。真正让有能力、有潜力、有魄力的优秀干部脱颖而出，真正让想干事的有机会、能干事的有舞台、干成事的有实惠，真正让有为者有位、无为者让位、有位者大有作为。要实施人才强县战略，加强人才队伍建设，营造人才成长和发挥作用的宽松环境，建设一支数量充足、结构合理、素质优良，适应绥中快速发展的人才队伍，为推动经济社会跨越式发展提供智力支持。', '的要求，加强领导班子建设，打造一支充满激情、团结和谐、干净干事的领导班子，形成驾驭全局和领导发展的坚强核心。严格执行《党政领导干部选拔任用工作条例》，在完善干部提名、改进干部考察、规范竞争性选拔、加强干部监督等方面取得新进展。加大干部考核选拔力度，不断提高选人用人公信度，对抓经济有招法、抓发展有成效、抓稳定有水平的干部，要大胆提拔；对积极投身工作、快速打开局面和始终埋头苦干的同志，要大胆使用。真正让有能力、有潜力、有魄力的优秀干部脱颖而出，真正让想干事的有机会、能干事的有舞台、干成事的有实惠，真正让有为者有位、无为者让位、有位者大有作为。要实施人才强县战略，加强人才队伍建设，营造人才成长和发挥作用的宽松环境，建设一支数量充足、结构合理、素质优良，适应绥中快速发展的人才队伍，为推动经济社会跨越式发展提供智力支持。', '三要切实加强党的基层组织建设。深入开展创先争优活动，立足加快发展大局，推进党群共建创先争优，在全社会形成学习先进、争当先进、赶超先进的良好风气。全面推进农村、企业、社区、机关和学校基层组织建设，实现在非公有制经济和新社会组织中，党的组织和工作“双覆盖”，做好社区“两委”换届选举工作。继续加强党建工作目标责任制管理，把干部自身建设、乡镇部门建设和全县中心工作有机结合，全面考核党委、政府和机关工作，建立健全基层组织先进性建设的长效机制，全面提升基层组织的创造力、凝聚力和战斗力。认真做好新党员的发展、教育和管理工作，提升党员队伍整体素质，让广大党员成为全县加快发展的模范、跨越赶超的标兵、率先崛起的先锋。', '深入开展创先争优活动，立足加快发展大局，推进党群共建创先争优，在全社会形成学习先进、争当先进、赶超先进的良好风气。全面推进农村、企业、社区、机关和学校基层组织建设，实现在非公有制经济和新社会组织中，党的组织和工作', '换届选举工作。继续加强党建工作目标责任制管理，把干部自身建设、乡镇部门建设和全县中心工作有机结合，全面考核党委、政府和机关工作，建立健全基层组织先进性建设的长效机制，全面提升基层组织的创造力、凝聚力和战斗力。认真做好新党员的发展、教育和管理工作，提升党员队伍整体素质，让广大党员成为全县加快发展的模范、跨越赶超的标兵、率先崛起的先锋。', '四要切实加强党风廉政建设。要着力抓好教育、制度、监督、改革、纠风、惩处等方面工作，扎实推进惩治和预防腐败体系建设，严格执行党风廉政建设责任制。进一步加强对农村基层干部的教育和管理，杜绝作风粗暴、贪污受贿、腐化堕落等现象的发生。严肃查办违纪违法案件，切实纠正损害群众利益的不正之风。深化行政审批、财政管理、干部人事制度改革，用制度管权、管事、管人，努力提高反腐倡廉科学化水平。广大党员领导干部要认真遵守廉洁从政准则，筑牢思想道德防线，提高拒腐防变能力。要始终坚持和实践全心全意为人民服务的根本宗旨，大兴艰苦奋斗、求真务实之风，全身心地干好我们的事业，真正把精力集中到为民造福上，把心思放到谋划发展上，把本领用在克难攻坚上，把功夫下在工作落实上，创造出经得起历史和实践检验、无愧于时代和人民的新业绩。', '要着力抓好教育、制度、监督、改革、纠风、惩处等方面工作，扎实推进惩治和预防腐败体系建设，严格执行党风廉政建设责任制。进一步加强对农村基层干部的教育和管理，杜绝作风粗暴、贪污受贿、腐化堕落等现象的发生。严肃查办违纪违法案件，切实纠正损害群众利益的不正之风。深化行政审批、财政管理、干部人事制度改革，用制度管权、管事、管人，努力提高反腐倡廉科学化水平。广大党员领导干部要认真遵守廉洁从政准则，筑牢思想道德防线，提高拒腐防变能力。要始终坚持和实践全心全意为人民服务的根本宗旨，大兴艰苦奋斗、求真务实之风，全身心地干好我们的事业，真正把精力集中到为民造福上，把心思放到谋划发展上，把本领用在克难攻坚上，把功夫下在工作落实上，创造出经得起历史和实践检验、无愧于时代和人民的新业绩。', '同志们，我们已经站在新的历史起点上，崇高的使命激励着我们，历史的重任鞭策着我们，任何艰难险阻都挡不住绥中前进的步伐！让我们紧紧团结起来，积极行动起来，在党的十七届五中全会精神指引下，万众一心，奋发图强，以崭新的姿态向沿海经济强县迈进，共同创造广大人民群众的幸福生活，共同谱写绥中跨越发展的壮丽篇章！']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>47</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>这个春天认养农业在连山大地风生水起</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2017-05-02</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/zwyw/201705/t20170502_716518.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['3月24日，全市加快培育农业农村发展新动能助力脱贫攻坚动员大会结束后，连山区委、区政府立即对认养农业工作开展全面落实，并在4月1日召开的全区农村工作会议上对加快推进全区认养农业工作进行全面部署。区委、区政府又于4月5日、6日连续两次召开关于认养农业的专题会，推进认养农业快速发展。可以说，发展认养农业正在成为连山区撬动农业供给侧结构性改革、推动传统农业转型升级的新支点。 认养农业取得新成效 早在2016年，全市农村工作暨脱贫攻坚会议就鼓励广大干部群众，依托区位交通、产业资源及气候条件等优势，研究发展认养农业，促进农业发展、农民增收。去年以来，连山区结合本地实际，依托丰富的资源和地缘优势，在充分调研和外出考察学习的基础上，有效整合全区农业资源，谋划和定位认养农业发展思路，成功打造出认养农业新模式，取得了良好的社会效益和经济效益。 塔山乡孟屯村碧岚农场：今年 3月份，团区委联合碧岚欢乐农场开展“爱心认养 捐资助学”果树认养微公益活动。认养一棵苹果树，需要200元或300元，其费用的百分之十用来资助全区的贫困学生。目前已认养300多棵，共筹集资金6万余元，其中筹得6000元捐资助学款，该项活动得到了团中央的高度认可。 锦郊街道二台子村兴华果业合作社：该合作社为扶贫基地，现有5个认养区、5个采摘区。2016年，该合作社就开展了认养农业，城里有20个家庭认养蔬菜。今年4月19日，市委、市政府班子成员认养13棵果树。4月20日-22日，城里人认养果树53棵。4月22日，城里家庭认养58个小菜园。该合作社拿出认养收入的5%给二台子村的低保户做福利。 杨郊乡鼎硕果业合作社：2016年，认养出果树400棵。今年推出10年生以上苹果树，每棵产量约130-150斤，预计认养果树达2000株。该合作社打出“捆绑销售”牌，组团认养果树超过30棵，给“绿色农家土猪”一头或者农家溜达鸡蛋等绿色产品，同时还有恒温库为认养者免费提供储藏空间，提供苹果包装箱。 新台门镇汉沟立国葡萄种植合作社：占地面积130.5亩，是新台门镇最大的葡萄生产基地。今年，已有两个棚的葡萄被中国人民大学老师认养。现在还可提供50亩葡萄认养区。 寺儿堡镇后裕村开心樱桃：2015年开始利用微信公众号“葫芦岛大樱桃”、美团等进行网上销售。今年开展认养农业，采摘时间为5月23日到7月1日。 塔山乡三义庙村畅达果蔬专业合作社：2016年建日光温室高标准大棚34栋。今年发展认养农业，可提供裸地菜、设施蔬菜认领区，提供黄瓜、西红柿、青椒等绿色蔬菜。 引领传统农业发展变革 时至今日，经过一年多的推进，发展认养农业已从刚开始的倡导阶段转为各乡镇，包括越来越多的农事企业、合作社、种养大户和农民的具体实践。 为进一步推进全区认养农业健康发展，相关部门编制符合区情实际的《连山区发展认养农业实施方案》，成立连山区认养农业领导小组。区政府指定由区农经局、区果树局、区畜牧局、区林业局组成的认养农业专门推进小组，用于指导各乡镇开展全区认养农业基础数据统计工作。区领导带队到抚顺市清源县参观学习，把互联网平台建立起来，把优质的农产品尽快卖出去。 今年，全区要大力发展果树、蔬菜、禽类等认养工作——山神庙鸡冠山采摘园占地1000多亩，品种以华红苹果为主，每斤可卖5元以上，特色是牛粪代替化肥，今年拟发展果树认养。新台门立国葡萄合作社也要在原有基础上，再发展100-200亩认养区，扩大认领规模。沙河营乡要在上喂村、石灰窑子村发展认养果树100株；马道村发展认养裸地菜200亩；东官沟、上坡子村发展草莓、蓝莓采摘，计划建设认养区100亩。塔山万泉河生态农业开发有限公司，发展认养春雪桃和李子。锦郊街道的兴华果业合作社，要在蔬菜、果树等方面全面开展认养，认养区达180亩。白马石乡、孤竹营子乡、山神庙子乡等西部乡镇，发展土鸡和笨鸡蛋认养。还将研究建设中小学精品蔬菜配送中心，确保学生食品安全。此外，连山区瞄准京津冀市场，引导合作社建立农副产品生产加工基地。 打造“认养农业+”的时代 做好认养农业，既可以增加农民收入，同时又可以达到调整农业产业结构的目的，完成供给侧结构性改革。认养农业可以与脱贫攻坚工作结合起来，促进农户脱贫。做好认养农业，是整合农业资源、开发农村新动能，发展农业新业态，进一步发展农业的助推器。 锦郊街道党委书记于来在接受记者采访时说：“以经济发展为核心，充分发挥近郊农业生产优势，加快发展特色休闲采摘农业，通过基地建设推动城郊生态发展，打造环城一小时休闲采摘旅游农业圈。近年来，锦郊街道结合地缘优势，将休闲农业融入旅游产业，以‘花千谷’认养农业的成功经验为抓手，以点带面将认养农业不断壮大完善。对都市人来说，认养农业圆了田园梦，享受了劳动果实，那些被赋予情感价值的认养作物，让游客体验到了农耕的快乐。从长远角度来看，这种模式更拉动了游客的二次、三次甚至N次消费。认养农业作为休闲农业的一种新模式，也间接带动了农家乐等其他休闲农业的发展。” 市领导如此重视认养农业，是形势所迫，也是现实所需。“当前我市农民人均年收入全省最低，不重视农业、农村工作不行。”市里召开每一次大会，市委书记孙轶都会强调要研究发展认养农业，通过发展认养农业推动农业供给侧结构性改革，推动传统农业转型升级和农民增收致富。为此，连山区委、区政府要求各乡镇要转变观念，高度重视认养农业工作；要根据各乡镇实际，摸清底数，抓紧与学校、与企业、与合作社、与超市进行对接：要规范管理，尽快完成土地确权；要注重发展认养农业的深度，进一步进行优势资源整合，打造“认养农业+”时代，通过现代化的手段，通过网站平台，实施全程监控，让更多的人点击了解基地生产情况，建设质量追溯体系。要结合全区实际，根据需要，把认养农业重点放在发展果业、家禽等项目上，实行专业化生产、规模化发展、产业化经营，提升组织化水平，带动一系列产业链条的延伸；要利用自身优势、现有资源和开展生态项目的理念，在启动认养农业的同时开发出一系列乡村游项目，为传统农业转型发展探索出一条全新道路。', '3月24日，全市加快培育农业农村发展新动能助力脱贫攻坚动员大会结束后，连山区委、区政府立即对认养农业工作开展全面落实，并在4月1日召开的全区农村工作会议上对加快推进全区认养农业工作进行全面部署。区委、区政府又于4月5日、6日连续两次召开关于认养农业的专题会，推进认养农业快速发展。可以说，发展认养农业正在成为连山区撬动农业供给侧结构性改革、推动传统农业转型升级的新支点。', '早在2016年，全市农村工作暨脱贫攻坚会议就鼓励广大干部群众，依托区位交通、产业资源及气候条件等优势，研究发展认养农业，促进农业发展、农民增收。去年以来，连山区结合本地实际，依托丰富的资源和地缘优势，在充分调研和外出考察学习的基础上，有效整合全区农业资源，谋划和定位认养农业发展思路，成功打造出认养农业新模式，取得了良好的社会效益和经济效益。', '塔山乡孟屯村碧岚农场：今年 3月份，团区委联合碧岚欢乐农场开展“爱心认养 捐资助学”果树认养微公益活动。认养一棵苹果树，需要200元或300元，其费用的百分之十用来资助全区的贫困学生。目前已认养300多棵，共筹集资金6万余元，其中筹得6000元捐资助学款，该项活动得到了团中央的高度认可。', '锦郊街道二台子村兴华果业合作社：该合作社为扶贫基地，现有5个认养区、5个采摘区。2016年，该合作社就开展了认养农业，城里有20个家庭认养蔬菜。今年4月19日，市委、市政府班子成员认养13棵果树。4月20日-22日，城里人认养果树53棵。4月22日，城里家庭认养58个小菜园。该合作社拿出认养收入的5%给二台子村的低保户做福利。', '杨郊乡鼎硕果业合作社：2016年，认养出果树400棵。今年推出10年生以上苹果树，每棵产量约130-150斤，预计认养果树达2000株。该合作社打出“捆绑销售”牌，组团认养果树超过30棵，给“绿色农家土猪”一头或者农家溜达鸡蛋等绿色产品，同时还有恒温库为认养者免费提供储藏空间，提供苹果包装箱。', '新台门镇汉沟立国葡萄种植合作社：占地面积130.5亩，是新台门镇最大的葡萄生产基地。今年，已有两个棚的葡萄被中国人民大学老师认养。现在还可提供50亩葡萄认养区。', '寺儿堡镇后裕村开心樱桃：2015年开始利用微信公众号“葫芦岛大樱桃”、美团等进行网上销售。今年开展认养农业，采摘时间为5月23日到7月1日。', '塔山乡三义庙村畅达果蔬专业合作社：2016年建日光温室高标准大棚34栋。今年发展认养农业，可提供裸地菜、设施蔬菜认领区，提供黄瓜、西红柿、青椒等绿色蔬菜。', '时至今日，经过一年多的推进，发展认养农业已从刚开始的倡导阶段转为各乡镇，包括越来越多的农事企业、合作社、种养大户和农民的具体实践。', '为进一步推进全区认养农业健康发展，相关部门编制符合区情实际的《连山区发展认养农业实施方案》，成立连山区认养农业领导小组。区政府指定由区农经局、区果树局、区畜牧局、区林业局组成的认养农业专门推进小组，用于指导各乡镇开展全区认养农业基础数据统计工作。区领导带队到抚顺市清源县参观学习，把互联网平台建立起来，把优质的农产品尽快卖出去。', '今年，全区要大力发展果树、蔬菜、禽类等认养工作——山神庙鸡冠山采摘园占地1000多亩，品种以华红苹果为主，每斤可卖5元以上，特色是牛粪代替化肥，今年拟发展果树认养。新台门立国葡萄合作社也要在原有基础上，再发展100-200亩认养区，扩大认领规模。沙河营乡要在上喂村、石灰窑子村发展认养果树100株；马道村发展认养裸地菜200亩；东官沟、上坡子村发展草莓、蓝莓采摘，计划建设认养区100亩。塔山万泉河生态农业开发有限公司，发展认养春雪桃和李子。锦郊街道的兴华果业合作社，要在蔬菜、果树等方面全面开展认养，认养区达180亩。白马石乡、孤竹营子乡、山神庙子乡等西部乡镇，发展土鸡和笨鸡蛋认养。还将研究建设中小学精品蔬菜配送中心，确保学生食品安全。此外，连山区瞄准京津冀市场，引导合作社建立农副产品生产加工基地。', '做好认养农业，既可以增加农民收入，同时又可以达到调整农业产业结构的目的，完成供给侧结构性改革。认养农业可以与脱贫攻坚工作结合起来，促进农户脱贫。做好认养农业，是整合农业资源、开发农村新动能，发展农业新业态，进一步发展农业的助推器。', '锦郊街道党委书记于来在接受记者采访时说：“以经济发展为核心，充分发挥近郊农业生产优势，加快发展特色休闲采摘农业，通过基地建设推动城郊生态发展，打造环城一小时休闲采摘旅游农业圈。近年来，锦郊街道结合地缘优势，将休闲农业融入旅游产业，以‘花千谷’认养农业的成功经验为抓手，以点带面将认养农业不断壮大完善。对都市人来说，认养农业圆了田园梦，享受了劳动果实，那些被赋予情感价值的认养作物，让游客体验到了农耕的快乐。从长远角度来看，这种模式更拉动了游客的二次、三次甚至N次消费。认养农业作为休闲农业的一种新模式，也间接带动了农家乐等其他休闲农业的发展。”', '市领导如此重视认养农业，是形势所迫，也是现实所需。“当前我市农民人均年收入全省最低，不重视农业、农村工作不行。”市里召开每一次大会，市委书记孙轶都会强调要研究发展认养农业，通过发展认养农业推动农业供给侧结构性改革，推动传统农业转型升级和农民增收致富。为此，连山区委、区政府要求各乡镇要转变观念，高度重视认养农业工作；要根据各乡镇实际，摸清底数，抓紧与学校、与企业、与合作社、与超市进行对接：要规范管理，尽快完成土地确权；要注重发展认养农业的深度，进一步进行优势资源整合，打造“认养农业+”时代，通过现代化的手段，通过网站平台，实施全程监控，让更多的人点击了解基地生产情况，建设质量追溯体系。要结合全区实际，根据需要，把认养农业重点放在发展果业、家禽等项目上，实行专业化生产、规模化发展、产业化经营，提升组织化水平，带动一系列产业链条的延伸；要利用自身优势、现有资源和开展生态项目的理念，在启动认养农业的同时开发出一系列乡村游项目，为传统农业转型发展探索出一条全新道路。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>47</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社落实省社主任肖涵陪同副省长赵化明到葫芦岛市调研时讲话精神</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2017-04-13</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968481.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['葫芦岛市供销社落实省社主任肖涵陪同副省长赵化明到葫芦岛市调研时讲话精神_葫芦岛市供销合作社联合社', '近日，辽宁省供销社主任肖涵陪同副省长赵化明到葫芦岛市调研，重点视察葫芦岛市农业工作并召开座谈会。在座谈会上，肖涵主任提出要求，请葫芦岛市把物流贸易做起来，要学习盘锦市供销社经验，实施双向工程，尝试交易市场升级改造，建现代流通。肖涵主任对葫芦岛市供销社系统债务化解工作给予好评，建议积极盘活资产，做好证件、手续、确权等各项工作，政府要在政策上给予支持。', '葫芦岛市供销社积极落实肖涵主任讲话精神，调整工作思路，把肖涵主任讲话精神落实到具体工作中去。', '一是赴盘锦市供销社考察。由领导班子成员带领相关科室负责人及直属企业负责人到盘锦市供销社考察学习盘锦市供销社踏实干事韧劲、培育项目能力、敢闯敢试的精神。', '二是将物流、贸易先做起来。葫芦岛市场从做便利店（农超对接）开始，从恢复基层社及网络开始，再通过整合逐步将贸易做起来。', '三是尝试交易市场升级改造。先培育市场，条件成熟后，再建现代流通。同时在现有基础上，关注田间地头市场，进一步引导田间地头市场规范化。', '四是抓好资产确权。制定社有资产管理办法，重点做好资产确权、资产盘活及资产监管，确保资产不再流失。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>47</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社认真总结一季度工作科学安排二季度工作</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2017-04-13</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968475.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['一季度，市供销社注重全年工作的安排分解，从六个方面入手：发挥系统优势和特点抓好春耕备耕；与市农委强化合作，合力推进服务三农工作；赴盘锦市供销社考察学习农产品流通体系建设；开展清产核资各项基础；落实各项指标考核工作；重点做好了省市政府工作报告涉及的重要任务指标的完成工作。', '在深化供销合作社综合改革方面，召开社务会确定全年总体工作思路；召开全市深化供销合作社综合改革工作会议，进一步明确综合改革路线图和时间表；细化改革责任分工，制定任务分解表，明确责任和分工；加强与25个部门统筹协调推进工作落实。', '在发挥供销社服务优势，构建新型农产品流通体系方面，继续抓好 “农超对接”项目建设，加大开放办社，以参股、业务合作、加盟等合作方式，扩大农产品销售终端规模，为本地区农业生产、农民生活提供便捷服务。', '一是继续推进农产品流通体系建设。重点抓好基地认证、完善配送中心、终端建设环节。加强“基地+销售”直接联结环节，增设“农超对接”超市数量，实现以团体配送为重点的农产品现代流通体系建设有新突破。', '二是继续加强为农服务平台建设。加快为农服务中心建设。拓宽服务范围，提供农资直供、智能配肥、农机服务、农民培训、仓储物流、文体娱乐、电子商务、土地流转等生产生活和社会公共服务；加强金融惠农平台建设。以设立村口银行为突破口，与金融机构合作，为农民提供小额提现及代缴电话费、电费等业务；加强电子商务平台建设。助推基层社、专业合作社+互联网的融合；组织基层社兴办电商示范店，引领龙头企业、农民专业合作社建成特色旗舰店。', '三是开展农民素质能力提升工程。与辽宁省农业经济学校签订协议，开展农业知识及电商培训，提升农民能力和素质。', '四是推进基层社分类改造。将基层社改造纳入当地小城镇发展规划，调整基层社建制，优化基层社资源和网络布局，新建改建共建一批基层社，提高为农服务能力。', '五是实施绩效考核督察和综合改革督查。做好绩效督查，督促、推进考核指标完成进度，处理考核工作中遇到问题。综合改革督查，对各县(市)区社改革情况进行每月调度，督任务、督进度、督成效，察认识、察责任、察作风，确保改革方向不偏离、改革任务不落空。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>47</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社赴盘锦辽宁金社裕农供销集团考察学习</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2017-04-13</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xczx/202005/t20200529_969704.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['为全面贯彻落实《中共中央国务院关于深化供销合作社综合改革的决定》（中发〔2015〕11号）文件精神，进一步推进葫芦岛市供销社的改革与发展，3月13日，市供销社领导班子成员带领部分业务科室人员，以及社有企业负责人，一行12人赴盘锦辽宁金社裕农供销集团进行考察学习。在盘锦市供销社领导的陪同下，先后考察了金社裕农乡村百货连锁店，金社裕农乡村百货超市大堡子店，金社裕农有机河蟹城南基地，金社裕农米业有限公司，盘锦供销电子商务有限公司，详细询问了辽宁金社裕农供销集团的运营情况和操作方法，以及如何为“三农”服务情况。考察后与盘锦市供销社领导和部分科长进行了座谈，重点了解辽宁金社裕农供销集团的组织架构、管理体制、股权结构等情况。', '通过学习考察，开阔了思路，找到了差距，葫芦岛市供销社将借鉴盘锦市供销社成功经验，结合自身实际，不断深化综合改革，创新经营机制，拓展服务领域，为促进葫芦岛市农业发展、农民增收、农村繁荣做出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>47</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>年九件惠民实事工程进展情况</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2017-04-12</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xxgk_21446/zfxxgk/fdzdgknr/zdxmhggzypz/zdjsxm_421002/202002/t20200220_887542.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['1、城区环境综合整治工作全面开展，赴江苏宿迁市宿城区、山东威海市环翠区进行了考察学习，出台了《绥中县城区环境综合整治工作实施方案》，重点解决城区环境卫生、市容市貌、交通秩序、运输管理等突出问题，实现集中整治和长效管理相结合。', '，出台了《绥中县城区环境综合整治工作实施方案》，重点解决城区环境卫生、市容市貌、交通秩序、运输管理等突出问题，实现集中整治和长效管理相结合', '2、盛京医院东戴河分院576.5亩土地证、可研批复和地勘已办理完毕，目前，正在帮助协调办理法人证书等前期手续。', '576.5亩土地证、可研批复和地勘已办理完毕，目前，正在帮助协调办理法人证书等前期手续。', '3、绥中北站客运站项目已被省交通厅纳入全省道路运输“十三五”发展规划，目前，正在进行项目规划。', '6、新区棚户区改造工程完成了前期核量工作，即将出台《居民房屋补偿方案》；审批手续已上报市开发办。', '8、9,000名贫困人口精准脱贫工作全面推进，召开了全县脱贫攻坚大会，对扶贫工作进行了详细安排，进一步明确了脱贫攻坚基本思路；出台了《绥中县2017年脱贫攻坚工作计划》和《绥中县2017年脱贫攻坚工作考核办法》，确保完满完成脱贫攻坚任务。', '工作全面推进，召开了全县脱贫攻坚大会，对扶贫工作进行了详细安排，进一步明确了脱贫攻坚基本思路；出台了《绥中县2017年脱贫攻坚工作计划》和《绥中县2017年脱贫攻坚工作考核办法》，确保完满完成脱贫攻坚任务。', '9、高清视频监控系统初步建成，共联入新平台685个点位，其中在线点位381个，目前正在进行调试验收。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>47</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>年教育督导报告</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2017-03-10</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/bmdt/202004/t20200425_941678.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['根据全市教育工作会议精神，结合市政府教育督导室2016年工作部署，就我县教育督导汇报两个问题： 一、2016年教育督导评估工作简要回顾 督学室在县政府和教育局的正确领导下，在省市政府教育督导办的指导下，按照“围绕中心，突出重点，抓住关键”的工作思路，以“义务教育均衡发展督导评估”为核心，切实履行“督导、检查、评估、验收”职能，圆满地完成了各项工作计划。 （一）全力做好义务教育均衡发展督导工作 1、认真测算、合理调整，圆满报送八项指标数据。一月份对全县“义教均衡”工作的八项指标进行了测算，发现我县八项指标数据与省定标准还有较大差距。8月份参加了省市组织的义教均衡发展监测信息系统培训会后，我县又于8月30日召开了我县财会人员参加的义教均衡发展监测信息系统培训会，并要求财会人员于9月10日前填好数据上报。督学室于9月中旬进行了协调、测算、整改，最终数据结果合乎省定标准，中学是0.271，小学是0.475，并按时间节点进行了上报。市督学室领导已经审核通过。 2、召开了全县义教均衡工作推进会、观摩会。5月5日在党校召开全县义教均衡工作推进会，参加会议的有县局和东戴河局领导及局机关科长主任，全县义务教育学校校长，副校长、档案员，会上张素玲主任对省督办下发的义务教育均衡发展工作新评估细则做了解说，对今后的重点工作做了指导，包括功能教室、设备设施、档案建设等。石局长做了重要讲话，要求各校一定要提高认识，克服侥幸心理，把握重点，做好功能室建设和校园文化建设。 4月21日，教育局一行6人，由张主任带队，到兴城市考察学习义教均衡工作经验。此后，5月18日，教育局组织全县校长五十余人组成参观学习团，赴兴城市考察学习义务教育均衡工作。参观队伍依次走进兴城南一小学、曹庄四城小学、滨海经济区学校、大寨中学，重点对四所学校的校园文化建设、音乐室、地理教室、综合实践活动室、心理辅导室等进行了参观学习。此次观摩学习，增加了校长们对义务教育均衡发展工作的直观了解，为各校加快推进该工作开拓了视野，开阔了思路，可以有效推进绥中县义务教育均衡工作的开展。 3、培训指导与线上指导、逐校检查相结合，完善“义教均衡”档案。5月3日召开教育局相关科室档案分工会，安局长做了重要讲话，要求各科室尽早完善整理义教均衡政府档案工作。5月11日在教育局五楼召开全县学校档案员培训会议，对档案内容和形式，重点对档案外观的规范做了统一要求。同时，在QQ群里加强线上指导；9月26日至10月13日，督学室为期11天，对全县所有初中、小学、九年一贯制及个别村小，进行了细致的检查，目前，各学校档案均已构建完毕，基本能够做到规范、美观、整洁，2016—2017年度档案也在逐步健全完善。 4、督促自查整改。9月26日至10月13日，督学室依据《辽宁省义教均衡发展工作评估细则》，逐校检查，并根据检查情况与各校进行了交流，提出了整改意见。目前，各个学校都在积极准备之中，部分学校的功能室已经建设完备，校园文化建设独具匠心。 （二）认真做好其他常规督导评估工作 1、认真开展春季、秋季开学专项督导工作。根据《辽宁省教育厅关于开展2016年春季、秋季开学专项督导检查的通知》要求（辽教电【2016】8号）和绥中县责任区督学督导工作安排， 督学室组织10名责任区督学每学期初就入校开展了春季或秋季开学的专项督导。督学们深入学校，采取听校长汇报，查有关设施、师生座谈等方式，对各校的开学条件保障、规范办学行为、校园安全管理、校舍安全等情况进行了实地督导，对该项工作肯定的同时提出了合理化建议。该项督导促进了我县春季、秋季开学工作的正常运转。 2、认真开展“改薄”工作督导。为贯彻落实《辽宁省政府教育督导室关于开展全面改善贫困地区义务教育薄弱学校基本办学条件工作专项督导的通知》辽政教督室〔2016〕9号文件精神，5月底至6月上旬，督学室会同教育局事务处、仪器站、财务科、人事科共同对我县改薄工作进行了初步的评估，按照省评估细则的要求，逐项逐条对学校软、硬件建设进行审核、评估，并且就《全面改薄全口径项目累计资金使用情况统计表》的数据进行了详实的调查，并做好了自评报告的撰写和上报。 6月16日，省教育厅财务处副处长赵海强带领的督导组一行4人莅临绥中，对绥中县2014年和2015年全面改善贫困地区义务教育薄弱学校基本办学条件工作进行专项督导。赵海强一行在县政府会议室听取了朱县长的工作汇报，查看了相关档案，又随机抽取了王家店中学、大王庙九年一贯制学校、明水中学、西平小学4所学校。在反馈中检查组对绥中县的“改薄”工作给予高度评价，称赞学生食堂布局合理、卫生良好，教学楼设计美观、实用，功能室符合标准，设备齐全，师资培训注重实效。 3、开展中小学有偿补课专项督导 7月9日接到省市督导室《关于开展中小学有偿补课治理情况专项督导的通知》，结合通知要求我们制定了督导方案，联合监察室刘主任共同研究治理方案，结合教育部《严禁中小学校和在职教师有偿补课的规定》（教师【2015】5号）和绥中县教育局治理“三乱”实施方案，于7月11日到31日，分三个层面进行了督导检查，一是各校自查；二是责任区督学随机督导，尤其是对城内各个小区进行了明察暗访；三是督学室和监察室到各校普查。通过督导检查目前未发现在职教师有偿补课问题。 4、开展校园欺凌事件专项治理专项督导 按照《辽宁省人民政府教育督导室关于开展校园欺凌专项治理情况督导的通知》（辽政教督室〔2016〕13号）要求，深入落实《国务院教育督导委员会办公室关于开展校园欺凌专项治理的通知》（国教督办函〔2016〕22号）和《关于建立校园欺凌专项治理工作月报制度的通知》（国教督办函〔2016〕31号）精神， 为进一步加强校园欺凌专项治理工作，及时掌握全县各校工作开展情况，绥中县教育局接到通知后，立即召开领导和相关科室会议，对该项工作进行了部署，教育局制定了《绥中县教育教育系统开展校园欺凌专项治理实施方案》，并下发各校，9月中旬，督学室联合安全科对全县57所中小学（含职业学校）进行了欺凌治理工作专项督导检查，11月11日，辽宁省教育厅校园欺凌专项治理检查小组领导姜波、徐勇一行两人来绥中县检查工作，葫芦岛市教育局副局长李学文、督导室主任韩威，绥中县教育局局长石宝山、副局长安智信等有关工作人员陪同。检查组首先听取了石宝山同志的的工作汇报，接着来到范家学校、职教中心、利伟实验中学和利伟高中进行检查。每到一校，检查组首先听取校长汇报，然后详细核查校园欺凌档案，最后实地查看了学校的警卫室，安防监控室，心理健康咨询室，每到一处，检查组都认真查看了设备、器材，以及有关记录，并与管理人员进行了交流。检查组对绥中县教育系统开展的校园欺凌专项治理工作予以充分肯定，认为绥中县校园欺凌专项治理工作认识到位、工作到位、宣传到位、预防到位，治理到位。 （三）进一步开展督学责任区工作。 3月初、8月末分别召开了责任区督学学期汇报会。责任区督学汇报了工作，交流了经验。督学室就本学期的责任区工作做了部署。责任区督学开展了开学工作、学校管理工作、学生基本办学条件、学校信息化建设、义教均衡工作的专项督导，督学按计划到责任区学校开展工作后，及时将材料交到督学室。共计专项督导228次，随机督导61次，发现5个问题比较集中，包括校舍老化、用房不足、教师严重缺编、乡村公交超载、计算机图书设备不足，并解决其他问题6个。 二、2017年教育督导工作计划 （一）继续做好义务教育均衡发展工作，迎接2017年4月及10月的省检和国检。 （二）继续做好其他常规督导工作。 2016—2017年教育督导工作内容多，任务艰巨，让我们在县委、县政府的正确领导下，齐心协力，勤奋求实，为全面完成教育督导各项工作任务，为我县教育事业大发展、快发展、均衡发展做出更大努力。', '根据全市教育工作会议精神，结合市政府教育督导室2016年工作部署，就我县教育督导汇报两个问题：', '督学室在县政府和教育局的正确领导下，在省市政府教育督导办的指导下，按照“围绕中心，突出重点，抓住关键”的工作思路，以“义务教育均衡发展督导评估”为核心，切实履行“督导、检查、评估、验收”职能，圆满地完成了各项工作计划。', '1、认真测算、合理调整，圆满报送八项指标数据。一月份对全县“义教均衡”工作的八项指标进行了测算，发现我县八项指标数据与省定标准还有较大差距。8月份参加了省市组织的义教均衡发展监测信息系统培训会后，我县又于8月30日召开了我县财会人员参加的义教均衡发展监测信息系统培训会，并要求财会人员于9月10日前填好数据上报。督学室于9月中旬进行了协调、测算、整改，最终数据结果合乎省定标准，中学是0.271，小学是0.475，并按时间节点进行了上报。市督学室领导已经审核通过。', '一月份对全县“义教均衡”工作的八项指标进行了测算，发现我县八项指标数据与省定标准还有较大差距。8月份参加了省市组织的义教均衡发展监测信息系统培训会后，我县又于8月30日召开了我县财会人员参加的义教均衡发展监测信息系统培训会，并要求财会人员于9月10日前填好数据上报。督学室于9月中旬进行了协调、测算、整改，最终数据结果合乎省定标准，中学是0.271，小学是0.475，并按时间节点进行了上报。市督学室领导已经审核通过。', '2、召开了全县义教均衡工作推进会、观摩会。5月5日在党校召开全县义教均衡工作推进会，参加会议的有县局和东戴河局领导及局机关科长主任，全县义务教育学校校长，副校长、档案员，会上张素玲主任对省督办下发的义务教育均衡发展工作新评估细则做了解说，对今后的重点工作做了指导，包括功能教室、设备设施、档案建设等。石局长做了重要讲话，要求各校一定要提高认识，克服侥幸心理，把握重点，做好功能室建设和校园文化建设。', '在党校召开全县义教均衡工作推进会，参加会议的有县局和东戴河局领导及局机关科长主任，全县义务教育学校校长，副校长、档案员，会上张素玲主任对省督办下发的义务教育均衡发展工作新评估细则做了', '4月21日，教育局一行6人，由张主任带队，到兴城市考察学习义教均衡工作经验。此后，5月18日，教育局组织全县校长五十余人组成参观学习团，赴兴城市考察学习义务教育均衡工作。参观队伍依次走进兴城南一小学、曹庄四城小学、滨海经济区学校、大寨中学，重点对四所学校的校园文化建设、音乐室、地理教室、综合实践活动室、心理辅导室等进行了参观学习。此次观摩学习，增加了校长们对义务教育均衡发展工作的直观了解，为各校加快推进该工作开拓了视野，开阔了思路，可以有效推进绥中县义务教育均衡工作的开展。', '，教育局一行6人，由张主任带队，到兴城市考察学习义教均衡工作经验。此后，5月18日，教育局组织全县校长五十余人组成参观学习团，赴兴城市考察学习义务教育均衡工作。参观队伍依次走进兴城南一小学、曹庄四城小学、滨海经济区学校、大寨中学，重点对四所学校的校园文化建设、音乐室、地理教室、综合实践活动室、心理辅导室等进行了参观学习。此次观摩学习，增加了校长们对义务教育均衡发展工作的直观了解，为各校加快推进该工作开拓了视野，开阔了思路，可以有效推进绥中县义务教育均衡工作的开展。', '3、培训指导与线上指导、逐校检查相结合，完善“义教均衡”档案。5月3日召开教育局相关科室档案分工会，安局长做了重要讲话，要求各科室尽早完善整理义教均衡政府档案工作。5月11日在教育局五楼召开全县学校档案员培训会议，对档案内容和形式，重点对档案外观的规范做了统一要求。同时，在QQ群里加强线上指导；9月26日至10月13日，督学室为期11天，对全县所有初中、小学、九年一贯制及个别村小，进行了细致的检查，目前，各学校档案均已构建完毕，基本能够做到规范、美观、整洁，2016—2017年度档案也在逐步健全完善。', '召开教育局相关科室档案分工会，安局长做了重要讲话，要求各科室尽早完善整理义教均衡政府档案工作。5月11日在教育局五楼召开全县学校档案员培训会议，对档案内容和形式，重点对档案外观的规范做了统一要求。同时，在QQ群里加强线上指导；9月26日至10月13日，督学室为期11天，对全县所有初中、小学、九年一贯制及个别村小，进行了细致的检查，目前，各学校档案均已构建完毕，基本能够做到规范、美观、整洁，2016—2017年度档案也在逐步健全完善。', '4、督促自查整改。9月26日至10月13日，督学室依据《辽宁省义教均衡发展工作评估细则》，逐校检查，并根据检查情况与各校进行了交流，提出了整改意见。目前，各个学校都在积极准备之中，部分学校的功能室已经建设完备，校园文化建设独具匠心。', '至10月13日，督学室依据《辽宁省义教均衡发展工作评估细则》，逐校检查，并根据检查情况与各校进行了交流，提出了整改意见。目前，各个学校都在积极准备之中，部分学校的功能室已经建设完备，校园文化建设独具匠心。', '1、认真开展春季、秋季开学专项督导工作。根据《辽宁省教育厅关于开展2016年春季、秋季开学专项督导检查的通知》要求（辽教电【2016】8号）和绥中县责任区督学督导工作安排， 督学室组织10名责任区督学每学期初就入校开展了春季或秋季开学的专项督导。督学们深入学校，采取听校长汇报，查有关设施、师生座谈等方式，对各校的开学条件保障、规范办学行为、校园安全管理、校舍安全等情况进行了实地督导，对该项工作肯定的同时提出了合理化建议。该项督导促进了我县春季、秋季开学工作的正常运转。', '根据《辽宁省教育厅关于开展2016年春季、秋季开学专项督导检查的通知》要求（辽教电【2016】8号）和绥中县责任区督学督导工作安排， 督学室组织10名责任区督学每学期初就入校开展了春季或秋季开学的专项督导。督学们深入学校，采取听校长汇报，查有关设施、师生座谈等方式，对各校的开学条件保障、规范办学行为、校园安全管理、校舍安全等情况进行了实地督导，对该项工作肯定的同时提出了合理化建议。该项督导促进了我县春季、秋季开学工作的正常运转。', '2、认真开展“改薄”工作督导。为贯彻落实《辽宁省政府教育督导室关于开展全面改善贫困地区义务教育薄弱学校基本办学条件工作专项督导的通知》辽政教督室〔2016〕9号文件精神，5月底至6月上旬，督学室会同教育局事务处、仪器站、财务科、人事科共同对我县改薄工作进行了初步的评估，按照省评估细则的要求，逐项逐条对学校软、硬件建设进行审核、评估，并且就《全面改薄全口径项目累计资金使用情况统计表》的数据进行了详实的调查，并做好了自评报告的撰写和上报。', '为贯彻落实《辽宁省政府教育督导室关于开展全面改善贫困地区义务教育薄弱学校基本办学条件工作专项督导的通知》辽政教督室〔2016〕9号文件精神，5月底至6月上旬，督学室会同教育局事务处、仪器站、财务科、人事科共同对我县改薄工作进行了初步的评估，按照省评估细则的要求，逐项逐条对学校软、硬件建设进行审核、评估，并且就《全面改薄全口径项目累计资金使用情况统计表》的数据进行了详实的调查，并做好了自评报告的撰写和上报。', '6月16日，省教育厅财务处副处长赵海强带领的督导组一行4人莅临绥中，对绥中县2014年和2015年全面改善贫困地区义务教育薄弱学校基本办学条件工作进行专项督导。赵海强一行在县政府会议室听取了朱县长的工作汇报，查看了相关档案，又随机抽取了王家店中学、大王庙九年一贯制学校、明水中学、西平小学4所学校。在反馈中检查组对绥中县的“改薄”工作给予高度评价，称赞学生食堂布局合理、卫生良好，教学楼设计美观、实用，功能室符合标准，设备齐全，师资培训注重实效。', '，省教育厅财务处副处长赵海强带领的督导组一行4人莅临绥中，对绥中县2014年和2015年全面改善贫困地区义务教育薄弱学校基本办学条件工作进行专项督导。赵海强一行在县政府会议室听取了朱县长的工作汇报，查看了相关档案，又随机抽取了王家店中学、大王庙九年一贯制学校、明水中学、西平小学4所学校。在反馈中检查组对绥中县的“改薄”工作给予高度评价，称赞学生食堂布局合理、卫生良好，教学楼设计美观、实用，功能室符合标准，设备齐全，师资培训注重实效。', '7月9日接到省市督导室《关于开展中小学有偿补课治理情况专项督导的通知》，结合通知要求我们制定了督导方案，联合监察室刘主任共同研究治理方案，结合教育部《严禁中小学校和在职教师有偿补课的规定》（教师【2015】5号）和绥中县教育局治理“三乱”实施方案，于7月11日到31日，分三个层面进行了督导检查，一是各校自查；二是责任区督学随机督导，尤其是对城内各个小区进行了明察暗访；三是督学室和监察室到各校普查。通过督导检查目前未发现在职教师有偿补课问题。', '接到省市督导室《关于开展中小学有偿补课治理情况专项督导的通知》，结合通知要求我们制定了督导方案，联合监察室刘主任共同研究治理方案，结合教育部《严禁中小学校和在职教师有偿补课的规定》（教师【2015】5号）和绥中县教育局治理“三乱”实施方案，于7月11日到31日，分三个层面进行了督导检查，一是各校自查；二是责任区督学随机督导，尤其是对城内各个小区进行了明察暗访；三是督学室和监察室到各校普查。通过督导检查目前未发现在职教师有偿补课问题。', '按照《辽宁省人民政府教育督导室关于开展校园欺凌专项治理情况督导的通知》（辽政教督室〔2016〕13号）要求，深入落实《国务院教育督导委员会办公室关于开展校园欺凌专项治理的通知》（国教督办函〔2016〕22号）和《关于建立校园欺凌专项治理工作月报制度的通知》（国教督办函〔2016〕31号）精神， 为进一步加强校园欺凌专项治理工作，及时掌握全县各校工作开展情况，绥中县教育局接到通知后，立即召开领导和相关科室会议，对该项工作进行了部署，教育局制定了《绥中县教育教育系统开展校园欺凌专项治理实施方案》，并下发各校，9月中旬，督学室联合安全科对全县57所中小学（含职业学校）进行了欺凌治理工作专项督导检查，11月11日，辽宁省教育厅校园欺凌专项治理检查小组领导姜波、徐勇一行两人来绥中县检查工作，葫芦岛市教育局副局长李学文、督导室主任韩威，绥中县教育局局长石宝山、副局长安智信等有关工作人员陪同。检查组首先听取了石宝山同志的的工作汇报，接着来到范家学校、职教中心、利伟实验中学和利伟高中进行检查。每到一校，检查组首先听取校长汇报，然后详细核查校园欺凌档案，最后实地查看了学校的警卫室，安防监控室，心理健康咨询室，每到一处，检查组都认真查看了设备、器材，以及有关记录，并与管理人员进行了交流。检查组对绥中县教育系统开展的校园欺凌专项治理工作予以充分肯定，认为绥中县校园欺凌专项治理工作认识到位、工作到位、宣传到位、预防到位，治理到位。', '按照《辽宁省人民政府教育督导室关于开展校园欺凌专项治理情况督导的通知》（辽政教督室〔2016〕13号）要求，深入落实《国务院教育督导委员会办公室关于开展校园欺凌专项治理的通知》（国教督办函〔2016〕22号）和《关于建立校园欺凌专项治理工作月报制度的通知》（国教督办函〔2016〕31号）精神， 为进一步加强校园欺凌专项治理工作，及时掌握全县各校工作开展情况，绥中县教育局接到通知后，立即召开领导和相关科室会议，对该项工作进行了部署，教育局制定了《绥中县教育教育系统开展校园欺凌专项治理实施方案》，并下发各校，9月中旬，督学室联合安全科对全县57所中小学（含职业学校）进行了欺凌治理工作专项督导检查，', '，辽宁省教育厅校园欺凌专项治理检查小组领导姜波、徐勇一行两人来绥中县检查工作，葫芦岛市教育局副局长李学文、督导室主任韩威，绥中县教育局局长石宝山、副局长安智信等有关工作人员陪同。检查组首先听取了石宝山同志的的工作汇报，接着来到范家学校、职教中心、利伟实验中学和利伟高中进行检查。每到一校，检查组首先听取校长汇报，然后详细核查校园欺凌档案，最后实地查看了学校的警卫室，安防监控室，心理健康咨询室，每到一处，检查组都认真查看了设备、器材，以及有关记录，并与管理人员进行了交流。检查组对绥中县教育系统开展的校园欺凌专项治理工作予以充分肯定，认为绥中县校园欺凌专项治理工作认识到位、工作到位、宣传到位、预防到位，治理到位。', '3月初、8月末分别召开了责任区督学学期汇报会。责任区督学汇报了工作，交流了经验。督学室就本学期的责任区工作做了部署。责任区督学开展了开学工作、学校管理工作、学生基本办学条件、学校信息化建设、义教均衡工作的专项督导，督学按计划到责任区学校开展工作后，及时将材料交到督学室。共计专项督导228次，随机督导61次，发现5个问题比较集中，包括校舍老化、用房不足、教师严重缺编、乡村公交超载、计算机图书设备不足，并解决其他问题6个。', '月初、8月末分别召开了责任区督学学期汇报会。责任区督学汇报了工作，交流了经验。督学室就本学期的责任区工作做了部署。责任区督学开展了开学工作、学校管理工作、学生基本办学条件、学校信息化建设、义教均衡工作的专项督导，督学按计划到责任区学校开展工作后，及时将材料交到督学室。共计专项督导228次，随机督导61次，发现5个问题比较集中，包括校舍老化、用房不足、教师严重缺编、乡村公交超载、计算机图书设备不足，并解决其他问题6个。', '2016—2017年教育督导工作内容多，任务艰巨，让我们在县委、县政府的正确领导下，齐心协力，勤奋求实，为全面完成教育督导各项工作任务，为我县教育事业大发展、快发展、均衡发展做出更大努力。', '—2017年教育督导工作内容多，任务艰巨，让我们在县委、县政府的正确领导下，齐心协力，勤奋求实，为全面完成教育督导各项工作任务，为我县教育事业大发展、快发展、均衡发展做出更大努力。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>47</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>连山区召开认养农业工作会议</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2017-04-11</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.lianshan.gov.cn/lssx/qndt/201704/t20170411_705204.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['4月2日，市委书记孙轶一行到连山区就认养农业工作进行调研后，当天下午，连山区就召开了认养农业工作会议，进一步贯彻落实市委书记孙轶到连山区调研指示精神，对全区认养农业工作进行再安排再部署。', '去年以来，全区结合本地实际，依托丰富的资源和地缘优势，在充分调研和外出考察学习的基础上，有效整合全区农业资源，谋划和定位认养农业发展思路，成功打造出锦郊“花千谷”、塔山碧岚农场果树认养等认养农业模式，取得了良好的社会效益和经济效益。区长鲁秀红在讲话中要求各乡镇要转变观念，高度重视认养农业工作；要根据各乡镇实际，摸清底数，抓紧与学校、与企业、与合作社、与超市进行对接：要规范管理，尽快完成土地确权；要注重发展认养农业的深度，进一步整合优势资源，打造“认养农业+”时代，通过现代化的手段，整合农村旅游资源，让农民在发展农业中找到一条致富新路。', '区委书记王忠平在讲话中强调，各乡镇要从思想上高度重视认养农业工作，加大宣传力度，提高老百姓对认养农业的知晓率；要安排专门人员负责这项工作，要做到底数清、情况明，精准识别、确认对象、抓紧对接；要结合全区实际，根据需要，把认养农业重点放在发展果业、家禽等项目上，要进一步开阔视野、创新思路，实行专业化生产、规模化发展、产业化经营，提升组织化水平，带动一系列产业链条的延伸；要利用自身优势、现有资源和开展生态项目的理念，在启动认养农业的同时开发出一系列乡村游项目，为传统农业转型发展探索出一条全新道路。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>47</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>绥中县市场监督管理局赴盘锦市大洼区开展食品安全放心建设工作考察</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2017-02-23</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/bmdt/202004/t20200425_941515.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['2017年2月13日，绥中县市场监督管理局在葫芦岛市食品药品监督管理局领导的带领下，和兄弟县区兴城市场监管局一起，赴盘锦市大洼区考察省级食品安全放心城市创建工作。绥中县市场监督管理局王玉常局长和袁亚东副局长、黄玉琢副局长、食品综合协调科罗兵科长等一行6人陪同考察。', '考察组一行先来到盘锦市食品药品监督管理局，就食品安全放心城市创建工作开展经验交流，听取学习了盘锦市的先进经验，并就创建工作的难点重点问题进行了面对面交流。随后出发前往大洼区考察学习，虚心学习听取了大洼区市场监督管理局的经验，在网格化监管监控室观看了厨房LED大屏展示的实时播放画面，并到综合蔬菜批发市场参观快检设备，到部分餐饮单位参观了“明厨亮灶”情况。最后，学习考察组来到大洼区金社裕农有限责任公司，考察学习了大洼区为机关、学校食堂统一配送食材、严格过程管理的先进经验。', '本次的考察交流学习收获颇丰，大家开阔了眼界，看到了差距，增长了见识，拓展了思路，今后将进一步加强与兄弟县市的交流，充分吸收兄弟县市的有益经验，把所见所学变成实实在在的工作举措，真正转化为建设省级食品药品安全放心县的强大动力，推动全县食品药品监管事业迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>47</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>加碑岩乡年政府工作总结和年工作计划</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2017-02-24</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/xzdt/202004/t20200425_945674.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['一是沟口村做为我乡宜居乡村建设示范村，年初以来，投资73万元，在卜孟台至乡政府道路两侧修建花墙2000延长米，在加碑岩集市旁建垃圾场一座，容积650立方米。在沟口村东稍组修大坝100延长米，政府门前栽种法桐树92株，柳树100株，铺彩砖840平方米，全村立景石共3块，安装路灯72盏。', '二是全面开展农村环境卫生整治工作。成立宜居乡村建设领导小组，林业、水利、建设、卫生等部门齐抓共管，集中治理农村脏、乱、差现状。开展“六边”“三堆”清理工作，清除卫生死角120余处，清理垃圾50车。两个集贸市场的垃圾做到日产日清。乡村环境卫生明显改善，创造了良好的生活环境。', '三是建立清洁队伍，制定环境卫生整治工作长效机制。设置保洁员40名，现有垃圾环卫车3台，并制定村规民约，形成了长效机制。', '一是加强组织领导。成立了由党委书记、乡长任组长，各包村领导任副组长，包村干部任组员的精准脱贫领导小组，并下设办公室。主管副乡长任扶贫办主任，抽调4名机关干部任扶贫办成员。', '三是精准制定脱贫措施。经过认真梳理，确定实行发展生产脱贫613户，危房改造脱贫75户，医疗救助脱贫81户，发展教育脱贫84户，政府兜底脱贫665户，实现了一户一档案，由乡里统一管理，并建立了贫困户脱贫退出机制。', '四是汇总制约脱贫的生产生活问题。造成全乡贫困的主要原因之一是基础设施薄弱，协调有关单位和各帮扶企业和相关部门能够逐年的给予帮助解决。', '五是制定精准脱贫三年规划和全乡发展总规划。 制定脱贫措施和脱贫时间表、脱贫规划。同时请县规划局为全乡发展设计总规划。', '六是组织农民进行劳动就业。年初在上房子村举办“加碑岩乡上房子村劳务输出专场招聘会”。共有17家企业参加招聘，提供了532个就业岗位，515名农民与用工单位达成意向。', '七是为白内障患者免费议诊。县人大、县统战部邀请辽宁省何氏眼科医院专家于1月13日到我乡开展白内障免费义诊活动，为全乡共16名患者进行了免费检查，为2名白内障患者实施了白内障手术。', '八是组织60岁以上的低保户进行体检活动。经县人大积极协调,县医院为我乡551名60岁以上低保户人群进行了免费体检。', '九是开展劳动技能培训活动。6月份和9月份分别在黄木杖子村开展了木耳栽培技术培训和中草药种植技术培训，培训贫困人员共200人。', '十是社会帮扶不断加强。现有12个县直单位和11家企业对加碑岩乡帮扶，派驻村工作队48人。帮扶单位都多次来到各村进行深入调查，了解各村急需解决的生产生活上的困难问题。捐款捐物价值50万元，仅“上房子家园”帮扶投资370万元。', '十一是加大对精准扶贫、精准脱贫工作的宣传。印发了《脱贫攻坚简报》，现已编印6期。乡宣传部门通过发布信息向绥中电视台和报社、宣传部新闻科宣传我乡扶贫工作措施和进展情况。还建立了扶贫互助展览室。', '十二是成立加碑岩乡农民互助合作社。今年新注册了“神岭养殖专业合作社”。窝岭村种植中草药，现已购买药材9349斤，种植面积131亩，带动贫困户187人。黄木杖子村成立了木耳合作社，现已发展社员85户，其中贫困户78户，人工袋栽木耳9万袋。年产干木耳1万斤,使贫困群众年均增收3000多元。', '十三是“上房家园”全面完成。在县人大和有关部门全力帮扶下,上房子家园旅游接待中心于4月25 日开工，现已投入使用。中心占地2488平方米，总建筑面积828平方米，是集旅游、住宿、餐饮为一体的仿古四合院建筑。十一期间就有大量游客来参观游玩，共接待游客200人。', '十四是启动辽西第一个党支部红色旅游项目。充分发挥辽西第一党支部诞生地的优势，大力发展红色旅游。黄木杖子村红色旅游景区大门建设已经完工，山洞已修复完善，辽西第一党支部展览馆正在建设中。', '十五是民俗古村落的选址调查。在县委的安排部署和县人大的大力支持下，启动了传统村落保护的申报工作。目前，已初选5个待选村屯，待县领导和有关专家考察确定后，着手有关修缮和各种材料的上报工作。', '水利工作 打井11眼，截浅28道，在王台、楼房、沟口、王家店四个村维修大坝2500延长米，投入资金30万元。窝岒村提水上山工程一处正在进行中。', '建设工作 全乡11个村范围内共修建垃圾池62个，投资18.6万元。完成危房改造71户，水毁后危房改造87户，完成全部任务，总投资211.5万元。在王家店村修建垃圾填埋厂一座，容积5万立方米，投资50万元，目前已完工。', '林业工作 在骆杖子村、上房子村完成雨季造林1500亩，上房子村完成封山育林2000亩，上房子村完成围栏工程1.7公里。', '农贸市场管理 不断加强农贸市场管理，有专业的管理人员负责垃圾清理工作。王家店大集有专用的水泥交易货台。', '文化工作 正月十五组织开展秧歌比赛，投资1万元。全年共播放电影100场。每村拥有文化广场1000平方米，教师节乡政府为三所学校投入教育资金6000元。', '卫生工作 全乡有15000余人参加新型农村合作医疗，参保率达91%。为老百姓报销医疗费60万元，减轻了患者的经济负担。全乡共有合作医疗定点门诊22家。', '计划生育 人口自然增长率为2.38‰，计划生育率达100%；奖扶、特扶，农村独生子女奖励资金发放率达到100%；县计生服务站为全乡育龄夫妇免费体检81对。县计生办为全乡300人办理了独生子女证。', '一站式办公 年初以来，不断完善为民服务新举措，投资10万元，新装修便民服务大厅。新建了服务前台，配备了办公设施。改善了办公环境，方便了群众办事。', '紧紧围绕构建“平安加碑岩”的总体目标，坚持“安全第一、预防为主、综合治理”的方针，加大安全生产宣传力度，保证了全乡无重大人身财产损失。不断强化安全生产意识，把安全事故发生率降到最低值，实现了安全生产零事故。', '我乡不断加强新闻宣传工作，加强宣传我乡的中心工作，上报信息40条。多条被市报、县报采纳。开展了建党95周年活动和向毛丰美、胡志伟同志学习活动等活动，全年共开展各类活动5次。', '完成了村党支部换届工作。完成了新一届加碑岩乡党委换届工作。五是组织全体学员开展了“远学毛丰美、近学胡志伟”活动。并组织全乡11个村党支部书记到大梨树村考察学习。', '共查处违法违纪案件3件，处理1名违纪人员。同时强化党内监督，进行述职述廉和民主评议。村务公开、政务公开，坚持制度化、经常化。', '另外，完成了2006至2015年的县志编写工作，妇联、工会工作也都有较大进步和提高。', '2016年，我们乡团结奋斗，拼搏争先。扶贫工作、基础设施、主导产业等各项工作都取得了可喜的成绩。展望未来，我们信心百倍，为加碑岩的安定富庶更加努力奋斗。', '一是受地理、自然条件和村民思想观念的限制，农业产业结构调整步伐滞后；二是受乡财力紧张限制，基础设施、教育投入建设滞后；三是受农民整体文化水平的偏低影响，缺乏脱贫致富的技能，观念陈旧，思想落后的限制，贫困户脱贫项目缺少。', '因户制定脱贫措施,采取多形式帮扶。动员和协调各方力量，采取一对一或一对多的帮扶措施，对各村及贫困户在资金、技术、思想上进行帮扶，确保贫困户能够如期脱贫。', '2.交通工作 在王台村和黄木杖子村修建王台到秋岭道路8.1公里，在黄木杖子村修建羊岩子到秋岭沟道路4.5公里，开通黄木杖子村红色旅游道路。另外在窝岭村修建4.6公里，在骆杖子村修建2.3公里，在张杖子村修建3.9公里，在沟口村修建2公里。在上房子村修建1.5公里村组级道路。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>47</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>孙轶王力威就老城区改造启动工作进行调研</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2017-02-09</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://www.hld.gov.cn/xwdt/zwyw/201702/t20170209_596023.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['记者袁慧玲报道2月8日下午，市委书记孙轶，市委副书记、市长王力威带领市直相关部门负责同志，就我市老城区改造启动工作进行调研，并召开老城区改造启动工作动员大会。孙轶讲话。王力威主持会议。', '调研期间，孙轶、王力威一行到项目现场，先后实地视察了海翔高架桥项目、海翔公园项目、五里河上游生态修复(二期)及滨河公园建设项目、海航路建设项目、体育休闲广场改造项目和化机化工棚户区改造(一期)项目，详细了解了项目投资、规划设计、建设工期以及前期准备工作开展情况。', '孙轶在老城区改造启动工作动员大会上指出，今年两会上，市政府提出“三城同盛”发展思路，符合当下葫芦岛的实际，符合葫芦岛长远发展的实际，打造“关外第一市”必须实现“三城同盛”。全市上下要在认识上同市委、市政府保持高度一致，推进“三城同盛”发展。', '孙轶强调，实现“三城同盛”首先要把老城区改造好，把新城区提升好。改造老城不能因为老城区老旧而不改造、小改造或慢改造;不能因为改造任务难而不作为;不能因为改造任务重而拖延改造过程，要力争一年见成效、三年大变化、五年基本实现“三城同盛”。要以时不我待的精神，加快老城改造步伐。', '孙轶要求，实现“三城同盛”，特别是改造老城，要科学规划。要对“三城”同时同步科学规划，聘请国内具有知名度的规划部门，来对城市的山、水、河、路、市场、广场、园林绿化、城市附属设施、必备的城市功能，同时进行高标准的规划，做好山水街路等文章、提升城市品位;要加大考察学习力度，做到见贤思齐;要突出特色特点，充分挖掘好“三城”的城市文化特色、现有景观特色，塑造城市的文化符号;要在规划的基础上，干当前、谋长远，分步实施;市、县区、街道要分清责任，分头分步实施，做到多管齐下，上下联动，力争在短时间内出成效;要研究投入机制，使政府投入、企业投入、市场化运作、群众参与有机结合，推动老城改造;要加强督查和检查，政府确定的工作，要按照完成时限，不折不扣地完成，任何地区、单位和部门的工作都不能打折扣;要提振士气，鼓足干劲，心往一处想，劲往一处使，把葫芦岛打造成更加美丽的“关外第一市”。', '就落实好会议精神，王力威强调，改造老城不能坐而论道，要“撸起袖子加油干”;要克服困难、抓紧推进，抓好资金落实和动迁等方面工作;要功利为民，提改并行，把各项工作做细做好;要面向基层，深度宣传，为“三城同盛”发展、老城区改造营造良好氛围;要分时督查、夯实责任;要依法挺纪、依规挺纪，做到阳光透明;要管好干部，强化责任担当，从每个人做起，落实好此次会议精神，使老城改造工作扎扎实实起步，稳稳当当推进，严严实实收口。', '市委常委、秘书长、市总工会主席张海平，市委常委、政法委书记、副市长于学利，市政府党组成员韩庆春参加调研和动员会。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>47</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>葫芦岛市建昌县供销社加强系统内相互学习赴兴城农业生产资料公司考察学习</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2016-11-30</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xczx/202005/t20200529_969639.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['葫芦岛市建昌县供销社加强系统内相互学习赴兴城农业生产资料公司考察学习_葫芦岛市供销合作社联合社', '近日，建昌县供销社全体班子成员在党委书记、理事会主任董成广同志带领下，到兴城市供销社所属农业生产资料公司考察学习，重点学习农业生产资料相关先进经验和做法。考察中，兴城市供销社相关领导及兴城市农业生产资料公司负责人就农资产品涉农供应工作重点、方法、农资产品的代理、流通下摆、售后服务等进行了详细的介绍和讲解。考察后，建昌县供销社就此次考察学习召开专题会议，研究部署适合建昌县情，社情的农资工作重点和方案，为进一步服务“三农”奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>47</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>司法局昌图县司法局前来考察学习</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2016-12-05</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/bmdt/201612/t20161205_326306.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['12月1日，昌图县司法局局长高波一行五人到兴城司法局考察学习。葫芦岛市政法委纪工委书记王殿胜、葫芦岛市司法局纪检监察室主任刘连强等四人陪同考察。', '高波一行在兴城司法局局长丁桂清的陪同下，先后到社区矫正中心、温泉司法所等单位调研。调研过程中，大家观看了兴城司法局社区矫正宣传片，详细了解了我市社区矫正等各项工作的开展情况和取得的成效。随后召开的座谈会上，双方围绕人员编制、司法所建制及各项业务工作的开展等方面展开深入的探讨和交流。高波对兴城司法局司法所建设和社区矫正工作给予了高度评价，双方表示要进一步加强交流学习，切实提升两地司法所建设和社区矫正工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>47</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>葡萄大棚里的创业梦</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2016-09-23</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>https://yjzz.hld.gov.cn/xwzx/kfqxw/201609/t20160923_417971.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['曾经打过工，开过饭店、火锅店，如今却扣起了大棚，创业的梦想从没间断，这就是富儿沟村村民，35岁的杨军。', '2014年，火锅店不景气，杨军看好水果市场，毅然决定种葡萄，可是想着简单，做起来难。杨军先是到兴城果树研究所进行考察学习，可毕竟实践出真知，要想种好葡萄，最好的去处还是葡萄庄园。杨军听说河北昌黎有个葡萄沟，种植几百万亩葡萄。他就坐车去那里考察。可是求学的路总是那么艰难，人家告诉你种植技术、却不告诉稀果、打药的方法。为了学到更多更成熟的技术，杨军先后去昌黎8次，每次在那住一个星期，最长一次住了一个月。为了节省开销，杨军每次就住在葡萄园对面的小旅店，省吃俭用。功夫不负有心人，杨军终于把基础技术学到手，满心欢喜回来扣起了自己的葡萄大棚。可他万万没有想到，这扣棚并没有想象中那么简单，他所学到的技术远远不够支撑独立扣棚。第一年，温度控制不好、放风时间不对，这些都严重影响了果树的生长。于是，杨军随时调节棚内温度和空气流通，果树终于开花了，杨军松了一口气，可新的问题又出现了。叶片开始起点儿、打蔫儿，杨军慌了，打听得知是地干了，水分跟不上，于是开始浇水。可慢慢的，部分葡萄树苗的根儿开始腐烂，原来是地势不平。就这样，杨军一天24小时，一大半时间都是在棚里度过。白天棚里温度特别高，一天要换好几身衣服，严重了头晕眼花，他就到棚外透透气，再继续回棚里干活儿。看着葡萄苗一天天长大，长成了葡萄树，杨军说，累点苦点也值了。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>47</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>李树存在学习毛丰美事迹交流座谈会上强调</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2016-09-14</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/szxw/202004/t20200425_939414.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['李树存在学习毛丰美事迹交流座谈会上强调 以毛丰美为榜样 开创工作新局面 9月6日，县委召开学习毛丰美同志先进事迹交流座谈会。县委书记、东戴河新区党工委书记李树存作重要讲话。他强调，要以此次到大梨树村考察学习为契机，切实增强工作的责任感和使命感，扎实做好乡镇工作，为全县经济和社会各项事业发展，实现 “四个绥中”的目标作出新的贡献。县委副书记王兴华主持会议。 李树存指出，学习毛丰美同志，就要大力弘扬毛丰美同志信念坚定、对党忠诚的政治品格，敢于担当、攻坚克难的实干作风，牢记宗旨、为民服务的朴素情怀，淡泊名利、清正廉洁的高尚情操。要以毛丰美同志为榜样，坚持为民用权、依法用权、秉公用权、廉洁用权，始终保持党员干部廉洁的政治本色，努力在全县营造风清气正、干事创业的良好政治生态和从政环境，为全县经济和各项事业发展提供坚强的纪律保证。 李树存强调，要抓好党建工作。各级党委要高度重视党建工作，通过到大梨树村参观学习，要有所思有所悟，抓重点、找亮点，集中力量办大事，促进乡镇工作发展。要切实抓好信访稳定工作。社会稳定是最大的民生，老百姓需要一个稳定的环境，我们各项工作也需要稳定的社会环境，要做到排查到位、化解到位、稳控到位、打击到位，真正把矛盾解决在基层，化解在萌芽状态，确保全县大局和谐稳定。要抓好党代会报告、政府工作报告任务的分解落实，努力为老百姓打造一个良好的生活环境，在惠民实事上实实在在地干几件实事，让老百姓感受到发展带来的变化。要扎实做好精准扶贫工作。 李树存强调，全县上下要振奋精神，继续发扬迎战“7·20”强降雨那种积极向上、不畏困难、万众一心、众志成城的“绥中精神”，努力开创乡镇工作新局面。 各乡镇党委书记参加座谈会，并在会上发言。', '9月6日，县委召开学习毛丰美同志先进事迹交流座谈会。县委书记、东戴河新区党工委书记李树存作重要讲话。他强调，要以此次到大梨树村考察学习为契机，切实增强工作的责任感和使命感，扎实做好乡镇工作，为全县经济和社会各项事业发展，实现 “四个绥中”的目标作出新的贡献。县委副书记王兴华主持会议。', '李树存指出，学习毛丰美同志，就要大力弘扬毛丰美同志信念坚定、对党忠诚的政治品格，敢于担当、攻坚克难的实干作风，牢记宗旨、为民服务的朴素情怀，淡泊名利、清正廉洁的高尚情操。要以毛丰美同志为榜样，坚持为民用权、依法用权、秉公用权、廉洁用权，始终保持党员干部廉洁的政治本色，努力在全县营造风清气正、干事创业的良好政治生态和从政环境，为全县经济和各项事业发展提供坚强的纪律保证。', '李树存强调，要抓好党建工作。各级党委要高度重视党建工作，通过到大梨树村参观学习，要有所思有所悟，抓重点、找亮点，集中力量办大事，促进乡镇工作发展。要切实抓好信访稳定工作。社会稳定是最大的民生，老百姓需要一个稳定的环境，我们各项工作也需要稳定的社会环境，要做到排查到位、化解到位、稳控到位、打击到位，真正把矛盾解决在基层，化解在萌芽状态，确保全县大局和谐稳定。要抓好党代会报告、政府工作报告任务的分解落实，努力为老百姓打造一个良好的生活环境，在惠民实事上实实在在地干几件实事，让老百姓感受到发展带来的变化。要扎实做好精准扶贫工作。', '李树存强调，全县上下要振奋精神，继续发扬迎战“7·20”强降雨那种积极向上、不畏困难、万众一心、众志成城的“绥中精神”，努力开创乡镇工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>47</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>葫芦岛市人民政府副市长柴力君听取市供销社工作汇报并提出三点意见</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2016-09-23</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968369.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['葫芦岛市人民政府副市长柴力君听取市供销社工作汇报并提出三点意见_葫芦岛市供销合作社联合社', '9月19日，葫芦岛市人民政府副市长柴力君会见了市供销社领导班子成员，了解市供销社系统基本情况、主要工作进展情况以及省、市政府各项考核指标任务完成情况及存在困难和问题。 市供销社主任刘成利对供销社班子、机构设置和人员情况、各县（市）区社和直属企业等基本情况进行了详细介绍。重点围绕年初制定的“151”工作思路，就综合改革、重点民生工程项目建设、农产品流通体系建设、招商引资和项目工作、社有企业管理、机关自身建设、各项考核工作等进行了全面汇报。刘成利表示，综合改革为供销社发展提供了广大空间和舞台，供销社迎来了改革发展的春天。今年以来，市供销社深入学习贯彻中央11号、省委5号文件，边学习、边贯彻、边落实，边形成《实施意见》，突出“为农服务平台、电子商务平台、金融平台”三个平台建设，在综合改革和各项工作中取得了一些成效，到年底各项任务指标均能完成预定计划。监事会主任封玉龙汇报了相关考核任务指标及完成情况。 最后，副市长柴力君充分肯定了市供销社工作，特别对供销社主导的“农超对接”项目给予高度评价，是真正的惠农利民工程，真正起到了平抑物价、让利市民、解决就业问题等作用。他说，市供销社工作蒸蒸日上，通过考察学习、真抓实干，做到学有目标，做有成效。在以后工作中，要结合自身实际，大有作为，走出葫芦岛特色，保持优异成绩。 一是要积极落实国家、省对供销社综合改革要求，落实好《中共葫芦岛市委、葫芦岛市人民政府关于深化供销合作社综合改革的实施意见》，尽快列入政府常务会议计划，尽早通过实施。 二是结合本市农业、农村特色，寻找突破口、切入点。积极开展电子商务等，与邮政等有关部门合作，充分利用邮政等部门电商平台、物流体系、银行网点，让农产品上行到网络，形成电商+物流+金融+邮政模式。 三是充分整合并利用好各方面资源,利用农、林、水、财政、民政等综合性资源，争取财政资金和各方支持。同时，加强与省社汇报，争取工作切入点和支撑点。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>47</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>台安县人大常委班子来绥考察</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2016-08-22</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.szx.gov.cn/xwdt/szxw/202004/t20200425_939397.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['8月19日，鞍山市台安县人大常委会主任郭显军带领台安县人大常委会班子成员来到绥中县，就县人大精准扶贫工作开展情况进行考察。县人大常委会主任王跃明、常务副主任杜铁耕陪同考察。', '，鞍山市台安县人大常委会主任郭显军带领台安县人大常委会班子成员来到绥中县，就县人大精准扶贫工作开展情况进行考察。县人大常委会主任王跃明、常务副主任杜铁耕陪同考察。', '郭显军说，通过此次考察，让我们对绥中县人大精准扶贫工作有了直观感受和理性认识，开阔了工作视野，看到了自身的差距，找到了努力的方向，增强做好精准扶贫工作的责任感、紧迫感。我们要将此次考察学习到的先进经验运用到工作中，在精准扶贫到户、到人上下功夫，提高定点帮扶工作水平，进一步改进和完善台安县人大精准扶贫各项工作。', '王跃明指出，近年来，绥中县人大常委会认真贯彻落实中央和省、市、县关于扶贫工作的重要指示精神，制定精准扶贫帮扶工作方案，突出帮扶重点，初步探索出了符合加碑岩乡上房子村发展的精准扶贫新路子。在今后的工作中，我们将与台安县人大常委会加强沟通交流，争取将精准扶贫工作抓好抓实，为下一步精准扶贫工作有序推进打牢基础。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>47</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>市审计局全体党员干部到丹东凤城大梨树村实地参观学习</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2016-09-19</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>https://sjj.hld.gov.cn/xwzx/ywdt/201611/t20161115_324716.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实《中共辽宁省委关于开展向毛丰美同志学习活动的决定》，按照市审计局“两学一做”学习计划安排，9月2日，市审计局组织全体党员干部前往丹东凤城市大梨树村参观考察，学习毛丰美同志的先进事迹。', '在大梨树村，先后观看了毛丰美事迹专题片《丰碑》、参观了毛丰美先进事迹陈列馆以及万亩果园和“干”字文化广场。通过深入实地的考察学习，大家切身感受到了毛丰美带头践行的“苦干、实干、巧干”的“干”字精神，更被毛丰美的信念坚定、对党忠诚以及心系群众、清正廉洁的高尚情操所深深打动。大家纷纷表示，一定要向毛丰美同志学习，进一步振奋精神，凝心聚力，把毛丰美精神转化为动力，认真做好审计工作，为全市经济建设做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>47</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>双创之路在何方</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2016-07-26</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/xwdt/zwyw/201607/t20160726_209788.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['6月29日上午，市政协召开五届十次常委会议。会议审议通过《关于推动我市“大众创业、万众创新”的调研报告》。市委书记出席会议并讲话，他对市政协的总体工作给予充分肯定，对委员关注我市经济社会发展，积极履职献策“双创”工作给予高度赞扬，并对今后市政协的工作提出要求，希望政协为推进社会主义民主政治建设、加快建设生态宜居美丽富庶滨城作出新的更大贡献。市政协主席郑宏伟在会上就如何深度推进“双创”工作、推动政协建议案落实提出指导意见。', '今年2月以来，市政协组织各县(市)区政协、市政协有关委(室)，部分常委、委员，以及界别委员活动组，围绕推动我市“大众创业、万众创新”主题，组成5个专题调研组，利用四个月时间，深入县(市)区、园区、企业、乡村、科研院所、大专院校了解情况，深入调研，广泛征求意见，并到浙江、广东等地进行考察学习，借鉴先进经验和做法，形成了《关于推动我市“大众创业、万众创新”的调研报告》。《报告》阐述三个方面内容：一是我市在“双创”工作方面取得的主要成绩。二是我市在“双创”中存在的突出问题。三是推动“双创”的对策建议。', '一、继续坚持“双轮驱动”，努力推进产业创新。突出抓好传统产业优化升级：农业方面。立足调整农业结构，大力发展休闲农业、旅游农业、体验农业、都市农业、精品农业等新方式，尤其应按消费者指定品种和办法，推广发展认养农业;工业方面。制定落实工业升级规划，分类形成各产业特别是支柱产业升级规划，明确支撑项目、保障措施、时间进度和重点工作，有计划有步骤地推进传统工业改造升级;服务业方面，支持工业企业打破大而全、小而全的产业组织形式，积极发展文化旅游、健康养老、生态休闲、社区服务等生活性服务业，促进生活性服务业向精细化、高品质发展。全力推动新兴产业加速发展。', '二、大力培育“双创”主体，持续释放“双创”活力。切实增强企业主导作用。支持企业瞄准国内外同行同业标杆，提高产品技术、工艺装备、能效环保等水平，优选50家规模以上企业和50家其他企业，实施“50+50”企业创新推进计划;有效发挥科研院所、大专院校和科技人员的基础作用。落实科研院所、大专院校对持有的成果自主决定转让、许可、作价投资政策，确保研发团队享有研发成果在域内转化的使用权、处置权和收益权，实现项目带头人对项目方向、人员、经费等拥有真正的决定权;继续坚持把推动青年群体创业创新作为突破口，深入实施大学生创业工程和大学生创业引领计划。深度支持农民创业创新。鼓励有经验、有资金、有能力的返乡农民工投资建厂、创业发展。', '三、积极打造“双创”平台，稳步健全平台功能。科学规划布局平台，市和各县(市)区在做好“双创”需求调查和测算的前提下，按照地域范围与平台数量相匹配的原则，着手制定“双创”平台建设专项规划，确保合理布局、有序发展、做大实效;抓实建好重点平台，大力发展新型平台。鼓励各类企业、投资机构、科研院所、大专院校、行业组织和个人，采取租建、新建、入股等方式，投资建设众创空间，特别是创客社区、创新工场、创业大街等新型平台;配套发展公共服务平台。加快建设科技成果转移转化平台。规划建设区域科技市场和网上超市，推动更多科技成果走下书架走出“围墙”走向市场，同步建设科技成果、市场需求、专家人才三大信息库，真正打通科技和经济之间的通道。', '四、着力强化“双创”保障，切实打牢“双创”根基。加快解决融资难题，做好与国家、省引导基金的有效衔接，推动产业(创业)投资引导基金及其子基金尽快投入使用。鼓励银行业金融机构发展普惠金融，加大信贷投入，创新金融产品;强化人才机制建设。坚持“双创”导向，用好现有人才，抓紧对接国家、省人才计划，既大力引进、培育领军人才、高端人才，又积极引进、培育紧缺人才、急需人才、“双创”团队，更注重引进、培育企业家;积极落实支持政策。大力实施财政、税收、社保、物流、收费、平台建设、准入放宽等促“双创”政策，大幅度缩短政策传导、落地时间，保证政策“红利”及时惠及创业创新者。', '五、强力营建“双创”环境，促进发展“双创”文化。加强组织领导和服务推动。加快建立市、县(市)区、乡镇三级“双创”工作领导小组，负责处理“双创”重要事项，解决“双创”重点问题。大力推进行政审批制度和商事制度改革。加速营造“双创”氛围。通过开展地区和行业创业实训、专题讲座、“双创”论坛、项目路演、“双创”竞赛、创业体验等活动，为创业创新者提供分类分段指导，激发社会创业创新热情。', '一、坚持“双轮驱动”，解决好我市“双创”的动力问题。新常态和过去比，主要区别在于发展动力不同。过去是“要素驱动”，现在是创新驱动。“双轮驱动”是特指在新常态下，既要坚持创新驱动，又要强调“要素驱动”。葫芦岛现正处于新旧模式并存、转换过渡之中，必须“要素驱动”和“创新驱动”同时发力，坚持“双轮驱动”，才能走出一条具有葫芦岛特色的“双创”之路。去年以来，随着北京非首都功能产业转移的推进，葫芦岛节点城市的被辐射作用才开始显现。但在高端人才和重大科技项目上，被“虹吸”仍然大于被辐射。因此，我市要推动大众创业、万众创新，特别是吸引高科技企业和高端人才等到我市落户推进创新驱动的同时，还要强调要素驱动，继续在土地、收费等要素上做文章，形成优于周边其他市的政策“洼地效应”。这一思路和策略，切合我市目前的经济发展实际。', '二、正确处理好政府与市场的关系，解决好我市“双创”的外部环境问题。在市场经济中，政府要更好地发挥作用，就是要做到“双踩”，即“踩油门、踩刹车”。当宏观经济过热时，踩刹车，让市场适当地“冷”下来，抑制原有的高增长冲动;当宏观经济停滞不前时，能及时踩油门，采取相应的刺激政策，让市场适度地“热”起来。掌握进退的时机和尺度，“双创”的主体是市场、是企业、是大众、是万众，政府的责任和使命就在于激发人民群众的创造力，催生“双创”的内在动力;招商和引资应区别对待，招商引资应有两个层面，一个是招商，主要针对国有项目，政府应加大这方面招商力度。另一个是引资，主要针对民营资本。引资主要得靠市场，靠企业以商招商。资本天然本性在于逐利。政府的重点要放在改变我们自身的“软”“硬”环境上;逐步改变园区和平台的主办模式，由以政府管理为主向以企业管理为主转变;要为“双创”平台、“双创”企业提供政策、资金支持;要抓住人才这个关健，利用好现有人才，还要通过招来国家重点项目引进人才。', '三、深化改革、健全机制，解决好我市“双创”中的部分干部不担当的问题。我们推动大众创业、万众创新，首要问题是各级领导干部、机关干部要带头有创业的意识、创新的思维。要解决当前部分干部不能担当、不敢担当的问题。一要在不突破底线的前提下，妥善灵活处理好各种现实矛盾和问题。二要进一步健全体制机制。把“敢于担当、善于担当”、是否有解决复杂问题能力和魄力作为干部提拔任用的重要标准，真正把干部的担责创新与晋升提拔挂钩。', '四、政协组织和全体政协委员要争做“双创”的推动者、践行者。市政协“双创”建议案报送市委、市政府及有关部门后，政协要继续做好跟踪推进工作，围绕商事制度改革、孵化器建设、创业培训、科技成果转化、科技金融等专题，组织委员视察调研，提出建设性的意见建议。全体政协委员要结合自身工作实际，以不同方式积极投身“双创”主战场，大力宣传市委、市政府推进项目建设和“双创”工作的有关政策措施，在各界群众中倡导崇尚创新创业的价值观念，让全社会都来关心创新创业。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>47</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>市委中心组召开理论学习会议</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2016-04-08</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/zwyw/201604/t20160408_229773.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['4月1日下午，兴城市委中心组召开理论学习会议，学习全国“两会”精神，传达市委书记孙轶讲话精神。市委书记赵家鹏主持会议并部署工作。兴城市四个班子领导、滨海经济区及其他副处级以上领导参加会议。', '会议邀请全国人大代表张文成、李玉环授课，畅谈出席十二届全国人大四次会议的感受，并结合实际，传达有关会议精神。在听取讲课后，赵家鹏指出，我们要迅速将思想和行动统一到全国“两会”精神上来，学习贯彻好习近平总书记系列讲话精神，自觉用“两会”精神指导工作实践，将中央的精神贯穿工作始终。', '随后，赵家鹏传达了葫芦岛市委书记孙轶日前到兴城调研时的讲话精神，并结合实际部署贯彻落实工作：一要抓好项目建设，待建和续建项目力争4月份全部开工。二要抓好承接京津冀产业转移工作，要走出去考察学习，开展招商引资工作。三要抓好旅游服务业，融合旅游文化，促进旅游产业大发展。四要抓好工业经济运行，重视企业，关心企业，与企业家交朋友，帮助企业解决发展中的实际困难。五要推动葫兴同城化建设，解放思想，步子再大一点。赵家鹏还就扶贫开发、党建工作进行了部署。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>47</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>县政协围绕中心履职能助力发展维稳定</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2016-01-13</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/bmdt/201601/t20160113_746400.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['2015年县政协在县委的正确领导下，在县政府及相关部门的大力支持下，认真贯彻落实党的十八大及十八届四中、五中全会和习近平总书记系列重要讲话精神，围绕中心，履行职能，助力发展，维护稳定，较好地完成了九届三次会议确定的各项工作任务，为推进全县经济发展和社会和谐做出了积极贡献。 围绕中心，服务大局，政治协商规范有序。九届三次会议期间，全体委员认真听取政府工作报告和其他报告，并进行充分协商讨论。为创新协商形式，提高协商质量，6名委员作了发言，13名委员作了书面发言。在发言中，委员们针对县委提出的“四大战略”和发展社会事业等工作提出意见建议200余条，得到了县委、县政府的高度重视。九届十一次常委会议专题协商了全县旅游发展问题，提出的“准确把握旅游发展新形势；正确认识旅游发展新优势；科学规划旅游发展新思路；扎实做好旅游发展各项工作”等30余条建议，被有关部门采纳和借鉴。九届十二次常委会议专题协商了建昌社会养老机构建设问题，提出20余条建议，为县委、县政府决策提供了重要参考。 拓宽渠道，多措并举，民主监督稳步推进。提案工作稳步推进。常委会把提案工作作为全局性工作摆上重要议事日程，加强组织领导，凝聚工作合力，完善工作机制，创新工作方式，更好地发挥了提案在履行民主监督职能中的积极作用。坚持和完善主席会议督办重点提案、提案委协调督办、提案委员参与督办等制度，采取常委会议专题督办、专项视察、协商座谈和提案办理“后评议”等多种方式，加大提案督办力度，得到了政府及相关部门的大力支持。按照工作要点的安排，突出全县经济社会发展的重点工作，组织部分委员开展视察，围绕兴凌线改造、土地流转、群众体育、城区供暖、旅游发展等工作进行7次专题视察，提出意见建议40余条，分别被相关部门采纳，为促进经济社会和谐发展发挥了积极作用。 顺时而谋，应势而为，参政议政扎实有效。为加快小康社会建设，就旅游开发、精准扶贫、园区建设等问题与政府及相关部门探讨交流，20多条建议直接转化为具体工作措施。常委会围绕中心，找准坐标，为深化改革、推动经济持续健康发展调研建言。组织常委和委员对旅游发展情况进行深入调研，并赴盘锦双台子、丹东大梨树考察学习，形成报告6篇；组织委员针对社会养老机构建设情况进行深入调研，形成调研报告7篇。倾情关注公益事业。政协机关和委员积极开展扶贫帮困、结对助学等公益活动。委员们发挥自身优势，在扶持下岗职工就业、帮助贫困户发展生产、救助贫困家庭学生就学等方面做出了贡献。 突出主题，彰显优势，积极促进社会和谐。化解矛盾维护稳定。积极组织委员和各界人士，充分发挥自身优势，围绕矛盾易发点，从小处入手，从细处抓起，认真宣传政策，适时开展各种形式的活动，协调关系、理顺情绪。加强联谊广交朋友。充分发挥社会团体在政协工作中的骨干作用，积极鼓励支持工商联、无党派人士和人民团体参加政协活动。积极举办迎中秋庆国庆台属、归侨、侨眷座谈会，共同畅谈祖国的大好形势，畅想祖国的美好未来，激发建设美丽建昌热情。加强与省、市和兄弟县区政协的联谊交流，接待省市政协调研5次，提升了建昌形象。文史工作显著提升。切实发挥政协存史资政、团结育人作用，经过一年多的努力，《建昌抗日十四年》正式出版发行，建昌抗战已载入史册。协助有关部门举办了中国人民抗日战争及世界反法西斯战争胜利七十周年书画展。 转变作风，夯实基础，自身建设逐步加强。按照县委总体部署，政协机关全体干部对“三严三实”内容进行了认真学习，政协党组成员分别进行深刻剖析，提出具体要求，广泛征求政协常委、委员以及各界群众的意见和建议，制定整改措施。坚持边查边改，立行立改，确保“三严三实”贯穿政协工作的全过程。坚决执行八项规定。规范调研视察工作，规范各类会议活动，工作中做到专题常委会和视察相结合、提案办理和视察相结合、调研和专题会议相结合，精简会议5次 ，精简文件简报10份。经费支出严格执行标准，杜绝了违规接待和超标准接待。加强委员管理培训。在抓好常规学习的基础上，组织委员集中专题学习。5月份邀请市商业银行领导作《创新定大事 引领新常态》专题讲座，深化创新意识和认识新常态、适应新常态、引领新常态意识。6月份邀请省农科院领导作《世界农业发展进程与农业科技发展趋势》专题讲座，深化对建昌农业发展定位和生态建设重要性认识。 记者张振贺报道（转载自葫芦岛日报） 责任编辑：']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>47</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社贯彻落实省供销社农产品现代流通体系建设现场会精神着力抓好三项工作</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2015-09-24</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968164.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['葫芦岛市供销社贯彻落实省供销社农产品现代流通体系建设现场会精神着力抓好三项工作_葫芦岛市供销合作社联合社', '为贯彻落实省供销社农产品现代流通体系建设现场会精神，进一步深化供销社综合改革，努力提高服务“三农”能力，葫芦岛市供销社本着“政府主导、企业运作、整合资源、体现公益”的原则，积极推进全市供销社农产品现代流通体系建设，以服务“三农”为宗旨，以市场为导向，创新组织体系和服务机制，努力把供销社打造成为服务农民生产生活的生力军和综合平台。近期，着力做了三项工作：', '1、召开全市供销社综合改革现场会，将农产品现代流通体系建设列为综合改革重点。会上督促和部署当前和年末具体工作，要求各县（市）区供销社要高度重视农产品现代流通体系建设工作，重点加强农产品生产、流通、消费三个环节建设，积极推进全市供销社农产品现代流通体系建设。', '2、赴辽阳供销社考察学习农产品现代流通体系建设先进经验。由葫芦岛市供销社主任刘成利带队，带领业务分管领导和业务科室负责人专程赴辽阳市供销社学习农产品流通体系建设先进经验。听取了辽阳市供销社工作情况介绍，并深入到辽阳惠民有限责任公司、添洋集团有限责任公司农产品基地、农产品直营店和加盟店实地参观。', '3、着手起草葫芦岛市供销社农产品现代流通体系建设实施方案。在调研和考察的基础上，借鉴先进地区经验和做法，结合我市实际情况，起草我市供销社农产品现代流通体系建设实施方案，指导全市供销社农产品现代流通体系建设并充分利用当地资源、条件或借助外部力量联合建设配送中心及连锁终端网络。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>47</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>县人大组织考察学习团到喀左县兴城市考察学习城市建设相关工作</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2015-06-23</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/bmdt/201506/t20150623_745353.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['建昌县人大常委会组织考察学习团到喀左县、兴城市考察学习城市建设相关工作，考察学习团', '喀左县人民广场、蒙古族初级中学、龙源湖、利州广场、财富领域购物广场、天成广场、康复养护中心、城市规划馆，兴城市国际比基尼广场项目、首山丽汤温泉旅游度假区、首山景区改造项目、全民健身中心、海河大桥、海河公园和海滨木栈道']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>47</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>大寨乡兴旺村的兴旺之路</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2015-09-11</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/xzdt/201509/t20150911_228329.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['8月27日，记者来到我市大寨乡兴旺村。据乡干部介绍，兴旺村正如它的名字一样，在整个乡里算是最富裕的村子了。记者疑惑，兴旺村素以种植大根萝卜、土豆等经济作物为主，养殖户以及外出打工的人数少之又少，经济又为何发展得如此之好？', '带着这样的疑问，记者找到了村书记曹志华仔细询问。原来，从1985年兴旺村村民陈加平从天津带回日本的“耐病总太”白萝卜种开始，农户们便踏上了种植大根萝卜之路。几年萝卜种下来，也算小有收益，但曹志华并没有安于现状。经过多方考察学习，曹志华开始研究起育种来。1994年，他终于成功培育出“青白杂交”萝卜种。据曹志华介绍，新培育出的种子比引进种便宜许多，生长期也比引进种长30天，能最大程度上防止萝卜变糠。成本降低，口感又与引进种大致相同，百姓没有理由不选择更实惠的。直至现在，20年过去了，百姓仍在种这个品种。', '有了产出，就需要有市场。在兴旺村里，还存在这样一群有“身份”的村民：哪里有大根萝卜滞销，哪里就有他们的身影，他们就是奔走于农民与市场之间的农村经纪人。兴旺村像这样的农村经纪人有70余户。', '兴旺村有人口536户，其中80%以上的农户都种植大根萝卜。大根萝卜属于二茬作物，一过立秋，农户就开始忙着栽种。进入10月中旬，在兴旺村就能看到满村晾晒萝卜条的壮观场景了。从11月中上旬开始，农村经纪人陆续出动，挨家挨户地回收晾晒好的萝卜条。同时，联系南方的酱菜厂，将手中的萝卜条转卖出去。有了这些经纪人，老百姓再也不用犯愁销路问题了。曹志华兴奋地说：“村里所有经纪人加在一块儿，每年回收个2000吨萝卜条肯定不在话下。市场行情好的时候，每吨萝卜条能卖上1万多块钱，最差的时候也能卖上8000块呢。”', '说到农村经纪人，韩可心连续3年，每年收的萝卜条都有1000余吨，可以称得上是村里的“知名人物”。他收的萝卜条主要销往湖北、浙江、广东等地，最远的出口到日本、韩国。韩可心颇有感慨地说：“酱菜在国内外都很有市场，然而我们却只能销售半成品的萝卜条，将来若能够拥有我们自己的酱菜厂，把初加工变成深加工，不仅能够解决部分百姓的就业问题，还能带动其他产业发展，利润肯定会更大。”', '近年来，兴旺村狠抓农业产业结构调整，引进种植新品种——甜玉米，替换了传统的土豆种植，并采取“企业+农户”的订单农业模式，实现了种植有保障、销售有人管的新模式，极大地调动了村民积极性。甜玉米生长周期短，村民们在甜玉米收获后，可以接着进行二茬种植，经济效益明显提高，进一步增加了村民收入。', '今夏，兴旺村推广种植的2300亩甜玉米，在“订单农业”的护航下，不出家门口就卖出个好价钱，整个村子都洋溢着丰收的喜悦。一辆辆上门收购的大货车在田间地头排着队，村民们则忙着把刚采收下来的甜玉米整理、打包、过称、装车……尽管天气炎热，但汗流浃背的村民们的脸上仍绽放出灿烂的笑容。', '据兴旺村村委会主任陈洪阳介绍，甜玉米亩产1750公斤左右，每公斤收购价8角至1元，这样算来，每亩地的纯收入在1000元左右，自然比土豆收益高了许多。兴旺村自2013年开始引进甜玉米，如今，400余户村民中已有200多户在种植。周边村屯农户看到了收益，也纷纷效仿起来。现在全乡已种植甜玉米5000余亩，大部分销往河北昌黎。', '新的出路让兴旺村的百姓看到了致富希望。如今，不少青壮年纷纷回村，也加入到农村经纪人的浪潮中。“展望未来，兴旺村老百姓的日子定会过得越来越红火！”曹志华发自内心地说。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>47</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>葫芦岛市供销社召开年理事会和监事会联合会议</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2015-05-08</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://gxs.hld.gov.cn/xwdt/ssyw/202005/t20200528_968098.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['2015年5月7日，葫芦岛市供销社召开理事会和监事会联合会议。葫芦岛市供销社三届理事和监事、各县（市）区供销社业务分管副主任、业务科长，市供销社控股企业领导班子成员，机关全体干部参加了会议。会议由葫芦岛市供销社党委副书记、监事会主任高玉良主持。', '会上，葫芦岛市供销社党委书记、理事会主任刘成利对2014年全系统主要任务指标完成情况予以通报，重点就贯彻落实《中共中央国务院关于深化供销合作社综合改革的决定》、围绕业务工作和项目工作一些困绕供销社发展的根本性问题做了点题式讲话，强调做好2015年工作需要把握好以下三个方面：', '一是关于贯彻落实《中共中央国务院关于深化供销合作社综合改革决定》工作方面。明确将这项工作作为全系统当前及今后重点工作，着重抓好召开专题报告会、贯彻落实专题会、赴先进地区考察学习、成立综合改革领导小组、出台我市供销社综合改革实施意见等五件事。', '二是关于2015年业务工作方面。分析全省经济发展速度，确定葫芦岛市发展速度，不拖全省后腿；依据省政府、市政府、省社下达的考核指标，分解考核指标并落实；解放思想，将开放办社作为供销社发展的重要渠道；搭建为农业社会化服务、为农民生产生活服务，全方位、多领域、全链条的综合服务平台。', '三是关于项目建设方面。着眼长远积极培育项目，按照项目成长规律发展储备项目，加强市、县区社之间沟通，提高培育项目的成功率。项目管理工作大胆推进同时要谨慎。全面完成市政府下达的争取上级财政支持目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>47</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>养马甸子沙土地上闯出的第一乡</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2014-07-29</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/xzdt/201407/t20140729_743742.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['盛夏，来到建昌县养马甸子乡的高岗之上，没有酷暑的难挨，反倒是阵阵微风，让人清爽不已。风从哪里来？满眼的绿色就是风起的所在。养马甸子乡宫福堂村双柳树南沟，一片人工治理的小流域工程，原本水土难以保持的荒坡，被进行梯田式改造，同步的引水上山工程，让这里成为绿植安家的沃野。如今，这里的核桃树苗长势喜人，只待两年光景，就能成为富民的核桃山。而如此规模在上千亩的工程，养马甸子乡已经治理开发6处之多。 不止是山上建绿，这个乡在平原地区，还建起蔬菜大棚。山上田间，宜林则林、宜果则果、宜棚则棚，充分利用光照充足、无霜期长、年积温高等自然、地理优势，养马甸子乡科学引导农民在沙土地里刨出金疙瘩。因为最大限度让土地生金，这里的农民人均收入早已突破万元大关。 兴办梨花节老果飘新香 养马甸子一年一度的梨花节今年又火得不得了。一周多时间，6万多人漫步香雪海。 借梨花节的光，桃农闫友山自2010年首届梨花节起就开始建起2座油桃大棚。为了卖个好价钱，他和其他农户想办法把采摘期“培植”在梨花节之前，让游客高兴采摘，吃个新鲜。由于不打农药，上农家肥，无公害，又脆又甜又鲜，尽管价格10元1斤，比外面贵一倍，他的油桃还是供不应求。每年的梨花节，他两个棚900株、2万多斤的油桃，准能卖1.5万斤，到“五一”节就全卖光了。今年因为游客多，4月26日他就基本卖光了园里的油桃。 养马甸子乡人口1.9万，耕地面积14535亩，人均耕地不足0.8亩，且大部分是沙土地和山坡地。 “土地是命根子”，因为地薄，当地人早就有种植梨树的传统，作为建昌的“梨乡”，梨果成为农民收入的主导产业。随着近年来南方水果的冲击，传统果业产值下降，如何提高农民收入，改善农民生活水平，成为乡党委、政府必须面对的问题。 “梨树种植有传统，更有基础，这个‘老字号’不能轻易丢。 ”2009年到养马甸子任乡党委书记的孙丹说：“老有老的好处，我们可以借此做新文章。 ” “老”，确实就是资本。这个有着600多年历史的梨乡，现在有梨树146多万株。应对卖果难，让果农掌握先进的技术，提高果品质量，是增产、增收的关键。为此，乡里组建了130多人的果业技术员队伍，每个月都安排果蚕技术人员给果农讲课，并到果园里实地进行技术指导。另外，他们在栽植新品种外，对老品种果树进行高接换头改造，并对新品种果树加强树上树下管理。变革的阵痛期过后，房胜沟村的万亩梨园2010年被确定为省级优质水果提质增效项目示范园，现在正在申报国家级标准园。乡里还被省农业厅、国家农业部认证为无公害水果生产基地。现在全乡盛果期梨树100万株，拥有万亩以上标准化果园6个，总株数146.6万株，人均果树拥有量达73.3株，乡果业年产值9400多万元。 “新”的，当然不止是新品种、新技术。梨果品种丰富、保质保量，销路不愁了之后，养马甸子又开始做“花”的文章。2010年起，这里尝试举办梨花节，最初只有区区几千人。但随着名气越来越大，人气也越来越旺。为迎接第五届梨花节的到来，养马甸子乡给全国之最的一株“梨王”挂牌、红绸披身，大理石柱子做围栏。 “梨王”高达10几米，树冠面积约有400平方米，年产安梨3000多公斤。这一消息被新华社、辽沈晚报记者发出后，被200多家媒体转载。有了“梨王”这个形象代言，梨乡的美誉度与日俱增。把独有的梨花资源作为丰富的旅游资源，既“卖果”又“卖花”，“赏花”和“卖果”并举，并带动农家乐、服务业、采摘等发展，有太多的“闫友山”们因此发财致富。处处飘梨香的养马甸子，将梨乡这条崎岖“山路”踏成了坦途。 趟新路沙土劣势变优势 这个时节在养马甸子乡村行走，能发现很多类似热气球一样的怪物件。房胜沟村的高连村透露，这是正在蒸菌棒。 “我们这些年搞香菇种植，装菌棒、蒸菌棒，然后成熟后摘菌棒，剪菌，这是必需的流程。”据他介绍，自家3个大棚在丰收时一天就出500多公斤香菇，一个棚一年应该有10万元的收入。 抓特色，搞创新，养马甸子乡的“新”，不只体现在果业生产上。他们针对人多地少的现状，依托乡域土地沙化土壤透水性强的特点，加之当地无霜期长，光照充足、年积温高等优势，以提高现有土地利用率为基准，大范围建设设施农业。 起初搞设施农业，养马甸子的棚菜生产以反季节蔬菜为主，多是黄瓜、豆角等大路货，由于先天土质不好，收入不太可观，群众很不满意，一时间弃棚者众。“老百姓不想干的，不能硬干。”乡党委书记孙丹及时摸实情调整思路，2009年，经过赴外地考察学习，他们决定引入不靠土质的食用菌香菇生产项目，引进外地能人先行示范，可观的经济效益让大家看到了新希望。乡党委和政府及时引导，从鞍山聘请一位名叫国振江的高级农艺师，指导农民发展食用菌大棚。 为扶持香菇产业快速发展，近年来养马甸子乡党委和政府做起了农民的服务员。在广泛开展农村和农民科技培训和科技推广外，他们还对棚菜种植实行统一规划，进行水、电、路的配套。在香菇小区，涉及农民的公共用地、用水、排水等，都由政府出面协调解决。香菇生产效益高，投入也大，他们就帮助协调贷款。此外，乡里还完善市场的服务功能，为了保证农民的蔬菜能及时卖出去，他们建设了一个占地2万多平方米的批发市场，农民在家门口即可卖菇。近年来他们的蔬菜批发市场日成交量最高达到5吨；见农民的香菇生产多了，高峰期一天产菇18万公斤，当天有时卖不出去，需要存起来，乡里还组织大家建起冷冻室…… 发展设施农业，土地流转是关键步骤。养马甸子乡建立了“依法、自愿、有偿”的土地流转机制，促进土地适度规模经营。乡里建起土地流转交易服务中心，设立政策咨询、信息联络、地价评估、流转竞标、合同鉴证与管理等服务项目，指导办理流转手续、调解土地流转纠纷、做好土地流转资料归档。到目前，全乡14535亩耕地，已流转9252亩，达到六成多。其中设施农业土地达6100亩，畜禽小区102亩，荒山荒坡荒地栽植核桃3050亩。不仅是村内农户间互相流转，而且范围扩大到乡内，甚至有外来户也参与其中。 科学的引导，细致的服务，全乡香菇生产快马加鞭。截至目前，养马甸子乡发展大棚2820栋，其中1430栋是香菇。户均120延长米，棚均纯收入最低也有八九万元。“食用香菇在省外有很大的影响力，我们的香菇已成为地理标志性产品，除近销东北外，还远销到广东、福建，并出口到韩国、日本。年实现销售收入1.7亿元。 ”养马甸子乡长孟令伟不无欣喜地说：“到现在，全乡适宜发展棚菜种植的地段多半已经实现设施农业生产，不仅我们的农业产业顺利完成转型，而且土地的附加值也被深度开发。看来这条路我们走对了。 ” 不折腾一年一座千亩核桃园 梨果是传统产业，香菇是新兴龙头，看似没有太多资源和空间的养马甸子，没有就此止步，他们又将目光瞄向了荒山秃岭。 “一年看不到绿，常年睁不开眼”，是当地人形容养马甸子乡早年面貌的一句话。据水利部门测算，10年前，该乡水土流失面积达85.3平方公里，占总面积的64%。为了彻底改变这一面貌，养马甸子乡创造性地提出了 “水土保持治理与发展农村经济相结合，生态建设与经济发展并驾齐驱”的治理新模式，即以种植梨树固土为主，以拦河蓄水为辅，并确定了“当年见绿、五年见果、十年经济翻番”的治理目标。 在水利部门支持下，他们愚公治山，累计投资1.5亿元，先后治理坡面流域工程17处，治理水土流失面积14万亩，建设闸谷坊38座，完成层层截潜拦蓄工程36道，坝路防护工程21公里。修建引水上山工程25处，山上建蓄水池15米。 立足乡情民意，抓住建昌县委、县政府打造“东北核桃第一县”的机遇，2009年，养马甸子乡尝试嫁接4万株野生核桃，取得成功。从2010年起到2014年，他们本着一年一千亩的发展目标，先后在枣木沟村、南平房子村、宫福堂村建成4个千亩丰产早实薄皮核桃园，并同期完成跟踪配套滴灌节水工程。“山顶林草盖帽，山间果树绕腰，山下水利配套”的治理，不仅绿了荒山，更为老百姓建造了一个又一个实实在在的“绿色银行”。值得一提的是，因为头几年没有盲目跟风种植葡萄，养马甸子人才没有走弯路，才锲而不舍终至核桃产业有所成就。 随着棚内种植业结构的转型升级，目前该乡有2000多名农民实现就地务工，月工资都在2000元以上。相关产业还拉动餐饮、运输、商贸等领域的协调发展。 “我们的农民现在是闲季不闲，忙季更忙。”乡党委书记孙丹说：“其实凡事就怕‘认真’二字。现在国家对农业发展有政策、有扶持，我们如果主动性、积极性不高，发展不起来，就要怪自己。只要我们因地制宜，科学决策，老百姓的干劲是很容易激发的，因为大家都有向富、向美的要求。 ” 果然，富裕起来的农民把自家打扮得漂漂亮亮，几年来，养马甸子乡还新修村路61.1公里，新建便民桥7座，新建乡级卫生院600平方米，新建文化广场4处，乡内朱小线和建绥西线两条主干线公路安装太阳能路灯144盏，沿路新建花坛17个、垃圾箱34处，栽植花草9公里。乡政府所在地的三角洲附近一带，十几家农家乐，十多家超市、车辆维修点、药房、五金建材等各类三产工商业户依次排开，一处充满生机的小城镇已经在山乡形成。 成绩骄人。 2011年至2013年连续3年，该乡在全县28个乡镇目标考核中均名列第一，乡党委先后荣获市级先进党委、省级创先争优先进基层党组织称号。□刘振远/本报记者/翟新群/李万东（转载自辽宁日报） 责任编辑：']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>47</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>金星镇涣散村的变形记</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2014-06-16</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/npxw/201406/t20140616_83982.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['南票区金星镇西新村昔日是一个远近闻名的“涣散薄弱村”，如今，在新一届“两委”班子的带领下成功“变形”，建起了大棚，家家户户都通上了自来水。是什么让村子发生了如此大的变化？带着诸多疑问，记者走进了西新村。', '一走进西新村，记者就看到一派热闹的施工场面。“轰轰轰”的铲车声、“吱吱吱”的电焊声、“啪嗒啪嗒”的砌墙声似一曲动听的交响曲在大地上奏响。蔬菜大棚建设正如火如荼地进行着，其中3个大棚已现雏形。“这几个大棚长 110米，宽 13米，高 6.2米，建成后，它们将是我们镇单体面积最大的。”金星镇宣委沈丽娟对记者说。', '金星镇西新村全村2200余人，620余户。多年来，由于种种原因村里事务一团糟，村民思想保守，只靠种裸地菜、外出打工赚钱养家，很难发家致富。', '新一届村“两委”班子上任后，看在眼里，急在心上，他们下决心转变观念、努力创新、扎实工作，尽快使村民打破传统思维，找到发家致富的门路，争取早日摘掉“涣散薄弱村”帽子。村“两委”班子成员每天早出晚归，经过一个月的实地调研后，召开村民委员会，认真探讨致富之路，并筹划建设高标准日光温室大棚，一改西新村没有大棚的历史。', '说干就干。村书记金连平积极组织有意向的村民到辽阳等地考察学习大棚示范种植，随后规划在西新村临东英线路边先建占地50亩、总投资200余万元的设施暖棚8栋。', '万事开头难，土地流转是建棚能否成功的关键。村“两委”班子从年初开始走家入户，晓之以理，动之以情，劝说大家流转土地兴建蔬菜大棚。但由于村民思想守旧，两个月过去了，仍没有任何进展。为了使该项目尽早落地，他们转变思路，将建棚的方位由路东转到路西，继续做路西村民的思想工作。', '功夫不负有心人。4月初，终于成功完成土地流转。村“两委”班子又自掏腰包雇用铲车，帮种植户平整土地，为建棚做好前期的基础工作。为了能够把蔬菜大棚种植真正抓好，抓出成效，针对村民的实际情况，他们积极向镇里争取扶持资金，帮助村民协调贷款，办理相关手续。同时，联系协调镇电管站、水利部门为种植户办电打井，目前已在棚地架线2600延长米，打井8眼。现在规格长 110米、宽 13米、高 6.2米的3栋大棚已基本建成。“看到村‘两委’班子为我们做的这些事，我们致富的信心更强了，干劲更足了。”村民卢清会说。“我们一定要先带领这几位村民发展好棚菜，然后发挥他们的带动作用，将这一片都建成棚菜区。相信不久的将来，全村农民一定能够实现共同致富。”金连平指着眼前广袤的大地，信心满满地对记者说。', '尽管西新村采取的是“先帮助一部分人富起来，然后用先富带动后富”的经济发展策略，但关乎全村百姓切身利益问题他们更是一点也不含糊。由于这里多年来雨水少，地下水位一直下降，加上部分污染，导致村民吃水特别困难。为了从根本上解决这一问题，村两委班子积极向上级争取饮水工程项目资金，同时又自筹资金40余万元，为村民安装自来水管道。现在260户村民已完成入户安装，可享受24小时全天候供水。“我们现在也能像城里人一样吃上放心水，村‘两委’班子切实为老百姓办了件大好事。”村民唐秀平说。', '为了整治村屯环境，该村“两委”班子还建成占地10亩的垃圾堆放点3个，解决了垃圾满天飞污染环境问题。近期内还将继续加大基础设施建设，筹备建设村级文化广场。目前清理工作已完成，下一步将铺设水泥路面，并配套相应设施。此外，3公里的村路也正在积极筹建中。（李彬彬、石兴奎）']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>47</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>县公安局四个再次推进年终信息化建设工作深入开展</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2013-12-03</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/bmdt/201312/t20131203_742589.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['县公安局高度重视信息化建设深度应用工作，以“四个再次”推进信息化建设工作深入开展，为年终各项工作提供有力支撑。', '一是召开研讨会，再研究再部署。县公安局主要领导亲自组织、研究，对信息化建设中存在的问题及时召开研讨会，逐一会商解决。', '月中旬信息办系统梳理全年信息化建设工作，各警种也逐一对照省公安厅信息化建设考核方案，逐项梳理建设任务，深入研究本部门的建设项目，确保各项建设任务落到实处，落到人头。二是召开点评会，再整改再提高。县公安局各警种部门结合前一时期信息化工作点评，对照省公安厅、市公安局考评成绩，对考核丢分项逐一强化改进措施，针对弱项，查找出差距，出台方法，迅速整改。在专项整治行动中，出台工作预案', '份。三是召开培训会，再指导再落实。各警种在认真系统地对前期信息化工作进行梳理后，针对薄弱环节，确定专人精心准备课件，先后举办培训班', '期，进一步加大对派出所的指导力度。四是召开交流会，再沟通再协调。各警种部门进一步加强与市公安局沟通协调力度，求得指导，明确建设标准，对薄弱点立即整改，保障工作质量。', '月初县公安局组织班子成员到兴城市公安局考察信息化建设工作，网警部门到湖北武汉考察学习，然后组织各警种及派出所信息员交流心得体会，进一步提升了全警高端应用能力，促进了年终各项工作的深入开展。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>47</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>县农经局组织乡村干部及农户到凌源考察学习</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2013-10-21</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/bmdt/201310/t20131021_742182.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['考察团一行参观了东远现代农业示范园区的农作物生产潜能展示区、育苗区和生产展示区的蔬菜花卉新品种、新技术和新设施设备，认真听取了园区主管对蔬菜大棚设施配备、温控集约育苗、水肥一体化、蔬菜花卉种植技术和新品种、病虫害防治技术、经济效益等情况的详细介绍。', '通过参观考察，增强了大家发展设施农业的意愿和信心，部分乡村干部表示要进一步调查研究，宣传发动，采取有效措施，推动当地设施农业发展。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>47</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>云霄县考察团莅兴考察核电科普工作</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2014-01-08</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/zwyw/201401/t20140108_223805.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['1月6日，福建省云霄县县委常委、宣传部长、教育工委书记郭达璐一行27人，莅临兴城考察核电科普宣传工作。兴城市委常委、宣传部长郭荣新及有关部门负责同志出席交流会。', '云霄县地处福建沿海东南部，介于厦门和汕头两个经济特区之间，隶属漳州市，下辖9个乡镇，人口42万，素有“枇杷之乡”、“温泉之乡”的美誉。目前该县境内正在建设漳州核电站，其项目公司为中核国电漳州能源有限公司。漳州核电与徐大堡核电建设相仿，两家核电站可实现优势互补。', '此行，云霄县宣传系统多家单位和漳州能源公司负责同志，主要对核电科普宣传工作进行考察学习。他们分别与中核辽宁核电有限公司、市委宣传部及宣传部门负责同志进行广泛交流学习，并参观了兴城核电科普展厅、兴城古城和葫芦岛科普展厅。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>47</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>魏家岭乡赴钢屯北镇考察学习食用菌生产技术</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2013-10-15</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/xzdt/201310/t20131015_742119.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['为了推动乡食用菌产业发展，促进农民致富增收，10月上旬，魏家岭乡组织乡人大代表和部分大棚种植户60余人，赴葫芦岛市钢屯镇、锦州市北镇市就食用菌生产技术进行了考察学习，此次考察历时两天。 在钢屯镇，考察人员参观了当地平地木耳生产基地，学习了利用粉碎的玉米骨和其他原料为菌棒栽培种菌，并利用管道针孔喷雾状灌溉的木耳生产技术。该技术成本低、投入小、见效快。随后，考察人员到北镇市参观学习了冷棚平菇生产技术。冷棚平菇产量高、菇瓣大、耐冷性强。考察人员返乡后表示所参观的项目适合本乡地域特点，可尝试生产。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>47</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>强化宣传助推法院工作高效运转</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2013-08-08</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://www.jianchang.gov.cn/dtzx/bmdt/201308/t20130808_741409.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['7月31日，建昌法院召开了新闻宣传工作会议。院长赵志刚在会上指出：“新闻宣传不是副业，而是主业，宣传工作的重要性不亚于审判工作，特别是在网络技术和信息技术迅猛发展的今天，我们要把握重点，不断加大对法院工作的正面宣传力度，实现宣传工作促进审判工作的开展。” 县法院在新闻宣传工作中从以下几方面入手：一是构建长效机制，实现院内新闻宣传工作“网络化”：以研究室为中心，各庭室设专兼职宣传员1名，形成覆盖全院的信息宣传网；二是严格考评，实行目标管理：制定了《调研、信息、宣传工作暂行规定》，将宣传工作纳入法院《目标奖惩管理办法》中，量化到具体部门和人，实行宣传工作月通报、调研工作年通报制；三是把新闻宣传工作与干警晋职晋级挂钩，并作为年终评先选优的一项硬指标，对没有完成宣传工作任务的部门，取消年度评先选优资格；四是强化培训，提升写作技能：对调研信息宣传骨干除组织院内培训外，还到外地法院考察学习，全面提高信息宣传员写作能力，拓宽写作思路；五是强化与媒体联系，切实加强对传统媒体和新兴媒体的统筹运用，从而提升司法形象和司法公信力，弘扬正能量。 年初至今，建昌法院在市级媒体发表新闻稿件51篇，在省（含省）以上媒体发表稿件20篇。新闻宣传工作有力推动了建昌法院审判工作的开展，与2012年同期相比，建昌法院结案率提升3.47%，调撤率提升4.49%。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>47</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>棚菜生产铺就致富路记新台门镇棚菜大户李大明</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2013-07-23</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://nync.hld.gov.cn/ywdt/bdxw/201307/t20130723_39382.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['在新台门镇，有一位远近闻名的种菜能手，他就是李大明，今年46岁。从事大棚蔬菜种植已有4年了，这两年，他用自己从“连山区设施农业科技培训班”培训中获过硬的技术本领和坚定的信心，战胜蔬菜大棚发展中遇到的各种困难。如今，他的大棚蔬菜正一天天“茁壮成长”，大棚内各类新鲜蔬菜长势喜人，枝繁叶茂，可谓硕果累累。', '2006年以前，李大明以种地为生，主要种植玉米，单一的种植收入难以满足生活需要，他家亲属有搞蔬菜种植的，效益不错，他看到种植大棚蔬菜是一个致富的好项目，就萌生了种菜的念头，在全村率先搞起了蔬菜温室大棚。刚开始管理大棚蔬菜，李大明没有经验，他虚心向种植蔬菜的其它乡镇的亲属请教种菜经验，还买回大量蔬菜种植技术书籍认真学习，科学管理，摸索出一条大棚蔬菜种植经验，2012年9月，他参加了连山区阳光工程培训班,用在学习班学到的知识武装他种菜实技术，经过一季的辛勤努力，李大明的收入有了明显提高，单茬收入都在2.6万元 。但是他没有满足，仍然努力学习各个品种蔬菜的种植管理知识，经培训教师介绍还自费到山东寿光去考察学习 ，增加了知识，开阔了眼界，生产的积极性更高了。', '李大明看到发展大棚蔬菜种植前景广阔，应该凭借自身的经验和技术带领更多的人富起来，扩大经营规模，走集约化、规模化、有特色的大棚种植路子。其他村民由于没有资金，没有经验，李大明就把他们的事作为自己的事来办，免费提供技术服务，传授大棚蔬菜种植技术， 坚持到新建的大棚中去指导，言传身教并重，使种植户基本能掌握大棚蔬菜的种植、管理技术，这些工作都是李大明在不收一分报酬的情况下进行的。难怪大棚种植户深有感触地说：“没有李大明就没有我们的大棚，没有他，我们可以说什么也干不成。”李大明一天都没闲着，还经常被请到毗邻乡镇讲课。', '李大明的蔬菜大棚现有2栋，种植品种有芹菜、黄瓜、西红柿、香菜、茼蒿、小萝卜等，在初春市场非常抢手。由于大棚采取绿色种植，使用农家肥、蔬菜无公害、质量好，吃着放心，随摘随卖，新鲜度是蔬菜商倒运的蔬菜无法相比的。因此他的蔬菜很受市场青睐。李大明说，大棚可种植三到四茬菜，可以常年卖菜，经济效益是大田玉米的40倍。', '李大明的大棚蔬菜又走上了科学发展之路，带头建设了沼气池。在暖棚内地下修建沼气池，地上修建厕所，日产沼气可供自家烧水、做饭、取暖用，产生的沼肥可做蔬菜的优质肥料，为蔬菜生产向绿色、有机农产品转变打下了良好的基础，再一次实现了科技助推产业发展的梦想。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>47</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>服务业局考察组赴山东寿光蔬菜批发市场调研</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2013-09-17</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/bmdt/201309/t20130917_221523.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['9月7—11日，市服务业局局长隋文发带领该局及铁西农贸市场相关管理人员赴山东寿光市考察学习大型专业市场建设成功经验，考察组一行重点对山东省寿光市蔬菜批发市场进行了考察。', '寿光市蔬菜批发市场始建于1984年3月，占地面积3000余亩，总投资20多亿元，实现年蔬菜、水果及农副产品交易量达100亿公斤，年交易额180亿元，产品销往国内200多个大中城市和10多个国家和地区，并开通了北京、哈尔滨、广州的绿色通道，为社会提供了数千个商业机会和近万个人才岗位，是亚洲最大的综合性农产品物流园、中国最大的农产品集散中心、信息交易中心、物流配送中心、最权威的蔬菜价格形成中心。', '考察组一行先后考察了寿光蔬菜批发市场、电子交易平台，认真听取市场管理部门介绍了该市场的建设管理及如何做大、做强的成功经验，相关人员并同我局考察人员就关心的市场培育等管理经验进行了详细地交流。 通过对寿光市场的专项考察，考察组一行纷纷表示，该市场的部分成功经验值得我市借鉴，我们可结合我市实际情况，创新机制，把我市铁西农贸市场发展成为辽西地区配套设施齐全、服务功能较全、经营环境优的星级农产品综合市场。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>47</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>勤劳致富情系乡里记白马石乡棚菜大户张立新</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2013-05-13</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://nync.hld.gov.cn/ywdt/bdxw/201305/t20130513_39188.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['张立新是葫芦岛市连山区人，在本地发展冷棚青椒种植及销售产业，经过6年来的奋斗，如今已经在棚菜种植及销售行业成为一个名副其实的自主创业的成功者。作为一名创业者，张立新这样评价自己：“我，是一名农民的儿子，肩头刻下的是扁担的烙印，脚底印满的是土地的泥泞。贫穷的家境告诉我，要干一份自己的事业，创造自己的财富。”', '2006年，党的惠民政策犹如一阵春风，借着这阵春风，连山区乡政府引导、鼓励农民改善种植结构，发展设施农业，以冷棚青椒为首选项目，这也是经过当地党委、政府和农业生产部门以及有关专家经过充分论证和研究而决定的项目。张立新得知这一消息，便决定在冷棚蔬菜种植行业上做出自己的一番成绩。他相信只要肯努力，就一定会成功。经过多方筹资，张立新投资5万余元筹建蔬菜冷棚10栋，全部种植冷棚蔬菜青椒，初步达成了自己做事的梦想。每天早出晚归，风里来雨里去，在棚内辛勤地劳作，经过一年的努力，终于功夫不负苦心人，当年的纯收入就达3万余元。虽然吃了很多苦，也受了不少累，可是每每看到自己辛勤劳作的成果，张立新心中就充满了动力。', '只靠自己一个赚钱，一个人致富，冷棚青椒行业不成规模，久而久之，不光自己赚不到钱，乡亲们更谈不上致富。每次想到这里，张立新都觉得带领村里的农户一起发展致富，是更重要的一件事情。他开始向亲朋邻里传授自己通过冷棚蔬菜挣钱的经验和感受，大家切切实实地看到了他的致富成果，同时也被他的诚意所打动，在他的帮助和引导下，有十几户人家也开始种植冷棚蔬菜。张立新经常带着几个年青的、有抱负的、想致富的兄弟到绥中、建昌、喀佐、大连等地参观、学习，回来后，再把学习到的先进的种植经验传授给其他棚户，在他们的不懈努力下，使得广大棚户每年都有个好收成，大家脸上都露出了欣喜的笑容，对张立新也是充满了更多的信任和感激。', '通过两三年的考察学习、实践摸索和经验积累，张立新已成为白马石乡种植冷棚蔬菜有名的“明白人”， 有更多的人向他请教，请求他带领一起种植冷棚蔬菜。随着棚户的增加，张立新又意识到棚户分散种植、经营各自的冷棚蔬菜，不但价钱忽高忽低，也不利于今后的进一步壮大发展，对大家以后的致富有很大影响，应该把大家组织起来，共同经营冷棚蔬菜，成立一个组织，形成产业经营。有了想法就要有行动，2010年在区农业局、区工商局帮助和组织下，成立了“立新蔬菜种植合作社”，张立新自任社长，与广大棚户共同经营冷棚蔬菜，积极引导棚户向定单式农业的方向发展。合作社成立之初，很多棚户受意识形态的影响，对这种新的经营方式不理解，不信任，觉得还是自己管自己放心些，因此不愿参加到合作社中来。然而，看到这种现象，张立新并没有灰心，反而更激发了他为菜农做好事、实事的干劲。由于自己种植冷棚蔬菜已经有了成功的经验，同时也与几个菜商建立了稳定的供求关系，为了让大家都能及时售出蔬菜，而且又有个稳定的价格，他就把几个菜商中的老熟人也介绍给未入社的其他棚户。乡、村领导了解到他的苦心，也肯定了他的做法，帮着一起做广大棚户的思想工作，这样又有很多棚户加入到合作社中来，使合作社从成立时的4户发展到了现在的102户。目前，合作社已建成冷棚青椒种植基地1个和原料仓储库2座，制定了财务制度、活动制度等规章制度，并按照“五统一分”的经营方式和“风险共担、利益共享”的分配原则，积极组织生产、强化社会服务。2010年，合作社销售冷棚青椒4200吨，实现销售收入840余万，社员户均纯收入8万余元。当年，张立新被区团委和乡团委分别评为区优秀青年和致富能手。', '生产过程中，张立新时刻关注新的生产技术，通过外出考察学习得带的经验，准备把竹架冷棚改成钢筋结构的冷棚，2011年春贷款购买了钢材，又重新承包了40亩土地，把以前的竹架冷棚改成了现在的钢架结构的冷棚，新建钢架冷棚24栋，扩大了冷棚青椒的种植规模，经过一年的苦心经营，2011和2012年，实现纯收入15万元。在冷棚青椒种植合作社的建设中，张立新坚持以规模化生产和设施化种植为手段，有效地拉动了冷棚青椒产业的发展，实现了以规模生产的批量优势占据市场，辐射和带动周边乡镇蔬菜产业的快速发展。', '张立新总结说：今天的成功与自己的辛勤努力与苦心经营固然分不开，与党的惠民政策及政府的大力支持与帮助更是密不可分。由于自己已经积累了很多成功的经验，准备将来继续带领乡亲们扩大经营规模，继续发展钢架冷棚蔬菜，把自己的冷棚蔬菜事业做大、做强、做稳，在致富的康庄大道上坚毅前行！']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>47</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>政协葫芦岛市第四届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2013-01-21</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/xwdt/zwyw/201301/t20130121_185172.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['各位委员、同志们： 我代表政协葫芦岛市第四届委员会常务委员会，向大会报告工作，请予审议。 2012年工作回顾 2012年，是我市全面实施“十二五”规划、经济社会发展取得显著成就的一年，也是市政协积极作为、创新发展的重要一年。一年来，常委会牢牢把握团结和民主两大主题，紧紧围绕市委、市政府中心工作，凝心聚力服务科学发展，发挥优势增进民生福祉，协调关系促进社会和谐，强化自身夯实履职基础，圆满完成了年初确定的各项任务，为加快推进“沿海经济强市”建设作出了新贡献。 一、服务全市大局，为推动科学发展献计出力 紧扣科学发展主题，坚持在全局中找准工作定位，在大局下抓好履职对接，最大限度地释放出推动我市科学发展的正能量。 第一，协商建言助推发展。四届三次全会以来，政协各参加单位和全体政协委员深入贯彻落实市第四次党代会和市委政协工作会议精神，围绕工业强市、项目支撑、沿海开放、民生保障等重大战略问题，积极协商议政、建言献策。及时梳理全会期间形成的10大方面63条意见、建议，首次以专报形式报送市委、市政府。兆林书记做出重要批示，并以市委文件形式转发。根据委员分组讨论现场提出的意见，连夜形成《关于发展煤矿救生舱产业的建议案》，得到市党政主要领导的高度重视，市政府分管领导及市直有关部门抓紧研究落实。目前，此项工作已经取得阶段性成果，不仅填补了我市产业发展的空白，也为我市中小企业转型升级提供了新思路。《关于打造百姓近海亲水幸福海岸的建议》得到了省政府主要领导的高度评价，被列为省政协十届五次全会期间的重点协商议题，并在大会上做了重点发言。我市迅速落实此建议，兴城海滨至龙湾海滨沿海观光栈道一期工程如期竣工，二期、三期工程加速推进，成为全市百姓和外地游人近海亲水的新地标。提交辽宁沿海经济带政协论坛（盘锦）的专题调研报告，为进一步促进全省园区管理体制机制创新，提升论坛协商质量做出了重要贡献。针对我市中小微企业发展中存在的突出困难和问题，成立13个专题调研组，组织100多名政协委员深入到6个县（市）区、13个主题概念园区、50多家中小微企业和30个市直部门进行了实地调研，形成建议案、综合调研报告和分课题调研报告15篇。经市政协四届十次常委会议协商通过，从抓增量、抓融资、抓创新、抓政策落实、抓强化保障等5大方面提出了26项建议。其中，把握“放开、搞活、扶持”方针，大幅度提高中小微企业的“落地率”、“存活率”和“成长率”，尽快形成大企业“顶天立地”、中小微企业“铺天盖地”良好局面等建议，目前已成为全市上下的广泛共识和实际行动，鼓励全民创业、扶持中小微企业发展的社会氛围日益浓厚。 第二，调研视察服务发展。进一步拓宽调研、视察领域，延展履职内容，增强履职实效。先后组织开展了青山水库水源安全、青山生态保护工程、觉华岛开发建设、CBD“一场五馆”运营管理、涉外劳务输出、现代物流业发展、东大杖子战国墓葬群保护、前所现代生态农业产业园区发展等专题调研、视察20余次；对我市煤矿救生舱产业、金融业和农民专业合作社发展等进行了跟进、跟踪调研视察。《关于加强青山水库水源保护工作的建议》等11份专题调研、视察报告，为相关县（市）区、市直有关部门科学决策提供了重要参考。市政协主席班子对全运会分会场场馆的建设情况、青山水库工程进展情况等进行了集体视察，提出了解决相关问题的对策和措施。27个委员活动小组还围绕现代服务业、“城中村”改造、滨城旅游资源整合开发、打渔山泵业发展、绿化苗木产业集群发展经营等开展履职活动，提出意见、建议240条，得到有关部门的高度重视和吸纳落实。 第三，民主监督促进发展。坚持把提案监督、民主评议与促进发展结合起来，寓监督于支持之中，寓评议于服务之中。四届三次会议以来，共征集提案654件，立案529件，办复率100%，落实率66%。推进13个产业园区建设、尽快提高我市城镇化水平、加快民营企业发展方式转变、健全农村土地承包流转机制和发展现代品牌农业等方面的提案，集中体现出全体委员对加快我市经济社会发展的热切期盼与真知灼见。对此，市委、市政府及各承办单位都高度重视，积极办理落实。召开全市软环境建设民主评议工作会议，与市纪委、市直机关工委联合组成8个民主评议小组，采取无陪同视察、暗访、电话约谈、发放调查问卷等多种形式，全面了解掌握社会各界对16个被评议单位软环境建设的情况。 各评议小组举事有据，议事有理，形成并反馈专题民主评议报告16份。这些评议结果已直接作为我市党风廉政建设、市直机关目标责任制考核的重要依据，较好地促进了我市软环境状况的进一步改善。通过听取“一府两院”工作通报，进一步拓宽了委员知情明政的渠道。44个民主监督小组结合所派驻单位的实际情况，开展各类监督活动96次，累计反映群众愿望、诉求和提出意见、建议135条，促进了被监督单位工作作风的进一步转变。 二、关注社情民意，为促进民生改善发挥作用 自觉坚持以人为本的核心立场，把促进民生改善作为履行职责的重要抓手，协助市委、市政府作了大量富有成效的工作。 第一，积极履行为民建言的重要使命。认真贯彻落实中央和省、市委关于加强和创新社会管理的重大决策部署，把加强和创新社会管理作为市政协常委会的重点调研课题。组成社会保障、人口管理、社会稳定等6个课题组，实行“主席班子牵动，市县两级政协、各党派团体联动，委（室）、委员互动，全员参与”的大调研机制，经过近4个月的深入调研，形成15篇调研报告和1份综合建议案，在四届十一次常委会议上进行了专题协商。调研成果得到了市委、市政府的高度重视，党政主要领导分别作出重要批示，为进一步提升我市社会管理科学化水平提供了决策参考。热切关注居民收入增长相对滞缓的现状，在协助省政协开展相关调研的同时，形成了调研报告，并入选省政协十届十次常委会议的《调研汇编》。围绕校园安全、城市公交健康发展、户籍改革、农民工有序转户进城、残疾人三轮车车主上访等问题开展调研，形成50余条意见、建议，得到相关部门的吸纳采用。组织部分委员对我市医疗卫生体制改革进展情况、计划生育服务体系建设现状、职业教育资源整合情况、锦葫路改造工程等进行跟踪视察，进一步推动相关工作的改进和落实。 第二，切实担当反映民意的重要责任。充分利用提案、反映社情民意信息等多种形式，把握民生脉动，传递百姓声音。关于加大被征地农民就业扶持力度、加强和改善城区供热质量、大力实施“农超对接”等民生方面的提案，得到承办单位迅速办理和落实，实现了党政部门、委员、群众“三满意”。把“完善校车管理，确保运营安全的建议”确定为“一号提案”，由市长和主席对应包案。采取实地调研、提交建议、召开联席会议专题协商、主席带队跟踪督办和市县两级政协联动督办等形式，为系好校车“安全带”发挥了重要作用。目前，市政府出台了《校车安全管理的意见》，全市各级政府累计投资1500万元，新购校车111辆，222辆备案管理校车投入使用，“政府主导、公司化运营”的模式得到普遍推广，全市校车安全状况明显改善。积极参加全国政协信息联系点工作会议，召开全市政协信息工作会议，学习借鉴赤峰市政协等外地先进经验，进一步提高了信息质量和采用率。全年反映社情民意信息1261条，编发《葫芦岛政协信息》109期。有关食品安全、住房保障、教育医疗、增加城乡居民收入、农民工参保、失独家庭养老困难等民生方面的信息，得到各级党政部门的高度关注和认真采纳，切实发挥了政协信息“直通车”的独特作用。 第三，广泛参与为民谋利的重要实践。按照省、市委的部署和安排，结合开展“创先争优”活动，引导和动员全体委员、市政协机关干部职工积极参与全市“下基层、访百姓、解难题、促和谐”和“千名市县级干部下基层”等活动,政协机关领导干部带头做好“五件实事”。市政协党组成员定期深入到基层联系点开展帮扶工作，多次召开现场会，了解实际情况、理清帮扶思路、确定发展规划、提出脱贫建议。经多方面协调争取，引进致富项目8个，落实帮扶资金200余万元。市政协主席班子成员主动上门服务委员所在企业，为企业发展“把脉问诊”。协调银信部门与企业对接，及时帮助解决企业发展中的难题。深入开展送科技、送文化、送医药、送法律到农村、社区、军营等活动，把委员的整体优势充分融注于服务群众、服务社会的具体实践中。继续开展捐资助学活动，资助大学生31名。 三、拓宽民主渠道，为构建和谐社会作出贡献 充分发挥大团结、大联合的政治优势，以人民政协事业团结各界，以共同的奋斗目标凝聚共识，切实发挥了协调关系、汇聚力量的作用。 第一，合作共事更加和谐。支持和保障各民主党派、工商联、无党派人士、人民团体通过政协全体会议、常委会议和专题协商会议等平台履行职责、发挥作用。出台《关于政协各参加单位和委员活动小组督办提案办法》，不断加大联合调研视察、督办提案等工作力度。各党派团体参政有为，去年党派团体共提交提案69件，其中15件被列为重点提案；形成市政协常委会专题调研报告9篇，其中6篇被选为大会发言材料；反映社情民意信息431条，被省、市级采用150条。 第二，互动协作更加密切。广开联系渠道，建立联系机制，深化联系成果，不断强化政协组织同各级党政部门的沟通联系，呈现出“协商互动、合作双赢、共促发展”的良好态势。加强与各级各地政协的联系，密切配合全国政协、省政协开展调研、视察活动7次，接待外地政协来葫学习、调研、考察120余批次、1000余人次。加强对县（市）区政协工作的指导，构建起纵向联动的调研、视察和提案督办等工作机制，形成了上下联动、协调配合、互相促进的工作局面。 第三，团结联谊更加广泛。利用举办传统节日茶话会、上门走访、考察外资企业等活动，加强与港澳台侨界别委员、归侨侨眷、台胞台属的联系，加深了感情，增进了共识。邀请省台办领导作报告，成功举办台海形势报告会。扎实做好澳门明德慈善总会“辽西光明行”活动的服务保障工作。完成了对港澳台侨特邀人士的考察与推荐工作，首次特邀4名港澳台侨人士列席政协全会。认真宣传贯彻党和国家的民族宗教政策，重视发挥民族宗教界委员的作用，按照民族和宗教习俗提供必要的便利条件，支持他们积极参政议政。 第四，文史宣传更加活跃。深入开展“三亲”史料征集工作，新征集各类文史资料75篇。与中国乡土诗人协会联合编辑出版诗集《百名诗人咏葫芦岛》，参加“首届辽宁史学论坛”、“抗日义勇军与南票”、《葫芦岛地域文化通览》等学术研讨、考察论证、撰写史稿活动，编辑出版《葫芦岛抗日斗争亲历记》。积极与新闻单位配合，通过系列报道和开辟专版、专栏等形式，及时宣传报道政协的重要会议、履职活动和委员的先进事迹。开展“政协宣传县区行”专题调研，推进基层政协宣传工作。召开全市政协新闻宣传工作会议，表彰了先进集体、先进个人和优秀作品。全年在市级以上各类新闻媒体发表稿件400多篇，首次荣获“省政协好新闻评选活动”优秀组织奖。市政协网站刊发各类信息300多条，编发《葫芦岛政协》6期。同12家省内外政协的文史部门开展交流联谊活动，与21家政协组织建立起信息交流平台。 四、加强自身建设，为政协事业发展夯实基础 始终把加强政协自身建设放在突出的位置，重点强化委员服务管理和政协机关建设，进一步提高了政协工作的整体水平。 第一，学习氛围日益浓厚。中共十八大召开后，按照上级有关要求，在全市各级政协组织和全体委员中迅速掀起了学习贯彻会议精神的热潮，重点理解掌握大会提出的新思想、新观点、新论断，特别是对新时期政协工作提出的新要求，努力把智慧和力量凝聚到中央和省、市委的决策部署上来。召开专题报告会，邀请国家行政学院教授作“努力提高社会管理科学化水平”辅导报告。举办委员强化培训班，对57名来自不同层面的委员进行了集中培训。 第二，认真总结政协工作经验。在精心谋划、深入调研的基础上，召开了全市政协工作经验交流会。政协各参加单位、各县（市）区政协、市直相关部门、民主监督小组、委员活动小组和部分优秀市政协委员，从不同角度认真总结了两年来履职的好做法和新经验。大家从经验交流中深化了思想认识，从相互比较中找到了存在的差距，从吸纳借鉴中找到了改进工作的措施。52篇经验材料汇编成册，9名同志进行经验介绍，凸显了典型引路、经验示范的作用，对全方位提升我市政协工作的整体水平起到了积极的推动作用。 第三，委员管理服务机制继续深化。在依法有据、深入调研的前提下，先后出台了《维护委员合法权益办法》、《委员诫勉和退出办法》，这在全省政协系统尚属首家。这两个制度和2011年出台的《委员履职量化考核办法》、《联系常委、委员制度》，构成了委员量化考核、联系沟通、维护权益、诫勉退出“四位一体”的工作体系，使我市委员管理服务工作步入了制度化、规范化、系统化的轨道。按《委员履职量化考核办法》的要求，对428名委员的各项履职情况进行综合汇总、打分、排序、通报，全年共录入履职数据信息12000余人次。注重加强与委员的经常性联系，走访委员230余人次。开展“委员队伍结构和素质”专题调研活动，并在省市政协委员工作第二次联席会议上做经验介绍。组织在葫省政协委员赴丹东市考察学习，编发《委员工作动态》6期。 第四，委员履职热情空前高涨。一年来，委员履职意识逐步增强，主体作用得到了充分发挥。提案和信息数量大幅增加，质量明显提高。委员们除参加全会、提交提案和报送信息等政协要求的“规定动作”外，还积极参加了调研、视察、民主监督、学习培训和捐资助学等“自选活动”。全年参加活动总计2368人次，人均活动5.53次；参加1次活动以上的有415人，占委员总数的97%；参加5次活动以上的有255人，占委员总数的58.4%。全年委员履职活动呈现了“人人常年都在组织之中、人人常年都在活动之中”的喜人局面。 第五，机关建设得到加强。深入开展“创先争优”活动，召开2012年市政协机关“创先争优”总结表彰大会。扎实推进机关党建、政德教育和廉政建设，建立机关内网考评激励机制。实行机关日常学习制度，组织开展“政协讲坛”6次，开通政协机关官方微博和机关干部、职工个人微博。切实抓好各项规章制度的完善与落实，进一步规范了机关工作制度和工作程序。认真做好机关干部、职工的教育培训工作，选拔交流县处级干部4人。组织开展各类文体活动，增强了政协机关的凝聚力和向心力。机关文秘、财务、人事、老干部服务、后勤服务、车辆管理、安全保卫等各项工作都取得了新实效。 各位委员、同志们，2012年我市政协的各项工作全面推进、务实创新，人民政协事业充满生机、蓬勃发展。这是中共葫芦岛市委正确领导，市人大、市政府和社会各界大力支持的结果，是市政协各参加单位和全体政协委员共同努力的结果。在此，我代表市政协常委会，对所有关心、支持、帮助政协工作的领导和同志们表示衷心的感谢，向全体政协委员致以崇高的敬意！ 在肯定成绩的同时，我们也清醒地认识到，工作中还存在一些需要研究和改进的问题。一是在进一步落实政治协商制度化的相关规定，更好地服务全市发展大局方面需要做更深入的思考，迈出更大的步伐。二是在进一步加强民主监督机制建设，为履行民主监督职能提供制度保障方面还显薄弱。三是在进一步解决委员主体作用发挥不平衡、界别优势发挥不充分方面需要切实改进。这些问题都需要在新的一年里认真研究、积极探索、寻求突破。 2013年工作安排 2013年，是全面贯彻落实中共十八大精神的开局之年，是实施“十二五”规划承前启后的关键一年，是为全面建成小康社会奠定坚实基础的重要一年。做好今年的工作，意义十分重大。在新的一年里，市政协工作的总体要求是：深入学习贯彻落实中共十八大精神，按照中共葫芦岛市委四届六次会议暨经济工作会议的部署，弘扬团结和民主两大主题，扎实履行政协职能，全力推动科学发展，聚力促进民生改善，倾力增进社会和谐，着力提高政协工作科学化水平，为开创“沿海经济强市”建设新局面、提前全面建成小康社会作出更大贡献。 一、深入学习贯彻落实中共十八大精神，健全和完善协商民主机制 第一，深化学习效果。要把学习贯彻落实中共十八大精神作为首要的政治任务，贯穿于履行政协职能的全过程，体现在政协工作的各个方面。要充分利用专题报告会、委员学习交流会、委员活动小组座谈会等形式，认真学习中共十八大报告和新党章，深刻领会报告的精神实质、丰富内涵、目标要求，真正把报告精神学懂学深学透。通过开展“政协讲坛”、理论研讨、征文比赛等活动，坚持学以致用、用以促学，把学习的成果转化为谋划政协工作的思路、促进政协工作的措施、服务人民群众的本领。在推进中共十八大精神落实中体现政协的职能作用，检验政协的工作成效，锻炼委员和干部队伍，不断开创我市人民政协事业新局面。 第二，加强协商民主制度建设。“健全社会主义协商民主制度”、“完善协商民主制度和工作机制”是中共十八大提出的重要任务，要结合我市实际，认真加以贯彻落实。要充分发挥人民政协作为协商民主重要渠道的作用，推进协商民主广泛、多层、制度化发展。进一步落实好《中共葫芦岛市委关于把政治协商纳入决策程序的规定》，巩固和完善“全委会议整体协商、常委会议专题协商、主席会议重点协商、专委会对口协商”的工作格局。 第三，健全和完善政协工作机制。中共十八大报告指出，要“推进政治协商、民主监督、参政议政制度建设”，提出深入进行专题协商、对口协商、界别协商、提案办理协商等具体要求。这是中国共产党在民主制度创新中取得的最新成果。在今后的履职实践中，继续强化提案办理协商机制，切实贯彻执行好新颁布的《提案工作条例》。切实加强界别活动小组建设，不断探索界别发挥作用的方法和途径，逐步建立界别协商程序与机制，激励界别活动更加积极有效地开展。进一步健全调研、视察和反映社情民意等经常性工作制度，建立完善综合协调、信息沟通、绩效评估和督查落实等机制。加强政协信息、建议案、调研视察报告等跟踪督办和反馈工作，不断提高议政成果的转化率。 二、履行政协职能，全力助推沿海经济强市建设 第一，围绕推进葫芦岛新型城镇化发展进行调研协商。要始终把服务科学发展作为履行职能的第一要务。按照想当前与谋长远并重、前瞻性与实效性相结合的原则，围绕我市新型城镇化发展，就促进城镇产业发展、加快城镇建设、健全保障机制等6个方面的问题，整合方方面面的力量深入调研论证，召开市政协四届十四次常委会议进行专题协商，形成专题调研报告，编印调研材料汇编，并适时召开理论研讨会。 第二，围绕促进我市文化大发展大繁荣建言献策。按照市委、市政府关于“文化强市”战略的决策部署，组织委员开展文化产业项目建设调研，就如何做大做强我市原有文化产业项目、招商引进新的文化项目、增强我市文化实力与竞争力等提出意见和建议。注重发挥政协文史资料工作的社会作用，编辑出版《葫芦岛文史存稿选编》，组织委员视察兴城古城文物保护和旅游开发等工作。进一步加强政协宣传工作，评选和表彰第十七届“政协好新闻”。继续办好《葫芦岛政协》刊物，提高政协网站信息质量。 第三，围绕增强民主监督实效开展工作。2013年是全市软环境建设民主评议工作的最后一年，要认真总结民主评议工作经验，召开全市软环境建设民主评议工作会议，组织委员对15个单位进行软环境专题民主评议。进一步探索建立民主监督沟通、反馈、成果运用等工作机制，努力提升政协民主监督科学化、制度化水平。筹办召开全市政协民主监督工作经验交流会，组织协调民主监督小组开展好监督活动。 第四，继续关注沿海开放战略和重点项目推进工作。高度关注辽宁沿海经济带建设，积极参加2013年第六届辽宁沿海带政协论坛（营口）活动。围绕青山水库、创建国家森林城市等重点项目建设开展专项视察。运用多种形式推动“我们的城市·我们的家园”活动深入开展，为建设“美丽葫芦岛”建言献智。 三、坚持以人为本，努力促进民生改善和社会和谐 第一，聚力促进民生改善。按中共十八大要求，顺应人民群众对美好生活的向往，为民说话、说真话，办实事、办好事。围绕市委、市政府重大民生决策开展不同层面的协商议政，从决策机制上更好地保证各界群众的利益得到充分考虑、各界群众的意愿得到充分尊重。围绕市委、政府出台的利民惠民政策落实情况开展民主监督，推动“惠民工程”、“实事项目”的顺利实施。围绕群众关注的教育医疗、住房交通、生态环保、食品安全、危险废物管理、社区矫正等问题开展深入调研，促使出台有关政策更能充分兼顾到各方面的利益。继续组织和引导广大政协委员、社会各界人士践行社会责任，自觉参与捐资助学、慈善捐赠、“三下乡”等公益活动，扎实抓好扶贫结对帮扶等工作。 第二，倾力增进社会和谐。按照中共十八大提出的有关社会和谐的新要求，努力做好团结稳定工作。进一步加强与各民主党派、工商联、无党派人士、人民团体的联系，搭建平台，创造条件，大力营造民主和谐的政治氛围。认真做好新的社会阶层代表人士的团结引导工作，加强与民族宗教界人士的沟通联系，开展民族地区特色产业发展情况调研。认真做好与港澳台同胞和海外侨胞的交流联谊工作，组织开展我市对台经济合作情况调研和对涉外劳务输出工作的跟踪视察，多做协调关系、化解矛盾、增进团结的工作，为我市可持续发展营造安定和谐的社会环境。 第三，大力做好反映社情民意工作。利用提案、信息等多种形式，及时反映人民群众和社会生活中具有代表性、苗头性、倾向性的问题。稳步提高提案质量，抓好重点提案落实，跟踪督办2012年加强校车管理“一号提案”。继续开展提案“后评议”，组织承办单位、提案者就提案质量和办理效果进行双向评议。召开市政协反映社情民意信息工作会议，做好参加全国政协信息联系点第八次工作会议的相关准备工作。进一步提高信息质量，加强信息征集、编辑、上报、反馈、通报工作，力争步入全国政协系统信息工作先进行列。 四、保持履职激情，着力提高政协工作科学化水平 第一，系统总结本届政协工作经验。始终保持高昂的履职激情，做到解放思想不动摇、履职尽责不松劲、创新发展不停步。市政协常委会要本着对人民政协事业高度负责的精神，着眼于政协事业的长远发展，认真回顾本届政协的履职实践，全面总结本届政协的新做法、新机制、新经验。 第二，加强专委会工作。积极拓展工作领域，扩大履职空间。要注重总结、提炼专委会履行职能的成熟经验，进一步完善工作制度。加强与党委、政府对口职能部门的联系和沟通，建立健全对口联系协商制度，努力提高对口协商的议政质量，使专委会工作更有针对性、更有成效性。 第三，继续抓好委员队伍建设。继续在全体委员中开展“五个一”活动，进一步修订完善委员履职考核、统计办法，扎实做好委员履职量化考核工作。调研视察《维护委员合法权益办法》的落实情况，协调指导委员小组活动。组织在葫全国、省政协委员赴省内外开展考察学习活动，鼓励引导他们在全国政协、省政协相关会议上为葫芦岛发展勤建言、多出力。 第四，切实改进工作作风。以创建“学习型、服务型、创新型、效能型、和谐型”机关为抓手，不断强化履职为民理念，密切联系群众，注重倾听群众呼声，沉入基层调查研究，进一步增强政协机关干部、职工的服务意识。大力倡导爱岗敬业、奋发进取的工作态度，大力弘扬勤政廉洁、务实高效的工作作风。重视政治理论学习和业务知识培训，推动办文、办会、办事的制度化、规范化、程序化，不断提升政务服务质量和统筹协调水平，为人民政协事业创新发展提供更加有力的服务保障。 各位委员、同志们，扬帆起航正当时，砥砺奋进又一春。让我们在中共葫芦岛市委的坚强领导下，继承和发扬人民政协的光荣传统，不辱使命，开拓创新，在全力推进“沿海经济强市”建设、提前全面建成小康社会的新征程上再立新功！']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>47</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>南票群英谱开栏区农经局全力服务三农</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2012-05-04</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.npq.gov.cn/xwzx/npxw/201205/t20120504_81502.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['南票群英谱开栏语 文明的旗帜引领时代前进，道德的力量推动社会发展。为充分发挥先进典型的示范引领作用，用身边的榜样教育影响干部群众，进一步在全区营造凝聚人心、鼓舞士气、见贤思齐、崇德向善的浓厚氛围，深入推进社会主义核心价值体系建设，本网从今日起开设“南票群英谱”专栏，报道南票区各行各业的先进单位、身边的典型人物和感人故事。通过大力弘扬真善美，积极引导人们学先进，找差距，树正气，自觉围绕区划调整和资源枯竭型城市转型，切实履行社会责任、家庭责任，不断加强社会公德、职业道德、家庭美德和个人品德建设，激发干部群众的发展潜能，振奋全区人民建设沿海新城区的士气。', '近年来，区农经局围绕结构调整这一主线，运用市场牵动、示范驱动、科技推动、政策带动这四个主要方法，不断实现全区“三农”工作新跨越。', '农业产业结构调整有了新进展。两年来，在典型示范的带动下，全区发展高效农业1万亩。新建设施小区251个，新栽植果树5260亩，其中晚红葡萄4600亩。葡萄育苗基地已具雏形，育苗总量达350万株。暖池牌葡萄获得绿色食品认证并申请省著名商标，其产品远销北京、广东等地，“暖池葡萄”品牌效应已初步显现。区农经局注重加强设施小区技术指导工作，使其尽快提质增效。积极与供电、农村信用联社、林业、水利、财政等部门沟通协作，解决设施小区的水、电以及贷款等问题。抓蔬菜产品品牌创建和品质提升，南票区蔬菜协会去年成功注册了“北边”牌蔬菜集体商标；应用科技对北边黄瓜老品种进行了改良，使其品质有较大提升，经济效益明显、增幅达40%，70延长米温室一季产值达4万元。', '农产品宣传营销不断加强。区农经局积极组织开展农产品进超市活动，南票大枣、晚红葡萄、北边黄瓜等在锦州、葫芦岛、盘锦各超市畅销。组织全区的葡萄、蔬菜、花卉、大枣等具有地方特色的生产企业及专业合作社参加省、市主办的农业博览会，宣传展示全区农产品，打造知名度。组织各乡镇涉农街道的农业主管领导到陕西杨凌高科技农业示范园考察学习，开阔眼界、增长见识。建立农民信息核心站5个，开办了“农信通”手机短信平台，为农户提供实时的农业信息，现拥有农户数467户，发送短信4500条。2009年开始出区农经工作简报，2011年出8期农经工作简报，向上级业务部门报送工作信息85条，并在省金农网、农机化信息网上发表信息30条。', '专家培训真管用不断推进科技兴农进程。区农经局以阳光工程培训和设施农业科技培训为载体，组织并聘请农业、果树、蔬菜、农机、葡萄等5个方面的专家，采取授课与实地指导相结合方式进行培训。为促进南票区葡萄产业发展，4月9日，区农经局邀请中国农学会葡萄分会会长修德仁研究员、中国农科院植物保护研究所王忠跃研究员和国家农产品保鲜工程技术研究中心副主任张平等来区里进行指导培训。120余人参加培训。两年来，区农经局共计开展集中培训160班次，现场指导13800人次，跟踪服务140次。印发各种自编教材7300余册，培训资料8950余份，发放省统一教材2650册。此外还组织30名科技带头人到兴城果树研究所参加一周的学习培训。通过培训，为服务农村第一产业提供强有力的人力资源和智力资本，增强农民转岗就业的能力。', '两年来，区农经局积极组织全局职工参加组织部门举办的创先争优活动，积极推行政务公开，挂牌服务，公开工作职责、办事流程、服务承诺等。对粮食直补、购机补贴、良种补贴等重大惠农政策的兑现均采取公示形式，自觉接受人大代表、政协委员、群众及新闻舆论的监督。', '区农经局始终把抓班子、带队伍放在首位。一方面在工作作风上诚心纳谏，凡重大问题均集体讨论决定。另一方面领导干部以身作则，在生活作风上，严以律己、宽以待人，不拉帮结派、任人唯亲，堂堂正正做人，老老实实干事，时刻以一名共产党员的标准要求自己。经常开展谈心活动，及时了解和掌握每个职工的思想动态、工作家庭等情况，寓教于各种活动之中，努力形成昂扬向上的风气。职工主动工作、任劳任怨、不讲价钱。为及时掌握全区果树各树种及树体各部位的越冬情况，4月1日，区农经局组织各乡镇果树站的技术人员对全区果树冻害的发生情况进行了调查。截至4月10日，就调查了9个乡镇18个村的18个果园，分别就果树的树种、品种、树龄、嫁接方式及长势情况进行了调查。', '在干部职工的共同努力下，区农经局先后获得了省农情信息工作先进单位、全省土肥工作先进单位、市农经管理工作先进单位、市农产品质量安全工作目标考核达标单位、市巾帼建功先进集体、区先进党支部、区宣传思想工作先进集体、提案承办先进单位等荣誉称号', '2012年初，南票区区划调整已全部完成，现在全区农业工作已经扩大到10个乡（镇）和一个涉农街道，135个行政村。目前，新划转乡镇的农口工作区农经局已接收完毕并正在循序铺开，将主要围绕区里的四大主导产业并结合高桥镇的出口农产品和裸地菜、金星镇和大兴乡的棚菜、台集屯镇的葡萄、张相公屯乡的林果业和虹螺岘镇的桑葚产业等大力发展农业产业化，预计2012年将新建设施小区50个，新发展葡萄种植面积5000亩，为全区“三农”工作作出新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>47</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>政协葫芦岛市第四届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2012-02-03</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/xwdt/zwyw/201202/t20120203_176843.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['各位委员、同志们： 我代表政协葫芦岛市第四届委员会常务委员会，向大会报告工作，请予审议。 2011年工作回顾 四届二次会议以来，市政协常委会在中共葫芦岛市委的正确领导和市政府的大力支持下，以贯彻落实市委政协工作会议精神为主线，动员组织参加政协的各党派团体、各族各界人士和广大政协委员，紧紧围绕全市中心工作，认真履行政治协商、民主监督、参政议政职能，充分发挥协调关系、汇聚力量、建言献策、服务大局的作用，圆满完成了全年各项任务，为建设沿海经济强市、构建和谐葫芦岛作出了积极贡献。 一、深入贯彻市委政协工作会议精神,政协工作水平进一步提高 把贯彻落实市委政协工作会议精神，作为一项重要的政治任务来抓。按照市委的要求和部署，组织会同相关部门分赴6个县(市）区和12个市直部门进行了调研检查，并以市政协党组名义向市委作出报告。目前，全市政协工作呈现出“党委重视、政府支持、政协主动、各方配合、社会关注”的良好态势。 政治协商质量进一步提升。全市各级党政组织按照《中共葫芦岛市委关于把政治协商纳入决策程序的规定》要求，坚持“三在前、三在先”原则，把政治协商纳入了民主决策程序。市政协紧紧围绕我市的重大战略、重要部署和群众高度关注的热点难点问题，议大事、聚焦点，精选协商课题；主动邀请市党政主要领导参加常委会议、并通报有关情况，进一步拓展了市委、市政府、市政协领导层面协商的新机制，提升了协商层次；在充分运用“学、听、看、议”协商方式的同时，变单向建言为互动协商，变关门协商为开门协商，使协商活动更有成效，形成了“全委会议整体协商、常委会议专题协商、主席会议重点协商、专委会对口协商”的多层次、宽领域的协商格局。全年共开展各种层次的协商议政活动26次，提交专项建议报告8份。 民主监督力度进一步加大。全市各级政府部门主动要求监督、自觉接受监督的意识明显增强。市政协把加大民主监督力度作为2011年的重点工作。一年来，通过召开民主监督小组组长培训会、座谈会和派驻单位负责人座谈会等形式，提升了民主监督的组织化程度；坚持“寓监督于支持与服务之中”的工作理念，把事前监督和跟踪监督、日常监督和重点监督、委员监督和社会监督结合起来，丰富了民主监督形式；紧紧围绕事关经济发展、人民群众普遍关注的民生问题，根据派驻单位的性质、特点，选择不同的监督主题、重点和载体，提高了民主监督的实效性。44个民主监督小组全年共开展监督活动100余次，提出监督意见建议300多条。 参政议政渠道进一步拓宽。通过邀请市党政主要领导通报工作，召开政情通报会等形式，拓宽了知情明政的渠道；通过组织委员参加市政府工作报告及其他报告的讨论、重大工程项目的论证、重要民生政策的征求意见会等形式，拓宽了参与讨论重大事项的渠道；市政府分管领导和有关部门在办理提案、建议案和制定政策、措施的过程中，都邀请市政协领导、提案人、专家委员等一起研究，并将意见建议转化为政策措施和具体行动，拓宽了直接参与决策、参与抓落实的渠道。 二、发挥政协优势，在推动发展中积极作为 紧扣全市工作大局，发挥人才智力优势，为推动我市科学发展集聚真知灼见，贡献智慧与力量。 为加快服务业发展进行调研协商。针对我市服务业发展相对滞后的现状，组织各民主党派、工商联，县(市)区政协和100多名委员，重点针对金融、商贸、旅游、物流、信息、会展等产业的发展情况，考察学习外地先进经验，深入各县（市）区、主题概念园区、市直有关部门和部分企业，摸情况，找问题，想对策，形成了《大力发展金融业，加快辽西区域性金融中心建设步伐》等21篇专题调研报告和1份综合调研报告。经四届七次常委会议协商讨论后，向市委、市政府提交了《关于推进我市服务业加快发展的建议案》，其主要建议被全市加快服务业发展大会的工作报告所采纳，并纳入我市服务业发展规划。培育龙头企业、打造产业集群、建设优势产业等诸多建议转化为市政府的具体政策、措施。关于服务业集聚区认定、发展会展业等方面的意见建议得到了有效落实。 为推动我市沿海经济带发展建言献策。积极参加辽宁沿海经济带政协论坛活动，学习考察山东沿海四市的发展经验，深入到我市沿海县(市)区、市直相关部门进行调研，提出了优化开发理念、科学合理规划、提升保护并重等建议，形成了《关于要给百姓留下近海亲水的共享海岸线的建议》，上报省、市党政有关部门。陈政高省长、邴志刚副省长和我市党政主要领导对此建议非常重视，均做出了重要批示，有力地促进了我市海岸线开发利用理念的调整和更新，推动了近海亲水岸线百姓共享工程的规划和建设，也为辽宁沿海经济带政协论坛的调研成果作出了重要贡献。 为建设生态宜居城市献智出力。组织委员对我市泳装企业开展调研视察，《创办泳装节，宣传和发展葫芦岛》、《关于兴城市泳装产业发展的建议》等提案得到落实；连续3年跟踪视察永安长城景区的保护与开发工作，助力景区8项工程顺利推进，景区有望今年对外开放；关注我市设施农业发展情况，深入乡村实地视察，提出意见建议；关注城建难点，就锦葫路改造、茨山河治理等工程进行多次跟踪视察，针对存在的问题及时提出解决措施和办法；开展联合考察、视察活动，就推进温泉水开发利用、加大招商引资力度、加快葫芦岛港建设等提出站位高、操作性强的建议；扎实开展“关注森林”活动，围绕提升城区美化亮化品位、治理交通拥堵、推广节水灌溉技术等提出50余条建议。 为优化软环境建设开展民主评议。为进一步促进我市软环境的优化和改善，从2011年开始，市政协会同市纪检监察部门、市直机关工委，组织166名市政协民主监督员，利用3年时间，对全市49个部门的软环境建设情况，进行专题民主评议。2011年各评议组通过问卷调查、座谈、明查暗访、网评、调阅卷宗等形式，对18个被评议部门的软环境建设情况进行了全面调研。一年来，共向社会发放调查问卷3800份，组织召开各类座谈会78次，走访、暗访、约谈达1800余人次，深入到被评议单位调研41次，形成评议报告18篇，查找问题113个，提出整改意见建议80余条，对促进我市软环境建设起到了积极作用。这项工作得到了省政协的充分肯定，认为是创新民主监督形式、增强民主监督实效、推进社会管理与创新的新突破。我市政协在省政协社会法制会议上专门作了经验介绍。 三、坚持履职为民，在保障和改善民生中贡献力量 始终坚持以人为本、履职为民的理念，把关注民生贯穿于履职全过程。 以调研成果破解民生难题。2011年是我市推进医改的攻坚年，一些长期存在的体制性、机制性和结构性矛盾凸显出来。市政协把深化医药卫生体制改革，破解医改难题，作为四届六次常委会的专题调研课题。在学习考察、调查研究、科学论证、常委会专题协商的基础上，形成了7篇专题调研报告和1份综合建议案，提出了“提高基本医疗卫生服务保障水平、加快推进基本药物制度综合改革、不断促进公共卫生服务均等化”等建议。市委、市政府对此调研成果给予了高度评价，认为市政协勇于挑战难题，医改课题选得准、问题找得准、意见提得准，对全市的医改工作具有很强的指导性和借鉴性。市政协还组织委员就我市大中专毕业生就业、社区管理、新农村建设等方面出现的新问题开展专题调研。全年向党政部门报送调研报告36篇，以市委文件形式转发7件，为市委、市政府科学决策提供建议和参考。 以专项视察聚焦民生热点。针对群众反映强烈的出租车、三轮车运营不规范等问题，组织委员专题视察，提出优先发展城市公交等建议，助推市政府开展交通整治“三大战役”并取得阶段性成果；关注供暖质量问题，连续多年进行民主评议、跟踪评议，通过入户查看、问卷调查等形式，收集意见，提出建议，为市供暖部门提高服务质量提供参考；就食品安全问题，参与市有关部门组织开展的食品安全监管工作专项整治活动；组织委员深入到各县（市）区对人口和计划生育服务工作进行实地视察，提出抓紧落实计划生育服务中心建设项目，逐步建立和完善计划生育网络化服务体系等建议，促进了相关工作的加强和改进；对市公安局开展的“清网行动”、禁毒工作进行视察，提出了建立长效机制等建议。 以提案落实推动民生改善。把提案落实作为推动民生改善的重要抓手。全年共征集提案576件，立案491件，办复率为100%，其中民生方面的提案占57%。狠抓征集环节，从源头上保证提案质量。狠抓办理环节，对市公安局、市教育局的提案办理情况进行了“后评议”。通过办前高层运作、联合调研等形式，使委员提出的增开公交线路、保障低收入者家庭生活水平、加强养老机构建设等提案得到了落实。特别是对《加大保障性住房建设力度，确保困难群体住有所居》、《大力推进城区供水管网改扩建工程》两个“一号提案”进行了跟踪督办。先后4次组织委员到保障房建设工地进行实地视察，提出意见建议10余条，为全市保障性住房建设工作超额完成省定指标发挥了作用；先后8次组织委员和市民代表到供水管网改造现场视察，提出督办意见建议50余条。市政府经过努力，改造工程提前1年完成，6万户、18万人的“吃水难”问题得以解决。 以信息渠道反映民生诉求。切实发挥政协社情民意信息“直通车”的作用。2011年信息工作实现了委员参与最多，收集数量最多，采用篇数最多的新突破。全年共征集信息1231条，编发《葫芦岛政协信息》141期。其中《以立法手段推动住房保障规范运行》等9条被全国政协采用，《关于棚户区改造相关问题的建议》等14条被省委、省政府采用，《亟盼提高辽宁整体工资水平》等8条被省政协采用，《“村村通”公路损毁严重，农民盼望及时养护》等5条被省领导批示,《春耕农民有“六盼”》等52条被市委、市政府采用。这些民意信息已进入党政决策视野，所提意见建议得到了重视和采纳。市政协荣获省政协系统信息工作一等奖，在全国政协第二批信息联系点第六次会议上作了经验介绍。 四、把握两大主题，在协调关系中汇聚合力 紧紧把握团结和民主两大主题，最大限度地调动各方面的积极性，倾力协调各方关系，努力为建设沿海经济强市凝聚智慧和力量。 在加强团结合作中集聚能量。以建设和谐葫芦岛为目标，积极为各民主党派、工商联、无党派人士和人民团体履行职责创造条件，搭建平台。在市政协全会、常委会议、主席会议及其他活动中，尊重和优先保障各党派以本党派名义发表意见建议。积极组织各民主党派、工商联、无党派人士和人民团体参加有关调研、视察、民主监督、民主评议等活动。一年来，各党派、工商联，人民团体提交提案90件，反映社情民意390条；委员活动小组发挥界别优势，提出提案17件，反映社情民意信息150条。市民建、市致公党联合提出的《加大保障性住房建设力度，确保困难群体住有所居》被市政协列为2011年的“一号提案”；九三学社报送的《关于进一步提高个税起征点的建议》等信息被全国政协采用。 在扩大联谊交流中增进共识。大力加强对外交往和联谊工作。热情周到地做好外地人员来葫参观、考察、调研的接待服务，为宣传葫芦岛、']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>47</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>建昌县赴阜新县考察玉米膜下滴灌工程</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2011-11-04</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://nync.hld.gov.cn/ywdt/bdxw/201111/t20111104_37988.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['10月30日至31日，建昌县农机技术员以及全县农机合作社法人，对阜新蒙古族自治县玉米膜下滴灌工程技术进行考察学习。 该县2010年开始这项工程试点，当年搞了50亩。2011年在于寺镇搞3700亩，他们推广的都是大垅双行，膜宽1.2米，两边压土各10公分，采光膜宽净剩1米，玉米亩株数在4000－4500株。两条垅中间铺一根滴灌管。输水主管道根据水源位置而定。大部分设在地头，每条垅设一个接水管（滴灌）口。设在中间的主管道，每侧各4条大垅，4根滴灌管，即8条垅玉米。有电机、也有柴油机的动力设备。旱时抽水滴灌。如需中期追肥，可用液体肥，用滴灌管滴施肥。他们的主管路都是地上管，不用时将设备收回，用时临时铺设。阜新县年降雨量平均在490mm左右。今年他们在旱时滴灌两次水。秋后产量对比，每亩比不搞膜下滴灌技术的相比增产300斤。 建昌县2万亩玉米膜下滴灌工程管路铺设已在各项目区全面展开，力争在上冻前铺设完毕。通过这次学习，了解到该技术带来的经济效益同时，也掌握了该项技术，结合建昌县的实际情况，为开展玉米膜下滴灌工程提供了强有力的保障，这项技术的推广、实施，一定会实现粮食增产、农民增收的目标。']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>47</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>考察学习先进经验推动行业管理工作</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2011-10-27</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>https://jtj.hld.gov.cn/xwzx/gzdt/201110/t20111027_722238.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['至26日，由市交通局伊效民局长带队，组成考察组赴上海、嘉善实地考察出租车管理和城乡客运一体化，市交通局魏峰副局长、市运输管理处李敏处长、硕立伟副处长、市局交管科董万忠科长、运管处公交科徐志刚科长、辽宁虎跃集团公司崔云河副总经理和王峰等8人陪同考察。', '考察组先后来到上海市城市运管处、同济大学、嘉善县运管所、嘉兴市善通运输有限公司和善通运政监控调度中心，考察学习了出租车公车公营管理及客运城乡一体化经验。', '在上海市城市运输管理处，黄处长详细介绍了上海市出租车相关情况，通过经验介绍，考察组基本掌握了上海出租车的管理思路、管理理念、管理制度和管理办法，了解了公车公营情况下，公司与驾驶员的劳动合同与经营合同的签订、公司对车辆及驾驶人员的管理，对我市出租车投放及公车公营管理具有借鉴意义。', '在同济大学交通学院会议室，市局考察组听取了《葫芦岛市城乡公交一体化规划》编写项目组乔瑛瑶老师对规划的讲解说明，并对规划提出了具体的修改意见。魏峰副局长提出《规划》要具备先进性、可操作性，与城市总体规划紧密联系。伊局长提出要重视我市公交规划的研究，着重优化现有线路和规划线路，力争增加公交站点覆盖率和公交分担率，优化目前正在运营的线路，建成最合理的公交线网，方便城乡居民出行。', '在嘉善县运管所，考察组听取了嘉善县交通局杨培谦副局长关于嘉善县开展城乡客运一体化的工作方法、措施和今后的工作思路。考察组又来到嘉兴市善通运输有限公司和善通运政监控调度中心进行考察，通过考察对我市道路公共运输的发展及营运车辆监控平台的建立起到了借鉴的作用。', '考察组在时间短、任务重的情况下，圆满完成了既定目标，对我市道路运输的发展起到了良好的推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>47</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>组织部扎实开展五个一活动</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2011-11-02</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>https://www.zg-xc.gov.cn/xwdt/bmdt/201111/t20111102_220329.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['在深入开展创先争优活动中，兴城市委组织部以“个人形象一面旗、工作作风一团火”为要求，带头开展“五个一”主题实践活动，树立了组工干部“讲党性、重品行、作表率”的良好形象。 为了开展好这项活动，兴城市委组织部立足自身实际，召开组工干部会，学习“五个一”活动的相关文件，并要求全体组工干部努力做到把握开展“五个一”活动的中心思想，提高对“五个一”活动的认识，增强党员意识和牢记党员标准，遵守党的纪律，听从党的指挥。同时，部里为每名同志发放了“一枚党徽”、“一本党章”、“一套红书”，并随时对党徽的佩带和党章、红书的学习情况进行检查。 他们还开展了过“一次党日”活动。大家于10月20日来到三道沟乡青山水库考察学习。通过走访得知，青山水库的大部分淹没区都在三道沟乡境内，目前三道沟乡面临着移民人数多、淹没土地面积多、工作难度大等问题。面对诸多难题，三道沟乡村干部及移民办的同志全力做好移民政策宣讲、实物核量和群众的思想工作，保证了青山水库前期工作的顺利进行和社会稳定。大家表示，要学习三道沟乡党员克服困难、积极乐观的工作态度，吃苦耐劳、脚踏实地的工作作风和扎根基层、一心为民的朴实情怀。他们还在大青山脚下，面向党旗庄严宣誓。通过“一日党日”，全体组工干部思想受到了教育，更加坚定了服务基层、服务群众的决心和信心，进一步增强了做好本职工作的积极性。']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>47</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>阎生主持市人大常委会第十五次主任会议</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2011-08-16</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/xwdt/zwyw/201108/t20110816_177176.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['8月15日，市人大常委会举行第十五次主任会议。市人大常委会主任阎生主持会议。 市人大常委会副主任钱福云、赵树田、姜淑艳、朱红、王英杰、李宝祥，秘书长智少强出席会议。 会议讨论了《葫芦岛市人民代表大会常务委员会讨论决定重大事项的规定》（修订草案）；听取了市政府关于2010年市本级财政决算和2011年上半年预算执行有关情况的汇报，听取了市人大财经委关于2010年市本级财政预算和2011年上半年预算执行情况的审计报告；听取了市人大财经委关于葫芦岛市2011年上半年国民经济和社会发展计划执行情况的审计报告；听取了市人大财经委关于2010年度市本级财政预算执行情况和其他财政收支情况审计工作报告的审查报告；听取了市人大环资城建委关于检查我市贯彻实施《环境影响评价法》情况的报告；听取了市人大农委关于我市城镇化和新农村建设良性互动工作情况的调查报告；听取了市人大民侨外委关于我市贯彻实施《旅行社条例》情况的调查报告；听取了市人大常委会赴台湾教育考察团考察情况的报告（书面）；听取了市人大农委关于赴湖北宜昌等市考察学习农业产业化情况的报告（书面）。 会议决定，市四届人大常委会第十一次会议于8月19日召开。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>47</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>郑宏伟政协葫芦岛市第四届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2011-02-21</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/zwgk/fdzdgknr/gzbg/qtgzbg/201102/t20110221_180941.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['各位委员、同志们： 我代表政协葫芦岛市第四届委员会常务委员会，向大会报告工作，请予审议。 2010年工作回顾 2010年是本届政协的开局之年。一年来，市政协在中共葫芦岛市委的正确领导和市政府的大力支持下，深入贯彻落实科学发展观，紧紧围绕党政中心工作，认真履行各项职能，团结和动员政协各参加单位和全体委员，齐心协力谋发展，尽心竭力惠民生，凝心聚力促和谐，为推进我市经济社会全面进步作出了重要贡献，我市人民政协事业呈现出继往开来、生机勃发的良好局面。 一、以推动科学发展为中心，深化政治协商 精心组织例会协商。去年初，在市政协四届一次全体会议上，委员们以高度的政治责任感和使命感，认真听取和讨论了市政府工作报告和其他报告。市委、市政府领导深入委员讨论小组，与大家坦诚交换意见，共商发展大计。委员提出各类意见和建议290余条，提交提案345件、反映社情民意信息38条，掀开了新一届政协组织和委员履行神圣职责的新篇章。一年来，市政协先后召开常委会议4次，专题协商会议5次，重点针对全市经济社会发展具有综合性、全局性和战略性的问题，提出了许多有参考价值的意见和建议。 扎实开展专题调研。先后深入全市6个县（市）区和140户企业、24所职业学校及实训基地开展调研活动，召开各类座谈会83次，形成调研报告及建议案56份。其中，《加快特色产业园区建设，推动葫芦岛经济驶入快车道》的调研报告，在省政协召开的有关座谈会上进行了交流。《关于在“一线八区”开发建设中推进城市化进程的建议》、《关于葫芦岛市区与兴城市区同城化发展的建议》得到了市委、市政府的高度重视，党政主要领导作了重要批示，一些意见和建议得到了采纳和落实。 积极为编制“十二五”规划建言献策。市政协把这项工作作为年度协商议政的重点内容，历时半年进行深入调研。期间，召开座谈会、论证会30余次，形成调研报告37篇，从不同角度对“十一五”期间全市经济社会发展中的经验、存在的主要问题及今后发展方向，做出了系统分析阐述。去年9月，市政协召开四届三次常委会议，8名市政协常委、委员做了大会发言，市长孙兆林发表了重要讲话，对市政协的调研成果给予了充分肯定。会后，我们将审议通过的《关于科学编制我市“十二五”规划的建议》报送市委、市政府，市委书记陈晓琨做出重要批示，并以葫委发[2010]20号文件转发到各县（市）区和市直相关部门。 成功举办辽宁沿海经济带政协论坛。去年7月，第三届辽宁沿海经济带政协论坛在我市举办。市政协在省政协的指导和市委、市政府及相关部门的支持、配合下，与其他沿海5市政协密切合作，确定把“加快特色产业园区建设”作为论坛的主题，邀请省委、省政府、省政协、省直部门、各市政协领导及省内专家学者参会，会上提交发言材料34篇。其中，我市提供了《加快特色产业园区建设，推动辽宁沿海经济发展》等6篇调研报告，还代沿海6市政协起草并向省委、省政府上报了《关于加快推进辽宁沿海经济带特色产业园区建设的建议报告》。论坛得到了与会省、市领导的高度评价和认可，达到了区域政协联袂履职、资政献策以及提高我市知名度的目的。 注重政治协商制度化建设。推进政治协商制度化课题研究，是去年省政协指定我市政协完成的重点课题。为切实做好该项工作，我们到江西、福建、广东等先进地区考察学习，广泛收集相关资料，充分借鉴他人经验，经过反复论证，最终形成15000余字的课题论文，向省政协交上了一份完美的答卷。同时协助市委起草了《中共葫芦岛市委关于把政治协商纳入决策程序的规定》，以葫委发[2010]12号文件下发。此举开创省内政协系统先例，在政治协商制度化建设上迈出了可喜的一步。 二、以助力民主政治建设为己任，强化民主监督 做好选派民主监督员工作。选派民主监督员是政协履行民主监督职能的一种有效形式。去年5月，我们从市政协委员中选出182人作为民主监督员，将其划分为44个民主监督小组，分别派到全市39个司法和行政执法单位以及5个经济开发区，选派人数大大增加，范围进一步扩大。这项工作得到了市委、市政府及相关部门的高度重视，一些部门专门制定了接受民主监督的工作方案；市政法委聘请了33名民主监督员作为全市政法系统执法监督员；市纪检委、监察局聘请民主监督员担任特邀监察员、行风监督员；市直机关工委在年度目标责任制考核工作中邀请民主监督员直接参与，实现了民主监督与行政监督、党内监督的有机结合。 认真开展民主评议。从去年9月份开始，历时2个月开展了对我市城市道路交通管理情况的民主评议。26名委员分成5个评议小组，对不同层次的群众代表进行走访、问卷调查、座谈，了解社会各界的意见、建议。11月，市政协组织部分委员对交巡平台进行了集中视察并召开民主评议会，在充分肯定工作成绩的同时，从建立长效机制、完善交通设施、提高执法水准等方面提出了建议，市公安局立即采纳，制定了整改措施并予以落实。此外，对城市供暖工作，在连续几年进行跟踪评议的基础上，于去年初在委员中开展了问卷调查，并将结果及时反馈给市供暖办，为提高全市供暖质量提供了参考依据。 组织委员视察和跟踪视察。2009年，市政协以建议案的形式提出了解决我市宗教教职人员社会保障问题的建议，市委、市政府领导高度重视并批示有关部门予以落实。为了解落实情况，去年10月，市政协对此进行了跟踪视察，这项工作在市民委、人社局、民政局、财政局等部门的通力配合下，已在全省率先展开，受到了省里的肯定。对茨山河改造施工现场进行跟踪视察，就土地报批、搬迁居民的生活保障、上游污染源治理等问题提出建议，之后，市长孙兆林带领政府相关部门负责同志到龙港区召开现场办公会，协调解决了有关问题。对我市劳动就业工作进行跟踪视察，提出发挥社会各界联动作用、共同推进就业工作的建议，使我市劳动就业工作向更宽领域迈进。对我市人口与计划生育工作进行跟踪视察，将视察结果整理成《关于综合治理人口性别比升高问题的建议》，以社情民意信息的形式上报市委、市政府。此外，我们还就文化产业发展、永安长城开发保护等调研成果开展了跟踪视察，推动了以往政协调研成果的转化落实。 听取“一府两院”工作通报。在去年底市政协四届四次常委会议上，听取市政府全年工作完成情况、提案办理结果和市中级人民法院、市人民检察院年度工作情况通报，客观评价“两院”工作，拓宽了委员知情明政的渠道。 三、以关注和改善民生为根本，积极参政议政 专题研讨职业教育发展问题。把加快职业教育发展作为四届政协常委会的第一个专题调研课题，成立了由各界人士参加的调研组，深入市直相关部门、各县（市）区、11所职业学校和13个实训基地，历时三个多月，最后形成了《加快发展职业教育，为建设沿海经济强市提供人力资源保障》的调研报告。去年6月，市政协召开四届二次常委会议，市委书记陈晓琨参加会议并对调研报告给予了高度评价，会后市委以正式文件予以转发。此次会议，我们还打破传统开法，在会前举办了现场展览观摩，使与会人员领略了我市职业教育的丰硕成果，增强了直观认识，活跃了会议气氛。 关注居民饮水安全。在市政协四届一次全会上，市长与市政协主席经过商议，当场决定把城区供水管网改造工程的提案确立为“一号提案”，并承诺共同包案，全会之中立案、办案，创造了我市政协提案工作的新模式。为狠抓落实，市政协将其转化为重点调研课题，开展专题调研，形成了《关于认真落实“一号提案”，大力推进城区供水管网改扩建工程的建议》，报送市委、市政府。去年5月，该工程正式开工，在施工过程中，市政协主席班子进行了多次视察，并从普通市民中选出代表与市政协委员共同组成民主监督组，全程参与监督工作，提高了这项重大“民生工程”的透明度。 高度重视提案工作。开展提案“质量年”活动，全年共征集提案489件，其中立案430件，立案率为88%；将“加快实施品牌战略”的提案转化为《加快实施品牌战略，推动品牌战略与经济工作深度融合》的调研报告，被市委、市政府采纳；开展“督办月”活动，联合市委、市政府督察室对近百件提案的办理过程进行督办，促进了一般性提案的落实；开展了对市民政局和市交通局提案办理工作情况的“后评议”，检验提案落实成果，总结办理经验，促进了政协提案使用价值的转化。推进反映社情民意信息工作。进行信息网格化建设的新尝试，在全市建立了24个反映社情民意信息采集点；拓展信息收集渠道，将调研报告、提案和视察活动中好的意见、建议转化为社情民意信息；参加全国政协第二批信息联系点第五次工作会议，并作大会发言。全年共征集反映社情民意信息740余条，采用191条；编发《葫芦岛政协信息》86期，采用172条。其中，被全国政协、省政协和市委采用19条，市委领导批示10条，有效发挥了政协信息“直通车”的作用。 四、以团结和民主为主题，促进社会和谐 注重发挥各党派、团体作用。高度重视各党派、团体和无党派人士提出的意见和建议；在政协全体会议、专题常委会议上注重安排其代表发言；以专委会为依托，邀请各党派、团体联合开展调研、视察等履职活动。一年来，各民主党派、工商联，人民团体共提交集体提案92件，提供反映社情民意信息295条，形成调研报告16篇，为推动我市经济社会发展出谋划策，贡献力量。 关心民族宗教事业发展。就我市少数民族地区发展情况进行专题调研，形成了《加快少数民族地区发展，进一步增进民族关系和谐》的调研报告，为促进少数民族地区发展献计出力。积极宣传民族宗教政策，注重发挥宗教界在促进社会和谐中的应有作用，多方呼吁和帮助解决宗教团体生产、生活中的实际困难。 重视港澳台侨工作。开展我市“三资”企业发展情况的调研，形成了《关于做好“十二五”期间招商引资发展规划的建议》；开展贯彻落实《中华人民共和国归侨侨眷保护法》及其《实施办法》情况的调研，形成了《关于我市贯彻落实〈归侨侨眷保护法〉及其〈实施办法〉情况的调研报告》；举办台海形势报告会；邀请省政协港澳委员来我市视察沿海经济带建设；通过走访、寄送贺卡、发送电子邮件、电话沟通等形式，联系和联谊归侨侨眷、台胞台属，进一步增进了与委员及其眷属的感情。 做好文史宣传工作。编辑出版了20余万字的文史图书《张学良与葫芦岛》；完成省政协《我与人民政协》的征文和《中国政协文史资料总目录》葫芦岛部分的编辑工作；参加央视科教频道《百科探秘》栏目，向世人展示了兴城古城的历史文化底蕴；加强与各大新闻媒体的合作，努力营造良好的宣传氛围。全年各新闻媒体共刊播宣传我市政协工作的稿件310余篇，扩大了我市政协工作的社会影响。 扩大对外对内的交流与合作。圆满完成了省政协有关工作会议的筹办任务；接待国家、各省、市政协领导来葫调研、考察102批、3100余人（次）；组织在葫省政协委员赴铁岭进行了异地视察活动；由市政协3位副主席带队，组成3个调研组分赴全市6个县（市）区开展政协工作调研，形成了《关于我市基层政协工作的调研报告》报送市委，为市委出台加强我市人民政协工作的意见提供了决策参考。 五、以健全活动机制为抓手，激发委员活力 搭建委员活动平台。为使换届后的新委员加深对政协知识的了解，于去年初举办两期委员培训班，对全体委员进行集中培训，市政协主要领导亲自授课；为便于有组织的开展委员活动，将市政协397名委员按界别和地域分成33个活动小组，并创造性地从市政协选出33名机关干部作为各小组联络员；为进一步发挥政协智囊作用，又于去年11月份成立了政协委员农林专家组；为加强对委员的服务和指导，在市委、市政府的大力支持下，成立了市政协委员工作委员会；在去年7月召开了发挥委员和参加单位作用工作会议，同时将市政协《关于发挥委员主体作用的意见》、《委员活动小组工作简则》等有关委员工作的10项制度以文件汇编的形式下发，激励委员牢记使命、热心履职。 活跃委员小组活动。各委员活动小组在组长及联络员的组织协调下，纷纷开展了各种形式的小组活动。经济界委员小组召开两次专题座谈会，形成了《关于打造企业文化，推广精细化管理的提案》；教育界委员小组围绕群众心理健康问题与专家教授进行了探讨交流；农林界委员小组开展了3次小组活动，分别开展了对兴城市龙滨农林种植有限公司和绥中滨海经济开发区的考察等活动；政法界委员小组开展了对我市禁毒工作的视察；党派界委员小组开展了多次集体学习讨论活动；驻连山区委员小组对区工商分局等4个行政部门进行了民主评议。一年来，各小组都开展了一至三次活动，许多活动成果以调研报告、提案和社情民意信息等形式得到了转化，委员们在小组活动中围绕履行政协三大职能，各展所长，热情高涨，生动诠释了人民政协界别特色的丰富内涵。 广泛开展社会公益活动。广大政协委员在活动中时刻不忘基层群众，活动的身影经常闪现在乡村、学校、养老院和贫困灾区等各个角落。开展“科技支农”活动，向农户无偿提供脱毒红薯种苗10万株，并送去有关科技书籍和生产物资；开展“送医、送药”大型义诊活动，为群众送去医疗设备及药品价值30多万元；开展“普法进校园”活动，举办“学校安全与预防犯罪问题”知识讲座，4000余名学生受益；开展捐资助学和“送课下乡”活动，帮助贫困地区中小学校改善办学条件。这些活动充分展现了全市广大政协委员心系民生、乐于奉献的良好精神风貌。 六、以落实省、市委政协工作会议精神为契机，加强自身建设 贯彻落实省、市委政协工作会议精神。认真学习贯彻省委政协工作会议精神，协助召开市委政协工作会议，组织5个典型发言材料。市委以文件形式出台了《中共葫芦岛市委关于进一步加强人民政协工作的意见》，《意见》从加强和改善党对人民政协工作的领导、重视吸纳政协建言献策成果、推动政协工作创新等8个方面提出25条要求，为今后我市政协工作指明了前进方向，提供了政策依据。 加强政协专委会建设。筹建各专委会组织机构，精选146名界别委员分别组成市政协各专门委员会。召开各专委会组成人员会议，制订各自《工作简则》。一年来，各专委会在加强与党政部门的沟通联系、组织开展各界别委员活动等方面发挥了重要作用。 提升机关干部素质。注重抓好政协机关干部专业知识和时事政治学习，举办了学习中共十七届五中全会精神专题讲座；优化机关干部队伍结构，先后提拔、调整县级领导7人，通过考试调入年轻干部4人；圆满完成机关党委换届工作；在全体机关干部职工中开展“创先争优”活动，促进了机关各项工作的开展；积极参加“我为‘十二五’规划献良策”活动，7篇论文获奖，政协机关获组织奖；在市政协机关内部开展了“我为政协发展献良策”活动，一些切实可行的意见和建议被采纳和实施，机关上下形成了群众乐于谏言、领导从谏如流的民主和谐风气。 各位委员、同志们，2010年是我市政协工作的一个丰收年，各项工作都迈上了新的台阶。这些成绩的取得，是中共葫芦岛市委加强领导和市人大、市政府及各部门大力支持的结果；是我市各民主党派、工商联，人民团体，无党派人士和广大政协委员共同努力的结果；也是上级政协正确指导、各县（市）区政协通力配合和社会各界密切协作的结果。在此，我代表市政协常委会表示衷心的感谢！ 回顾、总结过去一年的工作实践，我们对做好新时期人民政协工作有了更加深刻的认识和启迪，即：必须紧紧围绕党政工作大局，多出金点子，多办实在事，把服务发展、改善民生、促进和谐贯穿于政协工作的全过程；必须始终秉承履职为民的工作理念，把实现好、发展好、维护好最广大人民群众的根本利益作为政协工作的出发点和落脚点；必须充分发挥政协参加单位的骨干作用、委员的主体作用和政协机关工作者的联络服务作用，心往一处想，劲往一处使，汇聚成工作的强大合力；必须统筹运用市和县（市）区政协两支力量，以专委会为依托，以重大课题为纽带，努力做到上下联动，优势互补，信息共享；必须正确处理继承与创新的关系，在继承中发展，在发展中创新，使人民政协事业薪火相传，与时俱进。 在肯定成绩和总结经验的同时，我们还必须清醒地认识到，与新形势下党和人民的要求相比，与广大委员的期望相比，政协工作中还存在一些差距和不足。主要是：政协“三察（查）”工作和提案、信息的质量有待进一步提高，委员主体作用发挥的面不够宽泛，人民政协的民主监督、理论研究工作还比较薄弱，工作方式有待进一步改进，制度创新仍需进一步增强。对此，我们将在今后的工作中认真研究，努力探索。也真诚希望全体委员对常委会的工作提出宝贵意见，帮助我们把工作做得更好。 2011年工作安排 2011年，是贯彻落实中共十七届五中全会精神、实现我市全面发展振兴的关键一年。在新的一年里，市政协工作的总体思路是：坚持以邓小平理论和“三个代表”重要思想为指导，以科学发展观为统领，深入学习贯彻中共十七届五中全会、市委三届十四次全会和市委政协工作会议精神，努力做到政治协商有深度、民主监督有力度、参政议政有广度、自身建设有强度，为推进我市科学发展、创新发展、和谐发展作出新的贡献。 一、深入学习贯彻中共十七届五中全会精神，为推动我市经济又好又快发展建言献策 进一步统一思想和行动。去年12月，市委三届十四次全会暨全市经济工作会议深刻分析了当前我市经济发展面临的复杂形势，深入阐述了加快发展的重大机遇和有利条件，明确提出了今年我市经济社会发展的总体思路和主要任务。全市各级政协组织一定要把思想认识统一到中共十七届五中全会精神和市委的总体部署上来，把智慧和力量凝聚到保持经济社会又好又快发展上来，充分发挥人民政协战略性智库的优势，自觉围绕“转方式、调结构、稳增长、促改革、惠民生”的要求，选择相关课题，通过政协全体会议集中协商、常委会议专题协商、主席会议重点协商、专委会对口协商，集思广益，努力创造一系列给力我市经济、政治、文化、社会建设的思想产品和智慧成果。开展我市现代服务业的专题调研。摸清我市现代服务业的发展现状和潜力，找出制约发展的主要症结，请专家学者把脉、支招，同时借鉴外地先进经验，形成高质量的建言成果，在市政协四届七次常委会议上进行协商讨论。此外，还要对我市战略性新兴产业发展等问题进行调研，为加快我市全面振兴和开发开放进程建睿智之言、献发展良策。围绕市政协“十二五”规划调研成果的落实情况开展跟踪视察。重点围绕我市现代农业发展、12个“主题概念”园区建设、重大招商引资项目落实等事关我市经济发展的长远问题，组织委员开展各种形式的视察活动，助推我市“十二五”开好局、起好步。 二、高度关注和促进民生改善，加大民主监督力度 针对我市社会事业热点问题开展调研。为使群众享受到安全、可靠、方便、价廉的医疗卫生服务，组织委员就我市医药卫生体制改革问题进行专题调研，在市政协四届六次常委会议上进行协商讨论。同时，还要就如何改进锦葫路两侧的脏乱差问题组织开展调研，提出治理方案；围绕我市贯彻落实《全民健身条例》、开展全民健身活动情况进行社会调查，促进相关问题解决；围绕我市社区建设情况开展专题调研、视察，促进社区功能完善，发挥社区在维护社会稳定、增进社会和谐、提升城市品位中的基础作用。组织开展事关民生问题的一系列视察活动。对上年度市政协职业教育调研成果、城市供水管网改扩建工程、城市供暖情况、法院执行工作、城市交通堵塞、人口与计划生育工作和城市“三河”治理情况进行跟踪视察，提出改进意见和建议。 开展我市软环境建设情况专题民主评议。从评议行政机关的行政服务、行政决议、行政审批、行政监管、行政处罚等行政行为及司法机关的司法行为入手，通过发放调查问卷、走访、座谈等形式，对我市的政府诚信、依法行政、公正文明执法、司法等情况进行深层次的调研、视察和评议，促进我市经济发展的政务、政策、法制等软环境进一步改善。有效发挥政协民主监督小组和监督员的作用。加强对政协民主监督员的培训工作，了解被监督部门工作业务，做到敢于监督、善于监督。每个监督小组每年至少要结合被监督单位重点工作，确定一个监督课题组织开展监督活动；每个监督员至少提出一条有价值的意见和建议，增强政协民主监督实效。加强政协民主监督制度化建设。促进政协民主监督与党政监督、舆论监督的有机结合。制定《关于完善人民政协民主监督工作机制的规定》，总结民主监督工作的成熟作法，完善制度，创新机制，推进民主监督工作规范有序运行。 三、彰显政协界别和人才优势，强化反映社情民意工作 全面提高提案工作质量。通过为政协参加单位和委员印发学习资料，组织专题座谈、参观、视察和考察等活动，帮助委员知情明政，为委员提出高质量提案创造条件；坚持全会上初审、会后二审、最后集中讨论定审的“三审”立案制度，做到数量与质量并重；坚持办理与落实同步、服务与引导相辅，加大督办工作力度，为多出精品提案、实效提案创造条件。 大力做好反映社情民意信息工作。召开全市政协反映社情民意信息工作会议；制定实施《市政协委员社情民意约谈会实施办法》；开展社情民意信息培训工作，规范报送流程；做好全年信息征集、编辑、上报、反馈、通报等工作，推动政协反映社情民意信息工作实现新的跨越。 不断加大政协工作宣传力度。充分发挥政协文史资料工作“存史、资政、团结、育人”的社会作用，深入挖掘和整合全市文化资源；进一步加强政协新闻宣传工作，充分发挥报刊、广播、电视、互联网等媒体和市政协网站的作用，大力宣传我市政协事业的新进展、新成果及广大政协委员履行职能的新实践、新创造，营造全社会关心支持政协事业发展的新局面。 四、积极协调社会关系，推进和谐葫芦岛建设 加强同各民主党派、工商联，人民团体和无党派人士的联系与协作。支持和重视各民主党派、工商联，人民团体和无党派人士开展“三察（查）”活动，积极提出提案和反映社情民意信息，让他们在政协的舞台上大显神通，畅所欲言，提出真知灼见。 认真做好民族宗教工作。大力宣传党和国家的民族宗教政策，围绕民族乡特色经济发展与市人大联合开展调研；组织宗教界委员开展“为促进社会和谐作贡献”的主题活动，关心宗教教职人员生活，协助党委和政府做好民族宗教工作。 切实做好港澳台侨工作。开展对我市招商引资工作的跟踪视察和对在葫生活、工作外国专家、学者基本情况的调研，促进我市“引资”、“借智”工作的开展；坚持运用走访慰问、中秋联谊等多种形式加强与港澳同胞、台湾同胞和海外侨胞及眷属的沟通联系。 五、充分发挥委员主体作用，增强政协履职实效 依托专委会组织委员开展活动。各专委会作为政协经常性工作和活动的主要组织者和承办者，要注重与委员的联系沟通，积极做好接待和走访委员工作，畅通委员意见和建议反映渠道，完善采纳和反馈机制，为委员参加活动提供便利。 突出界别的特色作用。探索发挥界别作用的方法和途径，不断丰富界别的活动形式；政协各种会议的分组及发言等，要突出界别的特点；要注重按照界别组织委员开展调研、视察和其他活动。 积极开展“五个一”活动。号召全体委员每人每年至少开展一次调研、撰写一份提案、参加一次委员小组活动、反映一则社情民意信息、办一件好事。各级政协机关要积极为委员活动创造条件，提供服务。 开展各具特色的委员小组活动。以委员小组为载体，开展形式多样的履职活动、联谊活动和社会公益活动；召开委员活动小组组长座谈会议，交流经验，推动工作；充分发挥小组长、小组联络员的作用，形成委员活动的“雁阵效应”，塑造政协委员的良好社会形象。 做好评先选优工作。到今年底，对委员两年来参与政协各种活动的情况进行一次综合考评，在四届三次全会上对届中优秀政协委员、优秀政协提案工作者、优秀民主监督员、优秀信息员、优秀政协宣传工作者、优秀委员活动小组组长和优秀调研报告进行表彰，以激励先进，鞭策后进，掀起委员人人奋进、个个争先的履职热潮。 六、加强自身建设，提高政协工作的科学化水平 不断增强政协工作的创新力。创新是增强人民政协工作活力的不竭源泉和动力。要适应新形势发展需要，从有利于政协工作的长远视角出发，实现工作理念创新、载体创新和机制创新。要深入贯彻市委政协工作会议精神，加强检查落实，着力把握人民政协服务科学发展的规律和实现自身科学发展的规律，不断推动我市政协工作再上新台阶，提升新境界。 加强政协文化建设。以构建学习型政协为目的，认真组织对市场经济、政治、法律和政协知识的学习，更好地发挥理论对实践的指导作用。在政协机关要以开展“创先争优”活动为载体，以庆祝建党90周年为契机，制定具体实施方案，定期组织开展专题辅导、理论研讨等形式多样的学习活动，打造“书香政协”、“文化政协”。推动政协“三化”建设进程。对以往市政协制定出台的各项规章制度重新进行修订、完善；建立健全与履行政协职能相配套的有关会议、调研、视察、提案、反映社情民意信息、机关建设等各项制度，重点修改完善政协委员、委员活动小组、政协参加单位的综合考核制度。 积极倡导“电子政务”。鼓励广大政协委员和政协工作者学习、掌握和应用现代网络、传媒技术，提高工作和办事效率；加强各级政协机关现代化基础设施建设，借助现代科学方法和信息网络技术开展机关工作，适应信息时代要求；充分发挥政协网站作用，使其成为一个集办公、交流和宣传为一体的综合平台，网传政情，网聚智慧，网达民意。 全面提高队伍履职能力。广大政协委员和政协机关工作者要牢固树立全局观念和服务意识，不断提高参政议政能力和政务性服务能力，切实增强工作的责任感和使命感，全身心投入人民政协事业，以坚定的信仰、优良的作风、丰富的学识、熟练的业务，抓一流服务，干一流工作，创一流业绩。 各位委员、同志们，我们刚刚步入21世纪的第二个10年，也迎来了我市大开发、大开放、大发展的重要战略机遇期。面对新形势、新机遇，人民政协工作舞台更广阔，征程更美好，前景更灿烂。让我们在中共葫芦岛市委的领导下，振奋精神，勇于创新，为实现我市“十二五”良好开局，为构建和谐文明的新葫芦岛，为创造全市人民的幸福生活而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>47</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>全面落实科学发展观共同构建和谐葫芦岛为推动我市经济社会事业全面振兴做出新贡献</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2007-01-31</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://www.hld.gov.cn/xwdt/zwyw/200701/t20070131_180305.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['全面落实科学发展观 共同构建和谐葫芦岛为推动我市经济社会事业全面振兴做出新贡献_葫芦岛市人民政府', '各位委员、同志们： 我受政协葫芦岛市第三届委员会常务委员会委托，向大会报告工作，请予审议，并请列席会议的同志提出意见。 2006年工作回顾 2006年，是“十一五”规划实施的开局之年，是我市全力推进“三点一线”沿海开发开放、构建社会主义和谐社会和加强新农村建设卓有成效的一年，也是市政协工作开拓创新、取得显著成绩的一年。一年来，市政协常委会在中共葫芦岛市委的正确领导和市政府的大力支持下，坚持以邓小平理论和“三个代表”重要思想为指导，全面落实科学发展观，深入贯彻中共十六届五中、六中全会和市第三次党代会精神，紧紧依靠政协各参加单位和广大政协委员，牢牢把握团结和民主两大主题，围绕中心，服务大局，切实履行职能，圆满完成了本届政协二次全会预定的各项任务，为促进全市改革发展稳定做出了积极贡献。 一、着眼全局和中心工作，参政协商取得突出成果 始终围绕党政全局和中心工作，抓住事关葫芦岛经济社会发展具有全局性、战略性和前瞻性的重大课题，深入开展调查研究和协商议政。一年来，市政协共组织开展了经济、文化、教育、医疗、城建等16个课题的专题调研活动，形成调研报告和分课题报告21份，提出意见和建议90多条。在2006年4月召开的全市调研工作会议上，被中共葫芦岛市委授予调研工作“先进集体”称号。广泛深入的专题调研活动，不仅有利于党政科学民主决策，也是对党政重大决策深化认识、达成社会共识的过程，收到了一举多得的功效。 大力开展临港经济调研。这是市政协认真落实市第三次党代会提出的“三点一线” 沿海开发开放重大战略决策选择的重要调研课题。年初就召开主席会议精心谋划，及早部署，成立了由市民盟、市政协有关委（室）和市直相关部门组成的5个专题调研组，历时近7个月的时间，先后赴营口、锦州、秦皇岛3个市考察学习，深入我市“三点一线”进行实地调研。分别召开各类座谈会27次，向有关领导、专家咨询150余人次，查阅了大量资料。在此基础上，形成了关于加快港口建设、临港工业区建设、临港特色产业、港口物流业和实施人才支撑战略等5份专题调研报告初稿。为使调研报告能与全省“五点一线”全局相结合并能确保提出的意见和建议更具科学性、指导性和可操作性，又聘请省内9名高层专家学者予以论证、修改，最后形成了提交常委会审议的报告草案。9月份，召开三届七次政协常委会议，市委、市政府主要领导、分管领导和相关县（市）区、市直有关部门领导到会听取大会发言，进行专题协商。会上，市委书记陈晓琨同志做了重要讲话，对调研报告给予了充分肯定和高度评价。会后，又对5 份调研报告作出重要批示，要求以市委文件转发。为各级党政领导科学决策提供了重要参考依据，对加快我市临港经济发展起到了有力的促进作用。 深入进行新型农村合作医疗制度实施情况的调研。为切实使这项事关全市190多万农民切身利益和福祉的德政工程健康、持久地开展下去，市政协组织专门力量，深入基层，进行了历时3个多月广泛细致的调查研究，形成了《发展新型农村合作医疗，促进社会主义新农村建设》的调研报告草案。7月份，召开市政协三届六次常委会议，进行试点经验交流和专题协商，请市、县（市）区政府和市直有关部门主要领导参加会议，听取大会发言。会上，市长孙兆林同志在充分肯定调研成果的基础上，对如何落实讲了重要的意见。会后，形成专题《建议》，报送市委和市政府，市委主要领导作出重要批示，并以市委文件转发，《建议》得到了高度重视和积极采纳。 此外，市政协还就我市循环经济发展、优化软环境建设先进典型、城镇化建设、农民工权益保障等党政关注、群众关心的问题开展调研、视察活动，形成调研、视察报告后，有的报送市委和市政府；有的通过专委会积极开展与政府职能部门的对口协商，为加快我市经济社会事业全面振兴献计出力。 二、积极维护群众切身利益，民主监督实现新突破 注意围绕国计民生，特别是与人民群众切身利益相关的社会热点、难点问题积极开展民主监督。全年，市政协共组织开展食品安全、残疾人就业、劳动教养所管理、网吧管理和冬季采暖等视察、无']</t>
         </is>
